--- a/QC_QNU_Training_Progress.xlsx
+++ b/QC_QNU_Training_Progress.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\training\QNU training\QC_Training_2019_01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Internship\GIT_Training\QC_Training_2019_01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -236,7 +236,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mmmm\ d&quot;, &quot;yyyy;@"/>
   </numFmts>
@@ -830,7 +830,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1006,63 +1006,8 @@
     <xf numFmtId="0" fontId="18" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1081,6 +1026,12 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1096,13 +1047,59 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
@@ -1411,13 +1408,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="126" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
     </row>
     <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
@@ -1583,84 +1580,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="100" t="s">
+      <c r="B5" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="101" t="s">
+      <c r="C5" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="102" t="s">
+      <c r="D5" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="100" t="s">
+      <c r="E5" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="103" t="s">
+      <c r="F5" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="103"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="103"/>
-      <c r="J5" s="103"/>
-      <c r="K5" s="103"/>
-      <c r="L5" s="103"/>
-      <c r="M5" s="103"/>
-      <c r="N5" s="103"/>
-      <c r="O5" s="103"/>
-      <c r="P5" s="103"/>
-      <c r="Q5" s="103"/>
-      <c r="R5" s="103"/>
-      <c r="S5" s="103"/>
-      <c r="T5" s="103"/>
-      <c r="U5" s="103"/>
-      <c r="V5" s="103"/>
-      <c r="W5" s="103"/>
-      <c r="X5" s="103"/>
-      <c r="Y5" s="103"/>
-      <c r="Z5" s="103"/>
-      <c r="AA5" s="103"/>
-      <c r="AB5" s="103"/>
-      <c r="AC5" s="103"/>
-      <c r="AD5" s="103"/>
-      <c r="AE5" s="103"/>
-      <c r="AF5" s="103"/>
-      <c r="AG5" s="103"/>
-      <c r="AH5" s="103"/>
-      <c r="AI5" s="103"/>
-      <c r="AJ5" s="103"/>
-      <c r="AK5" s="103"/>
-      <c r="AL5" s="103"/>
-      <c r="AM5" s="103"/>
-      <c r="AN5" s="103"/>
-      <c r="AO5" s="103"/>
-      <c r="AP5" s="103"/>
-      <c r="AQ5" s="103"/>
-      <c r="AR5" s="103"/>
-      <c r="AS5" s="103"/>
-      <c r="AT5" s="103"/>
-      <c r="AU5" s="103"/>
-      <c r="AV5" s="103"/>
-      <c r="AW5" s="103"/>
-      <c r="AX5" s="103"/>
-      <c r="AY5" s="103"/>
-      <c r="AZ5" s="103"/>
-      <c r="BA5" s="103"/>
-      <c r="BB5" s="103"/>
-      <c r="BC5" s="103"/>
-      <c r="BD5" s="103"/>
-      <c r="BE5" s="103"/>
-      <c r="BF5" s="103"/>
-      <c r="BG5" s="103"/>
-      <c r="BH5" s="103"/>
-      <c r="BI5" s="103"/>
-      <c r="BJ5" s="103"/>
-      <c r="BK5" s="103"/>
-      <c r="BL5" s="103"/>
-      <c r="BM5" s="103"/>
-      <c r="BN5" s="106" t="s">
+      <c r="G5" s="129"/>
+      <c r="H5" s="129"/>
+      <c r="I5" s="129"/>
+      <c r="J5" s="129"/>
+      <c r="K5" s="129"/>
+      <c r="L5" s="129"/>
+      <c r="M5" s="129"/>
+      <c r="N5" s="129"/>
+      <c r="O5" s="129"/>
+      <c r="P5" s="129"/>
+      <c r="Q5" s="129"/>
+      <c r="R5" s="129"/>
+      <c r="S5" s="129"/>
+      <c r="T5" s="129"/>
+      <c r="U5" s="129"/>
+      <c r="V5" s="129"/>
+      <c r="W5" s="129"/>
+      <c r="X5" s="129"/>
+      <c r="Y5" s="129"/>
+      <c r="Z5" s="129"/>
+      <c r="AA5" s="129"/>
+      <c r="AB5" s="129"/>
+      <c r="AC5" s="129"/>
+      <c r="AD5" s="129"/>
+      <c r="AE5" s="129"/>
+      <c r="AF5" s="129"/>
+      <c r="AG5" s="129"/>
+      <c r="AH5" s="129"/>
+      <c r="AI5" s="129"/>
+      <c r="AJ5" s="129"/>
+      <c r="AK5" s="129"/>
+      <c r="AL5" s="129"/>
+      <c r="AM5" s="129"/>
+      <c r="AN5" s="129"/>
+      <c r="AO5" s="129"/>
+      <c r="AP5" s="129"/>
+      <c r="AQ5" s="129"/>
+      <c r="AR5" s="129"/>
+      <c r="AS5" s="129"/>
+      <c r="AT5" s="129"/>
+      <c r="AU5" s="129"/>
+      <c r="AV5" s="129"/>
+      <c r="AW5" s="129"/>
+      <c r="AX5" s="129"/>
+      <c r="AY5" s="129"/>
+      <c r="AZ5" s="129"/>
+      <c r="BA5" s="129"/>
+      <c r="BB5" s="129"/>
+      <c r="BC5" s="129"/>
+      <c r="BD5" s="129"/>
+      <c r="BE5" s="129"/>
+      <c r="BF5" s="129"/>
+      <c r="BG5" s="129"/>
+      <c r="BH5" s="129"/>
+      <c r="BI5" s="129"/>
+      <c r="BJ5" s="129"/>
+      <c r="BK5" s="129"/>
+      <c r="BL5" s="129"/>
+      <c r="BM5" s="129"/>
+      <c r="BN5" s="123" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="100" t="s">
+      <c r="BO5" s="124" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -1669,107 +1666,107 @@
       <c r="BU5" s="94"/>
     </row>
     <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="100"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="104" t="s">
+      <c r="B6" s="124"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="124"/>
+      <c r="F6" s="125" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="104"/>
-      <c r="H6" s="104"/>
-      <c r="I6" s="104"/>
-      <c r="J6" s="104"/>
-      <c r="K6" s="104" t="s">
+      <c r="G6" s="125"/>
+      <c r="H6" s="125"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="125"/>
+      <c r="K6" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="104"/>
-      <c r="M6" s="104"/>
-      <c r="N6" s="104"/>
-      <c r="O6" s="104"/>
-      <c r="P6" s="104" t="s">
+      <c r="L6" s="125"/>
+      <c r="M6" s="125"/>
+      <c r="N6" s="125"/>
+      <c r="O6" s="125"/>
+      <c r="P6" s="125" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="104"/>
-      <c r="R6" s="104"/>
-      <c r="S6" s="104"/>
-      <c r="T6" s="104"/>
-      <c r="U6" s="104" t="s">
+      <c r="Q6" s="125"/>
+      <c r="R6" s="125"/>
+      <c r="S6" s="125"/>
+      <c r="T6" s="125"/>
+      <c r="U6" s="125" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="104"/>
-      <c r="W6" s="104"/>
-      <c r="X6" s="104"/>
-      <c r="Y6" s="104"/>
-      <c r="Z6" s="104" t="s">
+      <c r="V6" s="125"/>
+      <c r="W6" s="125"/>
+      <c r="X6" s="125"/>
+      <c r="Y6" s="125"/>
+      <c r="Z6" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="104"/>
-      <c r="AB6" s="104"/>
-      <c r="AC6" s="104"/>
-      <c r="AD6" s="104"/>
-      <c r="AE6" s="104" t="s">
+      <c r="AA6" s="125"/>
+      <c r="AB6" s="125"/>
+      <c r="AC6" s="125"/>
+      <c r="AD6" s="125"/>
+      <c r="AE6" s="125" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="104"/>
-      <c r="AG6" s="104"/>
-      <c r="AH6" s="104"/>
-      <c r="AI6" s="104"/>
-      <c r="AJ6" s="104" t="s">
+      <c r="AF6" s="125"/>
+      <c r="AG6" s="125"/>
+      <c r="AH6" s="125"/>
+      <c r="AI6" s="125"/>
+      <c r="AJ6" s="125" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="104"/>
-      <c r="AL6" s="104"/>
-      <c r="AM6" s="104"/>
-      <c r="AN6" s="104"/>
-      <c r="AO6" s="104" t="s">
+      <c r="AK6" s="125"/>
+      <c r="AL6" s="125"/>
+      <c r="AM6" s="125"/>
+      <c r="AN6" s="125"/>
+      <c r="AO6" s="125" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="104"/>
-      <c r="AQ6" s="104"/>
-      <c r="AR6" s="104"/>
-      <c r="AS6" s="104"/>
-      <c r="AT6" s="104" t="s">
+      <c r="AP6" s="125"/>
+      <c r="AQ6" s="125"/>
+      <c r="AR6" s="125"/>
+      <c r="AS6" s="125"/>
+      <c r="AT6" s="125" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="104"/>
-      <c r="AV6" s="104"/>
-      <c r="AW6" s="104"/>
-      <c r="AX6" s="104"/>
-      <c r="AY6" s="104" t="s">
+      <c r="AU6" s="125"/>
+      <c r="AV6" s="125"/>
+      <c r="AW6" s="125"/>
+      <c r="AX6" s="125"/>
+      <c r="AY6" s="125" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="104"/>
-      <c r="BA6" s="104"/>
-      <c r="BB6" s="104"/>
-      <c r="BC6" s="104"/>
-      <c r="BD6" s="104" t="s">
+      <c r="AZ6" s="125"/>
+      <c r="BA6" s="125"/>
+      <c r="BB6" s="125"/>
+      <c r="BC6" s="125"/>
+      <c r="BD6" s="125" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="104"/>
-      <c r="BF6" s="104"/>
-      <c r="BG6" s="104"/>
-      <c r="BH6" s="104"/>
-      <c r="BI6" s="105" t="s">
+      <c r="BE6" s="125"/>
+      <c r="BF6" s="125"/>
+      <c r="BG6" s="125"/>
+      <c r="BH6" s="125"/>
+      <c r="BI6" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="105"/>
-      <c r="BK6" s="105"/>
-      <c r="BL6" s="105"/>
-      <c r="BM6" s="105"/>
-      <c r="BN6" s="106"/>
-      <c r="BO6" s="100"/>
+      <c r="BJ6" s="130"/>
+      <c r="BK6" s="130"/>
+      <c r="BL6" s="130"/>
+      <c r="BM6" s="130"/>
+      <c r="BN6" s="123"/>
+      <c r="BO6" s="124"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="118" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="107"/>
-      <c r="E7" s="108"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="119"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -2794,12 +2791,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="107"/>
+      <c r="B8" s="118"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="107"/>
-      <c r="E8" s="109"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="116"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -3823,14 +3820,14 @@
       <c r="AML8" s="23"/>
     </row>
     <row r="9" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="110" t="s">
+      <c r="B9" s="114" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="111"/>
-      <c r="E9" s="112"/>
+      <c r="D9" s="115"/>
+      <c r="E9" s="120"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
       <c r="H9" s="83"/>
@@ -4854,12 +4851,12 @@
       <c r="AML9" s="21"/>
     </row>
     <row r="10" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B10" s="110"/>
+      <c r="B10" s="114"/>
       <c r="C10" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="111"/>
-      <c r="E10" s="113"/>
+      <c r="D10" s="115"/>
+      <c r="E10" s="121"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -5883,12 +5880,12 @@
       <c r="AML10" s="21"/>
     </row>
     <row r="11" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="110"/>
+      <c r="B11" s="114"/>
       <c r="C11" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="111"/>
-      <c r="E11" s="113"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="121"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -6912,12 +6909,12 @@
       <c r="AML11" s="21"/>
     </row>
     <row r="12" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="110"/>
+      <c r="B12" s="114"/>
       <c r="C12" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="111"/>
-      <c r="E12" s="114"/>
+      <c r="D12" s="115"/>
+      <c r="E12" s="122"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -6982,14 +6979,14 @@
       <c r="BO12" s="31"/>
     </row>
     <row r="13" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B13" s="110" t="s">
+      <c r="B13" s="114" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="111"/>
-      <c r="E13" s="109"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="116"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -7054,12 +7051,12 @@
       <c r="BO13" s="20"/>
     </row>
     <row r="14" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B14" s="110"/>
+      <c r="B14" s="114"/>
       <c r="C14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="111"/>
-      <c r="E14" s="109"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="116"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -7124,12 +7121,12 @@
       <c r="BO14" s="31"/>
     </row>
     <row r="15" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="110"/>
+      <c r="B15" s="114"/>
       <c r="C15" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="111"/>
-      <c r="E15" s="109"/>
+      <c r="D15" s="115"/>
+      <c r="E15" s="116"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -7194,12 +7191,12 @@
       <c r="BO15" s="31"/>
     </row>
     <row r="16" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B16" s="110"/>
+      <c r="B16" s="114"/>
       <c r="C16" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="111"/>
-      <c r="E16" s="109"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="116"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -7264,12 +7261,12 @@
       <c r="BO16" s="31"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B17" s="110"/>
+      <c r="B17" s="114"/>
       <c r="C17" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="111"/>
-      <c r="E17" s="109"/>
+      <c r="D17" s="115"/>
+      <c r="E17" s="116"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -7334,12 +7331,12 @@
       <c r="BO17" s="31"/>
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B18" s="110"/>
+      <c r="B18" s="114"/>
       <c r="C18" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="111"/>
-      <c r="E18" s="109"/>
+      <c r="D18" s="115"/>
+      <c r="E18" s="116"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -7404,12 +7401,12 @@
       <c r="BO18" s="31"/>
     </row>
     <row r="19" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B19" s="110"/>
+      <c r="B19" s="114"/>
       <c r="C19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="111"/>
-      <c r="E19" s="109"/>
+      <c r="D19" s="115"/>
+      <c r="E19" s="116"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -7474,14 +7471,14 @@
       <c r="BO19" s="27"/>
     </row>
     <row r="20" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B20" s="115" t="s">
+      <c r="B20" s="117" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="107"/>
-      <c r="E20" s="116"/>
+      <c r="D20" s="118"/>
+      <c r="E20" s="107"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -7546,12 +7543,12 @@
       <c r="BO20" s="20"/>
     </row>
     <row r="21" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B21" s="115"/>
+      <c r="B21" s="117"/>
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="107"/>
-      <c r="E21" s="117"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="108"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -7616,12 +7613,12 @@
       <c r="BO21" s="31"/>
     </row>
     <row r="22" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B22" s="115"/>
+      <c r="B22" s="117"/>
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="107"/>
-      <c r="E22" s="117"/>
+      <c r="D22" s="118"/>
+      <c r="E22" s="108"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -7686,12 +7683,12 @@
       <c r="BO22" s="31"/>
     </row>
     <row r="23" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B23" s="115"/>
+      <c r="B23" s="117"/>
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="107"/>
-      <c r="E23" s="117"/>
+      <c r="D23" s="118"/>
+      <c r="E23" s="108"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -7756,12 +7753,12 @@
       <c r="BO23" s="31"/>
     </row>
     <row r="24" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B24" s="115"/>
+      <c r="B24" s="117"/>
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="107"/>
-      <c r="E24" s="117"/>
+      <c r="D24" s="118"/>
+      <c r="E24" s="108"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -7826,14 +7823,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="120" t="s">
+      <c r="B25" s="103" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="123"/>
-      <c r="E25" s="116"/>
+      <c r="D25" s="106"/>
+      <c r="E25" s="107"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -7898,12 +7895,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="121"/>
+      <c r="B26" s="104"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="123"/>
-      <c r="E26" s="117"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="108"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -7968,12 +7965,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="121"/>
+      <c r="B27" s="104"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="123"/>
-      <c r="E27" s="117"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="108"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -8038,12 +8035,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="121"/>
+      <c r="B28" s="104"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="123"/>
-      <c r="E28" s="117"/>
+      <c r="D28" s="106"/>
+      <c r="E28" s="108"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -8108,12 +8105,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="122"/>
+      <c r="B29" s="105"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="123"/>
-      <c r="E29" s="124"/>
+      <c r="D29" s="106"/>
+      <c r="E29" s="109"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -8250,10 +8247,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="125"/>
-      <c r="C31" s="116"/>
-      <c r="D31" s="128"/>
-      <c r="E31" s="125"/>
+      <c r="B31" s="110"/>
+      <c r="C31" s="107"/>
+      <c r="D31" s="113"/>
+      <c r="E31" s="110"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -8318,10 +8315,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="126"/>
-      <c r="C32" s="117"/>
-      <c r="D32" s="128"/>
-      <c r="E32" s="126"/>
+      <c r="B32" s="111"/>
+      <c r="C32" s="108"/>
+      <c r="D32" s="113"/>
+      <c r="E32" s="111"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -8386,10 +8383,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="126"/>
-      <c r="C33" s="117"/>
-      <c r="D33" s="128"/>
-      <c r="E33" s="126"/>
+      <c r="B33" s="111"/>
+      <c r="C33" s="108"/>
+      <c r="D33" s="113"/>
+      <c r="E33" s="111"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -8454,10 +8451,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="126"/>
-      <c r="C34" s="117"/>
-      <c r="D34" s="128"/>
-      <c r="E34" s="126"/>
+      <c r="B34" s="111"/>
+      <c r="C34" s="108"/>
+      <c r="D34" s="113"/>
+      <c r="E34" s="111"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -8522,10 +8519,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="126"/>
-      <c r="C35" s="117"/>
-      <c r="D35" s="128"/>
-      <c r="E35" s="126"/>
+      <c r="B35" s="111"/>
+      <c r="C35" s="108"/>
+      <c r="D35" s="113"/>
+      <c r="E35" s="111"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -8590,10 +8587,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="126"/>
-      <c r="C36" s="117"/>
-      <c r="D36" s="128"/>
-      <c r="E36" s="126"/>
+      <c r="B36" s="111"/>
+      <c r="C36" s="108"/>
+      <c r="D36" s="113"/>
+      <c r="E36" s="111"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -8658,10 +8655,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="126"/>
-      <c r="C37" s="117"/>
-      <c r="D37" s="128"/>
-      <c r="E37" s="126"/>
+      <c r="B37" s="111"/>
+      <c r="C37" s="108"/>
+      <c r="D37" s="113"/>
+      <c r="E37" s="111"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -8726,10 +8723,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="126"/>
-      <c r="C38" s="117"/>
-      <c r="D38" s="128"/>
-      <c r="E38" s="126"/>
+      <c r="B38" s="111"/>
+      <c r="C38" s="108"/>
+      <c r="D38" s="113"/>
+      <c r="E38" s="111"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -8794,10 +8791,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="126"/>
-      <c r="C39" s="117"/>
-      <c r="D39" s="128"/>
-      <c r="E39" s="126"/>
+      <c r="B39" s="111"/>
+      <c r="C39" s="108"/>
+      <c r="D39" s="113"/>
+      <c r="E39" s="111"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -8862,10 +8859,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="126"/>
-      <c r="C40" s="117"/>
-      <c r="D40" s="128"/>
-      <c r="E40" s="126"/>
+      <c r="B40" s="111"/>
+      <c r="C40" s="108"/>
+      <c r="D40" s="113"/>
+      <c r="E40" s="111"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -8930,10 +8927,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="126"/>
-      <c r="C41" s="117"/>
-      <c r="D41" s="128"/>
-      <c r="E41" s="126"/>
+      <c r="B41" s="111"/>
+      <c r="C41" s="108"/>
+      <c r="D41" s="113"/>
+      <c r="E41" s="111"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -8998,10 +8995,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="126"/>
-      <c r="C42" s="117"/>
-      <c r="D42" s="128"/>
-      <c r="E42" s="126"/>
+      <c r="B42" s="111"/>
+      <c r="C42" s="108"/>
+      <c r="D42" s="113"/>
+      <c r="E42" s="111"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -9066,10 +9063,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="126"/>
-      <c r="C43" s="117"/>
-      <c r="D43" s="128"/>
-      <c r="E43" s="126"/>
+      <c r="B43" s="111"/>
+      <c r="C43" s="108"/>
+      <c r="D43" s="113"/>
+      <c r="E43" s="111"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -9134,10 +9131,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="126"/>
-      <c r="C44" s="117"/>
-      <c r="D44" s="128"/>
-      <c r="E44" s="126"/>
+      <c r="B44" s="111"/>
+      <c r="C44" s="108"/>
+      <c r="D44" s="113"/>
+      <c r="E44" s="111"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -9202,10 +9199,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="126"/>
-      <c r="C45" s="117"/>
-      <c r="D45" s="128"/>
-      <c r="E45" s="126"/>
+      <c r="B45" s="111"/>
+      <c r="C45" s="108"/>
+      <c r="D45" s="113"/>
+      <c r="E45" s="111"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -9270,10 +9267,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="126"/>
-      <c r="C46" s="117"/>
-      <c r="D46" s="128"/>
-      <c r="E46" s="126"/>
+      <c r="B46" s="111"/>
+      <c r="C46" s="108"/>
+      <c r="D46" s="113"/>
+      <c r="E46" s="111"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -9338,10 +9335,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="126"/>
-      <c r="C47" s="117"/>
-      <c r="D47" s="128"/>
-      <c r="E47" s="126"/>
+      <c r="B47" s="111"/>
+      <c r="C47" s="108"/>
+      <c r="D47" s="113"/>
+      <c r="E47" s="111"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -9406,10 +9403,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="126"/>
-      <c r="C48" s="117"/>
-      <c r="D48" s="128"/>
-      <c r="E48" s="126"/>
+      <c r="B48" s="111"/>
+      <c r="C48" s="108"/>
+      <c r="D48" s="113"/>
+      <c r="E48" s="111"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -9474,10 +9471,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="126"/>
-      <c r="C49" s="117"/>
-      <c r="D49" s="128"/>
-      <c r="E49" s="126"/>
+      <c r="B49" s="111"/>
+      <c r="C49" s="108"/>
+      <c r="D49" s="113"/>
+      <c r="E49" s="111"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -9542,10 +9539,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="126"/>
-      <c r="C50" s="117"/>
-      <c r="D50" s="128"/>
-      <c r="E50" s="126"/>
+      <c r="B50" s="111"/>
+      <c r="C50" s="108"/>
+      <c r="D50" s="113"/>
+      <c r="E50" s="111"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -9610,10 +9607,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="126"/>
-      <c r="C51" s="117"/>
-      <c r="D51" s="128"/>
-      <c r="E51" s="126"/>
+      <c r="B51" s="111"/>
+      <c r="C51" s="108"/>
+      <c r="D51" s="113"/>
+      <c r="E51" s="111"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -9678,10 +9675,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="126"/>
-      <c r="C52" s="117"/>
-      <c r="D52" s="128"/>
-      <c r="E52" s="126"/>
+      <c r="B52" s="111"/>
+      <c r="C52" s="108"/>
+      <c r="D52" s="113"/>
+      <c r="E52" s="111"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -9746,10 +9743,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="126"/>
-      <c r="C53" s="117"/>
-      <c r="D53" s="128"/>
-      <c r="E53" s="126"/>
+      <c r="B53" s="111"/>
+      <c r="C53" s="108"/>
+      <c r="D53" s="113"/>
+      <c r="E53" s="111"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -9814,10 +9811,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="126"/>
-      <c r="C54" s="117"/>
-      <c r="D54" s="128"/>
-      <c r="E54" s="126"/>
+      <c r="B54" s="111"/>
+      <c r="C54" s="108"/>
+      <c r="D54" s="113"/>
+      <c r="E54" s="111"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -9882,10 +9879,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="126"/>
-      <c r="C55" s="117"/>
-      <c r="D55" s="128"/>
-      <c r="E55" s="126"/>
+      <c r="B55" s="111"/>
+      <c r="C55" s="108"/>
+      <c r="D55" s="113"/>
+      <c r="E55" s="111"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -9950,10 +9947,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="126"/>
-      <c r="C56" s="117"/>
-      <c r="D56" s="128"/>
-      <c r="E56" s="126"/>
+      <c r="B56" s="111"/>
+      <c r="C56" s="108"/>
+      <c r="D56" s="113"/>
+      <c r="E56" s="111"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -10018,10 +10015,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="126"/>
-      <c r="C57" s="117"/>
-      <c r="D57" s="128"/>
-      <c r="E57" s="126"/>
+      <c r="B57" s="111"/>
+      <c r="C57" s="108"/>
+      <c r="D57" s="113"/>
+      <c r="E57" s="111"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -10081,10 +10078,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="127"/>
-      <c r="C58" s="124"/>
-      <c r="D58" s="128"/>
-      <c r="E58" s="127"/>
+      <c r="B58" s="112"/>
+      <c r="C58" s="109"/>
+      <c r="D58" s="113"/>
+      <c r="E58" s="112"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -10149,7 +10146,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="118" t="s">
+      <c r="B59" s="101" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -10221,7 +10218,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="118"/>
+      <c r="B60" s="101"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -10291,7 +10288,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="119" t="s">
+      <c r="B61" s="102" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -10363,7 +10360,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="119"/>
+      <c r="B62" s="102"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -10431,7 +10428,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="119"/>
+      <c r="B63" s="102"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -10640,27 +10637,16 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="E31:E58"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:BM5"/>
+    <mergeCell ref="AT6:AX6"/>
+    <mergeCell ref="AY6:BC6"/>
+    <mergeCell ref="BD6:BH6"/>
+    <mergeCell ref="BI6:BM6"/>
     <mergeCell ref="BN5:BN6"/>
     <mergeCell ref="BO5:BO6"/>
     <mergeCell ref="F6:J6"/>
@@ -10671,16 +10657,27 @@
     <mergeCell ref="AE6:AI6"/>
     <mergeCell ref="AJ6:AN6"/>
     <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:BM5"/>
-    <mergeCell ref="AT6:AX6"/>
-    <mergeCell ref="AY6:BC6"/>
-    <mergeCell ref="BD6:BH6"/>
-    <mergeCell ref="BI6:BM6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="E31:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10712,13 +10709,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="126" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
     </row>
     <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
@@ -10884,84 +10881,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="100" t="s">
+      <c r="B5" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="101" t="s">
+      <c r="C5" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="102" t="s">
+      <c r="D5" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="100" t="s">
+      <c r="E5" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="103" t="s">
+      <c r="F5" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="103"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="103"/>
-      <c r="J5" s="103"/>
-      <c r="K5" s="103"/>
-      <c r="L5" s="103"/>
-      <c r="M5" s="103"/>
-      <c r="N5" s="103"/>
-      <c r="O5" s="103"/>
-      <c r="P5" s="103"/>
-      <c r="Q5" s="103"/>
-      <c r="R5" s="103"/>
-      <c r="S5" s="103"/>
-      <c r="T5" s="103"/>
-      <c r="U5" s="103"/>
-      <c r="V5" s="103"/>
-      <c r="W5" s="103"/>
-      <c r="X5" s="103"/>
-      <c r="Y5" s="103"/>
-      <c r="Z5" s="103"/>
-      <c r="AA5" s="103"/>
-      <c r="AB5" s="103"/>
-      <c r="AC5" s="103"/>
-      <c r="AD5" s="103"/>
-      <c r="AE5" s="103"/>
-      <c r="AF5" s="103"/>
-      <c r="AG5" s="103"/>
-      <c r="AH5" s="103"/>
-      <c r="AI5" s="103"/>
-      <c r="AJ5" s="103"/>
-      <c r="AK5" s="103"/>
-      <c r="AL5" s="103"/>
-      <c r="AM5" s="103"/>
-      <c r="AN5" s="103"/>
-      <c r="AO5" s="103"/>
-      <c r="AP5" s="103"/>
-      <c r="AQ5" s="103"/>
-      <c r="AR5" s="103"/>
-      <c r="AS5" s="103"/>
-      <c r="AT5" s="103"/>
-      <c r="AU5" s="103"/>
-      <c r="AV5" s="103"/>
-      <c r="AW5" s="103"/>
-      <c r="AX5" s="103"/>
-      <c r="AY5" s="103"/>
-      <c r="AZ5" s="103"/>
-      <c r="BA5" s="103"/>
-      <c r="BB5" s="103"/>
-      <c r="BC5" s="103"/>
-      <c r="BD5" s="103"/>
-      <c r="BE5" s="103"/>
-      <c r="BF5" s="103"/>
-      <c r="BG5" s="103"/>
-      <c r="BH5" s="103"/>
-      <c r="BI5" s="103"/>
-      <c r="BJ5" s="103"/>
-      <c r="BK5" s="103"/>
-      <c r="BL5" s="103"/>
-      <c r="BM5" s="103"/>
-      <c r="BN5" s="106" t="s">
+      <c r="G5" s="129"/>
+      <c r="H5" s="129"/>
+      <c r="I5" s="129"/>
+      <c r="J5" s="129"/>
+      <c r="K5" s="129"/>
+      <c r="L5" s="129"/>
+      <c r="M5" s="129"/>
+      <c r="N5" s="129"/>
+      <c r="O5" s="129"/>
+      <c r="P5" s="129"/>
+      <c r="Q5" s="129"/>
+      <c r="R5" s="129"/>
+      <c r="S5" s="129"/>
+      <c r="T5" s="129"/>
+      <c r="U5" s="129"/>
+      <c r="V5" s="129"/>
+      <c r="W5" s="129"/>
+      <c r="X5" s="129"/>
+      <c r="Y5" s="129"/>
+      <c r="Z5" s="129"/>
+      <c r="AA5" s="129"/>
+      <c r="AB5" s="129"/>
+      <c r="AC5" s="129"/>
+      <c r="AD5" s="129"/>
+      <c r="AE5" s="129"/>
+      <c r="AF5" s="129"/>
+      <c r="AG5" s="129"/>
+      <c r="AH5" s="129"/>
+      <c r="AI5" s="129"/>
+      <c r="AJ5" s="129"/>
+      <c r="AK5" s="129"/>
+      <c r="AL5" s="129"/>
+      <c r="AM5" s="129"/>
+      <c r="AN5" s="129"/>
+      <c r="AO5" s="129"/>
+      <c r="AP5" s="129"/>
+      <c r="AQ5" s="129"/>
+      <c r="AR5" s="129"/>
+      <c r="AS5" s="129"/>
+      <c r="AT5" s="129"/>
+      <c r="AU5" s="129"/>
+      <c r="AV5" s="129"/>
+      <c r="AW5" s="129"/>
+      <c r="AX5" s="129"/>
+      <c r="AY5" s="129"/>
+      <c r="AZ5" s="129"/>
+      <c r="BA5" s="129"/>
+      <c r="BB5" s="129"/>
+      <c r="BC5" s="129"/>
+      <c r="BD5" s="129"/>
+      <c r="BE5" s="129"/>
+      <c r="BF5" s="129"/>
+      <c r="BG5" s="129"/>
+      <c r="BH5" s="129"/>
+      <c r="BI5" s="129"/>
+      <c r="BJ5" s="129"/>
+      <c r="BK5" s="129"/>
+      <c r="BL5" s="129"/>
+      <c r="BM5" s="129"/>
+      <c r="BN5" s="123" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="100" t="s">
+      <c r="BO5" s="124" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -10970,107 +10967,107 @@
       <c r="BU5" s="94"/>
     </row>
     <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="100"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="104" t="s">
+      <c r="B6" s="124"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="124"/>
+      <c r="F6" s="125" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="104"/>
-      <c r="H6" s="104"/>
-      <c r="I6" s="104"/>
-      <c r="J6" s="104"/>
-      <c r="K6" s="104" t="s">
+      <c r="G6" s="125"/>
+      <c r="H6" s="125"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="125"/>
+      <c r="K6" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="104"/>
-      <c r="M6" s="104"/>
-      <c r="N6" s="104"/>
-      <c r="O6" s="104"/>
-      <c r="P6" s="104" t="s">
+      <c r="L6" s="125"/>
+      <c r="M6" s="125"/>
+      <c r="N6" s="125"/>
+      <c r="O6" s="125"/>
+      <c r="P6" s="125" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="104"/>
-      <c r="R6" s="104"/>
-      <c r="S6" s="104"/>
-      <c r="T6" s="104"/>
-      <c r="U6" s="104" t="s">
+      <c r="Q6" s="125"/>
+      <c r="R6" s="125"/>
+      <c r="S6" s="125"/>
+      <c r="T6" s="125"/>
+      <c r="U6" s="125" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="104"/>
-      <c r="W6" s="104"/>
-      <c r="X6" s="104"/>
-      <c r="Y6" s="104"/>
-      <c r="Z6" s="104" t="s">
+      <c r="V6" s="125"/>
+      <c r="W6" s="125"/>
+      <c r="X6" s="125"/>
+      <c r="Y6" s="125"/>
+      <c r="Z6" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="104"/>
-      <c r="AB6" s="104"/>
-      <c r="AC6" s="104"/>
-      <c r="AD6" s="104"/>
-      <c r="AE6" s="104" t="s">
+      <c r="AA6" s="125"/>
+      <c r="AB6" s="125"/>
+      <c r="AC6" s="125"/>
+      <c r="AD6" s="125"/>
+      <c r="AE6" s="125" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="104"/>
-      <c r="AG6" s="104"/>
-      <c r="AH6" s="104"/>
-      <c r="AI6" s="104"/>
-      <c r="AJ6" s="104" t="s">
+      <c r="AF6" s="125"/>
+      <c r="AG6" s="125"/>
+      <c r="AH6" s="125"/>
+      <c r="AI6" s="125"/>
+      <c r="AJ6" s="125" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="104"/>
-      <c r="AL6" s="104"/>
-      <c r="AM6" s="104"/>
-      <c r="AN6" s="104"/>
-      <c r="AO6" s="104" t="s">
+      <c r="AK6" s="125"/>
+      <c r="AL6" s="125"/>
+      <c r="AM6" s="125"/>
+      <c r="AN6" s="125"/>
+      <c r="AO6" s="125" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="104"/>
-      <c r="AQ6" s="104"/>
-      <c r="AR6" s="104"/>
-      <c r="AS6" s="104"/>
-      <c r="AT6" s="104" t="s">
+      <c r="AP6" s="125"/>
+      <c r="AQ6" s="125"/>
+      <c r="AR6" s="125"/>
+      <c r="AS6" s="125"/>
+      <c r="AT6" s="125" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="104"/>
-      <c r="AV6" s="104"/>
-      <c r="AW6" s="104"/>
-      <c r="AX6" s="104"/>
-      <c r="AY6" s="104" t="s">
+      <c r="AU6" s="125"/>
+      <c r="AV6" s="125"/>
+      <c r="AW6" s="125"/>
+      <c r="AX6" s="125"/>
+      <c r="AY6" s="125" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="104"/>
-      <c r="BA6" s="104"/>
-      <c r="BB6" s="104"/>
-      <c r="BC6" s="104"/>
-      <c r="BD6" s="104" t="s">
+      <c r="AZ6" s="125"/>
+      <c r="BA6" s="125"/>
+      <c r="BB6" s="125"/>
+      <c r="BC6" s="125"/>
+      <c r="BD6" s="125" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="104"/>
-      <c r="BF6" s="104"/>
-      <c r="BG6" s="104"/>
-      <c r="BH6" s="104"/>
-      <c r="BI6" s="105" t="s">
+      <c r="BE6" s="125"/>
+      <c r="BF6" s="125"/>
+      <c r="BG6" s="125"/>
+      <c r="BH6" s="125"/>
+      <c r="BI6" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="105"/>
-      <c r="BK6" s="105"/>
-      <c r="BL6" s="105"/>
-      <c r="BM6" s="105"/>
-      <c r="BN6" s="106"/>
-      <c r="BO6" s="100"/>
+      <c r="BJ6" s="130"/>
+      <c r="BK6" s="130"/>
+      <c r="BL6" s="130"/>
+      <c r="BM6" s="130"/>
+      <c r="BN6" s="123"/>
+      <c r="BO6" s="124"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="118" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="107"/>
-      <c r="E7" s="108"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="119"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -12095,12 +12092,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="107"/>
+      <c r="B8" s="118"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="107"/>
-      <c r="E8" s="109"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="116"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -13124,14 +13121,14 @@
       <c r="AML8" s="23"/>
     </row>
     <row r="9" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="110" t="s">
+      <c r="B9" s="114" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="111"/>
-      <c r="E9" s="112"/>
+      <c r="D9" s="115"/>
+      <c r="E9" s="120"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
       <c r="H9" s="83"/>
@@ -14155,12 +14152,12 @@
       <c r="AML9" s="21"/>
     </row>
     <row r="10" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B10" s="110"/>
+      <c r="B10" s="114"/>
       <c r="C10" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="111"/>
-      <c r="E10" s="113"/>
+      <c r="D10" s="115"/>
+      <c r="E10" s="121"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -15184,12 +15181,12 @@
       <c r="AML10" s="21"/>
     </row>
     <row r="11" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="110"/>
+      <c r="B11" s="114"/>
       <c r="C11" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="111"/>
-      <c r="E11" s="113"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="121"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -16213,12 +16210,12 @@
       <c r="AML11" s="21"/>
     </row>
     <row r="12" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="110"/>
+      <c r="B12" s="114"/>
       <c r="C12" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="111"/>
-      <c r="E12" s="114"/>
+      <c r="D12" s="115"/>
+      <c r="E12" s="122"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -16283,14 +16280,14 @@
       <c r="BO12" s="31"/>
     </row>
     <row r="13" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B13" s="110" t="s">
+      <c r="B13" s="114" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="111"/>
-      <c r="E13" s="109"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="116"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -16355,12 +16352,12 @@
       <c r="BO13" s="20"/>
     </row>
     <row r="14" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B14" s="110"/>
+      <c r="B14" s="114"/>
       <c r="C14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="111"/>
-      <c r="E14" s="109"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="116"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -16425,12 +16422,12 @@
       <c r="BO14" s="31"/>
     </row>
     <row r="15" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="110"/>
+      <c r="B15" s="114"/>
       <c r="C15" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="111"/>
-      <c r="E15" s="109"/>
+      <c r="D15" s="115"/>
+      <c r="E15" s="116"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -16495,12 +16492,12 @@
       <c r="BO15" s="31"/>
     </row>
     <row r="16" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B16" s="110"/>
+      <c r="B16" s="114"/>
       <c r="C16" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="111"/>
-      <c r="E16" s="109"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="116"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -16565,12 +16562,12 @@
       <c r="BO16" s="31"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B17" s="110"/>
+      <c r="B17" s="114"/>
       <c r="C17" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="111"/>
-      <c r="E17" s="109"/>
+      <c r="D17" s="115"/>
+      <c r="E17" s="116"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -16635,12 +16632,12 @@
       <c r="BO17" s="31"/>
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B18" s="110"/>
+      <c r="B18" s="114"/>
       <c r="C18" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="111"/>
-      <c r="E18" s="109"/>
+      <c r="D18" s="115"/>
+      <c r="E18" s="116"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -16705,12 +16702,12 @@
       <c r="BO18" s="31"/>
     </row>
     <row r="19" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B19" s="110"/>
+      <c r="B19" s="114"/>
       <c r="C19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="111"/>
-      <c r="E19" s="109"/>
+      <c r="D19" s="115"/>
+      <c r="E19" s="116"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -16775,14 +16772,14 @@
       <c r="BO19" s="27"/>
     </row>
     <row r="20" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B20" s="115" t="s">
+      <c r="B20" s="117" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="107"/>
-      <c r="E20" s="116"/>
+      <c r="D20" s="118"/>
+      <c r="E20" s="107"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -16847,12 +16844,12 @@
       <c r="BO20" s="20"/>
     </row>
     <row r="21" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B21" s="115"/>
+      <c r="B21" s="117"/>
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="107"/>
-      <c r="E21" s="117"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="108"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -16917,12 +16914,12 @@
       <c r="BO21" s="31"/>
     </row>
     <row r="22" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B22" s="115"/>
+      <c r="B22" s="117"/>
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="107"/>
-      <c r="E22" s="117"/>
+      <c r="D22" s="118"/>
+      <c r="E22" s="108"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -16987,12 +16984,12 @@
       <c r="BO22" s="31"/>
     </row>
     <row r="23" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B23" s="115"/>
+      <c r="B23" s="117"/>
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="107"/>
-      <c r="E23" s="117"/>
+      <c r="D23" s="118"/>
+      <c r="E23" s="108"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -17057,12 +17054,12 @@
       <c r="BO23" s="31"/>
     </row>
     <row r="24" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B24" s="115"/>
+      <c r="B24" s="117"/>
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="107"/>
-      <c r="E24" s="117"/>
+      <c r="D24" s="118"/>
+      <c r="E24" s="108"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -17127,14 +17124,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="120" t="s">
+      <c r="B25" s="103" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="123"/>
-      <c r="E25" s="116"/>
+      <c r="D25" s="106"/>
+      <c r="E25" s="107"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -17199,12 +17196,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="121"/>
+      <c r="B26" s="104"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="123"/>
-      <c r="E26" s="117"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="108"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -17269,12 +17266,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="121"/>
+      <c r="B27" s="104"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="123"/>
-      <c r="E27" s="117"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="108"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -17339,12 +17336,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="121"/>
+      <c r="B28" s="104"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="123"/>
-      <c r="E28" s="117"/>
+      <c r="D28" s="106"/>
+      <c r="E28" s="108"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -17409,12 +17406,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="122"/>
+      <c r="B29" s="105"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="123"/>
-      <c r="E29" s="124"/>
+      <c r="D29" s="106"/>
+      <c r="E29" s="109"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -17551,10 +17548,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="125"/>
-      <c r="C31" s="116"/>
-      <c r="D31" s="128"/>
-      <c r="E31" s="125"/>
+      <c r="B31" s="110"/>
+      <c r="C31" s="107"/>
+      <c r="D31" s="113"/>
+      <c r="E31" s="110"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -17619,10 +17616,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="126"/>
-      <c r="C32" s="117"/>
-      <c r="D32" s="128"/>
-      <c r="E32" s="126"/>
+      <c r="B32" s="111"/>
+      <c r="C32" s="108"/>
+      <c r="D32" s="113"/>
+      <c r="E32" s="111"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -17687,10 +17684,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="126"/>
-      <c r="C33" s="117"/>
-      <c r="D33" s="128"/>
-      <c r="E33" s="126"/>
+      <c r="B33" s="111"/>
+      <c r="C33" s="108"/>
+      <c r="D33" s="113"/>
+      <c r="E33" s="111"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -17755,10 +17752,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="126"/>
-      <c r="C34" s="117"/>
-      <c r="D34" s="128"/>
-      <c r="E34" s="126"/>
+      <c r="B34" s="111"/>
+      <c r="C34" s="108"/>
+      <c r="D34" s="113"/>
+      <c r="E34" s="111"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -17823,10 +17820,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="126"/>
-      <c r="C35" s="117"/>
-      <c r="D35" s="128"/>
-      <c r="E35" s="126"/>
+      <c r="B35" s="111"/>
+      <c r="C35" s="108"/>
+      <c r="D35" s="113"/>
+      <c r="E35" s="111"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -17891,10 +17888,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="126"/>
-      <c r="C36" s="117"/>
-      <c r="D36" s="128"/>
-      <c r="E36" s="126"/>
+      <c r="B36" s="111"/>
+      <c r="C36" s="108"/>
+      <c r="D36" s="113"/>
+      <c r="E36" s="111"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -17959,10 +17956,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="126"/>
-      <c r="C37" s="117"/>
-      <c r="D37" s="128"/>
-      <c r="E37" s="126"/>
+      <c r="B37" s="111"/>
+      <c r="C37" s="108"/>
+      <c r="D37" s="113"/>
+      <c r="E37" s="111"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -18027,10 +18024,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="126"/>
-      <c r="C38" s="117"/>
-      <c r="D38" s="128"/>
-      <c r="E38" s="126"/>
+      <c r="B38" s="111"/>
+      <c r="C38" s="108"/>
+      <c r="D38" s="113"/>
+      <c r="E38" s="111"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -18095,10 +18092,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="126"/>
-      <c r="C39" s="117"/>
-      <c r="D39" s="128"/>
-      <c r="E39" s="126"/>
+      <c r="B39" s="111"/>
+      <c r="C39" s="108"/>
+      <c r="D39" s="113"/>
+      <c r="E39" s="111"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -18163,10 +18160,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="126"/>
-      <c r="C40" s="117"/>
-      <c r="D40" s="128"/>
-      <c r="E40" s="126"/>
+      <c r="B40" s="111"/>
+      <c r="C40" s="108"/>
+      <c r="D40" s="113"/>
+      <c r="E40" s="111"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -18231,10 +18228,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="126"/>
-      <c r="C41" s="117"/>
-      <c r="D41" s="128"/>
-      <c r="E41" s="126"/>
+      <c r="B41" s="111"/>
+      <c r="C41" s="108"/>
+      <c r="D41" s="113"/>
+      <c r="E41" s="111"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -18299,10 +18296,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="126"/>
-      <c r="C42" s="117"/>
-      <c r="D42" s="128"/>
-      <c r="E42" s="126"/>
+      <c r="B42" s="111"/>
+      <c r="C42" s="108"/>
+      <c r="D42" s="113"/>
+      <c r="E42" s="111"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -18367,10 +18364,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="126"/>
-      <c r="C43" s="117"/>
-      <c r="D43" s="128"/>
-      <c r="E43" s="126"/>
+      <c r="B43" s="111"/>
+      <c r="C43" s="108"/>
+      <c r="D43" s="113"/>
+      <c r="E43" s="111"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -18435,10 +18432,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="126"/>
-      <c r="C44" s="117"/>
-      <c r="D44" s="128"/>
-      <c r="E44" s="126"/>
+      <c r="B44" s="111"/>
+      <c r="C44" s="108"/>
+      <c r="D44" s="113"/>
+      <c r="E44" s="111"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -18503,10 +18500,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="126"/>
-      <c r="C45" s="117"/>
-      <c r="D45" s="128"/>
-      <c r="E45" s="126"/>
+      <c r="B45" s="111"/>
+      <c r="C45" s="108"/>
+      <c r="D45" s="113"/>
+      <c r="E45" s="111"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -18571,10 +18568,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="126"/>
-      <c r="C46" s="117"/>
-      <c r="D46" s="128"/>
-      <c r="E46" s="126"/>
+      <c r="B46" s="111"/>
+      <c r="C46" s="108"/>
+      <c r="D46" s="113"/>
+      <c r="E46" s="111"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -18639,10 +18636,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="126"/>
-      <c r="C47" s="117"/>
-      <c r="D47" s="128"/>
-      <c r="E47" s="126"/>
+      <c r="B47" s="111"/>
+      <c r="C47" s="108"/>
+      <c r="D47" s="113"/>
+      <c r="E47" s="111"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -18707,10 +18704,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="126"/>
-      <c r="C48" s="117"/>
-      <c r="D48" s="128"/>
-      <c r="E48" s="126"/>
+      <c r="B48" s="111"/>
+      <c r="C48" s="108"/>
+      <c r="D48" s="113"/>
+      <c r="E48" s="111"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -18775,10 +18772,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="126"/>
-      <c r="C49" s="117"/>
-      <c r="D49" s="128"/>
-      <c r="E49" s="126"/>
+      <c r="B49" s="111"/>
+      <c r="C49" s="108"/>
+      <c r="D49" s="113"/>
+      <c r="E49" s="111"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -18843,10 +18840,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="126"/>
-      <c r="C50" s="117"/>
-      <c r="D50" s="128"/>
-      <c r="E50" s="126"/>
+      <c r="B50" s="111"/>
+      <c r="C50" s="108"/>
+      <c r="D50" s="113"/>
+      <c r="E50" s="111"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -18911,10 +18908,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="126"/>
-      <c r="C51" s="117"/>
-      <c r="D51" s="128"/>
-      <c r="E51" s="126"/>
+      <c r="B51" s="111"/>
+      <c r="C51" s="108"/>
+      <c r="D51" s="113"/>
+      <c r="E51" s="111"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -18979,10 +18976,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="126"/>
-      <c r="C52" s="117"/>
-      <c r="D52" s="128"/>
-      <c r="E52" s="126"/>
+      <c r="B52" s="111"/>
+      <c r="C52" s="108"/>
+      <c r="D52" s="113"/>
+      <c r="E52" s="111"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -19047,10 +19044,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="126"/>
-      <c r="C53" s="117"/>
-      <c r="D53" s="128"/>
-      <c r="E53" s="126"/>
+      <c r="B53" s="111"/>
+      <c r="C53" s="108"/>
+      <c r="D53" s="113"/>
+      <c r="E53" s="111"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -19115,10 +19112,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="126"/>
-      <c r="C54" s="117"/>
-      <c r="D54" s="128"/>
-      <c r="E54" s="126"/>
+      <c r="B54" s="111"/>
+      <c r="C54" s="108"/>
+      <c r="D54" s="113"/>
+      <c r="E54" s="111"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -19183,10 +19180,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="126"/>
-      <c r="C55" s="117"/>
-      <c r="D55" s="128"/>
-      <c r="E55" s="126"/>
+      <c r="B55" s="111"/>
+      <c r="C55" s="108"/>
+      <c r="D55" s="113"/>
+      <c r="E55" s="111"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -19251,10 +19248,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="126"/>
-      <c r="C56" s="117"/>
-      <c r="D56" s="128"/>
-      <c r="E56" s="126"/>
+      <c r="B56" s="111"/>
+      <c r="C56" s="108"/>
+      <c r="D56" s="113"/>
+      <c r="E56" s="111"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -19319,10 +19316,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="126"/>
-      <c r="C57" s="117"/>
-      <c r="D57" s="128"/>
-      <c r="E57" s="126"/>
+      <c r="B57" s="111"/>
+      <c r="C57" s="108"/>
+      <c r="D57" s="113"/>
+      <c r="E57" s="111"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -19382,10 +19379,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="127"/>
-      <c r="C58" s="124"/>
-      <c r="D58" s="128"/>
-      <c r="E58" s="127"/>
+      <c r="B58" s="112"/>
+      <c r="C58" s="109"/>
+      <c r="D58" s="113"/>
+      <c r="E58" s="112"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -19450,7 +19447,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="118" t="s">
+      <c r="B59" s="101" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -19522,7 +19519,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="118"/>
+      <c r="B60" s="101"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -19592,7 +19589,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="119" t="s">
+      <c r="B61" s="102" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -19664,7 +19661,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="119"/>
+      <c r="B62" s="102"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -19732,7 +19729,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="119"/>
+      <c r="B63" s="102"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -19941,27 +19938,16 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="E31:E58"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:BM5"/>
+    <mergeCell ref="AT6:AX6"/>
+    <mergeCell ref="AY6:BC6"/>
+    <mergeCell ref="BD6:BH6"/>
+    <mergeCell ref="BI6:BM6"/>
     <mergeCell ref="BN5:BN6"/>
     <mergeCell ref="BO5:BO6"/>
     <mergeCell ref="F6:J6"/>
@@ -19972,16 +19958,27 @@
     <mergeCell ref="AE6:AI6"/>
     <mergeCell ref="AJ6:AN6"/>
     <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:BM5"/>
-    <mergeCell ref="AT6:AX6"/>
-    <mergeCell ref="AY6:BC6"/>
-    <mergeCell ref="BD6:BH6"/>
-    <mergeCell ref="BI6:BM6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="E31:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20013,13 +20010,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="126" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
     </row>
     <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
@@ -20185,84 +20182,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="100" t="s">
+      <c r="B5" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="101" t="s">
+      <c r="C5" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="102" t="s">
+      <c r="D5" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="100" t="s">
+      <c r="E5" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="103" t="s">
+      <c r="F5" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="103"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="103"/>
-      <c r="J5" s="103"/>
-      <c r="K5" s="103"/>
-      <c r="L5" s="103"/>
-      <c r="M5" s="103"/>
-      <c r="N5" s="103"/>
-      <c r="O5" s="103"/>
-      <c r="P5" s="103"/>
-      <c r="Q5" s="103"/>
-      <c r="R5" s="103"/>
-      <c r="S5" s="103"/>
-      <c r="T5" s="103"/>
-      <c r="U5" s="103"/>
-      <c r="V5" s="103"/>
-      <c r="W5" s="103"/>
-      <c r="X5" s="103"/>
-      <c r="Y5" s="103"/>
-      <c r="Z5" s="103"/>
-      <c r="AA5" s="103"/>
-      <c r="AB5" s="103"/>
-      <c r="AC5" s="103"/>
-      <c r="AD5" s="103"/>
-      <c r="AE5" s="103"/>
-      <c r="AF5" s="103"/>
-      <c r="AG5" s="103"/>
-      <c r="AH5" s="103"/>
-      <c r="AI5" s="103"/>
-      <c r="AJ5" s="103"/>
-      <c r="AK5" s="103"/>
-      <c r="AL5" s="103"/>
-      <c r="AM5" s="103"/>
-      <c r="AN5" s="103"/>
-      <c r="AO5" s="103"/>
-      <c r="AP5" s="103"/>
-      <c r="AQ5" s="103"/>
-      <c r="AR5" s="103"/>
-      <c r="AS5" s="103"/>
-      <c r="AT5" s="103"/>
-      <c r="AU5" s="103"/>
-      <c r="AV5" s="103"/>
-      <c r="AW5" s="103"/>
-      <c r="AX5" s="103"/>
-      <c r="AY5" s="103"/>
-      <c r="AZ5" s="103"/>
-      <c r="BA5" s="103"/>
-      <c r="BB5" s="103"/>
-      <c r="BC5" s="103"/>
-      <c r="BD5" s="103"/>
-      <c r="BE5" s="103"/>
-      <c r="BF5" s="103"/>
-      <c r="BG5" s="103"/>
-      <c r="BH5" s="103"/>
-      <c r="BI5" s="103"/>
-      <c r="BJ5" s="103"/>
-      <c r="BK5" s="103"/>
-      <c r="BL5" s="103"/>
-      <c r="BM5" s="103"/>
-      <c r="BN5" s="106" t="s">
+      <c r="G5" s="129"/>
+      <c r="H5" s="129"/>
+      <c r="I5" s="129"/>
+      <c r="J5" s="129"/>
+      <c r="K5" s="129"/>
+      <c r="L5" s="129"/>
+      <c r="M5" s="129"/>
+      <c r="N5" s="129"/>
+      <c r="O5" s="129"/>
+      <c r="P5" s="129"/>
+      <c r="Q5" s="129"/>
+      <c r="R5" s="129"/>
+      <c r="S5" s="129"/>
+      <c r="T5" s="129"/>
+      <c r="U5" s="129"/>
+      <c r="V5" s="129"/>
+      <c r="W5" s="129"/>
+      <c r="X5" s="129"/>
+      <c r="Y5" s="129"/>
+      <c r="Z5" s="129"/>
+      <c r="AA5" s="129"/>
+      <c r="AB5" s="129"/>
+      <c r="AC5" s="129"/>
+      <c r="AD5" s="129"/>
+      <c r="AE5" s="129"/>
+      <c r="AF5" s="129"/>
+      <c r="AG5" s="129"/>
+      <c r="AH5" s="129"/>
+      <c r="AI5" s="129"/>
+      <c r="AJ5" s="129"/>
+      <c r="AK5" s="129"/>
+      <c r="AL5" s="129"/>
+      <c r="AM5" s="129"/>
+      <c r="AN5" s="129"/>
+      <c r="AO5" s="129"/>
+      <c r="AP5" s="129"/>
+      <c r="AQ5" s="129"/>
+      <c r="AR5" s="129"/>
+      <c r="AS5" s="129"/>
+      <c r="AT5" s="129"/>
+      <c r="AU5" s="129"/>
+      <c r="AV5" s="129"/>
+      <c r="AW5" s="129"/>
+      <c r="AX5" s="129"/>
+      <c r="AY5" s="129"/>
+      <c r="AZ5" s="129"/>
+      <c r="BA5" s="129"/>
+      <c r="BB5" s="129"/>
+      <c r="BC5" s="129"/>
+      <c r="BD5" s="129"/>
+      <c r="BE5" s="129"/>
+      <c r="BF5" s="129"/>
+      <c r="BG5" s="129"/>
+      <c r="BH5" s="129"/>
+      <c r="BI5" s="129"/>
+      <c r="BJ5" s="129"/>
+      <c r="BK5" s="129"/>
+      <c r="BL5" s="129"/>
+      <c r="BM5" s="129"/>
+      <c r="BN5" s="123" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="100" t="s">
+      <c r="BO5" s="124" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -20271,107 +20268,107 @@
       <c r="BU5" s="94"/>
     </row>
     <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="100"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="104" t="s">
+      <c r="B6" s="124"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="124"/>
+      <c r="F6" s="125" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="104"/>
-      <c r="H6" s="104"/>
-      <c r="I6" s="104"/>
-      <c r="J6" s="104"/>
-      <c r="K6" s="104" t="s">
+      <c r="G6" s="125"/>
+      <c r="H6" s="125"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="125"/>
+      <c r="K6" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="104"/>
-      <c r="M6" s="104"/>
-      <c r="N6" s="104"/>
-      <c r="O6" s="104"/>
-      <c r="P6" s="104" t="s">
+      <c r="L6" s="125"/>
+      <c r="M6" s="125"/>
+      <c r="N6" s="125"/>
+      <c r="O6" s="125"/>
+      <c r="P6" s="125" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="104"/>
-      <c r="R6" s="104"/>
-      <c r="S6" s="104"/>
-      <c r="T6" s="104"/>
-      <c r="U6" s="104" t="s">
+      <c r="Q6" s="125"/>
+      <c r="R6" s="125"/>
+      <c r="S6" s="125"/>
+      <c r="T6" s="125"/>
+      <c r="U6" s="125" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="104"/>
-      <c r="W6" s="104"/>
-      <c r="X6" s="104"/>
-      <c r="Y6" s="104"/>
-      <c r="Z6" s="104" t="s">
+      <c r="V6" s="125"/>
+      <c r="W6" s="125"/>
+      <c r="X6" s="125"/>
+      <c r="Y6" s="125"/>
+      <c r="Z6" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="104"/>
-      <c r="AB6" s="104"/>
-      <c r="AC6" s="104"/>
-      <c r="AD6" s="104"/>
-      <c r="AE6" s="104" t="s">
+      <c r="AA6" s="125"/>
+      <c r="AB6" s="125"/>
+      <c r="AC6" s="125"/>
+      <c r="AD6" s="125"/>
+      <c r="AE6" s="125" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="104"/>
-      <c r="AG6" s="104"/>
-      <c r="AH6" s="104"/>
-      <c r="AI6" s="104"/>
-      <c r="AJ6" s="104" t="s">
+      <c r="AF6" s="125"/>
+      <c r="AG6" s="125"/>
+      <c r="AH6" s="125"/>
+      <c r="AI6" s="125"/>
+      <c r="AJ6" s="125" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="104"/>
-      <c r="AL6" s="104"/>
-      <c r="AM6" s="104"/>
-      <c r="AN6" s="104"/>
-      <c r="AO6" s="104" t="s">
+      <c r="AK6" s="125"/>
+      <c r="AL6" s="125"/>
+      <c r="AM6" s="125"/>
+      <c r="AN6" s="125"/>
+      <c r="AO6" s="125" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="104"/>
-      <c r="AQ6" s="104"/>
-      <c r="AR6" s="104"/>
-      <c r="AS6" s="104"/>
-      <c r="AT6" s="104" t="s">
+      <c r="AP6" s="125"/>
+      <c r="AQ6" s="125"/>
+      <c r="AR6" s="125"/>
+      <c r="AS6" s="125"/>
+      <c r="AT6" s="125" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="104"/>
-      <c r="AV6" s="104"/>
-      <c r="AW6" s="104"/>
-      <c r="AX6" s="104"/>
-      <c r="AY6" s="104" t="s">
+      <c r="AU6" s="125"/>
+      <c r="AV6" s="125"/>
+      <c r="AW6" s="125"/>
+      <c r="AX6" s="125"/>
+      <c r="AY6" s="125" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="104"/>
-      <c r="BA6" s="104"/>
-      <c r="BB6" s="104"/>
-      <c r="BC6" s="104"/>
-      <c r="BD6" s="104" t="s">
+      <c r="AZ6" s="125"/>
+      <c r="BA6" s="125"/>
+      <c r="BB6" s="125"/>
+      <c r="BC6" s="125"/>
+      <c r="BD6" s="125" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="104"/>
-      <c r="BF6" s="104"/>
-      <c r="BG6" s="104"/>
-      <c r="BH6" s="104"/>
-      <c r="BI6" s="105" t="s">
+      <c r="BE6" s="125"/>
+      <c r="BF6" s="125"/>
+      <c r="BG6" s="125"/>
+      <c r="BH6" s="125"/>
+      <c r="BI6" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="105"/>
-      <c r="BK6" s="105"/>
-      <c r="BL6" s="105"/>
-      <c r="BM6" s="105"/>
-      <c r="BN6" s="106"/>
-      <c r="BO6" s="100"/>
+      <c r="BJ6" s="130"/>
+      <c r="BK6" s="130"/>
+      <c r="BL6" s="130"/>
+      <c r="BM6" s="130"/>
+      <c r="BN6" s="123"/>
+      <c r="BO6" s="124"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="118" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="107"/>
-      <c r="E7" s="108"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="119"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -21396,12 +21393,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="107"/>
+      <c r="B8" s="118"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="107"/>
-      <c r="E8" s="109"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="116"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -22425,14 +22422,14 @@
       <c r="AML8" s="23"/>
     </row>
     <row r="9" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="110" t="s">
+      <c r="B9" s="114" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="111"/>
-      <c r="E9" s="112"/>
+      <c r="D9" s="115"/>
+      <c r="E9" s="120"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
       <c r="H9" s="83"/>
@@ -23456,12 +23453,12 @@
       <c r="AML9" s="21"/>
     </row>
     <row r="10" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B10" s="110"/>
+      <c r="B10" s="114"/>
       <c r="C10" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="111"/>
-      <c r="E10" s="113"/>
+      <c r="D10" s="115"/>
+      <c r="E10" s="121"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -24485,12 +24482,12 @@
       <c r="AML10" s="21"/>
     </row>
     <row r="11" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="110"/>
+      <c r="B11" s="114"/>
       <c r="C11" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="111"/>
-      <c r="E11" s="113"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="121"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -25514,12 +25511,12 @@
       <c r="AML11" s="21"/>
     </row>
     <row r="12" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="110"/>
+      <c r="B12" s="114"/>
       <c r="C12" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="111"/>
-      <c r="E12" s="114"/>
+      <c r="D12" s="115"/>
+      <c r="E12" s="122"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -25584,14 +25581,14 @@
       <c r="BO12" s="31"/>
     </row>
     <row r="13" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B13" s="110" t="s">
+      <c r="B13" s="114" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="111"/>
-      <c r="E13" s="109"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="116"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -25656,12 +25653,12 @@
       <c r="BO13" s="20"/>
     </row>
     <row r="14" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B14" s="110"/>
+      <c r="B14" s="114"/>
       <c r="C14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="111"/>
-      <c r="E14" s="109"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="116"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -25726,12 +25723,12 @@
       <c r="BO14" s="31"/>
     </row>
     <row r="15" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="110"/>
+      <c r="B15" s="114"/>
       <c r="C15" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="111"/>
-      <c r="E15" s="109"/>
+      <c r="D15" s="115"/>
+      <c r="E15" s="116"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -25796,12 +25793,12 @@
       <c r="BO15" s="31"/>
     </row>
     <row r="16" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B16" s="110"/>
+      <c r="B16" s="114"/>
       <c r="C16" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="111"/>
-      <c r="E16" s="109"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="116"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -25866,12 +25863,12 @@
       <c r="BO16" s="31"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B17" s="110"/>
+      <c r="B17" s="114"/>
       <c r="C17" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="111"/>
-      <c r="E17" s="109"/>
+      <c r="D17" s="115"/>
+      <c r="E17" s="116"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -25936,12 +25933,12 @@
       <c r="BO17" s="31"/>
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B18" s="110"/>
+      <c r="B18" s="114"/>
       <c r="C18" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="111"/>
-      <c r="E18" s="109"/>
+      <c r="D18" s="115"/>
+      <c r="E18" s="116"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -26006,12 +26003,12 @@
       <c r="BO18" s="31"/>
     </row>
     <row r="19" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B19" s="110"/>
+      <c r="B19" s="114"/>
       <c r="C19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="111"/>
-      <c r="E19" s="109"/>
+      <c r="D19" s="115"/>
+      <c r="E19" s="116"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -26076,14 +26073,14 @@
       <c r="BO19" s="27"/>
     </row>
     <row r="20" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B20" s="115" t="s">
+      <c r="B20" s="117" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="107"/>
-      <c r="E20" s="116"/>
+      <c r="D20" s="118"/>
+      <c r="E20" s="107"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -26148,12 +26145,12 @@
       <c r="BO20" s="20"/>
     </row>
     <row r="21" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B21" s="115"/>
+      <c r="B21" s="117"/>
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="107"/>
-      <c r="E21" s="117"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="108"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -26218,12 +26215,12 @@
       <c r="BO21" s="31"/>
     </row>
     <row r="22" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B22" s="115"/>
+      <c r="B22" s="117"/>
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="107"/>
-      <c r="E22" s="117"/>
+      <c r="D22" s="118"/>
+      <c r="E22" s="108"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -26288,12 +26285,12 @@
       <c r="BO22" s="31"/>
     </row>
     <row r="23" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B23" s="115"/>
+      <c r="B23" s="117"/>
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="107"/>
-      <c r="E23" s="117"/>
+      <c r="D23" s="118"/>
+      <c r="E23" s="108"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -26358,12 +26355,12 @@
       <c r="BO23" s="31"/>
     </row>
     <row r="24" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B24" s="115"/>
+      <c r="B24" s="117"/>
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="107"/>
-      <c r="E24" s="117"/>
+      <c r="D24" s="118"/>
+      <c r="E24" s="108"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -26428,14 +26425,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="120" t="s">
+      <c r="B25" s="103" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="123"/>
-      <c r="E25" s="116"/>
+      <c r="D25" s="106"/>
+      <c r="E25" s="107"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -26500,12 +26497,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="121"/>
+      <c r="B26" s="104"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="123"/>
-      <c r="E26" s="117"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="108"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -26570,12 +26567,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="121"/>
+      <c r="B27" s="104"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="123"/>
-      <c r="E27" s="117"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="108"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -26640,12 +26637,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="121"/>
+      <c r="B28" s="104"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="123"/>
-      <c r="E28" s="117"/>
+      <c r="D28" s="106"/>
+      <c r="E28" s="108"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -26710,12 +26707,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="122"/>
+      <c r="B29" s="105"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="123"/>
-      <c r="E29" s="124"/>
+      <c r="D29" s="106"/>
+      <c r="E29" s="109"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -26852,10 +26849,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="125"/>
-      <c r="C31" s="116"/>
-      <c r="D31" s="128"/>
-      <c r="E31" s="125"/>
+      <c r="B31" s="110"/>
+      <c r="C31" s="107"/>
+      <c r="D31" s="113"/>
+      <c r="E31" s="110"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -26920,10 +26917,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="126"/>
-      <c r="C32" s="117"/>
-      <c r="D32" s="128"/>
-      <c r="E32" s="126"/>
+      <c r="B32" s="111"/>
+      <c r="C32" s="108"/>
+      <c r="D32" s="113"/>
+      <c r="E32" s="111"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -26988,10 +26985,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="126"/>
-      <c r="C33" s="117"/>
-      <c r="D33" s="128"/>
-      <c r="E33" s="126"/>
+      <c r="B33" s="111"/>
+      <c r="C33" s="108"/>
+      <c r="D33" s="113"/>
+      <c r="E33" s="111"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -27056,10 +27053,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="126"/>
-      <c r="C34" s="117"/>
-      <c r="D34" s="128"/>
-      <c r="E34" s="126"/>
+      <c r="B34" s="111"/>
+      <c r="C34" s="108"/>
+      <c r="D34" s="113"/>
+      <c r="E34" s="111"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -27124,10 +27121,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="126"/>
-      <c r="C35" s="117"/>
-      <c r="D35" s="128"/>
-      <c r="E35" s="126"/>
+      <c r="B35" s="111"/>
+      <c r="C35" s="108"/>
+      <c r="D35" s="113"/>
+      <c r="E35" s="111"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -27192,10 +27189,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="126"/>
-      <c r="C36" s="117"/>
-      <c r="D36" s="128"/>
-      <c r="E36" s="126"/>
+      <c r="B36" s="111"/>
+      <c r="C36" s="108"/>
+      <c r="D36" s="113"/>
+      <c r="E36" s="111"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -27260,10 +27257,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="126"/>
-      <c r="C37" s="117"/>
-      <c r="D37" s="128"/>
-      <c r="E37" s="126"/>
+      <c r="B37" s="111"/>
+      <c r="C37" s="108"/>
+      <c r="D37" s="113"/>
+      <c r="E37" s="111"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -27328,10 +27325,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="126"/>
-      <c r="C38" s="117"/>
-      <c r="D38" s="128"/>
-      <c r="E38" s="126"/>
+      <c r="B38" s="111"/>
+      <c r="C38" s="108"/>
+      <c r="D38" s="113"/>
+      <c r="E38" s="111"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -27396,10 +27393,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="126"/>
-      <c r="C39" s="117"/>
-      <c r="D39" s="128"/>
-      <c r="E39" s="126"/>
+      <c r="B39" s="111"/>
+      <c r="C39" s="108"/>
+      <c r="D39" s="113"/>
+      <c r="E39" s="111"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -27464,10 +27461,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="126"/>
-      <c r="C40" s="117"/>
-      <c r="D40" s="128"/>
-      <c r="E40" s="126"/>
+      <c r="B40" s="111"/>
+      <c r="C40" s="108"/>
+      <c r="D40" s="113"/>
+      <c r="E40" s="111"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -27532,10 +27529,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="126"/>
-      <c r="C41" s="117"/>
-      <c r="D41" s="128"/>
-      <c r="E41" s="126"/>
+      <c r="B41" s="111"/>
+      <c r="C41" s="108"/>
+      <c r="D41" s="113"/>
+      <c r="E41" s="111"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -27600,10 +27597,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="126"/>
-      <c r="C42" s="117"/>
-      <c r="D42" s="128"/>
-      <c r="E42" s="126"/>
+      <c r="B42" s="111"/>
+      <c r="C42" s="108"/>
+      <c r="D42" s="113"/>
+      <c r="E42" s="111"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -27668,10 +27665,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="126"/>
-      <c r="C43" s="117"/>
-      <c r="D43" s="128"/>
-      <c r="E43" s="126"/>
+      <c r="B43" s="111"/>
+      <c r="C43" s="108"/>
+      <c r="D43" s="113"/>
+      <c r="E43" s="111"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -27736,10 +27733,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="126"/>
-      <c r="C44" s="117"/>
-      <c r="D44" s="128"/>
-      <c r="E44" s="126"/>
+      <c r="B44" s="111"/>
+      <c r="C44" s="108"/>
+      <c r="D44" s="113"/>
+      <c r="E44" s="111"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -27804,10 +27801,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="126"/>
-      <c r="C45" s="117"/>
-      <c r="D45" s="128"/>
-      <c r="E45" s="126"/>
+      <c r="B45" s="111"/>
+      <c r="C45" s="108"/>
+      <c r="D45" s="113"/>
+      <c r="E45" s="111"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -27872,10 +27869,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="126"/>
-      <c r="C46" s="117"/>
-      <c r="D46" s="128"/>
-      <c r="E46" s="126"/>
+      <c r="B46" s="111"/>
+      <c r="C46" s="108"/>
+      <c r="D46" s="113"/>
+      <c r="E46" s="111"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -27940,10 +27937,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="126"/>
-      <c r="C47" s="117"/>
-      <c r="D47" s="128"/>
-      <c r="E47" s="126"/>
+      <c r="B47" s="111"/>
+      <c r="C47" s="108"/>
+      <c r="D47" s="113"/>
+      <c r="E47" s="111"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -28008,10 +28005,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="126"/>
-      <c r="C48" s="117"/>
-      <c r="D48" s="128"/>
-      <c r="E48" s="126"/>
+      <c r="B48" s="111"/>
+      <c r="C48" s="108"/>
+      <c r="D48" s="113"/>
+      <c r="E48" s="111"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -28076,10 +28073,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="126"/>
-      <c r="C49" s="117"/>
-      <c r="D49" s="128"/>
-      <c r="E49" s="126"/>
+      <c r="B49" s="111"/>
+      <c r="C49" s="108"/>
+      <c r="D49" s="113"/>
+      <c r="E49" s="111"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -28144,10 +28141,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="126"/>
-      <c r="C50" s="117"/>
-      <c r="D50" s="128"/>
-      <c r="E50" s="126"/>
+      <c r="B50" s="111"/>
+      <c r="C50" s="108"/>
+      <c r="D50" s="113"/>
+      <c r="E50" s="111"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -28212,10 +28209,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="126"/>
-      <c r="C51" s="117"/>
-      <c r="D51" s="128"/>
-      <c r="E51" s="126"/>
+      <c r="B51" s="111"/>
+      <c r="C51" s="108"/>
+      <c r="D51" s="113"/>
+      <c r="E51" s="111"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -28280,10 +28277,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="126"/>
-      <c r="C52" s="117"/>
-      <c r="D52" s="128"/>
-      <c r="E52" s="126"/>
+      <c r="B52" s="111"/>
+      <c r="C52" s="108"/>
+      <c r="D52" s="113"/>
+      <c r="E52" s="111"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -28348,10 +28345,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="126"/>
-      <c r="C53" s="117"/>
-      <c r="D53" s="128"/>
-      <c r="E53" s="126"/>
+      <c r="B53" s="111"/>
+      <c r="C53" s="108"/>
+      <c r="D53" s="113"/>
+      <c r="E53" s="111"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -28416,10 +28413,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="126"/>
-      <c r="C54" s="117"/>
-      <c r="D54" s="128"/>
-      <c r="E54" s="126"/>
+      <c r="B54" s="111"/>
+      <c r="C54" s="108"/>
+      <c r="D54" s="113"/>
+      <c r="E54" s="111"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -28484,10 +28481,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="126"/>
-      <c r="C55" s="117"/>
-      <c r="D55" s="128"/>
-      <c r="E55" s="126"/>
+      <c r="B55" s="111"/>
+      <c r="C55" s="108"/>
+      <c r="D55" s="113"/>
+      <c r="E55" s="111"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -28552,10 +28549,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="126"/>
-      <c r="C56" s="117"/>
-      <c r="D56" s="128"/>
-      <c r="E56" s="126"/>
+      <c r="B56" s="111"/>
+      <c r="C56" s="108"/>
+      <c r="D56" s="113"/>
+      <c r="E56" s="111"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -28620,10 +28617,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="126"/>
-      <c r="C57" s="117"/>
-      <c r="D57" s="128"/>
-      <c r="E57" s="126"/>
+      <c r="B57" s="111"/>
+      <c r="C57" s="108"/>
+      <c r="D57" s="113"/>
+      <c r="E57" s="111"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -28683,10 +28680,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="127"/>
-      <c r="C58" s="124"/>
-      <c r="D58" s="128"/>
-      <c r="E58" s="127"/>
+      <c r="B58" s="112"/>
+      <c r="C58" s="109"/>
+      <c r="D58" s="113"/>
+      <c r="E58" s="112"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -28751,7 +28748,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="118" t="s">
+      <c r="B59" s="101" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -28823,7 +28820,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="118"/>
+      <c r="B60" s="101"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -28893,7 +28890,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="119" t="s">
+      <c r="B61" s="102" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -28965,7 +28962,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="119"/>
+      <c r="B62" s="102"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -29033,7 +29030,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="119"/>
+      <c r="B63" s="102"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -29242,27 +29239,16 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="E31:E58"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:BM5"/>
+    <mergeCell ref="AT6:AX6"/>
+    <mergeCell ref="AY6:BC6"/>
+    <mergeCell ref="BD6:BH6"/>
+    <mergeCell ref="BI6:BM6"/>
     <mergeCell ref="BN5:BN6"/>
     <mergeCell ref="BO5:BO6"/>
     <mergeCell ref="F6:J6"/>
@@ -29273,16 +29259,27 @@
     <mergeCell ref="AE6:AI6"/>
     <mergeCell ref="AJ6:AN6"/>
     <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:BM5"/>
-    <mergeCell ref="AT6:AX6"/>
-    <mergeCell ref="AY6:BC6"/>
-    <mergeCell ref="BD6:BH6"/>
-    <mergeCell ref="BI6:BM6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="E31:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -29314,13 +29311,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="126" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
     </row>
     <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
@@ -29486,84 +29483,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="100" t="s">
+      <c r="B5" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="101" t="s">
+      <c r="C5" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="102" t="s">
+      <c r="D5" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="100" t="s">
+      <c r="E5" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="103" t="s">
+      <c r="F5" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="103"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="103"/>
-      <c r="J5" s="103"/>
-      <c r="K5" s="103"/>
-      <c r="L5" s="103"/>
-      <c r="M5" s="103"/>
-      <c r="N5" s="103"/>
-      <c r="O5" s="103"/>
-      <c r="P5" s="103"/>
-      <c r="Q5" s="103"/>
-      <c r="R5" s="103"/>
-      <c r="S5" s="103"/>
-      <c r="T5" s="103"/>
-      <c r="U5" s="103"/>
-      <c r="V5" s="103"/>
-      <c r="W5" s="103"/>
-      <c r="X5" s="103"/>
-      <c r="Y5" s="103"/>
-      <c r="Z5" s="103"/>
-      <c r="AA5" s="103"/>
-      <c r="AB5" s="103"/>
-      <c r="AC5" s="103"/>
-      <c r="AD5" s="103"/>
-      <c r="AE5" s="103"/>
-      <c r="AF5" s="103"/>
-      <c r="AG5" s="103"/>
-      <c r="AH5" s="103"/>
-      <c r="AI5" s="103"/>
-      <c r="AJ5" s="103"/>
-      <c r="AK5" s="103"/>
-      <c r="AL5" s="103"/>
-      <c r="AM5" s="103"/>
-      <c r="AN5" s="103"/>
-      <c r="AO5" s="103"/>
-      <c r="AP5" s="103"/>
-      <c r="AQ5" s="103"/>
-      <c r="AR5" s="103"/>
-      <c r="AS5" s="103"/>
-      <c r="AT5" s="103"/>
-      <c r="AU5" s="103"/>
-      <c r="AV5" s="103"/>
-      <c r="AW5" s="103"/>
-      <c r="AX5" s="103"/>
-      <c r="AY5" s="103"/>
-      <c r="AZ5" s="103"/>
-      <c r="BA5" s="103"/>
-      <c r="BB5" s="103"/>
-      <c r="BC5" s="103"/>
-      <c r="BD5" s="103"/>
-      <c r="BE5" s="103"/>
-      <c r="BF5" s="103"/>
-      <c r="BG5" s="103"/>
-      <c r="BH5" s="103"/>
-      <c r="BI5" s="103"/>
-      <c r="BJ5" s="103"/>
-      <c r="BK5" s="103"/>
-      <c r="BL5" s="103"/>
-      <c r="BM5" s="103"/>
-      <c r="BN5" s="106" t="s">
+      <c r="G5" s="129"/>
+      <c r="H5" s="129"/>
+      <c r="I5" s="129"/>
+      <c r="J5" s="129"/>
+      <c r="K5" s="129"/>
+      <c r="L5" s="129"/>
+      <c r="M5" s="129"/>
+      <c r="N5" s="129"/>
+      <c r="O5" s="129"/>
+      <c r="P5" s="129"/>
+      <c r="Q5" s="129"/>
+      <c r="R5" s="129"/>
+      <c r="S5" s="129"/>
+      <c r="T5" s="129"/>
+      <c r="U5" s="129"/>
+      <c r="V5" s="129"/>
+      <c r="W5" s="129"/>
+      <c r="X5" s="129"/>
+      <c r="Y5" s="129"/>
+      <c r="Z5" s="129"/>
+      <c r="AA5" s="129"/>
+      <c r="AB5" s="129"/>
+      <c r="AC5" s="129"/>
+      <c r="AD5" s="129"/>
+      <c r="AE5" s="129"/>
+      <c r="AF5" s="129"/>
+      <c r="AG5" s="129"/>
+      <c r="AH5" s="129"/>
+      <c r="AI5" s="129"/>
+      <c r="AJ5" s="129"/>
+      <c r="AK5" s="129"/>
+      <c r="AL5" s="129"/>
+      <c r="AM5" s="129"/>
+      <c r="AN5" s="129"/>
+      <c r="AO5" s="129"/>
+      <c r="AP5" s="129"/>
+      <c r="AQ5" s="129"/>
+      <c r="AR5" s="129"/>
+      <c r="AS5" s="129"/>
+      <c r="AT5" s="129"/>
+      <c r="AU5" s="129"/>
+      <c r="AV5" s="129"/>
+      <c r="AW5" s="129"/>
+      <c r="AX5" s="129"/>
+      <c r="AY5" s="129"/>
+      <c r="AZ5" s="129"/>
+      <c r="BA5" s="129"/>
+      <c r="BB5" s="129"/>
+      <c r="BC5" s="129"/>
+      <c r="BD5" s="129"/>
+      <c r="BE5" s="129"/>
+      <c r="BF5" s="129"/>
+      <c r="BG5" s="129"/>
+      <c r="BH5" s="129"/>
+      <c r="BI5" s="129"/>
+      <c r="BJ5" s="129"/>
+      <c r="BK5" s="129"/>
+      <c r="BL5" s="129"/>
+      <c r="BM5" s="129"/>
+      <c r="BN5" s="123" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="100" t="s">
+      <c r="BO5" s="124" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -29572,107 +29569,107 @@
       <c r="BU5" s="94"/>
     </row>
     <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="100"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="104" t="s">
+      <c r="B6" s="124"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="124"/>
+      <c r="F6" s="125" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="104"/>
-      <c r="H6" s="104"/>
-      <c r="I6" s="104"/>
-      <c r="J6" s="104"/>
-      <c r="K6" s="104" t="s">
+      <c r="G6" s="125"/>
+      <c r="H6" s="125"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="125"/>
+      <c r="K6" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="104"/>
-      <c r="M6" s="104"/>
-      <c r="N6" s="104"/>
-      <c r="O6" s="104"/>
-      <c r="P6" s="104" t="s">
+      <c r="L6" s="125"/>
+      <c r="M6" s="125"/>
+      <c r="N6" s="125"/>
+      <c r="O6" s="125"/>
+      <c r="P6" s="125" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="104"/>
-      <c r="R6" s="104"/>
-      <c r="S6" s="104"/>
-      <c r="T6" s="104"/>
-      <c r="U6" s="104" t="s">
+      <c r="Q6" s="125"/>
+      <c r="R6" s="125"/>
+      <c r="S6" s="125"/>
+      <c r="T6" s="125"/>
+      <c r="U6" s="125" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="104"/>
-      <c r="W6" s="104"/>
-      <c r="X6" s="104"/>
-      <c r="Y6" s="104"/>
-      <c r="Z6" s="104" t="s">
+      <c r="V6" s="125"/>
+      <c r="W6" s="125"/>
+      <c r="X6" s="125"/>
+      <c r="Y6" s="125"/>
+      <c r="Z6" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="104"/>
-      <c r="AB6" s="104"/>
-      <c r="AC6" s="104"/>
-      <c r="AD6" s="104"/>
-      <c r="AE6" s="104" t="s">
+      <c r="AA6" s="125"/>
+      <c r="AB6" s="125"/>
+      <c r="AC6" s="125"/>
+      <c r="AD6" s="125"/>
+      <c r="AE6" s="125" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="104"/>
-      <c r="AG6" s="104"/>
-      <c r="AH6" s="104"/>
-      <c r="AI6" s="104"/>
-      <c r="AJ6" s="104" t="s">
+      <c r="AF6" s="125"/>
+      <c r="AG6" s="125"/>
+      <c r="AH6" s="125"/>
+      <c r="AI6" s="125"/>
+      <c r="AJ6" s="125" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="104"/>
-      <c r="AL6" s="104"/>
-      <c r="AM6" s="104"/>
-      <c r="AN6" s="104"/>
-      <c r="AO6" s="104" t="s">
+      <c r="AK6" s="125"/>
+      <c r="AL6" s="125"/>
+      <c r="AM6" s="125"/>
+      <c r="AN6" s="125"/>
+      <c r="AO6" s="125" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="104"/>
-      <c r="AQ6" s="104"/>
-      <c r="AR6" s="104"/>
-      <c r="AS6" s="104"/>
-      <c r="AT6" s="104" t="s">
+      <c r="AP6" s="125"/>
+      <c r="AQ6" s="125"/>
+      <c r="AR6" s="125"/>
+      <c r="AS6" s="125"/>
+      <c r="AT6" s="125" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="104"/>
-      <c r="AV6" s="104"/>
-      <c r="AW6" s="104"/>
-      <c r="AX6" s="104"/>
-      <c r="AY6" s="104" t="s">
+      <c r="AU6" s="125"/>
+      <c r="AV6" s="125"/>
+      <c r="AW6" s="125"/>
+      <c r="AX6" s="125"/>
+      <c r="AY6" s="125" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="104"/>
-      <c r="BA6" s="104"/>
-      <c r="BB6" s="104"/>
-      <c r="BC6" s="104"/>
-      <c r="BD6" s="104" t="s">
+      <c r="AZ6" s="125"/>
+      <c r="BA6" s="125"/>
+      <c r="BB6" s="125"/>
+      <c r="BC6" s="125"/>
+      <c r="BD6" s="125" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="104"/>
-      <c r="BF6" s="104"/>
-      <c r="BG6" s="104"/>
-      <c r="BH6" s="104"/>
-      <c r="BI6" s="105" t="s">
+      <c r="BE6" s="125"/>
+      <c r="BF6" s="125"/>
+      <c r="BG6" s="125"/>
+      <c r="BH6" s="125"/>
+      <c r="BI6" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="105"/>
-      <c r="BK6" s="105"/>
-      <c r="BL6" s="105"/>
-      <c r="BM6" s="105"/>
-      <c r="BN6" s="106"/>
-      <c r="BO6" s="100"/>
+      <c r="BJ6" s="130"/>
+      <c r="BK6" s="130"/>
+      <c r="BL6" s="130"/>
+      <c r="BM6" s="130"/>
+      <c r="BN6" s="123"/>
+      <c r="BO6" s="124"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="118" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="107"/>
-      <c r="E7" s="108"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="119"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -30697,12 +30694,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="107"/>
+      <c r="B8" s="118"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="107"/>
-      <c r="E8" s="109"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="116"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -31726,14 +31723,14 @@
       <c r="AML8" s="23"/>
     </row>
     <row r="9" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="110" t="s">
+      <c r="B9" s="114" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="111"/>
-      <c r="E9" s="112"/>
+      <c r="D9" s="115"/>
+      <c r="E9" s="120"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
       <c r="H9" s="83"/>
@@ -32757,12 +32754,12 @@
       <c r="AML9" s="21"/>
     </row>
     <row r="10" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B10" s="110"/>
+      <c r="B10" s="114"/>
       <c r="C10" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="111"/>
-      <c r="E10" s="113"/>
+      <c r="D10" s="115"/>
+      <c r="E10" s="121"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -33786,12 +33783,12 @@
       <c r="AML10" s="21"/>
     </row>
     <row r="11" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="110"/>
+      <c r="B11" s="114"/>
       <c r="C11" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="111"/>
-      <c r="E11" s="113"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="121"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -34815,12 +34812,12 @@
       <c r="AML11" s="21"/>
     </row>
     <row r="12" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="110"/>
+      <c r="B12" s="114"/>
       <c r="C12" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="111"/>
-      <c r="E12" s="114"/>
+      <c r="D12" s="115"/>
+      <c r="E12" s="122"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -34885,14 +34882,14 @@
       <c r="BO12" s="31"/>
     </row>
     <row r="13" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B13" s="110" t="s">
+      <c r="B13" s="114" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="111"/>
-      <c r="E13" s="109"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="116"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -34957,12 +34954,12 @@
       <c r="BO13" s="20"/>
     </row>
     <row r="14" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B14" s="110"/>
+      <c r="B14" s="114"/>
       <c r="C14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="111"/>
-      <c r="E14" s="109"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="116"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -35027,12 +35024,12 @@
       <c r="BO14" s="31"/>
     </row>
     <row r="15" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="110"/>
+      <c r="B15" s="114"/>
       <c r="C15" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="111"/>
-      <c r="E15" s="109"/>
+      <c r="D15" s="115"/>
+      <c r="E15" s="116"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -35097,12 +35094,12 @@
       <c r="BO15" s="31"/>
     </row>
     <row r="16" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B16" s="110"/>
+      <c r="B16" s="114"/>
       <c r="C16" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="111"/>
-      <c r="E16" s="109"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="116"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -35167,12 +35164,12 @@
       <c r="BO16" s="31"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B17" s="110"/>
+      <c r="B17" s="114"/>
       <c r="C17" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="111"/>
-      <c r="E17" s="109"/>
+      <c r="D17" s="115"/>
+      <c r="E17" s="116"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -35237,12 +35234,12 @@
       <c r="BO17" s="31"/>
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B18" s="110"/>
+      <c r="B18" s="114"/>
       <c r="C18" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="111"/>
-      <c r="E18" s="109"/>
+      <c r="D18" s="115"/>
+      <c r="E18" s="116"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -35307,12 +35304,12 @@
       <c r="BO18" s="31"/>
     </row>
     <row r="19" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B19" s="110"/>
+      <c r="B19" s="114"/>
       <c r="C19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="111"/>
-      <c r="E19" s="109"/>
+      <c r="D19" s="115"/>
+      <c r="E19" s="116"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -35377,14 +35374,14 @@
       <c r="BO19" s="27"/>
     </row>
     <row r="20" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B20" s="115" t="s">
+      <c r="B20" s="117" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="107"/>
-      <c r="E20" s="116"/>
+      <c r="D20" s="118"/>
+      <c r="E20" s="107"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -35449,12 +35446,12 @@
       <c r="BO20" s="20"/>
     </row>
     <row r="21" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B21" s="115"/>
+      <c r="B21" s="117"/>
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="107"/>
-      <c r="E21" s="117"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="108"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -35519,12 +35516,12 @@
       <c r="BO21" s="31"/>
     </row>
     <row r="22" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B22" s="115"/>
+      <c r="B22" s="117"/>
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="107"/>
-      <c r="E22" s="117"/>
+      <c r="D22" s="118"/>
+      <c r="E22" s="108"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -35589,12 +35586,12 @@
       <c r="BO22" s="31"/>
     </row>
     <row r="23" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B23" s="115"/>
+      <c r="B23" s="117"/>
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="107"/>
-      <c r="E23" s="117"/>
+      <c r="D23" s="118"/>
+      <c r="E23" s="108"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -35659,12 +35656,12 @@
       <c r="BO23" s="31"/>
     </row>
     <row r="24" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B24" s="115"/>
+      <c r="B24" s="117"/>
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="107"/>
-      <c r="E24" s="117"/>
+      <c r="D24" s="118"/>
+      <c r="E24" s="108"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -35729,14 +35726,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="120" t="s">
+      <c r="B25" s="103" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="123"/>
-      <c r="E25" s="116"/>
+      <c r="D25" s="106"/>
+      <c r="E25" s="107"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -35801,12 +35798,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="121"/>
+      <c r="B26" s="104"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="123"/>
-      <c r="E26" s="117"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="108"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -35871,12 +35868,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="121"/>
+      <c r="B27" s="104"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="123"/>
-      <c r="E27" s="117"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="108"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -35941,12 +35938,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="121"/>
+      <c r="B28" s="104"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="123"/>
-      <c r="E28" s="117"/>
+      <c r="D28" s="106"/>
+      <c r="E28" s="108"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -36011,12 +36008,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="122"/>
+      <c r="B29" s="105"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="123"/>
-      <c r="E29" s="124"/>
+      <c r="D29" s="106"/>
+      <c r="E29" s="109"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -36153,10 +36150,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="125"/>
-      <c r="C31" s="116"/>
-      <c r="D31" s="128"/>
-      <c r="E31" s="125"/>
+      <c r="B31" s="110"/>
+      <c r="C31" s="107"/>
+      <c r="D31" s="113"/>
+      <c r="E31" s="110"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -36221,10 +36218,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="126"/>
-      <c r="C32" s="117"/>
-      <c r="D32" s="128"/>
-      <c r="E32" s="126"/>
+      <c r="B32" s="111"/>
+      <c r="C32" s="108"/>
+      <c r="D32" s="113"/>
+      <c r="E32" s="111"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -36289,10 +36286,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="126"/>
-      <c r="C33" s="117"/>
-      <c r="D33" s="128"/>
-      <c r="E33" s="126"/>
+      <c r="B33" s="111"/>
+      <c r="C33" s="108"/>
+      <c r="D33" s="113"/>
+      <c r="E33" s="111"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -36357,10 +36354,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="126"/>
-      <c r="C34" s="117"/>
-      <c r="D34" s="128"/>
-      <c r="E34" s="126"/>
+      <c r="B34" s="111"/>
+      <c r="C34" s="108"/>
+      <c r="D34" s="113"/>
+      <c r="E34" s="111"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -36425,10 +36422,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="126"/>
-      <c r="C35" s="117"/>
-      <c r="D35" s="128"/>
-      <c r="E35" s="126"/>
+      <c r="B35" s="111"/>
+      <c r="C35" s="108"/>
+      <c r="D35" s="113"/>
+      <c r="E35" s="111"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -36493,10 +36490,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="126"/>
-      <c r="C36" s="117"/>
-      <c r="D36" s="128"/>
-      <c r="E36" s="126"/>
+      <c r="B36" s="111"/>
+      <c r="C36" s="108"/>
+      <c r="D36" s="113"/>
+      <c r="E36" s="111"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -36561,10 +36558,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="126"/>
-      <c r="C37" s="117"/>
-      <c r="D37" s="128"/>
-      <c r="E37" s="126"/>
+      <c r="B37" s="111"/>
+      <c r="C37" s="108"/>
+      <c r="D37" s="113"/>
+      <c r="E37" s="111"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -36629,10 +36626,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="126"/>
-      <c r="C38" s="117"/>
-      <c r="D38" s="128"/>
-      <c r="E38" s="126"/>
+      <c r="B38" s="111"/>
+      <c r="C38" s="108"/>
+      <c r="D38" s="113"/>
+      <c r="E38" s="111"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -36697,10 +36694,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="126"/>
-      <c r="C39" s="117"/>
-      <c r="D39" s="128"/>
-      <c r="E39" s="126"/>
+      <c r="B39" s="111"/>
+      <c r="C39" s="108"/>
+      <c r="D39" s="113"/>
+      <c r="E39" s="111"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -36765,10 +36762,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="126"/>
-      <c r="C40" s="117"/>
-      <c r="D40" s="128"/>
-      <c r="E40" s="126"/>
+      <c r="B40" s="111"/>
+      <c r="C40" s="108"/>
+      <c r="D40" s="113"/>
+      <c r="E40" s="111"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -36833,10 +36830,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="126"/>
-      <c r="C41" s="117"/>
-      <c r="D41" s="128"/>
-      <c r="E41" s="126"/>
+      <c r="B41" s="111"/>
+      <c r="C41" s="108"/>
+      <c r="D41" s="113"/>
+      <c r="E41" s="111"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -36901,10 +36898,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="126"/>
-      <c r="C42" s="117"/>
-      <c r="D42" s="128"/>
-      <c r="E42" s="126"/>
+      <c r="B42" s="111"/>
+      <c r="C42" s="108"/>
+      <c r="D42" s="113"/>
+      <c r="E42" s="111"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -36969,10 +36966,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="126"/>
-      <c r="C43" s="117"/>
-      <c r="D43" s="128"/>
-      <c r="E43" s="126"/>
+      <c r="B43" s="111"/>
+      <c r="C43" s="108"/>
+      <c r="D43" s="113"/>
+      <c r="E43" s="111"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -37037,10 +37034,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="126"/>
-      <c r="C44" s="117"/>
-      <c r="D44" s="128"/>
-      <c r="E44" s="126"/>
+      <c r="B44" s="111"/>
+      <c r="C44" s="108"/>
+      <c r="D44" s="113"/>
+      <c r="E44" s="111"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -37105,10 +37102,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="126"/>
-      <c r="C45" s="117"/>
-      <c r="D45" s="128"/>
-      <c r="E45" s="126"/>
+      <c r="B45" s="111"/>
+      <c r="C45" s="108"/>
+      <c r="D45" s="113"/>
+      <c r="E45" s="111"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -37173,10 +37170,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="126"/>
-      <c r="C46" s="117"/>
-      <c r="D46" s="128"/>
-      <c r="E46" s="126"/>
+      <c r="B46" s="111"/>
+      <c r="C46" s="108"/>
+      <c r="D46" s="113"/>
+      <c r="E46" s="111"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -37241,10 +37238,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="126"/>
-      <c r="C47" s="117"/>
-      <c r="D47" s="128"/>
-      <c r="E47" s="126"/>
+      <c r="B47" s="111"/>
+      <c r="C47" s="108"/>
+      <c r="D47" s="113"/>
+      <c r="E47" s="111"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -37309,10 +37306,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="126"/>
-      <c r="C48" s="117"/>
-      <c r="D48" s="128"/>
-      <c r="E48" s="126"/>
+      <c r="B48" s="111"/>
+      <c r="C48" s="108"/>
+      <c r="D48" s="113"/>
+      <c r="E48" s="111"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -37377,10 +37374,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="126"/>
-      <c r="C49" s="117"/>
-      <c r="D49" s="128"/>
-      <c r="E49" s="126"/>
+      <c r="B49" s="111"/>
+      <c r="C49" s="108"/>
+      <c r="D49" s="113"/>
+      <c r="E49" s="111"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -37445,10 +37442,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="126"/>
-      <c r="C50" s="117"/>
-      <c r="D50" s="128"/>
-      <c r="E50" s="126"/>
+      <c r="B50" s="111"/>
+      <c r="C50" s="108"/>
+      <c r="D50" s="113"/>
+      <c r="E50" s="111"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -37513,10 +37510,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="126"/>
-      <c r="C51" s="117"/>
-      <c r="D51" s="128"/>
-      <c r="E51" s="126"/>
+      <c r="B51" s="111"/>
+      <c r="C51" s="108"/>
+      <c r="D51" s="113"/>
+      <c r="E51" s="111"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -37581,10 +37578,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="126"/>
-      <c r="C52" s="117"/>
-      <c r="D52" s="128"/>
-      <c r="E52" s="126"/>
+      <c r="B52" s="111"/>
+      <c r="C52" s="108"/>
+      <c r="D52" s="113"/>
+      <c r="E52" s="111"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -37649,10 +37646,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="126"/>
-      <c r="C53" s="117"/>
-      <c r="D53" s="128"/>
-      <c r="E53" s="126"/>
+      <c r="B53" s="111"/>
+      <c r="C53" s="108"/>
+      <c r="D53" s="113"/>
+      <c r="E53" s="111"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -37717,10 +37714,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="126"/>
-      <c r="C54" s="117"/>
-      <c r="D54" s="128"/>
-      <c r="E54" s="126"/>
+      <c r="B54" s="111"/>
+      <c r="C54" s="108"/>
+      <c r="D54" s="113"/>
+      <c r="E54" s="111"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -37785,10 +37782,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="126"/>
-      <c r="C55" s="117"/>
-      <c r="D55" s="128"/>
-      <c r="E55" s="126"/>
+      <c r="B55" s="111"/>
+      <c r="C55" s="108"/>
+      <c r="D55" s="113"/>
+      <c r="E55" s="111"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -37853,10 +37850,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="126"/>
-      <c r="C56" s="117"/>
-      <c r="D56" s="128"/>
-      <c r="E56" s="126"/>
+      <c r="B56" s="111"/>
+      <c r="C56" s="108"/>
+      <c r="D56" s="113"/>
+      <c r="E56" s="111"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -37921,10 +37918,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="126"/>
-      <c r="C57" s="117"/>
-      <c r="D57" s="128"/>
-      <c r="E57" s="126"/>
+      <c r="B57" s="111"/>
+      <c r="C57" s="108"/>
+      <c r="D57" s="113"/>
+      <c r="E57" s="111"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -37984,10 +37981,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="127"/>
-      <c r="C58" s="124"/>
-      <c r="D58" s="128"/>
-      <c r="E58" s="127"/>
+      <c r="B58" s="112"/>
+      <c r="C58" s="109"/>
+      <c r="D58" s="113"/>
+      <c r="E58" s="112"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -38052,7 +38049,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="118" t="s">
+      <c r="B59" s="101" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -38124,7 +38121,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="118"/>
+      <c r="B60" s="101"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -38194,7 +38191,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="119" t="s">
+      <c r="B61" s="102" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -38266,7 +38263,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="119"/>
+      <c r="B62" s="102"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -38334,7 +38331,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="119"/>
+      <c r="B63" s="102"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -38543,27 +38540,16 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="E31:E58"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:BM5"/>
+    <mergeCell ref="AT6:AX6"/>
+    <mergeCell ref="AY6:BC6"/>
+    <mergeCell ref="BD6:BH6"/>
+    <mergeCell ref="BI6:BM6"/>
     <mergeCell ref="BN5:BN6"/>
     <mergeCell ref="BO5:BO6"/>
     <mergeCell ref="F6:J6"/>
@@ -38574,16 +38560,27 @@
     <mergeCell ref="AE6:AI6"/>
     <mergeCell ref="AJ6:AN6"/>
     <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:BM5"/>
-    <mergeCell ref="AT6:AX6"/>
-    <mergeCell ref="AY6:BC6"/>
-    <mergeCell ref="BD6:BH6"/>
-    <mergeCell ref="BI6:BM6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="E31:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -38594,7 +38591,7 @@
   <dimension ref="A1:AML65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="BI27" sqref="BI27"/>
+      <selection activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -38615,13 +38612,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="126" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
     </row>
     <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
@@ -38787,84 +38784,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="100" t="s">
+      <c r="B5" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="101" t="s">
+      <c r="C5" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="102" t="s">
+      <c r="D5" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="100" t="s">
+      <c r="E5" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="103" t="s">
+      <c r="F5" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="103"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="103"/>
-      <c r="J5" s="103"/>
-      <c r="K5" s="103"/>
-      <c r="L5" s="103"/>
-      <c r="M5" s="103"/>
-      <c r="N5" s="103"/>
-      <c r="O5" s="103"/>
-      <c r="P5" s="103"/>
-      <c r="Q5" s="103"/>
-      <c r="R5" s="103"/>
-      <c r="S5" s="103"/>
-      <c r="T5" s="103"/>
-      <c r="U5" s="103"/>
-      <c r="V5" s="103"/>
-      <c r="W5" s="103"/>
-      <c r="X5" s="103"/>
-      <c r="Y5" s="103"/>
-      <c r="Z5" s="103"/>
-      <c r="AA5" s="103"/>
-      <c r="AB5" s="103"/>
-      <c r="AC5" s="103"/>
-      <c r="AD5" s="103"/>
-      <c r="AE5" s="103"/>
-      <c r="AF5" s="103"/>
-      <c r="AG5" s="103"/>
-      <c r="AH5" s="103"/>
-      <c r="AI5" s="103"/>
-      <c r="AJ5" s="103"/>
-      <c r="AK5" s="103"/>
-      <c r="AL5" s="103"/>
-      <c r="AM5" s="103"/>
-      <c r="AN5" s="103"/>
-      <c r="AO5" s="103"/>
-      <c r="AP5" s="103"/>
-      <c r="AQ5" s="103"/>
-      <c r="AR5" s="103"/>
-      <c r="AS5" s="103"/>
-      <c r="AT5" s="103"/>
-      <c r="AU5" s="103"/>
-      <c r="AV5" s="103"/>
-      <c r="AW5" s="103"/>
-      <c r="AX5" s="103"/>
-      <c r="AY5" s="103"/>
-      <c r="AZ5" s="103"/>
-      <c r="BA5" s="103"/>
-      <c r="BB5" s="103"/>
-      <c r="BC5" s="103"/>
-      <c r="BD5" s="103"/>
-      <c r="BE5" s="103"/>
-      <c r="BF5" s="103"/>
-      <c r="BG5" s="103"/>
-      <c r="BH5" s="103"/>
-      <c r="BI5" s="103"/>
-      <c r="BJ5" s="103"/>
-      <c r="BK5" s="103"/>
-      <c r="BL5" s="103"/>
-      <c r="BM5" s="103"/>
-      <c r="BN5" s="106" t="s">
+      <c r="G5" s="129"/>
+      <c r="H5" s="129"/>
+      <c r="I5" s="129"/>
+      <c r="J5" s="129"/>
+      <c r="K5" s="129"/>
+      <c r="L5" s="129"/>
+      <c r="M5" s="129"/>
+      <c r="N5" s="129"/>
+      <c r="O5" s="129"/>
+      <c r="P5" s="129"/>
+      <c r="Q5" s="129"/>
+      <c r="R5" s="129"/>
+      <c r="S5" s="129"/>
+      <c r="T5" s="129"/>
+      <c r="U5" s="129"/>
+      <c r="V5" s="129"/>
+      <c r="W5" s="129"/>
+      <c r="X5" s="129"/>
+      <c r="Y5" s="129"/>
+      <c r="Z5" s="129"/>
+      <c r="AA5" s="129"/>
+      <c r="AB5" s="129"/>
+      <c r="AC5" s="129"/>
+      <c r="AD5" s="129"/>
+      <c r="AE5" s="129"/>
+      <c r="AF5" s="129"/>
+      <c r="AG5" s="129"/>
+      <c r="AH5" s="129"/>
+      <c r="AI5" s="129"/>
+      <c r="AJ5" s="129"/>
+      <c r="AK5" s="129"/>
+      <c r="AL5" s="129"/>
+      <c r="AM5" s="129"/>
+      <c r="AN5" s="129"/>
+      <c r="AO5" s="129"/>
+      <c r="AP5" s="129"/>
+      <c r="AQ5" s="129"/>
+      <c r="AR5" s="129"/>
+      <c r="AS5" s="129"/>
+      <c r="AT5" s="129"/>
+      <c r="AU5" s="129"/>
+      <c r="AV5" s="129"/>
+      <c r="AW5" s="129"/>
+      <c r="AX5" s="129"/>
+      <c r="AY5" s="129"/>
+      <c r="AZ5" s="129"/>
+      <c r="BA5" s="129"/>
+      <c r="BB5" s="129"/>
+      <c r="BC5" s="129"/>
+      <c r="BD5" s="129"/>
+      <c r="BE5" s="129"/>
+      <c r="BF5" s="129"/>
+      <c r="BG5" s="129"/>
+      <c r="BH5" s="129"/>
+      <c r="BI5" s="129"/>
+      <c r="BJ5" s="129"/>
+      <c r="BK5" s="129"/>
+      <c r="BL5" s="129"/>
+      <c r="BM5" s="129"/>
+      <c r="BN5" s="123" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="100" t="s">
+      <c r="BO5" s="124" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -38873,107 +38870,107 @@
       <c r="BU5" s="94"/>
     </row>
     <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="100"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="104" t="s">
+      <c r="B6" s="124"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="124"/>
+      <c r="F6" s="125" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="104"/>
-      <c r="H6" s="104"/>
-      <c r="I6" s="104"/>
-      <c r="J6" s="104"/>
-      <c r="K6" s="104" t="s">
+      <c r="G6" s="125"/>
+      <c r="H6" s="125"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="125"/>
+      <c r="K6" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="104"/>
-      <c r="M6" s="104"/>
-      <c r="N6" s="104"/>
-      <c r="O6" s="104"/>
-      <c r="P6" s="104" t="s">
+      <c r="L6" s="125"/>
+      <c r="M6" s="125"/>
+      <c r="N6" s="125"/>
+      <c r="O6" s="125"/>
+      <c r="P6" s="125" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="104"/>
-      <c r="R6" s="104"/>
-      <c r="S6" s="104"/>
-      <c r="T6" s="104"/>
-      <c r="U6" s="104" t="s">
+      <c r="Q6" s="125"/>
+      <c r="R6" s="125"/>
+      <c r="S6" s="125"/>
+      <c r="T6" s="125"/>
+      <c r="U6" s="125" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="104"/>
-      <c r="W6" s="104"/>
-      <c r="X6" s="104"/>
-      <c r="Y6" s="104"/>
-      <c r="Z6" s="104" t="s">
+      <c r="V6" s="125"/>
+      <c r="W6" s="125"/>
+      <c r="X6" s="125"/>
+      <c r="Y6" s="125"/>
+      <c r="Z6" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="104"/>
-      <c r="AB6" s="104"/>
-      <c r="AC6" s="104"/>
-      <c r="AD6" s="104"/>
-      <c r="AE6" s="104" t="s">
+      <c r="AA6" s="125"/>
+      <c r="AB6" s="125"/>
+      <c r="AC6" s="125"/>
+      <c r="AD6" s="125"/>
+      <c r="AE6" s="125" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="104"/>
-      <c r="AG6" s="104"/>
-      <c r="AH6" s="104"/>
-      <c r="AI6" s="104"/>
-      <c r="AJ6" s="104" t="s">
+      <c r="AF6" s="125"/>
+      <c r="AG6" s="125"/>
+      <c r="AH6" s="125"/>
+      <c r="AI6" s="125"/>
+      <c r="AJ6" s="125" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="104"/>
-      <c r="AL6" s="104"/>
-      <c r="AM6" s="104"/>
-      <c r="AN6" s="104"/>
-      <c r="AO6" s="104" t="s">
+      <c r="AK6" s="125"/>
+      <c r="AL6" s="125"/>
+      <c r="AM6" s="125"/>
+      <c r="AN6" s="125"/>
+      <c r="AO6" s="125" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="104"/>
-      <c r="AQ6" s="104"/>
-      <c r="AR6" s="104"/>
-      <c r="AS6" s="104"/>
-      <c r="AT6" s="104" t="s">
+      <c r="AP6" s="125"/>
+      <c r="AQ6" s="125"/>
+      <c r="AR6" s="125"/>
+      <c r="AS6" s="125"/>
+      <c r="AT6" s="125" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="104"/>
-      <c r="AV6" s="104"/>
-      <c r="AW6" s="104"/>
-      <c r="AX6" s="104"/>
-      <c r="AY6" s="104" t="s">
+      <c r="AU6" s="125"/>
+      <c r="AV6" s="125"/>
+      <c r="AW6" s="125"/>
+      <c r="AX6" s="125"/>
+      <c r="AY6" s="125" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="104"/>
-      <c r="BA6" s="104"/>
-      <c r="BB6" s="104"/>
-      <c r="BC6" s="104"/>
-      <c r="BD6" s="104" t="s">
+      <c r="AZ6" s="125"/>
+      <c r="BA6" s="125"/>
+      <c r="BB6" s="125"/>
+      <c r="BC6" s="125"/>
+      <c r="BD6" s="125" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="104"/>
-      <c r="BF6" s="104"/>
-      <c r="BG6" s="104"/>
-      <c r="BH6" s="104"/>
-      <c r="BI6" s="105" t="s">
+      <c r="BE6" s="125"/>
+      <c r="BF6" s="125"/>
+      <c r="BG6" s="125"/>
+      <c r="BH6" s="125"/>
+      <c r="BI6" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="105"/>
-      <c r="BK6" s="105"/>
-      <c r="BL6" s="105"/>
-      <c r="BM6" s="105"/>
-      <c r="BN6" s="106"/>
-      <c r="BO6" s="100"/>
+      <c r="BJ6" s="130"/>
+      <c r="BK6" s="130"/>
+      <c r="BL6" s="130"/>
+      <c r="BM6" s="130"/>
+      <c r="BN6" s="123"/>
+      <c r="BO6" s="124"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="118" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="107"/>
-      <c r="E7" s="108"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="119"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -39998,12 +39995,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="107"/>
+      <c r="B8" s="118"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="107"/>
-      <c r="E8" s="109"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="116"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -41027,22 +41024,22 @@
       <c r="AML8" s="23"/>
     </row>
     <row r="9" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="110" t="s">
+      <c r="B9" s="114" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="111"/>
-      <c r="E9" s="112"/>
+      <c r="D9" s="115"/>
+      <c r="E9" s="120"/>
       <c r="F9" s="81"/>
-      <c r="G9" s="130"/>
-      <c r="H9" s="135"/>
-      <c r="I9" s="130"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="100"/>
+      <c r="I9" s="82"/>
       <c r="J9" s="82"/>
-      <c r="K9" s="129"/>
-      <c r="L9" s="130"/>
-      <c r="M9" s="17"/>
+      <c r="K9" s="131"/>
+      <c r="L9" s="82"/>
+      <c r="M9" s="82"/>
       <c r="N9" s="17"/>
       <c r="O9" s="18"/>
       <c r="P9" s="19"/>
@@ -42058,20 +42055,20 @@
       <c r="AML9" s="21"/>
     </row>
     <row r="10" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B10" s="110"/>
+      <c r="B10" s="114"/>
       <c r="C10" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="111"/>
-      <c r="E10" s="113"/>
+      <c r="D10" s="115"/>
+      <c r="E10" s="121"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
       <c r="I10" s="78"/>
       <c r="J10" s="78"/>
-      <c r="K10" s="131"/>
-      <c r="L10" s="132"/>
-      <c r="M10" s="134"/>
+      <c r="K10" s="89"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="99"/>
       <c r="N10" s="21"/>
       <c r="O10" s="30"/>
       <c r="P10" s="29"/>
@@ -43087,19 +43084,19 @@
       <c r="AML10" s="21"/>
     </row>
     <row r="11" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="110"/>
+      <c r="B11" s="114"/>
       <c r="C11" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="111"/>
-      <c r="E11" s="113"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="121"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
       <c r="I11" s="78"/>
       <c r="J11" s="78"/>
-      <c r="K11" s="131"/>
-      <c r="L11" s="132"/>
+      <c r="K11" s="89"/>
+      <c r="L11" s="78"/>
       <c r="M11" s="21"/>
       <c r="N11" s="21"/>
       <c r="O11" s="30"/>
@@ -44116,25 +44113,25 @@
       <c r="AML11" s="21"/>
     </row>
     <row r="12" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="110"/>
+      <c r="B12" s="114"/>
       <c r="C12" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="111"/>
-      <c r="E12" s="114"/>
+      <c r="D12" s="115"/>
+      <c r="E12" s="122"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
       <c r="I12" s="85"/>
       <c r="J12" s="85"/>
-      <c r="K12" s="131"/>
-      <c r="L12" s="133"/>
+      <c r="K12" s="89"/>
+      <c r="L12" s="85"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="30"/>
       <c r="P12" s="29"/>
       <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
+      <c r="R12" s="99"/>
       <c r="S12" s="21"/>
       <c r="T12" s="30"/>
       <c r="U12" s="29"/>
@@ -44186,14 +44183,14 @@
       <c r="BO12" s="31"/>
     </row>
     <row r="13" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B13" s="110" t="s">
+      <c r="B13" s="114" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="111"/>
-      <c r="E13" s="109"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="116"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -44211,7 +44208,7 @@
       <c r="T13" s="18"/>
       <c r="U13" s="19"/>
       <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
+      <c r="W13" s="132"/>
       <c r="X13" s="17"/>
       <c r="Y13" s="18"/>
       <c r="Z13" s="19"/>
@@ -44258,12 +44255,12 @@
       <c r="BO13" s="20"/>
     </row>
     <row r="14" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B14" s="110"/>
+      <c r="B14" s="114"/>
       <c r="C14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="111"/>
-      <c r="E14" s="109"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="116"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -44328,12 +44325,12 @@
       <c r="BO14" s="31"/>
     </row>
     <row r="15" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="110"/>
+      <c r="B15" s="114"/>
       <c r="C15" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="111"/>
-      <c r="E15" s="109"/>
+      <c r="D15" s="115"/>
+      <c r="E15" s="116"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -44398,12 +44395,12 @@
       <c r="BO15" s="31"/>
     </row>
     <row r="16" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B16" s="110"/>
+      <c r="B16" s="114"/>
       <c r="C16" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="111"/>
-      <c r="E16" s="109"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="116"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -44468,12 +44465,12 @@
       <c r="BO16" s="31"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B17" s="110"/>
+      <c r="B17" s="114"/>
       <c r="C17" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="111"/>
-      <c r="E17" s="109"/>
+      <c r="D17" s="115"/>
+      <c r="E17" s="116"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -44538,12 +44535,12 @@
       <c r="BO17" s="31"/>
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B18" s="110"/>
+      <c r="B18" s="114"/>
       <c r="C18" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="111"/>
-      <c r="E18" s="109"/>
+      <c r="D18" s="115"/>
+      <c r="E18" s="116"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -44608,12 +44605,12 @@
       <c r="BO18" s="31"/>
     </row>
     <row r="19" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B19" s="110"/>
+      <c r="B19" s="114"/>
       <c r="C19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="111"/>
-      <c r="E19" s="109"/>
+      <c r="D19" s="115"/>
+      <c r="E19" s="116"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -44678,14 +44675,14 @@
       <c r="BO19" s="27"/>
     </row>
     <row r="20" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B20" s="115" t="s">
+      <c r="B20" s="117" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="107"/>
-      <c r="E20" s="116"/>
+      <c r="D20" s="118"/>
+      <c r="E20" s="107"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -44750,12 +44747,12 @@
       <c r="BO20" s="20"/>
     </row>
     <row r="21" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B21" s="115"/>
+      <c r="B21" s="117"/>
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="107"/>
-      <c r="E21" s="117"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="108"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -44820,12 +44817,12 @@
       <c r="BO21" s="31"/>
     </row>
     <row r="22" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B22" s="115"/>
+      <c r="B22" s="117"/>
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="107"/>
-      <c r="E22" s="117"/>
+      <c r="D22" s="118"/>
+      <c r="E22" s="108"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -44890,12 +44887,12 @@
       <c r="BO22" s="31"/>
     </row>
     <row r="23" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B23" s="115"/>
+      <c r="B23" s="117"/>
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="107"/>
-      <c r="E23" s="117"/>
+      <c r="D23" s="118"/>
+      <c r="E23" s="108"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -44960,12 +44957,12 @@
       <c r="BO23" s="31"/>
     </row>
     <row r="24" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B24" s="115"/>
+      <c r="B24" s="117"/>
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="107"/>
-      <c r="E24" s="117"/>
+      <c r="D24" s="118"/>
+      <c r="E24" s="108"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -45030,14 +45027,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="120" t="s">
+      <c r="B25" s="103" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="123"/>
-      <c r="E25" s="116"/>
+      <c r="D25" s="106"/>
+      <c r="E25" s="107"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -45102,12 +45099,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="121"/>
+      <c r="B26" s="104"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="123"/>
-      <c r="E26" s="117"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="108"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -45172,12 +45169,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="121"/>
+      <c r="B27" s="104"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="123"/>
-      <c r="E27" s="117"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="108"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -45242,12 +45239,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="121"/>
+      <c r="B28" s="104"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="123"/>
-      <c r="E28" s="117"/>
+      <c r="D28" s="106"/>
+      <c r="E28" s="108"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -45312,12 +45309,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="122"/>
+      <c r="B29" s="105"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="123"/>
-      <c r="E29" s="124"/>
+      <c r="D29" s="106"/>
+      <c r="E29" s="109"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -45454,10 +45451,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="125"/>
-      <c r="C31" s="116"/>
-      <c r="D31" s="128"/>
-      <c r="E31" s="125"/>
+      <c r="B31" s="110"/>
+      <c r="C31" s="107"/>
+      <c r="D31" s="113"/>
+      <c r="E31" s="110"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -45522,10 +45519,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="126"/>
-      <c r="C32" s="117"/>
-      <c r="D32" s="128"/>
-      <c r="E32" s="126"/>
+      <c r="B32" s="111"/>
+      <c r="C32" s="108"/>
+      <c r="D32" s="113"/>
+      <c r="E32" s="111"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -45590,10 +45587,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="126"/>
-      <c r="C33" s="117"/>
-      <c r="D33" s="128"/>
-      <c r="E33" s="126"/>
+      <c r="B33" s="111"/>
+      <c r="C33" s="108"/>
+      <c r="D33" s="113"/>
+      <c r="E33" s="111"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -45658,10 +45655,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="126"/>
-      <c r="C34" s="117"/>
-      <c r="D34" s="128"/>
-      <c r="E34" s="126"/>
+      <c r="B34" s="111"/>
+      <c r="C34" s="108"/>
+      <c r="D34" s="113"/>
+      <c r="E34" s="111"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -45726,10 +45723,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="126"/>
-      <c r="C35" s="117"/>
-      <c r="D35" s="128"/>
-      <c r="E35" s="126"/>
+      <c r="B35" s="111"/>
+      <c r="C35" s="108"/>
+      <c r="D35" s="113"/>
+      <c r="E35" s="111"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -45794,10 +45791,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="126"/>
-      <c r="C36" s="117"/>
-      <c r="D36" s="128"/>
-      <c r="E36" s="126"/>
+      <c r="B36" s="111"/>
+      <c r="C36" s="108"/>
+      <c r="D36" s="113"/>
+      <c r="E36" s="111"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -45862,10 +45859,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="126"/>
-      <c r="C37" s="117"/>
-      <c r="D37" s="128"/>
-      <c r="E37" s="126"/>
+      <c r="B37" s="111"/>
+      <c r="C37" s="108"/>
+      <c r="D37" s="113"/>
+      <c r="E37" s="111"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -45930,10 +45927,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="126"/>
-      <c r="C38" s="117"/>
-      <c r="D38" s="128"/>
-      <c r="E38" s="126"/>
+      <c r="B38" s="111"/>
+      <c r="C38" s="108"/>
+      <c r="D38" s="113"/>
+      <c r="E38" s="111"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -45998,10 +45995,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="126"/>
-      <c r="C39" s="117"/>
-      <c r="D39" s="128"/>
-      <c r="E39" s="126"/>
+      <c r="B39" s="111"/>
+      <c r="C39" s="108"/>
+      <c r="D39" s="113"/>
+      <c r="E39" s="111"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -46066,10 +46063,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="126"/>
-      <c r="C40" s="117"/>
-      <c r="D40" s="128"/>
-      <c r="E40" s="126"/>
+      <c r="B40" s="111"/>
+      <c r="C40" s="108"/>
+      <c r="D40" s="113"/>
+      <c r="E40" s="111"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -46134,10 +46131,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="126"/>
-      <c r="C41" s="117"/>
-      <c r="D41" s="128"/>
-      <c r="E41" s="126"/>
+      <c r="B41" s="111"/>
+      <c r="C41" s="108"/>
+      <c r="D41" s="113"/>
+      <c r="E41" s="111"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -46202,10 +46199,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="126"/>
-      <c r="C42" s="117"/>
-      <c r="D42" s="128"/>
-      <c r="E42" s="126"/>
+      <c r="B42" s="111"/>
+      <c r="C42" s="108"/>
+      <c r="D42" s="113"/>
+      <c r="E42" s="111"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -46270,10 +46267,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="126"/>
-      <c r="C43" s="117"/>
-      <c r="D43" s="128"/>
-      <c r="E43" s="126"/>
+      <c r="B43" s="111"/>
+      <c r="C43" s="108"/>
+      <c r="D43" s="113"/>
+      <c r="E43" s="111"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -46338,10 +46335,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="126"/>
-      <c r="C44" s="117"/>
-      <c r="D44" s="128"/>
-      <c r="E44" s="126"/>
+      <c r="B44" s="111"/>
+      <c r="C44" s="108"/>
+      <c r="D44" s="113"/>
+      <c r="E44" s="111"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -46406,10 +46403,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="126"/>
-      <c r="C45" s="117"/>
-      <c r="D45" s="128"/>
-      <c r="E45" s="126"/>
+      <c r="B45" s="111"/>
+      <c r="C45" s="108"/>
+      <c r="D45" s="113"/>
+      <c r="E45" s="111"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -46474,10 +46471,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="126"/>
-      <c r="C46" s="117"/>
-      <c r="D46" s="128"/>
-      <c r="E46" s="126"/>
+      <c r="B46" s="111"/>
+      <c r="C46" s="108"/>
+      <c r="D46" s="113"/>
+      <c r="E46" s="111"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -46542,10 +46539,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="126"/>
-      <c r="C47" s="117"/>
-      <c r="D47" s="128"/>
-      <c r="E47" s="126"/>
+      <c r="B47" s="111"/>
+      <c r="C47" s="108"/>
+      <c r="D47" s="113"/>
+      <c r="E47" s="111"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -46610,10 +46607,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="126"/>
-      <c r="C48" s="117"/>
-      <c r="D48" s="128"/>
-      <c r="E48" s="126"/>
+      <c r="B48" s="111"/>
+      <c r="C48" s="108"/>
+      <c r="D48" s="113"/>
+      <c r="E48" s="111"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -46678,10 +46675,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="126"/>
-      <c r="C49" s="117"/>
-      <c r="D49" s="128"/>
-      <c r="E49" s="126"/>
+      <c r="B49" s="111"/>
+      <c r="C49" s="108"/>
+      <c r="D49" s="113"/>
+      <c r="E49" s="111"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -46746,10 +46743,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="126"/>
-      <c r="C50" s="117"/>
-      <c r="D50" s="128"/>
-      <c r="E50" s="126"/>
+      <c r="B50" s="111"/>
+      <c r="C50" s="108"/>
+      <c r="D50" s="113"/>
+      <c r="E50" s="111"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -46814,10 +46811,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="126"/>
-      <c r="C51" s="117"/>
-      <c r="D51" s="128"/>
-      <c r="E51" s="126"/>
+      <c r="B51" s="111"/>
+      <c r="C51" s="108"/>
+      <c r="D51" s="113"/>
+      <c r="E51" s="111"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -46882,10 +46879,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="126"/>
-      <c r="C52" s="117"/>
-      <c r="D52" s="128"/>
-      <c r="E52" s="126"/>
+      <c r="B52" s="111"/>
+      <c r="C52" s="108"/>
+      <c r="D52" s="113"/>
+      <c r="E52" s="111"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -46950,10 +46947,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="126"/>
-      <c r="C53" s="117"/>
-      <c r="D53" s="128"/>
-      <c r="E53" s="126"/>
+      <c r="B53" s="111"/>
+      <c r="C53" s="108"/>
+      <c r="D53" s="113"/>
+      <c r="E53" s="111"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -47018,10 +47015,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="126"/>
-      <c r="C54" s="117"/>
-      <c r="D54" s="128"/>
-      <c r="E54" s="126"/>
+      <c r="B54" s="111"/>
+      <c r="C54" s="108"/>
+      <c r="D54" s="113"/>
+      <c r="E54" s="111"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -47086,10 +47083,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="126"/>
-      <c r="C55" s="117"/>
-      <c r="D55" s="128"/>
-      <c r="E55" s="126"/>
+      <c r="B55" s="111"/>
+      <c r="C55" s="108"/>
+      <c r="D55" s="113"/>
+      <c r="E55" s="111"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -47154,10 +47151,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="126"/>
-      <c r="C56" s="117"/>
-      <c r="D56" s="128"/>
-      <c r="E56" s="126"/>
+      <c r="B56" s="111"/>
+      <c r="C56" s="108"/>
+      <c r="D56" s="113"/>
+      <c r="E56" s="111"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -47222,10 +47219,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="126"/>
-      <c r="C57" s="117"/>
-      <c r="D57" s="128"/>
-      <c r="E57" s="126"/>
+      <c r="B57" s="111"/>
+      <c r="C57" s="108"/>
+      <c r="D57" s="113"/>
+      <c r="E57" s="111"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -47285,10 +47282,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="127"/>
-      <c r="C58" s="124"/>
-      <c r="D58" s="128"/>
-      <c r="E58" s="127"/>
+      <c r="B58" s="112"/>
+      <c r="C58" s="109"/>
+      <c r="D58" s="113"/>
+      <c r="E58" s="112"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -47353,7 +47350,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="118" t="s">
+      <c r="B59" s="101" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -47425,7 +47422,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="118"/>
+      <c r="B60" s="101"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -47495,7 +47492,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="119" t="s">
+      <c r="B61" s="102" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -47567,7 +47564,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="119"/>
+      <c r="B62" s="102"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -47635,7 +47632,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="119"/>
+      <c r="B63" s="102"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -47844,27 +47841,16 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="E31:E58"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:BM5"/>
+    <mergeCell ref="AT6:AX6"/>
+    <mergeCell ref="AY6:BC6"/>
+    <mergeCell ref="BD6:BH6"/>
+    <mergeCell ref="BI6:BM6"/>
     <mergeCell ref="BN5:BN6"/>
     <mergeCell ref="BO5:BO6"/>
     <mergeCell ref="F6:J6"/>
@@ -47875,16 +47861,27 @@
     <mergeCell ref="AE6:AI6"/>
     <mergeCell ref="AJ6:AN6"/>
     <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:BM5"/>
-    <mergeCell ref="AT6:AX6"/>
-    <mergeCell ref="AY6:BC6"/>
-    <mergeCell ref="BD6:BH6"/>
-    <mergeCell ref="BI6:BM6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="E31:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -47917,13 +47914,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="126" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
     </row>
     <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
@@ -48089,84 +48086,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="100" t="s">
+      <c r="B5" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="101" t="s">
+      <c r="C5" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="102" t="s">
+      <c r="D5" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="100" t="s">
+      <c r="E5" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="103" t="s">
+      <c r="F5" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="103"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="103"/>
-      <c r="J5" s="103"/>
-      <c r="K5" s="103"/>
-      <c r="L5" s="103"/>
-      <c r="M5" s="103"/>
-      <c r="N5" s="103"/>
-      <c r="O5" s="103"/>
-      <c r="P5" s="103"/>
-      <c r="Q5" s="103"/>
-      <c r="R5" s="103"/>
-      <c r="S5" s="103"/>
-      <c r="T5" s="103"/>
-      <c r="U5" s="103"/>
-      <c r="V5" s="103"/>
-      <c r="W5" s="103"/>
-      <c r="X5" s="103"/>
-      <c r="Y5" s="103"/>
-      <c r="Z5" s="103"/>
-      <c r="AA5" s="103"/>
-      <c r="AB5" s="103"/>
-      <c r="AC5" s="103"/>
-      <c r="AD5" s="103"/>
-      <c r="AE5" s="103"/>
-      <c r="AF5" s="103"/>
-      <c r="AG5" s="103"/>
-      <c r="AH5" s="103"/>
-      <c r="AI5" s="103"/>
-      <c r="AJ5" s="103"/>
-      <c r="AK5" s="103"/>
-      <c r="AL5" s="103"/>
-      <c r="AM5" s="103"/>
-      <c r="AN5" s="103"/>
-      <c r="AO5" s="103"/>
-      <c r="AP5" s="103"/>
-      <c r="AQ5" s="103"/>
-      <c r="AR5" s="103"/>
-      <c r="AS5" s="103"/>
-      <c r="AT5" s="103"/>
-      <c r="AU5" s="103"/>
-      <c r="AV5" s="103"/>
-      <c r="AW5" s="103"/>
-      <c r="AX5" s="103"/>
-      <c r="AY5" s="103"/>
-      <c r="AZ5" s="103"/>
-      <c r="BA5" s="103"/>
-      <c r="BB5" s="103"/>
-      <c r="BC5" s="103"/>
-      <c r="BD5" s="103"/>
-      <c r="BE5" s="103"/>
-      <c r="BF5" s="103"/>
-      <c r="BG5" s="103"/>
-      <c r="BH5" s="103"/>
-      <c r="BI5" s="103"/>
-      <c r="BJ5" s="103"/>
-      <c r="BK5" s="103"/>
-      <c r="BL5" s="103"/>
-      <c r="BM5" s="103"/>
-      <c r="BN5" s="106" t="s">
+      <c r="G5" s="129"/>
+      <c r="H5" s="129"/>
+      <c r="I5" s="129"/>
+      <c r="J5" s="129"/>
+      <c r="K5" s="129"/>
+      <c r="L5" s="129"/>
+      <c r="M5" s="129"/>
+      <c r="N5" s="129"/>
+      <c r="O5" s="129"/>
+      <c r="P5" s="129"/>
+      <c r="Q5" s="129"/>
+      <c r="R5" s="129"/>
+      <c r="S5" s="129"/>
+      <c r="T5" s="129"/>
+      <c r="U5" s="129"/>
+      <c r="V5" s="129"/>
+      <c r="W5" s="129"/>
+      <c r="X5" s="129"/>
+      <c r="Y5" s="129"/>
+      <c r="Z5" s="129"/>
+      <c r="AA5" s="129"/>
+      <c r="AB5" s="129"/>
+      <c r="AC5" s="129"/>
+      <c r="AD5" s="129"/>
+      <c r="AE5" s="129"/>
+      <c r="AF5" s="129"/>
+      <c r="AG5" s="129"/>
+      <c r="AH5" s="129"/>
+      <c r="AI5" s="129"/>
+      <c r="AJ5" s="129"/>
+      <c r="AK5" s="129"/>
+      <c r="AL5" s="129"/>
+      <c r="AM5" s="129"/>
+      <c r="AN5" s="129"/>
+      <c r="AO5" s="129"/>
+      <c r="AP5" s="129"/>
+      <c r="AQ5" s="129"/>
+      <c r="AR5" s="129"/>
+      <c r="AS5" s="129"/>
+      <c r="AT5" s="129"/>
+      <c r="AU5" s="129"/>
+      <c r="AV5" s="129"/>
+      <c r="AW5" s="129"/>
+      <c r="AX5" s="129"/>
+      <c r="AY5" s="129"/>
+      <c r="AZ5" s="129"/>
+      <c r="BA5" s="129"/>
+      <c r="BB5" s="129"/>
+      <c r="BC5" s="129"/>
+      <c r="BD5" s="129"/>
+      <c r="BE5" s="129"/>
+      <c r="BF5" s="129"/>
+      <c r="BG5" s="129"/>
+      <c r="BH5" s="129"/>
+      <c r="BI5" s="129"/>
+      <c r="BJ5" s="129"/>
+      <c r="BK5" s="129"/>
+      <c r="BL5" s="129"/>
+      <c r="BM5" s="129"/>
+      <c r="BN5" s="123" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="100" t="s">
+      <c r="BO5" s="124" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -48175,107 +48172,107 @@
       <c r="BU5" s="94"/>
     </row>
     <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="100"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="104" t="s">
+      <c r="B6" s="124"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="124"/>
+      <c r="F6" s="125" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="104"/>
-      <c r="H6" s="104"/>
-      <c r="I6" s="104"/>
-      <c r="J6" s="104"/>
-      <c r="K6" s="104" t="s">
+      <c r="G6" s="125"/>
+      <c r="H6" s="125"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="125"/>
+      <c r="K6" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="104"/>
-      <c r="M6" s="104"/>
-      <c r="N6" s="104"/>
-      <c r="O6" s="104"/>
-      <c r="P6" s="104" t="s">
+      <c r="L6" s="125"/>
+      <c r="M6" s="125"/>
+      <c r="N6" s="125"/>
+      <c r="O6" s="125"/>
+      <c r="P6" s="125" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="104"/>
-      <c r="R6" s="104"/>
-      <c r="S6" s="104"/>
-      <c r="T6" s="104"/>
-      <c r="U6" s="104" t="s">
+      <c r="Q6" s="125"/>
+      <c r="R6" s="125"/>
+      <c r="S6" s="125"/>
+      <c r="T6" s="125"/>
+      <c r="U6" s="125" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="104"/>
-      <c r="W6" s="104"/>
-      <c r="X6" s="104"/>
-      <c r="Y6" s="104"/>
-      <c r="Z6" s="104" t="s">
+      <c r="V6" s="125"/>
+      <c r="W6" s="125"/>
+      <c r="X6" s="125"/>
+      <c r="Y6" s="125"/>
+      <c r="Z6" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="104"/>
-      <c r="AB6" s="104"/>
-      <c r="AC6" s="104"/>
-      <c r="AD6" s="104"/>
-      <c r="AE6" s="104" t="s">
+      <c r="AA6" s="125"/>
+      <c r="AB6" s="125"/>
+      <c r="AC6" s="125"/>
+      <c r="AD6" s="125"/>
+      <c r="AE6" s="125" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="104"/>
-      <c r="AG6" s="104"/>
-      <c r="AH6" s="104"/>
-      <c r="AI6" s="104"/>
-      <c r="AJ6" s="104" t="s">
+      <c r="AF6" s="125"/>
+      <c r="AG6" s="125"/>
+      <c r="AH6" s="125"/>
+      <c r="AI6" s="125"/>
+      <c r="AJ6" s="125" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="104"/>
-      <c r="AL6" s="104"/>
-      <c r="AM6" s="104"/>
-      <c r="AN6" s="104"/>
-      <c r="AO6" s="104" t="s">
+      <c r="AK6" s="125"/>
+      <c r="AL6" s="125"/>
+      <c r="AM6" s="125"/>
+      <c r="AN6" s="125"/>
+      <c r="AO6" s="125" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="104"/>
-      <c r="AQ6" s="104"/>
-      <c r="AR6" s="104"/>
-      <c r="AS6" s="104"/>
-      <c r="AT6" s="104" t="s">
+      <c r="AP6" s="125"/>
+      <c r="AQ6" s="125"/>
+      <c r="AR6" s="125"/>
+      <c r="AS6" s="125"/>
+      <c r="AT6" s="125" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="104"/>
-      <c r="AV6" s="104"/>
-      <c r="AW6" s="104"/>
-      <c r="AX6" s="104"/>
-      <c r="AY6" s="104" t="s">
+      <c r="AU6" s="125"/>
+      <c r="AV6" s="125"/>
+      <c r="AW6" s="125"/>
+      <c r="AX6" s="125"/>
+      <c r="AY6" s="125" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="104"/>
-      <c r="BA6" s="104"/>
-      <c r="BB6" s="104"/>
-      <c r="BC6" s="104"/>
-      <c r="BD6" s="104" t="s">
+      <c r="AZ6" s="125"/>
+      <c r="BA6" s="125"/>
+      <c r="BB6" s="125"/>
+      <c r="BC6" s="125"/>
+      <c r="BD6" s="125" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="104"/>
-      <c r="BF6" s="104"/>
-      <c r="BG6" s="104"/>
-      <c r="BH6" s="104"/>
-      <c r="BI6" s="105" t="s">
+      <c r="BE6" s="125"/>
+      <c r="BF6" s="125"/>
+      <c r="BG6" s="125"/>
+      <c r="BH6" s="125"/>
+      <c r="BI6" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="105"/>
-      <c r="BK6" s="105"/>
-      <c r="BL6" s="105"/>
-      <c r="BM6" s="105"/>
-      <c r="BN6" s="106"/>
-      <c r="BO6" s="100"/>
+      <c r="BJ6" s="130"/>
+      <c r="BK6" s="130"/>
+      <c r="BL6" s="130"/>
+      <c r="BM6" s="130"/>
+      <c r="BN6" s="123"/>
+      <c r="BO6" s="124"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="118" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="107"/>
-      <c r="E7" s="108"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="119"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -49300,12 +49297,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="107"/>
+      <c r="B8" s="118"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="107"/>
-      <c r="E8" s="109"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="116"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -50329,14 +50326,14 @@
       <c r="AML8" s="23"/>
     </row>
     <row r="9" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="110" t="s">
+      <c r="B9" s="114" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="111"/>
-      <c r="E9" s="112"/>
+      <c r="D9" s="115"/>
+      <c r="E9" s="120"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
       <c r="H9" s="83"/>
@@ -51360,12 +51357,12 @@
       <c r="AML9" s="21"/>
     </row>
     <row r="10" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B10" s="110"/>
+      <c r="B10" s="114"/>
       <c r="C10" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="111"/>
-      <c r="E10" s="113"/>
+      <c r="D10" s="115"/>
+      <c r="E10" s="121"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -52389,12 +52386,12 @@
       <c r="AML10" s="21"/>
     </row>
     <row r="11" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="110"/>
+      <c r="B11" s="114"/>
       <c r="C11" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="111"/>
-      <c r="E11" s="113"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="121"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -53418,12 +53415,12 @@
       <c r="AML11" s="21"/>
     </row>
     <row r="12" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="110"/>
+      <c r="B12" s="114"/>
       <c r="C12" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="111"/>
-      <c r="E12" s="114"/>
+      <c r="D12" s="115"/>
+      <c r="E12" s="122"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -53488,14 +53485,14 @@
       <c r="BO12" s="31"/>
     </row>
     <row r="13" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B13" s="110" t="s">
+      <c r="B13" s="114" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="111"/>
-      <c r="E13" s="109"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="116"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -53560,12 +53557,12 @@
       <c r="BO13" s="20"/>
     </row>
     <row r="14" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B14" s="110"/>
+      <c r="B14" s="114"/>
       <c r="C14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="111"/>
-      <c r="E14" s="109"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="116"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -53630,12 +53627,12 @@
       <c r="BO14" s="31"/>
     </row>
     <row r="15" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="110"/>
+      <c r="B15" s="114"/>
       <c r="C15" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="111"/>
-      <c r="E15" s="109"/>
+      <c r="D15" s="115"/>
+      <c r="E15" s="116"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -53700,12 +53697,12 @@
       <c r="BO15" s="31"/>
     </row>
     <row r="16" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B16" s="110"/>
+      <c r="B16" s="114"/>
       <c r="C16" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="111"/>
-      <c r="E16" s="109"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="116"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -53770,12 +53767,12 @@
       <c r="BO16" s="31"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B17" s="110"/>
+      <c r="B17" s="114"/>
       <c r="C17" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="111"/>
-      <c r="E17" s="109"/>
+      <c r="D17" s="115"/>
+      <c r="E17" s="116"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -53840,12 +53837,12 @@
       <c r="BO17" s="31"/>
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B18" s="110"/>
+      <c r="B18" s="114"/>
       <c r="C18" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="111"/>
-      <c r="E18" s="109"/>
+      <c r="D18" s="115"/>
+      <c r="E18" s="116"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -53910,12 +53907,12 @@
       <c r="BO18" s="31"/>
     </row>
     <row r="19" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B19" s="110"/>
+      <c r="B19" s="114"/>
       <c r="C19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="111"/>
-      <c r="E19" s="109"/>
+      <c r="D19" s="115"/>
+      <c r="E19" s="116"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -53980,14 +53977,14 @@
       <c r="BO19" s="27"/>
     </row>
     <row r="20" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B20" s="115" t="s">
+      <c r="B20" s="117" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="107"/>
-      <c r="E20" s="116"/>
+      <c r="D20" s="118"/>
+      <c r="E20" s="107"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -54052,12 +54049,12 @@
       <c r="BO20" s="20"/>
     </row>
     <row r="21" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B21" s="115"/>
+      <c r="B21" s="117"/>
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="107"/>
-      <c r="E21" s="117"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="108"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -54122,12 +54119,12 @@
       <c r="BO21" s="31"/>
     </row>
     <row r="22" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B22" s="115"/>
+      <c r="B22" s="117"/>
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="107"/>
-      <c r="E22" s="117"/>
+      <c r="D22" s="118"/>
+      <c r="E22" s="108"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -54192,12 +54189,12 @@
       <c r="BO22" s="31"/>
     </row>
     <row r="23" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B23" s="115"/>
+      <c r="B23" s="117"/>
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="107"/>
-      <c r="E23" s="117"/>
+      <c r="D23" s="118"/>
+      <c r="E23" s="108"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -54262,12 +54259,12 @@
       <c r="BO23" s="31"/>
     </row>
     <row r="24" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B24" s="115"/>
+      <c r="B24" s="117"/>
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="107"/>
-      <c r="E24" s="117"/>
+      <c r="D24" s="118"/>
+      <c r="E24" s="108"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -54332,14 +54329,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="120" t="s">
+      <c r="B25" s="103" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="123"/>
-      <c r="E25" s="116"/>
+      <c r="D25" s="106"/>
+      <c r="E25" s="107"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -54404,12 +54401,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="121"/>
+      <c r="B26" s="104"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="123"/>
-      <c r="E26" s="117"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="108"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -54474,12 +54471,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="121"/>
+      <c r="B27" s="104"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="123"/>
-      <c r="E27" s="117"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="108"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -54544,12 +54541,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="121"/>
+      <c r="B28" s="104"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="123"/>
-      <c r="E28" s="117"/>
+      <c r="D28" s="106"/>
+      <c r="E28" s="108"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -54614,12 +54611,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="122"/>
+      <c r="B29" s="105"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="123"/>
-      <c r="E29" s="124"/>
+      <c r="D29" s="106"/>
+      <c r="E29" s="109"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -54756,10 +54753,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="125"/>
-      <c r="C31" s="116"/>
-      <c r="D31" s="128"/>
-      <c r="E31" s="125"/>
+      <c r="B31" s="110"/>
+      <c r="C31" s="107"/>
+      <c r="D31" s="113"/>
+      <c r="E31" s="110"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -54824,10 +54821,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="126"/>
-      <c r="C32" s="117"/>
-      <c r="D32" s="128"/>
-      <c r="E32" s="126"/>
+      <c r="B32" s="111"/>
+      <c r="C32" s="108"/>
+      <c r="D32" s="113"/>
+      <c r="E32" s="111"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -54892,10 +54889,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="126"/>
-      <c r="C33" s="117"/>
-      <c r="D33" s="128"/>
-      <c r="E33" s="126"/>
+      <c r="B33" s="111"/>
+      <c r="C33" s="108"/>
+      <c r="D33" s="113"/>
+      <c r="E33" s="111"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -54960,10 +54957,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="126"/>
-      <c r="C34" s="117"/>
-      <c r="D34" s="128"/>
-      <c r="E34" s="126"/>
+      <c r="B34" s="111"/>
+      <c r="C34" s="108"/>
+      <c r="D34" s="113"/>
+      <c r="E34" s="111"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -55028,10 +55025,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="126"/>
-      <c r="C35" s="117"/>
-      <c r="D35" s="128"/>
-      <c r="E35" s="126"/>
+      <c r="B35" s="111"/>
+      <c r="C35" s="108"/>
+      <c r="D35" s="113"/>
+      <c r="E35" s="111"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -55096,10 +55093,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="126"/>
-      <c r="C36" s="117"/>
-      <c r="D36" s="128"/>
-      <c r="E36" s="126"/>
+      <c r="B36" s="111"/>
+      <c r="C36" s="108"/>
+      <c r="D36" s="113"/>
+      <c r="E36" s="111"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -55164,10 +55161,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="126"/>
-      <c r="C37" s="117"/>
-      <c r="D37" s="128"/>
-      <c r="E37" s="126"/>
+      <c r="B37" s="111"/>
+      <c r="C37" s="108"/>
+      <c r="D37" s="113"/>
+      <c r="E37" s="111"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -55232,10 +55229,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="126"/>
-      <c r="C38" s="117"/>
-      <c r="D38" s="128"/>
-      <c r="E38" s="126"/>
+      <c r="B38" s="111"/>
+      <c r="C38" s="108"/>
+      <c r="D38" s="113"/>
+      <c r="E38" s="111"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -55300,10 +55297,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="126"/>
-      <c r="C39" s="117"/>
-      <c r="D39" s="128"/>
-      <c r="E39" s="126"/>
+      <c r="B39" s="111"/>
+      <c r="C39" s="108"/>
+      <c r="D39" s="113"/>
+      <c r="E39" s="111"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -55368,10 +55365,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="126"/>
-      <c r="C40" s="117"/>
-      <c r="D40" s="128"/>
-      <c r="E40" s="126"/>
+      <c r="B40" s="111"/>
+      <c r="C40" s="108"/>
+      <c r="D40" s="113"/>
+      <c r="E40" s="111"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -55436,10 +55433,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="126"/>
-      <c r="C41" s="117"/>
-      <c r="D41" s="128"/>
-      <c r="E41" s="126"/>
+      <c r="B41" s="111"/>
+      <c r="C41" s="108"/>
+      <c r="D41" s="113"/>
+      <c r="E41" s="111"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -55504,10 +55501,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="126"/>
-      <c r="C42" s="117"/>
-      <c r="D42" s="128"/>
-      <c r="E42" s="126"/>
+      <c r="B42" s="111"/>
+      <c r="C42" s="108"/>
+      <c r="D42" s="113"/>
+      <c r="E42" s="111"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -55572,10 +55569,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="126"/>
-      <c r="C43" s="117"/>
-      <c r="D43" s="128"/>
-      <c r="E43" s="126"/>
+      <c r="B43" s="111"/>
+      <c r="C43" s="108"/>
+      <c r="D43" s="113"/>
+      <c r="E43" s="111"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -55640,10 +55637,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="126"/>
-      <c r="C44" s="117"/>
-      <c r="D44" s="128"/>
-      <c r="E44" s="126"/>
+      <c r="B44" s="111"/>
+      <c r="C44" s="108"/>
+      <c r="D44" s="113"/>
+      <c r="E44" s="111"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -55708,10 +55705,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="126"/>
-      <c r="C45" s="117"/>
-      <c r="D45" s="128"/>
-      <c r="E45" s="126"/>
+      <c r="B45" s="111"/>
+      <c r="C45" s="108"/>
+      <c r="D45" s="113"/>
+      <c r="E45" s="111"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -55776,10 +55773,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="126"/>
-      <c r="C46" s="117"/>
-      <c r="D46" s="128"/>
-      <c r="E46" s="126"/>
+      <c r="B46" s="111"/>
+      <c r="C46" s="108"/>
+      <c r="D46" s="113"/>
+      <c r="E46" s="111"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -55844,10 +55841,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="126"/>
-      <c r="C47" s="117"/>
-      <c r="D47" s="128"/>
-      <c r="E47" s="126"/>
+      <c r="B47" s="111"/>
+      <c r="C47" s="108"/>
+      <c r="D47" s="113"/>
+      <c r="E47" s="111"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -55912,10 +55909,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="126"/>
-      <c r="C48" s="117"/>
-      <c r="D48" s="128"/>
-      <c r="E48" s="126"/>
+      <c r="B48" s="111"/>
+      <c r="C48" s="108"/>
+      <c r="D48" s="113"/>
+      <c r="E48" s="111"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -55980,10 +55977,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="126"/>
-      <c r="C49" s="117"/>
-      <c r="D49" s="128"/>
-      <c r="E49" s="126"/>
+      <c r="B49" s="111"/>
+      <c r="C49" s="108"/>
+      <c r="D49" s="113"/>
+      <c r="E49" s="111"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -56048,10 +56045,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="126"/>
-      <c r="C50" s="117"/>
-      <c r="D50" s="128"/>
-      <c r="E50" s="126"/>
+      <c r="B50" s="111"/>
+      <c r="C50" s="108"/>
+      <c r="D50" s="113"/>
+      <c r="E50" s="111"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -56116,10 +56113,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="126"/>
-      <c r="C51" s="117"/>
-      <c r="D51" s="128"/>
-      <c r="E51" s="126"/>
+      <c r="B51" s="111"/>
+      <c r="C51" s="108"/>
+      <c r="D51" s="113"/>
+      <c r="E51" s="111"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -56184,10 +56181,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="126"/>
-      <c r="C52" s="117"/>
-      <c r="D52" s="128"/>
-      <c r="E52" s="126"/>
+      <c r="B52" s="111"/>
+      <c r="C52" s="108"/>
+      <c r="D52" s="113"/>
+      <c r="E52" s="111"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -56252,10 +56249,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="126"/>
-      <c r="C53" s="117"/>
-      <c r="D53" s="128"/>
-      <c r="E53" s="126"/>
+      <c r="B53" s="111"/>
+      <c r="C53" s="108"/>
+      <c r="D53" s="113"/>
+      <c r="E53" s="111"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -56320,10 +56317,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="126"/>
-      <c r="C54" s="117"/>
-      <c r="D54" s="128"/>
-      <c r="E54" s="126"/>
+      <c r="B54" s="111"/>
+      <c r="C54" s="108"/>
+      <c r="D54" s="113"/>
+      <c r="E54" s="111"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -56388,10 +56385,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="126"/>
-      <c r="C55" s="117"/>
-      <c r="D55" s="128"/>
-      <c r="E55" s="126"/>
+      <c r="B55" s="111"/>
+      <c r="C55" s="108"/>
+      <c r="D55" s="113"/>
+      <c r="E55" s="111"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -56456,10 +56453,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="126"/>
-      <c r="C56" s="117"/>
-      <c r="D56" s="128"/>
-      <c r="E56" s="126"/>
+      <c r="B56" s="111"/>
+      <c r="C56" s="108"/>
+      <c r="D56" s="113"/>
+      <c r="E56" s="111"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -56524,10 +56521,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="126"/>
-      <c r="C57" s="117"/>
-      <c r="D57" s="128"/>
-      <c r="E57" s="126"/>
+      <c r="B57" s="111"/>
+      <c r="C57" s="108"/>
+      <c r="D57" s="113"/>
+      <c r="E57" s="111"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -56587,10 +56584,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="127"/>
-      <c r="C58" s="124"/>
-      <c r="D58" s="128"/>
-      <c r="E58" s="127"/>
+      <c r="B58" s="112"/>
+      <c r="C58" s="109"/>
+      <c r="D58" s="113"/>
+      <c r="E58" s="112"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -56655,7 +56652,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="118" t="s">
+      <c r="B59" s="101" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -56727,7 +56724,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="118"/>
+      <c r="B60" s="101"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -56797,7 +56794,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="119" t="s">
+      <c r="B61" s="102" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -56869,7 +56866,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="119"/>
+      <c r="B62" s="102"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -56937,7 +56934,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="119"/>
+      <c r="B63" s="102"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -57146,27 +57143,16 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="E31:E58"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:BM5"/>
+    <mergeCell ref="AT6:AX6"/>
+    <mergeCell ref="AY6:BC6"/>
+    <mergeCell ref="BD6:BH6"/>
+    <mergeCell ref="BI6:BM6"/>
     <mergeCell ref="BN5:BN6"/>
     <mergeCell ref="BO5:BO6"/>
     <mergeCell ref="F6:J6"/>
@@ -57177,16 +57163,27 @@
     <mergeCell ref="AE6:AI6"/>
     <mergeCell ref="AJ6:AN6"/>
     <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:BM5"/>
-    <mergeCell ref="AT6:AX6"/>
-    <mergeCell ref="AY6:BC6"/>
-    <mergeCell ref="BD6:BH6"/>
-    <mergeCell ref="BI6:BM6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="E31:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -57218,13 +57215,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="126" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
     </row>
     <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
@@ -57390,84 +57387,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="100" t="s">
+      <c r="B5" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="101" t="s">
+      <c r="C5" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="102" t="s">
+      <c r="D5" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="100" t="s">
+      <c r="E5" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="103" t="s">
+      <c r="F5" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="103"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="103"/>
-      <c r="J5" s="103"/>
-      <c r="K5" s="103"/>
-      <c r="L5" s="103"/>
-      <c r="M5" s="103"/>
-      <c r="N5" s="103"/>
-      <c r="O5" s="103"/>
-      <c r="P5" s="103"/>
-      <c r="Q5" s="103"/>
-      <c r="R5" s="103"/>
-      <c r="S5" s="103"/>
-      <c r="T5" s="103"/>
-      <c r="U5" s="103"/>
-      <c r="V5" s="103"/>
-      <c r="W5" s="103"/>
-      <c r="X5" s="103"/>
-      <c r="Y5" s="103"/>
-      <c r="Z5" s="103"/>
-      <c r="AA5" s="103"/>
-      <c r="AB5" s="103"/>
-      <c r="AC5" s="103"/>
-      <c r="AD5" s="103"/>
-      <c r="AE5" s="103"/>
-      <c r="AF5" s="103"/>
-      <c r="AG5" s="103"/>
-      <c r="AH5" s="103"/>
-      <c r="AI5" s="103"/>
-      <c r="AJ5" s="103"/>
-      <c r="AK5" s="103"/>
-      <c r="AL5" s="103"/>
-      <c r="AM5" s="103"/>
-      <c r="AN5" s="103"/>
-      <c r="AO5" s="103"/>
-      <c r="AP5" s="103"/>
-      <c r="AQ5" s="103"/>
-      <c r="AR5" s="103"/>
-      <c r="AS5" s="103"/>
-      <c r="AT5" s="103"/>
-      <c r="AU5" s="103"/>
-      <c r="AV5" s="103"/>
-      <c r="AW5" s="103"/>
-      <c r="AX5" s="103"/>
-      <c r="AY5" s="103"/>
-      <c r="AZ5" s="103"/>
-      <c r="BA5" s="103"/>
-      <c r="BB5" s="103"/>
-      <c r="BC5" s="103"/>
-      <c r="BD5" s="103"/>
-      <c r="BE5" s="103"/>
-      <c r="BF5" s="103"/>
-      <c r="BG5" s="103"/>
-      <c r="BH5" s="103"/>
-      <c r="BI5" s="103"/>
-      <c r="BJ5" s="103"/>
-      <c r="BK5" s="103"/>
-      <c r="BL5" s="103"/>
-      <c r="BM5" s="103"/>
-      <c r="BN5" s="106" t="s">
+      <c r="G5" s="129"/>
+      <c r="H5" s="129"/>
+      <c r="I5" s="129"/>
+      <c r="J5" s="129"/>
+      <c r="K5" s="129"/>
+      <c r="L5" s="129"/>
+      <c r="M5" s="129"/>
+      <c r="N5" s="129"/>
+      <c r="O5" s="129"/>
+      <c r="P5" s="129"/>
+      <c r="Q5" s="129"/>
+      <c r="R5" s="129"/>
+      <c r="S5" s="129"/>
+      <c r="T5" s="129"/>
+      <c r="U5" s="129"/>
+      <c r="V5" s="129"/>
+      <c r="W5" s="129"/>
+      <c r="X5" s="129"/>
+      <c r="Y5" s="129"/>
+      <c r="Z5" s="129"/>
+      <c r="AA5" s="129"/>
+      <c r="AB5" s="129"/>
+      <c r="AC5" s="129"/>
+      <c r="AD5" s="129"/>
+      <c r="AE5" s="129"/>
+      <c r="AF5" s="129"/>
+      <c r="AG5" s="129"/>
+      <c r="AH5" s="129"/>
+      <c r="AI5" s="129"/>
+      <c r="AJ5" s="129"/>
+      <c r="AK5" s="129"/>
+      <c r="AL5" s="129"/>
+      <c r="AM5" s="129"/>
+      <c r="AN5" s="129"/>
+      <c r="AO5" s="129"/>
+      <c r="AP5" s="129"/>
+      <c r="AQ5" s="129"/>
+      <c r="AR5" s="129"/>
+      <c r="AS5" s="129"/>
+      <c r="AT5" s="129"/>
+      <c r="AU5" s="129"/>
+      <c r="AV5" s="129"/>
+      <c r="AW5" s="129"/>
+      <c r="AX5" s="129"/>
+      <c r="AY5" s="129"/>
+      <c r="AZ5" s="129"/>
+      <c r="BA5" s="129"/>
+      <c r="BB5" s="129"/>
+      <c r="BC5" s="129"/>
+      <c r="BD5" s="129"/>
+      <c r="BE5" s="129"/>
+      <c r="BF5" s="129"/>
+      <c r="BG5" s="129"/>
+      <c r="BH5" s="129"/>
+      <c r="BI5" s="129"/>
+      <c r="BJ5" s="129"/>
+      <c r="BK5" s="129"/>
+      <c r="BL5" s="129"/>
+      <c r="BM5" s="129"/>
+      <c r="BN5" s="123" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="100" t="s">
+      <c r="BO5" s="124" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -57476,107 +57473,107 @@
       <c r="BU5" s="94"/>
     </row>
     <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="100"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="104" t="s">
+      <c r="B6" s="124"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="124"/>
+      <c r="F6" s="125" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="104"/>
-      <c r="H6" s="104"/>
-      <c r="I6" s="104"/>
-      <c r="J6" s="104"/>
-      <c r="K6" s="104" t="s">
+      <c r="G6" s="125"/>
+      <c r="H6" s="125"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="125"/>
+      <c r="K6" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="104"/>
-      <c r="M6" s="104"/>
-      <c r="N6" s="104"/>
-      <c r="O6" s="104"/>
-      <c r="P6" s="104" t="s">
+      <c r="L6" s="125"/>
+      <c r="M6" s="125"/>
+      <c r="N6" s="125"/>
+      <c r="O6" s="125"/>
+      <c r="P6" s="125" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="104"/>
-      <c r="R6" s="104"/>
-      <c r="S6" s="104"/>
-      <c r="T6" s="104"/>
-      <c r="U6" s="104" t="s">
+      <c r="Q6" s="125"/>
+      <c r="R6" s="125"/>
+      <c r="S6" s="125"/>
+      <c r="T6" s="125"/>
+      <c r="U6" s="125" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="104"/>
-      <c r="W6" s="104"/>
-      <c r="X6" s="104"/>
-      <c r="Y6" s="104"/>
-      <c r="Z6" s="104" t="s">
+      <c r="V6" s="125"/>
+      <c r="W6" s="125"/>
+      <c r="X6" s="125"/>
+      <c r="Y6" s="125"/>
+      <c r="Z6" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="104"/>
-      <c r="AB6" s="104"/>
-      <c r="AC6" s="104"/>
-      <c r="AD6" s="104"/>
-      <c r="AE6" s="104" t="s">
+      <c r="AA6" s="125"/>
+      <c r="AB6" s="125"/>
+      <c r="AC6" s="125"/>
+      <c r="AD6" s="125"/>
+      <c r="AE6" s="125" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="104"/>
-      <c r="AG6" s="104"/>
-      <c r="AH6" s="104"/>
-      <c r="AI6" s="104"/>
-      <c r="AJ6" s="104" t="s">
+      <c r="AF6" s="125"/>
+      <c r="AG6" s="125"/>
+      <c r="AH6" s="125"/>
+      <c r="AI6" s="125"/>
+      <c r="AJ6" s="125" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="104"/>
-      <c r="AL6" s="104"/>
-      <c r="AM6" s="104"/>
-      <c r="AN6" s="104"/>
-      <c r="AO6" s="104" t="s">
+      <c r="AK6" s="125"/>
+      <c r="AL6" s="125"/>
+      <c r="AM6" s="125"/>
+      <c r="AN6" s="125"/>
+      <c r="AO6" s="125" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="104"/>
-      <c r="AQ6" s="104"/>
-      <c r="AR6" s="104"/>
-      <c r="AS6" s="104"/>
-      <c r="AT6" s="104" t="s">
+      <c r="AP6" s="125"/>
+      <c r="AQ6" s="125"/>
+      <c r="AR6" s="125"/>
+      <c r="AS6" s="125"/>
+      <c r="AT6" s="125" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="104"/>
-      <c r="AV6" s="104"/>
-      <c r="AW6" s="104"/>
-      <c r="AX6" s="104"/>
-      <c r="AY6" s="104" t="s">
+      <c r="AU6" s="125"/>
+      <c r="AV6" s="125"/>
+      <c r="AW6" s="125"/>
+      <c r="AX6" s="125"/>
+      <c r="AY6" s="125" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="104"/>
-      <c r="BA6" s="104"/>
-      <c r="BB6" s="104"/>
-      <c r="BC6" s="104"/>
-      <c r="BD6" s="104" t="s">
+      <c r="AZ6" s="125"/>
+      <c r="BA6" s="125"/>
+      <c r="BB6" s="125"/>
+      <c r="BC6" s="125"/>
+      <c r="BD6" s="125" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="104"/>
-      <c r="BF6" s="104"/>
-      <c r="BG6" s="104"/>
-      <c r="BH6" s="104"/>
-      <c r="BI6" s="105" t="s">
+      <c r="BE6" s="125"/>
+      <c r="BF6" s="125"/>
+      <c r="BG6" s="125"/>
+      <c r="BH6" s="125"/>
+      <c r="BI6" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="105"/>
-      <c r="BK6" s="105"/>
-      <c r="BL6" s="105"/>
-      <c r="BM6" s="105"/>
-      <c r="BN6" s="106"/>
-      <c r="BO6" s="100"/>
+      <c r="BJ6" s="130"/>
+      <c r="BK6" s="130"/>
+      <c r="BL6" s="130"/>
+      <c r="BM6" s="130"/>
+      <c r="BN6" s="123"/>
+      <c r="BO6" s="124"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="118" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="107"/>
-      <c r="E7" s="108"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="119"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -58601,12 +58598,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="107"/>
+      <c r="B8" s="118"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="107"/>
-      <c r="E8" s="109"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="116"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -59630,14 +59627,14 @@
       <c r="AML8" s="23"/>
     </row>
     <row r="9" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="110" t="s">
+      <c r="B9" s="114" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="111"/>
-      <c r="E9" s="112"/>
+      <c r="D9" s="115"/>
+      <c r="E9" s="120"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
       <c r="H9" s="83"/>
@@ -60661,12 +60658,12 @@
       <c r="AML9" s="21"/>
     </row>
     <row r="10" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B10" s="110"/>
+      <c r="B10" s="114"/>
       <c r="C10" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="111"/>
-      <c r="E10" s="113"/>
+      <c r="D10" s="115"/>
+      <c r="E10" s="121"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -61690,12 +61687,12 @@
       <c r="AML10" s="21"/>
     </row>
     <row r="11" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="110"/>
+      <c r="B11" s="114"/>
       <c r="C11" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="111"/>
-      <c r="E11" s="113"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="121"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -62719,12 +62716,12 @@
       <c r="AML11" s="21"/>
     </row>
     <row r="12" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="110"/>
+      <c r="B12" s="114"/>
       <c r="C12" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="111"/>
-      <c r="E12" s="114"/>
+      <c r="D12" s="115"/>
+      <c r="E12" s="122"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -62789,14 +62786,14 @@
       <c r="BO12" s="31"/>
     </row>
     <row r="13" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B13" s="110" t="s">
+      <c r="B13" s="114" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="111"/>
-      <c r="E13" s="109"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="116"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -62861,12 +62858,12 @@
       <c r="BO13" s="20"/>
     </row>
     <row r="14" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B14" s="110"/>
+      <c r="B14" s="114"/>
       <c r="C14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="111"/>
-      <c r="E14" s="109"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="116"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -62931,12 +62928,12 @@
       <c r="BO14" s="31"/>
     </row>
     <row r="15" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="110"/>
+      <c r="B15" s="114"/>
       <c r="C15" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="111"/>
-      <c r="E15" s="109"/>
+      <c r="D15" s="115"/>
+      <c r="E15" s="116"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -63001,12 +62998,12 @@
       <c r="BO15" s="31"/>
     </row>
     <row r="16" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B16" s="110"/>
+      <c r="B16" s="114"/>
       <c r="C16" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="111"/>
-      <c r="E16" s="109"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="116"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -63071,12 +63068,12 @@
       <c r="BO16" s="31"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B17" s="110"/>
+      <c r="B17" s="114"/>
       <c r="C17" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="111"/>
-      <c r="E17" s="109"/>
+      <c r="D17" s="115"/>
+      <c r="E17" s="116"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -63141,12 +63138,12 @@
       <c r="BO17" s="31"/>
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B18" s="110"/>
+      <c r="B18" s="114"/>
       <c r="C18" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="111"/>
-      <c r="E18" s="109"/>
+      <c r="D18" s="115"/>
+      <c r="E18" s="116"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -63211,12 +63208,12 @@
       <c r="BO18" s="31"/>
     </row>
     <row r="19" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B19" s="110"/>
+      <c r="B19" s="114"/>
       <c r="C19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="111"/>
-      <c r="E19" s="109"/>
+      <c r="D19" s="115"/>
+      <c r="E19" s="116"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -63281,14 +63278,14 @@
       <c r="BO19" s="27"/>
     </row>
     <row r="20" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B20" s="115" t="s">
+      <c r="B20" s="117" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="107"/>
-      <c r="E20" s="116"/>
+      <c r="D20" s="118"/>
+      <c r="E20" s="107"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -63353,12 +63350,12 @@
       <c r="BO20" s="20"/>
     </row>
     <row r="21" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B21" s="115"/>
+      <c r="B21" s="117"/>
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="107"/>
-      <c r="E21" s="117"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="108"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -63423,12 +63420,12 @@
       <c r="BO21" s="31"/>
     </row>
     <row r="22" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B22" s="115"/>
+      <c r="B22" s="117"/>
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="107"/>
-      <c r="E22" s="117"/>
+      <c r="D22" s="118"/>
+      <c r="E22" s="108"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -63493,12 +63490,12 @@
       <c r="BO22" s="31"/>
     </row>
     <row r="23" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B23" s="115"/>
+      <c r="B23" s="117"/>
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="107"/>
-      <c r="E23" s="117"/>
+      <c r="D23" s="118"/>
+      <c r="E23" s="108"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -63563,12 +63560,12 @@
       <c r="BO23" s="31"/>
     </row>
     <row r="24" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B24" s="115"/>
+      <c r="B24" s="117"/>
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="107"/>
-      <c r="E24" s="117"/>
+      <c r="D24" s="118"/>
+      <c r="E24" s="108"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -63633,14 +63630,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="120" t="s">
+      <c r="B25" s="103" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="123"/>
-      <c r="E25" s="116"/>
+      <c r="D25" s="106"/>
+      <c r="E25" s="107"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -63705,12 +63702,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="121"/>
+      <c r="B26" s="104"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="123"/>
-      <c r="E26" s="117"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="108"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -63775,12 +63772,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="121"/>
+      <c r="B27" s="104"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="123"/>
-      <c r="E27" s="117"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="108"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -63845,12 +63842,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="121"/>
+      <c r="B28" s="104"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="123"/>
-      <c r="E28" s="117"/>
+      <c r="D28" s="106"/>
+      <c r="E28" s="108"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -63915,12 +63912,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="122"/>
+      <c r="B29" s="105"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="123"/>
-      <c r="E29" s="124"/>
+      <c r="D29" s="106"/>
+      <c r="E29" s="109"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -64057,10 +64054,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="125"/>
-      <c r="C31" s="116"/>
-      <c r="D31" s="128"/>
-      <c r="E31" s="125"/>
+      <c r="B31" s="110"/>
+      <c r="C31" s="107"/>
+      <c r="D31" s="113"/>
+      <c r="E31" s="110"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -64125,10 +64122,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="126"/>
-      <c r="C32" s="117"/>
-      <c r="D32" s="128"/>
-      <c r="E32" s="126"/>
+      <c r="B32" s="111"/>
+      <c r="C32" s="108"/>
+      <c r="D32" s="113"/>
+      <c r="E32" s="111"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -64193,10 +64190,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="126"/>
-      <c r="C33" s="117"/>
-      <c r="D33" s="128"/>
-      <c r="E33" s="126"/>
+      <c r="B33" s="111"/>
+      <c r="C33" s="108"/>
+      <c r="D33" s="113"/>
+      <c r="E33" s="111"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -64261,10 +64258,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="126"/>
-      <c r="C34" s="117"/>
-      <c r="D34" s="128"/>
-      <c r="E34" s="126"/>
+      <c r="B34" s="111"/>
+      <c r="C34" s="108"/>
+      <c r="D34" s="113"/>
+      <c r="E34" s="111"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -64329,10 +64326,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="126"/>
-      <c r="C35" s="117"/>
-      <c r="D35" s="128"/>
-      <c r="E35" s="126"/>
+      <c r="B35" s="111"/>
+      <c r="C35" s="108"/>
+      <c r="D35" s="113"/>
+      <c r="E35" s="111"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -64397,10 +64394,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="126"/>
-      <c r="C36" s="117"/>
-      <c r="D36" s="128"/>
-      <c r="E36" s="126"/>
+      <c r="B36" s="111"/>
+      <c r="C36" s="108"/>
+      <c r="D36" s="113"/>
+      <c r="E36" s="111"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -64465,10 +64462,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="126"/>
-      <c r="C37" s="117"/>
-      <c r="D37" s="128"/>
-      <c r="E37" s="126"/>
+      <c r="B37" s="111"/>
+      <c r="C37" s="108"/>
+      <c r="D37" s="113"/>
+      <c r="E37" s="111"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -64533,10 +64530,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="126"/>
-      <c r="C38" s="117"/>
-      <c r="D38" s="128"/>
-      <c r="E38" s="126"/>
+      <c r="B38" s="111"/>
+      <c r="C38" s="108"/>
+      <c r="D38" s="113"/>
+      <c r="E38" s="111"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -64601,10 +64598,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="126"/>
-      <c r="C39" s="117"/>
-      <c r="D39" s="128"/>
-      <c r="E39" s="126"/>
+      <c r="B39" s="111"/>
+      <c r="C39" s="108"/>
+      <c r="D39" s="113"/>
+      <c r="E39" s="111"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -64669,10 +64666,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="126"/>
-      <c r="C40" s="117"/>
-      <c r="D40" s="128"/>
-      <c r="E40" s="126"/>
+      <c r="B40" s="111"/>
+      <c r="C40" s="108"/>
+      <c r="D40" s="113"/>
+      <c r="E40" s="111"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -64737,10 +64734,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="126"/>
-      <c r="C41" s="117"/>
-      <c r="D41" s="128"/>
-      <c r="E41" s="126"/>
+      <c r="B41" s="111"/>
+      <c r="C41" s="108"/>
+      <c r="D41" s="113"/>
+      <c r="E41" s="111"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -64805,10 +64802,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="126"/>
-      <c r="C42" s="117"/>
-      <c r="D42" s="128"/>
-      <c r="E42" s="126"/>
+      <c r="B42" s="111"/>
+      <c r="C42" s="108"/>
+      <c r="D42" s="113"/>
+      <c r="E42" s="111"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -64873,10 +64870,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="126"/>
-      <c r="C43" s="117"/>
-      <c r="D43" s="128"/>
-      <c r="E43" s="126"/>
+      <c r="B43" s="111"/>
+      <c r="C43" s="108"/>
+      <c r="D43" s="113"/>
+      <c r="E43" s="111"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -64941,10 +64938,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="126"/>
-      <c r="C44" s="117"/>
-      <c r="D44" s="128"/>
-      <c r="E44" s="126"/>
+      <c r="B44" s="111"/>
+      <c r="C44" s="108"/>
+      <c r="D44" s="113"/>
+      <c r="E44" s="111"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -65009,10 +65006,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="126"/>
-      <c r="C45" s="117"/>
-      <c r="D45" s="128"/>
-      <c r="E45" s="126"/>
+      <c r="B45" s="111"/>
+      <c r="C45" s="108"/>
+      <c r="D45" s="113"/>
+      <c r="E45" s="111"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -65077,10 +65074,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="126"/>
-      <c r="C46" s="117"/>
-      <c r="D46" s="128"/>
-      <c r="E46" s="126"/>
+      <c r="B46" s="111"/>
+      <c r="C46" s="108"/>
+      <c r="D46" s="113"/>
+      <c r="E46" s="111"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -65145,10 +65142,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="126"/>
-      <c r="C47" s="117"/>
-      <c r="D47" s="128"/>
-      <c r="E47" s="126"/>
+      <c r="B47" s="111"/>
+      <c r="C47" s="108"/>
+      <c r="D47" s="113"/>
+      <c r="E47" s="111"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -65213,10 +65210,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="126"/>
-      <c r="C48" s="117"/>
-      <c r="D48" s="128"/>
-      <c r="E48" s="126"/>
+      <c r="B48" s="111"/>
+      <c r="C48" s="108"/>
+      <c r="D48" s="113"/>
+      <c r="E48" s="111"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -65281,10 +65278,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="126"/>
-      <c r="C49" s="117"/>
-      <c r="D49" s="128"/>
-      <c r="E49" s="126"/>
+      <c r="B49" s="111"/>
+      <c r="C49" s="108"/>
+      <c r="D49" s="113"/>
+      <c r="E49" s="111"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -65349,10 +65346,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="126"/>
-      <c r="C50" s="117"/>
-      <c r="D50" s="128"/>
-      <c r="E50" s="126"/>
+      <c r="B50" s="111"/>
+      <c r="C50" s="108"/>
+      <c r="D50" s="113"/>
+      <c r="E50" s="111"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -65417,10 +65414,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="126"/>
-      <c r="C51" s="117"/>
-      <c r="D51" s="128"/>
-      <c r="E51" s="126"/>
+      <c r="B51" s="111"/>
+      <c r="C51" s="108"/>
+      <c r="D51" s="113"/>
+      <c r="E51" s="111"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -65485,10 +65482,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="126"/>
-      <c r="C52" s="117"/>
-      <c r="D52" s="128"/>
-      <c r="E52" s="126"/>
+      <c r="B52" s="111"/>
+      <c r="C52" s="108"/>
+      <c r="D52" s="113"/>
+      <c r="E52" s="111"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -65553,10 +65550,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="126"/>
-      <c r="C53" s="117"/>
-      <c r="D53" s="128"/>
-      <c r="E53" s="126"/>
+      <c r="B53" s="111"/>
+      <c r="C53" s="108"/>
+      <c r="D53" s="113"/>
+      <c r="E53" s="111"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -65621,10 +65618,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="126"/>
-      <c r="C54" s="117"/>
-      <c r="D54" s="128"/>
-      <c r="E54" s="126"/>
+      <c r="B54" s="111"/>
+      <c r="C54" s="108"/>
+      <c r="D54" s="113"/>
+      <c r="E54" s="111"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -65689,10 +65686,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="126"/>
-      <c r="C55" s="117"/>
-      <c r="D55" s="128"/>
-      <c r="E55" s="126"/>
+      <c r="B55" s="111"/>
+      <c r="C55" s="108"/>
+      <c r="D55" s="113"/>
+      <c r="E55" s="111"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -65757,10 +65754,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="126"/>
-      <c r="C56" s="117"/>
-      <c r="D56" s="128"/>
-      <c r="E56" s="126"/>
+      <c r="B56" s="111"/>
+      <c r="C56" s="108"/>
+      <c r="D56" s="113"/>
+      <c r="E56" s="111"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -65825,10 +65822,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="126"/>
-      <c r="C57" s="117"/>
-      <c r="D57" s="128"/>
-      <c r="E57" s="126"/>
+      <c r="B57" s="111"/>
+      <c r="C57" s="108"/>
+      <c r="D57" s="113"/>
+      <c r="E57" s="111"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -65888,10 +65885,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="127"/>
-      <c r="C58" s="124"/>
-      <c r="D58" s="128"/>
-      <c r="E58" s="127"/>
+      <c r="B58" s="112"/>
+      <c r="C58" s="109"/>
+      <c r="D58" s="113"/>
+      <c r="E58" s="112"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -65956,7 +65953,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="118" t="s">
+      <c r="B59" s="101" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -66028,7 +66025,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="118"/>
+      <c r="B60" s="101"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -66098,7 +66095,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="119" t="s">
+      <c r="B61" s="102" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -66170,7 +66167,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="119"/>
+      <c r="B62" s="102"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -66238,7 +66235,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="119"/>
+      <c r="B63" s="102"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -66447,21 +66444,22 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="E31:E58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:BM5"/>
+    <mergeCell ref="AT6:AX6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="U6:Y6"/>
+    <mergeCell ref="Z6:AD6"/>
+    <mergeCell ref="AE6:AI6"/>
+    <mergeCell ref="AJ6:AN6"/>
+    <mergeCell ref="AO6:AS6"/>
     <mergeCell ref="B9:B12"/>
     <mergeCell ref="D9:D12"/>
     <mergeCell ref="D7:D8"/>
@@ -66472,22 +66470,21 @@
     <mergeCell ref="BI6:BM6"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="E7:E8"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="U6:Y6"/>
-    <mergeCell ref="Z6:AD6"/>
-    <mergeCell ref="AE6:AI6"/>
-    <mergeCell ref="AJ6:AN6"/>
-    <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:BM5"/>
-    <mergeCell ref="AT6:AX6"/>
-    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="E31:E58"/>
+    <mergeCell ref="D31:D58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/QC_QNU_Training_Progress.xlsx
+++ b/QC_QNU_Training_Progress.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Internship\GIT_Training\QC_Training_2019_01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\QC_Training_2019_01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="690" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="690"/>
   </bookViews>
   <sheets>
     <sheet name="Truong Thi Thu Huong" sheetId="4" r:id="rId1"/>
@@ -236,7 +236,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mmmm\ d&quot;, &quot;yyyy;@"/>
   </numFmts>
@@ -364,7 +364,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -433,6 +433,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -830,7 +836,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1008,6 +1014,65 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1026,12 +1091,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1047,59 +1106,9 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
@@ -1386,8 +1395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AML65"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AV30" sqref="AV30"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1408,13 +1417,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="126" t="s">
+      <c r="B1" s="103" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
     </row>
     <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
@@ -1580,84 +1589,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="124" t="s">
+      <c r="B5" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="127" t="s">
+      <c r="C5" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="128" t="s">
+      <c r="D5" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="124" t="s">
+      <c r="E5" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="129" t="s">
+      <c r="F5" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="129"/>
-      <c r="H5" s="129"/>
-      <c r="I5" s="129"/>
-      <c r="J5" s="129"/>
-      <c r="K5" s="129"/>
-      <c r="L5" s="129"/>
-      <c r="M5" s="129"/>
-      <c r="N5" s="129"/>
-      <c r="O5" s="129"/>
-      <c r="P5" s="129"/>
-      <c r="Q5" s="129"/>
-      <c r="R5" s="129"/>
-      <c r="S5" s="129"/>
-      <c r="T5" s="129"/>
-      <c r="U5" s="129"/>
-      <c r="V5" s="129"/>
-      <c r="W5" s="129"/>
-      <c r="X5" s="129"/>
-      <c r="Y5" s="129"/>
-      <c r="Z5" s="129"/>
-      <c r="AA5" s="129"/>
-      <c r="AB5" s="129"/>
-      <c r="AC5" s="129"/>
-      <c r="AD5" s="129"/>
-      <c r="AE5" s="129"/>
-      <c r="AF5" s="129"/>
-      <c r="AG5" s="129"/>
-      <c r="AH5" s="129"/>
-      <c r="AI5" s="129"/>
-      <c r="AJ5" s="129"/>
-      <c r="AK5" s="129"/>
-      <c r="AL5" s="129"/>
-      <c r="AM5" s="129"/>
-      <c r="AN5" s="129"/>
-      <c r="AO5" s="129"/>
-      <c r="AP5" s="129"/>
-      <c r="AQ5" s="129"/>
-      <c r="AR5" s="129"/>
-      <c r="AS5" s="129"/>
-      <c r="AT5" s="129"/>
-      <c r="AU5" s="129"/>
-      <c r="AV5" s="129"/>
-      <c r="AW5" s="129"/>
-      <c r="AX5" s="129"/>
-      <c r="AY5" s="129"/>
-      <c r="AZ5" s="129"/>
-      <c r="BA5" s="129"/>
-      <c r="BB5" s="129"/>
-      <c r="BC5" s="129"/>
-      <c r="BD5" s="129"/>
-      <c r="BE5" s="129"/>
-      <c r="BF5" s="129"/>
-      <c r="BG5" s="129"/>
-      <c r="BH5" s="129"/>
-      <c r="BI5" s="129"/>
-      <c r="BJ5" s="129"/>
-      <c r="BK5" s="129"/>
-      <c r="BL5" s="129"/>
-      <c r="BM5" s="129"/>
-      <c r="BN5" s="123" t="s">
+      <c r="G5" s="107"/>
+      <c r="H5" s="107"/>
+      <c r="I5" s="107"/>
+      <c r="J5" s="107"/>
+      <c r="K5" s="107"/>
+      <c r="L5" s="107"/>
+      <c r="M5" s="107"/>
+      <c r="N5" s="107"/>
+      <c r="O5" s="107"/>
+      <c r="P5" s="107"/>
+      <c r="Q5" s="107"/>
+      <c r="R5" s="107"/>
+      <c r="S5" s="107"/>
+      <c r="T5" s="107"/>
+      <c r="U5" s="107"/>
+      <c r="V5" s="107"/>
+      <c r="W5" s="107"/>
+      <c r="X5" s="107"/>
+      <c r="Y5" s="107"/>
+      <c r="Z5" s="107"/>
+      <c r="AA5" s="107"/>
+      <c r="AB5" s="107"/>
+      <c r="AC5" s="107"/>
+      <c r="AD5" s="107"/>
+      <c r="AE5" s="107"/>
+      <c r="AF5" s="107"/>
+      <c r="AG5" s="107"/>
+      <c r="AH5" s="107"/>
+      <c r="AI5" s="107"/>
+      <c r="AJ5" s="107"/>
+      <c r="AK5" s="107"/>
+      <c r="AL5" s="107"/>
+      <c r="AM5" s="107"/>
+      <c r="AN5" s="107"/>
+      <c r="AO5" s="107"/>
+      <c r="AP5" s="107"/>
+      <c r="AQ5" s="107"/>
+      <c r="AR5" s="107"/>
+      <c r="AS5" s="107"/>
+      <c r="AT5" s="107"/>
+      <c r="AU5" s="107"/>
+      <c r="AV5" s="107"/>
+      <c r="AW5" s="107"/>
+      <c r="AX5" s="107"/>
+      <c r="AY5" s="107"/>
+      <c r="AZ5" s="107"/>
+      <c r="BA5" s="107"/>
+      <c r="BB5" s="107"/>
+      <c r="BC5" s="107"/>
+      <c r="BD5" s="107"/>
+      <c r="BE5" s="107"/>
+      <c r="BF5" s="107"/>
+      <c r="BG5" s="107"/>
+      <c r="BH5" s="107"/>
+      <c r="BI5" s="107"/>
+      <c r="BJ5" s="107"/>
+      <c r="BK5" s="107"/>
+      <c r="BL5" s="107"/>
+      <c r="BM5" s="107"/>
+      <c r="BN5" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="124" t="s">
+      <c r="BO5" s="104" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -1666,107 +1675,107 @@
       <c r="BU5" s="94"/>
     </row>
     <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="124"/>
-      <c r="C6" s="127"/>
-      <c r="D6" s="128"/>
-      <c r="E6" s="124"/>
-      <c r="F6" s="125" t="s">
+      <c r="B6" s="104"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="125"/>
-      <c r="H6" s="125"/>
-      <c r="I6" s="125"/>
-      <c r="J6" s="125"/>
-      <c r="K6" s="125" t="s">
+      <c r="G6" s="108"/>
+      <c r="H6" s="108"/>
+      <c r="I6" s="108"/>
+      <c r="J6" s="108"/>
+      <c r="K6" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="125"/>
-      <c r="M6" s="125"/>
-      <c r="N6" s="125"/>
-      <c r="O6" s="125"/>
-      <c r="P6" s="125" t="s">
+      <c r="L6" s="108"/>
+      <c r="M6" s="108"/>
+      <c r="N6" s="108"/>
+      <c r="O6" s="108"/>
+      <c r="P6" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="125"/>
-      <c r="R6" s="125"/>
-      <c r="S6" s="125"/>
-      <c r="T6" s="125"/>
-      <c r="U6" s="125" t="s">
+      <c r="Q6" s="108"/>
+      <c r="R6" s="108"/>
+      <c r="S6" s="108"/>
+      <c r="T6" s="108"/>
+      <c r="U6" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="125"/>
-      <c r="W6" s="125"/>
-      <c r="X6" s="125"/>
-      <c r="Y6" s="125"/>
-      <c r="Z6" s="125" t="s">
+      <c r="V6" s="108"/>
+      <c r="W6" s="108"/>
+      <c r="X6" s="108"/>
+      <c r="Y6" s="108"/>
+      <c r="Z6" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="125"/>
-      <c r="AB6" s="125"/>
-      <c r="AC6" s="125"/>
-      <c r="AD6" s="125"/>
-      <c r="AE6" s="125" t="s">
+      <c r="AA6" s="108"/>
+      <c r="AB6" s="108"/>
+      <c r="AC6" s="108"/>
+      <c r="AD6" s="108"/>
+      <c r="AE6" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="125"/>
-      <c r="AG6" s="125"/>
-      <c r="AH6" s="125"/>
-      <c r="AI6" s="125"/>
-      <c r="AJ6" s="125" t="s">
+      <c r="AF6" s="108"/>
+      <c r="AG6" s="108"/>
+      <c r="AH6" s="108"/>
+      <c r="AI6" s="108"/>
+      <c r="AJ6" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="125"/>
-      <c r="AL6" s="125"/>
-      <c r="AM6" s="125"/>
-      <c r="AN6" s="125"/>
-      <c r="AO6" s="125" t="s">
+      <c r="AK6" s="108"/>
+      <c r="AL6" s="108"/>
+      <c r="AM6" s="108"/>
+      <c r="AN6" s="108"/>
+      <c r="AO6" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="125"/>
-      <c r="AQ6" s="125"/>
-      <c r="AR6" s="125"/>
-      <c r="AS6" s="125"/>
-      <c r="AT6" s="125" t="s">
+      <c r="AP6" s="108"/>
+      <c r="AQ6" s="108"/>
+      <c r="AR6" s="108"/>
+      <c r="AS6" s="108"/>
+      <c r="AT6" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="125"/>
-      <c r="AV6" s="125"/>
-      <c r="AW6" s="125"/>
-      <c r="AX6" s="125"/>
-      <c r="AY6" s="125" t="s">
+      <c r="AU6" s="108"/>
+      <c r="AV6" s="108"/>
+      <c r="AW6" s="108"/>
+      <c r="AX6" s="108"/>
+      <c r="AY6" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="125"/>
-      <c r="BA6" s="125"/>
-      <c r="BB6" s="125"/>
-      <c r="BC6" s="125"/>
-      <c r="BD6" s="125" t="s">
+      <c r="AZ6" s="108"/>
+      <c r="BA6" s="108"/>
+      <c r="BB6" s="108"/>
+      <c r="BC6" s="108"/>
+      <c r="BD6" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="125"/>
-      <c r="BF6" s="125"/>
-      <c r="BG6" s="125"/>
-      <c r="BH6" s="125"/>
-      <c r="BI6" s="130" t="s">
+      <c r="BE6" s="108"/>
+      <c r="BF6" s="108"/>
+      <c r="BG6" s="108"/>
+      <c r="BH6" s="108"/>
+      <c r="BI6" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="130"/>
-      <c r="BK6" s="130"/>
-      <c r="BL6" s="130"/>
-      <c r="BM6" s="130"/>
-      <c r="BN6" s="123"/>
-      <c r="BO6" s="124"/>
+      <c r="BJ6" s="109"/>
+      <c r="BK6" s="109"/>
+      <c r="BL6" s="109"/>
+      <c r="BM6" s="109"/>
+      <c r="BN6" s="110"/>
+      <c r="BO6" s="104"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="118" t="s">
+      <c r="B7" s="111" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="118"/>
-      <c r="E7" s="119"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="112"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -2791,12 +2800,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="118"/>
+      <c r="B8" s="111"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="118"/>
-      <c r="E8" s="116"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="113"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -3827,10 +3836,10 @@
         <v>43</v>
       </c>
       <c r="D9" s="115"/>
-      <c r="E9" s="120"/>
+      <c r="E9" s="116"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
-      <c r="H9" s="83"/>
+      <c r="H9" s="133"/>
       <c r="I9" s="82"/>
       <c r="J9" s="82"/>
       <c r="K9" s="19"/>
@@ -4856,7 +4865,7 @@
         <v>44</v>
       </c>
       <c r="D10" s="115"/>
-      <c r="E10" s="121"/>
+      <c r="E10" s="117"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -4864,7 +4873,7 @@
       <c r="J10" s="78"/>
       <c r="K10" s="29"/>
       <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
+      <c r="M10" s="134"/>
       <c r="N10" s="21"/>
       <c r="O10" s="30"/>
       <c r="P10" s="29"/>
@@ -5885,7 +5894,7 @@
         <v>45</v>
       </c>
       <c r="D11" s="115"/>
-      <c r="E11" s="121"/>
+      <c r="E11" s="117"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -6914,7 +6923,7 @@
         <v>46</v>
       </c>
       <c r="D12" s="115"/>
-      <c r="E12" s="122"/>
+      <c r="E12" s="118"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -6927,7 +6936,7 @@
       <c r="O12" s="30"/>
       <c r="P12" s="29"/>
       <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
+      <c r="R12" s="134"/>
       <c r="S12" s="21"/>
       <c r="T12" s="30"/>
       <c r="U12" s="29"/>
@@ -6986,7 +6995,7 @@
         <v>47</v>
       </c>
       <c r="D13" s="115"/>
-      <c r="E13" s="116"/>
+      <c r="E13" s="113"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -7004,7 +7013,7 @@
       <c r="T13" s="18"/>
       <c r="U13" s="19"/>
       <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
+      <c r="W13" s="135"/>
       <c r="X13" s="17"/>
       <c r="Y13" s="18"/>
       <c r="Z13" s="19"/>
@@ -7056,7 +7065,7 @@
         <v>48</v>
       </c>
       <c r="D14" s="115"/>
-      <c r="E14" s="116"/>
+      <c r="E14" s="113"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -7126,7 +7135,7 @@
         <v>49</v>
       </c>
       <c r="D15" s="115"/>
-      <c r="E15" s="116"/>
+      <c r="E15" s="113"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -7196,7 +7205,7 @@
         <v>50</v>
       </c>
       <c r="D16" s="115"/>
-      <c r="E16" s="116"/>
+      <c r="E16" s="113"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -7266,7 +7275,7 @@
         <v>51</v>
       </c>
       <c r="D17" s="115"/>
-      <c r="E17" s="116"/>
+      <c r="E17" s="113"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -7336,7 +7345,7 @@
         <v>52</v>
       </c>
       <c r="D18" s="115"/>
-      <c r="E18" s="116"/>
+      <c r="E18" s="113"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -7406,7 +7415,7 @@
         <v>53</v>
       </c>
       <c r="D19" s="115"/>
-      <c r="E19" s="116"/>
+      <c r="E19" s="113"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -7471,14 +7480,14 @@
       <c r="BO19" s="27"/>
     </row>
     <row r="20" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B20" s="117" t="s">
+      <c r="B20" s="119" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="118"/>
-      <c r="E20" s="107"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="120"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -7543,12 +7552,12 @@
       <c r="BO20" s="20"/>
     </row>
     <row r="21" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B21" s="117"/>
+      <c r="B21" s="119"/>
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="118"/>
-      <c r="E21" s="108"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="121"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -7613,12 +7622,12 @@
       <c r="BO21" s="31"/>
     </row>
     <row r="22" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B22" s="117"/>
+      <c r="B22" s="119"/>
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="118"/>
-      <c r="E22" s="108"/>
+      <c r="D22" s="111"/>
+      <c r="E22" s="121"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -7683,12 +7692,12 @@
       <c r="BO22" s="31"/>
     </row>
     <row r="23" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B23" s="117"/>
+      <c r="B23" s="119"/>
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="118"/>
-      <c r="E23" s="108"/>
+      <c r="D23" s="111"/>
+      <c r="E23" s="121"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -7753,12 +7762,12 @@
       <c r="BO23" s="31"/>
     </row>
     <row r="24" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B24" s="117"/>
+      <c r="B24" s="119"/>
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="118"/>
-      <c r="E24" s="108"/>
+      <c r="D24" s="111"/>
+      <c r="E24" s="121"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -7823,14 +7832,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="103" t="s">
+      <c r="B25" s="124" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="106"/>
-      <c r="E25" s="107"/>
+      <c r="D25" s="127"/>
+      <c r="E25" s="120"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -7895,12 +7904,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="104"/>
+      <c r="B26" s="125"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="106"/>
-      <c r="E26" s="108"/>
+      <c r="D26" s="127"/>
+      <c r="E26" s="121"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -7965,12 +7974,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="104"/>
+      <c r="B27" s="125"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="106"/>
-      <c r="E27" s="108"/>
+      <c r="D27" s="127"/>
+      <c r="E27" s="121"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -8035,12 +8044,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="104"/>
+      <c r="B28" s="125"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="106"/>
-      <c r="E28" s="108"/>
+      <c r="D28" s="127"/>
+      <c r="E28" s="121"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -8105,12 +8114,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="105"/>
+      <c r="B29" s="126"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="106"/>
-      <c r="E29" s="109"/>
+      <c r="D29" s="127"/>
+      <c r="E29" s="128"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -8247,10 +8256,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="110"/>
-      <c r="C31" s="107"/>
-      <c r="D31" s="113"/>
-      <c r="E31" s="110"/>
+      <c r="B31" s="129"/>
+      <c r="C31" s="120"/>
+      <c r="D31" s="132"/>
+      <c r="E31" s="129"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -8315,10 +8324,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="111"/>
-      <c r="C32" s="108"/>
-      <c r="D32" s="113"/>
-      <c r="E32" s="111"/>
+      <c r="B32" s="130"/>
+      <c r="C32" s="121"/>
+      <c r="D32" s="132"/>
+      <c r="E32" s="130"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -8383,10 +8392,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="111"/>
-      <c r="C33" s="108"/>
-      <c r="D33" s="113"/>
-      <c r="E33" s="111"/>
+      <c r="B33" s="130"/>
+      <c r="C33" s="121"/>
+      <c r="D33" s="132"/>
+      <c r="E33" s="130"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -8451,10 +8460,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="111"/>
-      <c r="C34" s="108"/>
-      <c r="D34" s="113"/>
-      <c r="E34" s="111"/>
+      <c r="B34" s="130"/>
+      <c r="C34" s="121"/>
+      <c r="D34" s="132"/>
+      <c r="E34" s="130"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -8519,10 +8528,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="111"/>
-      <c r="C35" s="108"/>
-      <c r="D35" s="113"/>
-      <c r="E35" s="111"/>
+      <c r="B35" s="130"/>
+      <c r="C35" s="121"/>
+      <c r="D35" s="132"/>
+      <c r="E35" s="130"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -8587,10 +8596,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="111"/>
-      <c r="C36" s="108"/>
-      <c r="D36" s="113"/>
-      <c r="E36" s="111"/>
+      <c r="B36" s="130"/>
+      <c r="C36" s="121"/>
+      <c r="D36" s="132"/>
+      <c r="E36" s="130"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -8655,10 +8664,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="111"/>
-      <c r="C37" s="108"/>
-      <c r="D37" s="113"/>
-      <c r="E37" s="111"/>
+      <c r="B37" s="130"/>
+      <c r="C37" s="121"/>
+      <c r="D37" s="132"/>
+      <c r="E37" s="130"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -8723,10 +8732,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="111"/>
-      <c r="C38" s="108"/>
-      <c r="D38" s="113"/>
-      <c r="E38" s="111"/>
+      <c r="B38" s="130"/>
+      <c r="C38" s="121"/>
+      <c r="D38" s="132"/>
+      <c r="E38" s="130"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -8791,10 +8800,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="111"/>
-      <c r="C39" s="108"/>
-      <c r="D39" s="113"/>
-      <c r="E39" s="111"/>
+      <c r="B39" s="130"/>
+      <c r="C39" s="121"/>
+      <c r="D39" s="132"/>
+      <c r="E39" s="130"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -8859,10 +8868,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="111"/>
-      <c r="C40" s="108"/>
-      <c r="D40" s="113"/>
-      <c r="E40" s="111"/>
+      <c r="B40" s="130"/>
+      <c r="C40" s="121"/>
+      <c r="D40" s="132"/>
+      <c r="E40" s="130"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -8927,10 +8936,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="111"/>
-      <c r="C41" s="108"/>
-      <c r="D41" s="113"/>
-      <c r="E41" s="111"/>
+      <c r="B41" s="130"/>
+      <c r="C41" s="121"/>
+      <c r="D41" s="132"/>
+      <c r="E41" s="130"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -8995,10 +9004,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="111"/>
-      <c r="C42" s="108"/>
-      <c r="D42" s="113"/>
-      <c r="E42" s="111"/>
+      <c r="B42" s="130"/>
+      <c r="C42" s="121"/>
+      <c r="D42" s="132"/>
+      <c r="E42" s="130"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -9063,10 +9072,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="111"/>
-      <c r="C43" s="108"/>
-      <c r="D43" s="113"/>
-      <c r="E43" s="111"/>
+      <c r="B43" s="130"/>
+      <c r="C43" s="121"/>
+      <c r="D43" s="132"/>
+      <c r="E43" s="130"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -9131,10 +9140,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="111"/>
-      <c r="C44" s="108"/>
-      <c r="D44" s="113"/>
-      <c r="E44" s="111"/>
+      <c r="B44" s="130"/>
+      <c r="C44" s="121"/>
+      <c r="D44" s="132"/>
+      <c r="E44" s="130"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -9199,10 +9208,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="111"/>
-      <c r="C45" s="108"/>
-      <c r="D45" s="113"/>
-      <c r="E45" s="111"/>
+      <c r="B45" s="130"/>
+      <c r="C45" s="121"/>
+      <c r="D45" s="132"/>
+      <c r="E45" s="130"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -9267,10 +9276,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="111"/>
-      <c r="C46" s="108"/>
-      <c r="D46" s="113"/>
-      <c r="E46" s="111"/>
+      <c r="B46" s="130"/>
+      <c r="C46" s="121"/>
+      <c r="D46" s="132"/>
+      <c r="E46" s="130"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -9335,10 +9344,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="111"/>
-      <c r="C47" s="108"/>
-      <c r="D47" s="113"/>
-      <c r="E47" s="111"/>
+      <c r="B47" s="130"/>
+      <c r="C47" s="121"/>
+      <c r="D47" s="132"/>
+      <c r="E47" s="130"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -9403,10 +9412,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="111"/>
-      <c r="C48" s="108"/>
-      <c r="D48" s="113"/>
-      <c r="E48" s="111"/>
+      <c r="B48" s="130"/>
+      <c r="C48" s="121"/>
+      <c r="D48" s="132"/>
+      <c r="E48" s="130"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -9471,10 +9480,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="111"/>
-      <c r="C49" s="108"/>
-      <c r="D49" s="113"/>
-      <c r="E49" s="111"/>
+      <c r="B49" s="130"/>
+      <c r="C49" s="121"/>
+      <c r="D49" s="132"/>
+      <c r="E49" s="130"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -9539,10 +9548,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="111"/>
-      <c r="C50" s="108"/>
-      <c r="D50" s="113"/>
-      <c r="E50" s="111"/>
+      <c r="B50" s="130"/>
+      <c r="C50" s="121"/>
+      <c r="D50" s="132"/>
+      <c r="E50" s="130"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -9607,10 +9616,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="111"/>
-      <c r="C51" s="108"/>
-      <c r="D51" s="113"/>
-      <c r="E51" s="111"/>
+      <c r="B51" s="130"/>
+      <c r="C51" s="121"/>
+      <c r="D51" s="132"/>
+      <c r="E51" s="130"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -9675,10 +9684,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="111"/>
-      <c r="C52" s="108"/>
-      <c r="D52" s="113"/>
-      <c r="E52" s="111"/>
+      <c r="B52" s="130"/>
+      <c r="C52" s="121"/>
+      <c r="D52" s="132"/>
+      <c r="E52" s="130"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -9743,10 +9752,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="111"/>
-      <c r="C53" s="108"/>
-      <c r="D53" s="113"/>
-      <c r="E53" s="111"/>
+      <c r="B53" s="130"/>
+      <c r="C53" s="121"/>
+      <c r="D53" s="132"/>
+      <c r="E53" s="130"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -9811,10 +9820,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="111"/>
-      <c r="C54" s="108"/>
-      <c r="D54" s="113"/>
-      <c r="E54" s="111"/>
+      <c r="B54" s="130"/>
+      <c r="C54" s="121"/>
+      <c r="D54" s="132"/>
+      <c r="E54" s="130"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -9879,10 +9888,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="111"/>
-      <c r="C55" s="108"/>
-      <c r="D55" s="113"/>
-      <c r="E55" s="111"/>
+      <c r="B55" s="130"/>
+      <c r="C55" s="121"/>
+      <c r="D55" s="132"/>
+      <c r="E55" s="130"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -9947,10 +9956,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="111"/>
-      <c r="C56" s="108"/>
-      <c r="D56" s="113"/>
-      <c r="E56" s="111"/>
+      <c r="B56" s="130"/>
+      <c r="C56" s="121"/>
+      <c r="D56" s="132"/>
+      <c r="E56" s="130"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -10015,10 +10024,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="111"/>
-      <c r="C57" s="108"/>
-      <c r="D57" s="113"/>
-      <c r="E57" s="111"/>
+      <c r="B57" s="130"/>
+      <c r="C57" s="121"/>
+      <c r="D57" s="132"/>
+      <c r="E57" s="130"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -10078,10 +10087,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="112"/>
-      <c r="C58" s="109"/>
-      <c r="D58" s="113"/>
-      <c r="E58" s="112"/>
+      <c r="B58" s="131"/>
+      <c r="C58" s="128"/>
+      <c r="D58" s="132"/>
+      <c r="E58" s="131"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -10146,7 +10155,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="101" t="s">
+      <c r="B59" s="122" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -10218,7 +10227,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="101"/>
+      <c r="B60" s="122"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -10288,7 +10297,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="102" t="s">
+      <c r="B61" s="123" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -10360,7 +10369,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="102"/>
+      <c r="B62" s="123"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -10428,7 +10437,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="102"/>
+      <c r="B63" s="123"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -10637,6 +10646,37 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="E31:E58"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="BN5:BN6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="U6:Y6"/>
+    <mergeCell ref="Z6:AD6"/>
+    <mergeCell ref="AE6:AI6"/>
+    <mergeCell ref="AJ6:AN6"/>
+    <mergeCell ref="AO6:AS6"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
@@ -10647,37 +10687,6 @@
     <mergeCell ref="AY6:BC6"/>
     <mergeCell ref="BD6:BH6"/>
     <mergeCell ref="BI6:BM6"/>
-    <mergeCell ref="BN5:BN6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="U6:Y6"/>
-    <mergeCell ref="Z6:AD6"/>
-    <mergeCell ref="AE6:AI6"/>
-    <mergeCell ref="AJ6:AN6"/>
-    <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="E31:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10709,13 +10718,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="126" t="s">
+      <c r="B1" s="103" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
     </row>
     <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
@@ -10881,84 +10890,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="124" t="s">
+      <c r="B5" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="127" t="s">
+      <c r="C5" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="128" t="s">
+      <c r="D5" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="124" t="s">
+      <c r="E5" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="129" t="s">
+      <c r="F5" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="129"/>
-      <c r="H5" s="129"/>
-      <c r="I5" s="129"/>
-      <c r="J5" s="129"/>
-      <c r="K5" s="129"/>
-      <c r="L5" s="129"/>
-      <c r="M5" s="129"/>
-      <c r="N5" s="129"/>
-      <c r="O5" s="129"/>
-      <c r="P5" s="129"/>
-      <c r="Q5" s="129"/>
-      <c r="R5" s="129"/>
-      <c r="S5" s="129"/>
-      <c r="T5" s="129"/>
-      <c r="U5" s="129"/>
-      <c r="V5" s="129"/>
-      <c r="W5" s="129"/>
-      <c r="X5" s="129"/>
-      <c r="Y5" s="129"/>
-      <c r="Z5" s="129"/>
-      <c r="AA5" s="129"/>
-      <c r="AB5" s="129"/>
-      <c r="AC5" s="129"/>
-      <c r="AD5" s="129"/>
-      <c r="AE5" s="129"/>
-      <c r="AF5" s="129"/>
-      <c r="AG5" s="129"/>
-      <c r="AH5" s="129"/>
-      <c r="AI5" s="129"/>
-      <c r="AJ5" s="129"/>
-      <c r="AK5" s="129"/>
-      <c r="AL5" s="129"/>
-      <c r="AM5" s="129"/>
-      <c r="AN5" s="129"/>
-      <c r="AO5" s="129"/>
-      <c r="AP5" s="129"/>
-      <c r="AQ5" s="129"/>
-      <c r="AR5" s="129"/>
-      <c r="AS5" s="129"/>
-      <c r="AT5" s="129"/>
-      <c r="AU5" s="129"/>
-      <c r="AV5" s="129"/>
-      <c r="AW5" s="129"/>
-      <c r="AX5" s="129"/>
-      <c r="AY5" s="129"/>
-      <c r="AZ5" s="129"/>
-      <c r="BA5" s="129"/>
-      <c r="BB5" s="129"/>
-      <c r="BC5" s="129"/>
-      <c r="BD5" s="129"/>
-      <c r="BE5" s="129"/>
-      <c r="BF5" s="129"/>
-      <c r="BG5" s="129"/>
-      <c r="BH5" s="129"/>
-      <c r="BI5" s="129"/>
-      <c r="BJ5" s="129"/>
-      <c r="BK5" s="129"/>
-      <c r="BL5" s="129"/>
-      <c r="BM5" s="129"/>
-      <c r="BN5" s="123" t="s">
+      <c r="G5" s="107"/>
+      <c r="H5" s="107"/>
+      <c r="I5" s="107"/>
+      <c r="J5" s="107"/>
+      <c r="K5" s="107"/>
+      <c r="L5" s="107"/>
+      <c r="M5" s="107"/>
+      <c r="N5" s="107"/>
+      <c r="O5" s="107"/>
+      <c r="P5" s="107"/>
+      <c r="Q5" s="107"/>
+      <c r="R5" s="107"/>
+      <c r="S5" s="107"/>
+      <c r="T5" s="107"/>
+      <c r="U5" s="107"/>
+      <c r="V5" s="107"/>
+      <c r="W5" s="107"/>
+      <c r="X5" s="107"/>
+      <c r="Y5" s="107"/>
+      <c r="Z5" s="107"/>
+      <c r="AA5" s="107"/>
+      <c r="AB5" s="107"/>
+      <c r="AC5" s="107"/>
+      <c r="AD5" s="107"/>
+      <c r="AE5" s="107"/>
+      <c r="AF5" s="107"/>
+      <c r="AG5" s="107"/>
+      <c r="AH5" s="107"/>
+      <c r="AI5" s="107"/>
+      <c r="AJ5" s="107"/>
+      <c r="AK5" s="107"/>
+      <c r="AL5" s="107"/>
+      <c r="AM5" s="107"/>
+      <c r="AN5" s="107"/>
+      <c r="AO5" s="107"/>
+      <c r="AP5" s="107"/>
+      <c r="AQ5" s="107"/>
+      <c r="AR5" s="107"/>
+      <c r="AS5" s="107"/>
+      <c r="AT5" s="107"/>
+      <c r="AU5" s="107"/>
+      <c r="AV5" s="107"/>
+      <c r="AW5" s="107"/>
+      <c r="AX5" s="107"/>
+      <c r="AY5" s="107"/>
+      <c r="AZ5" s="107"/>
+      <c r="BA5" s="107"/>
+      <c r="BB5" s="107"/>
+      <c r="BC5" s="107"/>
+      <c r="BD5" s="107"/>
+      <c r="BE5" s="107"/>
+      <c r="BF5" s="107"/>
+      <c r="BG5" s="107"/>
+      <c r="BH5" s="107"/>
+      <c r="BI5" s="107"/>
+      <c r="BJ5" s="107"/>
+      <c r="BK5" s="107"/>
+      <c r="BL5" s="107"/>
+      <c r="BM5" s="107"/>
+      <c r="BN5" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="124" t="s">
+      <c r="BO5" s="104" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -10967,107 +10976,107 @@
       <c r="BU5" s="94"/>
     </row>
     <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="124"/>
-      <c r="C6" s="127"/>
-      <c r="D6" s="128"/>
-      <c r="E6" s="124"/>
-      <c r="F6" s="125" t="s">
+      <c r="B6" s="104"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="125"/>
-      <c r="H6" s="125"/>
-      <c r="I6" s="125"/>
-      <c r="J6" s="125"/>
-      <c r="K6" s="125" t="s">
+      <c r="G6" s="108"/>
+      <c r="H6" s="108"/>
+      <c r="I6" s="108"/>
+      <c r="J6" s="108"/>
+      <c r="K6" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="125"/>
-      <c r="M6" s="125"/>
-      <c r="N6" s="125"/>
-      <c r="O6" s="125"/>
-      <c r="P6" s="125" t="s">
+      <c r="L6" s="108"/>
+      <c r="M6" s="108"/>
+      <c r="N6" s="108"/>
+      <c r="O6" s="108"/>
+      <c r="P6" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="125"/>
-      <c r="R6" s="125"/>
-      <c r="S6" s="125"/>
-      <c r="T6" s="125"/>
-      <c r="U6" s="125" t="s">
+      <c r="Q6" s="108"/>
+      <c r="R6" s="108"/>
+      <c r="S6" s="108"/>
+      <c r="T6" s="108"/>
+      <c r="U6" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="125"/>
-      <c r="W6" s="125"/>
-      <c r="X6" s="125"/>
-      <c r="Y6" s="125"/>
-      <c r="Z6" s="125" t="s">
+      <c r="V6" s="108"/>
+      <c r="W6" s="108"/>
+      <c r="X6" s="108"/>
+      <c r="Y6" s="108"/>
+      <c r="Z6" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="125"/>
-      <c r="AB6" s="125"/>
-      <c r="AC6" s="125"/>
-      <c r="AD6" s="125"/>
-      <c r="AE6" s="125" t="s">
+      <c r="AA6" s="108"/>
+      <c r="AB6" s="108"/>
+      <c r="AC6" s="108"/>
+      <c r="AD6" s="108"/>
+      <c r="AE6" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="125"/>
-      <c r="AG6" s="125"/>
-      <c r="AH6" s="125"/>
-      <c r="AI6" s="125"/>
-      <c r="AJ6" s="125" t="s">
+      <c r="AF6" s="108"/>
+      <c r="AG6" s="108"/>
+      <c r="AH6" s="108"/>
+      <c r="AI6" s="108"/>
+      <c r="AJ6" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="125"/>
-      <c r="AL6" s="125"/>
-      <c r="AM6" s="125"/>
-      <c r="AN6" s="125"/>
-      <c r="AO6" s="125" t="s">
+      <c r="AK6" s="108"/>
+      <c r="AL6" s="108"/>
+      <c r="AM6" s="108"/>
+      <c r="AN6" s="108"/>
+      <c r="AO6" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="125"/>
-      <c r="AQ6" s="125"/>
-      <c r="AR6" s="125"/>
-      <c r="AS6" s="125"/>
-      <c r="AT6" s="125" t="s">
+      <c r="AP6" s="108"/>
+      <c r="AQ6" s="108"/>
+      <c r="AR6" s="108"/>
+      <c r="AS6" s="108"/>
+      <c r="AT6" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="125"/>
-      <c r="AV6" s="125"/>
-      <c r="AW6" s="125"/>
-      <c r="AX6" s="125"/>
-      <c r="AY6" s="125" t="s">
+      <c r="AU6" s="108"/>
+      <c r="AV6" s="108"/>
+      <c r="AW6" s="108"/>
+      <c r="AX6" s="108"/>
+      <c r="AY6" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="125"/>
-      <c r="BA6" s="125"/>
-      <c r="BB6" s="125"/>
-      <c r="BC6" s="125"/>
-      <c r="BD6" s="125" t="s">
+      <c r="AZ6" s="108"/>
+      <c r="BA6" s="108"/>
+      <c r="BB6" s="108"/>
+      <c r="BC6" s="108"/>
+      <c r="BD6" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="125"/>
-      <c r="BF6" s="125"/>
-      <c r="BG6" s="125"/>
-      <c r="BH6" s="125"/>
-      <c r="BI6" s="130" t="s">
+      <c r="BE6" s="108"/>
+      <c r="BF6" s="108"/>
+      <c r="BG6" s="108"/>
+      <c r="BH6" s="108"/>
+      <c r="BI6" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="130"/>
-      <c r="BK6" s="130"/>
-      <c r="BL6" s="130"/>
-      <c r="BM6" s="130"/>
-      <c r="BN6" s="123"/>
-      <c r="BO6" s="124"/>
+      <c r="BJ6" s="109"/>
+      <c r="BK6" s="109"/>
+      <c r="BL6" s="109"/>
+      <c r="BM6" s="109"/>
+      <c r="BN6" s="110"/>
+      <c r="BO6" s="104"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="118" t="s">
+      <c r="B7" s="111" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="118"/>
-      <c r="E7" s="119"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="112"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -12092,12 +12101,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="118"/>
+      <c r="B8" s="111"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="118"/>
-      <c r="E8" s="116"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="113"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -13128,7 +13137,7 @@
         <v>43</v>
       </c>
       <c r="D9" s="115"/>
-      <c r="E9" s="120"/>
+      <c r="E9" s="116"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
       <c r="H9" s="83"/>
@@ -14157,7 +14166,7 @@
         <v>44</v>
       </c>
       <c r="D10" s="115"/>
-      <c r="E10" s="121"/>
+      <c r="E10" s="117"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -15186,7 +15195,7 @@
         <v>45</v>
       </c>
       <c r="D11" s="115"/>
-      <c r="E11" s="121"/>
+      <c r="E11" s="117"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -16215,7 +16224,7 @@
         <v>46</v>
       </c>
       <c r="D12" s="115"/>
-      <c r="E12" s="122"/>
+      <c r="E12" s="118"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -16287,7 +16296,7 @@
         <v>47</v>
       </c>
       <c r="D13" s="115"/>
-      <c r="E13" s="116"/>
+      <c r="E13" s="113"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -16357,7 +16366,7 @@
         <v>48</v>
       </c>
       <c r="D14" s="115"/>
-      <c r="E14" s="116"/>
+      <c r="E14" s="113"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -16427,7 +16436,7 @@
         <v>49</v>
       </c>
       <c r="D15" s="115"/>
-      <c r="E15" s="116"/>
+      <c r="E15" s="113"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -16497,7 +16506,7 @@
         <v>50</v>
       </c>
       <c r="D16" s="115"/>
-      <c r="E16" s="116"/>
+      <c r="E16" s="113"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -16567,7 +16576,7 @@
         <v>51</v>
       </c>
       <c r="D17" s="115"/>
-      <c r="E17" s="116"/>
+      <c r="E17" s="113"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -16637,7 +16646,7 @@
         <v>52</v>
       </c>
       <c r="D18" s="115"/>
-      <c r="E18" s="116"/>
+      <c r="E18" s="113"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -16707,7 +16716,7 @@
         <v>53</v>
       </c>
       <c r="D19" s="115"/>
-      <c r="E19" s="116"/>
+      <c r="E19" s="113"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -16772,14 +16781,14 @@
       <c r="BO19" s="27"/>
     </row>
     <row r="20" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B20" s="117" t="s">
+      <c r="B20" s="119" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="118"/>
-      <c r="E20" s="107"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="120"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -16844,12 +16853,12 @@
       <c r="BO20" s="20"/>
     </row>
     <row r="21" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B21" s="117"/>
+      <c r="B21" s="119"/>
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="118"/>
-      <c r="E21" s="108"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="121"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -16914,12 +16923,12 @@
       <c r="BO21" s="31"/>
     </row>
     <row r="22" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B22" s="117"/>
+      <c r="B22" s="119"/>
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="118"/>
-      <c r="E22" s="108"/>
+      <c r="D22" s="111"/>
+      <c r="E22" s="121"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -16984,12 +16993,12 @@
       <c r="BO22" s="31"/>
     </row>
     <row r="23" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B23" s="117"/>
+      <c r="B23" s="119"/>
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="118"/>
-      <c r="E23" s="108"/>
+      <c r="D23" s="111"/>
+      <c r="E23" s="121"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -17054,12 +17063,12 @@
       <c r="BO23" s="31"/>
     </row>
     <row r="24" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B24" s="117"/>
+      <c r="B24" s="119"/>
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="118"/>
-      <c r="E24" s="108"/>
+      <c r="D24" s="111"/>
+      <c r="E24" s="121"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -17124,14 +17133,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="103" t="s">
+      <c r="B25" s="124" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="106"/>
-      <c r="E25" s="107"/>
+      <c r="D25" s="127"/>
+      <c r="E25" s="120"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -17196,12 +17205,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="104"/>
+      <c r="B26" s="125"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="106"/>
-      <c r="E26" s="108"/>
+      <c r="D26" s="127"/>
+      <c r="E26" s="121"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -17266,12 +17275,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="104"/>
+      <c r="B27" s="125"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="106"/>
-      <c r="E27" s="108"/>
+      <c r="D27" s="127"/>
+      <c r="E27" s="121"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -17336,12 +17345,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="104"/>
+      <c r="B28" s="125"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="106"/>
-      <c r="E28" s="108"/>
+      <c r="D28" s="127"/>
+      <c r="E28" s="121"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -17406,12 +17415,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="105"/>
+      <c r="B29" s="126"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="106"/>
-      <c r="E29" s="109"/>
+      <c r="D29" s="127"/>
+      <c r="E29" s="128"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -17548,10 +17557,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="110"/>
-      <c r="C31" s="107"/>
-      <c r="D31" s="113"/>
-      <c r="E31" s="110"/>
+      <c r="B31" s="129"/>
+      <c r="C31" s="120"/>
+      <c r="D31" s="132"/>
+      <c r="E31" s="129"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -17616,10 +17625,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="111"/>
-      <c r="C32" s="108"/>
-      <c r="D32" s="113"/>
-      <c r="E32" s="111"/>
+      <c r="B32" s="130"/>
+      <c r="C32" s="121"/>
+      <c r="D32" s="132"/>
+      <c r="E32" s="130"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -17684,10 +17693,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="111"/>
-      <c r="C33" s="108"/>
-      <c r="D33" s="113"/>
-      <c r="E33" s="111"/>
+      <c r="B33" s="130"/>
+      <c r="C33" s="121"/>
+      <c r="D33" s="132"/>
+      <c r="E33" s="130"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -17752,10 +17761,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="111"/>
-      <c r="C34" s="108"/>
-      <c r="D34" s="113"/>
-      <c r="E34" s="111"/>
+      <c r="B34" s="130"/>
+      <c r="C34" s="121"/>
+      <c r="D34" s="132"/>
+      <c r="E34" s="130"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -17820,10 +17829,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="111"/>
-      <c r="C35" s="108"/>
-      <c r="D35" s="113"/>
-      <c r="E35" s="111"/>
+      <c r="B35" s="130"/>
+      <c r="C35" s="121"/>
+      <c r="D35" s="132"/>
+      <c r="E35" s="130"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -17888,10 +17897,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="111"/>
-      <c r="C36" s="108"/>
-      <c r="D36" s="113"/>
-      <c r="E36" s="111"/>
+      <c r="B36" s="130"/>
+      <c r="C36" s="121"/>
+      <c r="D36" s="132"/>
+      <c r="E36" s="130"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -17956,10 +17965,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="111"/>
-      <c r="C37" s="108"/>
-      <c r="D37" s="113"/>
-      <c r="E37" s="111"/>
+      <c r="B37" s="130"/>
+      <c r="C37" s="121"/>
+      <c r="D37" s="132"/>
+      <c r="E37" s="130"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -18024,10 +18033,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="111"/>
-      <c r="C38" s="108"/>
-      <c r="D38" s="113"/>
-      <c r="E38" s="111"/>
+      <c r="B38" s="130"/>
+      <c r="C38" s="121"/>
+      <c r="D38" s="132"/>
+      <c r="E38" s="130"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -18092,10 +18101,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="111"/>
-      <c r="C39" s="108"/>
-      <c r="D39" s="113"/>
-      <c r="E39" s="111"/>
+      <c r="B39" s="130"/>
+      <c r="C39" s="121"/>
+      <c r="D39" s="132"/>
+      <c r="E39" s="130"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -18160,10 +18169,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="111"/>
-      <c r="C40" s="108"/>
-      <c r="D40" s="113"/>
-      <c r="E40" s="111"/>
+      <c r="B40" s="130"/>
+      <c r="C40" s="121"/>
+      <c r="D40" s="132"/>
+      <c r="E40" s="130"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -18228,10 +18237,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="111"/>
-      <c r="C41" s="108"/>
-      <c r="D41" s="113"/>
-      <c r="E41" s="111"/>
+      <c r="B41" s="130"/>
+      <c r="C41" s="121"/>
+      <c r="D41" s="132"/>
+      <c r="E41" s="130"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -18296,10 +18305,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="111"/>
-      <c r="C42" s="108"/>
-      <c r="D42" s="113"/>
-      <c r="E42" s="111"/>
+      <c r="B42" s="130"/>
+      <c r="C42" s="121"/>
+      <c r="D42" s="132"/>
+      <c r="E42" s="130"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -18364,10 +18373,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="111"/>
-      <c r="C43" s="108"/>
-      <c r="D43" s="113"/>
-      <c r="E43" s="111"/>
+      <c r="B43" s="130"/>
+      <c r="C43" s="121"/>
+      <c r="D43" s="132"/>
+      <c r="E43" s="130"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -18432,10 +18441,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="111"/>
-      <c r="C44" s="108"/>
-      <c r="D44" s="113"/>
-      <c r="E44" s="111"/>
+      <c r="B44" s="130"/>
+      <c r="C44" s="121"/>
+      <c r="D44" s="132"/>
+      <c r="E44" s="130"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -18500,10 +18509,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="111"/>
-      <c r="C45" s="108"/>
-      <c r="D45" s="113"/>
-      <c r="E45" s="111"/>
+      <c r="B45" s="130"/>
+      <c r="C45" s="121"/>
+      <c r="D45" s="132"/>
+      <c r="E45" s="130"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -18568,10 +18577,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="111"/>
-      <c r="C46" s="108"/>
-      <c r="D46" s="113"/>
-      <c r="E46" s="111"/>
+      <c r="B46" s="130"/>
+      <c r="C46" s="121"/>
+      <c r="D46" s="132"/>
+      <c r="E46" s="130"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -18636,10 +18645,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="111"/>
-      <c r="C47" s="108"/>
-      <c r="D47" s="113"/>
-      <c r="E47" s="111"/>
+      <c r="B47" s="130"/>
+      <c r="C47" s="121"/>
+      <c r="D47" s="132"/>
+      <c r="E47" s="130"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -18704,10 +18713,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="111"/>
-      <c r="C48" s="108"/>
-      <c r="D48" s="113"/>
-      <c r="E48" s="111"/>
+      <c r="B48" s="130"/>
+      <c r="C48" s="121"/>
+      <c r="D48" s="132"/>
+      <c r="E48" s="130"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -18772,10 +18781,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="111"/>
-      <c r="C49" s="108"/>
-      <c r="D49" s="113"/>
-      <c r="E49" s="111"/>
+      <c r="B49" s="130"/>
+      <c r="C49" s="121"/>
+      <c r="D49" s="132"/>
+      <c r="E49" s="130"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -18840,10 +18849,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="111"/>
-      <c r="C50" s="108"/>
-      <c r="D50" s="113"/>
-      <c r="E50" s="111"/>
+      <c r="B50" s="130"/>
+      <c r="C50" s="121"/>
+      <c r="D50" s="132"/>
+      <c r="E50" s="130"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -18908,10 +18917,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="111"/>
-      <c r="C51" s="108"/>
-      <c r="D51" s="113"/>
-      <c r="E51" s="111"/>
+      <c r="B51" s="130"/>
+      <c r="C51" s="121"/>
+      <c r="D51" s="132"/>
+      <c r="E51" s="130"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -18976,10 +18985,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="111"/>
-      <c r="C52" s="108"/>
-      <c r="D52" s="113"/>
-      <c r="E52" s="111"/>
+      <c r="B52" s="130"/>
+      <c r="C52" s="121"/>
+      <c r="D52" s="132"/>
+      <c r="E52" s="130"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -19044,10 +19053,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="111"/>
-      <c r="C53" s="108"/>
-      <c r="D53" s="113"/>
-      <c r="E53" s="111"/>
+      <c r="B53" s="130"/>
+      <c r="C53" s="121"/>
+      <c r="D53" s="132"/>
+      <c r="E53" s="130"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -19112,10 +19121,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="111"/>
-      <c r="C54" s="108"/>
-      <c r="D54" s="113"/>
-      <c r="E54" s="111"/>
+      <c r="B54" s="130"/>
+      <c r="C54" s="121"/>
+      <c r="D54" s="132"/>
+      <c r="E54" s="130"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -19180,10 +19189,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="111"/>
-      <c r="C55" s="108"/>
-      <c r="D55" s="113"/>
-      <c r="E55" s="111"/>
+      <c r="B55" s="130"/>
+      <c r="C55" s="121"/>
+      <c r="D55" s="132"/>
+      <c r="E55" s="130"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -19248,10 +19257,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="111"/>
-      <c r="C56" s="108"/>
-      <c r="D56" s="113"/>
-      <c r="E56" s="111"/>
+      <c r="B56" s="130"/>
+      <c r="C56" s="121"/>
+      <c r="D56" s="132"/>
+      <c r="E56" s="130"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -19316,10 +19325,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="111"/>
-      <c r="C57" s="108"/>
-      <c r="D57" s="113"/>
-      <c r="E57" s="111"/>
+      <c r="B57" s="130"/>
+      <c r="C57" s="121"/>
+      <c r="D57" s="132"/>
+      <c r="E57" s="130"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -19379,10 +19388,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="112"/>
-      <c r="C58" s="109"/>
-      <c r="D58" s="113"/>
-      <c r="E58" s="112"/>
+      <c r="B58" s="131"/>
+      <c r="C58" s="128"/>
+      <c r="D58" s="132"/>
+      <c r="E58" s="131"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -19447,7 +19456,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="101" t="s">
+      <c r="B59" s="122" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -19519,7 +19528,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="101"/>
+      <c r="B60" s="122"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -19589,7 +19598,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="102" t="s">
+      <c r="B61" s="123" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -19661,7 +19670,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="102"/>
+      <c r="B62" s="123"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -19729,7 +19738,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="102"/>
+      <c r="B63" s="123"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -19938,6 +19947,37 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="E31:E58"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="BN5:BN6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="U6:Y6"/>
+    <mergeCell ref="Z6:AD6"/>
+    <mergeCell ref="AE6:AI6"/>
+    <mergeCell ref="AJ6:AN6"/>
+    <mergeCell ref="AO6:AS6"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
@@ -19948,37 +19988,6 @@
     <mergeCell ref="AY6:BC6"/>
     <mergeCell ref="BD6:BH6"/>
     <mergeCell ref="BI6:BM6"/>
-    <mergeCell ref="BN5:BN6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="U6:Y6"/>
-    <mergeCell ref="Z6:AD6"/>
-    <mergeCell ref="AE6:AI6"/>
-    <mergeCell ref="AJ6:AN6"/>
-    <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="E31:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20010,13 +20019,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="126" t="s">
+      <c r="B1" s="103" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
     </row>
     <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
@@ -20182,84 +20191,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="124" t="s">
+      <c r="B5" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="127" t="s">
+      <c r="C5" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="128" t="s">
+      <c r="D5" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="124" t="s">
+      <c r="E5" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="129" t="s">
+      <c r="F5" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="129"/>
-      <c r="H5" s="129"/>
-      <c r="I5" s="129"/>
-      <c r="J5" s="129"/>
-      <c r="K5" s="129"/>
-      <c r="L5" s="129"/>
-      <c r="M5" s="129"/>
-      <c r="N5" s="129"/>
-      <c r="O5" s="129"/>
-      <c r="P5" s="129"/>
-      <c r="Q5" s="129"/>
-      <c r="R5" s="129"/>
-      <c r="S5" s="129"/>
-      <c r="T5" s="129"/>
-      <c r="U5" s="129"/>
-      <c r="V5" s="129"/>
-      <c r="W5" s="129"/>
-      <c r="X5" s="129"/>
-      <c r="Y5" s="129"/>
-      <c r="Z5" s="129"/>
-      <c r="AA5" s="129"/>
-      <c r="AB5" s="129"/>
-      <c r="AC5" s="129"/>
-      <c r="AD5" s="129"/>
-      <c r="AE5" s="129"/>
-      <c r="AF5" s="129"/>
-      <c r="AG5" s="129"/>
-      <c r="AH5" s="129"/>
-      <c r="AI5" s="129"/>
-      <c r="AJ5" s="129"/>
-      <c r="AK5" s="129"/>
-      <c r="AL5" s="129"/>
-      <c r="AM5" s="129"/>
-      <c r="AN5" s="129"/>
-      <c r="AO5" s="129"/>
-      <c r="AP5" s="129"/>
-      <c r="AQ5" s="129"/>
-      <c r="AR5" s="129"/>
-      <c r="AS5" s="129"/>
-      <c r="AT5" s="129"/>
-      <c r="AU5" s="129"/>
-      <c r="AV5" s="129"/>
-      <c r="AW5" s="129"/>
-      <c r="AX5" s="129"/>
-      <c r="AY5" s="129"/>
-      <c r="AZ5" s="129"/>
-      <c r="BA5" s="129"/>
-      <c r="BB5" s="129"/>
-      <c r="BC5" s="129"/>
-      <c r="BD5" s="129"/>
-      <c r="BE5" s="129"/>
-      <c r="BF5" s="129"/>
-      <c r="BG5" s="129"/>
-      <c r="BH5" s="129"/>
-      <c r="BI5" s="129"/>
-      <c r="BJ5" s="129"/>
-      <c r="BK5" s="129"/>
-      <c r="BL5" s="129"/>
-      <c r="BM5" s="129"/>
-      <c r="BN5" s="123" t="s">
+      <c r="G5" s="107"/>
+      <c r="H5" s="107"/>
+      <c r="I5" s="107"/>
+      <c r="J5" s="107"/>
+      <c r="K5" s="107"/>
+      <c r="L5" s="107"/>
+      <c r="M5" s="107"/>
+      <c r="N5" s="107"/>
+      <c r="O5" s="107"/>
+      <c r="P5" s="107"/>
+      <c r="Q5" s="107"/>
+      <c r="R5" s="107"/>
+      <c r="S5" s="107"/>
+      <c r="T5" s="107"/>
+      <c r="U5" s="107"/>
+      <c r="V5" s="107"/>
+      <c r="W5" s="107"/>
+      <c r="X5" s="107"/>
+      <c r="Y5" s="107"/>
+      <c r="Z5" s="107"/>
+      <c r="AA5" s="107"/>
+      <c r="AB5" s="107"/>
+      <c r="AC5" s="107"/>
+      <c r="AD5" s="107"/>
+      <c r="AE5" s="107"/>
+      <c r="AF5" s="107"/>
+      <c r="AG5" s="107"/>
+      <c r="AH5" s="107"/>
+      <c r="AI5" s="107"/>
+      <c r="AJ5" s="107"/>
+      <c r="AK5" s="107"/>
+      <c r="AL5" s="107"/>
+      <c r="AM5" s="107"/>
+      <c r="AN5" s="107"/>
+      <c r="AO5" s="107"/>
+      <c r="AP5" s="107"/>
+      <c r="AQ5" s="107"/>
+      <c r="AR5" s="107"/>
+      <c r="AS5" s="107"/>
+      <c r="AT5" s="107"/>
+      <c r="AU5" s="107"/>
+      <c r="AV5" s="107"/>
+      <c r="AW5" s="107"/>
+      <c r="AX5" s="107"/>
+      <c r="AY5" s="107"/>
+      <c r="AZ5" s="107"/>
+      <c r="BA5" s="107"/>
+      <c r="BB5" s="107"/>
+      <c r="BC5" s="107"/>
+      <c r="BD5" s="107"/>
+      <c r="BE5" s="107"/>
+      <c r="BF5" s="107"/>
+      <c r="BG5" s="107"/>
+      <c r="BH5" s="107"/>
+      <c r="BI5" s="107"/>
+      <c r="BJ5" s="107"/>
+      <c r="BK5" s="107"/>
+      <c r="BL5" s="107"/>
+      <c r="BM5" s="107"/>
+      <c r="BN5" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="124" t="s">
+      <c r="BO5" s="104" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -20268,107 +20277,107 @@
       <c r="BU5" s="94"/>
     </row>
     <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="124"/>
-      <c r="C6" s="127"/>
-      <c r="D6" s="128"/>
-      <c r="E6" s="124"/>
-      <c r="F6" s="125" t="s">
+      <c r="B6" s="104"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="125"/>
-      <c r="H6" s="125"/>
-      <c r="I6" s="125"/>
-      <c r="J6" s="125"/>
-      <c r="K6" s="125" t="s">
+      <c r="G6" s="108"/>
+      <c r="H6" s="108"/>
+      <c r="I6" s="108"/>
+      <c r="J6" s="108"/>
+      <c r="K6" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="125"/>
-      <c r="M6" s="125"/>
-      <c r="N6" s="125"/>
-      <c r="O6" s="125"/>
-      <c r="P6" s="125" t="s">
+      <c r="L6" s="108"/>
+      <c r="M6" s="108"/>
+      <c r="N6" s="108"/>
+      <c r="O6" s="108"/>
+      <c r="P6" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="125"/>
-      <c r="R6" s="125"/>
-      <c r="S6" s="125"/>
-      <c r="T6" s="125"/>
-      <c r="U6" s="125" t="s">
+      <c r="Q6" s="108"/>
+      <c r="R6" s="108"/>
+      <c r="S6" s="108"/>
+      <c r="T6" s="108"/>
+      <c r="U6" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="125"/>
-      <c r="W6" s="125"/>
-      <c r="X6" s="125"/>
-      <c r="Y6" s="125"/>
-      <c r="Z6" s="125" t="s">
+      <c r="V6" s="108"/>
+      <c r="W6" s="108"/>
+      <c r="X6" s="108"/>
+      <c r="Y6" s="108"/>
+      <c r="Z6" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="125"/>
-      <c r="AB6" s="125"/>
-      <c r="AC6" s="125"/>
-      <c r="AD6" s="125"/>
-      <c r="AE6" s="125" t="s">
+      <c r="AA6" s="108"/>
+      <c r="AB6" s="108"/>
+      <c r="AC6" s="108"/>
+      <c r="AD6" s="108"/>
+      <c r="AE6" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="125"/>
-      <c r="AG6" s="125"/>
-      <c r="AH6" s="125"/>
-      <c r="AI6" s="125"/>
-      <c r="AJ6" s="125" t="s">
+      <c r="AF6" s="108"/>
+      <c r="AG6" s="108"/>
+      <c r="AH6" s="108"/>
+      <c r="AI6" s="108"/>
+      <c r="AJ6" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="125"/>
-      <c r="AL6" s="125"/>
-      <c r="AM6" s="125"/>
-      <c r="AN6" s="125"/>
-      <c r="AO6" s="125" t="s">
+      <c r="AK6" s="108"/>
+      <c r="AL6" s="108"/>
+      <c r="AM6" s="108"/>
+      <c r="AN6" s="108"/>
+      <c r="AO6" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="125"/>
-      <c r="AQ6" s="125"/>
-      <c r="AR6" s="125"/>
-      <c r="AS6" s="125"/>
-      <c r="AT6" s="125" t="s">
+      <c r="AP6" s="108"/>
+      <c r="AQ6" s="108"/>
+      <c r="AR6" s="108"/>
+      <c r="AS6" s="108"/>
+      <c r="AT6" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="125"/>
-      <c r="AV6" s="125"/>
-      <c r="AW6" s="125"/>
-      <c r="AX6" s="125"/>
-      <c r="AY6" s="125" t="s">
+      <c r="AU6" s="108"/>
+      <c r="AV6" s="108"/>
+      <c r="AW6" s="108"/>
+      <c r="AX6" s="108"/>
+      <c r="AY6" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="125"/>
-      <c r="BA6" s="125"/>
-      <c r="BB6" s="125"/>
-      <c r="BC6" s="125"/>
-      <c r="BD6" s="125" t="s">
+      <c r="AZ6" s="108"/>
+      <c r="BA6" s="108"/>
+      <c r="BB6" s="108"/>
+      <c r="BC6" s="108"/>
+      <c r="BD6" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="125"/>
-      <c r="BF6" s="125"/>
-      <c r="BG6" s="125"/>
-      <c r="BH6" s="125"/>
-      <c r="BI6" s="130" t="s">
+      <c r="BE6" s="108"/>
+      <c r="BF6" s="108"/>
+      <c r="BG6" s="108"/>
+      <c r="BH6" s="108"/>
+      <c r="BI6" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="130"/>
-      <c r="BK6" s="130"/>
-      <c r="BL6" s="130"/>
-      <c r="BM6" s="130"/>
-      <c r="BN6" s="123"/>
-      <c r="BO6" s="124"/>
+      <c r="BJ6" s="109"/>
+      <c r="BK6" s="109"/>
+      <c r="BL6" s="109"/>
+      <c r="BM6" s="109"/>
+      <c r="BN6" s="110"/>
+      <c r="BO6" s="104"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="118" t="s">
+      <c r="B7" s="111" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="118"/>
-      <c r="E7" s="119"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="112"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -21393,12 +21402,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="118"/>
+      <c r="B8" s="111"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="118"/>
-      <c r="E8" s="116"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="113"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -22429,7 +22438,7 @@
         <v>43</v>
       </c>
       <c r="D9" s="115"/>
-      <c r="E9" s="120"/>
+      <c r="E9" s="116"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
       <c r="H9" s="83"/>
@@ -23458,7 +23467,7 @@
         <v>44</v>
       </c>
       <c r="D10" s="115"/>
-      <c r="E10" s="121"/>
+      <c r="E10" s="117"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -24487,7 +24496,7 @@
         <v>45</v>
       </c>
       <c r="D11" s="115"/>
-      <c r="E11" s="121"/>
+      <c r="E11" s="117"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -25516,7 +25525,7 @@
         <v>46</v>
       </c>
       <c r="D12" s="115"/>
-      <c r="E12" s="122"/>
+      <c r="E12" s="118"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -25588,7 +25597,7 @@
         <v>47</v>
       </c>
       <c r="D13" s="115"/>
-      <c r="E13" s="116"/>
+      <c r="E13" s="113"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -25658,7 +25667,7 @@
         <v>48</v>
       </c>
       <c r="D14" s="115"/>
-      <c r="E14" s="116"/>
+      <c r="E14" s="113"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -25728,7 +25737,7 @@
         <v>49</v>
       </c>
       <c r="D15" s="115"/>
-      <c r="E15" s="116"/>
+      <c r="E15" s="113"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -25798,7 +25807,7 @@
         <v>50</v>
       </c>
       <c r="D16" s="115"/>
-      <c r="E16" s="116"/>
+      <c r="E16" s="113"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -25868,7 +25877,7 @@
         <v>51</v>
       </c>
       <c r="D17" s="115"/>
-      <c r="E17" s="116"/>
+      <c r="E17" s="113"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -25938,7 +25947,7 @@
         <v>52</v>
       </c>
       <c r="D18" s="115"/>
-      <c r="E18" s="116"/>
+      <c r="E18" s="113"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -26008,7 +26017,7 @@
         <v>53</v>
       </c>
       <c r="D19" s="115"/>
-      <c r="E19" s="116"/>
+      <c r="E19" s="113"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -26073,14 +26082,14 @@
       <c r="BO19" s="27"/>
     </row>
     <row r="20" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B20" s="117" t="s">
+      <c r="B20" s="119" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="118"/>
-      <c r="E20" s="107"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="120"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -26145,12 +26154,12 @@
       <c r="BO20" s="20"/>
     </row>
     <row r="21" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B21" s="117"/>
+      <c r="B21" s="119"/>
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="118"/>
-      <c r="E21" s="108"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="121"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -26215,12 +26224,12 @@
       <c r="BO21" s="31"/>
     </row>
     <row r="22" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B22" s="117"/>
+      <c r="B22" s="119"/>
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="118"/>
-      <c r="E22" s="108"/>
+      <c r="D22" s="111"/>
+      <c r="E22" s="121"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -26285,12 +26294,12 @@
       <c r="BO22" s="31"/>
     </row>
     <row r="23" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B23" s="117"/>
+      <c r="B23" s="119"/>
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="118"/>
-      <c r="E23" s="108"/>
+      <c r="D23" s="111"/>
+      <c r="E23" s="121"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -26355,12 +26364,12 @@
       <c r="BO23" s="31"/>
     </row>
     <row r="24" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B24" s="117"/>
+      <c r="B24" s="119"/>
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="118"/>
-      <c r="E24" s="108"/>
+      <c r="D24" s="111"/>
+      <c r="E24" s="121"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -26425,14 +26434,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="103" t="s">
+      <c r="B25" s="124" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="106"/>
-      <c r="E25" s="107"/>
+      <c r="D25" s="127"/>
+      <c r="E25" s="120"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -26497,12 +26506,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="104"/>
+      <c r="B26" s="125"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="106"/>
-      <c r="E26" s="108"/>
+      <c r="D26" s="127"/>
+      <c r="E26" s="121"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -26567,12 +26576,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="104"/>
+      <c r="B27" s="125"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="106"/>
-      <c r="E27" s="108"/>
+      <c r="D27" s="127"/>
+      <c r="E27" s="121"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -26637,12 +26646,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="104"/>
+      <c r="B28" s="125"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="106"/>
-      <c r="E28" s="108"/>
+      <c r="D28" s="127"/>
+      <c r="E28" s="121"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -26707,12 +26716,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="105"/>
+      <c r="B29" s="126"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="106"/>
-      <c r="E29" s="109"/>
+      <c r="D29" s="127"/>
+      <c r="E29" s="128"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -26849,10 +26858,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="110"/>
-      <c r="C31" s="107"/>
-      <c r="D31" s="113"/>
-      <c r="E31" s="110"/>
+      <c r="B31" s="129"/>
+      <c r="C31" s="120"/>
+      <c r="D31" s="132"/>
+      <c r="E31" s="129"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -26917,10 +26926,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="111"/>
-      <c r="C32" s="108"/>
-      <c r="D32" s="113"/>
-      <c r="E32" s="111"/>
+      <c r="B32" s="130"/>
+      <c r="C32" s="121"/>
+      <c r="D32" s="132"/>
+      <c r="E32" s="130"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -26985,10 +26994,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="111"/>
-      <c r="C33" s="108"/>
-      <c r="D33" s="113"/>
-      <c r="E33" s="111"/>
+      <c r="B33" s="130"/>
+      <c r="C33" s="121"/>
+      <c r="D33" s="132"/>
+      <c r="E33" s="130"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -27053,10 +27062,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="111"/>
-      <c r="C34" s="108"/>
-      <c r="D34" s="113"/>
-      <c r="E34" s="111"/>
+      <c r="B34" s="130"/>
+      <c r="C34" s="121"/>
+      <c r="D34" s="132"/>
+      <c r="E34" s="130"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -27121,10 +27130,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="111"/>
-      <c r="C35" s="108"/>
-      <c r="D35" s="113"/>
-      <c r="E35" s="111"/>
+      <c r="B35" s="130"/>
+      <c r="C35" s="121"/>
+      <c r="D35" s="132"/>
+      <c r="E35" s="130"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -27189,10 +27198,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="111"/>
-      <c r="C36" s="108"/>
-      <c r="D36" s="113"/>
-      <c r="E36" s="111"/>
+      <c r="B36" s="130"/>
+      <c r="C36" s="121"/>
+      <c r="D36" s="132"/>
+      <c r="E36" s="130"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -27257,10 +27266,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="111"/>
-      <c r="C37" s="108"/>
-      <c r="D37" s="113"/>
-      <c r="E37" s="111"/>
+      <c r="B37" s="130"/>
+      <c r="C37" s="121"/>
+      <c r="D37" s="132"/>
+      <c r="E37" s="130"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -27325,10 +27334,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="111"/>
-      <c r="C38" s="108"/>
-      <c r="D38" s="113"/>
-      <c r="E38" s="111"/>
+      <c r="B38" s="130"/>
+      <c r="C38" s="121"/>
+      <c r="D38" s="132"/>
+      <c r="E38" s="130"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -27393,10 +27402,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="111"/>
-      <c r="C39" s="108"/>
-      <c r="D39" s="113"/>
-      <c r="E39" s="111"/>
+      <c r="B39" s="130"/>
+      <c r="C39" s="121"/>
+      <c r="D39" s="132"/>
+      <c r="E39" s="130"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -27461,10 +27470,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="111"/>
-      <c r="C40" s="108"/>
-      <c r="D40" s="113"/>
-      <c r="E40" s="111"/>
+      <c r="B40" s="130"/>
+      <c r="C40" s="121"/>
+      <c r="D40" s="132"/>
+      <c r="E40" s="130"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -27529,10 +27538,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="111"/>
-      <c r="C41" s="108"/>
-      <c r="D41" s="113"/>
-      <c r="E41" s="111"/>
+      <c r="B41" s="130"/>
+      <c r="C41" s="121"/>
+      <c r="D41" s="132"/>
+      <c r="E41" s="130"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -27597,10 +27606,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="111"/>
-      <c r="C42" s="108"/>
-      <c r="D42" s="113"/>
-      <c r="E42" s="111"/>
+      <c r="B42" s="130"/>
+      <c r="C42" s="121"/>
+      <c r="D42" s="132"/>
+      <c r="E42" s="130"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -27665,10 +27674,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="111"/>
-      <c r="C43" s="108"/>
-      <c r="D43" s="113"/>
-      <c r="E43" s="111"/>
+      <c r="B43" s="130"/>
+      <c r="C43" s="121"/>
+      <c r="D43" s="132"/>
+      <c r="E43" s="130"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -27733,10 +27742,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="111"/>
-      <c r="C44" s="108"/>
-      <c r="D44" s="113"/>
-      <c r="E44" s="111"/>
+      <c r="B44" s="130"/>
+      <c r="C44" s="121"/>
+      <c r="D44" s="132"/>
+      <c r="E44" s="130"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -27801,10 +27810,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="111"/>
-      <c r="C45" s="108"/>
-      <c r="D45" s="113"/>
-      <c r="E45" s="111"/>
+      <c r="B45" s="130"/>
+      <c r="C45" s="121"/>
+      <c r="D45" s="132"/>
+      <c r="E45" s="130"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -27869,10 +27878,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="111"/>
-      <c r="C46" s="108"/>
-      <c r="D46" s="113"/>
-      <c r="E46" s="111"/>
+      <c r="B46" s="130"/>
+      <c r="C46" s="121"/>
+      <c r="D46" s="132"/>
+      <c r="E46" s="130"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -27937,10 +27946,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="111"/>
-      <c r="C47" s="108"/>
-      <c r="D47" s="113"/>
-      <c r="E47" s="111"/>
+      <c r="B47" s="130"/>
+      <c r="C47" s="121"/>
+      <c r="D47" s="132"/>
+      <c r="E47" s="130"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -28005,10 +28014,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="111"/>
-      <c r="C48" s="108"/>
-      <c r="D48" s="113"/>
-      <c r="E48" s="111"/>
+      <c r="B48" s="130"/>
+      <c r="C48" s="121"/>
+      <c r="D48" s="132"/>
+      <c r="E48" s="130"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -28073,10 +28082,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="111"/>
-      <c r="C49" s="108"/>
-      <c r="D49" s="113"/>
-      <c r="E49" s="111"/>
+      <c r="B49" s="130"/>
+      <c r="C49" s="121"/>
+      <c r="D49" s="132"/>
+      <c r="E49" s="130"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -28141,10 +28150,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="111"/>
-      <c r="C50" s="108"/>
-      <c r="D50" s="113"/>
-      <c r="E50" s="111"/>
+      <c r="B50" s="130"/>
+      <c r="C50" s="121"/>
+      <c r="D50" s="132"/>
+      <c r="E50" s="130"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -28209,10 +28218,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="111"/>
-      <c r="C51" s="108"/>
-      <c r="D51" s="113"/>
-      <c r="E51" s="111"/>
+      <c r="B51" s="130"/>
+      <c r="C51" s="121"/>
+      <c r="D51" s="132"/>
+      <c r="E51" s="130"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -28277,10 +28286,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="111"/>
-      <c r="C52" s="108"/>
-      <c r="D52" s="113"/>
-      <c r="E52" s="111"/>
+      <c r="B52" s="130"/>
+      <c r="C52" s="121"/>
+      <c r="D52" s="132"/>
+      <c r="E52" s="130"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -28345,10 +28354,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="111"/>
-      <c r="C53" s="108"/>
-      <c r="D53" s="113"/>
-      <c r="E53" s="111"/>
+      <c r="B53" s="130"/>
+      <c r="C53" s="121"/>
+      <c r="D53" s="132"/>
+      <c r="E53" s="130"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -28413,10 +28422,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="111"/>
-      <c r="C54" s="108"/>
-      <c r="D54" s="113"/>
-      <c r="E54" s="111"/>
+      <c r="B54" s="130"/>
+      <c r="C54" s="121"/>
+      <c r="D54" s="132"/>
+      <c r="E54" s="130"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -28481,10 +28490,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="111"/>
-      <c r="C55" s="108"/>
-      <c r="D55" s="113"/>
-      <c r="E55" s="111"/>
+      <c r="B55" s="130"/>
+      <c r="C55" s="121"/>
+      <c r="D55" s="132"/>
+      <c r="E55" s="130"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -28549,10 +28558,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="111"/>
-      <c r="C56" s="108"/>
-      <c r="D56" s="113"/>
-      <c r="E56" s="111"/>
+      <c r="B56" s="130"/>
+      <c r="C56" s="121"/>
+      <c r="D56" s="132"/>
+      <c r="E56" s="130"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -28617,10 +28626,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="111"/>
-      <c r="C57" s="108"/>
-      <c r="D57" s="113"/>
-      <c r="E57" s="111"/>
+      <c r="B57" s="130"/>
+      <c r="C57" s="121"/>
+      <c r="D57" s="132"/>
+      <c r="E57" s="130"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -28680,10 +28689,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="112"/>
-      <c r="C58" s="109"/>
-      <c r="D58" s="113"/>
-      <c r="E58" s="112"/>
+      <c r="B58" s="131"/>
+      <c r="C58" s="128"/>
+      <c r="D58" s="132"/>
+      <c r="E58" s="131"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -28748,7 +28757,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="101" t="s">
+      <c r="B59" s="122" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -28820,7 +28829,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="101"/>
+      <c r="B60" s="122"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -28890,7 +28899,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="102" t="s">
+      <c r="B61" s="123" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -28962,7 +28971,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="102"/>
+      <c r="B62" s="123"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -29030,7 +29039,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="102"/>
+      <c r="B63" s="123"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -29239,6 +29248,37 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="E31:E58"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="BN5:BN6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="U6:Y6"/>
+    <mergeCell ref="Z6:AD6"/>
+    <mergeCell ref="AE6:AI6"/>
+    <mergeCell ref="AJ6:AN6"/>
+    <mergeCell ref="AO6:AS6"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
@@ -29249,37 +29289,6 @@
     <mergeCell ref="AY6:BC6"/>
     <mergeCell ref="BD6:BH6"/>
     <mergeCell ref="BI6:BM6"/>
-    <mergeCell ref="BN5:BN6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="U6:Y6"/>
-    <mergeCell ref="Z6:AD6"/>
-    <mergeCell ref="AE6:AI6"/>
-    <mergeCell ref="AJ6:AN6"/>
-    <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="E31:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -29311,13 +29320,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="126" t="s">
+      <c r="B1" s="103" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
     </row>
     <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
@@ -29483,84 +29492,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="124" t="s">
+      <c r="B5" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="127" t="s">
+      <c r="C5" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="128" t="s">
+      <c r="D5" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="124" t="s">
+      <c r="E5" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="129" t="s">
+      <c r="F5" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="129"/>
-      <c r="H5" s="129"/>
-      <c r="I5" s="129"/>
-      <c r="J5" s="129"/>
-      <c r="K5" s="129"/>
-      <c r="L5" s="129"/>
-      <c r="M5" s="129"/>
-      <c r="N5" s="129"/>
-      <c r="O5" s="129"/>
-      <c r="P5" s="129"/>
-      <c r="Q5" s="129"/>
-      <c r="R5" s="129"/>
-      <c r="S5" s="129"/>
-      <c r="T5" s="129"/>
-      <c r="U5" s="129"/>
-      <c r="V5" s="129"/>
-      <c r="W5" s="129"/>
-      <c r="X5" s="129"/>
-      <c r="Y5" s="129"/>
-      <c r="Z5" s="129"/>
-      <c r="AA5" s="129"/>
-      <c r="AB5" s="129"/>
-      <c r="AC5" s="129"/>
-      <c r="AD5" s="129"/>
-      <c r="AE5" s="129"/>
-      <c r="AF5" s="129"/>
-      <c r="AG5" s="129"/>
-      <c r="AH5" s="129"/>
-      <c r="AI5" s="129"/>
-      <c r="AJ5" s="129"/>
-      <c r="AK5" s="129"/>
-      <c r="AL5" s="129"/>
-      <c r="AM5" s="129"/>
-      <c r="AN5" s="129"/>
-      <c r="AO5" s="129"/>
-      <c r="AP5" s="129"/>
-      <c r="AQ5" s="129"/>
-      <c r="AR5" s="129"/>
-      <c r="AS5" s="129"/>
-      <c r="AT5" s="129"/>
-      <c r="AU5" s="129"/>
-      <c r="AV5" s="129"/>
-      <c r="AW5" s="129"/>
-      <c r="AX5" s="129"/>
-      <c r="AY5" s="129"/>
-      <c r="AZ5" s="129"/>
-      <c r="BA5" s="129"/>
-      <c r="BB5" s="129"/>
-      <c r="BC5" s="129"/>
-      <c r="BD5" s="129"/>
-      <c r="BE5" s="129"/>
-      <c r="BF5" s="129"/>
-      <c r="BG5" s="129"/>
-      <c r="BH5" s="129"/>
-      <c r="BI5" s="129"/>
-      <c r="BJ5" s="129"/>
-      <c r="BK5" s="129"/>
-      <c r="BL5" s="129"/>
-      <c r="BM5" s="129"/>
-      <c r="BN5" s="123" t="s">
+      <c r="G5" s="107"/>
+      <c r="H5" s="107"/>
+      <c r="I5" s="107"/>
+      <c r="J5" s="107"/>
+      <c r="K5" s="107"/>
+      <c r="L5" s="107"/>
+      <c r="M5" s="107"/>
+      <c r="N5" s="107"/>
+      <c r="O5" s="107"/>
+      <c r="P5" s="107"/>
+      <c r="Q5" s="107"/>
+      <c r="R5" s="107"/>
+      <c r="S5" s="107"/>
+      <c r="T5" s="107"/>
+      <c r="U5" s="107"/>
+      <c r="V5" s="107"/>
+      <c r="W5" s="107"/>
+      <c r="X5" s="107"/>
+      <c r="Y5" s="107"/>
+      <c r="Z5" s="107"/>
+      <c r="AA5" s="107"/>
+      <c r="AB5" s="107"/>
+      <c r="AC5" s="107"/>
+      <c r="AD5" s="107"/>
+      <c r="AE5" s="107"/>
+      <c r="AF5" s="107"/>
+      <c r="AG5" s="107"/>
+      <c r="AH5" s="107"/>
+      <c r="AI5" s="107"/>
+      <c r="AJ5" s="107"/>
+      <c r="AK5" s="107"/>
+      <c r="AL5" s="107"/>
+      <c r="AM5" s="107"/>
+      <c r="AN5" s="107"/>
+      <c r="AO5" s="107"/>
+      <c r="AP5" s="107"/>
+      <c r="AQ5" s="107"/>
+      <c r="AR5" s="107"/>
+      <c r="AS5" s="107"/>
+      <c r="AT5" s="107"/>
+      <c r="AU5" s="107"/>
+      <c r="AV5" s="107"/>
+      <c r="AW5" s="107"/>
+      <c r="AX5" s="107"/>
+      <c r="AY5" s="107"/>
+      <c r="AZ5" s="107"/>
+      <c r="BA5" s="107"/>
+      <c r="BB5" s="107"/>
+      <c r="BC5" s="107"/>
+      <c r="BD5" s="107"/>
+      <c r="BE5" s="107"/>
+      <c r="BF5" s="107"/>
+      <c r="BG5" s="107"/>
+      <c r="BH5" s="107"/>
+      <c r="BI5" s="107"/>
+      <c r="BJ5" s="107"/>
+      <c r="BK5" s="107"/>
+      <c r="BL5" s="107"/>
+      <c r="BM5" s="107"/>
+      <c r="BN5" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="124" t="s">
+      <c r="BO5" s="104" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -29569,107 +29578,107 @@
       <c r="BU5" s="94"/>
     </row>
     <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="124"/>
-      <c r="C6" s="127"/>
-      <c r="D6" s="128"/>
-      <c r="E6" s="124"/>
-      <c r="F6" s="125" t="s">
+      <c r="B6" s="104"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="125"/>
-      <c r="H6" s="125"/>
-      <c r="I6" s="125"/>
-      <c r="J6" s="125"/>
-      <c r="K6" s="125" t="s">
+      <c r="G6" s="108"/>
+      <c r="H6" s="108"/>
+      <c r="I6" s="108"/>
+      <c r="J6" s="108"/>
+      <c r="K6" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="125"/>
-      <c r="M6" s="125"/>
-      <c r="N6" s="125"/>
-      <c r="O6" s="125"/>
-      <c r="P6" s="125" t="s">
+      <c r="L6" s="108"/>
+      <c r="M6" s="108"/>
+      <c r="N6" s="108"/>
+      <c r="O6" s="108"/>
+      <c r="P6" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="125"/>
-      <c r="R6" s="125"/>
-      <c r="S6" s="125"/>
-      <c r="T6" s="125"/>
-      <c r="U6" s="125" t="s">
+      <c r="Q6" s="108"/>
+      <c r="R6" s="108"/>
+      <c r="S6" s="108"/>
+      <c r="T6" s="108"/>
+      <c r="U6" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="125"/>
-      <c r="W6" s="125"/>
-      <c r="X6" s="125"/>
-      <c r="Y6" s="125"/>
-      <c r="Z6" s="125" t="s">
+      <c r="V6" s="108"/>
+      <c r="W6" s="108"/>
+      <c r="X6" s="108"/>
+      <c r="Y6" s="108"/>
+      <c r="Z6" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="125"/>
-      <c r="AB6" s="125"/>
-      <c r="AC6" s="125"/>
-      <c r="AD6" s="125"/>
-      <c r="AE6" s="125" t="s">
+      <c r="AA6" s="108"/>
+      <c r="AB6" s="108"/>
+      <c r="AC6" s="108"/>
+      <c r="AD6" s="108"/>
+      <c r="AE6" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="125"/>
-      <c r="AG6" s="125"/>
-      <c r="AH6" s="125"/>
-      <c r="AI6" s="125"/>
-      <c r="AJ6" s="125" t="s">
+      <c r="AF6" s="108"/>
+      <c r="AG6" s="108"/>
+      <c r="AH6" s="108"/>
+      <c r="AI6" s="108"/>
+      <c r="AJ6" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="125"/>
-      <c r="AL6" s="125"/>
-      <c r="AM6" s="125"/>
-      <c r="AN6" s="125"/>
-      <c r="AO6" s="125" t="s">
+      <c r="AK6" s="108"/>
+      <c r="AL6" s="108"/>
+      <c r="AM6" s="108"/>
+      <c r="AN6" s="108"/>
+      <c r="AO6" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="125"/>
-      <c r="AQ6" s="125"/>
-      <c r="AR6" s="125"/>
-      <c r="AS6" s="125"/>
-      <c r="AT6" s="125" t="s">
+      <c r="AP6" s="108"/>
+      <c r="AQ6" s="108"/>
+      <c r="AR6" s="108"/>
+      <c r="AS6" s="108"/>
+      <c r="AT6" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="125"/>
-      <c r="AV6" s="125"/>
-      <c r="AW6" s="125"/>
-      <c r="AX6" s="125"/>
-      <c r="AY6" s="125" t="s">
+      <c r="AU6" s="108"/>
+      <c r="AV6" s="108"/>
+      <c r="AW6" s="108"/>
+      <c r="AX6" s="108"/>
+      <c r="AY6" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="125"/>
-      <c r="BA6" s="125"/>
-      <c r="BB6" s="125"/>
-      <c r="BC6" s="125"/>
-      <c r="BD6" s="125" t="s">
+      <c r="AZ6" s="108"/>
+      <c r="BA6" s="108"/>
+      <c r="BB6" s="108"/>
+      <c r="BC6" s="108"/>
+      <c r="BD6" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="125"/>
-      <c r="BF6" s="125"/>
-      <c r="BG6" s="125"/>
-      <c r="BH6" s="125"/>
-      <c r="BI6" s="130" t="s">
+      <c r="BE6" s="108"/>
+      <c r="BF6" s="108"/>
+      <c r="BG6" s="108"/>
+      <c r="BH6" s="108"/>
+      <c r="BI6" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="130"/>
-      <c r="BK6" s="130"/>
-      <c r="BL6" s="130"/>
-      <c r="BM6" s="130"/>
-      <c r="BN6" s="123"/>
-      <c r="BO6" s="124"/>
+      <c r="BJ6" s="109"/>
+      <c r="BK6" s="109"/>
+      <c r="BL6" s="109"/>
+      <c r="BM6" s="109"/>
+      <c r="BN6" s="110"/>
+      <c r="BO6" s="104"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="118" t="s">
+      <c r="B7" s="111" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="118"/>
-      <c r="E7" s="119"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="112"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -30694,12 +30703,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="118"/>
+      <c r="B8" s="111"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="118"/>
-      <c r="E8" s="116"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="113"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -31730,7 +31739,7 @@
         <v>43</v>
       </c>
       <c r="D9" s="115"/>
-      <c r="E9" s="120"/>
+      <c r="E9" s="116"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
       <c r="H9" s="83"/>
@@ -32759,7 +32768,7 @@
         <v>44</v>
       </c>
       <c r="D10" s="115"/>
-      <c r="E10" s="121"/>
+      <c r="E10" s="117"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -33788,7 +33797,7 @@
         <v>45</v>
       </c>
       <c r="D11" s="115"/>
-      <c r="E11" s="121"/>
+      <c r="E11" s="117"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -34817,7 +34826,7 @@
         <v>46</v>
       </c>
       <c r="D12" s="115"/>
-      <c r="E12" s="122"/>
+      <c r="E12" s="118"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -34889,7 +34898,7 @@
         <v>47</v>
       </c>
       <c r="D13" s="115"/>
-      <c r="E13" s="116"/>
+      <c r="E13" s="113"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -34959,7 +34968,7 @@
         <v>48</v>
       </c>
       <c r="D14" s="115"/>
-      <c r="E14" s="116"/>
+      <c r="E14" s="113"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -35029,7 +35038,7 @@
         <v>49</v>
       </c>
       <c r="D15" s="115"/>
-      <c r="E15" s="116"/>
+      <c r="E15" s="113"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -35099,7 +35108,7 @@
         <v>50</v>
       </c>
       <c r="D16" s="115"/>
-      <c r="E16" s="116"/>
+      <c r="E16" s="113"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -35169,7 +35178,7 @@
         <v>51</v>
       </c>
       <c r="D17" s="115"/>
-      <c r="E17" s="116"/>
+      <c r="E17" s="113"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -35239,7 +35248,7 @@
         <v>52</v>
       </c>
       <c r="D18" s="115"/>
-      <c r="E18" s="116"/>
+      <c r="E18" s="113"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -35309,7 +35318,7 @@
         <v>53</v>
       </c>
       <c r="D19" s="115"/>
-      <c r="E19" s="116"/>
+      <c r="E19" s="113"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -35374,14 +35383,14 @@
       <c r="BO19" s="27"/>
     </row>
     <row r="20" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B20" s="117" t="s">
+      <c r="B20" s="119" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="118"/>
-      <c r="E20" s="107"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="120"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -35446,12 +35455,12 @@
       <c r="BO20" s="20"/>
     </row>
     <row r="21" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B21" s="117"/>
+      <c r="B21" s="119"/>
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="118"/>
-      <c r="E21" s="108"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="121"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -35516,12 +35525,12 @@
       <c r="BO21" s="31"/>
     </row>
     <row r="22" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B22" s="117"/>
+      <c r="B22" s="119"/>
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="118"/>
-      <c r="E22" s="108"/>
+      <c r="D22" s="111"/>
+      <c r="E22" s="121"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -35586,12 +35595,12 @@
       <c r="BO22" s="31"/>
     </row>
     <row r="23" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B23" s="117"/>
+      <c r="B23" s="119"/>
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="118"/>
-      <c r="E23" s="108"/>
+      <c r="D23" s="111"/>
+      <c r="E23" s="121"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -35656,12 +35665,12 @@
       <c r="BO23" s="31"/>
     </row>
     <row r="24" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B24" s="117"/>
+      <c r="B24" s="119"/>
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="118"/>
-      <c r="E24" s="108"/>
+      <c r="D24" s="111"/>
+      <c r="E24" s="121"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -35726,14 +35735,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="103" t="s">
+      <c r="B25" s="124" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="106"/>
-      <c r="E25" s="107"/>
+      <c r="D25" s="127"/>
+      <c r="E25" s="120"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -35798,12 +35807,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="104"/>
+      <c r="B26" s="125"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="106"/>
-      <c r="E26" s="108"/>
+      <c r="D26" s="127"/>
+      <c r="E26" s="121"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -35868,12 +35877,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="104"/>
+      <c r="B27" s="125"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="106"/>
-      <c r="E27" s="108"/>
+      <c r="D27" s="127"/>
+      <c r="E27" s="121"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -35938,12 +35947,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="104"/>
+      <c r="B28" s="125"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="106"/>
-      <c r="E28" s="108"/>
+      <c r="D28" s="127"/>
+      <c r="E28" s="121"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -36008,12 +36017,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="105"/>
+      <c r="B29" s="126"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="106"/>
-      <c r="E29" s="109"/>
+      <c r="D29" s="127"/>
+      <c r="E29" s="128"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -36150,10 +36159,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="110"/>
-      <c r="C31" s="107"/>
-      <c r="D31" s="113"/>
-      <c r="E31" s="110"/>
+      <c r="B31" s="129"/>
+      <c r="C31" s="120"/>
+      <c r="D31" s="132"/>
+      <c r="E31" s="129"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -36218,10 +36227,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="111"/>
-      <c r="C32" s="108"/>
-      <c r="D32" s="113"/>
-      <c r="E32" s="111"/>
+      <c r="B32" s="130"/>
+      <c r="C32" s="121"/>
+      <c r="D32" s="132"/>
+      <c r="E32" s="130"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -36286,10 +36295,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="111"/>
-      <c r="C33" s="108"/>
-      <c r="D33" s="113"/>
-      <c r="E33" s="111"/>
+      <c r="B33" s="130"/>
+      <c r="C33" s="121"/>
+      <c r="D33" s="132"/>
+      <c r="E33" s="130"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -36354,10 +36363,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="111"/>
-      <c r="C34" s="108"/>
-      <c r="D34" s="113"/>
-      <c r="E34" s="111"/>
+      <c r="B34" s="130"/>
+      <c r="C34" s="121"/>
+      <c r="D34" s="132"/>
+      <c r="E34" s="130"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -36422,10 +36431,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="111"/>
-      <c r="C35" s="108"/>
-      <c r="D35" s="113"/>
-      <c r="E35" s="111"/>
+      <c r="B35" s="130"/>
+      <c r="C35" s="121"/>
+      <c r="D35" s="132"/>
+      <c r="E35" s="130"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -36490,10 +36499,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="111"/>
-      <c r="C36" s="108"/>
-      <c r="D36" s="113"/>
-      <c r="E36" s="111"/>
+      <c r="B36" s="130"/>
+      <c r="C36" s="121"/>
+      <c r="D36" s="132"/>
+      <c r="E36" s="130"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -36558,10 +36567,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="111"/>
-      <c r="C37" s="108"/>
-      <c r="D37" s="113"/>
-      <c r="E37" s="111"/>
+      <c r="B37" s="130"/>
+      <c r="C37" s="121"/>
+      <c r="D37" s="132"/>
+      <c r="E37" s="130"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -36626,10 +36635,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="111"/>
-      <c r="C38" s="108"/>
-      <c r="D38" s="113"/>
-      <c r="E38" s="111"/>
+      <c r="B38" s="130"/>
+      <c r="C38" s="121"/>
+      <c r="D38" s="132"/>
+      <c r="E38" s="130"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -36694,10 +36703,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="111"/>
-      <c r="C39" s="108"/>
-      <c r="D39" s="113"/>
-      <c r="E39" s="111"/>
+      <c r="B39" s="130"/>
+      <c r="C39" s="121"/>
+      <c r="D39" s="132"/>
+      <c r="E39" s="130"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -36762,10 +36771,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="111"/>
-      <c r="C40" s="108"/>
-      <c r="D40" s="113"/>
-      <c r="E40" s="111"/>
+      <c r="B40" s="130"/>
+      <c r="C40" s="121"/>
+      <c r="D40" s="132"/>
+      <c r="E40" s="130"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -36830,10 +36839,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="111"/>
-      <c r="C41" s="108"/>
-      <c r="D41" s="113"/>
-      <c r="E41" s="111"/>
+      <c r="B41" s="130"/>
+      <c r="C41" s="121"/>
+      <c r="D41" s="132"/>
+      <c r="E41" s="130"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -36898,10 +36907,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="111"/>
-      <c r="C42" s="108"/>
-      <c r="D42" s="113"/>
-      <c r="E42" s="111"/>
+      <c r="B42" s="130"/>
+      <c r="C42" s="121"/>
+      <c r="D42" s="132"/>
+      <c r="E42" s="130"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -36966,10 +36975,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="111"/>
-      <c r="C43" s="108"/>
-      <c r="D43" s="113"/>
-      <c r="E43" s="111"/>
+      <c r="B43" s="130"/>
+      <c r="C43" s="121"/>
+      <c r="D43" s="132"/>
+      <c r="E43" s="130"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -37034,10 +37043,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="111"/>
-      <c r="C44" s="108"/>
-      <c r="D44" s="113"/>
-      <c r="E44" s="111"/>
+      <c r="B44" s="130"/>
+      <c r="C44" s="121"/>
+      <c r="D44" s="132"/>
+      <c r="E44" s="130"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -37102,10 +37111,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="111"/>
-      <c r="C45" s="108"/>
-      <c r="D45" s="113"/>
-      <c r="E45" s="111"/>
+      <c r="B45" s="130"/>
+      <c r="C45" s="121"/>
+      <c r="D45" s="132"/>
+      <c r="E45" s="130"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -37170,10 +37179,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="111"/>
-      <c r="C46" s="108"/>
-      <c r="D46" s="113"/>
-      <c r="E46" s="111"/>
+      <c r="B46" s="130"/>
+      <c r="C46" s="121"/>
+      <c r="D46" s="132"/>
+      <c r="E46" s="130"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -37238,10 +37247,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="111"/>
-      <c r="C47" s="108"/>
-      <c r="D47" s="113"/>
-      <c r="E47" s="111"/>
+      <c r="B47" s="130"/>
+      <c r="C47" s="121"/>
+      <c r="D47" s="132"/>
+      <c r="E47" s="130"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -37306,10 +37315,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="111"/>
-      <c r="C48" s="108"/>
-      <c r="D48" s="113"/>
-      <c r="E48" s="111"/>
+      <c r="B48" s="130"/>
+      <c r="C48" s="121"/>
+      <c r="D48" s="132"/>
+      <c r="E48" s="130"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -37374,10 +37383,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="111"/>
-      <c r="C49" s="108"/>
-      <c r="D49" s="113"/>
-      <c r="E49" s="111"/>
+      <c r="B49" s="130"/>
+      <c r="C49" s="121"/>
+      <c r="D49" s="132"/>
+      <c r="E49" s="130"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -37442,10 +37451,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="111"/>
-      <c r="C50" s="108"/>
-      <c r="D50" s="113"/>
-      <c r="E50" s="111"/>
+      <c r="B50" s="130"/>
+      <c r="C50" s="121"/>
+      <c r="D50" s="132"/>
+      <c r="E50" s="130"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -37510,10 +37519,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="111"/>
-      <c r="C51" s="108"/>
-      <c r="D51" s="113"/>
-      <c r="E51" s="111"/>
+      <c r="B51" s="130"/>
+      <c r="C51" s="121"/>
+      <c r="D51" s="132"/>
+      <c r="E51" s="130"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -37578,10 +37587,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="111"/>
-      <c r="C52" s="108"/>
-      <c r="D52" s="113"/>
-      <c r="E52" s="111"/>
+      <c r="B52" s="130"/>
+      <c r="C52" s="121"/>
+      <c r="D52" s="132"/>
+      <c r="E52" s="130"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -37646,10 +37655,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="111"/>
-      <c r="C53" s="108"/>
-      <c r="D53" s="113"/>
-      <c r="E53" s="111"/>
+      <c r="B53" s="130"/>
+      <c r="C53" s="121"/>
+      <c r="D53" s="132"/>
+      <c r="E53" s="130"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -37714,10 +37723,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="111"/>
-      <c r="C54" s="108"/>
-      <c r="D54" s="113"/>
-      <c r="E54" s="111"/>
+      <c r="B54" s="130"/>
+      <c r="C54" s="121"/>
+      <c r="D54" s="132"/>
+      <c r="E54" s="130"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -37782,10 +37791,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="111"/>
-      <c r="C55" s="108"/>
-      <c r="D55" s="113"/>
-      <c r="E55" s="111"/>
+      <c r="B55" s="130"/>
+      <c r="C55" s="121"/>
+      <c r="D55" s="132"/>
+      <c r="E55" s="130"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -37850,10 +37859,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="111"/>
-      <c r="C56" s="108"/>
-      <c r="D56" s="113"/>
-      <c r="E56" s="111"/>
+      <c r="B56" s="130"/>
+      <c r="C56" s="121"/>
+      <c r="D56" s="132"/>
+      <c r="E56" s="130"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -37918,10 +37927,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="111"/>
-      <c r="C57" s="108"/>
-      <c r="D57" s="113"/>
-      <c r="E57" s="111"/>
+      <c r="B57" s="130"/>
+      <c r="C57" s="121"/>
+      <c r="D57" s="132"/>
+      <c r="E57" s="130"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -37981,10 +37990,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="112"/>
-      <c r="C58" s="109"/>
-      <c r="D58" s="113"/>
-      <c r="E58" s="112"/>
+      <c r="B58" s="131"/>
+      <c r="C58" s="128"/>
+      <c r="D58" s="132"/>
+      <c r="E58" s="131"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -38049,7 +38058,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="101" t="s">
+      <c r="B59" s="122" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -38121,7 +38130,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="101"/>
+      <c r="B60" s="122"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -38191,7 +38200,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="102" t="s">
+      <c r="B61" s="123" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -38263,7 +38272,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="102"/>
+      <c r="B62" s="123"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -38331,7 +38340,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="102"/>
+      <c r="B63" s="123"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -38540,6 +38549,37 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="E31:E58"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="BN5:BN6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="U6:Y6"/>
+    <mergeCell ref="Z6:AD6"/>
+    <mergeCell ref="AE6:AI6"/>
+    <mergeCell ref="AJ6:AN6"/>
+    <mergeCell ref="AO6:AS6"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
@@ -38550,37 +38590,6 @@
     <mergeCell ref="AY6:BC6"/>
     <mergeCell ref="BD6:BH6"/>
     <mergeCell ref="BI6:BM6"/>
-    <mergeCell ref="BN5:BN6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="U6:Y6"/>
-    <mergeCell ref="Z6:AD6"/>
-    <mergeCell ref="AE6:AI6"/>
-    <mergeCell ref="AJ6:AN6"/>
-    <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="E31:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -38590,7 +38599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AML65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
@@ -38612,13 +38621,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="126" t="s">
+      <c r="B1" s="103" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
     </row>
     <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
@@ -38784,84 +38793,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="124" t="s">
+      <c r="B5" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="127" t="s">
+      <c r="C5" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="128" t="s">
+      <c r="D5" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="124" t="s">
+      <c r="E5" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="129" t="s">
+      <c r="F5" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="129"/>
-      <c r="H5" s="129"/>
-      <c r="I5" s="129"/>
-      <c r="J5" s="129"/>
-      <c r="K5" s="129"/>
-      <c r="L5" s="129"/>
-      <c r="M5" s="129"/>
-      <c r="N5" s="129"/>
-      <c r="O5" s="129"/>
-      <c r="P5" s="129"/>
-      <c r="Q5" s="129"/>
-      <c r="R5" s="129"/>
-      <c r="S5" s="129"/>
-      <c r="T5" s="129"/>
-      <c r="U5" s="129"/>
-      <c r="V5" s="129"/>
-      <c r="W5" s="129"/>
-      <c r="X5" s="129"/>
-      <c r="Y5" s="129"/>
-      <c r="Z5" s="129"/>
-      <c r="AA5" s="129"/>
-      <c r="AB5" s="129"/>
-      <c r="AC5" s="129"/>
-      <c r="AD5" s="129"/>
-      <c r="AE5" s="129"/>
-      <c r="AF5" s="129"/>
-      <c r="AG5" s="129"/>
-      <c r="AH5" s="129"/>
-      <c r="AI5" s="129"/>
-      <c r="AJ5" s="129"/>
-      <c r="AK5" s="129"/>
-      <c r="AL5" s="129"/>
-      <c r="AM5" s="129"/>
-      <c r="AN5" s="129"/>
-      <c r="AO5" s="129"/>
-      <c r="AP5" s="129"/>
-      <c r="AQ5" s="129"/>
-      <c r="AR5" s="129"/>
-      <c r="AS5" s="129"/>
-      <c r="AT5" s="129"/>
-      <c r="AU5" s="129"/>
-      <c r="AV5" s="129"/>
-      <c r="AW5" s="129"/>
-      <c r="AX5" s="129"/>
-      <c r="AY5" s="129"/>
-      <c r="AZ5" s="129"/>
-      <c r="BA5" s="129"/>
-      <c r="BB5" s="129"/>
-      <c r="BC5" s="129"/>
-      <c r="BD5" s="129"/>
-      <c r="BE5" s="129"/>
-      <c r="BF5" s="129"/>
-      <c r="BG5" s="129"/>
-      <c r="BH5" s="129"/>
-      <c r="BI5" s="129"/>
-      <c r="BJ5" s="129"/>
-      <c r="BK5" s="129"/>
-      <c r="BL5" s="129"/>
-      <c r="BM5" s="129"/>
-      <c r="BN5" s="123" t="s">
+      <c r="G5" s="107"/>
+      <c r="H5" s="107"/>
+      <c r="I5" s="107"/>
+      <c r="J5" s="107"/>
+      <c r="K5" s="107"/>
+      <c r="L5" s="107"/>
+      <c r="M5" s="107"/>
+      <c r="N5" s="107"/>
+      <c r="O5" s="107"/>
+      <c r="P5" s="107"/>
+      <c r="Q5" s="107"/>
+      <c r="R5" s="107"/>
+      <c r="S5" s="107"/>
+      <c r="T5" s="107"/>
+      <c r="U5" s="107"/>
+      <c r="V5" s="107"/>
+      <c r="W5" s="107"/>
+      <c r="X5" s="107"/>
+      <c r="Y5" s="107"/>
+      <c r="Z5" s="107"/>
+      <c r="AA5" s="107"/>
+      <c r="AB5" s="107"/>
+      <c r="AC5" s="107"/>
+      <c r="AD5" s="107"/>
+      <c r="AE5" s="107"/>
+      <c r="AF5" s="107"/>
+      <c r="AG5" s="107"/>
+      <c r="AH5" s="107"/>
+      <c r="AI5" s="107"/>
+      <c r="AJ5" s="107"/>
+      <c r="AK5" s="107"/>
+      <c r="AL5" s="107"/>
+      <c r="AM5" s="107"/>
+      <c r="AN5" s="107"/>
+      <c r="AO5" s="107"/>
+      <c r="AP5" s="107"/>
+      <c r="AQ5" s="107"/>
+      <c r="AR5" s="107"/>
+      <c r="AS5" s="107"/>
+      <c r="AT5" s="107"/>
+      <c r="AU5" s="107"/>
+      <c r="AV5" s="107"/>
+      <c r="AW5" s="107"/>
+      <c r="AX5" s="107"/>
+      <c r="AY5" s="107"/>
+      <c r="AZ5" s="107"/>
+      <c r="BA5" s="107"/>
+      <c r="BB5" s="107"/>
+      <c r="BC5" s="107"/>
+      <c r="BD5" s="107"/>
+      <c r="BE5" s="107"/>
+      <c r="BF5" s="107"/>
+      <c r="BG5" s="107"/>
+      <c r="BH5" s="107"/>
+      <c r="BI5" s="107"/>
+      <c r="BJ5" s="107"/>
+      <c r="BK5" s="107"/>
+      <c r="BL5" s="107"/>
+      <c r="BM5" s="107"/>
+      <c r="BN5" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="124" t="s">
+      <c r="BO5" s="104" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -38870,107 +38879,107 @@
       <c r="BU5" s="94"/>
     </row>
     <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="124"/>
-      <c r="C6" s="127"/>
-      <c r="D6" s="128"/>
-      <c r="E6" s="124"/>
-      <c r="F6" s="125" t="s">
+      <c r="B6" s="104"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="125"/>
-      <c r="H6" s="125"/>
-      <c r="I6" s="125"/>
-      <c r="J6" s="125"/>
-      <c r="K6" s="125" t="s">
+      <c r="G6" s="108"/>
+      <c r="H6" s="108"/>
+      <c r="I6" s="108"/>
+      <c r="J6" s="108"/>
+      <c r="K6" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="125"/>
-      <c r="M6" s="125"/>
-      <c r="N6" s="125"/>
-      <c r="O6" s="125"/>
-      <c r="P6" s="125" t="s">
+      <c r="L6" s="108"/>
+      <c r="M6" s="108"/>
+      <c r="N6" s="108"/>
+      <c r="O6" s="108"/>
+      <c r="P6" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="125"/>
-      <c r="R6" s="125"/>
-      <c r="S6" s="125"/>
-      <c r="T6" s="125"/>
-      <c r="U6" s="125" t="s">
+      <c r="Q6" s="108"/>
+      <c r="R6" s="108"/>
+      <c r="S6" s="108"/>
+      <c r="T6" s="108"/>
+      <c r="U6" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="125"/>
-      <c r="W6" s="125"/>
-      <c r="X6" s="125"/>
-      <c r="Y6" s="125"/>
-      <c r="Z6" s="125" t="s">
+      <c r="V6" s="108"/>
+      <c r="W6" s="108"/>
+      <c r="X6" s="108"/>
+      <c r="Y6" s="108"/>
+      <c r="Z6" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="125"/>
-      <c r="AB6" s="125"/>
-      <c r="AC6" s="125"/>
-      <c r="AD6" s="125"/>
-      <c r="AE6" s="125" t="s">
+      <c r="AA6" s="108"/>
+      <c r="AB6" s="108"/>
+      <c r="AC6" s="108"/>
+      <c r="AD6" s="108"/>
+      <c r="AE6" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="125"/>
-      <c r="AG6" s="125"/>
-      <c r="AH6" s="125"/>
-      <c r="AI6" s="125"/>
-      <c r="AJ6" s="125" t="s">
+      <c r="AF6" s="108"/>
+      <c r="AG6" s="108"/>
+      <c r="AH6" s="108"/>
+      <c r="AI6" s="108"/>
+      <c r="AJ6" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="125"/>
-      <c r="AL6" s="125"/>
-      <c r="AM6" s="125"/>
-      <c r="AN6" s="125"/>
-      <c r="AO6" s="125" t="s">
+      <c r="AK6" s="108"/>
+      <c r="AL6" s="108"/>
+      <c r="AM6" s="108"/>
+      <c r="AN6" s="108"/>
+      <c r="AO6" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="125"/>
-      <c r="AQ6" s="125"/>
-      <c r="AR6" s="125"/>
-      <c r="AS6" s="125"/>
-      <c r="AT6" s="125" t="s">
+      <c r="AP6" s="108"/>
+      <c r="AQ6" s="108"/>
+      <c r="AR6" s="108"/>
+      <c r="AS6" s="108"/>
+      <c r="AT6" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="125"/>
-      <c r="AV6" s="125"/>
-      <c r="AW6" s="125"/>
-      <c r="AX6" s="125"/>
-      <c r="AY6" s="125" t="s">
+      <c r="AU6" s="108"/>
+      <c r="AV6" s="108"/>
+      <c r="AW6" s="108"/>
+      <c r="AX6" s="108"/>
+      <c r="AY6" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="125"/>
-      <c r="BA6" s="125"/>
-      <c r="BB6" s="125"/>
-      <c r="BC6" s="125"/>
-      <c r="BD6" s="125" t="s">
+      <c r="AZ6" s="108"/>
+      <c r="BA6" s="108"/>
+      <c r="BB6" s="108"/>
+      <c r="BC6" s="108"/>
+      <c r="BD6" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="125"/>
-      <c r="BF6" s="125"/>
-      <c r="BG6" s="125"/>
-      <c r="BH6" s="125"/>
-      <c r="BI6" s="130" t="s">
+      <c r="BE6" s="108"/>
+      <c r="BF6" s="108"/>
+      <c r="BG6" s="108"/>
+      <c r="BH6" s="108"/>
+      <c r="BI6" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="130"/>
-      <c r="BK6" s="130"/>
-      <c r="BL6" s="130"/>
-      <c r="BM6" s="130"/>
-      <c r="BN6" s="123"/>
-      <c r="BO6" s="124"/>
+      <c r="BJ6" s="109"/>
+      <c r="BK6" s="109"/>
+      <c r="BL6" s="109"/>
+      <c r="BM6" s="109"/>
+      <c r="BN6" s="110"/>
+      <c r="BO6" s="104"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="118" t="s">
+      <c r="B7" s="111" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="118"/>
-      <c r="E7" s="119"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="112"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -39995,12 +40004,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="118"/>
+      <c r="B8" s="111"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="118"/>
-      <c r="E8" s="116"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="113"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -41031,13 +41040,13 @@
         <v>43</v>
       </c>
       <c r="D9" s="115"/>
-      <c r="E9" s="120"/>
+      <c r="E9" s="116"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
       <c r="H9" s="100"/>
       <c r="I9" s="82"/>
       <c r="J9" s="82"/>
-      <c r="K9" s="131"/>
+      <c r="K9" s="101"/>
       <c r="L9" s="82"/>
       <c r="M9" s="82"/>
       <c r="N9" s="17"/>
@@ -42060,7 +42069,7 @@
         <v>44</v>
       </c>
       <c r="D10" s="115"/>
-      <c r="E10" s="121"/>
+      <c r="E10" s="117"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -43089,7 +43098,7 @@
         <v>45</v>
       </c>
       <c r="D11" s="115"/>
-      <c r="E11" s="121"/>
+      <c r="E11" s="117"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -44118,7 +44127,7 @@
         <v>46</v>
       </c>
       <c r="D12" s="115"/>
-      <c r="E12" s="122"/>
+      <c r="E12" s="118"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -44190,7 +44199,7 @@
         <v>47</v>
       </c>
       <c r="D13" s="115"/>
-      <c r="E13" s="116"/>
+      <c r="E13" s="113"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -44208,7 +44217,7 @@
       <c r="T13" s="18"/>
       <c r="U13" s="19"/>
       <c r="V13" s="17"/>
-      <c r="W13" s="132"/>
+      <c r="W13" s="102"/>
       <c r="X13" s="17"/>
       <c r="Y13" s="18"/>
       <c r="Z13" s="19"/>
@@ -44260,7 +44269,7 @@
         <v>48</v>
       </c>
       <c r="D14" s="115"/>
-      <c r="E14" s="116"/>
+      <c r="E14" s="113"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -44330,7 +44339,7 @@
         <v>49</v>
       </c>
       <c r="D15" s="115"/>
-      <c r="E15" s="116"/>
+      <c r="E15" s="113"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -44400,7 +44409,7 @@
         <v>50</v>
       </c>
       <c r="D16" s="115"/>
-      <c r="E16" s="116"/>
+      <c r="E16" s="113"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -44470,7 +44479,7 @@
         <v>51</v>
       </c>
       <c r="D17" s="115"/>
-      <c r="E17" s="116"/>
+      <c r="E17" s="113"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -44540,7 +44549,7 @@
         <v>52</v>
       </c>
       <c r="D18" s="115"/>
-      <c r="E18" s="116"/>
+      <c r="E18" s="113"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -44610,7 +44619,7 @@
         <v>53</v>
       </c>
       <c r="D19" s="115"/>
-      <c r="E19" s="116"/>
+      <c r="E19" s="113"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -44675,14 +44684,14 @@
       <c r="BO19" s="27"/>
     </row>
     <row r="20" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B20" s="117" t="s">
+      <c r="B20" s="119" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="118"/>
-      <c r="E20" s="107"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="120"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -44747,12 +44756,12 @@
       <c r="BO20" s="20"/>
     </row>
     <row r="21" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B21" s="117"/>
+      <c r="B21" s="119"/>
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="118"/>
-      <c r="E21" s="108"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="121"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -44817,12 +44826,12 @@
       <c r="BO21" s="31"/>
     </row>
     <row r="22" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B22" s="117"/>
+      <c r="B22" s="119"/>
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="118"/>
-      <c r="E22" s="108"/>
+      <c r="D22" s="111"/>
+      <c r="E22" s="121"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -44887,12 +44896,12 @@
       <c r="BO22" s="31"/>
     </row>
     <row r="23" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B23" s="117"/>
+      <c r="B23" s="119"/>
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="118"/>
-      <c r="E23" s="108"/>
+      <c r="D23" s="111"/>
+      <c r="E23" s="121"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -44957,12 +44966,12 @@
       <c r="BO23" s="31"/>
     </row>
     <row r="24" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B24" s="117"/>
+      <c r="B24" s="119"/>
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="118"/>
-      <c r="E24" s="108"/>
+      <c r="D24" s="111"/>
+      <c r="E24" s="121"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -45027,14 +45036,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="103" t="s">
+      <c r="B25" s="124" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="106"/>
-      <c r="E25" s="107"/>
+      <c r="D25" s="127"/>
+      <c r="E25" s="120"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -45099,12 +45108,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="104"/>
+      <c r="B26" s="125"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="106"/>
-      <c r="E26" s="108"/>
+      <c r="D26" s="127"/>
+      <c r="E26" s="121"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -45169,12 +45178,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="104"/>
+      <c r="B27" s="125"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="106"/>
-      <c r="E27" s="108"/>
+      <c r="D27" s="127"/>
+      <c r="E27" s="121"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -45239,12 +45248,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="104"/>
+      <c r="B28" s="125"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="106"/>
-      <c r="E28" s="108"/>
+      <c r="D28" s="127"/>
+      <c r="E28" s="121"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -45309,12 +45318,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="105"/>
+      <c r="B29" s="126"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="106"/>
-      <c r="E29" s="109"/>
+      <c r="D29" s="127"/>
+      <c r="E29" s="128"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -45451,10 +45460,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="110"/>
-      <c r="C31" s="107"/>
-      <c r="D31" s="113"/>
-      <c r="E31" s="110"/>
+      <c r="B31" s="129"/>
+      <c r="C31" s="120"/>
+      <c r="D31" s="132"/>
+      <c r="E31" s="129"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -45519,10 +45528,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="111"/>
-      <c r="C32" s="108"/>
-      <c r="D32" s="113"/>
-      <c r="E32" s="111"/>
+      <c r="B32" s="130"/>
+      <c r="C32" s="121"/>
+      <c r="D32" s="132"/>
+      <c r="E32" s="130"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -45587,10 +45596,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="111"/>
-      <c r="C33" s="108"/>
-      <c r="D33" s="113"/>
-      <c r="E33" s="111"/>
+      <c r="B33" s="130"/>
+      <c r="C33" s="121"/>
+      <c r="D33" s="132"/>
+      <c r="E33" s="130"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -45655,10 +45664,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="111"/>
-      <c r="C34" s="108"/>
-      <c r="D34" s="113"/>
-      <c r="E34" s="111"/>
+      <c r="B34" s="130"/>
+      <c r="C34" s="121"/>
+      <c r="D34" s="132"/>
+      <c r="E34" s="130"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -45723,10 +45732,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="111"/>
-      <c r="C35" s="108"/>
-      <c r="D35" s="113"/>
-      <c r="E35" s="111"/>
+      <c r="B35" s="130"/>
+      <c r="C35" s="121"/>
+      <c r="D35" s="132"/>
+      <c r="E35" s="130"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -45791,10 +45800,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="111"/>
-      <c r="C36" s="108"/>
-      <c r="D36" s="113"/>
-      <c r="E36" s="111"/>
+      <c r="B36" s="130"/>
+      <c r="C36" s="121"/>
+      <c r="D36" s="132"/>
+      <c r="E36" s="130"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -45859,10 +45868,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="111"/>
-      <c r="C37" s="108"/>
-      <c r="D37" s="113"/>
-      <c r="E37" s="111"/>
+      <c r="B37" s="130"/>
+      <c r="C37" s="121"/>
+      <c r="D37" s="132"/>
+      <c r="E37" s="130"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -45927,10 +45936,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="111"/>
-      <c r="C38" s="108"/>
-      <c r="D38" s="113"/>
-      <c r="E38" s="111"/>
+      <c r="B38" s="130"/>
+      <c r="C38" s="121"/>
+      <c r="D38" s="132"/>
+      <c r="E38" s="130"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -45995,10 +46004,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="111"/>
-      <c r="C39" s="108"/>
-      <c r="D39" s="113"/>
-      <c r="E39" s="111"/>
+      <c r="B39" s="130"/>
+      <c r="C39" s="121"/>
+      <c r="D39" s="132"/>
+      <c r="E39" s="130"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -46063,10 +46072,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="111"/>
-      <c r="C40" s="108"/>
-      <c r="D40" s="113"/>
-      <c r="E40" s="111"/>
+      <c r="B40" s="130"/>
+      <c r="C40" s="121"/>
+      <c r="D40" s="132"/>
+      <c r="E40" s="130"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -46131,10 +46140,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="111"/>
-      <c r="C41" s="108"/>
-      <c r="D41" s="113"/>
-      <c r="E41" s="111"/>
+      <c r="B41" s="130"/>
+      <c r="C41" s="121"/>
+      <c r="D41" s="132"/>
+      <c r="E41" s="130"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -46199,10 +46208,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="111"/>
-      <c r="C42" s="108"/>
-      <c r="D42" s="113"/>
-      <c r="E42" s="111"/>
+      <c r="B42" s="130"/>
+      <c r="C42" s="121"/>
+      <c r="D42" s="132"/>
+      <c r="E42" s="130"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -46267,10 +46276,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="111"/>
-      <c r="C43" s="108"/>
-      <c r="D43" s="113"/>
-      <c r="E43" s="111"/>
+      <c r="B43" s="130"/>
+      <c r="C43" s="121"/>
+      <c r="D43" s="132"/>
+      <c r="E43" s="130"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -46335,10 +46344,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="111"/>
-      <c r="C44" s="108"/>
-      <c r="D44" s="113"/>
-      <c r="E44" s="111"/>
+      <c r="B44" s="130"/>
+      <c r="C44" s="121"/>
+      <c r="D44" s="132"/>
+      <c r="E44" s="130"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -46403,10 +46412,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="111"/>
-      <c r="C45" s="108"/>
-      <c r="D45" s="113"/>
-      <c r="E45" s="111"/>
+      <c r="B45" s="130"/>
+      <c r="C45" s="121"/>
+      <c r="D45" s="132"/>
+      <c r="E45" s="130"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -46471,10 +46480,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="111"/>
-      <c r="C46" s="108"/>
-      <c r="D46" s="113"/>
-      <c r="E46" s="111"/>
+      <c r="B46" s="130"/>
+      <c r="C46" s="121"/>
+      <c r="D46" s="132"/>
+      <c r="E46" s="130"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -46539,10 +46548,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="111"/>
-      <c r="C47" s="108"/>
-      <c r="D47" s="113"/>
-      <c r="E47" s="111"/>
+      <c r="B47" s="130"/>
+      <c r="C47" s="121"/>
+      <c r="D47" s="132"/>
+      <c r="E47" s="130"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -46607,10 +46616,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="111"/>
-      <c r="C48" s="108"/>
-      <c r="D48" s="113"/>
-      <c r="E48" s="111"/>
+      <c r="B48" s="130"/>
+      <c r="C48" s="121"/>
+      <c r="D48" s="132"/>
+      <c r="E48" s="130"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -46675,10 +46684,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="111"/>
-      <c r="C49" s="108"/>
-      <c r="D49" s="113"/>
-      <c r="E49" s="111"/>
+      <c r="B49" s="130"/>
+      <c r="C49" s="121"/>
+      <c r="D49" s="132"/>
+      <c r="E49" s="130"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -46743,10 +46752,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="111"/>
-      <c r="C50" s="108"/>
-      <c r="D50" s="113"/>
-      <c r="E50" s="111"/>
+      <c r="B50" s="130"/>
+      <c r="C50" s="121"/>
+      <c r="D50" s="132"/>
+      <c r="E50" s="130"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -46811,10 +46820,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="111"/>
-      <c r="C51" s="108"/>
-      <c r="D51" s="113"/>
-      <c r="E51" s="111"/>
+      <c r="B51" s="130"/>
+      <c r="C51" s="121"/>
+      <c r="D51" s="132"/>
+      <c r="E51" s="130"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -46879,10 +46888,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="111"/>
-      <c r="C52" s="108"/>
-      <c r="D52" s="113"/>
-      <c r="E52" s="111"/>
+      <c r="B52" s="130"/>
+      <c r="C52" s="121"/>
+      <c r="D52" s="132"/>
+      <c r="E52" s="130"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -46947,10 +46956,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="111"/>
-      <c r="C53" s="108"/>
-      <c r="D53" s="113"/>
-      <c r="E53" s="111"/>
+      <c r="B53" s="130"/>
+      <c r="C53" s="121"/>
+      <c r="D53" s="132"/>
+      <c r="E53" s="130"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -47015,10 +47024,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="111"/>
-      <c r="C54" s="108"/>
-      <c r="D54" s="113"/>
-      <c r="E54" s="111"/>
+      <c r="B54" s="130"/>
+      <c r="C54" s="121"/>
+      <c r="D54" s="132"/>
+      <c r="E54" s="130"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -47083,10 +47092,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="111"/>
-      <c r="C55" s="108"/>
-      <c r="D55" s="113"/>
-      <c r="E55" s="111"/>
+      <c r="B55" s="130"/>
+      <c r="C55" s="121"/>
+      <c r="D55" s="132"/>
+      <c r="E55" s="130"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -47151,10 +47160,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="111"/>
-      <c r="C56" s="108"/>
-      <c r="D56" s="113"/>
-      <c r="E56" s="111"/>
+      <c r="B56" s="130"/>
+      <c r="C56" s="121"/>
+      <c r="D56" s="132"/>
+      <c r="E56" s="130"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -47219,10 +47228,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="111"/>
-      <c r="C57" s="108"/>
-      <c r="D57" s="113"/>
-      <c r="E57" s="111"/>
+      <c r="B57" s="130"/>
+      <c r="C57" s="121"/>
+      <c r="D57" s="132"/>
+      <c r="E57" s="130"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -47282,10 +47291,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="112"/>
-      <c r="C58" s="109"/>
-      <c r="D58" s="113"/>
-      <c r="E58" s="112"/>
+      <c r="B58" s="131"/>
+      <c r="C58" s="128"/>
+      <c r="D58" s="132"/>
+      <c r="E58" s="131"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -47350,7 +47359,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="101" t="s">
+      <c r="B59" s="122" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -47422,7 +47431,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="101"/>
+      <c r="B60" s="122"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -47492,7 +47501,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="102" t="s">
+      <c r="B61" s="123" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -47564,7 +47573,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="102"/>
+      <c r="B62" s="123"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -47632,7 +47641,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="102"/>
+      <c r="B63" s="123"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -47841,6 +47850,37 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="E31:E58"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="BN5:BN6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="U6:Y6"/>
+    <mergeCell ref="Z6:AD6"/>
+    <mergeCell ref="AE6:AI6"/>
+    <mergeCell ref="AJ6:AN6"/>
+    <mergeCell ref="AO6:AS6"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
@@ -47851,37 +47891,6 @@
     <mergeCell ref="AY6:BC6"/>
     <mergeCell ref="BD6:BH6"/>
     <mergeCell ref="BI6:BM6"/>
-    <mergeCell ref="BN5:BN6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="U6:Y6"/>
-    <mergeCell ref="Z6:AD6"/>
-    <mergeCell ref="AE6:AI6"/>
-    <mergeCell ref="AJ6:AN6"/>
-    <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="E31:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -47914,13 +47923,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="126" t="s">
+      <c r="B1" s="103" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
     </row>
     <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
@@ -48086,84 +48095,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="124" t="s">
+      <c r="B5" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="127" t="s">
+      <c r="C5" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="128" t="s">
+      <c r="D5" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="124" t="s">
+      <c r="E5" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="129" t="s">
+      <c r="F5" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="129"/>
-      <c r="H5" s="129"/>
-      <c r="I5" s="129"/>
-      <c r="J5" s="129"/>
-      <c r="K5" s="129"/>
-      <c r="L5" s="129"/>
-      <c r="M5" s="129"/>
-      <c r="N5" s="129"/>
-      <c r="O5" s="129"/>
-      <c r="P5" s="129"/>
-      <c r="Q5" s="129"/>
-      <c r="R5" s="129"/>
-      <c r="S5" s="129"/>
-      <c r="T5" s="129"/>
-      <c r="U5" s="129"/>
-      <c r="V5" s="129"/>
-      <c r="W5" s="129"/>
-      <c r="X5" s="129"/>
-      <c r="Y5" s="129"/>
-      <c r="Z5" s="129"/>
-      <c r="AA5" s="129"/>
-      <c r="AB5" s="129"/>
-      <c r="AC5" s="129"/>
-      <c r="AD5" s="129"/>
-      <c r="AE5" s="129"/>
-      <c r="AF5" s="129"/>
-      <c r="AG5" s="129"/>
-      <c r="AH5" s="129"/>
-      <c r="AI5" s="129"/>
-      <c r="AJ5" s="129"/>
-      <c r="AK5" s="129"/>
-      <c r="AL5" s="129"/>
-      <c r="AM5" s="129"/>
-      <c r="AN5" s="129"/>
-      <c r="AO5" s="129"/>
-      <c r="AP5" s="129"/>
-      <c r="AQ5" s="129"/>
-      <c r="AR5" s="129"/>
-      <c r="AS5" s="129"/>
-      <c r="AT5" s="129"/>
-      <c r="AU5" s="129"/>
-      <c r="AV5" s="129"/>
-      <c r="AW5" s="129"/>
-      <c r="AX5" s="129"/>
-      <c r="AY5" s="129"/>
-      <c r="AZ5" s="129"/>
-      <c r="BA5" s="129"/>
-      <c r="BB5" s="129"/>
-      <c r="BC5" s="129"/>
-      <c r="BD5" s="129"/>
-      <c r="BE5" s="129"/>
-      <c r="BF5" s="129"/>
-      <c r="BG5" s="129"/>
-      <c r="BH5" s="129"/>
-      <c r="BI5" s="129"/>
-      <c r="BJ5" s="129"/>
-      <c r="BK5" s="129"/>
-      <c r="BL5" s="129"/>
-      <c r="BM5" s="129"/>
-      <c r="BN5" s="123" t="s">
+      <c r="G5" s="107"/>
+      <c r="H5" s="107"/>
+      <c r="I5" s="107"/>
+      <c r="J5" s="107"/>
+      <c r="K5" s="107"/>
+      <c r="L5" s="107"/>
+      <c r="M5" s="107"/>
+      <c r="N5" s="107"/>
+      <c r="O5" s="107"/>
+      <c r="P5" s="107"/>
+      <c r="Q5" s="107"/>
+      <c r="R5" s="107"/>
+      <c r="S5" s="107"/>
+      <c r="T5" s="107"/>
+      <c r="U5" s="107"/>
+      <c r="V5" s="107"/>
+      <c r="W5" s="107"/>
+      <c r="X5" s="107"/>
+      <c r="Y5" s="107"/>
+      <c r="Z5" s="107"/>
+      <c r="AA5" s="107"/>
+      <c r="AB5" s="107"/>
+      <c r="AC5" s="107"/>
+      <c r="AD5" s="107"/>
+      <c r="AE5" s="107"/>
+      <c r="AF5" s="107"/>
+      <c r="AG5" s="107"/>
+      <c r="AH5" s="107"/>
+      <c r="AI5" s="107"/>
+      <c r="AJ5" s="107"/>
+      <c r="AK5" s="107"/>
+      <c r="AL5" s="107"/>
+      <c r="AM5" s="107"/>
+      <c r="AN5" s="107"/>
+      <c r="AO5" s="107"/>
+      <c r="AP5" s="107"/>
+      <c r="AQ5" s="107"/>
+      <c r="AR5" s="107"/>
+      <c r="AS5" s="107"/>
+      <c r="AT5" s="107"/>
+      <c r="AU5" s="107"/>
+      <c r="AV5" s="107"/>
+      <c r="AW5" s="107"/>
+      <c r="AX5" s="107"/>
+      <c r="AY5" s="107"/>
+      <c r="AZ5" s="107"/>
+      <c r="BA5" s="107"/>
+      <c r="BB5" s="107"/>
+      <c r="BC5" s="107"/>
+      <c r="BD5" s="107"/>
+      <c r="BE5" s="107"/>
+      <c r="BF5" s="107"/>
+      <c r="BG5" s="107"/>
+      <c r="BH5" s="107"/>
+      <c r="BI5" s="107"/>
+      <c r="BJ5" s="107"/>
+      <c r="BK5" s="107"/>
+      <c r="BL5" s="107"/>
+      <c r="BM5" s="107"/>
+      <c r="BN5" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="124" t="s">
+      <c r="BO5" s="104" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -48172,107 +48181,107 @@
       <c r="BU5" s="94"/>
     </row>
     <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="124"/>
-      <c r="C6" s="127"/>
-      <c r="D6" s="128"/>
-      <c r="E6" s="124"/>
-      <c r="F6" s="125" t="s">
+      <c r="B6" s="104"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="125"/>
-      <c r="H6" s="125"/>
-      <c r="I6" s="125"/>
-      <c r="J6" s="125"/>
-      <c r="K6" s="125" t="s">
+      <c r="G6" s="108"/>
+      <c r="H6" s="108"/>
+      <c r="I6" s="108"/>
+      <c r="J6" s="108"/>
+      <c r="K6" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="125"/>
-      <c r="M6" s="125"/>
-      <c r="N6" s="125"/>
-      <c r="O6" s="125"/>
-      <c r="P6" s="125" t="s">
+      <c r="L6" s="108"/>
+      <c r="M6" s="108"/>
+      <c r="N6" s="108"/>
+      <c r="O6" s="108"/>
+      <c r="P6" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="125"/>
-      <c r="R6" s="125"/>
-      <c r="S6" s="125"/>
-      <c r="T6" s="125"/>
-      <c r="U6" s="125" t="s">
+      <c r="Q6" s="108"/>
+      <c r="R6" s="108"/>
+      <c r="S6" s="108"/>
+      <c r="T6" s="108"/>
+      <c r="U6" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="125"/>
-      <c r="W6" s="125"/>
-      <c r="X6" s="125"/>
-      <c r="Y6" s="125"/>
-      <c r="Z6" s="125" t="s">
+      <c r="V6" s="108"/>
+      <c r="W6" s="108"/>
+      <c r="X6" s="108"/>
+      <c r="Y6" s="108"/>
+      <c r="Z6" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="125"/>
-      <c r="AB6" s="125"/>
-      <c r="AC6" s="125"/>
-      <c r="AD6" s="125"/>
-      <c r="AE6" s="125" t="s">
+      <c r="AA6" s="108"/>
+      <c r="AB6" s="108"/>
+      <c r="AC6" s="108"/>
+      <c r="AD6" s="108"/>
+      <c r="AE6" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="125"/>
-      <c r="AG6" s="125"/>
-      <c r="AH6" s="125"/>
-      <c r="AI6" s="125"/>
-      <c r="AJ6" s="125" t="s">
+      <c r="AF6" s="108"/>
+      <c r="AG6" s="108"/>
+      <c r="AH6" s="108"/>
+      <c r="AI6" s="108"/>
+      <c r="AJ6" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="125"/>
-      <c r="AL6" s="125"/>
-      <c r="AM6" s="125"/>
-      <c r="AN6" s="125"/>
-      <c r="AO6" s="125" t="s">
+      <c r="AK6" s="108"/>
+      <c r="AL6" s="108"/>
+      <c r="AM6" s="108"/>
+      <c r="AN6" s="108"/>
+      <c r="AO6" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="125"/>
-      <c r="AQ6" s="125"/>
-      <c r="AR6" s="125"/>
-      <c r="AS6" s="125"/>
-      <c r="AT6" s="125" t="s">
+      <c r="AP6" s="108"/>
+      <c r="AQ6" s="108"/>
+      <c r="AR6" s="108"/>
+      <c r="AS6" s="108"/>
+      <c r="AT6" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="125"/>
-      <c r="AV6" s="125"/>
-      <c r="AW6" s="125"/>
-      <c r="AX6" s="125"/>
-      <c r="AY6" s="125" t="s">
+      <c r="AU6" s="108"/>
+      <c r="AV6" s="108"/>
+      <c r="AW6" s="108"/>
+      <c r="AX6" s="108"/>
+      <c r="AY6" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="125"/>
-      <c r="BA6" s="125"/>
-      <c r="BB6" s="125"/>
-      <c r="BC6" s="125"/>
-      <c r="BD6" s="125" t="s">
+      <c r="AZ6" s="108"/>
+      <c r="BA6" s="108"/>
+      <c r="BB6" s="108"/>
+      <c r="BC6" s="108"/>
+      <c r="BD6" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="125"/>
-      <c r="BF6" s="125"/>
-      <c r="BG6" s="125"/>
-      <c r="BH6" s="125"/>
-      <c r="BI6" s="130" t="s">
+      <c r="BE6" s="108"/>
+      <c r="BF6" s="108"/>
+      <c r="BG6" s="108"/>
+      <c r="BH6" s="108"/>
+      <c r="BI6" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="130"/>
-      <c r="BK6" s="130"/>
-      <c r="BL6" s="130"/>
-      <c r="BM6" s="130"/>
-      <c r="BN6" s="123"/>
-      <c r="BO6" s="124"/>
+      <c r="BJ6" s="109"/>
+      <c r="BK6" s="109"/>
+      <c r="BL6" s="109"/>
+      <c r="BM6" s="109"/>
+      <c r="BN6" s="110"/>
+      <c r="BO6" s="104"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="118" t="s">
+      <c r="B7" s="111" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="118"/>
-      <c r="E7" s="119"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="112"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -49297,12 +49306,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="118"/>
+      <c r="B8" s="111"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="118"/>
-      <c r="E8" s="116"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="113"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -50333,7 +50342,7 @@
         <v>43</v>
       </c>
       <c r="D9" s="115"/>
-      <c r="E9" s="120"/>
+      <c r="E9" s="116"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
       <c r="H9" s="83"/>
@@ -51362,7 +51371,7 @@
         <v>44</v>
       </c>
       <c r="D10" s="115"/>
-      <c r="E10" s="121"/>
+      <c r="E10" s="117"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -52391,7 +52400,7 @@
         <v>45</v>
       </c>
       <c r="D11" s="115"/>
-      <c r="E11" s="121"/>
+      <c r="E11" s="117"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -53420,7 +53429,7 @@
         <v>46</v>
       </c>
       <c r="D12" s="115"/>
-      <c r="E12" s="122"/>
+      <c r="E12" s="118"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -53492,7 +53501,7 @@
         <v>47</v>
       </c>
       <c r="D13" s="115"/>
-      <c r="E13" s="116"/>
+      <c r="E13" s="113"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -53562,7 +53571,7 @@
         <v>48</v>
       </c>
       <c r="D14" s="115"/>
-      <c r="E14" s="116"/>
+      <c r="E14" s="113"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -53632,7 +53641,7 @@
         <v>49</v>
       </c>
       <c r="D15" s="115"/>
-      <c r="E15" s="116"/>
+      <c r="E15" s="113"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -53702,7 +53711,7 @@
         <v>50</v>
       </c>
       <c r="D16" s="115"/>
-      <c r="E16" s="116"/>
+      <c r="E16" s="113"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -53772,7 +53781,7 @@
         <v>51</v>
       </c>
       <c r="D17" s="115"/>
-      <c r="E17" s="116"/>
+      <c r="E17" s="113"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -53842,7 +53851,7 @@
         <v>52</v>
       </c>
       <c r="D18" s="115"/>
-      <c r="E18" s="116"/>
+      <c r="E18" s="113"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -53912,7 +53921,7 @@
         <v>53</v>
       </c>
       <c r="D19" s="115"/>
-      <c r="E19" s="116"/>
+      <c r="E19" s="113"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -53977,14 +53986,14 @@
       <c r="BO19" s="27"/>
     </row>
     <row r="20" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B20" s="117" t="s">
+      <c r="B20" s="119" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="118"/>
-      <c r="E20" s="107"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="120"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -54049,12 +54058,12 @@
       <c r="BO20" s="20"/>
     </row>
     <row r="21" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B21" s="117"/>
+      <c r="B21" s="119"/>
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="118"/>
-      <c r="E21" s="108"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="121"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -54119,12 +54128,12 @@
       <c r="BO21" s="31"/>
     </row>
     <row r="22" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B22" s="117"/>
+      <c r="B22" s="119"/>
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="118"/>
-      <c r="E22" s="108"/>
+      <c r="D22" s="111"/>
+      <c r="E22" s="121"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -54189,12 +54198,12 @@
       <c r="BO22" s="31"/>
     </row>
     <row r="23" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B23" s="117"/>
+      <c r="B23" s="119"/>
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="118"/>
-      <c r="E23" s="108"/>
+      <c r="D23" s="111"/>
+      <c r="E23" s="121"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -54259,12 +54268,12 @@
       <c r="BO23" s="31"/>
     </row>
     <row r="24" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B24" s="117"/>
+      <c r="B24" s="119"/>
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="118"/>
-      <c r="E24" s="108"/>
+      <c r="D24" s="111"/>
+      <c r="E24" s="121"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -54329,14 +54338,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="103" t="s">
+      <c r="B25" s="124" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="106"/>
-      <c r="E25" s="107"/>
+      <c r="D25" s="127"/>
+      <c r="E25" s="120"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -54401,12 +54410,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="104"/>
+      <c r="B26" s="125"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="106"/>
-      <c r="E26" s="108"/>
+      <c r="D26" s="127"/>
+      <c r="E26" s="121"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -54471,12 +54480,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="104"/>
+      <c r="B27" s="125"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="106"/>
-      <c r="E27" s="108"/>
+      <c r="D27" s="127"/>
+      <c r="E27" s="121"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -54541,12 +54550,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="104"/>
+      <c r="B28" s="125"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="106"/>
-      <c r="E28" s="108"/>
+      <c r="D28" s="127"/>
+      <c r="E28" s="121"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -54611,12 +54620,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="105"/>
+      <c r="B29" s="126"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="106"/>
-      <c r="E29" s="109"/>
+      <c r="D29" s="127"/>
+      <c r="E29" s="128"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -54753,10 +54762,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="110"/>
-      <c r="C31" s="107"/>
-      <c r="D31" s="113"/>
-      <c r="E31" s="110"/>
+      <c r="B31" s="129"/>
+      <c r="C31" s="120"/>
+      <c r="D31" s="132"/>
+      <c r="E31" s="129"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -54821,10 +54830,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="111"/>
-      <c r="C32" s="108"/>
-      <c r="D32" s="113"/>
-      <c r="E32" s="111"/>
+      <c r="B32" s="130"/>
+      <c r="C32" s="121"/>
+      <c r="D32" s="132"/>
+      <c r="E32" s="130"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -54889,10 +54898,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="111"/>
-      <c r="C33" s="108"/>
-      <c r="D33" s="113"/>
-      <c r="E33" s="111"/>
+      <c r="B33" s="130"/>
+      <c r="C33" s="121"/>
+      <c r="D33" s="132"/>
+      <c r="E33" s="130"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -54957,10 +54966,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="111"/>
-      <c r="C34" s="108"/>
-      <c r="D34" s="113"/>
-      <c r="E34" s="111"/>
+      <c r="B34" s="130"/>
+      <c r="C34" s="121"/>
+      <c r="D34" s="132"/>
+      <c r="E34" s="130"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -55025,10 +55034,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="111"/>
-      <c r="C35" s="108"/>
-      <c r="D35" s="113"/>
-      <c r="E35" s="111"/>
+      <c r="B35" s="130"/>
+      <c r="C35" s="121"/>
+      <c r="D35" s="132"/>
+      <c r="E35" s="130"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -55093,10 +55102,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="111"/>
-      <c r="C36" s="108"/>
-      <c r="D36" s="113"/>
-      <c r="E36" s="111"/>
+      <c r="B36" s="130"/>
+      <c r="C36" s="121"/>
+      <c r="D36" s="132"/>
+      <c r="E36" s="130"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -55161,10 +55170,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="111"/>
-      <c r="C37" s="108"/>
-      <c r="D37" s="113"/>
-      <c r="E37" s="111"/>
+      <c r="B37" s="130"/>
+      <c r="C37" s="121"/>
+      <c r="D37" s="132"/>
+      <c r="E37" s="130"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -55229,10 +55238,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="111"/>
-      <c r="C38" s="108"/>
-      <c r="D38" s="113"/>
-      <c r="E38" s="111"/>
+      <c r="B38" s="130"/>
+      <c r="C38" s="121"/>
+      <c r="D38" s="132"/>
+      <c r="E38" s="130"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -55297,10 +55306,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="111"/>
-      <c r="C39" s="108"/>
-      <c r="D39" s="113"/>
-      <c r="E39" s="111"/>
+      <c r="B39" s="130"/>
+      <c r="C39" s="121"/>
+      <c r="D39" s="132"/>
+      <c r="E39" s="130"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -55365,10 +55374,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="111"/>
-      <c r="C40" s="108"/>
-      <c r="D40" s="113"/>
-      <c r="E40" s="111"/>
+      <c r="B40" s="130"/>
+      <c r="C40" s="121"/>
+      <c r="D40" s="132"/>
+      <c r="E40" s="130"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -55433,10 +55442,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="111"/>
-      <c r="C41" s="108"/>
-      <c r="D41" s="113"/>
-      <c r="E41" s="111"/>
+      <c r="B41" s="130"/>
+      <c r="C41" s="121"/>
+      <c r="D41" s="132"/>
+      <c r="E41" s="130"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -55501,10 +55510,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="111"/>
-      <c r="C42" s="108"/>
-      <c r="D42" s="113"/>
-      <c r="E42" s="111"/>
+      <c r="B42" s="130"/>
+      <c r="C42" s="121"/>
+      <c r="D42" s="132"/>
+      <c r="E42" s="130"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -55569,10 +55578,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="111"/>
-      <c r="C43" s="108"/>
-      <c r="D43" s="113"/>
-      <c r="E43" s="111"/>
+      <c r="B43" s="130"/>
+      <c r="C43" s="121"/>
+      <c r="D43" s="132"/>
+      <c r="E43" s="130"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -55637,10 +55646,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="111"/>
-      <c r="C44" s="108"/>
-      <c r="D44" s="113"/>
-      <c r="E44" s="111"/>
+      <c r="B44" s="130"/>
+      <c r="C44" s="121"/>
+      <c r="D44" s="132"/>
+      <c r="E44" s="130"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -55705,10 +55714,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="111"/>
-      <c r="C45" s="108"/>
-      <c r="D45" s="113"/>
-      <c r="E45" s="111"/>
+      <c r="B45" s="130"/>
+      <c r="C45" s="121"/>
+      <c r="D45" s="132"/>
+      <c r="E45" s="130"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -55773,10 +55782,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="111"/>
-      <c r="C46" s="108"/>
-      <c r="D46" s="113"/>
-      <c r="E46" s="111"/>
+      <c r="B46" s="130"/>
+      <c r="C46" s="121"/>
+      <c r="D46" s="132"/>
+      <c r="E46" s="130"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -55841,10 +55850,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="111"/>
-      <c r="C47" s="108"/>
-      <c r="D47" s="113"/>
-      <c r="E47" s="111"/>
+      <c r="B47" s="130"/>
+      <c r="C47" s="121"/>
+      <c r="D47" s="132"/>
+      <c r="E47" s="130"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -55909,10 +55918,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="111"/>
-      <c r="C48" s="108"/>
-      <c r="D48" s="113"/>
-      <c r="E48" s="111"/>
+      <c r="B48" s="130"/>
+      <c r="C48" s="121"/>
+      <c r="D48" s="132"/>
+      <c r="E48" s="130"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -55977,10 +55986,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="111"/>
-      <c r="C49" s="108"/>
-      <c r="D49" s="113"/>
-      <c r="E49" s="111"/>
+      <c r="B49" s="130"/>
+      <c r="C49" s="121"/>
+      <c r="D49" s="132"/>
+      <c r="E49" s="130"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -56045,10 +56054,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="111"/>
-      <c r="C50" s="108"/>
-      <c r="D50" s="113"/>
-      <c r="E50" s="111"/>
+      <c r="B50" s="130"/>
+      <c r="C50" s="121"/>
+      <c r="D50" s="132"/>
+      <c r="E50" s="130"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -56113,10 +56122,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="111"/>
-      <c r="C51" s="108"/>
-      <c r="D51" s="113"/>
-      <c r="E51" s="111"/>
+      <c r="B51" s="130"/>
+      <c r="C51" s="121"/>
+      <c r="D51" s="132"/>
+      <c r="E51" s="130"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -56181,10 +56190,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="111"/>
-      <c r="C52" s="108"/>
-      <c r="D52" s="113"/>
-      <c r="E52" s="111"/>
+      <c r="B52" s="130"/>
+      <c r="C52" s="121"/>
+      <c r="D52" s="132"/>
+      <c r="E52" s="130"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -56249,10 +56258,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="111"/>
-      <c r="C53" s="108"/>
-      <c r="D53" s="113"/>
-      <c r="E53" s="111"/>
+      <c r="B53" s="130"/>
+      <c r="C53" s="121"/>
+      <c r="D53" s="132"/>
+      <c r="E53" s="130"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -56317,10 +56326,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="111"/>
-      <c r="C54" s="108"/>
-      <c r="D54" s="113"/>
-      <c r="E54" s="111"/>
+      <c r="B54" s="130"/>
+      <c r="C54" s="121"/>
+      <c r="D54" s="132"/>
+      <c r="E54" s="130"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -56385,10 +56394,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="111"/>
-      <c r="C55" s="108"/>
-      <c r="D55" s="113"/>
-      <c r="E55" s="111"/>
+      <c r="B55" s="130"/>
+      <c r="C55" s="121"/>
+      <c r="D55" s="132"/>
+      <c r="E55" s="130"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -56453,10 +56462,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="111"/>
-      <c r="C56" s="108"/>
-      <c r="D56" s="113"/>
-      <c r="E56" s="111"/>
+      <c r="B56" s="130"/>
+      <c r="C56" s="121"/>
+      <c r="D56" s="132"/>
+      <c r="E56" s="130"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -56521,10 +56530,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="111"/>
-      <c r="C57" s="108"/>
-      <c r="D57" s="113"/>
-      <c r="E57" s="111"/>
+      <c r="B57" s="130"/>
+      <c r="C57" s="121"/>
+      <c r="D57" s="132"/>
+      <c r="E57" s="130"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -56584,10 +56593,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="112"/>
-      <c r="C58" s="109"/>
-      <c r="D58" s="113"/>
-      <c r="E58" s="112"/>
+      <c r="B58" s="131"/>
+      <c r="C58" s="128"/>
+      <c r="D58" s="132"/>
+      <c r="E58" s="131"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -56652,7 +56661,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="101" t="s">
+      <c r="B59" s="122" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -56724,7 +56733,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="101"/>
+      <c r="B60" s="122"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -56794,7 +56803,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="102" t="s">
+      <c r="B61" s="123" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -56866,7 +56875,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="102"/>
+      <c r="B62" s="123"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -56934,7 +56943,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="102"/>
+      <c r="B63" s="123"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -57143,6 +57152,37 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="E31:E58"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="BN5:BN6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="U6:Y6"/>
+    <mergeCell ref="Z6:AD6"/>
+    <mergeCell ref="AE6:AI6"/>
+    <mergeCell ref="AJ6:AN6"/>
+    <mergeCell ref="AO6:AS6"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
@@ -57153,37 +57193,6 @@
     <mergeCell ref="AY6:BC6"/>
     <mergeCell ref="BD6:BH6"/>
     <mergeCell ref="BI6:BM6"/>
-    <mergeCell ref="BN5:BN6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="U6:Y6"/>
-    <mergeCell ref="Z6:AD6"/>
-    <mergeCell ref="AE6:AI6"/>
-    <mergeCell ref="AJ6:AN6"/>
-    <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="E31:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -57215,13 +57224,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="126" t="s">
+      <c r="B1" s="103" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
     </row>
     <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
@@ -57387,84 +57396,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="124" t="s">
+      <c r="B5" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="127" t="s">
+      <c r="C5" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="128" t="s">
+      <c r="D5" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="124" t="s">
+      <c r="E5" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="129" t="s">
+      <c r="F5" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="129"/>
-      <c r="H5" s="129"/>
-      <c r="I5" s="129"/>
-      <c r="J5" s="129"/>
-      <c r="K5" s="129"/>
-      <c r="L5" s="129"/>
-      <c r="M5" s="129"/>
-      <c r="N5" s="129"/>
-      <c r="O5" s="129"/>
-      <c r="P5" s="129"/>
-      <c r="Q5" s="129"/>
-      <c r="R5" s="129"/>
-      <c r="S5" s="129"/>
-      <c r="T5" s="129"/>
-      <c r="U5" s="129"/>
-      <c r="V5" s="129"/>
-      <c r="W5" s="129"/>
-      <c r="X5" s="129"/>
-      <c r="Y5" s="129"/>
-      <c r="Z5" s="129"/>
-      <c r="AA5" s="129"/>
-      <c r="AB5" s="129"/>
-      <c r="AC5" s="129"/>
-      <c r="AD5" s="129"/>
-      <c r="AE5" s="129"/>
-      <c r="AF5" s="129"/>
-      <c r="AG5" s="129"/>
-      <c r="AH5" s="129"/>
-      <c r="AI5" s="129"/>
-      <c r="AJ5" s="129"/>
-      <c r="AK5" s="129"/>
-      <c r="AL5" s="129"/>
-      <c r="AM5" s="129"/>
-      <c r="AN5" s="129"/>
-      <c r="AO5" s="129"/>
-      <c r="AP5" s="129"/>
-      <c r="AQ5" s="129"/>
-      <c r="AR5" s="129"/>
-      <c r="AS5" s="129"/>
-      <c r="AT5" s="129"/>
-      <c r="AU5" s="129"/>
-      <c r="AV5" s="129"/>
-      <c r="AW5" s="129"/>
-      <c r="AX5" s="129"/>
-      <c r="AY5" s="129"/>
-      <c r="AZ5" s="129"/>
-      <c r="BA5" s="129"/>
-      <c r="BB5" s="129"/>
-      <c r="BC5" s="129"/>
-      <c r="BD5" s="129"/>
-      <c r="BE5" s="129"/>
-      <c r="BF5" s="129"/>
-      <c r="BG5" s="129"/>
-      <c r="BH5" s="129"/>
-      <c r="BI5" s="129"/>
-      <c r="BJ5" s="129"/>
-      <c r="BK5" s="129"/>
-      <c r="BL5" s="129"/>
-      <c r="BM5" s="129"/>
-      <c r="BN5" s="123" t="s">
+      <c r="G5" s="107"/>
+      <c r="H5" s="107"/>
+      <c r="I5" s="107"/>
+      <c r="J5" s="107"/>
+      <c r="K5" s="107"/>
+      <c r="L5" s="107"/>
+      <c r="M5" s="107"/>
+      <c r="N5" s="107"/>
+      <c r="O5" s="107"/>
+      <c r="P5" s="107"/>
+      <c r="Q5" s="107"/>
+      <c r="R5" s="107"/>
+      <c r="S5" s="107"/>
+      <c r="T5" s="107"/>
+      <c r="U5" s="107"/>
+      <c r="V5" s="107"/>
+      <c r="W5" s="107"/>
+      <c r="X5" s="107"/>
+      <c r="Y5" s="107"/>
+      <c r="Z5" s="107"/>
+      <c r="AA5" s="107"/>
+      <c r="AB5" s="107"/>
+      <c r="AC5" s="107"/>
+      <c r="AD5" s="107"/>
+      <c r="AE5" s="107"/>
+      <c r="AF5" s="107"/>
+      <c r="AG5" s="107"/>
+      <c r="AH5" s="107"/>
+      <c r="AI5" s="107"/>
+      <c r="AJ5" s="107"/>
+      <c r="AK5" s="107"/>
+      <c r="AL5" s="107"/>
+      <c r="AM5" s="107"/>
+      <c r="AN5" s="107"/>
+      <c r="AO5" s="107"/>
+      <c r="AP5" s="107"/>
+      <c r="AQ5" s="107"/>
+      <c r="AR5" s="107"/>
+      <c r="AS5" s="107"/>
+      <c r="AT5" s="107"/>
+      <c r="AU5" s="107"/>
+      <c r="AV5" s="107"/>
+      <c r="AW5" s="107"/>
+      <c r="AX5" s="107"/>
+      <c r="AY5" s="107"/>
+      <c r="AZ5" s="107"/>
+      <c r="BA5" s="107"/>
+      <c r="BB5" s="107"/>
+      <c r="BC5" s="107"/>
+      <c r="BD5" s="107"/>
+      <c r="BE5" s="107"/>
+      <c r="BF5" s="107"/>
+      <c r="BG5" s="107"/>
+      <c r="BH5" s="107"/>
+      <c r="BI5" s="107"/>
+      <c r="BJ5" s="107"/>
+      <c r="BK5" s="107"/>
+      <c r="BL5" s="107"/>
+      <c r="BM5" s="107"/>
+      <c r="BN5" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="124" t="s">
+      <c r="BO5" s="104" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -57473,107 +57482,107 @@
       <c r="BU5" s="94"/>
     </row>
     <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="124"/>
-      <c r="C6" s="127"/>
-      <c r="D6" s="128"/>
-      <c r="E6" s="124"/>
-      <c r="F6" s="125" t="s">
+      <c r="B6" s="104"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="125"/>
-      <c r="H6" s="125"/>
-      <c r="I6" s="125"/>
-      <c r="J6" s="125"/>
-      <c r="K6" s="125" t="s">
+      <c r="G6" s="108"/>
+      <c r="H6" s="108"/>
+      <c r="I6" s="108"/>
+      <c r="J6" s="108"/>
+      <c r="K6" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="125"/>
-      <c r="M6" s="125"/>
-      <c r="N6" s="125"/>
-      <c r="O6" s="125"/>
-      <c r="P6" s="125" t="s">
+      <c r="L6" s="108"/>
+      <c r="M6" s="108"/>
+      <c r="N6" s="108"/>
+      <c r="O6" s="108"/>
+      <c r="P6" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="125"/>
-      <c r="R6" s="125"/>
-      <c r="S6" s="125"/>
-      <c r="T6" s="125"/>
-      <c r="U6" s="125" t="s">
+      <c r="Q6" s="108"/>
+      <c r="R6" s="108"/>
+      <c r="S6" s="108"/>
+      <c r="T6" s="108"/>
+      <c r="U6" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="125"/>
-      <c r="W6" s="125"/>
-      <c r="X6" s="125"/>
-      <c r="Y6" s="125"/>
-      <c r="Z6" s="125" t="s">
+      <c r="V6" s="108"/>
+      <c r="W6" s="108"/>
+      <c r="X6" s="108"/>
+      <c r="Y6" s="108"/>
+      <c r="Z6" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="125"/>
-      <c r="AB6" s="125"/>
-      <c r="AC6" s="125"/>
-      <c r="AD6" s="125"/>
-      <c r="AE6" s="125" t="s">
+      <c r="AA6" s="108"/>
+      <c r="AB6" s="108"/>
+      <c r="AC6" s="108"/>
+      <c r="AD6" s="108"/>
+      <c r="AE6" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="125"/>
-      <c r="AG6" s="125"/>
-      <c r="AH6" s="125"/>
-      <c r="AI6" s="125"/>
-      <c r="AJ6" s="125" t="s">
+      <c r="AF6" s="108"/>
+      <c r="AG6" s="108"/>
+      <c r="AH6" s="108"/>
+      <c r="AI6" s="108"/>
+      <c r="AJ6" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="125"/>
-      <c r="AL6" s="125"/>
-      <c r="AM6" s="125"/>
-      <c r="AN6" s="125"/>
-      <c r="AO6" s="125" t="s">
+      <c r="AK6" s="108"/>
+      <c r="AL6" s="108"/>
+      <c r="AM6" s="108"/>
+      <c r="AN6" s="108"/>
+      <c r="AO6" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="125"/>
-      <c r="AQ6" s="125"/>
-      <c r="AR6" s="125"/>
-      <c r="AS6" s="125"/>
-      <c r="AT6" s="125" t="s">
+      <c r="AP6" s="108"/>
+      <c r="AQ6" s="108"/>
+      <c r="AR6" s="108"/>
+      <c r="AS6" s="108"/>
+      <c r="AT6" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="125"/>
-      <c r="AV6" s="125"/>
-      <c r="AW6" s="125"/>
-      <c r="AX6" s="125"/>
-      <c r="AY6" s="125" t="s">
+      <c r="AU6" s="108"/>
+      <c r="AV6" s="108"/>
+      <c r="AW6" s="108"/>
+      <c r="AX6" s="108"/>
+      <c r="AY6" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="125"/>
-      <c r="BA6" s="125"/>
-      <c r="BB6" s="125"/>
-      <c r="BC6" s="125"/>
-      <c r="BD6" s="125" t="s">
+      <c r="AZ6" s="108"/>
+      <c r="BA6" s="108"/>
+      <c r="BB6" s="108"/>
+      <c r="BC6" s="108"/>
+      <c r="BD6" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="125"/>
-      <c r="BF6" s="125"/>
-      <c r="BG6" s="125"/>
-      <c r="BH6" s="125"/>
-      <c r="BI6" s="130" t="s">
+      <c r="BE6" s="108"/>
+      <c r="BF6" s="108"/>
+      <c r="BG6" s="108"/>
+      <c r="BH6" s="108"/>
+      <c r="BI6" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="130"/>
-      <c r="BK6" s="130"/>
-      <c r="BL6" s="130"/>
-      <c r="BM6" s="130"/>
-      <c r="BN6" s="123"/>
-      <c r="BO6" s="124"/>
+      <c r="BJ6" s="109"/>
+      <c r="BK6" s="109"/>
+      <c r="BL6" s="109"/>
+      <c r="BM6" s="109"/>
+      <c r="BN6" s="110"/>
+      <c r="BO6" s="104"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="118" t="s">
+      <c r="B7" s="111" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="118"/>
-      <c r="E7" s="119"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="112"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -58598,12 +58607,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="118"/>
+      <c r="B8" s="111"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="118"/>
-      <c r="E8" s="116"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="113"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -59634,7 +59643,7 @@
         <v>43</v>
       </c>
       <c r="D9" s="115"/>
-      <c r="E9" s="120"/>
+      <c r="E9" s="116"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
       <c r="H9" s="83"/>
@@ -60663,7 +60672,7 @@
         <v>44</v>
       </c>
       <c r="D10" s="115"/>
-      <c r="E10" s="121"/>
+      <c r="E10" s="117"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -61692,7 +61701,7 @@
         <v>45</v>
       </c>
       <c r="D11" s="115"/>
-      <c r="E11" s="121"/>
+      <c r="E11" s="117"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -62721,7 +62730,7 @@
         <v>46</v>
       </c>
       <c r="D12" s="115"/>
-      <c r="E12" s="122"/>
+      <c r="E12" s="118"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -62793,7 +62802,7 @@
         <v>47</v>
       </c>
       <c r="D13" s="115"/>
-      <c r="E13" s="116"/>
+      <c r="E13" s="113"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -62863,7 +62872,7 @@
         <v>48</v>
       </c>
       <c r="D14" s="115"/>
-      <c r="E14" s="116"/>
+      <c r="E14" s="113"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -62933,7 +62942,7 @@
         <v>49</v>
       </c>
       <c r="D15" s="115"/>
-      <c r="E15" s="116"/>
+      <c r="E15" s="113"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -63003,7 +63012,7 @@
         <v>50</v>
       </c>
       <c r="D16" s="115"/>
-      <c r="E16" s="116"/>
+      <c r="E16" s="113"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -63073,7 +63082,7 @@
         <v>51</v>
       </c>
       <c r="D17" s="115"/>
-      <c r="E17" s="116"/>
+      <c r="E17" s="113"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -63143,7 +63152,7 @@
         <v>52</v>
       </c>
       <c r="D18" s="115"/>
-      <c r="E18" s="116"/>
+      <c r="E18" s="113"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -63213,7 +63222,7 @@
         <v>53</v>
       </c>
       <c r="D19" s="115"/>
-      <c r="E19" s="116"/>
+      <c r="E19" s="113"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -63278,14 +63287,14 @@
       <c r="BO19" s="27"/>
     </row>
     <row r="20" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B20" s="117" t="s">
+      <c r="B20" s="119" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="118"/>
-      <c r="E20" s="107"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="120"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -63350,12 +63359,12 @@
       <c r="BO20" s="20"/>
     </row>
     <row r="21" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B21" s="117"/>
+      <c r="B21" s="119"/>
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="118"/>
-      <c r="E21" s="108"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="121"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -63420,12 +63429,12 @@
       <c r="BO21" s="31"/>
     </row>
     <row r="22" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B22" s="117"/>
+      <c r="B22" s="119"/>
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="118"/>
-      <c r="E22" s="108"/>
+      <c r="D22" s="111"/>
+      <c r="E22" s="121"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -63490,12 +63499,12 @@
       <c r="BO22" s="31"/>
     </row>
     <row r="23" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B23" s="117"/>
+      <c r="B23" s="119"/>
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="118"/>
-      <c r="E23" s="108"/>
+      <c r="D23" s="111"/>
+      <c r="E23" s="121"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -63560,12 +63569,12 @@
       <c r="BO23" s="31"/>
     </row>
     <row r="24" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B24" s="117"/>
+      <c r="B24" s="119"/>
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="118"/>
-      <c r="E24" s="108"/>
+      <c r="D24" s="111"/>
+      <c r="E24" s="121"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -63630,14 +63639,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="103" t="s">
+      <c r="B25" s="124" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="106"/>
-      <c r="E25" s="107"/>
+      <c r="D25" s="127"/>
+      <c r="E25" s="120"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -63702,12 +63711,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="104"/>
+      <c r="B26" s="125"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="106"/>
-      <c r="E26" s="108"/>
+      <c r="D26" s="127"/>
+      <c r="E26" s="121"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -63772,12 +63781,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="104"/>
+      <c r="B27" s="125"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="106"/>
-      <c r="E27" s="108"/>
+      <c r="D27" s="127"/>
+      <c r="E27" s="121"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -63842,12 +63851,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="104"/>
+      <c r="B28" s="125"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="106"/>
-      <c r="E28" s="108"/>
+      <c r="D28" s="127"/>
+      <c r="E28" s="121"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -63912,12 +63921,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="105"/>
+      <c r="B29" s="126"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="106"/>
-      <c r="E29" s="109"/>
+      <c r="D29" s="127"/>
+      <c r="E29" s="128"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -64054,10 +64063,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="110"/>
-      <c r="C31" s="107"/>
-      <c r="D31" s="113"/>
-      <c r="E31" s="110"/>
+      <c r="B31" s="129"/>
+      <c r="C31" s="120"/>
+      <c r="D31" s="132"/>
+      <c r="E31" s="129"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -64122,10 +64131,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="111"/>
-      <c r="C32" s="108"/>
-      <c r="D32" s="113"/>
-      <c r="E32" s="111"/>
+      <c r="B32" s="130"/>
+      <c r="C32" s="121"/>
+      <c r="D32" s="132"/>
+      <c r="E32" s="130"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -64190,10 +64199,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="111"/>
-      <c r="C33" s="108"/>
-      <c r="D33" s="113"/>
-      <c r="E33" s="111"/>
+      <c r="B33" s="130"/>
+      <c r="C33" s="121"/>
+      <c r="D33" s="132"/>
+      <c r="E33" s="130"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -64258,10 +64267,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="111"/>
-      <c r="C34" s="108"/>
-      <c r="D34" s="113"/>
-      <c r="E34" s="111"/>
+      <c r="B34" s="130"/>
+      <c r="C34" s="121"/>
+      <c r="D34" s="132"/>
+      <c r="E34" s="130"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -64326,10 +64335,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="111"/>
-      <c r="C35" s="108"/>
-      <c r="D35" s="113"/>
-      <c r="E35" s="111"/>
+      <c r="B35" s="130"/>
+      <c r="C35" s="121"/>
+      <c r="D35" s="132"/>
+      <c r="E35" s="130"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -64394,10 +64403,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="111"/>
-      <c r="C36" s="108"/>
-      <c r="D36" s="113"/>
-      <c r="E36" s="111"/>
+      <c r="B36" s="130"/>
+      <c r="C36" s="121"/>
+      <c r="D36" s="132"/>
+      <c r="E36" s="130"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -64462,10 +64471,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="111"/>
-      <c r="C37" s="108"/>
-      <c r="D37" s="113"/>
-      <c r="E37" s="111"/>
+      <c r="B37" s="130"/>
+      <c r="C37" s="121"/>
+      <c r="D37" s="132"/>
+      <c r="E37" s="130"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -64530,10 +64539,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="111"/>
-      <c r="C38" s="108"/>
-      <c r="D38" s="113"/>
-      <c r="E38" s="111"/>
+      <c r="B38" s="130"/>
+      <c r="C38" s="121"/>
+      <c r="D38" s="132"/>
+      <c r="E38" s="130"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -64598,10 +64607,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="111"/>
-      <c r="C39" s="108"/>
-      <c r="D39" s="113"/>
-      <c r="E39" s="111"/>
+      <c r="B39" s="130"/>
+      <c r="C39" s="121"/>
+      <c r="D39" s="132"/>
+      <c r="E39" s="130"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -64666,10 +64675,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="111"/>
-      <c r="C40" s="108"/>
-      <c r="D40" s="113"/>
-      <c r="E40" s="111"/>
+      <c r="B40" s="130"/>
+      <c r="C40" s="121"/>
+      <c r="D40" s="132"/>
+      <c r="E40" s="130"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -64734,10 +64743,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="111"/>
-      <c r="C41" s="108"/>
-      <c r="D41" s="113"/>
-      <c r="E41" s="111"/>
+      <c r="B41" s="130"/>
+      <c r="C41" s="121"/>
+      <c r="D41" s="132"/>
+      <c r="E41" s="130"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -64802,10 +64811,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="111"/>
-      <c r="C42" s="108"/>
-      <c r="D42" s="113"/>
-      <c r="E42" s="111"/>
+      <c r="B42" s="130"/>
+      <c r="C42" s="121"/>
+      <c r="D42" s="132"/>
+      <c r="E42" s="130"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -64870,10 +64879,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="111"/>
-      <c r="C43" s="108"/>
-      <c r="D43" s="113"/>
-      <c r="E43" s="111"/>
+      <c r="B43" s="130"/>
+      <c r="C43" s="121"/>
+      <c r="D43" s="132"/>
+      <c r="E43" s="130"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -64938,10 +64947,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="111"/>
-      <c r="C44" s="108"/>
-      <c r="D44" s="113"/>
-      <c r="E44" s="111"/>
+      <c r="B44" s="130"/>
+      <c r="C44" s="121"/>
+      <c r="D44" s="132"/>
+      <c r="E44" s="130"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -65006,10 +65015,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="111"/>
-      <c r="C45" s="108"/>
-      <c r="D45" s="113"/>
-      <c r="E45" s="111"/>
+      <c r="B45" s="130"/>
+      <c r="C45" s="121"/>
+      <c r="D45" s="132"/>
+      <c r="E45" s="130"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -65074,10 +65083,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="111"/>
-      <c r="C46" s="108"/>
-      <c r="D46" s="113"/>
-      <c r="E46" s="111"/>
+      <c r="B46" s="130"/>
+      <c r="C46" s="121"/>
+      <c r="D46" s="132"/>
+      <c r="E46" s="130"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -65142,10 +65151,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="111"/>
-      <c r="C47" s="108"/>
-      <c r="D47" s="113"/>
-      <c r="E47" s="111"/>
+      <c r="B47" s="130"/>
+      <c r="C47" s="121"/>
+      <c r="D47" s="132"/>
+      <c r="E47" s="130"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -65210,10 +65219,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="111"/>
-      <c r="C48" s="108"/>
-      <c r="D48" s="113"/>
-      <c r="E48" s="111"/>
+      <c r="B48" s="130"/>
+      <c r="C48" s="121"/>
+      <c r="D48" s="132"/>
+      <c r="E48" s="130"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -65278,10 +65287,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="111"/>
-      <c r="C49" s="108"/>
-      <c r="D49" s="113"/>
-      <c r="E49" s="111"/>
+      <c r="B49" s="130"/>
+      <c r="C49" s="121"/>
+      <c r="D49" s="132"/>
+      <c r="E49" s="130"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -65346,10 +65355,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="111"/>
-      <c r="C50" s="108"/>
-      <c r="D50" s="113"/>
-      <c r="E50" s="111"/>
+      <c r="B50" s="130"/>
+      <c r="C50" s="121"/>
+      <c r="D50" s="132"/>
+      <c r="E50" s="130"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -65414,10 +65423,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="111"/>
-      <c r="C51" s="108"/>
-      <c r="D51" s="113"/>
-      <c r="E51" s="111"/>
+      <c r="B51" s="130"/>
+      <c r="C51" s="121"/>
+      <c r="D51" s="132"/>
+      <c r="E51" s="130"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -65482,10 +65491,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="111"/>
-      <c r="C52" s="108"/>
-      <c r="D52" s="113"/>
-      <c r="E52" s="111"/>
+      <c r="B52" s="130"/>
+      <c r="C52" s="121"/>
+      <c r="D52" s="132"/>
+      <c r="E52" s="130"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -65550,10 +65559,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="111"/>
-      <c r="C53" s="108"/>
-      <c r="D53" s="113"/>
-      <c r="E53" s="111"/>
+      <c r="B53" s="130"/>
+      <c r="C53" s="121"/>
+      <c r="D53" s="132"/>
+      <c r="E53" s="130"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -65618,10 +65627,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="111"/>
-      <c r="C54" s="108"/>
-      <c r="D54" s="113"/>
-      <c r="E54" s="111"/>
+      <c r="B54" s="130"/>
+      <c r="C54" s="121"/>
+      <c r="D54" s="132"/>
+      <c r="E54" s="130"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -65686,10 +65695,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="111"/>
-      <c r="C55" s="108"/>
-      <c r="D55" s="113"/>
-      <c r="E55" s="111"/>
+      <c r="B55" s="130"/>
+      <c r="C55" s="121"/>
+      <c r="D55" s="132"/>
+      <c r="E55" s="130"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -65754,10 +65763,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="111"/>
-      <c r="C56" s="108"/>
-      <c r="D56" s="113"/>
-      <c r="E56" s="111"/>
+      <c r="B56" s="130"/>
+      <c r="C56" s="121"/>
+      <c r="D56" s="132"/>
+      <c r="E56" s="130"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -65822,10 +65831,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="111"/>
-      <c r="C57" s="108"/>
-      <c r="D57" s="113"/>
-      <c r="E57" s="111"/>
+      <c r="B57" s="130"/>
+      <c r="C57" s="121"/>
+      <c r="D57" s="132"/>
+      <c r="E57" s="130"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -65885,10 +65894,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="112"/>
-      <c r="C58" s="109"/>
-      <c r="D58" s="113"/>
-      <c r="E58" s="112"/>
+      <c r="B58" s="131"/>
+      <c r="C58" s="128"/>
+      <c r="D58" s="132"/>
+      <c r="E58" s="131"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -65953,7 +65962,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="101" t="s">
+      <c r="B59" s="122" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -66025,7 +66034,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="101"/>
+      <c r="B60" s="122"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -66095,7 +66104,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="102" t="s">
+      <c r="B61" s="123" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -66167,7 +66176,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="102"/>
+      <c r="B62" s="123"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -66235,7 +66244,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="102"/>
+      <c r="B63" s="123"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -66444,22 +66453,21 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:BM5"/>
-    <mergeCell ref="AT6:AX6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="U6:Y6"/>
-    <mergeCell ref="Z6:AD6"/>
-    <mergeCell ref="AE6:AI6"/>
-    <mergeCell ref="AJ6:AN6"/>
-    <mergeCell ref="AO6:AS6"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="E31:E58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="B13:B19"/>
     <mergeCell ref="B9:B12"/>
     <mergeCell ref="D9:D12"/>
     <mergeCell ref="D7:D8"/>
@@ -66470,21 +66478,22 @@
     <mergeCell ref="BI6:BM6"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="E7:E8"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="E31:E58"/>
-    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="U6:Y6"/>
+    <mergeCell ref="Z6:AD6"/>
+    <mergeCell ref="AE6:AI6"/>
+    <mergeCell ref="AJ6:AN6"/>
+    <mergeCell ref="AO6:AS6"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:BM5"/>
+    <mergeCell ref="AT6:AX6"/>
+    <mergeCell ref="D5:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/QC_QNU_Training_Progress.xlsx
+++ b/QC_QNU_Training_Progress.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\QC_Training_2019_01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TMA-Training\QC_Training\QC_Training_2019_01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="690"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="690" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Truong Thi Thu Huong" sheetId="4" r:id="rId1"/>
@@ -244,7 +244,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -252,7 +252,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -364,7 +364,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -439,6 +439,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -836,7 +842,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1016,63 +1022,9 @@
     <xf numFmtId="0" fontId="6" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1091,6 +1043,12 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1106,9 +1064,60 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
@@ -1395,35 +1404,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AML65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="1" max="1" width="9.125" style="4"/>
     <col min="2" max="2" width="28" style="3" customWidth="1"/>
-    <col min="3" max="3" width="65.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="65.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="2" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" style="2" customWidth="1"/>
-    <col min="6" max="65" width="2.28515625" style="3" customWidth="1"/>
-    <col min="66" max="69" width="9.140625" style="3"/>
+    <col min="5" max="5" width="29.125" style="2" customWidth="1"/>
+    <col min="6" max="65" width="2.25" style="3" customWidth="1"/>
+    <col min="66" max="69" width="9.125" style="3"/>
     <col min="70" max="70" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="14.85546875" style="3" customWidth="1"/>
+    <col min="71" max="71" width="14.875" style="3" customWidth="1"/>
     <col min="72" max="72" width="13" style="3" customWidth="1"/>
-    <col min="73" max="73" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="74" max="1026" width="9.140625" style="3"/>
-    <col min="1027" max="16384" width="9.140625" style="4"/>
+    <col min="73" max="73" width="13.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="74" max="1026" width="9.125" style="3"/>
+    <col min="1027" max="16384" width="9.125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="103" t="s">
+      <c r="B1" s="131" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
     </row>
     <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
@@ -1589,84 +1598,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="104" t="s">
+      <c r="B5" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="105" t="s">
+      <c r="C5" s="132" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="106" t="s">
+      <c r="D5" s="133" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="104" t="s">
+      <c r="E5" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="107" t="s">
+      <c r="F5" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
-      <c r="J5" s="107"/>
-      <c r="K5" s="107"/>
-      <c r="L5" s="107"/>
-      <c r="M5" s="107"/>
-      <c r="N5" s="107"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="107"/>
-      <c r="T5" s="107"/>
-      <c r="U5" s="107"/>
-      <c r="V5" s="107"/>
-      <c r="W5" s="107"/>
-      <c r="X5" s="107"/>
-      <c r="Y5" s="107"/>
-      <c r="Z5" s="107"/>
-      <c r="AA5" s="107"/>
-      <c r="AB5" s="107"/>
-      <c r="AC5" s="107"/>
-      <c r="AD5" s="107"/>
-      <c r="AE5" s="107"/>
-      <c r="AF5" s="107"/>
-      <c r="AG5" s="107"/>
-      <c r="AH5" s="107"/>
-      <c r="AI5" s="107"/>
-      <c r="AJ5" s="107"/>
-      <c r="AK5" s="107"/>
-      <c r="AL5" s="107"/>
-      <c r="AM5" s="107"/>
-      <c r="AN5" s="107"/>
-      <c r="AO5" s="107"/>
-      <c r="AP5" s="107"/>
-      <c r="AQ5" s="107"/>
-      <c r="AR5" s="107"/>
-      <c r="AS5" s="107"/>
-      <c r="AT5" s="107"/>
-      <c r="AU5" s="107"/>
-      <c r="AV5" s="107"/>
-      <c r="AW5" s="107"/>
-      <c r="AX5" s="107"/>
-      <c r="AY5" s="107"/>
-      <c r="AZ5" s="107"/>
-      <c r="BA5" s="107"/>
-      <c r="BB5" s="107"/>
-      <c r="BC5" s="107"/>
-      <c r="BD5" s="107"/>
-      <c r="BE5" s="107"/>
-      <c r="BF5" s="107"/>
-      <c r="BG5" s="107"/>
-      <c r="BH5" s="107"/>
-      <c r="BI5" s="107"/>
-      <c r="BJ5" s="107"/>
-      <c r="BK5" s="107"/>
-      <c r="BL5" s="107"/>
-      <c r="BM5" s="107"/>
-      <c r="BN5" s="110" t="s">
+      <c r="G5" s="134"/>
+      <c r="H5" s="134"/>
+      <c r="I5" s="134"/>
+      <c r="J5" s="134"/>
+      <c r="K5" s="134"/>
+      <c r="L5" s="134"/>
+      <c r="M5" s="134"/>
+      <c r="N5" s="134"/>
+      <c r="O5" s="134"/>
+      <c r="P5" s="134"/>
+      <c r="Q5" s="134"/>
+      <c r="R5" s="134"/>
+      <c r="S5" s="134"/>
+      <c r="T5" s="134"/>
+      <c r="U5" s="134"/>
+      <c r="V5" s="134"/>
+      <c r="W5" s="134"/>
+      <c r="X5" s="134"/>
+      <c r="Y5" s="134"/>
+      <c r="Z5" s="134"/>
+      <c r="AA5" s="134"/>
+      <c r="AB5" s="134"/>
+      <c r="AC5" s="134"/>
+      <c r="AD5" s="134"/>
+      <c r="AE5" s="134"/>
+      <c r="AF5" s="134"/>
+      <c r="AG5" s="134"/>
+      <c r="AH5" s="134"/>
+      <c r="AI5" s="134"/>
+      <c r="AJ5" s="134"/>
+      <c r="AK5" s="134"/>
+      <c r="AL5" s="134"/>
+      <c r="AM5" s="134"/>
+      <c r="AN5" s="134"/>
+      <c r="AO5" s="134"/>
+      <c r="AP5" s="134"/>
+      <c r="AQ5" s="134"/>
+      <c r="AR5" s="134"/>
+      <c r="AS5" s="134"/>
+      <c r="AT5" s="134"/>
+      <c r="AU5" s="134"/>
+      <c r="AV5" s="134"/>
+      <c r="AW5" s="134"/>
+      <c r="AX5" s="134"/>
+      <c r="AY5" s="134"/>
+      <c r="AZ5" s="134"/>
+      <c r="BA5" s="134"/>
+      <c r="BB5" s="134"/>
+      <c r="BC5" s="134"/>
+      <c r="BD5" s="134"/>
+      <c r="BE5" s="134"/>
+      <c r="BF5" s="134"/>
+      <c r="BG5" s="134"/>
+      <c r="BH5" s="134"/>
+      <c r="BI5" s="134"/>
+      <c r="BJ5" s="134"/>
+      <c r="BK5" s="134"/>
+      <c r="BL5" s="134"/>
+      <c r="BM5" s="134"/>
+      <c r="BN5" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="104" t="s">
+      <c r="BO5" s="129" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -1675,107 +1684,107 @@
       <c r="BU5" s="94"/>
     </row>
     <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="104"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="104"/>
-      <c r="F6" s="108" t="s">
+      <c r="B6" s="129"/>
+      <c r="C6" s="132"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="108"/>
-      <c r="H6" s="108"/>
-      <c r="I6" s="108"/>
-      <c r="J6" s="108"/>
-      <c r="K6" s="108" t="s">
+      <c r="G6" s="130"/>
+      <c r="H6" s="130"/>
+      <c r="I6" s="130"/>
+      <c r="J6" s="130"/>
+      <c r="K6" s="130" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="108"/>
-      <c r="M6" s="108"/>
-      <c r="N6" s="108"/>
-      <c r="O6" s="108"/>
-      <c r="P6" s="108" t="s">
+      <c r="L6" s="130"/>
+      <c r="M6" s="130"/>
+      <c r="N6" s="130"/>
+      <c r="O6" s="130"/>
+      <c r="P6" s="130" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="108"/>
-      <c r="R6" s="108"/>
-      <c r="S6" s="108"/>
-      <c r="T6" s="108"/>
-      <c r="U6" s="108" t="s">
+      <c r="Q6" s="130"/>
+      <c r="R6" s="130"/>
+      <c r="S6" s="130"/>
+      <c r="T6" s="130"/>
+      <c r="U6" s="130" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="108"/>
-      <c r="W6" s="108"/>
-      <c r="X6" s="108"/>
-      <c r="Y6" s="108"/>
-      <c r="Z6" s="108" t="s">
+      <c r="V6" s="130"/>
+      <c r="W6" s="130"/>
+      <c r="X6" s="130"/>
+      <c r="Y6" s="130"/>
+      <c r="Z6" s="130" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="108"/>
-      <c r="AB6" s="108"/>
-      <c r="AC6" s="108"/>
-      <c r="AD6" s="108"/>
-      <c r="AE6" s="108" t="s">
+      <c r="AA6" s="130"/>
+      <c r="AB6" s="130"/>
+      <c r="AC6" s="130"/>
+      <c r="AD6" s="130"/>
+      <c r="AE6" s="130" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="108"/>
-      <c r="AG6" s="108"/>
-      <c r="AH6" s="108"/>
-      <c r="AI6" s="108"/>
-      <c r="AJ6" s="108" t="s">
+      <c r="AF6" s="130"/>
+      <c r="AG6" s="130"/>
+      <c r="AH6" s="130"/>
+      <c r="AI6" s="130"/>
+      <c r="AJ6" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="108"/>
-      <c r="AL6" s="108"/>
-      <c r="AM6" s="108"/>
-      <c r="AN6" s="108"/>
-      <c r="AO6" s="108" t="s">
+      <c r="AK6" s="130"/>
+      <c r="AL6" s="130"/>
+      <c r="AM6" s="130"/>
+      <c r="AN6" s="130"/>
+      <c r="AO6" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="108"/>
-      <c r="AQ6" s="108"/>
-      <c r="AR6" s="108"/>
-      <c r="AS6" s="108"/>
-      <c r="AT6" s="108" t="s">
+      <c r="AP6" s="130"/>
+      <c r="AQ6" s="130"/>
+      <c r="AR6" s="130"/>
+      <c r="AS6" s="130"/>
+      <c r="AT6" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="108"/>
-      <c r="AV6" s="108"/>
-      <c r="AW6" s="108"/>
-      <c r="AX6" s="108"/>
-      <c r="AY6" s="108" t="s">
+      <c r="AU6" s="130"/>
+      <c r="AV6" s="130"/>
+      <c r="AW6" s="130"/>
+      <c r="AX6" s="130"/>
+      <c r="AY6" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="108"/>
-      <c r="BA6" s="108"/>
-      <c r="BB6" s="108"/>
-      <c r="BC6" s="108"/>
-      <c r="BD6" s="108" t="s">
+      <c r="AZ6" s="130"/>
+      <c r="BA6" s="130"/>
+      <c r="BB6" s="130"/>
+      <c r="BC6" s="130"/>
+      <c r="BD6" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="108"/>
-      <c r="BF6" s="108"/>
-      <c r="BG6" s="108"/>
-      <c r="BH6" s="108"/>
-      <c r="BI6" s="109" t="s">
+      <c r="BE6" s="130"/>
+      <c r="BF6" s="130"/>
+      <c r="BG6" s="130"/>
+      <c r="BH6" s="130"/>
+      <c r="BI6" s="135" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="109"/>
-      <c r="BK6" s="109"/>
-      <c r="BL6" s="109"/>
-      <c r="BM6" s="109"/>
-      <c r="BN6" s="110"/>
-      <c r="BO6" s="104"/>
+      <c r="BJ6" s="135"/>
+      <c r="BK6" s="135"/>
+      <c r="BL6" s="135"/>
+      <c r="BM6" s="135"/>
+      <c r="BN6" s="128"/>
+      <c r="BO6" s="129"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="123" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="111"/>
-      <c r="E7" s="112"/>
+      <c r="D7" s="123"/>
+      <c r="E7" s="124"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -2800,12 +2809,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="111"/>
+      <c r="B8" s="123"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="111"/>
-      <c r="E8" s="113"/>
+      <c r="D8" s="123"/>
+      <c r="E8" s="121"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -3829,17 +3838,17 @@
       <c r="AML8" s="23"/>
     </row>
     <row r="9" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="114" t="s">
+      <c r="B9" s="119" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="115"/>
-      <c r="E9" s="116"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="125"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
-      <c r="H9" s="133"/>
+      <c r="H9" s="103"/>
       <c r="I9" s="82"/>
       <c r="J9" s="82"/>
       <c r="K9" s="19"/>
@@ -4860,12 +4869,12 @@
       <c r="AML9" s="21"/>
     </row>
     <row r="10" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B10" s="114"/>
+      <c r="B10" s="119"/>
       <c r="C10" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="115"/>
-      <c r="E10" s="117"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="126"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -4873,7 +4882,7 @@
       <c r="J10" s="78"/>
       <c r="K10" s="29"/>
       <c r="L10" s="21"/>
-      <c r="M10" s="134"/>
+      <c r="M10" s="104"/>
       <c r="N10" s="21"/>
       <c r="O10" s="30"/>
       <c r="P10" s="29"/>
@@ -5889,12 +5898,12 @@
       <c r="AML10" s="21"/>
     </row>
     <row r="11" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="114"/>
+      <c r="B11" s="119"/>
       <c r="C11" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="115"/>
-      <c r="E11" s="117"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="126"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -6918,12 +6927,12 @@
       <c r="AML11" s="21"/>
     </row>
     <row r="12" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="114"/>
+      <c r="B12" s="119"/>
       <c r="C12" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="115"/>
-      <c r="E12" s="118"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="127"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -6936,7 +6945,7 @@
       <c r="O12" s="30"/>
       <c r="P12" s="29"/>
       <c r="Q12" s="21"/>
-      <c r="R12" s="134"/>
+      <c r="R12" s="104"/>
       <c r="S12" s="21"/>
       <c r="T12" s="30"/>
       <c r="U12" s="29"/>
@@ -6988,14 +6997,14 @@
       <c r="BO12" s="31"/>
     </row>
     <row r="13" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B13" s="114" t="s">
+      <c r="B13" s="119" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="115"/>
-      <c r="E13" s="113"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="121"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -7013,7 +7022,7 @@
       <c r="T13" s="18"/>
       <c r="U13" s="19"/>
       <c r="V13" s="17"/>
-      <c r="W13" s="135"/>
+      <c r="W13" s="105"/>
       <c r="X13" s="17"/>
       <c r="Y13" s="18"/>
       <c r="Z13" s="19"/>
@@ -7060,12 +7069,12 @@
       <c r="BO13" s="20"/>
     </row>
     <row r="14" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B14" s="114"/>
+      <c r="B14" s="119"/>
       <c r="C14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="115"/>
-      <c r="E14" s="113"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="121"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -7130,12 +7139,12 @@
       <c r="BO14" s="31"/>
     </row>
     <row r="15" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="114"/>
+      <c r="B15" s="119"/>
       <c r="C15" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="115"/>
-      <c r="E15" s="113"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="121"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -7200,12 +7209,12 @@
       <c r="BO15" s="31"/>
     </row>
     <row r="16" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B16" s="114"/>
+      <c r="B16" s="119"/>
       <c r="C16" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="115"/>
-      <c r="E16" s="113"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="121"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -7270,12 +7279,12 @@
       <c r="BO16" s="31"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B17" s="114"/>
+      <c r="B17" s="119"/>
       <c r="C17" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="115"/>
-      <c r="E17" s="113"/>
+      <c r="D17" s="120"/>
+      <c r="E17" s="121"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -7340,12 +7349,12 @@
       <c r="BO17" s="31"/>
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B18" s="114"/>
+      <c r="B18" s="119"/>
       <c r="C18" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="115"/>
-      <c r="E18" s="113"/>
+      <c r="D18" s="120"/>
+      <c r="E18" s="121"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -7410,12 +7419,12 @@
       <c r="BO18" s="31"/>
     </row>
     <row r="19" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B19" s="114"/>
+      <c r="B19" s="119"/>
       <c r="C19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="115"/>
-      <c r="E19" s="113"/>
+      <c r="D19" s="120"/>
+      <c r="E19" s="121"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -7480,14 +7489,14 @@
       <c r="BO19" s="27"/>
     </row>
     <row r="20" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B20" s="119" t="s">
+      <c r="B20" s="122" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="111"/>
-      <c r="E20" s="120"/>
+      <c r="D20" s="123"/>
+      <c r="E20" s="112"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -7552,12 +7561,12 @@
       <c r="BO20" s="20"/>
     </row>
     <row r="21" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B21" s="119"/>
+      <c r="B21" s="122"/>
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="111"/>
-      <c r="E21" s="121"/>
+      <c r="D21" s="123"/>
+      <c r="E21" s="113"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -7622,12 +7631,12 @@
       <c r="BO21" s="31"/>
     </row>
     <row r="22" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B22" s="119"/>
+      <c r="B22" s="122"/>
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="111"/>
-      <c r="E22" s="121"/>
+      <c r="D22" s="123"/>
+      <c r="E22" s="113"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -7692,12 +7701,12 @@
       <c r="BO22" s="31"/>
     </row>
     <row r="23" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B23" s="119"/>
+      <c r="B23" s="122"/>
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="111"/>
-      <c r="E23" s="121"/>
+      <c r="D23" s="123"/>
+      <c r="E23" s="113"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -7762,12 +7771,12 @@
       <c r="BO23" s="31"/>
     </row>
     <row r="24" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B24" s="119"/>
+      <c r="B24" s="122"/>
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="111"/>
-      <c r="E24" s="121"/>
+      <c r="D24" s="123"/>
+      <c r="E24" s="113"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -7832,14 +7841,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="124" t="s">
+      <c r="B25" s="108" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="127"/>
-      <c r="E25" s="120"/>
+      <c r="D25" s="111"/>
+      <c r="E25" s="112"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -7904,12 +7913,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="125"/>
+      <c r="B26" s="109"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="127"/>
-      <c r="E26" s="121"/>
+      <c r="D26" s="111"/>
+      <c r="E26" s="113"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -7974,12 +7983,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="125"/>
+      <c r="B27" s="109"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="127"/>
-      <c r="E27" s="121"/>
+      <c r="D27" s="111"/>
+      <c r="E27" s="113"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -8044,12 +8053,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="125"/>
+      <c r="B28" s="109"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="127"/>
-      <c r="E28" s="121"/>
+      <c r="D28" s="111"/>
+      <c r="E28" s="113"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -8114,12 +8123,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="126"/>
+      <c r="B29" s="110"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="127"/>
-      <c r="E29" s="128"/>
+      <c r="D29" s="111"/>
+      <c r="E29" s="114"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -8256,10 +8265,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="129"/>
-      <c r="C31" s="120"/>
-      <c r="D31" s="132"/>
-      <c r="E31" s="129"/>
+      <c r="B31" s="115"/>
+      <c r="C31" s="112"/>
+      <c r="D31" s="118"/>
+      <c r="E31" s="115"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -8324,10 +8333,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="130"/>
-      <c r="C32" s="121"/>
-      <c r="D32" s="132"/>
-      <c r="E32" s="130"/>
+      <c r="B32" s="116"/>
+      <c r="C32" s="113"/>
+      <c r="D32" s="118"/>
+      <c r="E32" s="116"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -8392,10 +8401,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="130"/>
-      <c r="C33" s="121"/>
-      <c r="D33" s="132"/>
-      <c r="E33" s="130"/>
+      <c r="B33" s="116"/>
+      <c r="C33" s="113"/>
+      <c r="D33" s="118"/>
+      <c r="E33" s="116"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -8460,10 +8469,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="130"/>
-      <c r="C34" s="121"/>
-      <c r="D34" s="132"/>
-      <c r="E34" s="130"/>
+      <c r="B34" s="116"/>
+      <c r="C34" s="113"/>
+      <c r="D34" s="118"/>
+      <c r="E34" s="116"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -8528,10 +8537,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="130"/>
-      <c r="C35" s="121"/>
-      <c r="D35" s="132"/>
-      <c r="E35" s="130"/>
+      <c r="B35" s="116"/>
+      <c r="C35" s="113"/>
+      <c r="D35" s="118"/>
+      <c r="E35" s="116"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -8596,10 +8605,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="130"/>
-      <c r="C36" s="121"/>
-      <c r="D36" s="132"/>
-      <c r="E36" s="130"/>
+      <c r="B36" s="116"/>
+      <c r="C36" s="113"/>
+      <c r="D36" s="118"/>
+      <c r="E36" s="116"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -8664,10 +8673,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="130"/>
-      <c r="C37" s="121"/>
-      <c r="D37" s="132"/>
-      <c r="E37" s="130"/>
+      <c r="B37" s="116"/>
+      <c r="C37" s="113"/>
+      <c r="D37" s="118"/>
+      <c r="E37" s="116"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -8732,10 +8741,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="130"/>
-      <c r="C38" s="121"/>
-      <c r="D38" s="132"/>
-      <c r="E38" s="130"/>
+      <c r="B38" s="116"/>
+      <c r="C38" s="113"/>
+      <c r="D38" s="118"/>
+      <c r="E38" s="116"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -8800,10 +8809,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="130"/>
-      <c r="C39" s="121"/>
-      <c r="D39" s="132"/>
-      <c r="E39" s="130"/>
+      <c r="B39" s="116"/>
+      <c r="C39" s="113"/>
+      <c r="D39" s="118"/>
+      <c r="E39" s="116"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -8868,10 +8877,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="130"/>
-      <c r="C40" s="121"/>
-      <c r="D40" s="132"/>
-      <c r="E40" s="130"/>
+      <c r="B40" s="116"/>
+      <c r="C40" s="113"/>
+      <c r="D40" s="118"/>
+      <c r="E40" s="116"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -8936,10 +8945,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="130"/>
-      <c r="C41" s="121"/>
-      <c r="D41" s="132"/>
-      <c r="E41" s="130"/>
+      <c r="B41" s="116"/>
+      <c r="C41" s="113"/>
+      <c r="D41" s="118"/>
+      <c r="E41" s="116"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -9004,10 +9013,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="130"/>
-      <c r="C42" s="121"/>
-      <c r="D42" s="132"/>
-      <c r="E42" s="130"/>
+      <c r="B42" s="116"/>
+      <c r="C42" s="113"/>
+      <c r="D42" s="118"/>
+      <c r="E42" s="116"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -9072,10 +9081,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="130"/>
-      <c r="C43" s="121"/>
-      <c r="D43" s="132"/>
-      <c r="E43" s="130"/>
+      <c r="B43" s="116"/>
+      <c r="C43" s="113"/>
+      <c r="D43" s="118"/>
+      <c r="E43" s="116"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -9140,10 +9149,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="130"/>
-      <c r="C44" s="121"/>
-      <c r="D44" s="132"/>
-      <c r="E44" s="130"/>
+      <c r="B44" s="116"/>
+      <c r="C44" s="113"/>
+      <c r="D44" s="118"/>
+      <c r="E44" s="116"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -9208,10 +9217,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="130"/>
-      <c r="C45" s="121"/>
-      <c r="D45" s="132"/>
-      <c r="E45" s="130"/>
+      <c r="B45" s="116"/>
+      <c r="C45" s="113"/>
+      <c r="D45" s="118"/>
+      <c r="E45" s="116"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -9276,10 +9285,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="130"/>
-      <c r="C46" s="121"/>
-      <c r="D46" s="132"/>
-      <c r="E46" s="130"/>
+      <c r="B46" s="116"/>
+      <c r="C46" s="113"/>
+      <c r="D46" s="118"/>
+      <c r="E46" s="116"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -9344,10 +9353,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="130"/>
-      <c r="C47" s="121"/>
-      <c r="D47" s="132"/>
-      <c r="E47" s="130"/>
+      <c r="B47" s="116"/>
+      <c r="C47" s="113"/>
+      <c r="D47" s="118"/>
+      <c r="E47" s="116"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -9412,10 +9421,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="130"/>
-      <c r="C48" s="121"/>
-      <c r="D48" s="132"/>
-      <c r="E48" s="130"/>
+      <c r="B48" s="116"/>
+      <c r="C48" s="113"/>
+      <c r="D48" s="118"/>
+      <c r="E48" s="116"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -9480,10 +9489,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="130"/>
-      <c r="C49" s="121"/>
-      <c r="D49" s="132"/>
-      <c r="E49" s="130"/>
+      <c r="B49" s="116"/>
+      <c r="C49" s="113"/>
+      <c r="D49" s="118"/>
+      <c r="E49" s="116"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -9548,10 +9557,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="130"/>
-      <c r="C50" s="121"/>
-      <c r="D50" s="132"/>
-      <c r="E50" s="130"/>
+      <c r="B50" s="116"/>
+      <c r="C50" s="113"/>
+      <c r="D50" s="118"/>
+      <c r="E50" s="116"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -9616,10 +9625,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="130"/>
-      <c r="C51" s="121"/>
-      <c r="D51" s="132"/>
-      <c r="E51" s="130"/>
+      <c r="B51" s="116"/>
+      <c r="C51" s="113"/>
+      <c r="D51" s="118"/>
+      <c r="E51" s="116"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -9684,10 +9693,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="130"/>
-      <c r="C52" s="121"/>
-      <c r="D52" s="132"/>
-      <c r="E52" s="130"/>
+      <c r="B52" s="116"/>
+      <c r="C52" s="113"/>
+      <c r="D52" s="118"/>
+      <c r="E52" s="116"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -9752,10 +9761,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="130"/>
-      <c r="C53" s="121"/>
-      <c r="D53" s="132"/>
-      <c r="E53" s="130"/>
+      <c r="B53" s="116"/>
+      <c r="C53" s="113"/>
+      <c r="D53" s="118"/>
+      <c r="E53" s="116"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -9820,10 +9829,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="130"/>
-      <c r="C54" s="121"/>
-      <c r="D54" s="132"/>
-      <c r="E54" s="130"/>
+      <c r="B54" s="116"/>
+      <c r="C54" s="113"/>
+      <c r="D54" s="118"/>
+      <c r="E54" s="116"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -9888,10 +9897,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="130"/>
-      <c r="C55" s="121"/>
-      <c r="D55" s="132"/>
-      <c r="E55" s="130"/>
+      <c r="B55" s="116"/>
+      <c r="C55" s="113"/>
+      <c r="D55" s="118"/>
+      <c r="E55" s="116"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -9956,10 +9965,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="130"/>
-      <c r="C56" s="121"/>
-      <c r="D56" s="132"/>
-      <c r="E56" s="130"/>
+      <c r="B56" s="116"/>
+      <c r="C56" s="113"/>
+      <c r="D56" s="118"/>
+      <c r="E56" s="116"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -10024,10 +10033,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="130"/>
-      <c r="C57" s="121"/>
-      <c r="D57" s="132"/>
-      <c r="E57" s="130"/>
+      <c r="B57" s="116"/>
+      <c r="C57" s="113"/>
+      <c r="D57" s="118"/>
+      <c r="E57" s="116"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -10087,10 +10096,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="131"/>
-      <c r="C58" s="128"/>
-      <c r="D58" s="132"/>
-      <c r="E58" s="131"/>
+      <c r="B58" s="117"/>
+      <c r="C58" s="114"/>
+      <c r="D58" s="118"/>
+      <c r="E58" s="117"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -10155,7 +10164,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="122" t="s">
+      <c r="B59" s="106" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -10227,7 +10236,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="122"/>
+      <c r="B60" s="106"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -10297,7 +10306,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="123" t="s">
+      <c r="B61" s="107" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -10369,7 +10378,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="123"/>
+      <c r="B62" s="107"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -10437,7 +10446,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="123"/>
+      <c r="B63" s="107"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -10646,27 +10655,16 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="E31:E58"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:BM5"/>
+    <mergeCell ref="AT6:AX6"/>
+    <mergeCell ref="AY6:BC6"/>
+    <mergeCell ref="BD6:BH6"/>
+    <mergeCell ref="BI6:BM6"/>
     <mergeCell ref="BN5:BN6"/>
     <mergeCell ref="BO5:BO6"/>
     <mergeCell ref="F6:J6"/>
@@ -10677,16 +10675,27 @@
     <mergeCell ref="AE6:AI6"/>
     <mergeCell ref="AJ6:AN6"/>
     <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:BM5"/>
-    <mergeCell ref="AT6:AX6"/>
-    <mergeCell ref="AY6:BC6"/>
-    <mergeCell ref="BD6:BH6"/>
-    <mergeCell ref="BI6:BM6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="E31:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10700,31 +10709,31 @@
       <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="1" max="1" width="9.125" style="4"/>
     <col min="2" max="2" width="28" style="3" customWidth="1"/>
-    <col min="3" max="3" width="65.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="65.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="2" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" style="2" customWidth="1"/>
-    <col min="6" max="65" width="2.28515625" style="3" customWidth="1"/>
-    <col min="66" max="69" width="9.140625" style="3"/>
+    <col min="5" max="5" width="29.125" style="2" customWidth="1"/>
+    <col min="6" max="65" width="2.25" style="3" customWidth="1"/>
+    <col min="66" max="69" width="9.125" style="3"/>
     <col min="70" max="70" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="14.85546875" style="3" customWidth="1"/>
+    <col min="71" max="71" width="14.875" style="3" customWidth="1"/>
     <col min="72" max="72" width="13" style="3" customWidth="1"/>
-    <col min="73" max="73" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="74" max="1026" width="9.140625" style="3"/>
-    <col min="1027" max="16384" width="9.140625" style="4"/>
+    <col min="73" max="73" width="13.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="74" max="1026" width="9.125" style="3"/>
+    <col min="1027" max="16384" width="9.125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="103" t="s">
+      <c r="B1" s="131" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
     </row>
     <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
@@ -10890,84 +10899,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="104" t="s">
+      <c r="B5" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="105" t="s">
+      <c r="C5" s="132" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="106" t="s">
+      <c r="D5" s="133" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="104" t="s">
+      <c r="E5" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="107" t="s">
+      <c r="F5" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
-      <c r="J5" s="107"/>
-      <c r="K5" s="107"/>
-      <c r="L5" s="107"/>
-      <c r="M5" s="107"/>
-      <c r="N5" s="107"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="107"/>
-      <c r="T5" s="107"/>
-      <c r="U5" s="107"/>
-      <c r="V5" s="107"/>
-      <c r="W5" s="107"/>
-      <c r="X5" s="107"/>
-      <c r="Y5" s="107"/>
-      <c r="Z5" s="107"/>
-      <c r="AA5" s="107"/>
-      <c r="AB5" s="107"/>
-      <c r="AC5" s="107"/>
-      <c r="AD5" s="107"/>
-      <c r="AE5" s="107"/>
-      <c r="AF5" s="107"/>
-      <c r="AG5" s="107"/>
-      <c r="AH5" s="107"/>
-      <c r="AI5" s="107"/>
-      <c r="AJ5" s="107"/>
-      <c r="AK5" s="107"/>
-      <c r="AL5" s="107"/>
-      <c r="AM5" s="107"/>
-      <c r="AN5" s="107"/>
-      <c r="AO5" s="107"/>
-      <c r="AP5" s="107"/>
-      <c r="AQ5" s="107"/>
-      <c r="AR5" s="107"/>
-      <c r="AS5" s="107"/>
-      <c r="AT5" s="107"/>
-      <c r="AU5" s="107"/>
-      <c r="AV5" s="107"/>
-      <c r="AW5" s="107"/>
-      <c r="AX5" s="107"/>
-      <c r="AY5" s="107"/>
-      <c r="AZ5" s="107"/>
-      <c r="BA5" s="107"/>
-      <c r="BB5" s="107"/>
-      <c r="BC5" s="107"/>
-      <c r="BD5" s="107"/>
-      <c r="BE5" s="107"/>
-      <c r="BF5" s="107"/>
-      <c r="BG5" s="107"/>
-      <c r="BH5" s="107"/>
-      <c r="BI5" s="107"/>
-      <c r="BJ5" s="107"/>
-      <c r="BK5" s="107"/>
-      <c r="BL5" s="107"/>
-      <c r="BM5" s="107"/>
-      <c r="BN5" s="110" t="s">
+      <c r="G5" s="134"/>
+      <c r="H5" s="134"/>
+      <c r="I5" s="134"/>
+      <c r="J5" s="134"/>
+      <c r="K5" s="134"/>
+      <c r="L5" s="134"/>
+      <c r="M5" s="134"/>
+      <c r="N5" s="134"/>
+      <c r="O5" s="134"/>
+      <c r="P5" s="134"/>
+      <c r="Q5" s="134"/>
+      <c r="R5" s="134"/>
+      <c r="S5" s="134"/>
+      <c r="T5" s="134"/>
+      <c r="U5" s="134"/>
+      <c r="V5" s="134"/>
+      <c r="W5" s="134"/>
+      <c r="X5" s="134"/>
+      <c r="Y5" s="134"/>
+      <c r="Z5" s="134"/>
+      <c r="AA5" s="134"/>
+      <c r="AB5" s="134"/>
+      <c r="AC5" s="134"/>
+      <c r="AD5" s="134"/>
+      <c r="AE5" s="134"/>
+      <c r="AF5" s="134"/>
+      <c r="AG5" s="134"/>
+      <c r="AH5" s="134"/>
+      <c r="AI5" s="134"/>
+      <c r="AJ5" s="134"/>
+      <c r="AK5" s="134"/>
+      <c r="AL5" s="134"/>
+      <c r="AM5" s="134"/>
+      <c r="AN5" s="134"/>
+      <c r="AO5" s="134"/>
+      <c r="AP5" s="134"/>
+      <c r="AQ5" s="134"/>
+      <c r="AR5" s="134"/>
+      <c r="AS5" s="134"/>
+      <c r="AT5" s="134"/>
+      <c r="AU5" s="134"/>
+      <c r="AV5" s="134"/>
+      <c r="AW5" s="134"/>
+      <c r="AX5" s="134"/>
+      <c r="AY5" s="134"/>
+      <c r="AZ5" s="134"/>
+      <c r="BA5" s="134"/>
+      <c r="BB5" s="134"/>
+      <c r="BC5" s="134"/>
+      <c r="BD5" s="134"/>
+      <c r="BE5" s="134"/>
+      <c r="BF5" s="134"/>
+      <c r="BG5" s="134"/>
+      <c r="BH5" s="134"/>
+      <c r="BI5" s="134"/>
+      <c r="BJ5" s="134"/>
+      <c r="BK5" s="134"/>
+      <c r="BL5" s="134"/>
+      <c r="BM5" s="134"/>
+      <c r="BN5" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="104" t="s">
+      <c r="BO5" s="129" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -10976,107 +10985,107 @@
       <c r="BU5" s="94"/>
     </row>
     <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="104"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="104"/>
-      <c r="F6" s="108" t="s">
+      <c r="B6" s="129"/>
+      <c r="C6" s="132"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="108"/>
-      <c r="H6" s="108"/>
-      <c r="I6" s="108"/>
-      <c r="J6" s="108"/>
-      <c r="K6" s="108" t="s">
+      <c r="G6" s="130"/>
+      <c r="H6" s="130"/>
+      <c r="I6" s="130"/>
+      <c r="J6" s="130"/>
+      <c r="K6" s="130" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="108"/>
-      <c r="M6" s="108"/>
-      <c r="N6" s="108"/>
-      <c r="O6" s="108"/>
-      <c r="P6" s="108" t="s">
+      <c r="L6" s="130"/>
+      <c r="M6" s="130"/>
+      <c r="N6" s="130"/>
+      <c r="O6" s="130"/>
+      <c r="P6" s="130" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="108"/>
-      <c r="R6" s="108"/>
-      <c r="S6" s="108"/>
-      <c r="T6" s="108"/>
-      <c r="U6" s="108" t="s">
+      <c r="Q6" s="130"/>
+      <c r="R6" s="130"/>
+      <c r="S6" s="130"/>
+      <c r="T6" s="130"/>
+      <c r="U6" s="130" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="108"/>
-      <c r="W6" s="108"/>
-      <c r="X6" s="108"/>
-      <c r="Y6" s="108"/>
-      <c r="Z6" s="108" t="s">
+      <c r="V6" s="130"/>
+      <c r="W6" s="130"/>
+      <c r="X6" s="130"/>
+      <c r="Y6" s="130"/>
+      <c r="Z6" s="130" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="108"/>
-      <c r="AB6" s="108"/>
-      <c r="AC6" s="108"/>
-      <c r="AD6" s="108"/>
-      <c r="AE6" s="108" t="s">
+      <c r="AA6" s="130"/>
+      <c r="AB6" s="130"/>
+      <c r="AC6" s="130"/>
+      <c r="AD6" s="130"/>
+      <c r="AE6" s="130" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="108"/>
-      <c r="AG6" s="108"/>
-      <c r="AH6" s="108"/>
-      <c r="AI6" s="108"/>
-      <c r="AJ6" s="108" t="s">
+      <c r="AF6" s="130"/>
+      <c r="AG6" s="130"/>
+      <c r="AH6" s="130"/>
+      <c r="AI6" s="130"/>
+      <c r="AJ6" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="108"/>
-      <c r="AL6" s="108"/>
-      <c r="AM6" s="108"/>
-      <c r="AN6" s="108"/>
-      <c r="AO6" s="108" t="s">
+      <c r="AK6" s="130"/>
+      <c r="AL6" s="130"/>
+      <c r="AM6" s="130"/>
+      <c r="AN6" s="130"/>
+      <c r="AO6" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="108"/>
-      <c r="AQ6" s="108"/>
-      <c r="AR6" s="108"/>
-      <c r="AS6" s="108"/>
-      <c r="AT6" s="108" t="s">
+      <c r="AP6" s="130"/>
+      <c r="AQ6" s="130"/>
+      <c r="AR6" s="130"/>
+      <c r="AS6" s="130"/>
+      <c r="AT6" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="108"/>
-      <c r="AV6" s="108"/>
-      <c r="AW6" s="108"/>
-      <c r="AX6" s="108"/>
-      <c r="AY6" s="108" t="s">
+      <c r="AU6" s="130"/>
+      <c r="AV6" s="130"/>
+      <c r="AW6" s="130"/>
+      <c r="AX6" s="130"/>
+      <c r="AY6" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="108"/>
-      <c r="BA6" s="108"/>
-      <c r="BB6" s="108"/>
-      <c r="BC6" s="108"/>
-      <c r="BD6" s="108" t="s">
+      <c r="AZ6" s="130"/>
+      <c r="BA6" s="130"/>
+      <c r="BB6" s="130"/>
+      <c r="BC6" s="130"/>
+      <c r="BD6" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="108"/>
-      <c r="BF6" s="108"/>
-      <c r="BG6" s="108"/>
-      <c r="BH6" s="108"/>
-      <c r="BI6" s="109" t="s">
+      <c r="BE6" s="130"/>
+      <c r="BF6" s="130"/>
+      <c r="BG6" s="130"/>
+      <c r="BH6" s="130"/>
+      <c r="BI6" s="135" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="109"/>
-      <c r="BK6" s="109"/>
-      <c r="BL6" s="109"/>
-      <c r="BM6" s="109"/>
-      <c r="BN6" s="110"/>
-      <c r="BO6" s="104"/>
+      <c r="BJ6" s="135"/>
+      <c r="BK6" s="135"/>
+      <c r="BL6" s="135"/>
+      <c r="BM6" s="135"/>
+      <c r="BN6" s="128"/>
+      <c r="BO6" s="129"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="123" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="111"/>
-      <c r="E7" s="112"/>
+      <c r="D7" s="123"/>
+      <c r="E7" s="124"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -12101,12 +12110,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="111"/>
+      <c r="B8" s="123"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="111"/>
-      <c r="E8" s="113"/>
+      <c r="D8" s="123"/>
+      <c r="E8" s="121"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -13130,14 +13139,14 @@
       <c r="AML8" s="23"/>
     </row>
     <row r="9" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="114" t="s">
+      <c r="B9" s="119" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="115"/>
-      <c r="E9" s="116"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="125"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
       <c r="H9" s="83"/>
@@ -14161,12 +14170,12 @@
       <c r="AML9" s="21"/>
     </row>
     <row r="10" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B10" s="114"/>
+      <c r="B10" s="119"/>
       <c r="C10" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="115"/>
-      <c r="E10" s="117"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="126"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -15190,12 +15199,12 @@
       <c r="AML10" s="21"/>
     </row>
     <row r="11" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="114"/>
+      <c r="B11" s="119"/>
       <c r="C11" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="115"/>
-      <c r="E11" s="117"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="126"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -16219,12 +16228,12 @@
       <c r="AML11" s="21"/>
     </row>
     <row r="12" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="114"/>
+      <c r="B12" s="119"/>
       <c r="C12" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="115"/>
-      <c r="E12" s="118"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="127"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -16289,14 +16298,14 @@
       <c r="BO12" s="31"/>
     </row>
     <row r="13" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B13" s="114" t="s">
+      <c r="B13" s="119" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="115"/>
-      <c r="E13" s="113"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="121"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -16361,12 +16370,12 @@
       <c r="BO13" s="20"/>
     </row>
     <row r="14" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B14" s="114"/>
+      <c r="B14" s="119"/>
       <c r="C14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="115"/>
-      <c r="E14" s="113"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="121"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -16431,12 +16440,12 @@
       <c r="BO14" s="31"/>
     </row>
     <row r="15" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="114"/>
+      <c r="B15" s="119"/>
       <c r="C15" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="115"/>
-      <c r="E15" s="113"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="121"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -16501,12 +16510,12 @@
       <c r="BO15" s="31"/>
     </row>
     <row r="16" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B16" s="114"/>
+      <c r="B16" s="119"/>
       <c r="C16" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="115"/>
-      <c r="E16" s="113"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="121"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -16571,12 +16580,12 @@
       <c r="BO16" s="31"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B17" s="114"/>
+      <c r="B17" s="119"/>
       <c r="C17" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="115"/>
-      <c r="E17" s="113"/>
+      <c r="D17" s="120"/>
+      <c r="E17" s="121"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -16641,12 +16650,12 @@
       <c r="BO17" s="31"/>
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B18" s="114"/>
+      <c r="B18" s="119"/>
       <c r="C18" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="115"/>
-      <c r="E18" s="113"/>
+      <c r="D18" s="120"/>
+      <c r="E18" s="121"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -16711,12 +16720,12 @@
       <c r="BO18" s="31"/>
     </row>
     <row r="19" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B19" s="114"/>
+      <c r="B19" s="119"/>
       <c r="C19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="115"/>
-      <c r="E19" s="113"/>
+      <c r="D19" s="120"/>
+      <c r="E19" s="121"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -16781,14 +16790,14 @@
       <c r="BO19" s="27"/>
     </row>
     <row r="20" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B20" s="119" t="s">
+      <c r="B20" s="122" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="111"/>
-      <c r="E20" s="120"/>
+      <c r="D20" s="123"/>
+      <c r="E20" s="112"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -16853,12 +16862,12 @@
       <c r="BO20" s="20"/>
     </row>
     <row r="21" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B21" s="119"/>
+      <c r="B21" s="122"/>
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="111"/>
-      <c r="E21" s="121"/>
+      <c r="D21" s="123"/>
+      <c r="E21" s="113"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -16923,12 +16932,12 @@
       <c r="BO21" s="31"/>
     </row>
     <row r="22" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B22" s="119"/>
+      <c r="B22" s="122"/>
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="111"/>
-      <c r="E22" s="121"/>
+      <c r="D22" s="123"/>
+      <c r="E22" s="113"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -16993,12 +17002,12 @@
       <c r="BO22" s="31"/>
     </row>
     <row r="23" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B23" s="119"/>
+      <c r="B23" s="122"/>
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="111"/>
-      <c r="E23" s="121"/>
+      <c r="D23" s="123"/>
+      <c r="E23" s="113"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -17063,12 +17072,12 @@
       <c r="BO23" s="31"/>
     </row>
     <row r="24" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B24" s="119"/>
+      <c r="B24" s="122"/>
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="111"/>
-      <c r="E24" s="121"/>
+      <c r="D24" s="123"/>
+      <c r="E24" s="113"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -17133,14 +17142,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="124" t="s">
+      <c r="B25" s="108" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="127"/>
-      <c r="E25" s="120"/>
+      <c r="D25" s="111"/>
+      <c r="E25" s="112"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -17205,12 +17214,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="125"/>
+      <c r="B26" s="109"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="127"/>
-      <c r="E26" s="121"/>
+      <c r="D26" s="111"/>
+      <c r="E26" s="113"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -17275,12 +17284,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="125"/>
+      <c r="B27" s="109"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="127"/>
-      <c r="E27" s="121"/>
+      <c r="D27" s="111"/>
+      <c r="E27" s="113"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -17345,12 +17354,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="125"/>
+      <c r="B28" s="109"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="127"/>
-      <c r="E28" s="121"/>
+      <c r="D28" s="111"/>
+      <c r="E28" s="113"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -17415,12 +17424,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="126"/>
+      <c r="B29" s="110"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="127"/>
-      <c r="E29" s="128"/>
+      <c r="D29" s="111"/>
+      <c r="E29" s="114"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -17557,10 +17566,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="129"/>
-      <c r="C31" s="120"/>
-      <c r="D31" s="132"/>
-      <c r="E31" s="129"/>
+      <c r="B31" s="115"/>
+      <c r="C31" s="112"/>
+      <c r="D31" s="118"/>
+      <c r="E31" s="115"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -17625,10 +17634,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="130"/>
-      <c r="C32" s="121"/>
-      <c r="D32" s="132"/>
-      <c r="E32" s="130"/>
+      <c r="B32" s="116"/>
+      <c r="C32" s="113"/>
+      <c r="D32" s="118"/>
+      <c r="E32" s="116"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -17693,10 +17702,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="130"/>
-      <c r="C33" s="121"/>
-      <c r="D33" s="132"/>
-      <c r="E33" s="130"/>
+      <c r="B33" s="116"/>
+      <c r="C33" s="113"/>
+      <c r="D33" s="118"/>
+      <c r="E33" s="116"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -17761,10 +17770,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="130"/>
-      <c r="C34" s="121"/>
-      <c r="D34" s="132"/>
-      <c r="E34" s="130"/>
+      <c r="B34" s="116"/>
+      <c r="C34" s="113"/>
+      <c r="D34" s="118"/>
+      <c r="E34" s="116"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -17829,10 +17838,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="130"/>
-      <c r="C35" s="121"/>
-      <c r="D35" s="132"/>
-      <c r="E35" s="130"/>
+      <c r="B35" s="116"/>
+      <c r="C35" s="113"/>
+      <c r="D35" s="118"/>
+      <c r="E35" s="116"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -17897,10 +17906,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="130"/>
-      <c r="C36" s="121"/>
-      <c r="D36" s="132"/>
-      <c r="E36" s="130"/>
+      <c r="B36" s="116"/>
+      <c r="C36" s="113"/>
+      <c r="D36" s="118"/>
+      <c r="E36" s="116"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -17965,10 +17974,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="130"/>
-      <c r="C37" s="121"/>
-      <c r="D37" s="132"/>
-      <c r="E37" s="130"/>
+      <c r="B37" s="116"/>
+      <c r="C37" s="113"/>
+      <c r="D37" s="118"/>
+      <c r="E37" s="116"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -18033,10 +18042,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="130"/>
-      <c r="C38" s="121"/>
-      <c r="D38" s="132"/>
-      <c r="E38" s="130"/>
+      <c r="B38" s="116"/>
+      <c r="C38" s="113"/>
+      <c r="D38" s="118"/>
+      <c r="E38" s="116"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -18101,10 +18110,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="130"/>
-      <c r="C39" s="121"/>
-      <c r="D39" s="132"/>
-      <c r="E39" s="130"/>
+      <c r="B39" s="116"/>
+      <c r="C39" s="113"/>
+      <c r="D39" s="118"/>
+      <c r="E39" s="116"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -18169,10 +18178,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="130"/>
-      <c r="C40" s="121"/>
-      <c r="D40" s="132"/>
-      <c r="E40" s="130"/>
+      <c r="B40" s="116"/>
+      <c r="C40" s="113"/>
+      <c r="D40" s="118"/>
+      <c r="E40" s="116"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -18237,10 +18246,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="130"/>
-      <c r="C41" s="121"/>
-      <c r="D41" s="132"/>
-      <c r="E41" s="130"/>
+      <c r="B41" s="116"/>
+      <c r="C41" s="113"/>
+      <c r="D41" s="118"/>
+      <c r="E41" s="116"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -18305,10 +18314,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="130"/>
-      <c r="C42" s="121"/>
-      <c r="D42" s="132"/>
-      <c r="E42" s="130"/>
+      <c r="B42" s="116"/>
+      <c r="C42" s="113"/>
+      <c r="D42" s="118"/>
+      <c r="E42" s="116"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -18373,10 +18382,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="130"/>
-      <c r="C43" s="121"/>
-      <c r="D43" s="132"/>
-      <c r="E43" s="130"/>
+      <c r="B43" s="116"/>
+      <c r="C43" s="113"/>
+      <c r="D43" s="118"/>
+      <c r="E43" s="116"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -18441,10 +18450,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="130"/>
-      <c r="C44" s="121"/>
-      <c r="D44" s="132"/>
-      <c r="E44" s="130"/>
+      <c r="B44" s="116"/>
+      <c r="C44" s="113"/>
+      <c r="D44" s="118"/>
+      <c r="E44" s="116"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -18509,10 +18518,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="130"/>
-      <c r="C45" s="121"/>
-      <c r="D45" s="132"/>
-      <c r="E45" s="130"/>
+      <c r="B45" s="116"/>
+      <c r="C45" s="113"/>
+      <c r="D45" s="118"/>
+      <c r="E45" s="116"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -18577,10 +18586,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="130"/>
-      <c r="C46" s="121"/>
-      <c r="D46" s="132"/>
-      <c r="E46" s="130"/>
+      <c r="B46" s="116"/>
+      <c r="C46" s="113"/>
+      <c r="D46" s="118"/>
+      <c r="E46" s="116"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -18645,10 +18654,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="130"/>
-      <c r="C47" s="121"/>
-      <c r="D47" s="132"/>
-      <c r="E47" s="130"/>
+      <c r="B47" s="116"/>
+      <c r="C47" s="113"/>
+      <c r="D47" s="118"/>
+      <c r="E47" s="116"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -18713,10 +18722,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="130"/>
-      <c r="C48" s="121"/>
-      <c r="D48" s="132"/>
-      <c r="E48" s="130"/>
+      <c r="B48" s="116"/>
+      <c r="C48" s="113"/>
+      <c r="D48" s="118"/>
+      <c r="E48" s="116"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -18781,10 +18790,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="130"/>
-      <c r="C49" s="121"/>
-      <c r="D49" s="132"/>
-      <c r="E49" s="130"/>
+      <c r="B49" s="116"/>
+      <c r="C49" s="113"/>
+      <c r="D49" s="118"/>
+      <c r="E49" s="116"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -18849,10 +18858,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="130"/>
-      <c r="C50" s="121"/>
-      <c r="D50" s="132"/>
-      <c r="E50" s="130"/>
+      <c r="B50" s="116"/>
+      <c r="C50" s="113"/>
+      <c r="D50" s="118"/>
+      <c r="E50" s="116"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -18917,10 +18926,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="130"/>
-      <c r="C51" s="121"/>
-      <c r="D51" s="132"/>
-      <c r="E51" s="130"/>
+      <c r="B51" s="116"/>
+      <c r="C51" s="113"/>
+      <c r="D51" s="118"/>
+      <c r="E51" s="116"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -18985,10 +18994,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="130"/>
-      <c r="C52" s="121"/>
-      <c r="D52" s="132"/>
-      <c r="E52" s="130"/>
+      <c r="B52" s="116"/>
+      <c r="C52" s="113"/>
+      <c r="D52" s="118"/>
+      <c r="E52" s="116"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -19053,10 +19062,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="130"/>
-      <c r="C53" s="121"/>
-      <c r="D53" s="132"/>
-      <c r="E53" s="130"/>
+      <c r="B53" s="116"/>
+      <c r="C53" s="113"/>
+      <c r="D53" s="118"/>
+      <c r="E53" s="116"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -19121,10 +19130,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="130"/>
-      <c r="C54" s="121"/>
-      <c r="D54" s="132"/>
-      <c r="E54" s="130"/>
+      <c r="B54" s="116"/>
+      <c r="C54" s="113"/>
+      <c r="D54" s="118"/>
+      <c r="E54" s="116"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -19189,10 +19198,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="130"/>
-      <c r="C55" s="121"/>
-      <c r="D55" s="132"/>
-      <c r="E55" s="130"/>
+      <c r="B55" s="116"/>
+      <c r="C55" s="113"/>
+      <c r="D55" s="118"/>
+      <c r="E55" s="116"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -19257,10 +19266,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="130"/>
-      <c r="C56" s="121"/>
-      <c r="D56" s="132"/>
-      <c r="E56" s="130"/>
+      <c r="B56" s="116"/>
+      <c r="C56" s="113"/>
+      <c r="D56" s="118"/>
+      <c r="E56" s="116"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -19325,10 +19334,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="130"/>
-      <c r="C57" s="121"/>
-      <c r="D57" s="132"/>
-      <c r="E57" s="130"/>
+      <c r="B57" s="116"/>
+      <c r="C57" s="113"/>
+      <c r="D57" s="118"/>
+      <c r="E57" s="116"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -19388,10 +19397,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="131"/>
-      <c r="C58" s="128"/>
-      <c r="D58" s="132"/>
-      <c r="E58" s="131"/>
+      <c r="B58" s="117"/>
+      <c r="C58" s="114"/>
+      <c r="D58" s="118"/>
+      <c r="E58" s="117"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -19456,7 +19465,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="122" t="s">
+      <c r="B59" s="106" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -19528,7 +19537,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="122"/>
+      <c r="B60" s="106"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -19598,7 +19607,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="123" t="s">
+      <c r="B61" s="107" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -19670,7 +19679,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="123"/>
+      <c r="B62" s="107"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -19738,7 +19747,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="123"/>
+      <c r="B63" s="107"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -19947,27 +19956,16 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="E31:E58"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:BM5"/>
+    <mergeCell ref="AT6:AX6"/>
+    <mergeCell ref="AY6:BC6"/>
+    <mergeCell ref="BD6:BH6"/>
+    <mergeCell ref="BI6:BM6"/>
     <mergeCell ref="BN5:BN6"/>
     <mergeCell ref="BO5:BO6"/>
     <mergeCell ref="F6:J6"/>
@@ -19978,16 +19976,27 @@
     <mergeCell ref="AE6:AI6"/>
     <mergeCell ref="AJ6:AN6"/>
     <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:BM5"/>
-    <mergeCell ref="AT6:AX6"/>
-    <mergeCell ref="AY6:BC6"/>
-    <mergeCell ref="BD6:BH6"/>
-    <mergeCell ref="BI6:BM6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="E31:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20001,31 +20010,31 @@
       <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="1" max="1" width="9.125" style="4"/>
     <col min="2" max="2" width="28" style="3" customWidth="1"/>
-    <col min="3" max="3" width="65.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="65.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="2" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" style="2" customWidth="1"/>
-    <col min="6" max="65" width="2.28515625" style="3" customWidth="1"/>
-    <col min="66" max="69" width="9.140625" style="3"/>
+    <col min="5" max="5" width="29.125" style="2" customWidth="1"/>
+    <col min="6" max="65" width="2.25" style="3" customWidth="1"/>
+    <col min="66" max="69" width="9.125" style="3"/>
     <col min="70" max="70" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="14.85546875" style="3" customWidth="1"/>
+    <col min="71" max="71" width="14.875" style="3" customWidth="1"/>
     <col min="72" max="72" width="13" style="3" customWidth="1"/>
-    <col min="73" max="73" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="74" max="1026" width="9.140625" style="3"/>
-    <col min="1027" max="16384" width="9.140625" style="4"/>
+    <col min="73" max="73" width="13.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="74" max="1026" width="9.125" style="3"/>
+    <col min="1027" max="16384" width="9.125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="103" t="s">
+      <c r="B1" s="131" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
     </row>
     <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
@@ -20191,84 +20200,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="104" t="s">
+      <c r="B5" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="105" t="s">
+      <c r="C5" s="132" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="106" t="s">
+      <c r="D5" s="133" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="104" t="s">
+      <c r="E5" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="107" t="s">
+      <c r="F5" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
-      <c r="J5" s="107"/>
-      <c r="K5" s="107"/>
-      <c r="L5" s="107"/>
-      <c r="M5" s="107"/>
-      <c r="N5" s="107"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="107"/>
-      <c r="T5" s="107"/>
-      <c r="U5" s="107"/>
-      <c r="V5" s="107"/>
-      <c r="W5" s="107"/>
-      <c r="X5" s="107"/>
-      <c r="Y5" s="107"/>
-      <c r="Z5" s="107"/>
-      <c r="AA5" s="107"/>
-      <c r="AB5" s="107"/>
-      <c r="AC5" s="107"/>
-      <c r="AD5" s="107"/>
-      <c r="AE5" s="107"/>
-      <c r="AF5" s="107"/>
-      <c r="AG5" s="107"/>
-      <c r="AH5" s="107"/>
-      <c r="AI5" s="107"/>
-      <c r="AJ5" s="107"/>
-      <c r="AK5" s="107"/>
-      <c r="AL5" s="107"/>
-      <c r="AM5" s="107"/>
-      <c r="AN5" s="107"/>
-      <c r="AO5" s="107"/>
-      <c r="AP5" s="107"/>
-      <c r="AQ5" s="107"/>
-      <c r="AR5" s="107"/>
-      <c r="AS5" s="107"/>
-      <c r="AT5" s="107"/>
-      <c r="AU5" s="107"/>
-      <c r="AV5" s="107"/>
-      <c r="AW5" s="107"/>
-      <c r="AX5" s="107"/>
-      <c r="AY5" s="107"/>
-      <c r="AZ5" s="107"/>
-      <c r="BA5" s="107"/>
-      <c r="BB5" s="107"/>
-      <c r="BC5" s="107"/>
-      <c r="BD5" s="107"/>
-      <c r="BE5" s="107"/>
-      <c r="BF5" s="107"/>
-      <c r="BG5" s="107"/>
-      <c r="BH5" s="107"/>
-      <c r="BI5" s="107"/>
-      <c r="BJ5" s="107"/>
-      <c r="BK5" s="107"/>
-      <c r="BL5" s="107"/>
-      <c r="BM5" s="107"/>
-      <c r="BN5" s="110" t="s">
+      <c r="G5" s="134"/>
+      <c r="H5" s="134"/>
+      <c r="I5" s="134"/>
+      <c r="J5" s="134"/>
+      <c r="K5" s="134"/>
+      <c r="L5" s="134"/>
+      <c r="M5" s="134"/>
+      <c r="N5" s="134"/>
+      <c r="O5" s="134"/>
+      <c r="P5" s="134"/>
+      <c r="Q5" s="134"/>
+      <c r="R5" s="134"/>
+      <c r="S5" s="134"/>
+      <c r="T5" s="134"/>
+      <c r="U5" s="134"/>
+      <c r="V5" s="134"/>
+      <c r="W5" s="134"/>
+      <c r="X5" s="134"/>
+      <c r="Y5" s="134"/>
+      <c r="Z5" s="134"/>
+      <c r="AA5" s="134"/>
+      <c r="AB5" s="134"/>
+      <c r="AC5" s="134"/>
+      <c r="AD5" s="134"/>
+      <c r="AE5" s="134"/>
+      <c r="AF5" s="134"/>
+      <c r="AG5" s="134"/>
+      <c r="AH5" s="134"/>
+      <c r="AI5" s="134"/>
+      <c r="AJ5" s="134"/>
+      <c r="AK5" s="134"/>
+      <c r="AL5" s="134"/>
+      <c r="AM5" s="134"/>
+      <c r="AN5" s="134"/>
+      <c r="AO5" s="134"/>
+      <c r="AP5" s="134"/>
+      <c r="AQ5" s="134"/>
+      <c r="AR5" s="134"/>
+      <c r="AS5" s="134"/>
+      <c r="AT5" s="134"/>
+      <c r="AU5" s="134"/>
+      <c r="AV5" s="134"/>
+      <c r="AW5" s="134"/>
+      <c r="AX5" s="134"/>
+      <c r="AY5" s="134"/>
+      <c r="AZ5" s="134"/>
+      <c r="BA5" s="134"/>
+      <c r="BB5" s="134"/>
+      <c r="BC5" s="134"/>
+      <c r="BD5" s="134"/>
+      <c r="BE5" s="134"/>
+      <c r="BF5" s="134"/>
+      <c r="BG5" s="134"/>
+      <c r="BH5" s="134"/>
+      <c r="BI5" s="134"/>
+      <c r="BJ5" s="134"/>
+      <c r="BK5" s="134"/>
+      <c r="BL5" s="134"/>
+      <c r="BM5" s="134"/>
+      <c r="BN5" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="104" t="s">
+      <c r="BO5" s="129" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -20277,107 +20286,107 @@
       <c r="BU5" s="94"/>
     </row>
     <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="104"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="104"/>
-      <c r="F6" s="108" t="s">
+      <c r="B6" s="129"/>
+      <c r="C6" s="132"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="108"/>
-      <c r="H6" s="108"/>
-      <c r="I6" s="108"/>
-      <c r="J6" s="108"/>
-      <c r="K6" s="108" t="s">
+      <c r="G6" s="130"/>
+      <c r="H6" s="130"/>
+      <c r="I6" s="130"/>
+      <c r="J6" s="130"/>
+      <c r="K6" s="130" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="108"/>
-      <c r="M6" s="108"/>
-      <c r="N6" s="108"/>
-      <c r="O6" s="108"/>
-      <c r="P6" s="108" t="s">
+      <c r="L6" s="130"/>
+      <c r="M6" s="130"/>
+      <c r="N6" s="130"/>
+      <c r="O6" s="130"/>
+      <c r="P6" s="130" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="108"/>
-      <c r="R6" s="108"/>
-      <c r="S6" s="108"/>
-      <c r="T6" s="108"/>
-      <c r="U6" s="108" t="s">
+      <c r="Q6" s="130"/>
+      <c r="R6" s="130"/>
+      <c r="S6" s="130"/>
+      <c r="T6" s="130"/>
+      <c r="U6" s="130" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="108"/>
-      <c r="W6" s="108"/>
-      <c r="X6" s="108"/>
-      <c r="Y6" s="108"/>
-      <c r="Z6" s="108" t="s">
+      <c r="V6" s="130"/>
+      <c r="W6" s="130"/>
+      <c r="X6" s="130"/>
+      <c r="Y6" s="130"/>
+      <c r="Z6" s="130" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="108"/>
-      <c r="AB6" s="108"/>
-      <c r="AC6" s="108"/>
-      <c r="AD6" s="108"/>
-      <c r="AE6" s="108" t="s">
+      <c r="AA6" s="130"/>
+      <c r="AB6" s="130"/>
+      <c r="AC6" s="130"/>
+      <c r="AD6" s="130"/>
+      <c r="AE6" s="130" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="108"/>
-      <c r="AG6" s="108"/>
-      <c r="AH6" s="108"/>
-      <c r="AI6" s="108"/>
-      <c r="AJ6" s="108" t="s">
+      <c r="AF6" s="130"/>
+      <c r="AG6" s="130"/>
+      <c r="AH6" s="130"/>
+      <c r="AI6" s="130"/>
+      <c r="AJ6" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="108"/>
-      <c r="AL6" s="108"/>
-      <c r="AM6" s="108"/>
-      <c r="AN6" s="108"/>
-      <c r="AO6" s="108" t="s">
+      <c r="AK6" s="130"/>
+      <c r="AL6" s="130"/>
+      <c r="AM6" s="130"/>
+      <c r="AN6" s="130"/>
+      <c r="AO6" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="108"/>
-      <c r="AQ6" s="108"/>
-      <c r="AR6" s="108"/>
-      <c r="AS6" s="108"/>
-      <c r="AT6" s="108" t="s">
+      <c r="AP6" s="130"/>
+      <c r="AQ6" s="130"/>
+      <c r="AR6" s="130"/>
+      <c r="AS6" s="130"/>
+      <c r="AT6" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="108"/>
-      <c r="AV6" s="108"/>
-      <c r="AW6" s="108"/>
-      <c r="AX6" s="108"/>
-      <c r="AY6" s="108" t="s">
+      <c r="AU6" s="130"/>
+      <c r="AV6" s="130"/>
+      <c r="AW6" s="130"/>
+      <c r="AX6" s="130"/>
+      <c r="AY6" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="108"/>
-      <c r="BA6" s="108"/>
-      <c r="BB6" s="108"/>
-      <c r="BC6" s="108"/>
-      <c r="BD6" s="108" t="s">
+      <c r="AZ6" s="130"/>
+      <c r="BA6" s="130"/>
+      <c r="BB6" s="130"/>
+      <c r="BC6" s="130"/>
+      <c r="BD6" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="108"/>
-      <c r="BF6" s="108"/>
-      <c r="BG6" s="108"/>
-      <c r="BH6" s="108"/>
-      <c r="BI6" s="109" t="s">
+      <c r="BE6" s="130"/>
+      <c r="BF6" s="130"/>
+      <c r="BG6" s="130"/>
+      <c r="BH6" s="130"/>
+      <c r="BI6" s="135" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="109"/>
-      <c r="BK6" s="109"/>
-      <c r="BL6" s="109"/>
-      <c r="BM6" s="109"/>
-      <c r="BN6" s="110"/>
-      <c r="BO6" s="104"/>
+      <c r="BJ6" s="135"/>
+      <c r="BK6" s="135"/>
+      <c r="BL6" s="135"/>
+      <c r="BM6" s="135"/>
+      <c r="BN6" s="128"/>
+      <c r="BO6" s="129"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="123" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="111"/>
-      <c r="E7" s="112"/>
+      <c r="D7" s="123"/>
+      <c r="E7" s="124"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -21402,12 +21411,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="111"/>
+      <c r="B8" s="123"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="111"/>
-      <c r="E8" s="113"/>
+      <c r="D8" s="123"/>
+      <c r="E8" s="121"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -22431,14 +22440,14 @@
       <c r="AML8" s="23"/>
     </row>
     <row r="9" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="114" t="s">
+      <c r="B9" s="119" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="115"/>
-      <c r="E9" s="116"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="125"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
       <c r="H9" s="83"/>
@@ -23462,12 +23471,12 @@
       <c r="AML9" s="21"/>
     </row>
     <row r="10" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B10" s="114"/>
+      <c r="B10" s="119"/>
       <c r="C10" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="115"/>
-      <c r="E10" s="117"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="126"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -24491,12 +24500,12 @@
       <c r="AML10" s="21"/>
     </row>
     <row r="11" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="114"/>
+      <c r="B11" s="119"/>
       <c r="C11" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="115"/>
-      <c r="E11" s="117"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="126"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -25520,12 +25529,12 @@
       <c r="AML11" s="21"/>
     </row>
     <row r="12" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="114"/>
+      <c r="B12" s="119"/>
       <c r="C12" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="115"/>
-      <c r="E12" s="118"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="127"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -25590,14 +25599,14 @@
       <c r="BO12" s="31"/>
     </row>
     <row r="13" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B13" s="114" t="s">
+      <c r="B13" s="119" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="115"/>
-      <c r="E13" s="113"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="121"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -25662,12 +25671,12 @@
       <c r="BO13" s="20"/>
     </row>
     <row r="14" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B14" s="114"/>
+      <c r="B14" s="119"/>
       <c r="C14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="115"/>
-      <c r="E14" s="113"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="121"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -25732,12 +25741,12 @@
       <c r="BO14" s="31"/>
     </row>
     <row r="15" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="114"/>
+      <c r="B15" s="119"/>
       <c r="C15" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="115"/>
-      <c r="E15" s="113"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="121"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -25802,12 +25811,12 @@
       <c r="BO15" s="31"/>
     </row>
     <row r="16" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B16" s="114"/>
+      <c r="B16" s="119"/>
       <c r="C16" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="115"/>
-      <c r="E16" s="113"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="121"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -25872,12 +25881,12 @@
       <c r="BO16" s="31"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B17" s="114"/>
+      <c r="B17" s="119"/>
       <c r="C17" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="115"/>
-      <c r="E17" s="113"/>
+      <c r="D17" s="120"/>
+      <c r="E17" s="121"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -25942,12 +25951,12 @@
       <c r="BO17" s="31"/>
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B18" s="114"/>
+      <c r="B18" s="119"/>
       <c r="C18" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="115"/>
-      <c r="E18" s="113"/>
+      <c r="D18" s="120"/>
+      <c r="E18" s="121"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -26012,12 +26021,12 @@
       <c r="BO18" s="31"/>
     </row>
     <row r="19" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B19" s="114"/>
+      <c r="B19" s="119"/>
       <c r="C19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="115"/>
-      <c r="E19" s="113"/>
+      <c r="D19" s="120"/>
+      <c r="E19" s="121"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -26082,14 +26091,14 @@
       <c r="BO19" s="27"/>
     </row>
     <row r="20" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B20" s="119" t="s">
+      <c r="B20" s="122" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="111"/>
-      <c r="E20" s="120"/>
+      <c r="D20" s="123"/>
+      <c r="E20" s="112"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -26154,12 +26163,12 @@
       <c r="BO20" s="20"/>
     </row>
     <row r="21" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B21" s="119"/>
+      <c r="B21" s="122"/>
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="111"/>
-      <c r="E21" s="121"/>
+      <c r="D21" s="123"/>
+      <c r="E21" s="113"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -26224,12 +26233,12 @@
       <c r="BO21" s="31"/>
     </row>
     <row r="22" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B22" s="119"/>
+      <c r="B22" s="122"/>
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="111"/>
-      <c r="E22" s="121"/>
+      <c r="D22" s="123"/>
+      <c r="E22" s="113"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -26294,12 +26303,12 @@
       <c r="BO22" s="31"/>
     </row>
     <row r="23" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B23" s="119"/>
+      <c r="B23" s="122"/>
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="111"/>
-      <c r="E23" s="121"/>
+      <c r="D23" s="123"/>
+      <c r="E23" s="113"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -26364,12 +26373,12 @@
       <c r="BO23" s="31"/>
     </row>
     <row r="24" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B24" s="119"/>
+      <c r="B24" s="122"/>
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="111"/>
-      <c r="E24" s="121"/>
+      <c r="D24" s="123"/>
+      <c r="E24" s="113"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -26434,14 +26443,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="124" t="s">
+      <c r="B25" s="108" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="127"/>
-      <c r="E25" s="120"/>
+      <c r="D25" s="111"/>
+      <c r="E25" s="112"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -26506,12 +26515,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="125"/>
+      <c r="B26" s="109"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="127"/>
-      <c r="E26" s="121"/>
+      <c r="D26" s="111"/>
+      <c r="E26" s="113"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -26576,12 +26585,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="125"/>
+      <c r="B27" s="109"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="127"/>
-      <c r="E27" s="121"/>
+      <c r="D27" s="111"/>
+      <c r="E27" s="113"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -26646,12 +26655,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="125"/>
+      <c r="B28" s="109"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="127"/>
-      <c r="E28" s="121"/>
+      <c r="D28" s="111"/>
+      <c r="E28" s="113"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -26716,12 +26725,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="126"/>
+      <c r="B29" s="110"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="127"/>
-      <c r="E29" s="128"/>
+      <c r="D29" s="111"/>
+      <c r="E29" s="114"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -26858,10 +26867,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="129"/>
-      <c r="C31" s="120"/>
-      <c r="D31" s="132"/>
-      <c r="E31" s="129"/>
+      <c r="B31" s="115"/>
+      <c r="C31" s="112"/>
+      <c r="D31" s="118"/>
+      <c r="E31" s="115"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -26926,10 +26935,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="130"/>
-      <c r="C32" s="121"/>
-      <c r="D32" s="132"/>
-      <c r="E32" s="130"/>
+      <c r="B32" s="116"/>
+      <c r="C32" s="113"/>
+      <c r="D32" s="118"/>
+      <c r="E32" s="116"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -26994,10 +27003,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="130"/>
-      <c r="C33" s="121"/>
-      <c r="D33" s="132"/>
-      <c r="E33" s="130"/>
+      <c r="B33" s="116"/>
+      <c r="C33" s="113"/>
+      <c r="D33" s="118"/>
+      <c r="E33" s="116"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -27062,10 +27071,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="130"/>
-      <c r="C34" s="121"/>
-      <c r="D34" s="132"/>
-      <c r="E34" s="130"/>
+      <c r="B34" s="116"/>
+      <c r="C34" s="113"/>
+      <c r="D34" s="118"/>
+      <c r="E34" s="116"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -27130,10 +27139,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="130"/>
-      <c r="C35" s="121"/>
-      <c r="D35" s="132"/>
-      <c r="E35" s="130"/>
+      <c r="B35" s="116"/>
+      <c r="C35" s="113"/>
+      <c r="D35" s="118"/>
+      <c r="E35" s="116"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -27198,10 +27207,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="130"/>
-      <c r="C36" s="121"/>
-      <c r="D36" s="132"/>
-      <c r="E36" s="130"/>
+      <c r="B36" s="116"/>
+      <c r="C36" s="113"/>
+      <c r="D36" s="118"/>
+      <c r="E36" s="116"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -27266,10 +27275,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="130"/>
-      <c r="C37" s="121"/>
-      <c r="D37" s="132"/>
-      <c r="E37" s="130"/>
+      <c r="B37" s="116"/>
+      <c r="C37" s="113"/>
+      <c r="D37" s="118"/>
+      <c r="E37" s="116"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -27334,10 +27343,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="130"/>
-      <c r="C38" s="121"/>
-      <c r="D38" s="132"/>
-      <c r="E38" s="130"/>
+      <c r="B38" s="116"/>
+      <c r="C38" s="113"/>
+      <c r="D38" s="118"/>
+      <c r="E38" s="116"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -27402,10 +27411,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="130"/>
-      <c r="C39" s="121"/>
-      <c r="D39" s="132"/>
-      <c r="E39" s="130"/>
+      <c r="B39" s="116"/>
+      <c r="C39" s="113"/>
+      <c r="D39" s="118"/>
+      <c r="E39" s="116"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -27470,10 +27479,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="130"/>
-      <c r="C40" s="121"/>
-      <c r="D40" s="132"/>
-      <c r="E40" s="130"/>
+      <c r="B40" s="116"/>
+      <c r="C40" s="113"/>
+      <c r="D40" s="118"/>
+      <c r="E40" s="116"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -27538,10 +27547,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="130"/>
-      <c r="C41" s="121"/>
-      <c r="D41" s="132"/>
-      <c r="E41" s="130"/>
+      <c r="B41" s="116"/>
+      <c r="C41" s="113"/>
+      <c r="D41" s="118"/>
+      <c r="E41" s="116"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -27606,10 +27615,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="130"/>
-      <c r="C42" s="121"/>
-      <c r="D42" s="132"/>
-      <c r="E42" s="130"/>
+      <c r="B42" s="116"/>
+      <c r="C42" s="113"/>
+      <c r="D42" s="118"/>
+      <c r="E42" s="116"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -27674,10 +27683,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="130"/>
-      <c r="C43" s="121"/>
-      <c r="D43" s="132"/>
-      <c r="E43" s="130"/>
+      <c r="B43" s="116"/>
+      <c r="C43" s="113"/>
+      <c r="D43" s="118"/>
+      <c r="E43" s="116"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -27742,10 +27751,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="130"/>
-      <c r="C44" s="121"/>
-      <c r="D44" s="132"/>
-      <c r="E44" s="130"/>
+      <c r="B44" s="116"/>
+      <c r="C44" s="113"/>
+      <c r="D44" s="118"/>
+      <c r="E44" s="116"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -27810,10 +27819,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="130"/>
-      <c r="C45" s="121"/>
-      <c r="D45" s="132"/>
-      <c r="E45" s="130"/>
+      <c r="B45" s="116"/>
+      <c r="C45" s="113"/>
+      <c r="D45" s="118"/>
+      <c r="E45" s="116"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -27878,10 +27887,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="130"/>
-      <c r="C46" s="121"/>
-      <c r="D46" s="132"/>
-      <c r="E46" s="130"/>
+      <c r="B46" s="116"/>
+      <c r="C46" s="113"/>
+      <c r="D46" s="118"/>
+      <c r="E46" s="116"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -27946,10 +27955,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="130"/>
-      <c r="C47" s="121"/>
-      <c r="D47" s="132"/>
-      <c r="E47" s="130"/>
+      <c r="B47" s="116"/>
+      <c r="C47" s="113"/>
+      <c r="D47" s="118"/>
+      <c r="E47" s="116"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -28014,10 +28023,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="130"/>
-      <c r="C48" s="121"/>
-      <c r="D48" s="132"/>
-      <c r="E48" s="130"/>
+      <c r="B48" s="116"/>
+      <c r="C48" s="113"/>
+      <c r="D48" s="118"/>
+      <c r="E48" s="116"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -28082,10 +28091,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="130"/>
-      <c r="C49" s="121"/>
-      <c r="D49" s="132"/>
-      <c r="E49" s="130"/>
+      <c r="B49" s="116"/>
+      <c r="C49" s="113"/>
+      <c r="D49" s="118"/>
+      <c r="E49" s="116"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -28150,10 +28159,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="130"/>
-      <c r="C50" s="121"/>
-      <c r="D50" s="132"/>
-      <c r="E50" s="130"/>
+      <c r="B50" s="116"/>
+      <c r="C50" s="113"/>
+      <c r="D50" s="118"/>
+      <c r="E50" s="116"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -28218,10 +28227,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="130"/>
-      <c r="C51" s="121"/>
-      <c r="D51" s="132"/>
-      <c r="E51" s="130"/>
+      <c r="B51" s="116"/>
+      <c r="C51" s="113"/>
+      <c r="D51" s="118"/>
+      <c r="E51" s="116"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -28286,10 +28295,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="130"/>
-      <c r="C52" s="121"/>
-      <c r="D52" s="132"/>
-      <c r="E52" s="130"/>
+      <c r="B52" s="116"/>
+      <c r="C52" s="113"/>
+      <c r="D52" s="118"/>
+      <c r="E52" s="116"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -28354,10 +28363,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="130"/>
-      <c r="C53" s="121"/>
-      <c r="D53" s="132"/>
-      <c r="E53" s="130"/>
+      <c r="B53" s="116"/>
+      <c r="C53" s="113"/>
+      <c r="D53" s="118"/>
+      <c r="E53" s="116"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -28422,10 +28431,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="130"/>
-      <c r="C54" s="121"/>
-      <c r="D54" s="132"/>
-      <c r="E54" s="130"/>
+      <c r="B54" s="116"/>
+      <c r="C54" s="113"/>
+      <c r="D54" s="118"/>
+      <c r="E54" s="116"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -28490,10 +28499,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="130"/>
-      <c r="C55" s="121"/>
-      <c r="D55" s="132"/>
-      <c r="E55" s="130"/>
+      <c r="B55" s="116"/>
+      <c r="C55" s="113"/>
+      <c r="D55" s="118"/>
+      <c r="E55" s="116"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -28558,10 +28567,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="130"/>
-      <c r="C56" s="121"/>
-      <c r="D56" s="132"/>
-      <c r="E56" s="130"/>
+      <c r="B56" s="116"/>
+      <c r="C56" s="113"/>
+      <c r="D56" s="118"/>
+      <c r="E56" s="116"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -28626,10 +28635,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="130"/>
-      <c r="C57" s="121"/>
-      <c r="D57" s="132"/>
-      <c r="E57" s="130"/>
+      <c r="B57" s="116"/>
+      <c r="C57" s="113"/>
+      <c r="D57" s="118"/>
+      <c r="E57" s="116"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -28689,10 +28698,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="131"/>
-      <c r="C58" s="128"/>
-      <c r="D58" s="132"/>
-      <c r="E58" s="131"/>
+      <c r="B58" s="117"/>
+      <c r="C58" s="114"/>
+      <c r="D58" s="118"/>
+      <c r="E58" s="117"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -28757,7 +28766,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="122" t="s">
+      <c r="B59" s="106" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -28829,7 +28838,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="122"/>
+      <c r="B60" s="106"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -28899,7 +28908,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="123" t="s">
+      <c r="B61" s="107" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -28971,7 +28980,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="123"/>
+      <c r="B62" s="107"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -29039,7 +29048,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="123"/>
+      <c r="B63" s="107"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -29248,27 +29257,16 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="E31:E58"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:BM5"/>
+    <mergeCell ref="AT6:AX6"/>
+    <mergeCell ref="AY6:BC6"/>
+    <mergeCell ref="BD6:BH6"/>
+    <mergeCell ref="BI6:BM6"/>
     <mergeCell ref="BN5:BN6"/>
     <mergeCell ref="BO5:BO6"/>
     <mergeCell ref="F6:J6"/>
@@ -29279,16 +29277,27 @@
     <mergeCell ref="AE6:AI6"/>
     <mergeCell ref="AJ6:AN6"/>
     <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:BM5"/>
-    <mergeCell ref="AT6:AX6"/>
-    <mergeCell ref="AY6:BC6"/>
-    <mergeCell ref="BD6:BH6"/>
-    <mergeCell ref="BI6:BM6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="E31:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -29302,31 +29311,31 @@
       <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="1" max="1" width="9.125" style="4"/>
     <col min="2" max="2" width="28" style="3" customWidth="1"/>
-    <col min="3" max="3" width="65.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="65.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="2" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" style="2" customWidth="1"/>
-    <col min="6" max="65" width="2.28515625" style="3" customWidth="1"/>
-    <col min="66" max="69" width="9.140625" style="3"/>
+    <col min="5" max="5" width="29.125" style="2" customWidth="1"/>
+    <col min="6" max="65" width="2.25" style="3" customWidth="1"/>
+    <col min="66" max="69" width="9.125" style="3"/>
     <col min="70" max="70" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="14.85546875" style="3" customWidth="1"/>
+    <col min="71" max="71" width="14.875" style="3" customWidth="1"/>
     <col min="72" max="72" width="13" style="3" customWidth="1"/>
-    <col min="73" max="73" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="74" max="1026" width="9.140625" style="3"/>
-    <col min="1027" max="16384" width="9.140625" style="4"/>
+    <col min="73" max="73" width="13.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="74" max="1026" width="9.125" style="3"/>
+    <col min="1027" max="16384" width="9.125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="103" t="s">
+      <c r="B1" s="131" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
     </row>
     <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
@@ -29492,84 +29501,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="104" t="s">
+      <c r="B5" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="105" t="s">
+      <c r="C5" s="132" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="106" t="s">
+      <c r="D5" s="133" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="104" t="s">
+      <c r="E5" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="107" t="s">
+      <c r="F5" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
-      <c r="J5" s="107"/>
-      <c r="K5" s="107"/>
-      <c r="L5" s="107"/>
-      <c r="M5" s="107"/>
-      <c r="N5" s="107"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="107"/>
-      <c r="T5" s="107"/>
-      <c r="U5" s="107"/>
-      <c r="V5" s="107"/>
-      <c r="W5" s="107"/>
-      <c r="X5" s="107"/>
-      <c r="Y5" s="107"/>
-      <c r="Z5" s="107"/>
-      <c r="AA5" s="107"/>
-      <c r="AB5" s="107"/>
-      <c r="AC5" s="107"/>
-      <c r="AD5" s="107"/>
-      <c r="AE5" s="107"/>
-      <c r="AF5" s="107"/>
-      <c r="AG5" s="107"/>
-      <c r="AH5" s="107"/>
-      <c r="AI5" s="107"/>
-      <c r="AJ5" s="107"/>
-      <c r="AK5" s="107"/>
-      <c r="AL5" s="107"/>
-      <c r="AM5" s="107"/>
-      <c r="AN5" s="107"/>
-      <c r="AO5" s="107"/>
-      <c r="AP5" s="107"/>
-      <c r="AQ5" s="107"/>
-      <c r="AR5" s="107"/>
-      <c r="AS5" s="107"/>
-      <c r="AT5" s="107"/>
-      <c r="AU5" s="107"/>
-      <c r="AV5" s="107"/>
-      <c r="AW5" s="107"/>
-      <c r="AX5" s="107"/>
-      <c r="AY5" s="107"/>
-      <c r="AZ5" s="107"/>
-      <c r="BA5" s="107"/>
-      <c r="BB5" s="107"/>
-      <c r="BC5" s="107"/>
-      <c r="BD5" s="107"/>
-      <c r="BE5" s="107"/>
-      <c r="BF5" s="107"/>
-      <c r="BG5" s="107"/>
-      <c r="BH5" s="107"/>
-      <c r="BI5" s="107"/>
-      <c r="BJ5" s="107"/>
-      <c r="BK5" s="107"/>
-      <c r="BL5" s="107"/>
-      <c r="BM5" s="107"/>
-      <c r="BN5" s="110" t="s">
+      <c r="G5" s="134"/>
+      <c r="H5" s="134"/>
+      <c r="I5" s="134"/>
+      <c r="J5" s="134"/>
+      <c r="K5" s="134"/>
+      <c r="L5" s="134"/>
+      <c r="M5" s="134"/>
+      <c r="N5" s="134"/>
+      <c r="O5" s="134"/>
+      <c r="P5" s="134"/>
+      <c r="Q5" s="134"/>
+      <c r="R5" s="134"/>
+      <c r="S5" s="134"/>
+      <c r="T5" s="134"/>
+      <c r="U5" s="134"/>
+      <c r="V5" s="134"/>
+      <c r="W5" s="134"/>
+      <c r="X5" s="134"/>
+      <c r="Y5" s="134"/>
+      <c r="Z5" s="134"/>
+      <c r="AA5" s="134"/>
+      <c r="AB5" s="134"/>
+      <c r="AC5" s="134"/>
+      <c r="AD5" s="134"/>
+      <c r="AE5" s="134"/>
+      <c r="AF5" s="134"/>
+      <c r="AG5" s="134"/>
+      <c r="AH5" s="134"/>
+      <c r="AI5" s="134"/>
+      <c r="AJ5" s="134"/>
+      <c r="AK5" s="134"/>
+      <c r="AL5" s="134"/>
+      <c r="AM5" s="134"/>
+      <c r="AN5" s="134"/>
+      <c r="AO5" s="134"/>
+      <c r="AP5" s="134"/>
+      <c r="AQ5" s="134"/>
+      <c r="AR5" s="134"/>
+      <c r="AS5" s="134"/>
+      <c r="AT5" s="134"/>
+      <c r="AU5" s="134"/>
+      <c r="AV5" s="134"/>
+      <c r="AW5" s="134"/>
+      <c r="AX5" s="134"/>
+      <c r="AY5" s="134"/>
+      <c r="AZ5" s="134"/>
+      <c r="BA5" s="134"/>
+      <c r="BB5" s="134"/>
+      <c r="BC5" s="134"/>
+      <c r="BD5" s="134"/>
+      <c r="BE5" s="134"/>
+      <c r="BF5" s="134"/>
+      <c r="BG5" s="134"/>
+      <c r="BH5" s="134"/>
+      <c r="BI5" s="134"/>
+      <c r="BJ5" s="134"/>
+      <c r="BK5" s="134"/>
+      <c r="BL5" s="134"/>
+      <c r="BM5" s="134"/>
+      <c r="BN5" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="104" t="s">
+      <c r="BO5" s="129" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -29578,107 +29587,107 @@
       <c r="BU5" s="94"/>
     </row>
     <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="104"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="104"/>
-      <c r="F6" s="108" t="s">
+      <c r="B6" s="129"/>
+      <c r="C6" s="132"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="108"/>
-      <c r="H6" s="108"/>
-      <c r="I6" s="108"/>
-      <c r="J6" s="108"/>
-      <c r="K6" s="108" t="s">
+      <c r="G6" s="130"/>
+      <c r="H6" s="130"/>
+      <c r="I6" s="130"/>
+      <c r="J6" s="130"/>
+      <c r="K6" s="130" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="108"/>
-      <c r="M6" s="108"/>
-      <c r="N6" s="108"/>
-      <c r="O6" s="108"/>
-      <c r="P6" s="108" t="s">
+      <c r="L6" s="130"/>
+      <c r="M6" s="130"/>
+      <c r="N6" s="130"/>
+      <c r="O6" s="130"/>
+      <c r="P6" s="130" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="108"/>
-      <c r="R6" s="108"/>
-      <c r="S6" s="108"/>
-      <c r="T6" s="108"/>
-      <c r="U6" s="108" t="s">
+      <c r="Q6" s="130"/>
+      <c r="R6" s="130"/>
+      <c r="S6" s="130"/>
+      <c r="T6" s="130"/>
+      <c r="U6" s="130" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="108"/>
-      <c r="W6" s="108"/>
-      <c r="X6" s="108"/>
-      <c r="Y6" s="108"/>
-      <c r="Z6" s="108" t="s">
+      <c r="V6" s="130"/>
+      <c r="W6" s="130"/>
+      <c r="X6" s="130"/>
+      <c r="Y6" s="130"/>
+      <c r="Z6" s="130" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="108"/>
-      <c r="AB6" s="108"/>
-      <c r="AC6" s="108"/>
-      <c r="AD6" s="108"/>
-      <c r="AE6" s="108" t="s">
+      <c r="AA6" s="130"/>
+      <c r="AB6" s="130"/>
+      <c r="AC6" s="130"/>
+      <c r="AD6" s="130"/>
+      <c r="AE6" s="130" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="108"/>
-      <c r="AG6" s="108"/>
-      <c r="AH6" s="108"/>
-      <c r="AI6" s="108"/>
-      <c r="AJ6" s="108" t="s">
+      <c r="AF6" s="130"/>
+      <c r="AG6" s="130"/>
+      <c r="AH6" s="130"/>
+      <c r="AI6" s="130"/>
+      <c r="AJ6" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="108"/>
-      <c r="AL6" s="108"/>
-      <c r="AM6" s="108"/>
-      <c r="AN6" s="108"/>
-      <c r="AO6" s="108" t="s">
+      <c r="AK6" s="130"/>
+      <c r="AL6" s="130"/>
+      <c r="AM6" s="130"/>
+      <c r="AN6" s="130"/>
+      <c r="AO6" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="108"/>
-      <c r="AQ6" s="108"/>
-      <c r="AR6" s="108"/>
-      <c r="AS6" s="108"/>
-      <c r="AT6" s="108" t="s">
+      <c r="AP6" s="130"/>
+      <c r="AQ6" s="130"/>
+      <c r="AR6" s="130"/>
+      <c r="AS6" s="130"/>
+      <c r="AT6" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="108"/>
-      <c r="AV6" s="108"/>
-      <c r="AW6" s="108"/>
-      <c r="AX6" s="108"/>
-      <c r="AY6" s="108" t="s">
+      <c r="AU6" s="130"/>
+      <c r="AV6" s="130"/>
+      <c r="AW6" s="130"/>
+      <c r="AX6" s="130"/>
+      <c r="AY6" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="108"/>
-      <c r="BA6" s="108"/>
-      <c r="BB6" s="108"/>
-      <c r="BC6" s="108"/>
-      <c r="BD6" s="108" t="s">
+      <c r="AZ6" s="130"/>
+      <c r="BA6" s="130"/>
+      <c r="BB6" s="130"/>
+      <c r="BC6" s="130"/>
+      <c r="BD6" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="108"/>
-      <c r="BF6" s="108"/>
-      <c r="BG6" s="108"/>
-      <c r="BH6" s="108"/>
-      <c r="BI6" s="109" t="s">
+      <c r="BE6" s="130"/>
+      <c r="BF6" s="130"/>
+      <c r="BG6" s="130"/>
+      <c r="BH6" s="130"/>
+      <c r="BI6" s="135" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="109"/>
-      <c r="BK6" s="109"/>
-      <c r="BL6" s="109"/>
-      <c r="BM6" s="109"/>
-      <c r="BN6" s="110"/>
-      <c r="BO6" s="104"/>
+      <c r="BJ6" s="135"/>
+      <c r="BK6" s="135"/>
+      <c r="BL6" s="135"/>
+      <c r="BM6" s="135"/>
+      <c r="BN6" s="128"/>
+      <c r="BO6" s="129"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="123" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="111"/>
-      <c r="E7" s="112"/>
+      <c r="D7" s="123"/>
+      <c r="E7" s="124"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -30703,12 +30712,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="111"/>
+      <c r="B8" s="123"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="111"/>
-      <c r="E8" s="113"/>
+      <c r="D8" s="123"/>
+      <c r="E8" s="121"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -31732,14 +31741,14 @@
       <c r="AML8" s="23"/>
     </row>
     <row r="9" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="114" t="s">
+      <c r="B9" s="119" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="115"/>
-      <c r="E9" s="116"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="125"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
       <c r="H9" s="83"/>
@@ -32763,12 +32772,12 @@
       <c r="AML9" s="21"/>
     </row>
     <row r="10" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B10" s="114"/>
+      <c r="B10" s="119"/>
       <c r="C10" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="115"/>
-      <c r="E10" s="117"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="126"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -33792,12 +33801,12 @@
       <c r="AML10" s="21"/>
     </row>
     <row r="11" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="114"/>
+      <c r="B11" s="119"/>
       <c r="C11" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="115"/>
-      <c r="E11" s="117"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="126"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -34821,12 +34830,12 @@
       <c r="AML11" s="21"/>
     </row>
     <row r="12" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="114"/>
+      <c r="B12" s="119"/>
       <c r="C12" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="115"/>
-      <c r="E12" s="118"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="127"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -34891,14 +34900,14 @@
       <c r="BO12" s="31"/>
     </row>
     <row r="13" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B13" s="114" t="s">
+      <c r="B13" s="119" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="115"/>
-      <c r="E13" s="113"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="121"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -34963,12 +34972,12 @@
       <c r="BO13" s="20"/>
     </row>
     <row r="14" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B14" s="114"/>
+      <c r="B14" s="119"/>
       <c r="C14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="115"/>
-      <c r="E14" s="113"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="121"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -35033,12 +35042,12 @@
       <c r="BO14" s="31"/>
     </row>
     <row r="15" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="114"/>
+      <c r="B15" s="119"/>
       <c r="C15" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="115"/>
-      <c r="E15" s="113"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="121"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -35103,12 +35112,12 @@
       <c r="BO15" s="31"/>
     </row>
     <row r="16" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B16" s="114"/>
+      <c r="B16" s="119"/>
       <c r="C16" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="115"/>
-      <c r="E16" s="113"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="121"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -35173,12 +35182,12 @@
       <c r="BO16" s="31"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B17" s="114"/>
+      <c r="B17" s="119"/>
       <c r="C17" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="115"/>
-      <c r="E17" s="113"/>
+      <c r="D17" s="120"/>
+      <c r="E17" s="121"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -35243,12 +35252,12 @@
       <c r="BO17" s="31"/>
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B18" s="114"/>
+      <c r="B18" s="119"/>
       <c r="C18" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="115"/>
-      <c r="E18" s="113"/>
+      <c r="D18" s="120"/>
+      <c r="E18" s="121"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -35313,12 +35322,12 @@
       <c r="BO18" s="31"/>
     </row>
     <row r="19" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B19" s="114"/>
+      <c r="B19" s="119"/>
       <c r="C19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="115"/>
-      <c r="E19" s="113"/>
+      <c r="D19" s="120"/>
+      <c r="E19" s="121"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -35383,14 +35392,14 @@
       <c r="BO19" s="27"/>
     </row>
     <row r="20" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B20" s="119" t="s">
+      <c r="B20" s="122" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="111"/>
-      <c r="E20" s="120"/>
+      <c r="D20" s="123"/>
+      <c r="E20" s="112"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -35455,12 +35464,12 @@
       <c r="BO20" s="20"/>
     </row>
     <row r="21" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B21" s="119"/>
+      <c r="B21" s="122"/>
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="111"/>
-      <c r="E21" s="121"/>
+      <c r="D21" s="123"/>
+      <c r="E21" s="113"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -35525,12 +35534,12 @@
       <c r="BO21" s="31"/>
     </row>
     <row r="22" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B22" s="119"/>
+      <c r="B22" s="122"/>
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="111"/>
-      <c r="E22" s="121"/>
+      <c r="D22" s="123"/>
+      <c r="E22" s="113"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -35595,12 +35604,12 @@
       <c r="BO22" s="31"/>
     </row>
     <row r="23" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B23" s="119"/>
+      <c r="B23" s="122"/>
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="111"/>
-      <c r="E23" s="121"/>
+      <c r="D23" s="123"/>
+      <c r="E23" s="113"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -35665,12 +35674,12 @@
       <c r="BO23" s="31"/>
     </row>
     <row r="24" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B24" s="119"/>
+      <c r="B24" s="122"/>
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="111"/>
-      <c r="E24" s="121"/>
+      <c r="D24" s="123"/>
+      <c r="E24" s="113"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -35735,14 +35744,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="124" t="s">
+      <c r="B25" s="108" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="127"/>
-      <c r="E25" s="120"/>
+      <c r="D25" s="111"/>
+      <c r="E25" s="112"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -35807,12 +35816,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="125"/>
+      <c r="B26" s="109"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="127"/>
-      <c r="E26" s="121"/>
+      <c r="D26" s="111"/>
+      <c r="E26" s="113"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -35877,12 +35886,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="125"/>
+      <c r="B27" s="109"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="127"/>
-      <c r="E27" s="121"/>
+      <c r="D27" s="111"/>
+      <c r="E27" s="113"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -35947,12 +35956,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="125"/>
+      <c r="B28" s="109"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="127"/>
-      <c r="E28" s="121"/>
+      <c r="D28" s="111"/>
+      <c r="E28" s="113"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -36017,12 +36026,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="126"/>
+      <c r="B29" s="110"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="127"/>
-      <c r="E29" s="128"/>
+      <c r="D29" s="111"/>
+      <c r="E29" s="114"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -36159,10 +36168,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="129"/>
-      <c r="C31" s="120"/>
-      <c r="D31" s="132"/>
-      <c r="E31" s="129"/>
+      <c r="B31" s="115"/>
+      <c r="C31" s="112"/>
+      <c r="D31" s="118"/>
+      <c r="E31" s="115"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -36227,10 +36236,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="130"/>
-      <c r="C32" s="121"/>
-      <c r="D32" s="132"/>
-      <c r="E32" s="130"/>
+      <c r="B32" s="116"/>
+      <c r="C32" s="113"/>
+      <c r="D32" s="118"/>
+      <c r="E32" s="116"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -36295,10 +36304,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="130"/>
-      <c r="C33" s="121"/>
-      <c r="D33" s="132"/>
-      <c r="E33" s="130"/>
+      <c r="B33" s="116"/>
+      <c r="C33" s="113"/>
+      <c r="D33" s="118"/>
+      <c r="E33" s="116"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -36363,10 +36372,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="130"/>
-      <c r="C34" s="121"/>
-      <c r="D34" s="132"/>
-      <c r="E34" s="130"/>
+      <c r="B34" s="116"/>
+      <c r="C34" s="113"/>
+      <c r="D34" s="118"/>
+      <c r="E34" s="116"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -36431,10 +36440,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="130"/>
-      <c r="C35" s="121"/>
-      <c r="D35" s="132"/>
-      <c r="E35" s="130"/>
+      <c r="B35" s="116"/>
+      <c r="C35" s="113"/>
+      <c r="D35" s="118"/>
+      <c r="E35" s="116"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -36499,10 +36508,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="130"/>
-      <c r="C36" s="121"/>
-      <c r="D36" s="132"/>
-      <c r="E36" s="130"/>
+      <c r="B36" s="116"/>
+      <c r="C36" s="113"/>
+      <c r="D36" s="118"/>
+      <c r="E36" s="116"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -36567,10 +36576,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="130"/>
-      <c r="C37" s="121"/>
-      <c r="D37" s="132"/>
-      <c r="E37" s="130"/>
+      <c r="B37" s="116"/>
+      <c r="C37" s="113"/>
+      <c r="D37" s="118"/>
+      <c r="E37" s="116"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -36635,10 +36644,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="130"/>
-      <c r="C38" s="121"/>
-      <c r="D38" s="132"/>
-      <c r="E38" s="130"/>
+      <c r="B38" s="116"/>
+      <c r="C38" s="113"/>
+      <c r="D38" s="118"/>
+      <c r="E38" s="116"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -36703,10 +36712,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="130"/>
-      <c r="C39" s="121"/>
-      <c r="D39" s="132"/>
-      <c r="E39" s="130"/>
+      <c r="B39" s="116"/>
+      <c r="C39" s="113"/>
+      <c r="D39" s="118"/>
+      <c r="E39" s="116"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -36771,10 +36780,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="130"/>
-      <c r="C40" s="121"/>
-      <c r="D40" s="132"/>
-      <c r="E40" s="130"/>
+      <c r="B40" s="116"/>
+      <c r="C40" s="113"/>
+      <c r="D40" s="118"/>
+      <c r="E40" s="116"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -36839,10 +36848,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="130"/>
-      <c r="C41" s="121"/>
-      <c r="D41" s="132"/>
-      <c r="E41" s="130"/>
+      <c r="B41" s="116"/>
+      <c r="C41" s="113"/>
+      <c r="D41" s="118"/>
+      <c r="E41" s="116"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -36907,10 +36916,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="130"/>
-      <c r="C42" s="121"/>
-      <c r="D42" s="132"/>
-      <c r="E42" s="130"/>
+      <c r="B42" s="116"/>
+      <c r="C42" s="113"/>
+      <c r="D42" s="118"/>
+      <c r="E42" s="116"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -36975,10 +36984,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="130"/>
-      <c r="C43" s="121"/>
-      <c r="D43" s="132"/>
-      <c r="E43" s="130"/>
+      <c r="B43" s="116"/>
+      <c r="C43" s="113"/>
+      <c r="D43" s="118"/>
+      <c r="E43" s="116"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -37043,10 +37052,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="130"/>
-      <c r="C44" s="121"/>
-      <c r="D44" s="132"/>
-      <c r="E44" s="130"/>
+      <c r="B44" s="116"/>
+      <c r="C44" s="113"/>
+      <c r="D44" s="118"/>
+      <c r="E44" s="116"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -37111,10 +37120,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="130"/>
-      <c r="C45" s="121"/>
-      <c r="D45" s="132"/>
-      <c r="E45" s="130"/>
+      <c r="B45" s="116"/>
+      <c r="C45" s="113"/>
+      <c r="D45" s="118"/>
+      <c r="E45" s="116"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -37179,10 +37188,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="130"/>
-      <c r="C46" s="121"/>
-      <c r="D46" s="132"/>
-      <c r="E46" s="130"/>
+      <c r="B46" s="116"/>
+      <c r="C46" s="113"/>
+      <c r="D46" s="118"/>
+      <c r="E46" s="116"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -37247,10 +37256,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="130"/>
-      <c r="C47" s="121"/>
-      <c r="D47" s="132"/>
-      <c r="E47" s="130"/>
+      <c r="B47" s="116"/>
+      <c r="C47" s="113"/>
+      <c r="D47" s="118"/>
+      <c r="E47" s="116"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -37315,10 +37324,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="130"/>
-      <c r="C48" s="121"/>
-      <c r="D48" s="132"/>
-      <c r="E48" s="130"/>
+      <c r="B48" s="116"/>
+      <c r="C48" s="113"/>
+      <c r="D48" s="118"/>
+      <c r="E48" s="116"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -37383,10 +37392,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="130"/>
-      <c r="C49" s="121"/>
-      <c r="D49" s="132"/>
-      <c r="E49" s="130"/>
+      <c r="B49" s="116"/>
+      <c r="C49" s="113"/>
+      <c r="D49" s="118"/>
+      <c r="E49" s="116"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -37451,10 +37460,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="130"/>
-      <c r="C50" s="121"/>
-      <c r="D50" s="132"/>
-      <c r="E50" s="130"/>
+      <c r="B50" s="116"/>
+      <c r="C50" s="113"/>
+      <c r="D50" s="118"/>
+      <c r="E50" s="116"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -37519,10 +37528,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="130"/>
-      <c r="C51" s="121"/>
-      <c r="D51" s="132"/>
-      <c r="E51" s="130"/>
+      <c r="B51" s="116"/>
+      <c r="C51" s="113"/>
+      <c r="D51" s="118"/>
+      <c r="E51" s="116"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -37587,10 +37596,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="130"/>
-      <c r="C52" s="121"/>
-      <c r="D52" s="132"/>
-      <c r="E52" s="130"/>
+      <c r="B52" s="116"/>
+      <c r="C52" s="113"/>
+      <c r="D52" s="118"/>
+      <c r="E52" s="116"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -37655,10 +37664,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="130"/>
-      <c r="C53" s="121"/>
-      <c r="D53" s="132"/>
-      <c r="E53" s="130"/>
+      <c r="B53" s="116"/>
+      <c r="C53" s="113"/>
+      <c r="D53" s="118"/>
+      <c r="E53" s="116"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -37723,10 +37732,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="130"/>
-      <c r="C54" s="121"/>
-      <c r="D54" s="132"/>
-      <c r="E54" s="130"/>
+      <c r="B54" s="116"/>
+      <c r="C54" s="113"/>
+      <c r="D54" s="118"/>
+      <c r="E54" s="116"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -37791,10 +37800,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="130"/>
-      <c r="C55" s="121"/>
-      <c r="D55" s="132"/>
-      <c r="E55" s="130"/>
+      <c r="B55" s="116"/>
+      <c r="C55" s="113"/>
+      <c r="D55" s="118"/>
+      <c r="E55" s="116"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -37859,10 +37868,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="130"/>
-      <c r="C56" s="121"/>
-      <c r="D56" s="132"/>
-      <c r="E56" s="130"/>
+      <c r="B56" s="116"/>
+      <c r="C56" s="113"/>
+      <c r="D56" s="118"/>
+      <c r="E56" s="116"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -37927,10 +37936,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="130"/>
-      <c r="C57" s="121"/>
-      <c r="D57" s="132"/>
-      <c r="E57" s="130"/>
+      <c r="B57" s="116"/>
+      <c r="C57" s="113"/>
+      <c r="D57" s="118"/>
+      <c r="E57" s="116"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -37990,10 +37999,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="131"/>
-      <c r="C58" s="128"/>
-      <c r="D58" s="132"/>
-      <c r="E58" s="131"/>
+      <c r="B58" s="117"/>
+      <c r="C58" s="114"/>
+      <c r="D58" s="118"/>
+      <c r="E58" s="117"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -38058,7 +38067,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="122" t="s">
+      <c r="B59" s="106" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -38130,7 +38139,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="122"/>
+      <c r="B60" s="106"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -38200,7 +38209,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="123" t="s">
+      <c r="B61" s="107" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -38272,7 +38281,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="123"/>
+      <c r="B62" s="107"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -38340,7 +38349,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="123"/>
+      <c r="B63" s="107"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -38549,27 +38558,16 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="E31:E58"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:BM5"/>
+    <mergeCell ref="AT6:AX6"/>
+    <mergeCell ref="AY6:BC6"/>
+    <mergeCell ref="BD6:BH6"/>
+    <mergeCell ref="BI6:BM6"/>
     <mergeCell ref="BN5:BN6"/>
     <mergeCell ref="BO5:BO6"/>
     <mergeCell ref="F6:J6"/>
@@ -38580,16 +38578,27 @@
     <mergeCell ref="AE6:AI6"/>
     <mergeCell ref="AJ6:AN6"/>
     <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:BM5"/>
-    <mergeCell ref="AT6:AX6"/>
-    <mergeCell ref="AY6:BC6"/>
-    <mergeCell ref="BD6:BH6"/>
-    <mergeCell ref="BI6:BM6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="E31:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -38603,31 +38612,31 @@
       <selection activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="1" max="1" width="9.125" style="4"/>
     <col min="2" max="2" width="28" style="3" customWidth="1"/>
-    <col min="3" max="3" width="65.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="65.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="2" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" style="2" customWidth="1"/>
-    <col min="6" max="65" width="2.28515625" style="3" customWidth="1"/>
-    <col min="66" max="69" width="9.140625" style="3"/>
+    <col min="5" max="5" width="29.125" style="2" customWidth="1"/>
+    <col min="6" max="65" width="2.25" style="3" customWidth="1"/>
+    <col min="66" max="69" width="9.125" style="3"/>
     <col min="70" max="70" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="14.85546875" style="3" customWidth="1"/>
+    <col min="71" max="71" width="14.875" style="3" customWidth="1"/>
     <col min="72" max="72" width="13" style="3" customWidth="1"/>
-    <col min="73" max="73" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="74" max="1026" width="9.140625" style="3"/>
-    <col min="1027" max="16384" width="9.140625" style="4"/>
+    <col min="73" max="73" width="13.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="74" max="1026" width="9.125" style="3"/>
+    <col min="1027" max="16384" width="9.125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="103" t="s">
+      <c r="B1" s="131" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
     </row>
     <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
@@ -38793,84 +38802,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="104" t="s">
+      <c r="B5" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="105" t="s">
+      <c r="C5" s="132" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="106" t="s">
+      <c r="D5" s="133" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="104" t="s">
+      <c r="E5" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="107" t="s">
+      <c r="F5" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
-      <c r="J5" s="107"/>
-      <c r="K5" s="107"/>
-      <c r="L5" s="107"/>
-      <c r="M5" s="107"/>
-      <c r="N5" s="107"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="107"/>
-      <c r="T5" s="107"/>
-      <c r="U5" s="107"/>
-      <c r="V5" s="107"/>
-      <c r="W5" s="107"/>
-      <c r="X5" s="107"/>
-      <c r="Y5" s="107"/>
-      <c r="Z5" s="107"/>
-      <c r="AA5" s="107"/>
-      <c r="AB5" s="107"/>
-      <c r="AC5" s="107"/>
-      <c r="AD5" s="107"/>
-      <c r="AE5" s="107"/>
-      <c r="AF5" s="107"/>
-      <c r="AG5" s="107"/>
-      <c r="AH5" s="107"/>
-      <c r="AI5" s="107"/>
-      <c r="AJ5" s="107"/>
-      <c r="AK5" s="107"/>
-      <c r="AL5" s="107"/>
-      <c r="AM5" s="107"/>
-      <c r="AN5" s="107"/>
-      <c r="AO5" s="107"/>
-      <c r="AP5" s="107"/>
-      <c r="AQ5" s="107"/>
-      <c r="AR5" s="107"/>
-      <c r="AS5" s="107"/>
-      <c r="AT5" s="107"/>
-      <c r="AU5" s="107"/>
-      <c r="AV5" s="107"/>
-      <c r="AW5" s="107"/>
-      <c r="AX5" s="107"/>
-      <c r="AY5" s="107"/>
-      <c r="AZ5" s="107"/>
-      <c r="BA5" s="107"/>
-      <c r="BB5" s="107"/>
-      <c r="BC5" s="107"/>
-      <c r="BD5" s="107"/>
-      <c r="BE5" s="107"/>
-      <c r="BF5" s="107"/>
-      <c r="BG5" s="107"/>
-      <c r="BH5" s="107"/>
-      <c r="BI5" s="107"/>
-      <c r="BJ5" s="107"/>
-      <c r="BK5" s="107"/>
-      <c r="BL5" s="107"/>
-      <c r="BM5" s="107"/>
-      <c r="BN5" s="110" t="s">
+      <c r="G5" s="134"/>
+      <c r="H5" s="134"/>
+      <c r="I5" s="134"/>
+      <c r="J5" s="134"/>
+      <c r="K5" s="134"/>
+      <c r="L5" s="134"/>
+      <c r="M5" s="134"/>
+      <c r="N5" s="134"/>
+      <c r="O5" s="134"/>
+      <c r="P5" s="134"/>
+      <c r="Q5" s="134"/>
+      <c r="R5" s="134"/>
+      <c r="S5" s="134"/>
+      <c r="T5" s="134"/>
+      <c r="U5" s="134"/>
+      <c r="V5" s="134"/>
+      <c r="W5" s="134"/>
+      <c r="X5" s="134"/>
+      <c r="Y5" s="134"/>
+      <c r="Z5" s="134"/>
+      <c r="AA5" s="134"/>
+      <c r="AB5" s="134"/>
+      <c r="AC5" s="134"/>
+      <c r="AD5" s="134"/>
+      <c r="AE5" s="134"/>
+      <c r="AF5" s="134"/>
+      <c r="AG5" s="134"/>
+      <c r="AH5" s="134"/>
+      <c r="AI5" s="134"/>
+      <c r="AJ5" s="134"/>
+      <c r="AK5" s="134"/>
+      <c r="AL5" s="134"/>
+      <c r="AM5" s="134"/>
+      <c r="AN5" s="134"/>
+      <c r="AO5" s="134"/>
+      <c r="AP5" s="134"/>
+      <c r="AQ5" s="134"/>
+      <c r="AR5" s="134"/>
+      <c r="AS5" s="134"/>
+      <c r="AT5" s="134"/>
+      <c r="AU5" s="134"/>
+      <c r="AV5" s="134"/>
+      <c r="AW5" s="134"/>
+      <c r="AX5" s="134"/>
+      <c r="AY5" s="134"/>
+      <c r="AZ5" s="134"/>
+      <c r="BA5" s="134"/>
+      <c r="BB5" s="134"/>
+      <c r="BC5" s="134"/>
+      <c r="BD5" s="134"/>
+      <c r="BE5" s="134"/>
+      <c r="BF5" s="134"/>
+      <c r="BG5" s="134"/>
+      <c r="BH5" s="134"/>
+      <c r="BI5" s="134"/>
+      <c r="BJ5" s="134"/>
+      <c r="BK5" s="134"/>
+      <c r="BL5" s="134"/>
+      <c r="BM5" s="134"/>
+      <c r="BN5" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="104" t="s">
+      <c r="BO5" s="129" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -38879,107 +38888,107 @@
       <c r="BU5" s="94"/>
     </row>
     <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="104"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="104"/>
-      <c r="F6" s="108" t="s">
+      <c r="B6" s="129"/>
+      <c r="C6" s="132"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="108"/>
-      <c r="H6" s="108"/>
-      <c r="I6" s="108"/>
-      <c r="J6" s="108"/>
-      <c r="K6" s="108" t="s">
+      <c r="G6" s="130"/>
+      <c r="H6" s="130"/>
+      <c r="I6" s="130"/>
+      <c r="J6" s="130"/>
+      <c r="K6" s="130" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="108"/>
-      <c r="M6" s="108"/>
-      <c r="N6" s="108"/>
-      <c r="O6" s="108"/>
-      <c r="P6" s="108" t="s">
+      <c r="L6" s="130"/>
+      <c r="M6" s="130"/>
+      <c r="N6" s="130"/>
+      <c r="O6" s="130"/>
+      <c r="P6" s="130" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="108"/>
-      <c r="R6" s="108"/>
-      <c r="S6" s="108"/>
-      <c r="T6" s="108"/>
-      <c r="U6" s="108" t="s">
+      <c r="Q6" s="130"/>
+      <c r="R6" s="130"/>
+      <c r="S6" s="130"/>
+      <c r="T6" s="130"/>
+      <c r="U6" s="130" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="108"/>
-      <c r="W6" s="108"/>
-      <c r="X6" s="108"/>
-      <c r="Y6" s="108"/>
-      <c r="Z6" s="108" t="s">
+      <c r="V6" s="130"/>
+      <c r="W6" s="130"/>
+      <c r="X6" s="130"/>
+      <c r="Y6" s="130"/>
+      <c r="Z6" s="130" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="108"/>
-      <c r="AB6" s="108"/>
-      <c r="AC6" s="108"/>
-      <c r="AD6" s="108"/>
-      <c r="AE6" s="108" t="s">
+      <c r="AA6" s="130"/>
+      <c r="AB6" s="130"/>
+      <c r="AC6" s="130"/>
+      <c r="AD6" s="130"/>
+      <c r="AE6" s="130" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="108"/>
-      <c r="AG6" s="108"/>
-      <c r="AH6" s="108"/>
-      <c r="AI6" s="108"/>
-      <c r="AJ6" s="108" t="s">
+      <c r="AF6" s="130"/>
+      <c r="AG6" s="130"/>
+      <c r="AH6" s="130"/>
+      <c r="AI6" s="130"/>
+      <c r="AJ6" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="108"/>
-      <c r="AL6" s="108"/>
-      <c r="AM6" s="108"/>
-      <c r="AN6" s="108"/>
-      <c r="AO6" s="108" t="s">
+      <c r="AK6" s="130"/>
+      <c r="AL6" s="130"/>
+      <c r="AM6" s="130"/>
+      <c r="AN6" s="130"/>
+      <c r="AO6" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="108"/>
-      <c r="AQ6" s="108"/>
-      <c r="AR6" s="108"/>
-      <c r="AS6" s="108"/>
-      <c r="AT6" s="108" t="s">
+      <c r="AP6" s="130"/>
+      <c r="AQ6" s="130"/>
+      <c r="AR6" s="130"/>
+      <c r="AS6" s="130"/>
+      <c r="AT6" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="108"/>
-      <c r="AV6" s="108"/>
-      <c r="AW6" s="108"/>
-      <c r="AX6" s="108"/>
-      <c r="AY6" s="108" t="s">
+      <c r="AU6" s="130"/>
+      <c r="AV6" s="130"/>
+      <c r="AW6" s="130"/>
+      <c r="AX6" s="130"/>
+      <c r="AY6" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="108"/>
-      <c r="BA6" s="108"/>
-      <c r="BB6" s="108"/>
-      <c r="BC6" s="108"/>
-      <c r="BD6" s="108" t="s">
+      <c r="AZ6" s="130"/>
+      <c r="BA6" s="130"/>
+      <c r="BB6" s="130"/>
+      <c r="BC6" s="130"/>
+      <c r="BD6" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="108"/>
-      <c r="BF6" s="108"/>
-      <c r="BG6" s="108"/>
-      <c r="BH6" s="108"/>
-      <c r="BI6" s="109" t="s">
+      <c r="BE6" s="130"/>
+      <c r="BF6" s="130"/>
+      <c r="BG6" s="130"/>
+      <c r="BH6" s="130"/>
+      <c r="BI6" s="135" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="109"/>
-      <c r="BK6" s="109"/>
-      <c r="BL6" s="109"/>
-      <c r="BM6" s="109"/>
-      <c r="BN6" s="110"/>
-      <c r="BO6" s="104"/>
+      <c r="BJ6" s="135"/>
+      <c r="BK6" s="135"/>
+      <c r="BL6" s="135"/>
+      <c r="BM6" s="135"/>
+      <c r="BN6" s="128"/>
+      <c r="BO6" s="129"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="123" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="111"/>
-      <c r="E7" s="112"/>
+      <c r="D7" s="123"/>
+      <c r="E7" s="124"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -40004,12 +40013,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="111"/>
+      <c r="B8" s="123"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="111"/>
-      <c r="E8" s="113"/>
+      <c r="D8" s="123"/>
+      <c r="E8" s="121"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -41033,14 +41042,14 @@
       <c r="AML8" s="23"/>
     </row>
     <row r="9" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="114" t="s">
+      <c r="B9" s="119" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="115"/>
-      <c r="E9" s="116"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="125"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
       <c r="H9" s="100"/>
@@ -42064,12 +42073,12 @@
       <c r="AML9" s="21"/>
     </row>
     <row r="10" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B10" s="114"/>
+      <c r="B10" s="119"/>
       <c r="C10" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="115"/>
-      <c r="E10" s="117"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="126"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -43093,12 +43102,12 @@
       <c r="AML10" s="21"/>
     </row>
     <row r="11" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="114"/>
+      <c r="B11" s="119"/>
       <c r="C11" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="115"/>
-      <c r="E11" s="117"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="126"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -44122,12 +44131,12 @@
       <c r="AML11" s="21"/>
     </row>
     <row r="12" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="114"/>
+      <c r="B12" s="119"/>
       <c r="C12" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="115"/>
-      <c r="E12" s="118"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="127"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -44192,14 +44201,14 @@
       <c r="BO12" s="31"/>
     </row>
     <row r="13" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B13" s="114" t="s">
+      <c r="B13" s="119" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="115"/>
-      <c r="E13" s="113"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="121"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -44264,12 +44273,12 @@
       <c r="BO13" s="20"/>
     </row>
     <row r="14" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B14" s="114"/>
+      <c r="B14" s="119"/>
       <c r="C14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="115"/>
-      <c r="E14" s="113"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="121"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -44334,12 +44343,12 @@
       <c r="BO14" s="31"/>
     </row>
     <row r="15" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="114"/>
+      <c r="B15" s="119"/>
       <c r="C15" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="115"/>
-      <c r="E15" s="113"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="121"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -44404,12 +44413,12 @@
       <c r="BO15" s="31"/>
     </row>
     <row r="16" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B16" s="114"/>
+      <c r="B16" s="119"/>
       <c r="C16" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="115"/>
-      <c r="E16" s="113"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="121"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -44474,12 +44483,12 @@
       <c r="BO16" s="31"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B17" s="114"/>
+      <c r="B17" s="119"/>
       <c r="C17" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="115"/>
-      <c r="E17" s="113"/>
+      <c r="D17" s="120"/>
+      <c r="E17" s="121"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -44544,12 +44553,12 @@
       <c r="BO17" s="31"/>
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B18" s="114"/>
+      <c r="B18" s="119"/>
       <c r="C18" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="115"/>
-      <c r="E18" s="113"/>
+      <c r="D18" s="120"/>
+      <c r="E18" s="121"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -44614,12 +44623,12 @@
       <c r="BO18" s="31"/>
     </row>
     <row r="19" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B19" s="114"/>
+      <c r="B19" s="119"/>
       <c r="C19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="115"/>
-      <c r="E19" s="113"/>
+      <c r="D19" s="120"/>
+      <c r="E19" s="121"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -44684,14 +44693,14 @@
       <c r="BO19" s="27"/>
     </row>
     <row r="20" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B20" s="119" t="s">
+      <c r="B20" s="122" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="111"/>
-      <c r="E20" s="120"/>
+      <c r="D20" s="123"/>
+      <c r="E20" s="112"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -44756,12 +44765,12 @@
       <c r="BO20" s="20"/>
     </row>
     <row r="21" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B21" s="119"/>
+      <c r="B21" s="122"/>
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="111"/>
-      <c r="E21" s="121"/>
+      <c r="D21" s="123"/>
+      <c r="E21" s="113"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -44826,12 +44835,12 @@
       <c r="BO21" s="31"/>
     </row>
     <row r="22" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B22" s="119"/>
+      <c r="B22" s="122"/>
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="111"/>
-      <c r="E22" s="121"/>
+      <c r="D22" s="123"/>
+      <c r="E22" s="113"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -44896,12 +44905,12 @@
       <c r="BO22" s="31"/>
     </row>
     <row r="23" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B23" s="119"/>
+      <c r="B23" s="122"/>
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="111"/>
-      <c r="E23" s="121"/>
+      <c r="D23" s="123"/>
+      <c r="E23" s="113"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -44966,12 +44975,12 @@
       <c r="BO23" s="31"/>
     </row>
     <row r="24" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B24" s="119"/>
+      <c r="B24" s="122"/>
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="111"/>
-      <c r="E24" s="121"/>
+      <c r="D24" s="123"/>
+      <c r="E24" s="113"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -45036,14 +45045,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="124" t="s">
+      <c r="B25" s="108" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="127"/>
-      <c r="E25" s="120"/>
+      <c r="D25" s="111"/>
+      <c r="E25" s="112"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -45108,12 +45117,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="125"/>
+      <c r="B26" s="109"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="127"/>
-      <c r="E26" s="121"/>
+      <c r="D26" s="111"/>
+      <c r="E26" s="113"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -45178,12 +45187,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="125"/>
+      <c r="B27" s="109"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="127"/>
-      <c r="E27" s="121"/>
+      <c r="D27" s="111"/>
+      <c r="E27" s="113"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -45248,12 +45257,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="125"/>
+      <c r="B28" s="109"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="127"/>
-      <c r="E28" s="121"/>
+      <c r="D28" s="111"/>
+      <c r="E28" s="113"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -45318,12 +45327,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="126"/>
+      <c r="B29" s="110"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="127"/>
-      <c r="E29" s="128"/>
+      <c r="D29" s="111"/>
+      <c r="E29" s="114"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -45460,10 +45469,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="129"/>
-      <c r="C31" s="120"/>
-      <c r="D31" s="132"/>
-      <c r="E31" s="129"/>
+      <c r="B31" s="115"/>
+      <c r="C31" s="112"/>
+      <c r="D31" s="118"/>
+      <c r="E31" s="115"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -45528,10 +45537,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="130"/>
-      <c r="C32" s="121"/>
-      <c r="D32" s="132"/>
-      <c r="E32" s="130"/>
+      <c r="B32" s="116"/>
+      <c r="C32" s="113"/>
+      <c r="D32" s="118"/>
+      <c r="E32" s="116"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -45596,10 +45605,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="130"/>
-      <c r="C33" s="121"/>
-      <c r="D33" s="132"/>
-      <c r="E33" s="130"/>
+      <c r="B33" s="116"/>
+      <c r="C33" s="113"/>
+      <c r="D33" s="118"/>
+      <c r="E33" s="116"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -45664,10 +45673,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="130"/>
-      <c r="C34" s="121"/>
-      <c r="D34" s="132"/>
-      <c r="E34" s="130"/>
+      <c r="B34" s="116"/>
+      <c r="C34" s="113"/>
+      <c r="D34" s="118"/>
+      <c r="E34" s="116"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -45732,10 +45741,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="130"/>
-      <c r="C35" s="121"/>
-      <c r="D35" s="132"/>
-      <c r="E35" s="130"/>
+      <c r="B35" s="116"/>
+      <c r="C35" s="113"/>
+      <c r="D35" s="118"/>
+      <c r="E35" s="116"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -45800,10 +45809,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="130"/>
-      <c r="C36" s="121"/>
-      <c r="D36" s="132"/>
-      <c r="E36" s="130"/>
+      <c r="B36" s="116"/>
+      <c r="C36" s="113"/>
+      <c r="D36" s="118"/>
+      <c r="E36" s="116"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -45868,10 +45877,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="130"/>
-      <c r="C37" s="121"/>
-      <c r="D37" s="132"/>
-      <c r="E37" s="130"/>
+      <c r="B37" s="116"/>
+      <c r="C37" s="113"/>
+      <c r="D37" s="118"/>
+      <c r="E37" s="116"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -45936,10 +45945,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="130"/>
-      <c r="C38" s="121"/>
-      <c r="D38" s="132"/>
-      <c r="E38" s="130"/>
+      <c r="B38" s="116"/>
+      <c r="C38" s="113"/>
+      <c r="D38" s="118"/>
+      <c r="E38" s="116"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -46004,10 +46013,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="130"/>
-      <c r="C39" s="121"/>
-      <c r="D39" s="132"/>
-      <c r="E39" s="130"/>
+      <c r="B39" s="116"/>
+      <c r="C39" s="113"/>
+      <c r="D39" s="118"/>
+      <c r="E39" s="116"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -46072,10 +46081,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="130"/>
-      <c r="C40" s="121"/>
-      <c r="D40" s="132"/>
-      <c r="E40" s="130"/>
+      <c r="B40" s="116"/>
+      <c r="C40" s="113"/>
+      <c r="D40" s="118"/>
+      <c r="E40" s="116"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -46140,10 +46149,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="130"/>
-      <c r="C41" s="121"/>
-      <c r="D41" s="132"/>
-      <c r="E41" s="130"/>
+      <c r="B41" s="116"/>
+      <c r="C41" s="113"/>
+      <c r="D41" s="118"/>
+      <c r="E41" s="116"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -46208,10 +46217,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="130"/>
-      <c r="C42" s="121"/>
-      <c r="D42" s="132"/>
-      <c r="E42" s="130"/>
+      <c r="B42" s="116"/>
+      <c r="C42" s="113"/>
+      <c r="D42" s="118"/>
+      <c r="E42" s="116"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -46276,10 +46285,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="130"/>
-      <c r="C43" s="121"/>
-      <c r="D43" s="132"/>
-      <c r="E43" s="130"/>
+      <c r="B43" s="116"/>
+      <c r="C43" s="113"/>
+      <c r="D43" s="118"/>
+      <c r="E43" s="116"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -46344,10 +46353,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="130"/>
-      <c r="C44" s="121"/>
-      <c r="D44" s="132"/>
-      <c r="E44" s="130"/>
+      <c r="B44" s="116"/>
+      <c r="C44" s="113"/>
+      <c r="D44" s="118"/>
+      <c r="E44" s="116"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -46412,10 +46421,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="130"/>
-      <c r="C45" s="121"/>
-      <c r="D45" s="132"/>
-      <c r="E45" s="130"/>
+      <c r="B45" s="116"/>
+      <c r="C45" s="113"/>
+      <c r="D45" s="118"/>
+      <c r="E45" s="116"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -46480,10 +46489,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="130"/>
-      <c r="C46" s="121"/>
-      <c r="D46" s="132"/>
-      <c r="E46" s="130"/>
+      <c r="B46" s="116"/>
+      <c r="C46" s="113"/>
+      <c r="D46" s="118"/>
+      <c r="E46" s="116"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -46548,10 +46557,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="130"/>
-      <c r="C47" s="121"/>
-      <c r="D47" s="132"/>
-      <c r="E47" s="130"/>
+      <c r="B47" s="116"/>
+      <c r="C47" s="113"/>
+      <c r="D47" s="118"/>
+      <c r="E47" s="116"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -46616,10 +46625,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="130"/>
-      <c r="C48" s="121"/>
-      <c r="D48" s="132"/>
-      <c r="E48" s="130"/>
+      <c r="B48" s="116"/>
+      <c r="C48" s="113"/>
+      <c r="D48" s="118"/>
+      <c r="E48" s="116"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -46684,10 +46693,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="130"/>
-      <c r="C49" s="121"/>
-      <c r="D49" s="132"/>
-      <c r="E49" s="130"/>
+      <c r="B49" s="116"/>
+      <c r="C49" s="113"/>
+      <c r="D49" s="118"/>
+      <c r="E49" s="116"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -46752,10 +46761,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="130"/>
-      <c r="C50" s="121"/>
-      <c r="D50" s="132"/>
-      <c r="E50" s="130"/>
+      <c r="B50" s="116"/>
+      <c r="C50" s="113"/>
+      <c r="D50" s="118"/>
+      <c r="E50" s="116"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -46820,10 +46829,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="130"/>
-      <c r="C51" s="121"/>
-      <c r="D51" s="132"/>
-      <c r="E51" s="130"/>
+      <c r="B51" s="116"/>
+      <c r="C51" s="113"/>
+      <c r="D51" s="118"/>
+      <c r="E51" s="116"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -46888,10 +46897,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="130"/>
-      <c r="C52" s="121"/>
-      <c r="D52" s="132"/>
-      <c r="E52" s="130"/>
+      <c r="B52" s="116"/>
+      <c r="C52" s="113"/>
+      <c r="D52" s="118"/>
+      <c r="E52" s="116"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -46956,10 +46965,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="130"/>
-      <c r="C53" s="121"/>
-      <c r="D53" s="132"/>
-      <c r="E53" s="130"/>
+      <c r="B53" s="116"/>
+      <c r="C53" s="113"/>
+      <c r="D53" s="118"/>
+      <c r="E53" s="116"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -47024,10 +47033,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="130"/>
-      <c r="C54" s="121"/>
-      <c r="D54" s="132"/>
-      <c r="E54" s="130"/>
+      <c r="B54" s="116"/>
+      <c r="C54" s="113"/>
+      <c r="D54" s="118"/>
+      <c r="E54" s="116"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -47092,10 +47101,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="130"/>
-      <c r="C55" s="121"/>
-      <c r="D55" s="132"/>
-      <c r="E55" s="130"/>
+      <c r="B55" s="116"/>
+      <c r="C55" s="113"/>
+      <c r="D55" s="118"/>
+      <c r="E55" s="116"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -47160,10 +47169,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="130"/>
-      <c r="C56" s="121"/>
-      <c r="D56" s="132"/>
-      <c r="E56" s="130"/>
+      <c r="B56" s="116"/>
+      <c r="C56" s="113"/>
+      <c r="D56" s="118"/>
+      <c r="E56" s="116"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -47228,10 +47237,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="130"/>
-      <c r="C57" s="121"/>
-      <c r="D57" s="132"/>
-      <c r="E57" s="130"/>
+      <c r="B57" s="116"/>
+      <c r="C57" s="113"/>
+      <c r="D57" s="118"/>
+      <c r="E57" s="116"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -47291,10 +47300,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="131"/>
-      <c r="C58" s="128"/>
-      <c r="D58" s="132"/>
-      <c r="E58" s="131"/>
+      <c r="B58" s="117"/>
+      <c r="C58" s="114"/>
+      <c r="D58" s="118"/>
+      <c r="E58" s="117"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -47359,7 +47368,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="122" t="s">
+      <c r="B59" s="106" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -47431,7 +47440,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="122"/>
+      <c r="B60" s="106"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -47501,7 +47510,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="123" t="s">
+      <c r="B61" s="107" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -47573,7 +47582,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="123"/>
+      <c r="B62" s="107"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -47641,7 +47650,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="123"/>
+      <c r="B63" s="107"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -47850,27 +47859,16 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="E31:E58"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:BM5"/>
+    <mergeCell ref="AT6:AX6"/>
+    <mergeCell ref="AY6:BC6"/>
+    <mergeCell ref="BD6:BH6"/>
+    <mergeCell ref="BI6:BM6"/>
     <mergeCell ref="BN5:BN6"/>
     <mergeCell ref="BO5:BO6"/>
     <mergeCell ref="F6:J6"/>
@@ -47881,16 +47879,27 @@
     <mergeCell ref="AE6:AI6"/>
     <mergeCell ref="AJ6:AN6"/>
     <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:BM5"/>
-    <mergeCell ref="AT6:AX6"/>
-    <mergeCell ref="AY6:BC6"/>
-    <mergeCell ref="BD6:BH6"/>
-    <mergeCell ref="BI6:BM6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="E31:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -47905,31 +47914,31 @@
       <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="1" max="1" width="9.125" style="4"/>
     <col min="2" max="2" width="28" style="3" customWidth="1"/>
-    <col min="3" max="3" width="65.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="65.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="2" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" style="2" customWidth="1"/>
-    <col min="6" max="65" width="2.28515625" style="3" customWidth="1"/>
-    <col min="66" max="69" width="9.140625" style="3"/>
+    <col min="5" max="5" width="29.125" style="2" customWidth="1"/>
+    <col min="6" max="65" width="2.25" style="3" customWidth="1"/>
+    <col min="66" max="69" width="9.125" style="3"/>
     <col min="70" max="70" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="14.85546875" style="3" customWidth="1"/>
+    <col min="71" max="71" width="14.875" style="3" customWidth="1"/>
     <col min="72" max="72" width="13" style="3" customWidth="1"/>
-    <col min="73" max="73" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="74" max="1026" width="9.140625" style="3"/>
-    <col min="1027" max="16384" width="9.140625" style="4"/>
+    <col min="73" max="73" width="13.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="74" max="1026" width="9.125" style="3"/>
+    <col min="1027" max="16384" width="9.125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="103" t="s">
+      <c r="B1" s="131" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
     </row>
     <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
@@ -48095,84 +48104,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="104" t="s">
+      <c r="B5" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="105" t="s">
+      <c r="C5" s="132" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="106" t="s">
+      <c r="D5" s="133" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="104" t="s">
+      <c r="E5" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="107" t="s">
+      <c r="F5" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
-      <c r="J5" s="107"/>
-      <c r="K5" s="107"/>
-      <c r="L5" s="107"/>
-      <c r="M5" s="107"/>
-      <c r="N5" s="107"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="107"/>
-      <c r="T5" s="107"/>
-      <c r="U5" s="107"/>
-      <c r="V5" s="107"/>
-      <c r="W5" s="107"/>
-      <c r="X5" s="107"/>
-      <c r="Y5" s="107"/>
-      <c r="Z5" s="107"/>
-      <c r="AA5" s="107"/>
-      <c r="AB5" s="107"/>
-      <c r="AC5" s="107"/>
-      <c r="AD5" s="107"/>
-      <c r="AE5" s="107"/>
-      <c r="AF5" s="107"/>
-      <c r="AG5" s="107"/>
-      <c r="AH5" s="107"/>
-      <c r="AI5" s="107"/>
-      <c r="AJ5" s="107"/>
-      <c r="AK5" s="107"/>
-      <c r="AL5" s="107"/>
-      <c r="AM5" s="107"/>
-      <c r="AN5" s="107"/>
-      <c r="AO5" s="107"/>
-      <c r="AP5" s="107"/>
-      <c r="AQ5" s="107"/>
-      <c r="AR5" s="107"/>
-      <c r="AS5" s="107"/>
-      <c r="AT5" s="107"/>
-      <c r="AU5" s="107"/>
-      <c r="AV5" s="107"/>
-      <c r="AW5" s="107"/>
-      <c r="AX5" s="107"/>
-      <c r="AY5" s="107"/>
-      <c r="AZ5" s="107"/>
-      <c r="BA5" s="107"/>
-      <c r="BB5" s="107"/>
-      <c r="BC5" s="107"/>
-      <c r="BD5" s="107"/>
-      <c r="BE5" s="107"/>
-      <c r="BF5" s="107"/>
-      <c r="BG5" s="107"/>
-      <c r="BH5" s="107"/>
-      <c r="BI5" s="107"/>
-      <c r="BJ5" s="107"/>
-      <c r="BK5" s="107"/>
-      <c r="BL5" s="107"/>
-      <c r="BM5" s="107"/>
-      <c r="BN5" s="110" t="s">
+      <c r="G5" s="134"/>
+      <c r="H5" s="134"/>
+      <c r="I5" s="134"/>
+      <c r="J5" s="134"/>
+      <c r="K5" s="134"/>
+      <c r="L5" s="134"/>
+      <c r="M5" s="134"/>
+      <c r="N5" s="134"/>
+      <c r="O5" s="134"/>
+      <c r="P5" s="134"/>
+      <c r="Q5" s="134"/>
+      <c r="R5" s="134"/>
+      <c r="S5" s="134"/>
+      <c r="T5" s="134"/>
+      <c r="U5" s="134"/>
+      <c r="V5" s="134"/>
+      <c r="W5" s="134"/>
+      <c r="X5" s="134"/>
+      <c r="Y5" s="134"/>
+      <c r="Z5" s="134"/>
+      <c r="AA5" s="134"/>
+      <c r="AB5" s="134"/>
+      <c r="AC5" s="134"/>
+      <c r="AD5" s="134"/>
+      <c r="AE5" s="134"/>
+      <c r="AF5" s="134"/>
+      <c r="AG5" s="134"/>
+      <c r="AH5" s="134"/>
+      <c r="AI5" s="134"/>
+      <c r="AJ5" s="134"/>
+      <c r="AK5" s="134"/>
+      <c r="AL5" s="134"/>
+      <c r="AM5" s="134"/>
+      <c r="AN5" s="134"/>
+      <c r="AO5" s="134"/>
+      <c r="AP5" s="134"/>
+      <c r="AQ5" s="134"/>
+      <c r="AR5" s="134"/>
+      <c r="AS5" s="134"/>
+      <c r="AT5" s="134"/>
+      <c r="AU5" s="134"/>
+      <c r="AV5" s="134"/>
+      <c r="AW5" s="134"/>
+      <c r="AX5" s="134"/>
+      <c r="AY5" s="134"/>
+      <c r="AZ5" s="134"/>
+      <c r="BA5" s="134"/>
+      <c r="BB5" s="134"/>
+      <c r="BC5" s="134"/>
+      <c r="BD5" s="134"/>
+      <c r="BE5" s="134"/>
+      <c r="BF5" s="134"/>
+      <c r="BG5" s="134"/>
+      <c r="BH5" s="134"/>
+      <c r="BI5" s="134"/>
+      <c r="BJ5" s="134"/>
+      <c r="BK5" s="134"/>
+      <c r="BL5" s="134"/>
+      <c r="BM5" s="134"/>
+      <c r="BN5" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="104" t="s">
+      <c r="BO5" s="129" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -48181,107 +48190,107 @@
       <c r="BU5" s="94"/>
     </row>
     <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="104"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="104"/>
-      <c r="F6" s="108" t="s">
+      <c r="B6" s="129"/>
+      <c r="C6" s="132"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="108"/>
-      <c r="H6" s="108"/>
-      <c r="I6" s="108"/>
-      <c r="J6" s="108"/>
-      <c r="K6" s="108" t="s">
+      <c r="G6" s="130"/>
+      <c r="H6" s="130"/>
+      <c r="I6" s="130"/>
+      <c r="J6" s="130"/>
+      <c r="K6" s="130" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="108"/>
-      <c r="M6" s="108"/>
-      <c r="N6" s="108"/>
-      <c r="O6" s="108"/>
-      <c r="P6" s="108" t="s">
+      <c r="L6" s="130"/>
+      <c r="M6" s="130"/>
+      <c r="N6" s="130"/>
+      <c r="O6" s="130"/>
+      <c r="P6" s="130" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="108"/>
-      <c r="R6" s="108"/>
-      <c r="S6" s="108"/>
-      <c r="T6" s="108"/>
-      <c r="U6" s="108" t="s">
+      <c r="Q6" s="130"/>
+      <c r="R6" s="130"/>
+      <c r="S6" s="130"/>
+      <c r="T6" s="130"/>
+      <c r="U6" s="130" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="108"/>
-      <c r="W6" s="108"/>
-      <c r="X6" s="108"/>
-      <c r="Y6" s="108"/>
-      <c r="Z6" s="108" t="s">
+      <c r="V6" s="130"/>
+      <c r="W6" s="130"/>
+      <c r="X6" s="130"/>
+      <c r="Y6" s="130"/>
+      <c r="Z6" s="130" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="108"/>
-      <c r="AB6" s="108"/>
-      <c r="AC6" s="108"/>
-      <c r="AD6" s="108"/>
-      <c r="AE6" s="108" t="s">
+      <c r="AA6" s="130"/>
+      <c r="AB6" s="130"/>
+      <c r="AC6" s="130"/>
+      <c r="AD6" s="130"/>
+      <c r="AE6" s="130" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="108"/>
-      <c r="AG6" s="108"/>
-      <c r="AH6" s="108"/>
-      <c r="AI6" s="108"/>
-      <c r="AJ6" s="108" t="s">
+      <c r="AF6" s="130"/>
+      <c r="AG6" s="130"/>
+      <c r="AH6" s="130"/>
+      <c r="AI6" s="130"/>
+      <c r="AJ6" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="108"/>
-      <c r="AL6" s="108"/>
-      <c r="AM6" s="108"/>
-      <c r="AN6" s="108"/>
-      <c r="AO6" s="108" t="s">
+      <c r="AK6" s="130"/>
+      <c r="AL6" s="130"/>
+      <c r="AM6" s="130"/>
+      <c r="AN6" s="130"/>
+      <c r="AO6" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="108"/>
-      <c r="AQ6" s="108"/>
-      <c r="AR6" s="108"/>
-      <c r="AS6" s="108"/>
-      <c r="AT6" s="108" t="s">
+      <c r="AP6" s="130"/>
+      <c r="AQ6" s="130"/>
+      <c r="AR6" s="130"/>
+      <c r="AS6" s="130"/>
+      <c r="AT6" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="108"/>
-      <c r="AV6" s="108"/>
-      <c r="AW6" s="108"/>
-      <c r="AX6" s="108"/>
-      <c r="AY6" s="108" t="s">
+      <c r="AU6" s="130"/>
+      <c r="AV6" s="130"/>
+      <c r="AW6" s="130"/>
+      <c r="AX6" s="130"/>
+      <c r="AY6" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="108"/>
-      <c r="BA6" s="108"/>
-      <c r="BB6" s="108"/>
-      <c r="BC6" s="108"/>
-      <c r="BD6" s="108" t="s">
+      <c r="AZ6" s="130"/>
+      <c r="BA6" s="130"/>
+      <c r="BB6" s="130"/>
+      <c r="BC6" s="130"/>
+      <c r="BD6" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="108"/>
-      <c r="BF6" s="108"/>
-      <c r="BG6" s="108"/>
-      <c r="BH6" s="108"/>
-      <c r="BI6" s="109" t="s">
+      <c r="BE6" s="130"/>
+      <c r="BF6" s="130"/>
+      <c r="BG6" s="130"/>
+      <c r="BH6" s="130"/>
+      <c r="BI6" s="135" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="109"/>
-      <c r="BK6" s="109"/>
-      <c r="BL6" s="109"/>
-      <c r="BM6" s="109"/>
-      <c r="BN6" s="110"/>
-      <c r="BO6" s="104"/>
+      <c r="BJ6" s="135"/>
+      <c r="BK6" s="135"/>
+      <c r="BL6" s="135"/>
+      <c r="BM6" s="135"/>
+      <c r="BN6" s="128"/>
+      <c r="BO6" s="129"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="123" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="111"/>
-      <c r="E7" s="112"/>
+      <c r="D7" s="123"/>
+      <c r="E7" s="124"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -49306,12 +49315,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="111"/>
+      <c r="B8" s="123"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="111"/>
-      <c r="E8" s="113"/>
+      <c r="D8" s="123"/>
+      <c r="E8" s="121"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -50335,14 +50344,14 @@
       <c r="AML8" s="23"/>
     </row>
     <row r="9" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="114" t="s">
+      <c r="B9" s="119" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="115"/>
-      <c r="E9" s="116"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="125"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
       <c r="H9" s="83"/>
@@ -51366,12 +51375,12 @@
       <c r="AML9" s="21"/>
     </row>
     <row r="10" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B10" s="114"/>
+      <c r="B10" s="119"/>
       <c r="C10" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="115"/>
-      <c r="E10" s="117"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="126"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -52395,12 +52404,12 @@
       <c r="AML10" s="21"/>
     </row>
     <row r="11" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="114"/>
+      <c r="B11" s="119"/>
       <c r="C11" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="115"/>
-      <c r="E11" s="117"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="126"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -53424,12 +53433,12 @@
       <c r="AML11" s="21"/>
     </row>
     <row r="12" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="114"/>
+      <c r="B12" s="119"/>
       <c r="C12" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="115"/>
-      <c r="E12" s="118"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="127"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -53494,14 +53503,14 @@
       <c r="BO12" s="31"/>
     </row>
     <row r="13" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B13" s="114" t="s">
+      <c r="B13" s="119" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="115"/>
-      <c r="E13" s="113"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="121"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -53566,12 +53575,12 @@
       <c r="BO13" s="20"/>
     </row>
     <row r="14" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B14" s="114"/>
+      <c r="B14" s="119"/>
       <c r="C14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="115"/>
-      <c r="E14" s="113"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="121"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -53636,12 +53645,12 @@
       <c r="BO14" s="31"/>
     </row>
     <row r="15" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="114"/>
+      <c r="B15" s="119"/>
       <c r="C15" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="115"/>
-      <c r="E15" s="113"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="121"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -53706,12 +53715,12 @@
       <c r="BO15" s="31"/>
     </row>
     <row r="16" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B16" s="114"/>
+      <c r="B16" s="119"/>
       <c r="C16" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="115"/>
-      <c r="E16" s="113"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="121"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -53776,12 +53785,12 @@
       <c r="BO16" s="31"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B17" s="114"/>
+      <c r="B17" s="119"/>
       <c r="C17" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="115"/>
-      <c r="E17" s="113"/>
+      <c r="D17" s="120"/>
+      <c r="E17" s="121"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -53846,12 +53855,12 @@
       <c r="BO17" s="31"/>
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B18" s="114"/>
+      <c r="B18" s="119"/>
       <c r="C18" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="115"/>
-      <c r="E18" s="113"/>
+      <c r="D18" s="120"/>
+      <c r="E18" s="121"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -53916,12 +53925,12 @@
       <c r="BO18" s="31"/>
     </row>
     <row r="19" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B19" s="114"/>
+      <c r="B19" s="119"/>
       <c r="C19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="115"/>
-      <c r="E19" s="113"/>
+      <c r="D19" s="120"/>
+      <c r="E19" s="121"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -53986,14 +53995,14 @@
       <c r="BO19" s="27"/>
     </row>
     <row r="20" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B20" s="119" t="s">
+      <c r="B20" s="122" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="111"/>
-      <c r="E20" s="120"/>
+      <c r="D20" s="123"/>
+      <c r="E20" s="112"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -54058,12 +54067,12 @@
       <c r="BO20" s="20"/>
     </row>
     <row r="21" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B21" s="119"/>
+      <c r="B21" s="122"/>
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="111"/>
-      <c r="E21" s="121"/>
+      <c r="D21" s="123"/>
+      <c r="E21" s="113"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -54128,12 +54137,12 @@
       <c r="BO21" s="31"/>
     </row>
     <row r="22" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B22" s="119"/>
+      <c r="B22" s="122"/>
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="111"/>
-      <c r="E22" s="121"/>
+      <c r="D22" s="123"/>
+      <c r="E22" s="113"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -54198,12 +54207,12 @@
       <c r="BO22" s="31"/>
     </row>
     <row r="23" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B23" s="119"/>
+      <c r="B23" s="122"/>
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="111"/>
-      <c r="E23" s="121"/>
+      <c r="D23" s="123"/>
+      <c r="E23" s="113"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -54268,12 +54277,12 @@
       <c r="BO23" s="31"/>
     </row>
     <row r="24" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B24" s="119"/>
+      <c r="B24" s="122"/>
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="111"/>
-      <c r="E24" s="121"/>
+      <c r="D24" s="123"/>
+      <c r="E24" s="113"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -54338,14 +54347,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="124" t="s">
+      <c r="B25" s="108" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="127"/>
-      <c r="E25" s="120"/>
+      <c r="D25" s="111"/>
+      <c r="E25" s="112"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -54410,12 +54419,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="125"/>
+      <c r="B26" s="109"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="127"/>
-      <c r="E26" s="121"/>
+      <c r="D26" s="111"/>
+      <c r="E26" s="113"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -54480,12 +54489,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="125"/>
+      <c r="B27" s="109"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="127"/>
-      <c r="E27" s="121"/>
+      <c r="D27" s="111"/>
+      <c r="E27" s="113"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -54550,12 +54559,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="125"/>
+      <c r="B28" s="109"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="127"/>
-      <c r="E28" s="121"/>
+      <c r="D28" s="111"/>
+      <c r="E28" s="113"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -54620,12 +54629,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="126"/>
+      <c r="B29" s="110"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="127"/>
-      <c r="E29" s="128"/>
+      <c r="D29" s="111"/>
+      <c r="E29" s="114"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -54762,10 +54771,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="129"/>
-      <c r="C31" s="120"/>
-      <c r="D31" s="132"/>
-      <c r="E31" s="129"/>
+      <c r="B31" s="115"/>
+      <c r="C31" s="112"/>
+      <c r="D31" s="118"/>
+      <c r="E31" s="115"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -54830,10 +54839,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="130"/>
-      <c r="C32" s="121"/>
-      <c r="D32" s="132"/>
-      <c r="E32" s="130"/>
+      <c r="B32" s="116"/>
+      <c r="C32" s="113"/>
+      <c r="D32" s="118"/>
+      <c r="E32" s="116"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -54898,10 +54907,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="130"/>
-      <c r="C33" s="121"/>
-      <c r="D33" s="132"/>
-      <c r="E33" s="130"/>
+      <c r="B33" s="116"/>
+      <c r="C33" s="113"/>
+      <c r="D33" s="118"/>
+      <c r="E33" s="116"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -54966,10 +54975,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="130"/>
-      <c r="C34" s="121"/>
-      <c r="D34" s="132"/>
-      <c r="E34" s="130"/>
+      <c r="B34" s="116"/>
+      <c r="C34" s="113"/>
+      <c r="D34" s="118"/>
+      <c r="E34" s="116"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -55034,10 +55043,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="130"/>
-      <c r="C35" s="121"/>
-      <c r="D35" s="132"/>
-      <c r="E35" s="130"/>
+      <c r="B35" s="116"/>
+      <c r="C35" s="113"/>
+      <c r="D35" s="118"/>
+      <c r="E35" s="116"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -55102,10 +55111,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="130"/>
-      <c r="C36" s="121"/>
-      <c r="D36" s="132"/>
-      <c r="E36" s="130"/>
+      <c r="B36" s="116"/>
+      <c r="C36" s="113"/>
+      <c r="D36" s="118"/>
+      <c r="E36" s="116"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -55170,10 +55179,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="130"/>
-      <c r="C37" s="121"/>
-      <c r="D37" s="132"/>
-      <c r="E37" s="130"/>
+      <c r="B37" s="116"/>
+      <c r="C37" s="113"/>
+      <c r="D37" s="118"/>
+      <c r="E37" s="116"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -55238,10 +55247,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="130"/>
-      <c r="C38" s="121"/>
-      <c r="D38" s="132"/>
-      <c r="E38" s="130"/>
+      <c r="B38" s="116"/>
+      <c r="C38" s="113"/>
+      <c r="D38" s="118"/>
+      <c r="E38" s="116"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -55306,10 +55315,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="130"/>
-      <c r="C39" s="121"/>
-      <c r="D39" s="132"/>
-      <c r="E39" s="130"/>
+      <c r="B39" s="116"/>
+      <c r="C39" s="113"/>
+      <c r="D39" s="118"/>
+      <c r="E39" s="116"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -55374,10 +55383,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="130"/>
-      <c r="C40" s="121"/>
-      <c r="D40" s="132"/>
-      <c r="E40" s="130"/>
+      <c r="B40" s="116"/>
+      <c r="C40" s="113"/>
+      <c r="D40" s="118"/>
+      <c r="E40" s="116"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -55442,10 +55451,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="130"/>
-      <c r="C41" s="121"/>
-      <c r="D41" s="132"/>
-      <c r="E41" s="130"/>
+      <c r="B41" s="116"/>
+      <c r="C41" s="113"/>
+      <c r="D41" s="118"/>
+      <c r="E41" s="116"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -55510,10 +55519,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="130"/>
-      <c r="C42" s="121"/>
-      <c r="D42" s="132"/>
-      <c r="E42" s="130"/>
+      <c r="B42" s="116"/>
+      <c r="C42" s="113"/>
+      <c r="D42" s="118"/>
+      <c r="E42" s="116"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -55578,10 +55587,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="130"/>
-      <c r="C43" s="121"/>
-      <c r="D43" s="132"/>
-      <c r="E43" s="130"/>
+      <c r="B43" s="116"/>
+      <c r="C43" s="113"/>
+      <c r="D43" s="118"/>
+      <c r="E43" s="116"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -55646,10 +55655,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="130"/>
-      <c r="C44" s="121"/>
-      <c r="D44" s="132"/>
-      <c r="E44" s="130"/>
+      <c r="B44" s="116"/>
+      <c r="C44" s="113"/>
+      <c r="D44" s="118"/>
+      <c r="E44" s="116"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -55714,10 +55723,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="130"/>
-      <c r="C45" s="121"/>
-      <c r="D45" s="132"/>
-      <c r="E45" s="130"/>
+      <c r="B45" s="116"/>
+      <c r="C45" s="113"/>
+      <c r="D45" s="118"/>
+      <c r="E45" s="116"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -55782,10 +55791,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="130"/>
-      <c r="C46" s="121"/>
-      <c r="D46" s="132"/>
-      <c r="E46" s="130"/>
+      <c r="B46" s="116"/>
+      <c r="C46" s="113"/>
+      <c r="D46" s="118"/>
+      <c r="E46" s="116"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -55850,10 +55859,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="130"/>
-      <c r="C47" s="121"/>
-      <c r="D47" s="132"/>
-      <c r="E47" s="130"/>
+      <c r="B47" s="116"/>
+      <c r="C47" s="113"/>
+      <c r="D47" s="118"/>
+      <c r="E47" s="116"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -55918,10 +55927,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="130"/>
-      <c r="C48" s="121"/>
-      <c r="D48" s="132"/>
-      <c r="E48" s="130"/>
+      <c r="B48" s="116"/>
+      <c r="C48" s="113"/>
+      <c r="D48" s="118"/>
+      <c r="E48" s="116"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -55986,10 +55995,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="130"/>
-      <c r="C49" s="121"/>
-      <c r="D49" s="132"/>
-      <c r="E49" s="130"/>
+      <c r="B49" s="116"/>
+      <c r="C49" s="113"/>
+      <c r="D49" s="118"/>
+      <c r="E49" s="116"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -56054,10 +56063,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="130"/>
-      <c r="C50" s="121"/>
-      <c r="D50" s="132"/>
-      <c r="E50" s="130"/>
+      <c r="B50" s="116"/>
+      <c r="C50" s="113"/>
+      <c r="D50" s="118"/>
+      <c r="E50" s="116"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -56122,10 +56131,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="130"/>
-      <c r="C51" s="121"/>
-      <c r="D51" s="132"/>
-      <c r="E51" s="130"/>
+      <c r="B51" s="116"/>
+      <c r="C51" s="113"/>
+      <c r="D51" s="118"/>
+      <c r="E51" s="116"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -56190,10 +56199,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="130"/>
-      <c r="C52" s="121"/>
-      <c r="D52" s="132"/>
-      <c r="E52" s="130"/>
+      <c r="B52" s="116"/>
+      <c r="C52" s="113"/>
+      <c r="D52" s="118"/>
+      <c r="E52" s="116"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -56258,10 +56267,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="130"/>
-      <c r="C53" s="121"/>
-      <c r="D53" s="132"/>
-      <c r="E53" s="130"/>
+      <c r="B53" s="116"/>
+      <c r="C53" s="113"/>
+      <c r="D53" s="118"/>
+      <c r="E53" s="116"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -56326,10 +56335,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="130"/>
-      <c r="C54" s="121"/>
-      <c r="D54" s="132"/>
-      <c r="E54" s="130"/>
+      <c r="B54" s="116"/>
+      <c r="C54" s="113"/>
+      <c r="D54" s="118"/>
+      <c r="E54" s="116"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -56394,10 +56403,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="130"/>
-      <c r="C55" s="121"/>
-      <c r="D55" s="132"/>
-      <c r="E55" s="130"/>
+      <c r="B55" s="116"/>
+      <c r="C55" s="113"/>
+      <c r="D55" s="118"/>
+      <c r="E55" s="116"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -56462,10 +56471,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="130"/>
-      <c r="C56" s="121"/>
-      <c r="D56" s="132"/>
-      <c r="E56" s="130"/>
+      <c r="B56" s="116"/>
+      <c r="C56" s="113"/>
+      <c r="D56" s="118"/>
+      <c r="E56" s="116"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -56530,10 +56539,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="130"/>
-      <c r="C57" s="121"/>
-      <c r="D57" s="132"/>
-      <c r="E57" s="130"/>
+      <c r="B57" s="116"/>
+      <c r="C57" s="113"/>
+      <c r="D57" s="118"/>
+      <c r="E57" s="116"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -56593,10 +56602,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="131"/>
-      <c r="C58" s="128"/>
-      <c r="D58" s="132"/>
-      <c r="E58" s="131"/>
+      <c r="B58" s="117"/>
+      <c r="C58" s="114"/>
+      <c r="D58" s="118"/>
+      <c r="E58" s="117"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -56661,7 +56670,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="122" t="s">
+      <c r="B59" s="106" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -56733,7 +56742,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="122"/>
+      <c r="B60" s="106"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -56803,7 +56812,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="123" t="s">
+      <c r="B61" s="107" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -56875,7 +56884,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="123"/>
+      <c r="B62" s="107"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -56943,7 +56952,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="123"/>
+      <c r="B63" s="107"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -57152,27 +57161,16 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="E31:E58"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:BM5"/>
+    <mergeCell ref="AT6:AX6"/>
+    <mergeCell ref="AY6:BC6"/>
+    <mergeCell ref="BD6:BH6"/>
+    <mergeCell ref="BI6:BM6"/>
     <mergeCell ref="BN5:BN6"/>
     <mergeCell ref="BO5:BO6"/>
     <mergeCell ref="F6:J6"/>
@@ -57183,16 +57181,27 @@
     <mergeCell ref="AE6:AI6"/>
     <mergeCell ref="AJ6:AN6"/>
     <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:BM5"/>
-    <mergeCell ref="AT6:AX6"/>
-    <mergeCell ref="AY6:BC6"/>
-    <mergeCell ref="BD6:BH6"/>
-    <mergeCell ref="BI6:BM6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="E31:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -57202,35 +57211,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AML65"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F1"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="1" max="1" width="9.125" style="4"/>
     <col min="2" max="2" width="28" style="3" customWidth="1"/>
-    <col min="3" max="3" width="65.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="65.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="2" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" style="2" customWidth="1"/>
-    <col min="6" max="65" width="2.28515625" style="3" customWidth="1"/>
-    <col min="66" max="69" width="9.140625" style="3"/>
+    <col min="5" max="5" width="29.125" style="2" customWidth="1"/>
+    <col min="6" max="65" width="2.25" style="3" customWidth="1"/>
+    <col min="66" max="69" width="9.125" style="3"/>
     <col min="70" max="70" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="14.85546875" style="3" customWidth="1"/>
+    <col min="71" max="71" width="14.875" style="3" customWidth="1"/>
     <col min="72" max="72" width="13" style="3" customWidth="1"/>
-    <col min="73" max="73" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="74" max="1026" width="9.140625" style="3"/>
-    <col min="1027" max="16384" width="9.140625" style="4"/>
+    <col min="73" max="73" width="13.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="74" max="1026" width="9.125" style="3"/>
+    <col min="1027" max="16384" width="9.125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="103" t="s">
+      <c r="B1" s="131" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
     </row>
     <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
@@ -57396,84 +57405,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="104" t="s">
+      <c r="B5" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="105" t="s">
+      <c r="C5" s="132" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="106" t="s">
+      <c r="D5" s="133" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="104" t="s">
+      <c r="E5" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="107" t="s">
+      <c r="F5" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
-      <c r="J5" s="107"/>
-      <c r="K5" s="107"/>
-      <c r="L5" s="107"/>
-      <c r="M5" s="107"/>
-      <c r="N5" s="107"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="107"/>
-      <c r="T5" s="107"/>
-      <c r="U5" s="107"/>
-      <c r="V5" s="107"/>
-      <c r="W5" s="107"/>
-      <c r="X5" s="107"/>
-      <c r="Y5" s="107"/>
-      <c r="Z5" s="107"/>
-      <c r="AA5" s="107"/>
-      <c r="AB5" s="107"/>
-      <c r="AC5" s="107"/>
-      <c r="AD5" s="107"/>
-      <c r="AE5" s="107"/>
-      <c r="AF5" s="107"/>
-      <c r="AG5" s="107"/>
-      <c r="AH5" s="107"/>
-      <c r="AI5" s="107"/>
-      <c r="AJ5" s="107"/>
-      <c r="AK5" s="107"/>
-      <c r="AL5" s="107"/>
-      <c r="AM5" s="107"/>
-      <c r="AN5" s="107"/>
-      <c r="AO5" s="107"/>
-      <c r="AP5" s="107"/>
-      <c r="AQ5" s="107"/>
-      <c r="AR5" s="107"/>
-      <c r="AS5" s="107"/>
-      <c r="AT5" s="107"/>
-      <c r="AU5" s="107"/>
-      <c r="AV5" s="107"/>
-      <c r="AW5" s="107"/>
-      <c r="AX5" s="107"/>
-      <c r="AY5" s="107"/>
-      <c r="AZ5" s="107"/>
-      <c r="BA5" s="107"/>
-      <c r="BB5" s="107"/>
-      <c r="BC5" s="107"/>
-      <c r="BD5" s="107"/>
-      <c r="BE5" s="107"/>
-      <c r="BF5" s="107"/>
-      <c r="BG5" s="107"/>
-      <c r="BH5" s="107"/>
-      <c r="BI5" s="107"/>
-      <c r="BJ5" s="107"/>
-      <c r="BK5" s="107"/>
-      <c r="BL5" s="107"/>
-      <c r="BM5" s="107"/>
-      <c r="BN5" s="110" t="s">
+      <c r="G5" s="134"/>
+      <c r="H5" s="134"/>
+      <c r="I5" s="134"/>
+      <c r="J5" s="134"/>
+      <c r="K5" s="134"/>
+      <c r="L5" s="134"/>
+      <c r="M5" s="134"/>
+      <c r="N5" s="134"/>
+      <c r="O5" s="134"/>
+      <c r="P5" s="134"/>
+      <c r="Q5" s="134"/>
+      <c r="R5" s="134"/>
+      <c r="S5" s="134"/>
+      <c r="T5" s="134"/>
+      <c r="U5" s="134"/>
+      <c r="V5" s="134"/>
+      <c r="W5" s="134"/>
+      <c r="X5" s="134"/>
+      <c r="Y5" s="134"/>
+      <c r="Z5" s="134"/>
+      <c r="AA5" s="134"/>
+      <c r="AB5" s="134"/>
+      <c r="AC5" s="134"/>
+      <c r="AD5" s="134"/>
+      <c r="AE5" s="134"/>
+      <c r="AF5" s="134"/>
+      <c r="AG5" s="134"/>
+      <c r="AH5" s="134"/>
+      <c r="AI5" s="134"/>
+      <c r="AJ5" s="134"/>
+      <c r="AK5" s="134"/>
+      <c r="AL5" s="134"/>
+      <c r="AM5" s="134"/>
+      <c r="AN5" s="134"/>
+      <c r="AO5" s="134"/>
+      <c r="AP5" s="134"/>
+      <c r="AQ5" s="134"/>
+      <c r="AR5" s="134"/>
+      <c r="AS5" s="134"/>
+      <c r="AT5" s="134"/>
+      <c r="AU5" s="134"/>
+      <c r="AV5" s="134"/>
+      <c r="AW5" s="134"/>
+      <c r="AX5" s="134"/>
+      <c r="AY5" s="134"/>
+      <c r="AZ5" s="134"/>
+      <c r="BA5" s="134"/>
+      <c r="BB5" s="134"/>
+      <c r="BC5" s="134"/>
+      <c r="BD5" s="134"/>
+      <c r="BE5" s="134"/>
+      <c r="BF5" s="134"/>
+      <c r="BG5" s="134"/>
+      <c r="BH5" s="134"/>
+      <c r="BI5" s="134"/>
+      <c r="BJ5" s="134"/>
+      <c r="BK5" s="134"/>
+      <c r="BL5" s="134"/>
+      <c r="BM5" s="134"/>
+      <c r="BN5" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="104" t="s">
+      <c r="BO5" s="129" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -57482,107 +57491,107 @@
       <c r="BU5" s="94"/>
     </row>
     <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="104"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="104"/>
-      <c r="F6" s="108" t="s">
+      <c r="B6" s="129"/>
+      <c r="C6" s="132"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="108"/>
-      <c r="H6" s="108"/>
-      <c r="I6" s="108"/>
-      <c r="J6" s="108"/>
-      <c r="K6" s="108" t="s">
+      <c r="G6" s="130"/>
+      <c r="H6" s="130"/>
+      <c r="I6" s="130"/>
+      <c r="J6" s="130"/>
+      <c r="K6" s="130" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="108"/>
-      <c r="M6" s="108"/>
-      <c r="N6" s="108"/>
-      <c r="O6" s="108"/>
-      <c r="P6" s="108" t="s">
+      <c r="L6" s="130"/>
+      <c r="M6" s="130"/>
+      <c r="N6" s="130"/>
+      <c r="O6" s="130"/>
+      <c r="P6" s="130" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="108"/>
-      <c r="R6" s="108"/>
-      <c r="S6" s="108"/>
-      <c r="T6" s="108"/>
-      <c r="U6" s="108" t="s">
+      <c r="Q6" s="130"/>
+      <c r="R6" s="130"/>
+      <c r="S6" s="130"/>
+      <c r="T6" s="130"/>
+      <c r="U6" s="130" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="108"/>
-      <c r="W6" s="108"/>
-      <c r="X6" s="108"/>
-      <c r="Y6" s="108"/>
-      <c r="Z6" s="108" t="s">
+      <c r="V6" s="130"/>
+      <c r="W6" s="130"/>
+      <c r="X6" s="130"/>
+      <c r="Y6" s="130"/>
+      <c r="Z6" s="130" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="108"/>
-      <c r="AB6" s="108"/>
-      <c r="AC6" s="108"/>
-      <c r="AD6" s="108"/>
-      <c r="AE6" s="108" t="s">
+      <c r="AA6" s="130"/>
+      <c r="AB6" s="130"/>
+      <c r="AC6" s="130"/>
+      <c r="AD6" s="130"/>
+      <c r="AE6" s="130" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="108"/>
-      <c r="AG6" s="108"/>
-      <c r="AH6" s="108"/>
-      <c r="AI6" s="108"/>
-      <c r="AJ6" s="108" t="s">
+      <c r="AF6" s="130"/>
+      <c r="AG6" s="130"/>
+      <c r="AH6" s="130"/>
+      <c r="AI6" s="130"/>
+      <c r="AJ6" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="108"/>
-      <c r="AL6" s="108"/>
-      <c r="AM6" s="108"/>
-      <c r="AN6" s="108"/>
-      <c r="AO6" s="108" t="s">
+      <c r="AK6" s="130"/>
+      <c r="AL6" s="130"/>
+      <c r="AM6" s="130"/>
+      <c r="AN6" s="130"/>
+      <c r="AO6" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="108"/>
-      <c r="AQ6" s="108"/>
-      <c r="AR6" s="108"/>
-      <c r="AS6" s="108"/>
-      <c r="AT6" s="108" t="s">
+      <c r="AP6" s="130"/>
+      <c r="AQ6" s="130"/>
+      <c r="AR6" s="130"/>
+      <c r="AS6" s="130"/>
+      <c r="AT6" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="108"/>
-      <c r="AV6" s="108"/>
-      <c r="AW6" s="108"/>
-      <c r="AX6" s="108"/>
-      <c r="AY6" s="108" t="s">
+      <c r="AU6" s="130"/>
+      <c r="AV6" s="130"/>
+      <c r="AW6" s="130"/>
+      <c r="AX6" s="130"/>
+      <c r="AY6" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="108"/>
-      <c r="BA6" s="108"/>
-      <c r="BB6" s="108"/>
-      <c r="BC6" s="108"/>
-      <c r="BD6" s="108" t="s">
+      <c r="AZ6" s="130"/>
+      <c r="BA6" s="130"/>
+      <c r="BB6" s="130"/>
+      <c r="BC6" s="130"/>
+      <c r="BD6" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="108"/>
-      <c r="BF6" s="108"/>
-      <c r="BG6" s="108"/>
-      <c r="BH6" s="108"/>
-      <c r="BI6" s="109" t="s">
+      <c r="BE6" s="130"/>
+      <c r="BF6" s="130"/>
+      <c r="BG6" s="130"/>
+      <c r="BH6" s="130"/>
+      <c r="BI6" s="135" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="109"/>
-      <c r="BK6" s="109"/>
-      <c r="BL6" s="109"/>
-      <c r="BM6" s="109"/>
-      <c r="BN6" s="110"/>
-      <c r="BO6" s="104"/>
+      <c r="BJ6" s="135"/>
+      <c r="BK6" s="135"/>
+      <c r="BL6" s="135"/>
+      <c r="BM6" s="135"/>
+      <c r="BN6" s="128"/>
+      <c r="BO6" s="129"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="123" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="111"/>
-      <c r="E7" s="112"/>
+      <c r="D7" s="123"/>
+      <c r="E7" s="124"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -58607,12 +58616,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="111"/>
+      <c r="B8" s="123"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="111"/>
-      <c r="E8" s="113"/>
+      <c r="D8" s="123"/>
+      <c r="E8" s="121"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -59636,17 +59645,17 @@
       <c r="AML8" s="23"/>
     </row>
     <row r="9" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="114" t="s">
+      <c r="B9" s="119" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="115"/>
-      <c r="E9" s="116"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="125"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
-      <c r="H9" s="83"/>
+      <c r="H9" s="136"/>
       <c r="I9" s="82"/>
       <c r="J9" s="82"/>
       <c r="K9" s="19"/>
@@ -60667,12 +60676,12 @@
       <c r="AML9" s="21"/>
     </row>
     <row r="10" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B10" s="114"/>
+      <c r="B10" s="119"/>
       <c r="C10" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="115"/>
-      <c r="E10" s="117"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="126"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -60680,7 +60689,7 @@
       <c r="J10" s="78"/>
       <c r="K10" s="29"/>
       <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
+      <c r="M10" s="137"/>
       <c r="N10" s="21"/>
       <c r="O10" s="30"/>
       <c r="P10" s="29"/>
@@ -61696,12 +61705,12 @@
       <c r="AML10" s="21"/>
     </row>
     <row r="11" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="114"/>
+      <c r="B11" s="119"/>
       <c r="C11" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="115"/>
-      <c r="E11" s="117"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="126"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -62725,12 +62734,12 @@
       <c r="AML11" s="21"/>
     </row>
     <row r="12" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="114"/>
+      <c r="B12" s="119"/>
       <c r="C12" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="115"/>
-      <c r="E12" s="118"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="127"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -62743,7 +62752,7 @@
       <c r="O12" s="30"/>
       <c r="P12" s="29"/>
       <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
+      <c r="R12" s="137"/>
       <c r="S12" s="21"/>
       <c r="T12" s="30"/>
       <c r="U12" s="29"/>
@@ -62795,14 +62804,14 @@
       <c r="BO12" s="31"/>
     </row>
     <row r="13" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B13" s="114" t="s">
+      <c r="B13" s="119" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="115"/>
-      <c r="E13" s="113"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="121"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -62820,7 +62829,7 @@
       <c r="T13" s="18"/>
       <c r="U13" s="19"/>
       <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
+      <c r="W13" s="138"/>
       <c r="X13" s="17"/>
       <c r="Y13" s="18"/>
       <c r="Z13" s="19"/>
@@ -62867,12 +62876,12 @@
       <c r="BO13" s="20"/>
     </row>
     <row r="14" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B14" s="114"/>
+      <c r="B14" s="119"/>
       <c r="C14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="115"/>
-      <c r="E14" s="113"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="121"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -62937,12 +62946,12 @@
       <c r="BO14" s="31"/>
     </row>
     <row r="15" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="114"/>
+      <c r="B15" s="119"/>
       <c r="C15" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="115"/>
-      <c r="E15" s="113"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="121"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -63007,12 +63016,12 @@
       <c r="BO15" s="31"/>
     </row>
     <row r="16" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B16" s="114"/>
+      <c r="B16" s="119"/>
       <c r="C16" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="115"/>
-      <c r="E16" s="113"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="121"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -63077,12 +63086,12 @@
       <c r="BO16" s="31"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B17" s="114"/>
+      <c r="B17" s="119"/>
       <c r="C17" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="115"/>
-      <c r="E17" s="113"/>
+      <c r="D17" s="120"/>
+      <c r="E17" s="121"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -63147,12 +63156,12 @@
       <c r="BO17" s="31"/>
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B18" s="114"/>
+      <c r="B18" s="119"/>
       <c r="C18" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="115"/>
-      <c r="E18" s="113"/>
+      <c r="D18" s="120"/>
+      <c r="E18" s="121"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -63217,12 +63226,12 @@
       <c r="BO18" s="31"/>
     </row>
     <row r="19" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B19" s="114"/>
+      <c r="B19" s="119"/>
       <c r="C19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="115"/>
-      <c r="E19" s="113"/>
+      <c r="D19" s="120"/>
+      <c r="E19" s="121"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -63287,14 +63296,14 @@
       <c r="BO19" s="27"/>
     </row>
     <row r="20" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B20" s="119" t="s">
+      <c r="B20" s="122" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="111"/>
-      <c r="E20" s="120"/>
+      <c r="D20" s="123"/>
+      <c r="E20" s="112"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -63359,12 +63368,12 @@
       <c r="BO20" s="20"/>
     </row>
     <row r="21" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B21" s="119"/>
+      <c r="B21" s="122"/>
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="111"/>
-      <c r="E21" s="121"/>
+      <c r="D21" s="123"/>
+      <c r="E21" s="113"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -63429,12 +63438,12 @@
       <c r="BO21" s="31"/>
     </row>
     <row r="22" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B22" s="119"/>
+      <c r="B22" s="122"/>
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="111"/>
-      <c r="E22" s="121"/>
+      <c r="D22" s="123"/>
+      <c r="E22" s="113"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -63499,12 +63508,12 @@
       <c r="BO22" s="31"/>
     </row>
     <row r="23" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B23" s="119"/>
+      <c r="B23" s="122"/>
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="111"/>
-      <c r="E23" s="121"/>
+      <c r="D23" s="123"/>
+      <c r="E23" s="113"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -63569,12 +63578,12 @@
       <c r="BO23" s="31"/>
     </row>
     <row r="24" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B24" s="119"/>
+      <c r="B24" s="122"/>
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="111"/>
-      <c r="E24" s="121"/>
+      <c r="D24" s="123"/>
+      <c r="E24" s="113"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -63639,14 +63648,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="124" t="s">
+      <c r="B25" s="108" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="127"/>
-      <c r="E25" s="120"/>
+      <c r="D25" s="111"/>
+      <c r="E25" s="112"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -63711,12 +63720,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="125"/>
+      <c r="B26" s="109"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="127"/>
-      <c r="E26" s="121"/>
+      <c r="D26" s="111"/>
+      <c r="E26" s="113"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -63781,12 +63790,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="125"/>
+      <c r="B27" s="109"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="127"/>
-      <c r="E27" s="121"/>
+      <c r="D27" s="111"/>
+      <c r="E27" s="113"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -63851,12 +63860,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="125"/>
+      <c r="B28" s="109"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="127"/>
-      <c r="E28" s="121"/>
+      <c r="D28" s="111"/>
+      <c r="E28" s="113"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -63921,12 +63930,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="126"/>
+      <c r="B29" s="110"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="127"/>
-      <c r="E29" s="128"/>
+      <c r="D29" s="111"/>
+      <c r="E29" s="114"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -64063,10 +64072,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="129"/>
-      <c r="C31" s="120"/>
-      <c r="D31" s="132"/>
-      <c r="E31" s="129"/>
+      <c r="B31" s="115"/>
+      <c r="C31" s="112"/>
+      <c r="D31" s="118"/>
+      <c r="E31" s="115"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -64131,10 +64140,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="130"/>
-      <c r="C32" s="121"/>
-      <c r="D32" s="132"/>
-      <c r="E32" s="130"/>
+      <c r="B32" s="116"/>
+      <c r="C32" s="113"/>
+      <c r="D32" s="118"/>
+      <c r="E32" s="116"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -64199,10 +64208,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="130"/>
-      <c r="C33" s="121"/>
-      <c r="D33" s="132"/>
-      <c r="E33" s="130"/>
+      <c r="B33" s="116"/>
+      <c r="C33" s="113"/>
+      <c r="D33" s="118"/>
+      <c r="E33" s="116"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -64267,10 +64276,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="130"/>
-      <c r="C34" s="121"/>
-      <c r="D34" s="132"/>
-      <c r="E34" s="130"/>
+      <c r="B34" s="116"/>
+      <c r="C34" s="113"/>
+      <c r="D34" s="118"/>
+      <c r="E34" s="116"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -64335,10 +64344,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="130"/>
-      <c r="C35" s="121"/>
-      <c r="D35" s="132"/>
-      <c r="E35" s="130"/>
+      <c r="B35" s="116"/>
+      <c r="C35" s="113"/>
+      <c r="D35" s="118"/>
+      <c r="E35" s="116"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -64403,10 +64412,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="130"/>
-      <c r="C36" s="121"/>
-      <c r="D36" s="132"/>
-      <c r="E36" s="130"/>
+      <c r="B36" s="116"/>
+      <c r="C36" s="113"/>
+      <c r="D36" s="118"/>
+      <c r="E36" s="116"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -64471,10 +64480,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="130"/>
-      <c r="C37" s="121"/>
-      <c r="D37" s="132"/>
-      <c r="E37" s="130"/>
+      <c r="B37" s="116"/>
+      <c r="C37" s="113"/>
+      <c r="D37" s="118"/>
+      <c r="E37" s="116"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -64539,10 +64548,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="130"/>
-      <c r="C38" s="121"/>
-      <c r="D38" s="132"/>
-      <c r="E38" s="130"/>
+      <c r="B38" s="116"/>
+      <c r="C38" s="113"/>
+      <c r="D38" s="118"/>
+      <c r="E38" s="116"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -64607,10 +64616,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="130"/>
-      <c r="C39" s="121"/>
-      <c r="D39" s="132"/>
-      <c r="E39" s="130"/>
+      <c r="B39" s="116"/>
+      <c r="C39" s="113"/>
+      <c r="D39" s="118"/>
+      <c r="E39" s="116"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -64675,10 +64684,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="130"/>
-      <c r="C40" s="121"/>
-      <c r="D40" s="132"/>
-      <c r="E40" s="130"/>
+      <c r="B40" s="116"/>
+      <c r="C40" s="113"/>
+      <c r="D40" s="118"/>
+      <c r="E40" s="116"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -64743,10 +64752,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="130"/>
-      <c r="C41" s="121"/>
-      <c r="D41" s="132"/>
-      <c r="E41" s="130"/>
+      <c r="B41" s="116"/>
+      <c r="C41" s="113"/>
+      <c r="D41" s="118"/>
+      <c r="E41" s="116"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -64811,10 +64820,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="130"/>
-      <c r="C42" s="121"/>
-      <c r="D42" s="132"/>
-      <c r="E42" s="130"/>
+      <c r="B42" s="116"/>
+      <c r="C42" s="113"/>
+      <c r="D42" s="118"/>
+      <c r="E42" s="116"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -64879,10 +64888,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="130"/>
-      <c r="C43" s="121"/>
-      <c r="D43" s="132"/>
-      <c r="E43" s="130"/>
+      <c r="B43" s="116"/>
+      <c r="C43" s="113"/>
+      <c r="D43" s="118"/>
+      <c r="E43" s="116"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -64947,10 +64956,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="130"/>
-      <c r="C44" s="121"/>
-      <c r="D44" s="132"/>
-      <c r="E44" s="130"/>
+      <c r="B44" s="116"/>
+      <c r="C44" s="113"/>
+      <c r="D44" s="118"/>
+      <c r="E44" s="116"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -65015,10 +65024,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="130"/>
-      <c r="C45" s="121"/>
-      <c r="D45" s="132"/>
-      <c r="E45" s="130"/>
+      <c r="B45" s="116"/>
+      <c r="C45" s="113"/>
+      <c r="D45" s="118"/>
+      <c r="E45" s="116"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -65083,10 +65092,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="130"/>
-      <c r="C46" s="121"/>
-      <c r="D46" s="132"/>
-      <c r="E46" s="130"/>
+      <c r="B46" s="116"/>
+      <c r="C46" s="113"/>
+      <c r="D46" s="118"/>
+      <c r="E46" s="116"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -65151,10 +65160,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="130"/>
-      <c r="C47" s="121"/>
-      <c r="D47" s="132"/>
-      <c r="E47" s="130"/>
+      <c r="B47" s="116"/>
+      <c r="C47" s="113"/>
+      <c r="D47" s="118"/>
+      <c r="E47" s="116"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -65219,10 +65228,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="130"/>
-      <c r="C48" s="121"/>
-      <c r="D48" s="132"/>
-      <c r="E48" s="130"/>
+      <c r="B48" s="116"/>
+      <c r="C48" s="113"/>
+      <c r="D48" s="118"/>
+      <c r="E48" s="116"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -65287,10 +65296,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="130"/>
-      <c r="C49" s="121"/>
-      <c r="D49" s="132"/>
-      <c r="E49" s="130"/>
+      <c r="B49" s="116"/>
+      <c r="C49" s="113"/>
+      <c r="D49" s="118"/>
+      <c r="E49" s="116"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -65355,10 +65364,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="130"/>
-      <c r="C50" s="121"/>
-      <c r="D50" s="132"/>
-      <c r="E50" s="130"/>
+      <c r="B50" s="116"/>
+      <c r="C50" s="113"/>
+      <c r="D50" s="118"/>
+      <c r="E50" s="116"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -65423,10 +65432,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="130"/>
-      <c r="C51" s="121"/>
-      <c r="D51" s="132"/>
-      <c r="E51" s="130"/>
+      <c r="B51" s="116"/>
+      <c r="C51" s="113"/>
+      <c r="D51" s="118"/>
+      <c r="E51" s="116"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -65491,10 +65500,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="130"/>
-      <c r="C52" s="121"/>
-      <c r="D52" s="132"/>
-      <c r="E52" s="130"/>
+      <c r="B52" s="116"/>
+      <c r="C52" s="113"/>
+      <c r="D52" s="118"/>
+      <c r="E52" s="116"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -65559,10 +65568,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="130"/>
-      <c r="C53" s="121"/>
-      <c r="D53" s="132"/>
-      <c r="E53" s="130"/>
+      <c r="B53" s="116"/>
+      <c r="C53" s="113"/>
+      <c r="D53" s="118"/>
+      <c r="E53" s="116"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -65627,10 +65636,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="130"/>
-      <c r="C54" s="121"/>
-      <c r="D54" s="132"/>
-      <c r="E54" s="130"/>
+      <c r="B54" s="116"/>
+      <c r="C54" s="113"/>
+      <c r="D54" s="118"/>
+      <c r="E54" s="116"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -65695,10 +65704,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="130"/>
-      <c r="C55" s="121"/>
-      <c r="D55" s="132"/>
-      <c r="E55" s="130"/>
+      <c r="B55" s="116"/>
+      <c r="C55" s="113"/>
+      <c r="D55" s="118"/>
+      <c r="E55" s="116"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -65763,10 +65772,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="130"/>
-      <c r="C56" s="121"/>
-      <c r="D56" s="132"/>
-      <c r="E56" s="130"/>
+      <c r="B56" s="116"/>
+      <c r="C56" s="113"/>
+      <c r="D56" s="118"/>
+      <c r="E56" s="116"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -65831,10 +65840,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="130"/>
-      <c r="C57" s="121"/>
-      <c r="D57" s="132"/>
-      <c r="E57" s="130"/>
+      <c r="B57" s="116"/>
+      <c r="C57" s="113"/>
+      <c r="D57" s="118"/>
+      <c r="E57" s="116"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -65894,10 +65903,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="131"/>
-      <c r="C58" s="128"/>
-      <c r="D58" s="132"/>
-      <c r="E58" s="131"/>
+      <c r="B58" s="117"/>
+      <c r="C58" s="114"/>
+      <c r="D58" s="118"/>
+      <c r="E58" s="117"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -65962,7 +65971,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="122" t="s">
+      <c r="B59" s="106" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -66034,7 +66043,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="122"/>
+      <c r="B60" s="106"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -66104,7 +66113,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="123" t="s">
+      <c r="B61" s="107" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -66176,7 +66185,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="123"/>
+      <c r="B62" s="107"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -66244,7 +66253,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="123"/>
+      <c r="B63" s="107"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -66453,21 +66462,22 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="E31:E58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:BM5"/>
+    <mergeCell ref="AT6:AX6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="U6:Y6"/>
+    <mergeCell ref="Z6:AD6"/>
+    <mergeCell ref="AE6:AI6"/>
+    <mergeCell ref="AJ6:AN6"/>
+    <mergeCell ref="AO6:AS6"/>
     <mergeCell ref="B9:B12"/>
     <mergeCell ref="D9:D12"/>
     <mergeCell ref="D7:D8"/>
@@ -66478,22 +66488,21 @@
     <mergeCell ref="BI6:BM6"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="E7:E8"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="U6:Y6"/>
-    <mergeCell ref="Z6:AD6"/>
-    <mergeCell ref="AE6:AI6"/>
-    <mergeCell ref="AJ6:AN6"/>
-    <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:BM5"/>
-    <mergeCell ref="AT6:AX6"/>
-    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="E31:E58"/>
+    <mergeCell ref="D31:D58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/QC_QNU_Training_Progress.xlsx
+++ b/QC_QNU_Training_Progress.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TMA-Training\QC_Training\QC_Training_2019_01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Internship\GIT_Training\QC_Training_2019_01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="690" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="690" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Truong Thi Thu Huong" sheetId="4" r:id="rId1"/>
@@ -236,7 +236,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mmmm\ d&quot;, &quot;yyyy;@"/>
   </numFmts>
@@ -244,7 +244,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -252,7 +252,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1025,6 +1025,66 @@
     <xf numFmtId="0" fontId="6" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1043,12 +1103,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1064,60 +1118,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
@@ -1408,31 +1408,31 @@
       <selection activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="4"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
     <col min="2" max="2" width="28" style="3" customWidth="1"/>
-    <col min="3" max="3" width="65.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="65.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="2" customWidth="1"/>
-    <col min="5" max="5" width="29.125" style="2" customWidth="1"/>
-    <col min="6" max="65" width="2.25" style="3" customWidth="1"/>
-    <col min="66" max="69" width="9.125" style="3"/>
+    <col min="5" max="5" width="29.140625" style="2" customWidth="1"/>
+    <col min="6" max="65" width="2.28515625" style="3" customWidth="1"/>
+    <col min="66" max="69" width="9.140625" style="3"/>
     <col min="70" max="70" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="14.875" style="3" customWidth="1"/>
+    <col min="71" max="71" width="14.85546875" style="3" customWidth="1"/>
     <col min="72" max="72" width="13" style="3" customWidth="1"/>
-    <col min="73" max="73" width="13.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="74" max="1026" width="9.125" style="3"/>
-    <col min="1027" max="16384" width="9.125" style="4"/>
+    <col min="73" max="73" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="74" max="1026" width="9.140625" style="3"/>
+    <col min="1027" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="131" t="s">
+      <c r="B1" s="109" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
     </row>
     <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
@@ -1598,84 +1598,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="129" t="s">
+      <c r="B5" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="132" t="s">
+      <c r="C5" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="133" t="s">
+      <c r="D5" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="129" t="s">
+      <c r="E5" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="134" t="s">
+      <c r="F5" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="134"/>
-      <c r="H5" s="134"/>
-      <c r="I5" s="134"/>
-      <c r="J5" s="134"/>
-      <c r="K5" s="134"/>
-      <c r="L5" s="134"/>
-      <c r="M5" s="134"/>
-      <c r="N5" s="134"/>
-      <c r="O5" s="134"/>
-      <c r="P5" s="134"/>
-      <c r="Q5" s="134"/>
-      <c r="R5" s="134"/>
-      <c r="S5" s="134"/>
-      <c r="T5" s="134"/>
-      <c r="U5" s="134"/>
-      <c r="V5" s="134"/>
-      <c r="W5" s="134"/>
-      <c r="X5" s="134"/>
-      <c r="Y5" s="134"/>
-      <c r="Z5" s="134"/>
-      <c r="AA5" s="134"/>
-      <c r="AB5" s="134"/>
-      <c r="AC5" s="134"/>
-      <c r="AD5" s="134"/>
-      <c r="AE5" s="134"/>
-      <c r="AF5" s="134"/>
-      <c r="AG5" s="134"/>
-      <c r="AH5" s="134"/>
-      <c r="AI5" s="134"/>
-      <c r="AJ5" s="134"/>
-      <c r="AK5" s="134"/>
-      <c r="AL5" s="134"/>
-      <c r="AM5" s="134"/>
-      <c r="AN5" s="134"/>
-      <c r="AO5" s="134"/>
-      <c r="AP5" s="134"/>
-      <c r="AQ5" s="134"/>
-      <c r="AR5" s="134"/>
-      <c r="AS5" s="134"/>
-      <c r="AT5" s="134"/>
-      <c r="AU5" s="134"/>
-      <c r="AV5" s="134"/>
-      <c r="AW5" s="134"/>
-      <c r="AX5" s="134"/>
-      <c r="AY5" s="134"/>
-      <c r="AZ5" s="134"/>
-      <c r="BA5" s="134"/>
-      <c r="BB5" s="134"/>
-      <c r="BC5" s="134"/>
-      <c r="BD5" s="134"/>
-      <c r="BE5" s="134"/>
-      <c r="BF5" s="134"/>
-      <c r="BG5" s="134"/>
-      <c r="BH5" s="134"/>
-      <c r="BI5" s="134"/>
-      <c r="BJ5" s="134"/>
-      <c r="BK5" s="134"/>
-      <c r="BL5" s="134"/>
-      <c r="BM5" s="134"/>
-      <c r="BN5" s="128" t="s">
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="113"/>
+      <c r="K5" s="113"/>
+      <c r="L5" s="113"/>
+      <c r="M5" s="113"/>
+      <c r="N5" s="113"/>
+      <c r="O5" s="113"/>
+      <c r="P5" s="113"/>
+      <c r="Q5" s="113"/>
+      <c r="R5" s="113"/>
+      <c r="S5" s="113"/>
+      <c r="T5" s="113"/>
+      <c r="U5" s="113"/>
+      <c r="V5" s="113"/>
+      <c r="W5" s="113"/>
+      <c r="X5" s="113"/>
+      <c r="Y5" s="113"/>
+      <c r="Z5" s="113"/>
+      <c r="AA5" s="113"/>
+      <c r="AB5" s="113"/>
+      <c r="AC5" s="113"/>
+      <c r="AD5" s="113"/>
+      <c r="AE5" s="113"/>
+      <c r="AF5" s="113"/>
+      <c r="AG5" s="113"/>
+      <c r="AH5" s="113"/>
+      <c r="AI5" s="113"/>
+      <c r="AJ5" s="113"/>
+      <c r="AK5" s="113"/>
+      <c r="AL5" s="113"/>
+      <c r="AM5" s="113"/>
+      <c r="AN5" s="113"/>
+      <c r="AO5" s="113"/>
+      <c r="AP5" s="113"/>
+      <c r="AQ5" s="113"/>
+      <c r="AR5" s="113"/>
+      <c r="AS5" s="113"/>
+      <c r="AT5" s="113"/>
+      <c r="AU5" s="113"/>
+      <c r="AV5" s="113"/>
+      <c r="AW5" s="113"/>
+      <c r="AX5" s="113"/>
+      <c r="AY5" s="113"/>
+      <c r="AZ5" s="113"/>
+      <c r="BA5" s="113"/>
+      <c r="BB5" s="113"/>
+      <c r="BC5" s="113"/>
+      <c r="BD5" s="113"/>
+      <c r="BE5" s="113"/>
+      <c r="BF5" s="113"/>
+      <c r="BG5" s="113"/>
+      <c r="BH5" s="113"/>
+      <c r="BI5" s="113"/>
+      <c r="BJ5" s="113"/>
+      <c r="BK5" s="113"/>
+      <c r="BL5" s="113"/>
+      <c r="BM5" s="113"/>
+      <c r="BN5" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="129" t="s">
+      <c r="BO5" s="110" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -1684,107 +1684,107 @@
       <c r="BU5" s="94"/>
     </row>
     <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="129"/>
-      <c r="C6" s="132"/>
-      <c r="D6" s="133"/>
-      <c r="E6" s="129"/>
-      <c r="F6" s="130" t="s">
+      <c r="B6" s="110"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="130"/>
-      <c r="H6" s="130"/>
-      <c r="I6" s="130"/>
-      <c r="J6" s="130"/>
-      <c r="K6" s="130" t="s">
+      <c r="G6" s="114"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="114"/>
+      <c r="K6" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="130"/>
-      <c r="M6" s="130"/>
-      <c r="N6" s="130"/>
-      <c r="O6" s="130"/>
-      <c r="P6" s="130" t="s">
+      <c r="L6" s="114"/>
+      <c r="M6" s="114"/>
+      <c r="N6" s="114"/>
+      <c r="O6" s="114"/>
+      <c r="P6" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="130"/>
-      <c r="R6" s="130"/>
-      <c r="S6" s="130"/>
-      <c r="T6" s="130"/>
-      <c r="U6" s="130" t="s">
+      <c r="Q6" s="114"/>
+      <c r="R6" s="114"/>
+      <c r="S6" s="114"/>
+      <c r="T6" s="114"/>
+      <c r="U6" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="130"/>
-      <c r="W6" s="130"/>
-      <c r="X6" s="130"/>
-      <c r="Y6" s="130"/>
-      <c r="Z6" s="130" t="s">
+      <c r="V6" s="114"/>
+      <c r="W6" s="114"/>
+      <c r="X6" s="114"/>
+      <c r="Y6" s="114"/>
+      <c r="Z6" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="130"/>
-      <c r="AB6" s="130"/>
-      <c r="AC6" s="130"/>
-      <c r="AD6" s="130"/>
-      <c r="AE6" s="130" t="s">
+      <c r="AA6" s="114"/>
+      <c r="AB6" s="114"/>
+      <c r="AC6" s="114"/>
+      <c r="AD6" s="114"/>
+      <c r="AE6" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="130"/>
-      <c r="AG6" s="130"/>
-      <c r="AH6" s="130"/>
-      <c r="AI6" s="130"/>
-      <c r="AJ6" s="130" t="s">
+      <c r="AF6" s="114"/>
+      <c r="AG6" s="114"/>
+      <c r="AH6" s="114"/>
+      <c r="AI6" s="114"/>
+      <c r="AJ6" s="114" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="130"/>
-      <c r="AL6" s="130"/>
-      <c r="AM6" s="130"/>
-      <c r="AN6" s="130"/>
-      <c r="AO6" s="130" t="s">
+      <c r="AK6" s="114"/>
+      <c r="AL6" s="114"/>
+      <c r="AM6" s="114"/>
+      <c r="AN6" s="114"/>
+      <c r="AO6" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="130"/>
-      <c r="AQ6" s="130"/>
-      <c r="AR6" s="130"/>
-      <c r="AS6" s="130"/>
-      <c r="AT6" s="130" t="s">
+      <c r="AP6" s="114"/>
+      <c r="AQ6" s="114"/>
+      <c r="AR6" s="114"/>
+      <c r="AS6" s="114"/>
+      <c r="AT6" s="114" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="130"/>
-      <c r="AV6" s="130"/>
-      <c r="AW6" s="130"/>
-      <c r="AX6" s="130"/>
-      <c r="AY6" s="130" t="s">
+      <c r="AU6" s="114"/>
+      <c r="AV6" s="114"/>
+      <c r="AW6" s="114"/>
+      <c r="AX6" s="114"/>
+      <c r="AY6" s="114" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="130"/>
-      <c r="BA6" s="130"/>
-      <c r="BB6" s="130"/>
-      <c r="BC6" s="130"/>
-      <c r="BD6" s="130" t="s">
+      <c r="AZ6" s="114"/>
+      <c r="BA6" s="114"/>
+      <c r="BB6" s="114"/>
+      <c r="BC6" s="114"/>
+      <c r="BD6" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="130"/>
-      <c r="BF6" s="130"/>
-      <c r="BG6" s="130"/>
-      <c r="BH6" s="130"/>
-      <c r="BI6" s="135" t="s">
+      <c r="BE6" s="114"/>
+      <c r="BF6" s="114"/>
+      <c r="BG6" s="114"/>
+      <c r="BH6" s="114"/>
+      <c r="BI6" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="135"/>
-      <c r="BK6" s="135"/>
-      <c r="BL6" s="135"/>
-      <c r="BM6" s="135"/>
-      <c r="BN6" s="128"/>
-      <c r="BO6" s="129"/>
+      <c r="BJ6" s="115"/>
+      <c r="BK6" s="115"/>
+      <c r="BL6" s="115"/>
+      <c r="BM6" s="115"/>
+      <c r="BN6" s="116"/>
+      <c r="BO6" s="110"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="123" t="s">
+      <c r="B7" s="117" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="123"/>
-      <c r="E7" s="124"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="118"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -2809,12 +2809,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="123"/>
+      <c r="B8" s="117"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="123"/>
-      <c r="E8" s="121"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="119"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -3838,14 +3838,14 @@
       <c r="AML8" s="23"/>
     </row>
     <row r="9" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="119" t="s">
+      <c r="B9" s="120" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="120"/>
-      <c r="E9" s="125"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="122"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
       <c r="H9" s="103"/>
@@ -4869,12 +4869,12 @@
       <c r="AML9" s="21"/>
     </row>
     <row r="10" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B10" s="119"/>
+      <c r="B10" s="120"/>
       <c r="C10" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="120"/>
-      <c r="E10" s="126"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="123"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -5898,12 +5898,12 @@
       <c r="AML10" s="21"/>
     </row>
     <row r="11" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="119"/>
+      <c r="B11" s="120"/>
       <c r="C11" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="120"/>
-      <c r="E11" s="126"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="123"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -6927,12 +6927,12 @@
       <c r="AML11" s="21"/>
     </row>
     <row r="12" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="119"/>
+      <c r="B12" s="120"/>
       <c r="C12" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="120"/>
-      <c r="E12" s="127"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="124"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -6997,14 +6997,14 @@
       <c r="BO12" s="31"/>
     </row>
     <row r="13" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B13" s="119" t="s">
+      <c r="B13" s="120" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="120"/>
-      <c r="E13" s="121"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="119"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -7069,12 +7069,12 @@
       <c r="BO13" s="20"/>
     </row>
     <row r="14" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B14" s="119"/>
+      <c r="B14" s="120"/>
       <c r="C14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="120"/>
-      <c r="E14" s="121"/>
+      <c r="D14" s="121"/>
+      <c r="E14" s="119"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -7139,12 +7139,12 @@
       <c r="BO14" s="31"/>
     </row>
     <row r="15" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="119"/>
+      <c r="B15" s="120"/>
       <c r="C15" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="120"/>
-      <c r="E15" s="121"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="119"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -7209,12 +7209,12 @@
       <c r="BO15" s="31"/>
     </row>
     <row r="16" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B16" s="119"/>
+      <c r="B16" s="120"/>
       <c r="C16" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="120"/>
-      <c r="E16" s="121"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="119"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -7279,12 +7279,12 @@
       <c r="BO16" s="31"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B17" s="119"/>
+      <c r="B17" s="120"/>
       <c r="C17" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="120"/>
-      <c r="E17" s="121"/>
+      <c r="D17" s="121"/>
+      <c r="E17" s="119"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -7349,12 +7349,12 @@
       <c r="BO17" s="31"/>
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B18" s="119"/>
+      <c r="B18" s="120"/>
       <c r="C18" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="120"/>
-      <c r="E18" s="121"/>
+      <c r="D18" s="121"/>
+      <c r="E18" s="119"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -7419,12 +7419,12 @@
       <c r="BO18" s="31"/>
     </row>
     <row r="19" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B19" s="119"/>
+      <c r="B19" s="120"/>
       <c r="C19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="120"/>
-      <c r="E19" s="121"/>
+      <c r="D19" s="121"/>
+      <c r="E19" s="119"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -7489,14 +7489,14 @@
       <c r="BO19" s="27"/>
     </row>
     <row r="20" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B20" s="122" t="s">
+      <c r="B20" s="125" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="123"/>
-      <c r="E20" s="112"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="126"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -7561,12 +7561,12 @@
       <c r="BO20" s="20"/>
     </row>
     <row r="21" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B21" s="122"/>
+      <c r="B21" s="125"/>
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="123"/>
-      <c r="E21" s="113"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="127"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -7631,12 +7631,12 @@
       <c r="BO21" s="31"/>
     </row>
     <row r="22" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B22" s="122"/>
+      <c r="B22" s="125"/>
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="123"/>
-      <c r="E22" s="113"/>
+      <c r="D22" s="117"/>
+      <c r="E22" s="127"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -7701,12 +7701,12 @@
       <c r="BO22" s="31"/>
     </row>
     <row r="23" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B23" s="122"/>
+      <c r="B23" s="125"/>
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="123"/>
-      <c r="E23" s="113"/>
+      <c r="D23" s="117"/>
+      <c r="E23" s="127"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -7771,12 +7771,12 @@
       <c r="BO23" s="31"/>
     </row>
     <row r="24" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B24" s="122"/>
+      <c r="B24" s="125"/>
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="123"/>
-      <c r="E24" s="113"/>
+      <c r="D24" s="117"/>
+      <c r="E24" s="127"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -7841,14 +7841,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="108" t="s">
+      <c r="B25" s="130" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="111"/>
-      <c r="E25" s="112"/>
+      <c r="D25" s="133"/>
+      <c r="E25" s="126"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -7913,12 +7913,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="109"/>
+      <c r="B26" s="131"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="111"/>
-      <c r="E26" s="113"/>
+      <c r="D26" s="133"/>
+      <c r="E26" s="127"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -7983,12 +7983,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="109"/>
+      <c r="B27" s="131"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="111"/>
-      <c r="E27" s="113"/>
+      <c r="D27" s="133"/>
+      <c r="E27" s="127"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -8053,12 +8053,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="109"/>
+      <c r="B28" s="131"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="111"/>
-      <c r="E28" s="113"/>
+      <c r="D28" s="133"/>
+      <c r="E28" s="127"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -8123,12 +8123,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="110"/>
+      <c r="B29" s="132"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="111"/>
-      <c r="E29" s="114"/>
+      <c r="D29" s="133"/>
+      <c r="E29" s="134"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -8265,10 +8265,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="115"/>
-      <c r="C31" s="112"/>
-      <c r="D31" s="118"/>
-      <c r="E31" s="115"/>
+      <c r="B31" s="135"/>
+      <c r="C31" s="126"/>
+      <c r="D31" s="138"/>
+      <c r="E31" s="135"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -8333,10 +8333,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="116"/>
-      <c r="C32" s="113"/>
-      <c r="D32" s="118"/>
-      <c r="E32" s="116"/>
+      <c r="B32" s="136"/>
+      <c r="C32" s="127"/>
+      <c r="D32" s="138"/>
+      <c r="E32" s="136"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -8401,10 +8401,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="116"/>
-      <c r="C33" s="113"/>
-      <c r="D33" s="118"/>
-      <c r="E33" s="116"/>
+      <c r="B33" s="136"/>
+      <c r="C33" s="127"/>
+      <c r="D33" s="138"/>
+      <c r="E33" s="136"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -8469,10 +8469,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="116"/>
-      <c r="C34" s="113"/>
-      <c r="D34" s="118"/>
-      <c r="E34" s="116"/>
+      <c r="B34" s="136"/>
+      <c r="C34" s="127"/>
+      <c r="D34" s="138"/>
+      <c r="E34" s="136"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -8537,10 +8537,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="116"/>
-      <c r="C35" s="113"/>
-      <c r="D35" s="118"/>
-      <c r="E35" s="116"/>
+      <c r="B35" s="136"/>
+      <c r="C35" s="127"/>
+      <c r="D35" s="138"/>
+      <c r="E35" s="136"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -8605,10 +8605,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="116"/>
-      <c r="C36" s="113"/>
-      <c r="D36" s="118"/>
-      <c r="E36" s="116"/>
+      <c r="B36" s="136"/>
+      <c r="C36" s="127"/>
+      <c r="D36" s="138"/>
+      <c r="E36" s="136"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -8673,10 +8673,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="116"/>
-      <c r="C37" s="113"/>
-      <c r="D37" s="118"/>
-      <c r="E37" s="116"/>
+      <c r="B37" s="136"/>
+      <c r="C37" s="127"/>
+      <c r="D37" s="138"/>
+      <c r="E37" s="136"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -8741,10 +8741,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="116"/>
-      <c r="C38" s="113"/>
-      <c r="D38" s="118"/>
-      <c r="E38" s="116"/>
+      <c r="B38" s="136"/>
+      <c r="C38" s="127"/>
+      <c r="D38" s="138"/>
+      <c r="E38" s="136"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -8809,10 +8809,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="116"/>
-      <c r="C39" s="113"/>
-      <c r="D39" s="118"/>
-      <c r="E39" s="116"/>
+      <c r="B39" s="136"/>
+      <c r="C39" s="127"/>
+      <c r="D39" s="138"/>
+      <c r="E39" s="136"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -8877,10 +8877,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="116"/>
-      <c r="C40" s="113"/>
-      <c r="D40" s="118"/>
-      <c r="E40" s="116"/>
+      <c r="B40" s="136"/>
+      <c r="C40" s="127"/>
+      <c r="D40" s="138"/>
+      <c r="E40" s="136"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -8945,10 +8945,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="116"/>
-      <c r="C41" s="113"/>
-      <c r="D41" s="118"/>
-      <c r="E41" s="116"/>
+      <c r="B41" s="136"/>
+      <c r="C41" s="127"/>
+      <c r="D41" s="138"/>
+      <c r="E41" s="136"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -9013,10 +9013,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="116"/>
-      <c r="C42" s="113"/>
-      <c r="D42" s="118"/>
-      <c r="E42" s="116"/>
+      <c r="B42" s="136"/>
+      <c r="C42" s="127"/>
+      <c r="D42" s="138"/>
+      <c r="E42" s="136"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -9081,10 +9081,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="116"/>
-      <c r="C43" s="113"/>
-      <c r="D43" s="118"/>
-      <c r="E43" s="116"/>
+      <c r="B43" s="136"/>
+      <c r="C43" s="127"/>
+      <c r="D43" s="138"/>
+      <c r="E43" s="136"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -9149,10 +9149,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="116"/>
-      <c r="C44" s="113"/>
-      <c r="D44" s="118"/>
-      <c r="E44" s="116"/>
+      <c r="B44" s="136"/>
+      <c r="C44" s="127"/>
+      <c r="D44" s="138"/>
+      <c r="E44" s="136"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -9217,10 +9217,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="116"/>
-      <c r="C45" s="113"/>
-      <c r="D45" s="118"/>
-      <c r="E45" s="116"/>
+      <c r="B45" s="136"/>
+      <c r="C45" s="127"/>
+      <c r="D45" s="138"/>
+      <c r="E45" s="136"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -9285,10 +9285,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="116"/>
-      <c r="C46" s="113"/>
-      <c r="D46" s="118"/>
-      <c r="E46" s="116"/>
+      <c r="B46" s="136"/>
+      <c r="C46" s="127"/>
+      <c r="D46" s="138"/>
+      <c r="E46" s="136"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -9353,10 +9353,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="116"/>
-      <c r="C47" s="113"/>
-      <c r="D47" s="118"/>
-      <c r="E47" s="116"/>
+      <c r="B47" s="136"/>
+      <c r="C47" s="127"/>
+      <c r="D47" s="138"/>
+      <c r="E47" s="136"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -9421,10 +9421,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="116"/>
-      <c r="C48" s="113"/>
-      <c r="D48" s="118"/>
-      <c r="E48" s="116"/>
+      <c r="B48" s="136"/>
+      <c r="C48" s="127"/>
+      <c r="D48" s="138"/>
+      <c r="E48" s="136"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -9489,10 +9489,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="116"/>
-      <c r="C49" s="113"/>
-      <c r="D49" s="118"/>
-      <c r="E49" s="116"/>
+      <c r="B49" s="136"/>
+      <c r="C49" s="127"/>
+      <c r="D49" s="138"/>
+      <c r="E49" s="136"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -9557,10 +9557,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="116"/>
-      <c r="C50" s="113"/>
-      <c r="D50" s="118"/>
-      <c r="E50" s="116"/>
+      <c r="B50" s="136"/>
+      <c r="C50" s="127"/>
+      <c r="D50" s="138"/>
+      <c r="E50" s="136"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -9625,10 +9625,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="116"/>
-      <c r="C51" s="113"/>
-      <c r="D51" s="118"/>
-      <c r="E51" s="116"/>
+      <c r="B51" s="136"/>
+      <c r="C51" s="127"/>
+      <c r="D51" s="138"/>
+      <c r="E51" s="136"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -9693,10 +9693,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="116"/>
-      <c r="C52" s="113"/>
-      <c r="D52" s="118"/>
-      <c r="E52" s="116"/>
+      <c r="B52" s="136"/>
+      <c r="C52" s="127"/>
+      <c r="D52" s="138"/>
+      <c r="E52" s="136"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -9761,10 +9761,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="116"/>
-      <c r="C53" s="113"/>
-      <c r="D53" s="118"/>
-      <c r="E53" s="116"/>
+      <c r="B53" s="136"/>
+      <c r="C53" s="127"/>
+      <c r="D53" s="138"/>
+      <c r="E53" s="136"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -9829,10 +9829,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="116"/>
-      <c r="C54" s="113"/>
-      <c r="D54" s="118"/>
-      <c r="E54" s="116"/>
+      <c r="B54" s="136"/>
+      <c r="C54" s="127"/>
+      <c r="D54" s="138"/>
+      <c r="E54" s="136"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -9897,10 +9897,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="116"/>
-      <c r="C55" s="113"/>
-      <c r="D55" s="118"/>
-      <c r="E55" s="116"/>
+      <c r="B55" s="136"/>
+      <c r="C55" s="127"/>
+      <c r="D55" s="138"/>
+      <c r="E55" s="136"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -9965,10 +9965,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="116"/>
-      <c r="C56" s="113"/>
-      <c r="D56" s="118"/>
-      <c r="E56" s="116"/>
+      <c r="B56" s="136"/>
+      <c r="C56" s="127"/>
+      <c r="D56" s="138"/>
+      <c r="E56" s="136"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -10033,10 +10033,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="116"/>
-      <c r="C57" s="113"/>
-      <c r="D57" s="118"/>
-      <c r="E57" s="116"/>
+      <c r="B57" s="136"/>
+      <c r="C57" s="127"/>
+      <c r="D57" s="138"/>
+      <c r="E57" s="136"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -10096,10 +10096,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="117"/>
-      <c r="C58" s="114"/>
-      <c r="D58" s="118"/>
-      <c r="E58" s="117"/>
+      <c r="B58" s="137"/>
+      <c r="C58" s="134"/>
+      <c r="D58" s="138"/>
+      <c r="E58" s="137"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -10164,7 +10164,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="106" t="s">
+      <c r="B59" s="128" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -10236,7 +10236,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="106"/>
+      <c r="B60" s="128"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -10306,7 +10306,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="107" t="s">
+      <c r="B61" s="129" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -10378,7 +10378,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="107"/>
+      <c r="B62" s="129"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -10446,7 +10446,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="107"/>
+      <c r="B63" s="129"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -10655,6 +10655,37 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="E31:E58"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="BN5:BN6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="U6:Y6"/>
+    <mergeCell ref="Z6:AD6"/>
+    <mergeCell ref="AE6:AI6"/>
+    <mergeCell ref="AJ6:AN6"/>
+    <mergeCell ref="AO6:AS6"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
@@ -10665,37 +10696,6 @@
     <mergeCell ref="AY6:BC6"/>
     <mergeCell ref="BD6:BH6"/>
     <mergeCell ref="BI6:BM6"/>
-    <mergeCell ref="BN5:BN6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="U6:Y6"/>
-    <mergeCell ref="Z6:AD6"/>
-    <mergeCell ref="AE6:AI6"/>
-    <mergeCell ref="AJ6:AN6"/>
-    <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="E31:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10709,31 +10709,31 @@
       <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="4"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
     <col min="2" max="2" width="28" style="3" customWidth="1"/>
-    <col min="3" max="3" width="65.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="65.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="2" customWidth="1"/>
-    <col min="5" max="5" width="29.125" style="2" customWidth="1"/>
-    <col min="6" max="65" width="2.25" style="3" customWidth="1"/>
-    <col min="66" max="69" width="9.125" style="3"/>
+    <col min="5" max="5" width="29.140625" style="2" customWidth="1"/>
+    <col min="6" max="65" width="2.28515625" style="3" customWidth="1"/>
+    <col min="66" max="69" width="9.140625" style="3"/>
     <col min="70" max="70" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="14.875" style="3" customWidth="1"/>
+    <col min="71" max="71" width="14.85546875" style="3" customWidth="1"/>
     <col min="72" max="72" width="13" style="3" customWidth="1"/>
-    <col min="73" max="73" width="13.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="74" max="1026" width="9.125" style="3"/>
-    <col min="1027" max="16384" width="9.125" style="4"/>
+    <col min="73" max="73" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="74" max="1026" width="9.140625" style="3"/>
+    <col min="1027" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="131" t="s">
+      <c r="B1" s="109" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
     </row>
     <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
@@ -10899,84 +10899,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="129" t="s">
+      <c r="B5" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="132" t="s">
+      <c r="C5" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="133" t="s">
+      <c r="D5" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="129" t="s">
+      <c r="E5" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="134" t="s">
+      <c r="F5" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="134"/>
-      <c r="H5" s="134"/>
-      <c r="I5" s="134"/>
-      <c r="J5" s="134"/>
-      <c r="K5" s="134"/>
-      <c r="L5" s="134"/>
-      <c r="M5" s="134"/>
-      <c r="N5" s="134"/>
-      <c r="O5" s="134"/>
-      <c r="P5" s="134"/>
-      <c r="Q5" s="134"/>
-      <c r="R5" s="134"/>
-      <c r="S5" s="134"/>
-      <c r="T5" s="134"/>
-      <c r="U5" s="134"/>
-      <c r="V5" s="134"/>
-      <c r="W5" s="134"/>
-      <c r="X5" s="134"/>
-      <c r="Y5" s="134"/>
-      <c r="Z5" s="134"/>
-      <c r="AA5" s="134"/>
-      <c r="AB5" s="134"/>
-      <c r="AC5" s="134"/>
-      <c r="AD5" s="134"/>
-      <c r="AE5" s="134"/>
-      <c r="AF5" s="134"/>
-      <c r="AG5" s="134"/>
-      <c r="AH5" s="134"/>
-      <c r="AI5" s="134"/>
-      <c r="AJ5" s="134"/>
-      <c r="AK5" s="134"/>
-      <c r="AL5" s="134"/>
-      <c r="AM5" s="134"/>
-      <c r="AN5" s="134"/>
-      <c r="AO5" s="134"/>
-      <c r="AP5" s="134"/>
-      <c r="AQ5" s="134"/>
-      <c r="AR5" s="134"/>
-      <c r="AS5" s="134"/>
-      <c r="AT5" s="134"/>
-      <c r="AU5" s="134"/>
-      <c r="AV5" s="134"/>
-      <c r="AW5" s="134"/>
-      <c r="AX5" s="134"/>
-      <c r="AY5" s="134"/>
-      <c r="AZ5" s="134"/>
-      <c r="BA5" s="134"/>
-      <c r="BB5" s="134"/>
-      <c r="BC5" s="134"/>
-      <c r="BD5" s="134"/>
-      <c r="BE5" s="134"/>
-      <c r="BF5" s="134"/>
-      <c r="BG5" s="134"/>
-      <c r="BH5" s="134"/>
-      <c r="BI5" s="134"/>
-      <c r="BJ5" s="134"/>
-      <c r="BK5" s="134"/>
-      <c r="BL5" s="134"/>
-      <c r="BM5" s="134"/>
-      <c r="BN5" s="128" t="s">
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="113"/>
+      <c r="K5" s="113"/>
+      <c r="L5" s="113"/>
+      <c r="M5" s="113"/>
+      <c r="N5" s="113"/>
+      <c r="O5" s="113"/>
+      <c r="P5" s="113"/>
+      <c r="Q5" s="113"/>
+      <c r="R5" s="113"/>
+      <c r="S5" s="113"/>
+      <c r="T5" s="113"/>
+      <c r="U5" s="113"/>
+      <c r="V5" s="113"/>
+      <c r="W5" s="113"/>
+      <c r="X5" s="113"/>
+      <c r="Y5" s="113"/>
+      <c r="Z5" s="113"/>
+      <c r="AA5" s="113"/>
+      <c r="AB5" s="113"/>
+      <c r="AC5" s="113"/>
+      <c r="AD5" s="113"/>
+      <c r="AE5" s="113"/>
+      <c r="AF5" s="113"/>
+      <c r="AG5" s="113"/>
+      <c r="AH5" s="113"/>
+      <c r="AI5" s="113"/>
+      <c r="AJ5" s="113"/>
+      <c r="AK5" s="113"/>
+      <c r="AL5" s="113"/>
+      <c r="AM5" s="113"/>
+      <c r="AN5" s="113"/>
+      <c r="AO5" s="113"/>
+      <c r="AP5" s="113"/>
+      <c r="AQ5" s="113"/>
+      <c r="AR5" s="113"/>
+      <c r="AS5" s="113"/>
+      <c r="AT5" s="113"/>
+      <c r="AU5" s="113"/>
+      <c r="AV5" s="113"/>
+      <c r="AW5" s="113"/>
+      <c r="AX5" s="113"/>
+      <c r="AY5" s="113"/>
+      <c r="AZ5" s="113"/>
+      <c r="BA5" s="113"/>
+      <c r="BB5" s="113"/>
+      <c r="BC5" s="113"/>
+      <c r="BD5" s="113"/>
+      <c r="BE5" s="113"/>
+      <c r="BF5" s="113"/>
+      <c r="BG5" s="113"/>
+      <c r="BH5" s="113"/>
+      <c r="BI5" s="113"/>
+      <c r="BJ5" s="113"/>
+      <c r="BK5" s="113"/>
+      <c r="BL5" s="113"/>
+      <c r="BM5" s="113"/>
+      <c r="BN5" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="129" t="s">
+      <c r="BO5" s="110" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -10985,107 +10985,107 @@
       <c r="BU5" s="94"/>
     </row>
     <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="129"/>
-      <c r="C6" s="132"/>
-      <c r="D6" s="133"/>
-      <c r="E6" s="129"/>
-      <c r="F6" s="130" t="s">
+      <c r="B6" s="110"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="130"/>
-      <c r="H6" s="130"/>
-      <c r="I6" s="130"/>
-      <c r="J6" s="130"/>
-      <c r="K6" s="130" t="s">
+      <c r="G6" s="114"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="114"/>
+      <c r="K6" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="130"/>
-      <c r="M6" s="130"/>
-      <c r="N6" s="130"/>
-      <c r="O6" s="130"/>
-      <c r="P6" s="130" t="s">
+      <c r="L6" s="114"/>
+      <c r="M6" s="114"/>
+      <c r="N6" s="114"/>
+      <c r="O6" s="114"/>
+      <c r="P6" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="130"/>
-      <c r="R6" s="130"/>
-      <c r="S6" s="130"/>
-      <c r="T6" s="130"/>
-      <c r="U6" s="130" t="s">
+      <c r="Q6" s="114"/>
+      <c r="R6" s="114"/>
+      <c r="S6" s="114"/>
+      <c r="T6" s="114"/>
+      <c r="U6" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="130"/>
-      <c r="W6" s="130"/>
-      <c r="X6" s="130"/>
-      <c r="Y6" s="130"/>
-      <c r="Z6" s="130" t="s">
+      <c r="V6" s="114"/>
+      <c r="W6" s="114"/>
+      <c r="X6" s="114"/>
+      <c r="Y6" s="114"/>
+      <c r="Z6" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="130"/>
-      <c r="AB6" s="130"/>
-      <c r="AC6" s="130"/>
-      <c r="AD6" s="130"/>
-      <c r="AE6" s="130" t="s">
+      <c r="AA6" s="114"/>
+      <c r="AB6" s="114"/>
+      <c r="AC6" s="114"/>
+      <c r="AD6" s="114"/>
+      <c r="AE6" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="130"/>
-      <c r="AG6" s="130"/>
-      <c r="AH6" s="130"/>
-      <c r="AI6" s="130"/>
-      <c r="AJ6" s="130" t="s">
+      <c r="AF6" s="114"/>
+      <c r="AG6" s="114"/>
+      <c r="AH6" s="114"/>
+      <c r="AI6" s="114"/>
+      <c r="AJ6" s="114" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="130"/>
-      <c r="AL6" s="130"/>
-      <c r="AM6" s="130"/>
-      <c r="AN6" s="130"/>
-      <c r="AO6" s="130" t="s">
+      <c r="AK6" s="114"/>
+      <c r="AL6" s="114"/>
+      <c r="AM6" s="114"/>
+      <c r="AN6" s="114"/>
+      <c r="AO6" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="130"/>
-      <c r="AQ6" s="130"/>
-      <c r="AR6" s="130"/>
-      <c r="AS6" s="130"/>
-      <c r="AT6" s="130" t="s">
+      <c r="AP6" s="114"/>
+      <c r="AQ6" s="114"/>
+      <c r="AR6" s="114"/>
+      <c r="AS6" s="114"/>
+      <c r="AT6" s="114" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="130"/>
-      <c r="AV6" s="130"/>
-      <c r="AW6" s="130"/>
-      <c r="AX6" s="130"/>
-      <c r="AY6" s="130" t="s">
+      <c r="AU6" s="114"/>
+      <c r="AV6" s="114"/>
+      <c r="AW6" s="114"/>
+      <c r="AX6" s="114"/>
+      <c r="AY6" s="114" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="130"/>
-      <c r="BA6" s="130"/>
-      <c r="BB6" s="130"/>
-      <c r="BC6" s="130"/>
-      <c r="BD6" s="130" t="s">
+      <c r="AZ6" s="114"/>
+      <c r="BA6" s="114"/>
+      <c r="BB6" s="114"/>
+      <c r="BC6" s="114"/>
+      <c r="BD6" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="130"/>
-      <c r="BF6" s="130"/>
-      <c r="BG6" s="130"/>
-      <c r="BH6" s="130"/>
-      <c r="BI6" s="135" t="s">
+      <c r="BE6" s="114"/>
+      <c r="BF6" s="114"/>
+      <c r="BG6" s="114"/>
+      <c r="BH6" s="114"/>
+      <c r="BI6" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="135"/>
-      <c r="BK6" s="135"/>
-      <c r="BL6" s="135"/>
-      <c r="BM6" s="135"/>
-      <c r="BN6" s="128"/>
-      <c r="BO6" s="129"/>
+      <c r="BJ6" s="115"/>
+      <c r="BK6" s="115"/>
+      <c r="BL6" s="115"/>
+      <c r="BM6" s="115"/>
+      <c r="BN6" s="116"/>
+      <c r="BO6" s="110"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="123" t="s">
+      <c r="B7" s="117" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="123"/>
-      <c r="E7" s="124"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="118"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -12110,12 +12110,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="123"/>
+      <c r="B8" s="117"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="123"/>
-      <c r="E8" s="121"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="119"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -13139,14 +13139,14 @@
       <c r="AML8" s="23"/>
     </row>
     <row r="9" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="119" t="s">
+      <c r="B9" s="120" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="120"/>
-      <c r="E9" s="125"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="122"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
       <c r="H9" s="83"/>
@@ -14170,12 +14170,12 @@
       <c r="AML9" s="21"/>
     </row>
     <row r="10" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B10" s="119"/>
+      <c r="B10" s="120"/>
       <c r="C10" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="120"/>
-      <c r="E10" s="126"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="123"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -15199,12 +15199,12 @@
       <c r="AML10" s="21"/>
     </row>
     <row r="11" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="119"/>
+      <c r="B11" s="120"/>
       <c r="C11" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="120"/>
-      <c r="E11" s="126"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="123"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -16228,12 +16228,12 @@
       <c r="AML11" s="21"/>
     </row>
     <row r="12" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="119"/>
+      <c r="B12" s="120"/>
       <c r="C12" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="120"/>
-      <c r="E12" s="127"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="124"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -16298,14 +16298,14 @@
       <c r="BO12" s="31"/>
     </row>
     <row r="13" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B13" s="119" t="s">
+      <c r="B13" s="120" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="120"/>
-      <c r="E13" s="121"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="119"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -16370,12 +16370,12 @@
       <c r="BO13" s="20"/>
     </row>
     <row r="14" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B14" s="119"/>
+      <c r="B14" s="120"/>
       <c r="C14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="120"/>
-      <c r="E14" s="121"/>
+      <c r="D14" s="121"/>
+      <c r="E14" s="119"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -16440,12 +16440,12 @@
       <c r="BO14" s="31"/>
     </row>
     <row r="15" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="119"/>
+      <c r="B15" s="120"/>
       <c r="C15" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="120"/>
-      <c r="E15" s="121"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="119"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -16510,12 +16510,12 @@
       <c r="BO15" s="31"/>
     </row>
     <row r="16" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B16" s="119"/>
+      <c r="B16" s="120"/>
       <c r="C16" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="120"/>
-      <c r="E16" s="121"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="119"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -16580,12 +16580,12 @@
       <c r="BO16" s="31"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B17" s="119"/>
+      <c r="B17" s="120"/>
       <c r="C17" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="120"/>
-      <c r="E17" s="121"/>
+      <c r="D17" s="121"/>
+      <c r="E17" s="119"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -16650,12 +16650,12 @@
       <c r="BO17" s="31"/>
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B18" s="119"/>
+      <c r="B18" s="120"/>
       <c r="C18" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="120"/>
-      <c r="E18" s="121"/>
+      <c r="D18" s="121"/>
+      <c r="E18" s="119"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -16720,12 +16720,12 @@
       <c r="BO18" s="31"/>
     </row>
     <row r="19" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B19" s="119"/>
+      <c r="B19" s="120"/>
       <c r="C19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="120"/>
-      <c r="E19" s="121"/>
+      <c r="D19" s="121"/>
+      <c r="E19" s="119"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -16790,14 +16790,14 @@
       <c r="BO19" s="27"/>
     </row>
     <row r="20" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B20" s="122" t="s">
+      <c r="B20" s="125" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="123"/>
-      <c r="E20" s="112"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="126"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -16862,12 +16862,12 @@
       <c r="BO20" s="20"/>
     </row>
     <row r="21" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B21" s="122"/>
+      <c r="B21" s="125"/>
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="123"/>
-      <c r="E21" s="113"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="127"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -16932,12 +16932,12 @@
       <c r="BO21" s="31"/>
     </row>
     <row r="22" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B22" s="122"/>
+      <c r="B22" s="125"/>
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="123"/>
-      <c r="E22" s="113"/>
+      <c r="D22" s="117"/>
+      <c r="E22" s="127"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -17002,12 +17002,12 @@
       <c r="BO22" s="31"/>
     </row>
     <row r="23" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B23" s="122"/>
+      <c r="B23" s="125"/>
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="123"/>
-      <c r="E23" s="113"/>
+      <c r="D23" s="117"/>
+      <c r="E23" s="127"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -17072,12 +17072,12 @@
       <c r="BO23" s="31"/>
     </row>
     <row r="24" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B24" s="122"/>
+      <c r="B24" s="125"/>
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="123"/>
-      <c r="E24" s="113"/>
+      <c r="D24" s="117"/>
+      <c r="E24" s="127"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -17142,14 +17142,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="108" t="s">
+      <c r="B25" s="130" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="111"/>
-      <c r="E25" s="112"/>
+      <c r="D25" s="133"/>
+      <c r="E25" s="126"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -17214,12 +17214,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="109"/>
+      <c r="B26" s="131"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="111"/>
-      <c r="E26" s="113"/>
+      <c r="D26" s="133"/>
+      <c r="E26" s="127"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -17284,12 +17284,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="109"/>
+      <c r="B27" s="131"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="111"/>
-      <c r="E27" s="113"/>
+      <c r="D27" s="133"/>
+      <c r="E27" s="127"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -17354,12 +17354,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="109"/>
+      <c r="B28" s="131"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="111"/>
-      <c r="E28" s="113"/>
+      <c r="D28" s="133"/>
+      <c r="E28" s="127"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -17424,12 +17424,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="110"/>
+      <c r="B29" s="132"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="111"/>
-      <c r="E29" s="114"/>
+      <c r="D29" s="133"/>
+      <c r="E29" s="134"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -17566,10 +17566,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="115"/>
-      <c r="C31" s="112"/>
-      <c r="D31" s="118"/>
-      <c r="E31" s="115"/>
+      <c r="B31" s="135"/>
+      <c r="C31" s="126"/>
+      <c r="D31" s="138"/>
+      <c r="E31" s="135"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -17634,10 +17634,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="116"/>
-      <c r="C32" s="113"/>
-      <c r="D32" s="118"/>
-      <c r="E32" s="116"/>
+      <c r="B32" s="136"/>
+      <c r="C32" s="127"/>
+      <c r="D32" s="138"/>
+      <c r="E32" s="136"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -17702,10 +17702,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="116"/>
-      <c r="C33" s="113"/>
-      <c r="D33" s="118"/>
-      <c r="E33" s="116"/>
+      <c r="B33" s="136"/>
+      <c r="C33" s="127"/>
+      <c r="D33" s="138"/>
+      <c r="E33" s="136"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -17770,10 +17770,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="116"/>
-      <c r="C34" s="113"/>
-      <c r="D34" s="118"/>
-      <c r="E34" s="116"/>
+      <c r="B34" s="136"/>
+      <c r="C34" s="127"/>
+      <c r="D34" s="138"/>
+      <c r="E34" s="136"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -17838,10 +17838,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="116"/>
-      <c r="C35" s="113"/>
-      <c r="D35" s="118"/>
-      <c r="E35" s="116"/>
+      <c r="B35" s="136"/>
+      <c r="C35" s="127"/>
+      <c r="D35" s="138"/>
+      <c r="E35" s="136"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -17906,10 +17906,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="116"/>
-      <c r="C36" s="113"/>
-      <c r="D36" s="118"/>
-      <c r="E36" s="116"/>
+      <c r="B36" s="136"/>
+      <c r="C36" s="127"/>
+      <c r="D36" s="138"/>
+      <c r="E36" s="136"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -17974,10 +17974,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="116"/>
-      <c r="C37" s="113"/>
-      <c r="D37" s="118"/>
-      <c r="E37" s="116"/>
+      <c r="B37" s="136"/>
+      <c r="C37" s="127"/>
+      <c r="D37" s="138"/>
+      <c r="E37" s="136"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -18042,10 +18042,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="116"/>
-      <c r="C38" s="113"/>
-      <c r="D38" s="118"/>
-      <c r="E38" s="116"/>
+      <c r="B38" s="136"/>
+      <c r="C38" s="127"/>
+      <c r="D38" s="138"/>
+      <c r="E38" s="136"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -18110,10 +18110,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="116"/>
-      <c r="C39" s="113"/>
-      <c r="D39" s="118"/>
-      <c r="E39" s="116"/>
+      <c r="B39" s="136"/>
+      <c r="C39" s="127"/>
+      <c r="D39" s="138"/>
+      <c r="E39" s="136"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -18178,10 +18178,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="116"/>
-      <c r="C40" s="113"/>
-      <c r="D40" s="118"/>
-      <c r="E40" s="116"/>
+      <c r="B40" s="136"/>
+      <c r="C40" s="127"/>
+      <c r="D40" s="138"/>
+      <c r="E40" s="136"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -18246,10 +18246,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="116"/>
-      <c r="C41" s="113"/>
-      <c r="D41" s="118"/>
-      <c r="E41" s="116"/>
+      <c r="B41" s="136"/>
+      <c r="C41" s="127"/>
+      <c r="D41" s="138"/>
+      <c r="E41" s="136"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -18314,10 +18314,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="116"/>
-      <c r="C42" s="113"/>
-      <c r="D42" s="118"/>
-      <c r="E42" s="116"/>
+      <c r="B42" s="136"/>
+      <c r="C42" s="127"/>
+      <c r="D42" s="138"/>
+      <c r="E42" s="136"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -18382,10 +18382,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="116"/>
-      <c r="C43" s="113"/>
-      <c r="D43" s="118"/>
-      <c r="E43" s="116"/>
+      <c r="B43" s="136"/>
+      <c r="C43" s="127"/>
+      <c r="D43" s="138"/>
+      <c r="E43" s="136"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -18450,10 +18450,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="116"/>
-      <c r="C44" s="113"/>
-      <c r="D44" s="118"/>
-      <c r="E44" s="116"/>
+      <c r="B44" s="136"/>
+      <c r="C44" s="127"/>
+      <c r="D44" s="138"/>
+      <c r="E44" s="136"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -18518,10 +18518,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="116"/>
-      <c r="C45" s="113"/>
-      <c r="D45" s="118"/>
-      <c r="E45" s="116"/>
+      <c r="B45" s="136"/>
+      <c r="C45" s="127"/>
+      <c r="D45" s="138"/>
+      <c r="E45" s="136"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -18586,10 +18586,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="116"/>
-      <c r="C46" s="113"/>
-      <c r="D46" s="118"/>
-      <c r="E46" s="116"/>
+      <c r="B46" s="136"/>
+      <c r="C46" s="127"/>
+      <c r="D46" s="138"/>
+      <c r="E46" s="136"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -18654,10 +18654,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="116"/>
-      <c r="C47" s="113"/>
-      <c r="D47" s="118"/>
-      <c r="E47" s="116"/>
+      <c r="B47" s="136"/>
+      <c r="C47" s="127"/>
+      <c r="D47" s="138"/>
+      <c r="E47" s="136"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -18722,10 +18722,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="116"/>
-      <c r="C48" s="113"/>
-      <c r="D48" s="118"/>
-      <c r="E48" s="116"/>
+      <c r="B48" s="136"/>
+      <c r="C48" s="127"/>
+      <c r="D48" s="138"/>
+      <c r="E48" s="136"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -18790,10 +18790,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="116"/>
-      <c r="C49" s="113"/>
-      <c r="D49" s="118"/>
-      <c r="E49" s="116"/>
+      <c r="B49" s="136"/>
+      <c r="C49" s="127"/>
+      <c r="D49" s="138"/>
+      <c r="E49" s="136"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -18858,10 +18858,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="116"/>
-      <c r="C50" s="113"/>
-      <c r="D50" s="118"/>
-      <c r="E50" s="116"/>
+      <c r="B50" s="136"/>
+      <c r="C50" s="127"/>
+      <c r="D50" s="138"/>
+      <c r="E50" s="136"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -18926,10 +18926,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="116"/>
-      <c r="C51" s="113"/>
-      <c r="D51" s="118"/>
-      <c r="E51" s="116"/>
+      <c r="B51" s="136"/>
+      <c r="C51" s="127"/>
+      <c r="D51" s="138"/>
+      <c r="E51" s="136"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -18994,10 +18994,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="116"/>
-      <c r="C52" s="113"/>
-      <c r="D52" s="118"/>
-      <c r="E52" s="116"/>
+      <c r="B52" s="136"/>
+      <c r="C52" s="127"/>
+      <c r="D52" s="138"/>
+      <c r="E52" s="136"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -19062,10 +19062,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="116"/>
-      <c r="C53" s="113"/>
-      <c r="D53" s="118"/>
-      <c r="E53" s="116"/>
+      <c r="B53" s="136"/>
+      <c r="C53" s="127"/>
+      <c r="D53" s="138"/>
+      <c r="E53" s="136"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -19130,10 +19130,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="116"/>
-      <c r="C54" s="113"/>
-      <c r="D54" s="118"/>
-      <c r="E54" s="116"/>
+      <c r="B54" s="136"/>
+      <c r="C54" s="127"/>
+      <c r="D54" s="138"/>
+      <c r="E54" s="136"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -19198,10 +19198,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="116"/>
-      <c r="C55" s="113"/>
-      <c r="D55" s="118"/>
-      <c r="E55" s="116"/>
+      <c r="B55" s="136"/>
+      <c r="C55" s="127"/>
+      <c r="D55" s="138"/>
+      <c r="E55" s="136"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -19266,10 +19266,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="116"/>
-      <c r="C56" s="113"/>
-      <c r="D56" s="118"/>
-      <c r="E56" s="116"/>
+      <c r="B56" s="136"/>
+      <c r="C56" s="127"/>
+      <c r="D56" s="138"/>
+      <c r="E56" s="136"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -19334,10 +19334,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="116"/>
-      <c r="C57" s="113"/>
-      <c r="D57" s="118"/>
-      <c r="E57" s="116"/>
+      <c r="B57" s="136"/>
+      <c r="C57" s="127"/>
+      <c r="D57" s="138"/>
+      <c r="E57" s="136"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -19397,10 +19397,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="117"/>
-      <c r="C58" s="114"/>
-      <c r="D58" s="118"/>
-      <c r="E58" s="117"/>
+      <c r="B58" s="137"/>
+      <c r="C58" s="134"/>
+      <c r="D58" s="138"/>
+      <c r="E58" s="137"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -19465,7 +19465,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="106" t="s">
+      <c r="B59" s="128" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -19537,7 +19537,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="106"/>
+      <c r="B60" s="128"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -19607,7 +19607,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="107" t="s">
+      <c r="B61" s="129" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -19679,7 +19679,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="107"/>
+      <c r="B62" s="129"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -19747,7 +19747,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="107"/>
+      <c r="B63" s="129"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -19956,6 +19956,37 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="E31:E58"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="BN5:BN6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="U6:Y6"/>
+    <mergeCell ref="Z6:AD6"/>
+    <mergeCell ref="AE6:AI6"/>
+    <mergeCell ref="AJ6:AN6"/>
+    <mergeCell ref="AO6:AS6"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
@@ -19966,37 +19997,6 @@
     <mergeCell ref="AY6:BC6"/>
     <mergeCell ref="BD6:BH6"/>
     <mergeCell ref="BI6:BM6"/>
-    <mergeCell ref="BN5:BN6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="U6:Y6"/>
-    <mergeCell ref="Z6:AD6"/>
-    <mergeCell ref="AE6:AI6"/>
-    <mergeCell ref="AJ6:AN6"/>
-    <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="E31:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20010,31 +20010,31 @@
       <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="4"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
     <col min="2" max="2" width="28" style="3" customWidth="1"/>
-    <col min="3" max="3" width="65.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="65.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="2" customWidth="1"/>
-    <col min="5" max="5" width="29.125" style="2" customWidth="1"/>
-    <col min="6" max="65" width="2.25" style="3" customWidth="1"/>
-    <col min="66" max="69" width="9.125" style="3"/>
+    <col min="5" max="5" width="29.140625" style="2" customWidth="1"/>
+    <col min="6" max="65" width="2.28515625" style="3" customWidth="1"/>
+    <col min="66" max="69" width="9.140625" style="3"/>
     <col min="70" max="70" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="14.875" style="3" customWidth="1"/>
+    <col min="71" max="71" width="14.85546875" style="3" customWidth="1"/>
     <col min="72" max="72" width="13" style="3" customWidth="1"/>
-    <col min="73" max="73" width="13.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="74" max="1026" width="9.125" style="3"/>
-    <col min="1027" max="16384" width="9.125" style="4"/>
+    <col min="73" max="73" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="74" max="1026" width="9.140625" style="3"/>
+    <col min="1027" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="131" t="s">
+      <c r="B1" s="109" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
     </row>
     <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
@@ -20200,84 +20200,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="129" t="s">
+      <c r="B5" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="132" t="s">
+      <c r="C5" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="133" t="s">
+      <c r="D5" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="129" t="s">
+      <c r="E5" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="134" t="s">
+      <c r="F5" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="134"/>
-      <c r="H5" s="134"/>
-      <c r="I5" s="134"/>
-      <c r="J5" s="134"/>
-      <c r="K5" s="134"/>
-      <c r="L5" s="134"/>
-      <c r="M5" s="134"/>
-      <c r="N5" s="134"/>
-      <c r="O5" s="134"/>
-      <c r="P5" s="134"/>
-      <c r="Q5" s="134"/>
-      <c r="R5" s="134"/>
-      <c r="S5" s="134"/>
-      <c r="T5" s="134"/>
-      <c r="U5" s="134"/>
-      <c r="V5" s="134"/>
-      <c r="W5" s="134"/>
-      <c r="X5" s="134"/>
-      <c r="Y5" s="134"/>
-      <c r="Z5" s="134"/>
-      <c r="AA5" s="134"/>
-      <c r="AB5" s="134"/>
-      <c r="AC5" s="134"/>
-      <c r="AD5" s="134"/>
-      <c r="AE5" s="134"/>
-      <c r="AF5" s="134"/>
-      <c r="AG5" s="134"/>
-      <c r="AH5" s="134"/>
-      <c r="AI5" s="134"/>
-      <c r="AJ5" s="134"/>
-      <c r="AK5" s="134"/>
-      <c r="AL5" s="134"/>
-      <c r="AM5" s="134"/>
-      <c r="AN5" s="134"/>
-      <c r="AO5" s="134"/>
-      <c r="AP5" s="134"/>
-      <c r="AQ5" s="134"/>
-      <c r="AR5" s="134"/>
-      <c r="AS5" s="134"/>
-      <c r="AT5" s="134"/>
-      <c r="AU5" s="134"/>
-      <c r="AV5" s="134"/>
-      <c r="AW5" s="134"/>
-      <c r="AX5" s="134"/>
-      <c r="AY5" s="134"/>
-      <c r="AZ5" s="134"/>
-      <c r="BA5" s="134"/>
-      <c r="BB5" s="134"/>
-      <c r="BC5" s="134"/>
-      <c r="BD5" s="134"/>
-      <c r="BE5" s="134"/>
-      <c r="BF5" s="134"/>
-      <c r="BG5" s="134"/>
-      <c r="BH5" s="134"/>
-      <c r="BI5" s="134"/>
-      <c r="BJ5" s="134"/>
-      <c r="BK5" s="134"/>
-      <c r="BL5" s="134"/>
-      <c r="BM5" s="134"/>
-      <c r="BN5" s="128" t="s">
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="113"/>
+      <c r="K5" s="113"/>
+      <c r="L5" s="113"/>
+      <c r="M5" s="113"/>
+      <c r="N5" s="113"/>
+      <c r="O5" s="113"/>
+      <c r="P5" s="113"/>
+      <c r="Q5" s="113"/>
+      <c r="R5" s="113"/>
+      <c r="S5" s="113"/>
+      <c r="T5" s="113"/>
+      <c r="U5" s="113"/>
+      <c r="V5" s="113"/>
+      <c r="W5" s="113"/>
+      <c r="X5" s="113"/>
+      <c r="Y5" s="113"/>
+      <c r="Z5" s="113"/>
+      <c r="AA5" s="113"/>
+      <c r="AB5" s="113"/>
+      <c r="AC5" s="113"/>
+      <c r="AD5" s="113"/>
+      <c r="AE5" s="113"/>
+      <c r="AF5" s="113"/>
+      <c r="AG5" s="113"/>
+      <c r="AH5" s="113"/>
+      <c r="AI5" s="113"/>
+      <c r="AJ5" s="113"/>
+      <c r="AK5" s="113"/>
+      <c r="AL5" s="113"/>
+      <c r="AM5" s="113"/>
+      <c r="AN5" s="113"/>
+      <c r="AO5" s="113"/>
+      <c r="AP5" s="113"/>
+      <c r="AQ5" s="113"/>
+      <c r="AR5" s="113"/>
+      <c r="AS5" s="113"/>
+      <c r="AT5" s="113"/>
+      <c r="AU5" s="113"/>
+      <c r="AV5" s="113"/>
+      <c r="AW5" s="113"/>
+      <c r="AX5" s="113"/>
+      <c r="AY5" s="113"/>
+      <c r="AZ5" s="113"/>
+      <c r="BA5" s="113"/>
+      <c r="BB5" s="113"/>
+      <c r="BC5" s="113"/>
+      <c r="BD5" s="113"/>
+      <c r="BE5" s="113"/>
+      <c r="BF5" s="113"/>
+      <c r="BG5" s="113"/>
+      <c r="BH5" s="113"/>
+      <c r="BI5" s="113"/>
+      <c r="BJ5" s="113"/>
+      <c r="BK5" s="113"/>
+      <c r="BL5" s="113"/>
+      <c r="BM5" s="113"/>
+      <c r="BN5" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="129" t="s">
+      <c r="BO5" s="110" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -20286,107 +20286,107 @@
       <c r="BU5" s="94"/>
     </row>
     <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="129"/>
-      <c r="C6" s="132"/>
-      <c r="D6" s="133"/>
-      <c r="E6" s="129"/>
-      <c r="F6" s="130" t="s">
+      <c r="B6" s="110"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="130"/>
-      <c r="H6" s="130"/>
-      <c r="I6" s="130"/>
-      <c r="J6" s="130"/>
-      <c r="K6" s="130" t="s">
+      <c r="G6" s="114"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="114"/>
+      <c r="K6" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="130"/>
-      <c r="M6" s="130"/>
-      <c r="N6" s="130"/>
-      <c r="O6" s="130"/>
-      <c r="P6" s="130" t="s">
+      <c r="L6" s="114"/>
+      <c r="M6" s="114"/>
+      <c r="N6" s="114"/>
+      <c r="O6" s="114"/>
+      <c r="P6" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="130"/>
-      <c r="R6" s="130"/>
-      <c r="S6" s="130"/>
-      <c r="T6" s="130"/>
-      <c r="U6" s="130" t="s">
+      <c r="Q6" s="114"/>
+      <c r="R6" s="114"/>
+      <c r="S6" s="114"/>
+      <c r="T6" s="114"/>
+      <c r="U6" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="130"/>
-      <c r="W6" s="130"/>
-      <c r="X6" s="130"/>
-      <c r="Y6" s="130"/>
-      <c r="Z6" s="130" t="s">
+      <c r="V6" s="114"/>
+      <c r="W6" s="114"/>
+      <c r="X6" s="114"/>
+      <c r="Y6" s="114"/>
+      <c r="Z6" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="130"/>
-      <c r="AB6" s="130"/>
-      <c r="AC6" s="130"/>
-      <c r="AD6" s="130"/>
-      <c r="AE6" s="130" t="s">
+      <c r="AA6" s="114"/>
+      <c r="AB6" s="114"/>
+      <c r="AC6" s="114"/>
+      <c r="AD6" s="114"/>
+      <c r="AE6" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="130"/>
-      <c r="AG6" s="130"/>
-      <c r="AH6" s="130"/>
-      <c r="AI6" s="130"/>
-      <c r="AJ6" s="130" t="s">
+      <c r="AF6" s="114"/>
+      <c r="AG6" s="114"/>
+      <c r="AH6" s="114"/>
+      <c r="AI6" s="114"/>
+      <c r="AJ6" s="114" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="130"/>
-      <c r="AL6" s="130"/>
-      <c r="AM6" s="130"/>
-      <c r="AN6" s="130"/>
-      <c r="AO6" s="130" t="s">
+      <c r="AK6" s="114"/>
+      <c r="AL6" s="114"/>
+      <c r="AM6" s="114"/>
+      <c r="AN6" s="114"/>
+      <c r="AO6" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="130"/>
-      <c r="AQ6" s="130"/>
-      <c r="AR6" s="130"/>
-      <c r="AS6" s="130"/>
-      <c r="AT6" s="130" t="s">
+      <c r="AP6" s="114"/>
+      <c r="AQ6" s="114"/>
+      <c r="AR6" s="114"/>
+      <c r="AS6" s="114"/>
+      <c r="AT6" s="114" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="130"/>
-      <c r="AV6" s="130"/>
-      <c r="AW6" s="130"/>
-      <c r="AX6" s="130"/>
-      <c r="AY6" s="130" t="s">
+      <c r="AU6" s="114"/>
+      <c r="AV6" s="114"/>
+      <c r="AW6" s="114"/>
+      <c r="AX6" s="114"/>
+      <c r="AY6" s="114" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="130"/>
-      <c r="BA6" s="130"/>
-      <c r="BB6" s="130"/>
-      <c r="BC6" s="130"/>
-      <c r="BD6" s="130" t="s">
+      <c r="AZ6" s="114"/>
+      <c r="BA6" s="114"/>
+      <c r="BB6" s="114"/>
+      <c r="BC6" s="114"/>
+      <c r="BD6" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="130"/>
-      <c r="BF6" s="130"/>
-      <c r="BG6" s="130"/>
-      <c r="BH6" s="130"/>
-      <c r="BI6" s="135" t="s">
+      <c r="BE6" s="114"/>
+      <c r="BF6" s="114"/>
+      <c r="BG6" s="114"/>
+      <c r="BH6" s="114"/>
+      <c r="BI6" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="135"/>
-      <c r="BK6" s="135"/>
-      <c r="BL6" s="135"/>
-      <c r="BM6" s="135"/>
-      <c r="BN6" s="128"/>
-      <c r="BO6" s="129"/>
+      <c r="BJ6" s="115"/>
+      <c r="BK6" s="115"/>
+      <c r="BL6" s="115"/>
+      <c r="BM6" s="115"/>
+      <c r="BN6" s="116"/>
+      <c r="BO6" s="110"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="123" t="s">
+      <c r="B7" s="117" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="123"/>
-      <c r="E7" s="124"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="118"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -21411,12 +21411,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="123"/>
+      <c r="B8" s="117"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="123"/>
-      <c r="E8" s="121"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="119"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -22440,14 +22440,14 @@
       <c r="AML8" s="23"/>
     </row>
     <row r="9" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="119" t="s">
+      <c r="B9" s="120" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="120"/>
-      <c r="E9" s="125"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="122"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
       <c r="H9" s="83"/>
@@ -23471,12 +23471,12 @@
       <c r="AML9" s="21"/>
     </row>
     <row r="10" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B10" s="119"/>
+      <c r="B10" s="120"/>
       <c r="C10" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="120"/>
-      <c r="E10" s="126"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="123"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -24500,12 +24500,12 @@
       <c r="AML10" s="21"/>
     </row>
     <row r="11" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="119"/>
+      <c r="B11" s="120"/>
       <c r="C11" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="120"/>
-      <c r="E11" s="126"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="123"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -25529,12 +25529,12 @@
       <c r="AML11" s="21"/>
     </row>
     <row r="12" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="119"/>
+      <c r="B12" s="120"/>
       <c r="C12" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="120"/>
-      <c r="E12" s="127"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="124"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -25599,14 +25599,14 @@
       <c r="BO12" s="31"/>
     </row>
     <row r="13" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B13" s="119" t="s">
+      <c r="B13" s="120" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="120"/>
-      <c r="E13" s="121"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="119"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -25671,12 +25671,12 @@
       <c r="BO13" s="20"/>
     </row>
     <row r="14" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B14" s="119"/>
+      <c r="B14" s="120"/>
       <c r="C14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="120"/>
-      <c r="E14" s="121"/>
+      <c r="D14" s="121"/>
+      <c r="E14" s="119"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -25741,12 +25741,12 @@
       <c r="BO14" s="31"/>
     </row>
     <row r="15" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="119"/>
+      <c r="B15" s="120"/>
       <c r="C15" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="120"/>
-      <c r="E15" s="121"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="119"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -25811,12 +25811,12 @@
       <c r="BO15" s="31"/>
     </row>
     <row r="16" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B16" s="119"/>
+      <c r="B16" s="120"/>
       <c r="C16" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="120"/>
-      <c r="E16" s="121"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="119"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -25881,12 +25881,12 @@
       <c r="BO16" s="31"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B17" s="119"/>
+      <c r="B17" s="120"/>
       <c r="C17" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="120"/>
-      <c r="E17" s="121"/>
+      <c r="D17" s="121"/>
+      <c r="E17" s="119"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -25951,12 +25951,12 @@
       <c r="BO17" s="31"/>
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B18" s="119"/>
+      <c r="B18" s="120"/>
       <c r="C18" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="120"/>
-      <c r="E18" s="121"/>
+      <c r="D18" s="121"/>
+      <c r="E18" s="119"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -26021,12 +26021,12 @@
       <c r="BO18" s="31"/>
     </row>
     <row r="19" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B19" s="119"/>
+      <c r="B19" s="120"/>
       <c r="C19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="120"/>
-      <c r="E19" s="121"/>
+      <c r="D19" s="121"/>
+      <c r="E19" s="119"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -26091,14 +26091,14 @@
       <c r="BO19" s="27"/>
     </row>
     <row r="20" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B20" s="122" t="s">
+      <c r="B20" s="125" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="123"/>
-      <c r="E20" s="112"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="126"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -26163,12 +26163,12 @@
       <c r="BO20" s="20"/>
     </row>
     <row r="21" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B21" s="122"/>
+      <c r="B21" s="125"/>
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="123"/>
-      <c r="E21" s="113"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="127"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -26233,12 +26233,12 @@
       <c r="BO21" s="31"/>
     </row>
     <row r="22" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B22" s="122"/>
+      <c r="B22" s="125"/>
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="123"/>
-      <c r="E22" s="113"/>
+      <c r="D22" s="117"/>
+      <c r="E22" s="127"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -26303,12 +26303,12 @@
       <c r="BO22" s="31"/>
     </row>
     <row r="23" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B23" s="122"/>
+      <c r="B23" s="125"/>
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="123"/>
-      <c r="E23" s="113"/>
+      <c r="D23" s="117"/>
+      <c r="E23" s="127"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -26373,12 +26373,12 @@
       <c r="BO23" s="31"/>
     </row>
     <row r="24" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B24" s="122"/>
+      <c r="B24" s="125"/>
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="123"/>
-      <c r="E24" s="113"/>
+      <c r="D24" s="117"/>
+      <c r="E24" s="127"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -26443,14 +26443,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="108" t="s">
+      <c r="B25" s="130" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="111"/>
-      <c r="E25" s="112"/>
+      <c r="D25" s="133"/>
+      <c r="E25" s="126"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -26515,12 +26515,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="109"/>
+      <c r="B26" s="131"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="111"/>
-      <c r="E26" s="113"/>
+      <c r="D26" s="133"/>
+      <c r="E26" s="127"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -26585,12 +26585,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="109"/>
+      <c r="B27" s="131"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="111"/>
-      <c r="E27" s="113"/>
+      <c r="D27" s="133"/>
+      <c r="E27" s="127"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -26655,12 +26655,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="109"/>
+      <c r="B28" s="131"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="111"/>
-      <c r="E28" s="113"/>
+      <c r="D28" s="133"/>
+      <c r="E28" s="127"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -26725,12 +26725,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="110"/>
+      <c r="B29" s="132"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="111"/>
-      <c r="E29" s="114"/>
+      <c r="D29" s="133"/>
+      <c r="E29" s="134"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -26867,10 +26867,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="115"/>
-      <c r="C31" s="112"/>
-      <c r="D31" s="118"/>
-      <c r="E31" s="115"/>
+      <c r="B31" s="135"/>
+      <c r="C31" s="126"/>
+      <c r="D31" s="138"/>
+      <c r="E31" s="135"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -26935,10 +26935,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="116"/>
-      <c r="C32" s="113"/>
-      <c r="D32" s="118"/>
-      <c r="E32" s="116"/>
+      <c r="B32" s="136"/>
+      <c r="C32" s="127"/>
+      <c r="D32" s="138"/>
+      <c r="E32" s="136"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -27003,10 +27003,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="116"/>
-      <c r="C33" s="113"/>
-      <c r="D33" s="118"/>
-      <c r="E33" s="116"/>
+      <c r="B33" s="136"/>
+      <c r="C33" s="127"/>
+      <c r="D33" s="138"/>
+      <c r="E33" s="136"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -27071,10 +27071,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="116"/>
-      <c r="C34" s="113"/>
-      <c r="D34" s="118"/>
-      <c r="E34" s="116"/>
+      <c r="B34" s="136"/>
+      <c r="C34" s="127"/>
+      <c r="D34" s="138"/>
+      <c r="E34" s="136"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -27139,10 +27139,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="116"/>
-      <c r="C35" s="113"/>
-      <c r="D35" s="118"/>
-      <c r="E35" s="116"/>
+      <c r="B35" s="136"/>
+      <c r="C35" s="127"/>
+      <c r="D35" s="138"/>
+      <c r="E35" s="136"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -27207,10 +27207,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="116"/>
-      <c r="C36" s="113"/>
-      <c r="D36" s="118"/>
-      <c r="E36" s="116"/>
+      <c r="B36" s="136"/>
+      <c r="C36" s="127"/>
+      <c r="D36" s="138"/>
+      <c r="E36" s="136"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -27275,10 +27275,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="116"/>
-      <c r="C37" s="113"/>
-      <c r="D37" s="118"/>
-      <c r="E37" s="116"/>
+      <c r="B37" s="136"/>
+      <c r="C37" s="127"/>
+      <c r="D37" s="138"/>
+      <c r="E37" s="136"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -27343,10 +27343,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="116"/>
-      <c r="C38" s="113"/>
-      <c r="D38" s="118"/>
-      <c r="E38" s="116"/>
+      <c r="B38" s="136"/>
+      <c r="C38" s="127"/>
+      <c r="D38" s="138"/>
+      <c r="E38" s="136"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -27411,10 +27411,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="116"/>
-      <c r="C39" s="113"/>
-      <c r="D39" s="118"/>
-      <c r="E39" s="116"/>
+      <c r="B39" s="136"/>
+      <c r="C39" s="127"/>
+      <c r="D39" s="138"/>
+      <c r="E39" s="136"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -27479,10 +27479,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="116"/>
-      <c r="C40" s="113"/>
-      <c r="D40" s="118"/>
-      <c r="E40" s="116"/>
+      <c r="B40" s="136"/>
+      <c r="C40" s="127"/>
+      <c r="D40" s="138"/>
+      <c r="E40" s="136"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -27547,10 +27547,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="116"/>
-      <c r="C41" s="113"/>
-      <c r="D41" s="118"/>
-      <c r="E41" s="116"/>
+      <c r="B41" s="136"/>
+      <c r="C41" s="127"/>
+      <c r="D41" s="138"/>
+      <c r="E41" s="136"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -27615,10 +27615,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="116"/>
-      <c r="C42" s="113"/>
-      <c r="D42" s="118"/>
-      <c r="E42" s="116"/>
+      <c r="B42" s="136"/>
+      <c r="C42" s="127"/>
+      <c r="D42" s="138"/>
+      <c r="E42" s="136"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -27683,10 +27683,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="116"/>
-      <c r="C43" s="113"/>
-      <c r="D43" s="118"/>
-      <c r="E43" s="116"/>
+      <c r="B43" s="136"/>
+      <c r="C43" s="127"/>
+      <c r="D43" s="138"/>
+      <c r="E43" s="136"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -27751,10 +27751,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="116"/>
-      <c r="C44" s="113"/>
-      <c r="D44" s="118"/>
-      <c r="E44" s="116"/>
+      <c r="B44" s="136"/>
+      <c r="C44" s="127"/>
+      <c r="D44" s="138"/>
+      <c r="E44" s="136"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -27819,10 +27819,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="116"/>
-      <c r="C45" s="113"/>
-      <c r="D45" s="118"/>
-      <c r="E45" s="116"/>
+      <c r="B45" s="136"/>
+      <c r="C45" s="127"/>
+      <c r="D45" s="138"/>
+      <c r="E45" s="136"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -27887,10 +27887,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="116"/>
-      <c r="C46" s="113"/>
-      <c r="D46" s="118"/>
-      <c r="E46" s="116"/>
+      <c r="B46" s="136"/>
+      <c r="C46" s="127"/>
+      <c r="D46" s="138"/>
+      <c r="E46" s="136"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -27955,10 +27955,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="116"/>
-      <c r="C47" s="113"/>
-      <c r="D47" s="118"/>
-      <c r="E47" s="116"/>
+      <c r="B47" s="136"/>
+      <c r="C47" s="127"/>
+      <c r="D47" s="138"/>
+      <c r="E47" s="136"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -28023,10 +28023,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="116"/>
-      <c r="C48" s="113"/>
-      <c r="D48" s="118"/>
-      <c r="E48" s="116"/>
+      <c r="B48" s="136"/>
+      <c r="C48" s="127"/>
+      <c r="D48" s="138"/>
+      <c r="E48" s="136"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -28091,10 +28091,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="116"/>
-      <c r="C49" s="113"/>
-      <c r="D49" s="118"/>
-      <c r="E49" s="116"/>
+      <c r="B49" s="136"/>
+      <c r="C49" s="127"/>
+      <c r="D49" s="138"/>
+      <c r="E49" s="136"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -28159,10 +28159,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="116"/>
-      <c r="C50" s="113"/>
-      <c r="D50" s="118"/>
-      <c r="E50" s="116"/>
+      <c r="B50" s="136"/>
+      <c r="C50" s="127"/>
+      <c r="D50" s="138"/>
+      <c r="E50" s="136"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -28227,10 +28227,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="116"/>
-      <c r="C51" s="113"/>
-      <c r="D51" s="118"/>
-      <c r="E51" s="116"/>
+      <c r="B51" s="136"/>
+      <c r="C51" s="127"/>
+      <c r="D51" s="138"/>
+      <c r="E51" s="136"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -28295,10 +28295,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="116"/>
-      <c r="C52" s="113"/>
-      <c r="D52" s="118"/>
-      <c r="E52" s="116"/>
+      <c r="B52" s="136"/>
+      <c r="C52" s="127"/>
+      <c r="D52" s="138"/>
+      <c r="E52" s="136"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -28363,10 +28363,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="116"/>
-      <c r="C53" s="113"/>
-      <c r="D53" s="118"/>
-      <c r="E53" s="116"/>
+      <c r="B53" s="136"/>
+      <c r="C53" s="127"/>
+      <c r="D53" s="138"/>
+      <c r="E53" s="136"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -28431,10 +28431,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="116"/>
-      <c r="C54" s="113"/>
-      <c r="D54" s="118"/>
-      <c r="E54" s="116"/>
+      <c r="B54" s="136"/>
+      <c r="C54" s="127"/>
+      <c r="D54" s="138"/>
+      <c r="E54" s="136"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -28499,10 +28499,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="116"/>
-      <c r="C55" s="113"/>
-      <c r="D55" s="118"/>
-      <c r="E55" s="116"/>
+      <c r="B55" s="136"/>
+      <c r="C55" s="127"/>
+      <c r="D55" s="138"/>
+      <c r="E55" s="136"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -28567,10 +28567,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="116"/>
-      <c r="C56" s="113"/>
-      <c r="D56" s="118"/>
-      <c r="E56" s="116"/>
+      <c r="B56" s="136"/>
+      <c r="C56" s="127"/>
+      <c r="D56" s="138"/>
+      <c r="E56" s="136"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -28635,10 +28635,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="116"/>
-      <c r="C57" s="113"/>
-      <c r="D57" s="118"/>
-      <c r="E57" s="116"/>
+      <c r="B57" s="136"/>
+      <c r="C57" s="127"/>
+      <c r="D57" s="138"/>
+      <c r="E57" s="136"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -28698,10 +28698,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="117"/>
-      <c r="C58" s="114"/>
-      <c r="D58" s="118"/>
-      <c r="E58" s="117"/>
+      <c r="B58" s="137"/>
+      <c r="C58" s="134"/>
+      <c r="D58" s="138"/>
+      <c r="E58" s="137"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -28766,7 +28766,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="106" t="s">
+      <c r="B59" s="128" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -28838,7 +28838,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="106"/>
+      <c r="B60" s="128"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -28908,7 +28908,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="107" t="s">
+      <c r="B61" s="129" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -28980,7 +28980,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="107"/>
+      <c r="B62" s="129"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -29048,7 +29048,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="107"/>
+      <c r="B63" s="129"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -29257,6 +29257,37 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="E31:E58"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="BN5:BN6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="U6:Y6"/>
+    <mergeCell ref="Z6:AD6"/>
+    <mergeCell ref="AE6:AI6"/>
+    <mergeCell ref="AJ6:AN6"/>
+    <mergeCell ref="AO6:AS6"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
@@ -29267,37 +29298,6 @@
     <mergeCell ref="AY6:BC6"/>
     <mergeCell ref="BD6:BH6"/>
     <mergeCell ref="BI6:BM6"/>
-    <mergeCell ref="BN5:BN6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="U6:Y6"/>
-    <mergeCell ref="Z6:AD6"/>
-    <mergeCell ref="AE6:AI6"/>
-    <mergeCell ref="AJ6:AN6"/>
-    <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="E31:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -29311,31 +29311,31 @@
       <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="4"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
     <col min="2" max="2" width="28" style="3" customWidth="1"/>
-    <col min="3" max="3" width="65.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="65.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="2" customWidth="1"/>
-    <col min="5" max="5" width="29.125" style="2" customWidth="1"/>
-    <col min="6" max="65" width="2.25" style="3" customWidth="1"/>
-    <col min="66" max="69" width="9.125" style="3"/>
+    <col min="5" max="5" width="29.140625" style="2" customWidth="1"/>
+    <col min="6" max="65" width="2.28515625" style="3" customWidth="1"/>
+    <col min="66" max="69" width="9.140625" style="3"/>
     <col min="70" max="70" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="14.875" style="3" customWidth="1"/>
+    <col min="71" max="71" width="14.85546875" style="3" customWidth="1"/>
     <col min="72" max="72" width="13" style="3" customWidth="1"/>
-    <col min="73" max="73" width="13.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="74" max="1026" width="9.125" style="3"/>
-    <col min="1027" max="16384" width="9.125" style="4"/>
+    <col min="73" max="73" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="74" max="1026" width="9.140625" style="3"/>
+    <col min="1027" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="131" t="s">
+      <c r="B1" s="109" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
     </row>
     <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
@@ -29501,84 +29501,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="129" t="s">
+      <c r="B5" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="132" t="s">
+      <c r="C5" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="133" t="s">
+      <c r="D5" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="129" t="s">
+      <c r="E5" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="134" t="s">
+      <c r="F5" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="134"/>
-      <c r="H5" s="134"/>
-      <c r="I5" s="134"/>
-      <c r="J5" s="134"/>
-      <c r="K5" s="134"/>
-      <c r="L5" s="134"/>
-      <c r="M5" s="134"/>
-      <c r="N5" s="134"/>
-      <c r="O5" s="134"/>
-      <c r="P5" s="134"/>
-      <c r="Q5" s="134"/>
-      <c r="R5" s="134"/>
-      <c r="S5" s="134"/>
-      <c r="T5" s="134"/>
-      <c r="U5" s="134"/>
-      <c r="V5" s="134"/>
-      <c r="W5" s="134"/>
-      <c r="X5" s="134"/>
-      <c r="Y5" s="134"/>
-      <c r="Z5" s="134"/>
-      <c r="AA5" s="134"/>
-      <c r="AB5" s="134"/>
-      <c r="AC5" s="134"/>
-      <c r="AD5" s="134"/>
-      <c r="AE5" s="134"/>
-      <c r="AF5" s="134"/>
-      <c r="AG5" s="134"/>
-      <c r="AH5" s="134"/>
-      <c r="AI5" s="134"/>
-      <c r="AJ5" s="134"/>
-      <c r="AK5" s="134"/>
-      <c r="AL5" s="134"/>
-      <c r="AM5" s="134"/>
-      <c r="AN5" s="134"/>
-      <c r="AO5" s="134"/>
-      <c r="AP5" s="134"/>
-      <c r="AQ5" s="134"/>
-      <c r="AR5" s="134"/>
-      <c r="AS5" s="134"/>
-      <c r="AT5" s="134"/>
-      <c r="AU5" s="134"/>
-      <c r="AV5" s="134"/>
-      <c r="AW5" s="134"/>
-      <c r="AX5" s="134"/>
-      <c r="AY5" s="134"/>
-      <c r="AZ5" s="134"/>
-      <c r="BA5" s="134"/>
-      <c r="BB5" s="134"/>
-      <c r="BC5" s="134"/>
-      <c r="BD5" s="134"/>
-      <c r="BE5" s="134"/>
-      <c r="BF5" s="134"/>
-      <c r="BG5" s="134"/>
-      <c r="BH5" s="134"/>
-      <c r="BI5" s="134"/>
-      <c r="BJ5" s="134"/>
-      <c r="BK5" s="134"/>
-      <c r="BL5" s="134"/>
-      <c r="BM5" s="134"/>
-      <c r="BN5" s="128" t="s">
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="113"/>
+      <c r="K5" s="113"/>
+      <c r="L5" s="113"/>
+      <c r="M5" s="113"/>
+      <c r="N5" s="113"/>
+      <c r="O5" s="113"/>
+      <c r="P5" s="113"/>
+      <c r="Q5" s="113"/>
+      <c r="R5" s="113"/>
+      <c r="S5" s="113"/>
+      <c r="T5" s="113"/>
+      <c r="U5" s="113"/>
+      <c r="V5" s="113"/>
+      <c r="W5" s="113"/>
+      <c r="X5" s="113"/>
+      <c r="Y5" s="113"/>
+      <c r="Z5" s="113"/>
+      <c r="AA5" s="113"/>
+      <c r="AB5" s="113"/>
+      <c r="AC5" s="113"/>
+      <c r="AD5" s="113"/>
+      <c r="AE5" s="113"/>
+      <c r="AF5" s="113"/>
+      <c r="AG5" s="113"/>
+      <c r="AH5" s="113"/>
+      <c r="AI5" s="113"/>
+      <c r="AJ5" s="113"/>
+      <c r="AK5" s="113"/>
+      <c r="AL5" s="113"/>
+      <c r="AM5" s="113"/>
+      <c r="AN5" s="113"/>
+      <c r="AO5" s="113"/>
+      <c r="AP5" s="113"/>
+      <c r="AQ5" s="113"/>
+      <c r="AR5" s="113"/>
+      <c r="AS5" s="113"/>
+      <c r="AT5" s="113"/>
+      <c r="AU5" s="113"/>
+      <c r="AV5" s="113"/>
+      <c r="AW5" s="113"/>
+      <c r="AX5" s="113"/>
+      <c r="AY5" s="113"/>
+      <c r="AZ5" s="113"/>
+      <c r="BA5" s="113"/>
+      <c r="BB5" s="113"/>
+      <c r="BC5" s="113"/>
+      <c r="BD5" s="113"/>
+      <c r="BE5" s="113"/>
+      <c r="BF5" s="113"/>
+      <c r="BG5" s="113"/>
+      <c r="BH5" s="113"/>
+      <c r="BI5" s="113"/>
+      <c r="BJ5" s="113"/>
+      <c r="BK5" s="113"/>
+      <c r="BL5" s="113"/>
+      <c r="BM5" s="113"/>
+      <c r="BN5" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="129" t="s">
+      <c r="BO5" s="110" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -29587,107 +29587,107 @@
       <c r="BU5" s="94"/>
     </row>
     <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="129"/>
-      <c r="C6" s="132"/>
-      <c r="D6" s="133"/>
-      <c r="E6" s="129"/>
-      <c r="F6" s="130" t="s">
+      <c r="B6" s="110"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="130"/>
-      <c r="H6" s="130"/>
-      <c r="I6" s="130"/>
-      <c r="J6" s="130"/>
-      <c r="K6" s="130" t="s">
+      <c r="G6" s="114"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="114"/>
+      <c r="K6" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="130"/>
-      <c r="M6" s="130"/>
-      <c r="N6" s="130"/>
-      <c r="O6" s="130"/>
-      <c r="P6" s="130" t="s">
+      <c r="L6" s="114"/>
+      <c r="M6" s="114"/>
+      <c r="N6" s="114"/>
+      <c r="O6" s="114"/>
+      <c r="P6" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="130"/>
-      <c r="R6" s="130"/>
-      <c r="S6" s="130"/>
-      <c r="T6" s="130"/>
-      <c r="U6" s="130" t="s">
+      <c r="Q6" s="114"/>
+      <c r="R6" s="114"/>
+      <c r="S6" s="114"/>
+      <c r="T6" s="114"/>
+      <c r="U6" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="130"/>
-      <c r="W6" s="130"/>
-      <c r="X6" s="130"/>
-      <c r="Y6" s="130"/>
-      <c r="Z6" s="130" t="s">
+      <c r="V6" s="114"/>
+      <c r="W6" s="114"/>
+      <c r="X6" s="114"/>
+      <c r="Y6" s="114"/>
+      <c r="Z6" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="130"/>
-      <c r="AB6" s="130"/>
-      <c r="AC6" s="130"/>
-      <c r="AD6" s="130"/>
-      <c r="AE6" s="130" t="s">
+      <c r="AA6" s="114"/>
+      <c r="AB6" s="114"/>
+      <c r="AC6" s="114"/>
+      <c r="AD6" s="114"/>
+      <c r="AE6" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="130"/>
-      <c r="AG6" s="130"/>
-      <c r="AH6" s="130"/>
-      <c r="AI6" s="130"/>
-      <c r="AJ6" s="130" t="s">
+      <c r="AF6" s="114"/>
+      <c r="AG6" s="114"/>
+      <c r="AH6" s="114"/>
+      <c r="AI6" s="114"/>
+      <c r="AJ6" s="114" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="130"/>
-      <c r="AL6" s="130"/>
-      <c r="AM6" s="130"/>
-      <c r="AN6" s="130"/>
-      <c r="AO6" s="130" t="s">
+      <c r="AK6" s="114"/>
+      <c r="AL6" s="114"/>
+      <c r="AM6" s="114"/>
+      <c r="AN6" s="114"/>
+      <c r="AO6" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="130"/>
-      <c r="AQ6" s="130"/>
-      <c r="AR6" s="130"/>
-      <c r="AS6" s="130"/>
-      <c r="AT6" s="130" t="s">
+      <c r="AP6" s="114"/>
+      <c r="AQ6" s="114"/>
+      <c r="AR6" s="114"/>
+      <c r="AS6" s="114"/>
+      <c r="AT6" s="114" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="130"/>
-      <c r="AV6" s="130"/>
-      <c r="AW6" s="130"/>
-      <c r="AX6" s="130"/>
-      <c r="AY6" s="130" t="s">
+      <c r="AU6" s="114"/>
+      <c r="AV6" s="114"/>
+      <c r="AW6" s="114"/>
+      <c r="AX6" s="114"/>
+      <c r="AY6" s="114" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="130"/>
-      <c r="BA6" s="130"/>
-      <c r="BB6" s="130"/>
-      <c r="BC6" s="130"/>
-      <c r="BD6" s="130" t="s">
+      <c r="AZ6" s="114"/>
+      <c r="BA6" s="114"/>
+      <c r="BB6" s="114"/>
+      <c r="BC6" s="114"/>
+      <c r="BD6" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="130"/>
-      <c r="BF6" s="130"/>
-      <c r="BG6" s="130"/>
-      <c r="BH6" s="130"/>
-      <c r="BI6" s="135" t="s">
+      <c r="BE6" s="114"/>
+      <c r="BF6" s="114"/>
+      <c r="BG6" s="114"/>
+      <c r="BH6" s="114"/>
+      <c r="BI6" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="135"/>
-      <c r="BK6" s="135"/>
-      <c r="BL6" s="135"/>
-      <c r="BM6" s="135"/>
-      <c r="BN6" s="128"/>
-      <c r="BO6" s="129"/>
+      <c r="BJ6" s="115"/>
+      <c r="BK6" s="115"/>
+      <c r="BL6" s="115"/>
+      <c r="BM6" s="115"/>
+      <c r="BN6" s="116"/>
+      <c r="BO6" s="110"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="123" t="s">
+      <c r="B7" s="117" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="123"/>
-      <c r="E7" s="124"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="118"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -30712,12 +30712,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="123"/>
+      <c r="B8" s="117"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="123"/>
-      <c r="E8" s="121"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="119"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -31741,14 +31741,14 @@
       <c r="AML8" s="23"/>
     </row>
     <row r="9" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="119" t="s">
+      <c r="B9" s="120" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="120"/>
-      <c r="E9" s="125"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="122"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
       <c r="H9" s="83"/>
@@ -32772,12 +32772,12 @@
       <c r="AML9" s="21"/>
     </row>
     <row r="10" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B10" s="119"/>
+      <c r="B10" s="120"/>
       <c r="C10" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="120"/>
-      <c r="E10" s="126"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="123"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -33801,12 +33801,12 @@
       <c r="AML10" s="21"/>
     </row>
     <row r="11" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="119"/>
+      <c r="B11" s="120"/>
       <c r="C11" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="120"/>
-      <c r="E11" s="126"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="123"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -34830,12 +34830,12 @@
       <c r="AML11" s="21"/>
     </row>
     <row r="12" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="119"/>
+      <c r="B12" s="120"/>
       <c r="C12" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="120"/>
-      <c r="E12" s="127"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="124"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -34900,14 +34900,14 @@
       <c r="BO12" s="31"/>
     </row>
     <row r="13" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B13" s="119" t="s">
+      <c r="B13" s="120" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="120"/>
-      <c r="E13" s="121"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="119"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -34972,12 +34972,12 @@
       <c r="BO13" s="20"/>
     </row>
     <row r="14" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B14" s="119"/>
+      <c r="B14" s="120"/>
       <c r="C14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="120"/>
-      <c r="E14" s="121"/>
+      <c r="D14" s="121"/>
+      <c r="E14" s="119"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -35042,12 +35042,12 @@
       <c r="BO14" s="31"/>
     </row>
     <row r="15" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="119"/>
+      <c r="B15" s="120"/>
       <c r="C15" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="120"/>
-      <c r="E15" s="121"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="119"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -35112,12 +35112,12 @@
       <c r="BO15" s="31"/>
     </row>
     <row r="16" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B16" s="119"/>
+      <c r="B16" s="120"/>
       <c r="C16" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="120"/>
-      <c r="E16" s="121"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="119"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -35182,12 +35182,12 @@
       <c r="BO16" s="31"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B17" s="119"/>
+      <c r="B17" s="120"/>
       <c r="C17" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="120"/>
-      <c r="E17" s="121"/>
+      <c r="D17" s="121"/>
+      <c r="E17" s="119"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -35252,12 +35252,12 @@
       <c r="BO17" s="31"/>
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B18" s="119"/>
+      <c r="B18" s="120"/>
       <c r="C18" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="120"/>
-      <c r="E18" s="121"/>
+      <c r="D18" s="121"/>
+      <c r="E18" s="119"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -35322,12 +35322,12 @@
       <c r="BO18" s="31"/>
     </row>
     <row r="19" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B19" s="119"/>
+      <c r="B19" s="120"/>
       <c r="C19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="120"/>
-      <c r="E19" s="121"/>
+      <c r="D19" s="121"/>
+      <c r="E19" s="119"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -35392,14 +35392,14 @@
       <c r="BO19" s="27"/>
     </row>
     <row r="20" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B20" s="122" t="s">
+      <c r="B20" s="125" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="123"/>
-      <c r="E20" s="112"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="126"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -35464,12 +35464,12 @@
       <c r="BO20" s="20"/>
     </row>
     <row r="21" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B21" s="122"/>
+      <c r="B21" s="125"/>
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="123"/>
-      <c r="E21" s="113"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="127"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -35534,12 +35534,12 @@
       <c r="BO21" s="31"/>
     </row>
     <row r="22" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B22" s="122"/>
+      <c r="B22" s="125"/>
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="123"/>
-      <c r="E22" s="113"/>
+      <c r="D22" s="117"/>
+      <c r="E22" s="127"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -35604,12 +35604,12 @@
       <c r="BO22" s="31"/>
     </row>
     <row r="23" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B23" s="122"/>
+      <c r="B23" s="125"/>
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="123"/>
-      <c r="E23" s="113"/>
+      <c r="D23" s="117"/>
+      <c r="E23" s="127"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -35674,12 +35674,12 @@
       <c r="BO23" s="31"/>
     </row>
     <row r="24" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B24" s="122"/>
+      <c r="B24" s="125"/>
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="123"/>
-      <c r="E24" s="113"/>
+      <c r="D24" s="117"/>
+      <c r="E24" s="127"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -35744,14 +35744,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="108" t="s">
+      <c r="B25" s="130" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="111"/>
-      <c r="E25" s="112"/>
+      <c r="D25" s="133"/>
+      <c r="E25" s="126"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -35816,12 +35816,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="109"/>
+      <c r="B26" s="131"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="111"/>
-      <c r="E26" s="113"/>
+      <c r="D26" s="133"/>
+      <c r="E26" s="127"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -35886,12 +35886,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="109"/>
+      <c r="B27" s="131"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="111"/>
-      <c r="E27" s="113"/>
+      <c r="D27" s="133"/>
+      <c r="E27" s="127"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -35956,12 +35956,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="109"/>
+      <c r="B28" s="131"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="111"/>
-      <c r="E28" s="113"/>
+      <c r="D28" s="133"/>
+      <c r="E28" s="127"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -36026,12 +36026,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="110"/>
+      <c r="B29" s="132"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="111"/>
-      <c r="E29" s="114"/>
+      <c r="D29" s="133"/>
+      <c r="E29" s="134"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -36168,10 +36168,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="115"/>
-      <c r="C31" s="112"/>
-      <c r="D31" s="118"/>
-      <c r="E31" s="115"/>
+      <c r="B31" s="135"/>
+      <c r="C31" s="126"/>
+      <c r="D31" s="138"/>
+      <c r="E31" s="135"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -36236,10 +36236,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="116"/>
-      <c r="C32" s="113"/>
-      <c r="D32" s="118"/>
-      <c r="E32" s="116"/>
+      <c r="B32" s="136"/>
+      <c r="C32" s="127"/>
+      <c r="D32" s="138"/>
+      <c r="E32" s="136"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -36304,10 +36304,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="116"/>
-      <c r="C33" s="113"/>
-      <c r="D33" s="118"/>
-      <c r="E33" s="116"/>
+      <c r="B33" s="136"/>
+      <c r="C33" s="127"/>
+      <c r="D33" s="138"/>
+      <c r="E33" s="136"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -36372,10 +36372,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="116"/>
-      <c r="C34" s="113"/>
-      <c r="D34" s="118"/>
-      <c r="E34" s="116"/>
+      <c r="B34" s="136"/>
+      <c r="C34" s="127"/>
+      <c r="D34" s="138"/>
+      <c r="E34" s="136"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -36440,10 +36440,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="116"/>
-      <c r="C35" s="113"/>
-      <c r="D35" s="118"/>
-      <c r="E35" s="116"/>
+      <c r="B35" s="136"/>
+      <c r="C35" s="127"/>
+      <c r="D35" s="138"/>
+      <c r="E35" s="136"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -36508,10 +36508,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="116"/>
-      <c r="C36" s="113"/>
-      <c r="D36" s="118"/>
-      <c r="E36" s="116"/>
+      <c r="B36" s="136"/>
+      <c r="C36" s="127"/>
+      <c r="D36" s="138"/>
+      <c r="E36" s="136"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -36576,10 +36576,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="116"/>
-      <c r="C37" s="113"/>
-      <c r="D37" s="118"/>
-      <c r="E37" s="116"/>
+      <c r="B37" s="136"/>
+      <c r="C37" s="127"/>
+      <c r="D37" s="138"/>
+      <c r="E37" s="136"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -36644,10 +36644,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="116"/>
-      <c r="C38" s="113"/>
-      <c r="D38" s="118"/>
-      <c r="E38" s="116"/>
+      <c r="B38" s="136"/>
+      <c r="C38" s="127"/>
+      <c r="D38" s="138"/>
+      <c r="E38" s="136"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -36712,10 +36712,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="116"/>
-      <c r="C39" s="113"/>
-      <c r="D39" s="118"/>
-      <c r="E39" s="116"/>
+      <c r="B39" s="136"/>
+      <c r="C39" s="127"/>
+      <c r="D39" s="138"/>
+      <c r="E39" s="136"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -36780,10 +36780,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="116"/>
-      <c r="C40" s="113"/>
-      <c r="D40" s="118"/>
-      <c r="E40" s="116"/>
+      <c r="B40" s="136"/>
+      <c r="C40" s="127"/>
+      <c r="D40" s="138"/>
+      <c r="E40" s="136"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -36848,10 +36848,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="116"/>
-      <c r="C41" s="113"/>
-      <c r="D41" s="118"/>
-      <c r="E41" s="116"/>
+      <c r="B41" s="136"/>
+      <c r="C41" s="127"/>
+      <c r="D41" s="138"/>
+      <c r="E41" s="136"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -36916,10 +36916,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="116"/>
-      <c r="C42" s="113"/>
-      <c r="D42" s="118"/>
-      <c r="E42" s="116"/>
+      <c r="B42" s="136"/>
+      <c r="C42" s="127"/>
+      <c r="D42" s="138"/>
+      <c r="E42" s="136"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -36984,10 +36984,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="116"/>
-      <c r="C43" s="113"/>
-      <c r="D43" s="118"/>
-      <c r="E43" s="116"/>
+      <c r="B43" s="136"/>
+      <c r="C43" s="127"/>
+      <c r="D43" s="138"/>
+      <c r="E43" s="136"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -37052,10 +37052,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="116"/>
-      <c r="C44" s="113"/>
-      <c r="D44" s="118"/>
-      <c r="E44" s="116"/>
+      <c r="B44" s="136"/>
+      <c r="C44" s="127"/>
+      <c r="D44" s="138"/>
+      <c r="E44" s="136"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -37120,10 +37120,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="116"/>
-      <c r="C45" s="113"/>
-      <c r="D45" s="118"/>
-      <c r="E45" s="116"/>
+      <c r="B45" s="136"/>
+      <c r="C45" s="127"/>
+      <c r="D45" s="138"/>
+      <c r="E45" s="136"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -37188,10 +37188,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="116"/>
-      <c r="C46" s="113"/>
-      <c r="D46" s="118"/>
-      <c r="E46" s="116"/>
+      <c r="B46" s="136"/>
+      <c r="C46" s="127"/>
+      <c r="D46" s="138"/>
+      <c r="E46" s="136"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -37256,10 +37256,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="116"/>
-      <c r="C47" s="113"/>
-      <c r="D47" s="118"/>
-      <c r="E47" s="116"/>
+      <c r="B47" s="136"/>
+      <c r="C47" s="127"/>
+      <c r="D47" s="138"/>
+      <c r="E47" s="136"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -37324,10 +37324,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="116"/>
-      <c r="C48" s="113"/>
-      <c r="D48" s="118"/>
-      <c r="E48" s="116"/>
+      <c r="B48" s="136"/>
+      <c r="C48" s="127"/>
+      <c r="D48" s="138"/>
+      <c r="E48" s="136"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -37392,10 +37392,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="116"/>
-      <c r="C49" s="113"/>
-      <c r="D49" s="118"/>
-      <c r="E49" s="116"/>
+      <c r="B49" s="136"/>
+      <c r="C49" s="127"/>
+      <c r="D49" s="138"/>
+      <c r="E49" s="136"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -37460,10 +37460,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="116"/>
-      <c r="C50" s="113"/>
-      <c r="D50" s="118"/>
-      <c r="E50" s="116"/>
+      <c r="B50" s="136"/>
+      <c r="C50" s="127"/>
+      <c r="D50" s="138"/>
+      <c r="E50" s="136"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -37528,10 +37528,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="116"/>
-      <c r="C51" s="113"/>
-      <c r="D51" s="118"/>
-      <c r="E51" s="116"/>
+      <c r="B51" s="136"/>
+      <c r="C51" s="127"/>
+      <c r="D51" s="138"/>
+      <c r="E51" s="136"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -37596,10 +37596,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="116"/>
-      <c r="C52" s="113"/>
-      <c r="D52" s="118"/>
-      <c r="E52" s="116"/>
+      <c r="B52" s="136"/>
+      <c r="C52" s="127"/>
+      <c r="D52" s="138"/>
+      <c r="E52" s="136"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -37664,10 +37664,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="116"/>
-      <c r="C53" s="113"/>
-      <c r="D53" s="118"/>
-      <c r="E53" s="116"/>
+      <c r="B53" s="136"/>
+      <c r="C53" s="127"/>
+      <c r="D53" s="138"/>
+      <c r="E53" s="136"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -37732,10 +37732,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="116"/>
-      <c r="C54" s="113"/>
-      <c r="D54" s="118"/>
-      <c r="E54" s="116"/>
+      <c r="B54" s="136"/>
+      <c r="C54" s="127"/>
+      <c r="D54" s="138"/>
+      <c r="E54" s="136"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -37800,10 +37800,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="116"/>
-      <c r="C55" s="113"/>
-      <c r="D55" s="118"/>
-      <c r="E55" s="116"/>
+      <c r="B55" s="136"/>
+      <c r="C55" s="127"/>
+      <c r="D55" s="138"/>
+      <c r="E55" s="136"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -37868,10 +37868,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="116"/>
-      <c r="C56" s="113"/>
-      <c r="D56" s="118"/>
-      <c r="E56" s="116"/>
+      <c r="B56" s="136"/>
+      <c r="C56" s="127"/>
+      <c r="D56" s="138"/>
+      <c r="E56" s="136"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -37936,10 +37936,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="116"/>
-      <c r="C57" s="113"/>
-      <c r="D57" s="118"/>
-      <c r="E57" s="116"/>
+      <c r="B57" s="136"/>
+      <c r="C57" s="127"/>
+      <c r="D57" s="138"/>
+      <c r="E57" s="136"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -37999,10 +37999,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="117"/>
-      <c r="C58" s="114"/>
-      <c r="D58" s="118"/>
-      <c r="E58" s="117"/>
+      <c r="B58" s="137"/>
+      <c r="C58" s="134"/>
+      <c r="D58" s="138"/>
+      <c r="E58" s="137"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -38067,7 +38067,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="106" t="s">
+      <c r="B59" s="128" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -38139,7 +38139,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="106"/>
+      <c r="B60" s="128"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -38209,7 +38209,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="107" t="s">
+      <c r="B61" s="129" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -38281,7 +38281,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="107"/>
+      <c r="B62" s="129"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -38349,7 +38349,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="107"/>
+      <c r="B63" s="129"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -38558,6 +38558,37 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="E31:E58"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="BN5:BN6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="U6:Y6"/>
+    <mergeCell ref="Z6:AD6"/>
+    <mergeCell ref="AE6:AI6"/>
+    <mergeCell ref="AJ6:AN6"/>
+    <mergeCell ref="AO6:AS6"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
@@ -38568,37 +38599,6 @@
     <mergeCell ref="AY6:BC6"/>
     <mergeCell ref="BD6:BH6"/>
     <mergeCell ref="BI6:BM6"/>
-    <mergeCell ref="BN5:BN6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="U6:Y6"/>
-    <mergeCell ref="Z6:AD6"/>
-    <mergeCell ref="AE6:AI6"/>
-    <mergeCell ref="AJ6:AN6"/>
-    <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="E31:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -38608,35 +38608,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AML65"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="W13" sqref="W13"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AB14" sqref="AB14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="4"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
     <col min="2" max="2" width="28" style="3" customWidth="1"/>
-    <col min="3" max="3" width="65.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="65.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="2" customWidth="1"/>
-    <col min="5" max="5" width="29.125" style="2" customWidth="1"/>
-    <col min="6" max="65" width="2.25" style="3" customWidth="1"/>
-    <col min="66" max="69" width="9.125" style="3"/>
+    <col min="5" max="5" width="29.140625" style="2" customWidth="1"/>
+    <col min="6" max="65" width="2.28515625" style="3" customWidth="1"/>
+    <col min="66" max="69" width="9.140625" style="3"/>
     <col min="70" max="70" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="14.875" style="3" customWidth="1"/>
+    <col min="71" max="71" width="14.85546875" style="3" customWidth="1"/>
     <col min="72" max="72" width="13" style="3" customWidth="1"/>
-    <col min="73" max="73" width="13.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="74" max="1026" width="9.125" style="3"/>
-    <col min="1027" max="16384" width="9.125" style="4"/>
+    <col min="73" max="73" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="74" max="1026" width="9.140625" style="3"/>
+    <col min="1027" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="131" t="s">
+      <c r="B1" s="109" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
     </row>
     <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
@@ -38802,84 +38802,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="129" t="s">
+      <c r="B5" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="132" t="s">
+      <c r="C5" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="133" t="s">
+      <c r="D5" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="129" t="s">
+      <c r="E5" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="134" t="s">
+      <c r="F5" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="134"/>
-      <c r="H5" s="134"/>
-      <c r="I5" s="134"/>
-      <c r="J5" s="134"/>
-      <c r="K5" s="134"/>
-      <c r="L5" s="134"/>
-      <c r="M5" s="134"/>
-      <c r="N5" s="134"/>
-      <c r="O5" s="134"/>
-      <c r="P5" s="134"/>
-      <c r="Q5" s="134"/>
-      <c r="R5" s="134"/>
-      <c r="S5" s="134"/>
-      <c r="T5" s="134"/>
-      <c r="U5" s="134"/>
-      <c r="V5" s="134"/>
-      <c r="W5" s="134"/>
-      <c r="X5" s="134"/>
-      <c r="Y5" s="134"/>
-      <c r="Z5" s="134"/>
-      <c r="AA5" s="134"/>
-      <c r="AB5" s="134"/>
-      <c r="AC5" s="134"/>
-      <c r="AD5" s="134"/>
-      <c r="AE5" s="134"/>
-      <c r="AF5" s="134"/>
-      <c r="AG5" s="134"/>
-      <c r="AH5" s="134"/>
-      <c r="AI5" s="134"/>
-      <c r="AJ5" s="134"/>
-      <c r="AK5" s="134"/>
-      <c r="AL5" s="134"/>
-      <c r="AM5" s="134"/>
-      <c r="AN5" s="134"/>
-      <c r="AO5" s="134"/>
-      <c r="AP5" s="134"/>
-      <c r="AQ5" s="134"/>
-      <c r="AR5" s="134"/>
-      <c r="AS5" s="134"/>
-      <c r="AT5" s="134"/>
-      <c r="AU5" s="134"/>
-      <c r="AV5" s="134"/>
-      <c r="AW5" s="134"/>
-      <c r="AX5" s="134"/>
-      <c r="AY5" s="134"/>
-      <c r="AZ5" s="134"/>
-      <c r="BA5" s="134"/>
-      <c r="BB5" s="134"/>
-      <c r="BC5" s="134"/>
-      <c r="BD5" s="134"/>
-      <c r="BE5" s="134"/>
-      <c r="BF5" s="134"/>
-      <c r="BG5" s="134"/>
-      <c r="BH5" s="134"/>
-      <c r="BI5" s="134"/>
-      <c r="BJ5" s="134"/>
-      <c r="BK5" s="134"/>
-      <c r="BL5" s="134"/>
-      <c r="BM5" s="134"/>
-      <c r="BN5" s="128" t="s">
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="113"/>
+      <c r="K5" s="113"/>
+      <c r="L5" s="113"/>
+      <c r="M5" s="113"/>
+      <c r="N5" s="113"/>
+      <c r="O5" s="113"/>
+      <c r="P5" s="113"/>
+      <c r="Q5" s="113"/>
+      <c r="R5" s="113"/>
+      <c r="S5" s="113"/>
+      <c r="T5" s="113"/>
+      <c r="U5" s="113"/>
+      <c r="V5" s="113"/>
+      <c r="W5" s="113"/>
+      <c r="X5" s="113"/>
+      <c r="Y5" s="113"/>
+      <c r="Z5" s="113"/>
+      <c r="AA5" s="113"/>
+      <c r="AB5" s="113"/>
+      <c r="AC5" s="113"/>
+      <c r="AD5" s="113"/>
+      <c r="AE5" s="113"/>
+      <c r="AF5" s="113"/>
+      <c r="AG5" s="113"/>
+      <c r="AH5" s="113"/>
+      <c r="AI5" s="113"/>
+      <c r="AJ5" s="113"/>
+      <c r="AK5" s="113"/>
+      <c r="AL5" s="113"/>
+      <c r="AM5" s="113"/>
+      <c r="AN5" s="113"/>
+      <c r="AO5" s="113"/>
+      <c r="AP5" s="113"/>
+      <c r="AQ5" s="113"/>
+      <c r="AR5" s="113"/>
+      <c r="AS5" s="113"/>
+      <c r="AT5" s="113"/>
+      <c r="AU5" s="113"/>
+      <c r="AV5" s="113"/>
+      <c r="AW5" s="113"/>
+      <c r="AX5" s="113"/>
+      <c r="AY5" s="113"/>
+      <c r="AZ5" s="113"/>
+      <c r="BA5" s="113"/>
+      <c r="BB5" s="113"/>
+      <c r="BC5" s="113"/>
+      <c r="BD5" s="113"/>
+      <c r="BE5" s="113"/>
+      <c r="BF5" s="113"/>
+      <c r="BG5" s="113"/>
+      <c r="BH5" s="113"/>
+      <c r="BI5" s="113"/>
+      <c r="BJ5" s="113"/>
+      <c r="BK5" s="113"/>
+      <c r="BL5" s="113"/>
+      <c r="BM5" s="113"/>
+      <c r="BN5" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="129" t="s">
+      <c r="BO5" s="110" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -38888,107 +38888,107 @@
       <c r="BU5" s="94"/>
     </row>
     <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="129"/>
-      <c r="C6" s="132"/>
-      <c r="D6" s="133"/>
-      <c r="E6" s="129"/>
-      <c r="F6" s="130" t="s">
+      <c r="B6" s="110"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="130"/>
-      <c r="H6" s="130"/>
-      <c r="I6" s="130"/>
-      <c r="J6" s="130"/>
-      <c r="K6" s="130" t="s">
+      <c r="G6" s="114"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="114"/>
+      <c r="K6" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="130"/>
-      <c r="M6" s="130"/>
-      <c r="N6" s="130"/>
-      <c r="O6" s="130"/>
-      <c r="P6" s="130" t="s">
+      <c r="L6" s="114"/>
+      <c r="M6" s="114"/>
+      <c r="N6" s="114"/>
+      <c r="O6" s="114"/>
+      <c r="P6" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="130"/>
-      <c r="R6" s="130"/>
-      <c r="S6" s="130"/>
-      <c r="T6" s="130"/>
-      <c r="U6" s="130" t="s">
+      <c r="Q6" s="114"/>
+      <c r="R6" s="114"/>
+      <c r="S6" s="114"/>
+      <c r="T6" s="114"/>
+      <c r="U6" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="130"/>
-      <c r="W6" s="130"/>
-      <c r="X6" s="130"/>
-      <c r="Y6" s="130"/>
-      <c r="Z6" s="130" t="s">
+      <c r="V6" s="114"/>
+      <c r="W6" s="114"/>
+      <c r="X6" s="114"/>
+      <c r="Y6" s="114"/>
+      <c r="Z6" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="130"/>
-      <c r="AB6" s="130"/>
-      <c r="AC6" s="130"/>
-      <c r="AD6" s="130"/>
-      <c r="AE6" s="130" t="s">
+      <c r="AA6" s="114"/>
+      <c r="AB6" s="114"/>
+      <c r="AC6" s="114"/>
+      <c r="AD6" s="114"/>
+      <c r="AE6" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="130"/>
-      <c r="AG6" s="130"/>
-      <c r="AH6" s="130"/>
-      <c r="AI6" s="130"/>
-      <c r="AJ6" s="130" t="s">
+      <c r="AF6" s="114"/>
+      <c r="AG6" s="114"/>
+      <c r="AH6" s="114"/>
+      <c r="AI6" s="114"/>
+      <c r="AJ6" s="114" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="130"/>
-      <c r="AL6" s="130"/>
-      <c r="AM6" s="130"/>
-      <c r="AN6" s="130"/>
-      <c r="AO6" s="130" t="s">
+      <c r="AK6" s="114"/>
+      <c r="AL6" s="114"/>
+      <c r="AM6" s="114"/>
+      <c r="AN6" s="114"/>
+      <c r="AO6" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="130"/>
-      <c r="AQ6" s="130"/>
-      <c r="AR6" s="130"/>
-      <c r="AS6" s="130"/>
-      <c r="AT6" s="130" t="s">
+      <c r="AP6" s="114"/>
+      <c r="AQ6" s="114"/>
+      <c r="AR6" s="114"/>
+      <c r="AS6" s="114"/>
+      <c r="AT6" s="114" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="130"/>
-      <c r="AV6" s="130"/>
-      <c r="AW6" s="130"/>
-      <c r="AX6" s="130"/>
-      <c r="AY6" s="130" t="s">
+      <c r="AU6" s="114"/>
+      <c r="AV6" s="114"/>
+      <c r="AW6" s="114"/>
+      <c r="AX6" s="114"/>
+      <c r="AY6" s="114" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="130"/>
-      <c r="BA6" s="130"/>
-      <c r="BB6" s="130"/>
-      <c r="BC6" s="130"/>
-      <c r="BD6" s="130" t="s">
+      <c r="AZ6" s="114"/>
+      <c r="BA6" s="114"/>
+      <c r="BB6" s="114"/>
+      <c r="BC6" s="114"/>
+      <c r="BD6" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="130"/>
-      <c r="BF6" s="130"/>
-      <c r="BG6" s="130"/>
-      <c r="BH6" s="130"/>
-      <c r="BI6" s="135" t="s">
+      <c r="BE6" s="114"/>
+      <c r="BF6" s="114"/>
+      <c r="BG6" s="114"/>
+      <c r="BH6" s="114"/>
+      <c r="BI6" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="135"/>
-      <c r="BK6" s="135"/>
-      <c r="BL6" s="135"/>
-      <c r="BM6" s="135"/>
-      <c r="BN6" s="128"/>
-      <c r="BO6" s="129"/>
+      <c r="BJ6" s="115"/>
+      <c r="BK6" s="115"/>
+      <c r="BL6" s="115"/>
+      <c r="BM6" s="115"/>
+      <c r="BN6" s="116"/>
+      <c r="BO6" s="110"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="123" t="s">
+      <c r="B7" s="117" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="123"/>
-      <c r="E7" s="124"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="118"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -40013,12 +40013,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="123"/>
+      <c r="B8" s="117"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="123"/>
-      <c r="E8" s="121"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="119"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -41042,14 +41042,14 @@
       <c r="AML8" s="23"/>
     </row>
     <row r="9" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="119" t="s">
+      <c r="B9" s="120" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="120"/>
-      <c r="E9" s="125"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="122"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
       <c r="H9" s="100"/>
@@ -42073,12 +42073,12 @@
       <c r="AML9" s="21"/>
     </row>
     <row r="10" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B10" s="119"/>
+      <c r="B10" s="120"/>
       <c r="C10" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="120"/>
-      <c r="E10" s="126"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="123"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -43102,12 +43102,12 @@
       <c r="AML10" s="21"/>
     </row>
     <row r="11" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="119"/>
+      <c r="B11" s="120"/>
       <c r="C11" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="120"/>
-      <c r="E11" s="126"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="123"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -44131,12 +44131,12 @@
       <c r="AML11" s="21"/>
     </row>
     <row r="12" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="119"/>
+      <c r="B12" s="120"/>
       <c r="C12" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="120"/>
-      <c r="E12" s="127"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="124"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -44201,14 +44201,14 @@
       <c r="BO12" s="31"/>
     </row>
     <row r="13" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B13" s="119" t="s">
+      <c r="B13" s="120" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="120"/>
-      <c r="E13" s="121"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="119"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -44273,12 +44273,12 @@
       <c r="BO13" s="20"/>
     </row>
     <row r="14" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B14" s="119"/>
+      <c r="B14" s="120"/>
       <c r="C14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="120"/>
-      <c r="E14" s="121"/>
+      <c r="D14" s="121"/>
+      <c r="E14" s="119"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -44301,7 +44301,7 @@
       <c r="Y14" s="30"/>
       <c r="Z14" s="29"/>
       <c r="AA14" s="21"/>
-      <c r="AB14" s="21"/>
+      <c r="AB14" s="99"/>
       <c r="AC14" s="21"/>
       <c r="AD14" s="30"/>
       <c r="AE14" s="29"/>
@@ -44343,12 +44343,12 @@
       <c r="BO14" s="31"/>
     </row>
     <row r="15" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="119"/>
+      <c r="B15" s="120"/>
       <c r="C15" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="120"/>
-      <c r="E15" s="121"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="119"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -44413,12 +44413,12 @@
       <c r="BO15" s="31"/>
     </row>
     <row r="16" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B16" s="119"/>
+      <c r="B16" s="120"/>
       <c r="C16" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="120"/>
-      <c r="E16" s="121"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="119"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -44483,12 +44483,12 @@
       <c r="BO16" s="31"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B17" s="119"/>
+      <c r="B17" s="120"/>
       <c r="C17" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="120"/>
-      <c r="E17" s="121"/>
+      <c r="D17" s="121"/>
+      <c r="E17" s="119"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -44553,12 +44553,12 @@
       <c r="BO17" s="31"/>
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B18" s="119"/>
+      <c r="B18" s="120"/>
       <c r="C18" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="120"/>
-      <c r="E18" s="121"/>
+      <c r="D18" s="121"/>
+      <c r="E18" s="119"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -44623,12 +44623,12 @@
       <c r="BO18" s="31"/>
     </row>
     <row r="19" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B19" s="119"/>
+      <c r="B19" s="120"/>
       <c r="C19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="120"/>
-      <c r="E19" s="121"/>
+      <c r="D19" s="121"/>
+      <c r="E19" s="119"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -44693,14 +44693,14 @@
       <c r="BO19" s="27"/>
     </row>
     <row r="20" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B20" s="122" t="s">
+      <c r="B20" s="125" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="123"/>
-      <c r="E20" s="112"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="126"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -44765,12 +44765,12 @@
       <c r="BO20" s="20"/>
     </row>
     <row r="21" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B21" s="122"/>
+      <c r="B21" s="125"/>
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="123"/>
-      <c r="E21" s="113"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="127"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -44835,12 +44835,12 @@
       <c r="BO21" s="31"/>
     </row>
     <row r="22" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B22" s="122"/>
+      <c r="B22" s="125"/>
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="123"/>
-      <c r="E22" s="113"/>
+      <c r="D22" s="117"/>
+      <c r="E22" s="127"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -44905,12 +44905,12 @@
       <c r="BO22" s="31"/>
     </row>
     <row r="23" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B23" s="122"/>
+      <c r="B23" s="125"/>
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="123"/>
-      <c r="E23" s="113"/>
+      <c r="D23" s="117"/>
+      <c r="E23" s="127"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -44975,12 +44975,12 @@
       <c r="BO23" s="31"/>
     </row>
     <row r="24" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B24" s="122"/>
+      <c r="B24" s="125"/>
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="123"/>
-      <c r="E24" s="113"/>
+      <c r="D24" s="117"/>
+      <c r="E24" s="127"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -45045,14 +45045,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="108" t="s">
+      <c r="B25" s="130" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="111"/>
-      <c r="E25" s="112"/>
+      <c r="D25" s="133"/>
+      <c r="E25" s="126"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -45117,12 +45117,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="109"/>
+      <c r="B26" s="131"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="111"/>
-      <c r="E26" s="113"/>
+      <c r="D26" s="133"/>
+      <c r="E26" s="127"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -45187,12 +45187,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="109"/>
+      <c r="B27" s="131"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="111"/>
-      <c r="E27" s="113"/>
+      <c r="D27" s="133"/>
+      <c r="E27" s="127"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -45257,12 +45257,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="109"/>
+      <c r="B28" s="131"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="111"/>
-      <c r="E28" s="113"/>
+      <c r="D28" s="133"/>
+      <c r="E28" s="127"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -45327,12 +45327,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="110"/>
+      <c r="B29" s="132"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="111"/>
-      <c r="E29" s="114"/>
+      <c r="D29" s="133"/>
+      <c r="E29" s="134"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -45469,10 +45469,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="115"/>
-      <c r="C31" s="112"/>
-      <c r="D31" s="118"/>
-      <c r="E31" s="115"/>
+      <c r="B31" s="135"/>
+      <c r="C31" s="126"/>
+      <c r="D31" s="138"/>
+      <c r="E31" s="135"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -45537,10 +45537,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="116"/>
-      <c r="C32" s="113"/>
-      <c r="D32" s="118"/>
-      <c r="E32" s="116"/>
+      <c r="B32" s="136"/>
+      <c r="C32" s="127"/>
+      <c r="D32" s="138"/>
+      <c r="E32" s="136"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -45605,10 +45605,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="116"/>
-      <c r="C33" s="113"/>
-      <c r="D33" s="118"/>
-      <c r="E33" s="116"/>
+      <c r="B33" s="136"/>
+      <c r="C33" s="127"/>
+      <c r="D33" s="138"/>
+      <c r="E33" s="136"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -45673,10 +45673,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="116"/>
-      <c r="C34" s="113"/>
-      <c r="D34" s="118"/>
-      <c r="E34" s="116"/>
+      <c r="B34" s="136"/>
+      <c r="C34" s="127"/>
+      <c r="D34" s="138"/>
+      <c r="E34" s="136"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -45741,10 +45741,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="116"/>
-      <c r="C35" s="113"/>
-      <c r="D35" s="118"/>
-      <c r="E35" s="116"/>
+      <c r="B35" s="136"/>
+      <c r="C35" s="127"/>
+      <c r="D35" s="138"/>
+      <c r="E35" s="136"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -45809,10 +45809,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="116"/>
-      <c r="C36" s="113"/>
-      <c r="D36" s="118"/>
-      <c r="E36" s="116"/>
+      <c r="B36" s="136"/>
+      <c r="C36" s="127"/>
+      <c r="D36" s="138"/>
+      <c r="E36" s="136"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -45877,10 +45877,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="116"/>
-      <c r="C37" s="113"/>
-      <c r="D37" s="118"/>
-      <c r="E37" s="116"/>
+      <c r="B37" s="136"/>
+      <c r="C37" s="127"/>
+      <c r="D37" s="138"/>
+      <c r="E37" s="136"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -45945,10 +45945,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="116"/>
-      <c r="C38" s="113"/>
-      <c r="D38" s="118"/>
-      <c r="E38" s="116"/>
+      <c r="B38" s="136"/>
+      <c r="C38" s="127"/>
+      <c r="D38" s="138"/>
+      <c r="E38" s="136"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -46013,10 +46013,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="116"/>
-      <c r="C39" s="113"/>
-      <c r="D39" s="118"/>
-      <c r="E39" s="116"/>
+      <c r="B39" s="136"/>
+      <c r="C39" s="127"/>
+      <c r="D39" s="138"/>
+      <c r="E39" s="136"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -46081,10 +46081,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="116"/>
-      <c r="C40" s="113"/>
-      <c r="D40" s="118"/>
-      <c r="E40" s="116"/>
+      <c r="B40" s="136"/>
+      <c r="C40" s="127"/>
+      <c r="D40" s="138"/>
+      <c r="E40" s="136"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -46149,10 +46149,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="116"/>
-      <c r="C41" s="113"/>
-      <c r="D41" s="118"/>
-      <c r="E41" s="116"/>
+      <c r="B41" s="136"/>
+      <c r="C41" s="127"/>
+      <c r="D41" s="138"/>
+      <c r="E41" s="136"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -46217,10 +46217,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="116"/>
-      <c r="C42" s="113"/>
-      <c r="D42" s="118"/>
-      <c r="E42" s="116"/>
+      <c r="B42" s="136"/>
+      <c r="C42" s="127"/>
+      <c r="D42" s="138"/>
+      <c r="E42" s="136"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -46285,10 +46285,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="116"/>
-      <c r="C43" s="113"/>
-      <c r="D43" s="118"/>
-      <c r="E43" s="116"/>
+      <c r="B43" s="136"/>
+      <c r="C43" s="127"/>
+      <c r="D43" s="138"/>
+      <c r="E43" s="136"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -46353,10 +46353,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="116"/>
-      <c r="C44" s="113"/>
-      <c r="D44" s="118"/>
-      <c r="E44" s="116"/>
+      <c r="B44" s="136"/>
+      <c r="C44" s="127"/>
+      <c r="D44" s="138"/>
+      <c r="E44" s="136"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -46421,10 +46421,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="116"/>
-      <c r="C45" s="113"/>
-      <c r="D45" s="118"/>
-      <c r="E45" s="116"/>
+      <c r="B45" s="136"/>
+      <c r="C45" s="127"/>
+      <c r="D45" s="138"/>
+      <c r="E45" s="136"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -46489,10 +46489,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="116"/>
-      <c r="C46" s="113"/>
-      <c r="D46" s="118"/>
-      <c r="E46" s="116"/>
+      <c r="B46" s="136"/>
+      <c r="C46" s="127"/>
+      <c r="D46" s="138"/>
+      <c r="E46" s="136"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -46557,10 +46557,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="116"/>
-      <c r="C47" s="113"/>
-      <c r="D47" s="118"/>
-      <c r="E47" s="116"/>
+      <c r="B47" s="136"/>
+      <c r="C47" s="127"/>
+      <c r="D47" s="138"/>
+      <c r="E47" s="136"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -46625,10 +46625,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="116"/>
-      <c r="C48" s="113"/>
-      <c r="D48" s="118"/>
-      <c r="E48" s="116"/>
+      <c r="B48" s="136"/>
+      <c r="C48" s="127"/>
+      <c r="D48" s="138"/>
+      <c r="E48" s="136"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -46693,10 +46693,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="116"/>
-      <c r="C49" s="113"/>
-      <c r="D49" s="118"/>
-      <c r="E49" s="116"/>
+      <c r="B49" s="136"/>
+      <c r="C49" s="127"/>
+      <c r="D49" s="138"/>
+      <c r="E49" s="136"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -46761,10 +46761,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="116"/>
-      <c r="C50" s="113"/>
-      <c r="D50" s="118"/>
-      <c r="E50" s="116"/>
+      <c r="B50" s="136"/>
+      <c r="C50" s="127"/>
+      <c r="D50" s="138"/>
+      <c r="E50" s="136"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -46829,10 +46829,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="116"/>
-      <c r="C51" s="113"/>
-      <c r="D51" s="118"/>
-      <c r="E51" s="116"/>
+      <c r="B51" s="136"/>
+      <c r="C51" s="127"/>
+      <c r="D51" s="138"/>
+      <c r="E51" s="136"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -46897,10 +46897,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="116"/>
-      <c r="C52" s="113"/>
-      <c r="D52" s="118"/>
-      <c r="E52" s="116"/>
+      <c r="B52" s="136"/>
+      <c r="C52" s="127"/>
+      <c r="D52" s="138"/>
+      <c r="E52" s="136"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -46965,10 +46965,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="116"/>
-      <c r="C53" s="113"/>
-      <c r="D53" s="118"/>
-      <c r="E53" s="116"/>
+      <c r="B53" s="136"/>
+      <c r="C53" s="127"/>
+      <c r="D53" s="138"/>
+      <c r="E53" s="136"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -47033,10 +47033,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="116"/>
-      <c r="C54" s="113"/>
-      <c r="D54" s="118"/>
-      <c r="E54" s="116"/>
+      <c r="B54" s="136"/>
+      <c r="C54" s="127"/>
+      <c r="D54" s="138"/>
+      <c r="E54" s="136"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -47101,10 +47101,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="116"/>
-      <c r="C55" s="113"/>
-      <c r="D55" s="118"/>
-      <c r="E55" s="116"/>
+      <c r="B55" s="136"/>
+      <c r="C55" s="127"/>
+      <c r="D55" s="138"/>
+      <c r="E55" s="136"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -47169,10 +47169,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="116"/>
-      <c r="C56" s="113"/>
-      <c r="D56" s="118"/>
-      <c r="E56" s="116"/>
+      <c r="B56" s="136"/>
+      <c r="C56" s="127"/>
+      <c r="D56" s="138"/>
+      <c r="E56" s="136"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -47237,10 +47237,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="116"/>
-      <c r="C57" s="113"/>
-      <c r="D57" s="118"/>
-      <c r="E57" s="116"/>
+      <c r="B57" s="136"/>
+      <c r="C57" s="127"/>
+      <c r="D57" s="138"/>
+      <c r="E57" s="136"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -47300,10 +47300,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="117"/>
-      <c r="C58" s="114"/>
-      <c r="D58" s="118"/>
-      <c r="E58" s="117"/>
+      <c r="B58" s="137"/>
+      <c r="C58" s="134"/>
+      <c r="D58" s="138"/>
+      <c r="E58" s="137"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -47368,7 +47368,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="106" t="s">
+      <c r="B59" s="128" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -47440,7 +47440,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="106"/>
+      <c r="B60" s="128"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -47510,7 +47510,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="107" t="s">
+      <c r="B61" s="129" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -47582,7 +47582,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="107"/>
+      <c r="B62" s="129"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -47650,7 +47650,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="107"/>
+      <c r="B63" s="129"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -47859,6 +47859,37 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="E31:E58"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="BN5:BN6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="U6:Y6"/>
+    <mergeCell ref="Z6:AD6"/>
+    <mergeCell ref="AE6:AI6"/>
+    <mergeCell ref="AJ6:AN6"/>
+    <mergeCell ref="AO6:AS6"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
@@ -47869,37 +47900,6 @@
     <mergeCell ref="AY6:BC6"/>
     <mergeCell ref="BD6:BH6"/>
     <mergeCell ref="BI6:BM6"/>
-    <mergeCell ref="BN5:BN6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="U6:Y6"/>
-    <mergeCell ref="Z6:AD6"/>
-    <mergeCell ref="AE6:AI6"/>
-    <mergeCell ref="AJ6:AN6"/>
-    <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="E31:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -47914,31 +47914,31 @@
       <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="4"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
     <col min="2" max="2" width="28" style="3" customWidth="1"/>
-    <col min="3" max="3" width="65.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="65.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="2" customWidth="1"/>
-    <col min="5" max="5" width="29.125" style="2" customWidth="1"/>
-    <col min="6" max="65" width="2.25" style="3" customWidth="1"/>
-    <col min="66" max="69" width="9.125" style="3"/>
+    <col min="5" max="5" width="29.140625" style="2" customWidth="1"/>
+    <col min="6" max="65" width="2.28515625" style="3" customWidth="1"/>
+    <col min="66" max="69" width="9.140625" style="3"/>
     <col min="70" max="70" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="14.875" style="3" customWidth="1"/>
+    <col min="71" max="71" width="14.85546875" style="3" customWidth="1"/>
     <col min="72" max="72" width="13" style="3" customWidth="1"/>
-    <col min="73" max="73" width="13.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="74" max="1026" width="9.125" style="3"/>
-    <col min="1027" max="16384" width="9.125" style="4"/>
+    <col min="73" max="73" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="74" max="1026" width="9.140625" style="3"/>
+    <col min="1027" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="131" t="s">
+      <c r="B1" s="109" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
     </row>
     <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
@@ -48104,84 +48104,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="129" t="s">
+      <c r="B5" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="132" t="s">
+      <c r="C5" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="133" t="s">
+      <c r="D5" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="129" t="s">
+      <c r="E5" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="134" t="s">
+      <c r="F5" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="134"/>
-      <c r="H5" s="134"/>
-      <c r="I5" s="134"/>
-      <c r="J5" s="134"/>
-      <c r="K5" s="134"/>
-      <c r="L5" s="134"/>
-      <c r="M5" s="134"/>
-      <c r="N5" s="134"/>
-      <c r="O5" s="134"/>
-      <c r="P5" s="134"/>
-      <c r="Q5" s="134"/>
-      <c r="R5" s="134"/>
-      <c r="S5" s="134"/>
-      <c r="T5" s="134"/>
-      <c r="U5" s="134"/>
-      <c r="V5" s="134"/>
-      <c r="W5" s="134"/>
-      <c r="X5" s="134"/>
-      <c r="Y5" s="134"/>
-      <c r="Z5" s="134"/>
-      <c r="AA5" s="134"/>
-      <c r="AB5" s="134"/>
-      <c r="AC5" s="134"/>
-      <c r="AD5" s="134"/>
-      <c r="AE5" s="134"/>
-      <c r="AF5" s="134"/>
-      <c r="AG5" s="134"/>
-      <c r="AH5" s="134"/>
-      <c r="AI5" s="134"/>
-      <c r="AJ5" s="134"/>
-      <c r="AK5" s="134"/>
-      <c r="AL5" s="134"/>
-      <c r="AM5" s="134"/>
-      <c r="AN5" s="134"/>
-      <c r="AO5" s="134"/>
-      <c r="AP5" s="134"/>
-      <c r="AQ5" s="134"/>
-      <c r="AR5" s="134"/>
-      <c r="AS5" s="134"/>
-      <c r="AT5" s="134"/>
-      <c r="AU5" s="134"/>
-      <c r="AV5" s="134"/>
-      <c r="AW5" s="134"/>
-      <c r="AX5" s="134"/>
-      <c r="AY5" s="134"/>
-      <c r="AZ5" s="134"/>
-      <c r="BA5" s="134"/>
-      <c r="BB5" s="134"/>
-      <c r="BC5" s="134"/>
-      <c r="BD5" s="134"/>
-      <c r="BE5" s="134"/>
-      <c r="BF5" s="134"/>
-      <c r="BG5" s="134"/>
-      <c r="BH5" s="134"/>
-      <c r="BI5" s="134"/>
-      <c r="BJ5" s="134"/>
-      <c r="BK5" s="134"/>
-      <c r="BL5" s="134"/>
-      <c r="BM5" s="134"/>
-      <c r="BN5" s="128" t="s">
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="113"/>
+      <c r="K5" s="113"/>
+      <c r="L5" s="113"/>
+      <c r="M5" s="113"/>
+      <c r="N5" s="113"/>
+      <c r="O5" s="113"/>
+      <c r="P5" s="113"/>
+      <c r="Q5" s="113"/>
+      <c r="R5" s="113"/>
+      <c r="S5" s="113"/>
+      <c r="T5" s="113"/>
+      <c r="U5" s="113"/>
+      <c r="V5" s="113"/>
+      <c r="W5" s="113"/>
+      <c r="X5" s="113"/>
+      <c r="Y5" s="113"/>
+      <c r="Z5" s="113"/>
+      <c r="AA5" s="113"/>
+      <c r="AB5" s="113"/>
+      <c r="AC5" s="113"/>
+      <c r="AD5" s="113"/>
+      <c r="AE5" s="113"/>
+      <c r="AF5" s="113"/>
+      <c r="AG5" s="113"/>
+      <c r="AH5" s="113"/>
+      <c r="AI5" s="113"/>
+      <c r="AJ5" s="113"/>
+      <c r="AK5" s="113"/>
+      <c r="AL5" s="113"/>
+      <c r="AM5" s="113"/>
+      <c r="AN5" s="113"/>
+      <c r="AO5" s="113"/>
+      <c r="AP5" s="113"/>
+      <c r="AQ5" s="113"/>
+      <c r="AR5" s="113"/>
+      <c r="AS5" s="113"/>
+      <c r="AT5" s="113"/>
+      <c r="AU5" s="113"/>
+      <c r="AV5" s="113"/>
+      <c r="AW5" s="113"/>
+      <c r="AX5" s="113"/>
+      <c r="AY5" s="113"/>
+      <c r="AZ5" s="113"/>
+      <c r="BA5" s="113"/>
+      <c r="BB5" s="113"/>
+      <c r="BC5" s="113"/>
+      <c r="BD5" s="113"/>
+      <c r="BE5" s="113"/>
+      <c r="BF5" s="113"/>
+      <c r="BG5" s="113"/>
+      <c r="BH5" s="113"/>
+      <c r="BI5" s="113"/>
+      <c r="BJ5" s="113"/>
+      <c r="BK5" s="113"/>
+      <c r="BL5" s="113"/>
+      <c r="BM5" s="113"/>
+      <c r="BN5" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="129" t="s">
+      <c r="BO5" s="110" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -48190,107 +48190,107 @@
       <c r="BU5" s="94"/>
     </row>
     <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="129"/>
-      <c r="C6" s="132"/>
-      <c r="D6" s="133"/>
-      <c r="E6" s="129"/>
-      <c r="F6" s="130" t="s">
+      <c r="B6" s="110"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="130"/>
-      <c r="H6" s="130"/>
-      <c r="I6" s="130"/>
-      <c r="J6" s="130"/>
-      <c r="K6" s="130" t="s">
+      <c r="G6" s="114"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="114"/>
+      <c r="K6" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="130"/>
-      <c r="M6" s="130"/>
-      <c r="N6" s="130"/>
-      <c r="O6" s="130"/>
-      <c r="P6" s="130" t="s">
+      <c r="L6" s="114"/>
+      <c r="M6" s="114"/>
+      <c r="N6" s="114"/>
+      <c r="O6" s="114"/>
+      <c r="P6" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="130"/>
-      <c r="R6" s="130"/>
-      <c r="S6" s="130"/>
-      <c r="T6" s="130"/>
-      <c r="U6" s="130" t="s">
+      <c r="Q6" s="114"/>
+      <c r="R6" s="114"/>
+      <c r="S6" s="114"/>
+      <c r="T6" s="114"/>
+      <c r="U6" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="130"/>
-      <c r="W6" s="130"/>
-      <c r="X6" s="130"/>
-      <c r="Y6" s="130"/>
-      <c r="Z6" s="130" t="s">
+      <c r="V6" s="114"/>
+      <c r="W6" s="114"/>
+      <c r="X6" s="114"/>
+      <c r="Y6" s="114"/>
+      <c r="Z6" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="130"/>
-      <c r="AB6" s="130"/>
-      <c r="AC6" s="130"/>
-      <c r="AD6" s="130"/>
-      <c r="AE6" s="130" t="s">
+      <c r="AA6" s="114"/>
+      <c r="AB6" s="114"/>
+      <c r="AC6" s="114"/>
+      <c r="AD6" s="114"/>
+      <c r="AE6" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="130"/>
-      <c r="AG6" s="130"/>
-      <c r="AH6" s="130"/>
-      <c r="AI6" s="130"/>
-      <c r="AJ6" s="130" t="s">
+      <c r="AF6" s="114"/>
+      <c r="AG6" s="114"/>
+      <c r="AH6" s="114"/>
+      <c r="AI6" s="114"/>
+      <c r="AJ6" s="114" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="130"/>
-      <c r="AL6" s="130"/>
-      <c r="AM6" s="130"/>
-      <c r="AN6" s="130"/>
-      <c r="AO6" s="130" t="s">
+      <c r="AK6" s="114"/>
+      <c r="AL6" s="114"/>
+      <c r="AM6" s="114"/>
+      <c r="AN6" s="114"/>
+      <c r="AO6" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="130"/>
-      <c r="AQ6" s="130"/>
-      <c r="AR6" s="130"/>
-      <c r="AS6" s="130"/>
-      <c r="AT6" s="130" t="s">
+      <c r="AP6" s="114"/>
+      <c r="AQ6" s="114"/>
+      <c r="AR6" s="114"/>
+      <c r="AS6" s="114"/>
+      <c r="AT6" s="114" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="130"/>
-      <c r="AV6" s="130"/>
-      <c r="AW6" s="130"/>
-      <c r="AX6" s="130"/>
-      <c r="AY6" s="130" t="s">
+      <c r="AU6" s="114"/>
+      <c r="AV6" s="114"/>
+      <c r="AW6" s="114"/>
+      <c r="AX6" s="114"/>
+      <c r="AY6" s="114" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="130"/>
-      <c r="BA6" s="130"/>
-      <c r="BB6" s="130"/>
-      <c r="BC6" s="130"/>
-      <c r="BD6" s="130" t="s">
+      <c r="AZ6" s="114"/>
+      <c r="BA6" s="114"/>
+      <c r="BB6" s="114"/>
+      <c r="BC6" s="114"/>
+      <c r="BD6" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="130"/>
-      <c r="BF6" s="130"/>
-      <c r="BG6" s="130"/>
-      <c r="BH6" s="130"/>
-      <c r="BI6" s="135" t="s">
+      <c r="BE6" s="114"/>
+      <c r="BF6" s="114"/>
+      <c r="BG6" s="114"/>
+      <c r="BH6" s="114"/>
+      <c r="BI6" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="135"/>
-      <c r="BK6" s="135"/>
-      <c r="BL6" s="135"/>
-      <c r="BM6" s="135"/>
-      <c r="BN6" s="128"/>
-      <c r="BO6" s="129"/>
+      <c r="BJ6" s="115"/>
+      <c r="BK6" s="115"/>
+      <c r="BL6" s="115"/>
+      <c r="BM6" s="115"/>
+      <c r="BN6" s="116"/>
+      <c r="BO6" s="110"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="123" t="s">
+      <c r="B7" s="117" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="123"/>
-      <c r="E7" s="124"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="118"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -49315,12 +49315,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="123"/>
+      <c r="B8" s="117"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="123"/>
-      <c r="E8" s="121"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="119"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -50344,14 +50344,14 @@
       <c r="AML8" s="23"/>
     </row>
     <row r="9" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="119" t="s">
+      <c r="B9" s="120" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="120"/>
-      <c r="E9" s="125"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="122"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
       <c r="H9" s="83"/>
@@ -51375,12 +51375,12 @@
       <c r="AML9" s="21"/>
     </row>
     <row r="10" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B10" s="119"/>
+      <c r="B10" s="120"/>
       <c r="C10" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="120"/>
-      <c r="E10" s="126"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="123"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -52404,12 +52404,12 @@
       <c r="AML10" s="21"/>
     </row>
     <row r="11" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="119"/>
+      <c r="B11" s="120"/>
       <c r="C11" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="120"/>
-      <c r="E11" s="126"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="123"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -53433,12 +53433,12 @@
       <c r="AML11" s="21"/>
     </row>
     <row r="12" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="119"/>
+      <c r="B12" s="120"/>
       <c r="C12" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="120"/>
-      <c r="E12" s="127"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="124"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -53503,14 +53503,14 @@
       <c r="BO12" s="31"/>
     </row>
     <row r="13" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B13" s="119" t="s">
+      <c r="B13" s="120" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="120"/>
-      <c r="E13" s="121"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="119"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -53575,12 +53575,12 @@
       <c r="BO13" s="20"/>
     </row>
     <row r="14" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B14" s="119"/>
+      <c r="B14" s="120"/>
       <c r="C14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="120"/>
-      <c r="E14" s="121"/>
+      <c r="D14" s="121"/>
+      <c r="E14" s="119"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -53645,12 +53645,12 @@
       <c r="BO14" s="31"/>
     </row>
     <row r="15" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="119"/>
+      <c r="B15" s="120"/>
       <c r="C15" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="120"/>
-      <c r="E15" s="121"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="119"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -53715,12 +53715,12 @@
       <c r="BO15" s="31"/>
     </row>
     <row r="16" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B16" s="119"/>
+      <c r="B16" s="120"/>
       <c r="C16" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="120"/>
-      <c r="E16" s="121"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="119"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -53785,12 +53785,12 @@
       <c r="BO16" s="31"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B17" s="119"/>
+      <c r="B17" s="120"/>
       <c r="C17" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="120"/>
-      <c r="E17" s="121"/>
+      <c r="D17" s="121"/>
+      <c r="E17" s="119"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -53855,12 +53855,12 @@
       <c r="BO17" s="31"/>
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B18" s="119"/>
+      <c r="B18" s="120"/>
       <c r="C18" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="120"/>
-      <c r="E18" s="121"/>
+      <c r="D18" s="121"/>
+      <c r="E18" s="119"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -53925,12 +53925,12 @@
       <c r="BO18" s="31"/>
     </row>
     <row r="19" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B19" s="119"/>
+      <c r="B19" s="120"/>
       <c r="C19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="120"/>
-      <c r="E19" s="121"/>
+      <c r="D19" s="121"/>
+      <c r="E19" s="119"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -53995,14 +53995,14 @@
       <c r="BO19" s="27"/>
     </row>
     <row r="20" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B20" s="122" t="s">
+      <c r="B20" s="125" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="123"/>
-      <c r="E20" s="112"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="126"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -54067,12 +54067,12 @@
       <c r="BO20" s="20"/>
     </row>
     <row r="21" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B21" s="122"/>
+      <c r="B21" s="125"/>
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="123"/>
-      <c r="E21" s="113"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="127"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -54137,12 +54137,12 @@
       <c r="BO21" s="31"/>
     </row>
     <row r="22" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B22" s="122"/>
+      <c r="B22" s="125"/>
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="123"/>
-      <c r="E22" s="113"/>
+      <c r="D22" s="117"/>
+      <c r="E22" s="127"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -54207,12 +54207,12 @@
       <c r="BO22" s="31"/>
     </row>
     <row r="23" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B23" s="122"/>
+      <c r="B23" s="125"/>
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="123"/>
-      <c r="E23" s="113"/>
+      <c r="D23" s="117"/>
+      <c r="E23" s="127"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -54277,12 +54277,12 @@
       <c r="BO23" s="31"/>
     </row>
     <row r="24" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B24" s="122"/>
+      <c r="B24" s="125"/>
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="123"/>
-      <c r="E24" s="113"/>
+      <c r="D24" s="117"/>
+      <c r="E24" s="127"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -54347,14 +54347,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="108" t="s">
+      <c r="B25" s="130" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="111"/>
-      <c r="E25" s="112"/>
+      <c r="D25" s="133"/>
+      <c r="E25" s="126"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -54419,12 +54419,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="109"/>
+      <c r="B26" s="131"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="111"/>
-      <c r="E26" s="113"/>
+      <c r="D26" s="133"/>
+      <c r="E26" s="127"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -54489,12 +54489,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="109"/>
+      <c r="B27" s="131"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="111"/>
-      <c r="E27" s="113"/>
+      <c r="D27" s="133"/>
+      <c r="E27" s="127"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -54559,12 +54559,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="109"/>
+      <c r="B28" s="131"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="111"/>
-      <c r="E28" s="113"/>
+      <c r="D28" s="133"/>
+      <c r="E28" s="127"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -54629,12 +54629,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="110"/>
+      <c r="B29" s="132"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="111"/>
-      <c r="E29" s="114"/>
+      <c r="D29" s="133"/>
+      <c r="E29" s="134"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -54771,10 +54771,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="115"/>
-      <c r="C31" s="112"/>
-      <c r="D31" s="118"/>
-      <c r="E31" s="115"/>
+      <c r="B31" s="135"/>
+      <c r="C31" s="126"/>
+      <c r="D31" s="138"/>
+      <c r="E31" s="135"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -54839,10 +54839,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="116"/>
-      <c r="C32" s="113"/>
-      <c r="D32" s="118"/>
-      <c r="E32" s="116"/>
+      <c r="B32" s="136"/>
+      <c r="C32" s="127"/>
+      <c r="D32" s="138"/>
+      <c r="E32" s="136"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -54907,10 +54907,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="116"/>
-      <c r="C33" s="113"/>
-      <c r="D33" s="118"/>
-      <c r="E33" s="116"/>
+      <c r="B33" s="136"/>
+      <c r="C33" s="127"/>
+      <c r="D33" s="138"/>
+      <c r="E33" s="136"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -54975,10 +54975,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="116"/>
-      <c r="C34" s="113"/>
-      <c r="D34" s="118"/>
-      <c r="E34" s="116"/>
+      <c r="B34" s="136"/>
+      <c r="C34" s="127"/>
+      <c r="D34" s="138"/>
+      <c r="E34" s="136"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -55043,10 +55043,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="116"/>
-      <c r="C35" s="113"/>
-      <c r="D35" s="118"/>
-      <c r="E35" s="116"/>
+      <c r="B35" s="136"/>
+      <c r="C35" s="127"/>
+      <c r="D35" s="138"/>
+      <c r="E35" s="136"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -55111,10 +55111,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="116"/>
-      <c r="C36" s="113"/>
-      <c r="D36" s="118"/>
-      <c r="E36" s="116"/>
+      <c r="B36" s="136"/>
+      <c r="C36" s="127"/>
+      <c r="D36" s="138"/>
+      <c r="E36" s="136"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -55179,10 +55179,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="116"/>
-      <c r="C37" s="113"/>
-      <c r="D37" s="118"/>
-      <c r="E37" s="116"/>
+      <c r="B37" s="136"/>
+      <c r="C37" s="127"/>
+      <c r="D37" s="138"/>
+      <c r="E37" s="136"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -55247,10 +55247,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="116"/>
-      <c r="C38" s="113"/>
-      <c r="D38" s="118"/>
-      <c r="E38" s="116"/>
+      <c r="B38" s="136"/>
+      <c r="C38" s="127"/>
+      <c r="D38" s="138"/>
+      <c r="E38" s="136"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -55315,10 +55315,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="116"/>
-      <c r="C39" s="113"/>
-      <c r="D39" s="118"/>
-      <c r="E39" s="116"/>
+      <c r="B39" s="136"/>
+      <c r="C39" s="127"/>
+      <c r="D39" s="138"/>
+      <c r="E39" s="136"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -55383,10 +55383,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="116"/>
-      <c r="C40" s="113"/>
-      <c r="D40" s="118"/>
-      <c r="E40" s="116"/>
+      <c r="B40" s="136"/>
+      <c r="C40" s="127"/>
+      <c r="D40" s="138"/>
+      <c r="E40" s="136"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -55451,10 +55451,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="116"/>
-      <c r="C41" s="113"/>
-      <c r="D41" s="118"/>
-      <c r="E41" s="116"/>
+      <c r="B41" s="136"/>
+      <c r="C41" s="127"/>
+      <c r="D41" s="138"/>
+      <c r="E41" s="136"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -55519,10 +55519,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="116"/>
-      <c r="C42" s="113"/>
-      <c r="D42" s="118"/>
-      <c r="E42" s="116"/>
+      <c r="B42" s="136"/>
+      <c r="C42" s="127"/>
+      <c r="D42" s="138"/>
+      <c r="E42" s="136"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -55587,10 +55587,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="116"/>
-      <c r="C43" s="113"/>
-      <c r="D43" s="118"/>
-      <c r="E43" s="116"/>
+      <c r="B43" s="136"/>
+      <c r="C43" s="127"/>
+      <c r="D43" s="138"/>
+      <c r="E43" s="136"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -55655,10 +55655,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="116"/>
-      <c r="C44" s="113"/>
-      <c r="D44" s="118"/>
-      <c r="E44" s="116"/>
+      <c r="B44" s="136"/>
+      <c r="C44" s="127"/>
+      <c r="D44" s="138"/>
+      <c r="E44" s="136"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -55723,10 +55723,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="116"/>
-      <c r="C45" s="113"/>
-      <c r="D45" s="118"/>
-      <c r="E45" s="116"/>
+      <c r="B45" s="136"/>
+      <c r="C45" s="127"/>
+      <c r="D45" s="138"/>
+      <c r="E45" s="136"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -55791,10 +55791,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="116"/>
-      <c r="C46" s="113"/>
-      <c r="D46" s="118"/>
-      <c r="E46" s="116"/>
+      <c r="B46" s="136"/>
+      <c r="C46" s="127"/>
+      <c r="D46" s="138"/>
+      <c r="E46" s="136"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -55859,10 +55859,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="116"/>
-      <c r="C47" s="113"/>
-      <c r="D47" s="118"/>
-      <c r="E47" s="116"/>
+      <c r="B47" s="136"/>
+      <c r="C47" s="127"/>
+      <c r="D47" s="138"/>
+      <c r="E47" s="136"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -55927,10 +55927,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="116"/>
-      <c r="C48" s="113"/>
-      <c r="D48" s="118"/>
-      <c r="E48" s="116"/>
+      <c r="B48" s="136"/>
+      <c r="C48" s="127"/>
+      <c r="D48" s="138"/>
+      <c r="E48" s="136"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -55995,10 +55995,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="116"/>
-      <c r="C49" s="113"/>
-      <c r="D49" s="118"/>
-      <c r="E49" s="116"/>
+      <c r="B49" s="136"/>
+      <c r="C49" s="127"/>
+      <c r="D49" s="138"/>
+      <c r="E49" s="136"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -56063,10 +56063,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="116"/>
-      <c r="C50" s="113"/>
-      <c r="D50" s="118"/>
-      <c r="E50" s="116"/>
+      <c r="B50" s="136"/>
+      <c r="C50" s="127"/>
+      <c r="D50" s="138"/>
+      <c r="E50" s="136"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -56131,10 +56131,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="116"/>
-      <c r="C51" s="113"/>
-      <c r="D51" s="118"/>
-      <c r="E51" s="116"/>
+      <c r="B51" s="136"/>
+      <c r="C51" s="127"/>
+      <c r="D51" s="138"/>
+      <c r="E51" s="136"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -56199,10 +56199,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="116"/>
-      <c r="C52" s="113"/>
-      <c r="D52" s="118"/>
-      <c r="E52" s="116"/>
+      <c r="B52" s="136"/>
+      <c r="C52" s="127"/>
+      <c r="D52" s="138"/>
+      <c r="E52" s="136"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -56267,10 +56267,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="116"/>
-      <c r="C53" s="113"/>
-      <c r="D53" s="118"/>
-      <c r="E53" s="116"/>
+      <c r="B53" s="136"/>
+      <c r="C53" s="127"/>
+      <c r="D53" s="138"/>
+      <c r="E53" s="136"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -56335,10 +56335,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="116"/>
-      <c r="C54" s="113"/>
-      <c r="D54" s="118"/>
-      <c r="E54" s="116"/>
+      <c r="B54" s="136"/>
+      <c r="C54" s="127"/>
+      <c r="D54" s="138"/>
+      <c r="E54" s="136"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -56403,10 +56403,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="116"/>
-      <c r="C55" s="113"/>
-      <c r="D55" s="118"/>
-      <c r="E55" s="116"/>
+      <c r="B55" s="136"/>
+      <c r="C55" s="127"/>
+      <c r="D55" s="138"/>
+      <c r="E55" s="136"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -56471,10 +56471,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="116"/>
-      <c r="C56" s="113"/>
-      <c r="D56" s="118"/>
-      <c r="E56" s="116"/>
+      <c r="B56" s="136"/>
+      <c r="C56" s="127"/>
+      <c r="D56" s="138"/>
+      <c r="E56" s="136"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -56539,10 +56539,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="116"/>
-      <c r="C57" s="113"/>
-      <c r="D57" s="118"/>
-      <c r="E57" s="116"/>
+      <c r="B57" s="136"/>
+      <c r="C57" s="127"/>
+      <c r="D57" s="138"/>
+      <c r="E57" s="136"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -56602,10 +56602,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="117"/>
-      <c r="C58" s="114"/>
-      <c r="D58" s="118"/>
-      <c r="E58" s="117"/>
+      <c r="B58" s="137"/>
+      <c r="C58" s="134"/>
+      <c r="D58" s="138"/>
+      <c r="E58" s="137"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -56670,7 +56670,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="106" t="s">
+      <c r="B59" s="128" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -56742,7 +56742,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="106"/>
+      <c r="B60" s="128"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -56812,7 +56812,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="107" t="s">
+      <c r="B61" s="129" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -56884,7 +56884,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="107"/>
+      <c r="B62" s="129"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -56952,7 +56952,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="107"/>
+      <c r="B63" s="129"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -57161,6 +57161,37 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="E31:E58"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="BN5:BN6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="U6:Y6"/>
+    <mergeCell ref="Z6:AD6"/>
+    <mergeCell ref="AE6:AI6"/>
+    <mergeCell ref="AJ6:AN6"/>
+    <mergeCell ref="AO6:AS6"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
@@ -57171,37 +57202,6 @@
     <mergeCell ref="AY6:BC6"/>
     <mergeCell ref="BD6:BH6"/>
     <mergeCell ref="BI6:BM6"/>
-    <mergeCell ref="BN5:BN6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="U6:Y6"/>
-    <mergeCell ref="Z6:AD6"/>
-    <mergeCell ref="AE6:AI6"/>
-    <mergeCell ref="AJ6:AN6"/>
-    <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="E31:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -57211,35 +57211,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AML65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="4"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
     <col min="2" max="2" width="28" style="3" customWidth="1"/>
-    <col min="3" max="3" width="65.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="65.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="2" customWidth="1"/>
-    <col min="5" max="5" width="29.125" style="2" customWidth="1"/>
-    <col min="6" max="65" width="2.25" style="3" customWidth="1"/>
-    <col min="66" max="69" width="9.125" style="3"/>
+    <col min="5" max="5" width="29.140625" style="2" customWidth="1"/>
+    <col min="6" max="65" width="2.28515625" style="3" customWidth="1"/>
+    <col min="66" max="69" width="9.140625" style="3"/>
     <col min="70" max="70" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="14.875" style="3" customWidth="1"/>
+    <col min="71" max="71" width="14.85546875" style="3" customWidth="1"/>
     <col min="72" max="72" width="13" style="3" customWidth="1"/>
-    <col min="73" max="73" width="13.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="74" max="1026" width="9.125" style="3"/>
-    <col min="1027" max="16384" width="9.125" style="4"/>
+    <col min="73" max="73" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="74" max="1026" width="9.140625" style="3"/>
+    <col min="1027" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="131" t="s">
+      <c r="B1" s="109" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
     </row>
     <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
@@ -57405,84 +57405,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="129" t="s">
+      <c r="B5" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="132" t="s">
+      <c r="C5" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="133" t="s">
+      <c r="D5" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="129" t="s">
+      <c r="E5" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="134" t="s">
+      <c r="F5" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="134"/>
-      <c r="H5" s="134"/>
-      <c r="I5" s="134"/>
-      <c r="J5" s="134"/>
-      <c r="K5" s="134"/>
-      <c r="L5" s="134"/>
-      <c r="M5" s="134"/>
-      <c r="N5" s="134"/>
-      <c r="O5" s="134"/>
-      <c r="P5" s="134"/>
-      <c r="Q5" s="134"/>
-      <c r="R5" s="134"/>
-      <c r="S5" s="134"/>
-      <c r="T5" s="134"/>
-      <c r="U5" s="134"/>
-      <c r="V5" s="134"/>
-      <c r="W5" s="134"/>
-      <c r="X5" s="134"/>
-      <c r="Y5" s="134"/>
-      <c r="Z5" s="134"/>
-      <c r="AA5" s="134"/>
-      <c r="AB5" s="134"/>
-      <c r="AC5" s="134"/>
-      <c r="AD5" s="134"/>
-      <c r="AE5" s="134"/>
-      <c r="AF5" s="134"/>
-      <c r="AG5" s="134"/>
-      <c r="AH5" s="134"/>
-      <c r="AI5" s="134"/>
-      <c r="AJ5" s="134"/>
-      <c r="AK5" s="134"/>
-      <c r="AL5" s="134"/>
-      <c r="AM5" s="134"/>
-      <c r="AN5" s="134"/>
-      <c r="AO5" s="134"/>
-      <c r="AP5" s="134"/>
-      <c r="AQ5" s="134"/>
-      <c r="AR5" s="134"/>
-      <c r="AS5" s="134"/>
-      <c r="AT5" s="134"/>
-      <c r="AU5" s="134"/>
-      <c r="AV5" s="134"/>
-      <c r="AW5" s="134"/>
-      <c r="AX5" s="134"/>
-      <c r="AY5" s="134"/>
-      <c r="AZ5" s="134"/>
-      <c r="BA5" s="134"/>
-      <c r="BB5" s="134"/>
-      <c r="BC5" s="134"/>
-      <c r="BD5" s="134"/>
-      <c r="BE5" s="134"/>
-      <c r="BF5" s="134"/>
-      <c r="BG5" s="134"/>
-      <c r="BH5" s="134"/>
-      <c r="BI5" s="134"/>
-      <c r="BJ5" s="134"/>
-      <c r="BK5" s="134"/>
-      <c r="BL5" s="134"/>
-      <c r="BM5" s="134"/>
-      <c r="BN5" s="128" t="s">
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="113"/>
+      <c r="K5" s="113"/>
+      <c r="L5" s="113"/>
+      <c r="M5" s="113"/>
+      <c r="N5" s="113"/>
+      <c r="O5" s="113"/>
+      <c r="P5" s="113"/>
+      <c r="Q5" s="113"/>
+      <c r="R5" s="113"/>
+      <c r="S5" s="113"/>
+      <c r="T5" s="113"/>
+      <c r="U5" s="113"/>
+      <c r="V5" s="113"/>
+      <c r="W5" s="113"/>
+      <c r="X5" s="113"/>
+      <c r="Y5" s="113"/>
+      <c r="Z5" s="113"/>
+      <c r="AA5" s="113"/>
+      <c r="AB5" s="113"/>
+      <c r="AC5" s="113"/>
+      <c r="AD5" s="113"/>
+      <c r="AE5" s="113"/>
+      <c r="AF5" s="113"/>
+      <c r="AG5" s="113"/>
+      <c r="AH5" s="113"/>
+      <c r="AI5" s="113"/>
+      <c r="AJ5" s="113"/>
+      <c r="AK5" s="113"/>
+      <c r="AL5" s="113"/>
+      <c r="AM5" s="113"/>
+      <c r="AN5" s="113"/>
+      <c r="AO5" s="113"/>
+      <c r="AP5" s="113"/>
+      <c r="AQ5" s="113"/>
+      <c r="AR5" s="113"/>
+      <c r="AS5" s="113"/>
+      <c r="AT5" s="113"/>
+      <c r="AU5" s="113"/>
+      <c r="AV5" s="113"/>
+      <c r="AW5" s="113"/>
+      <c r="AX5" s="113"/>
+      <c r="AY5" s="113"/>
+      <c r="AZ5" s="113"/>
+      <c r="BA5" s="113"/>
+      <c r="BB5" s="113"/>
+      <c r="BC5" s="113"/>
+      <c r="BD5" s="113"/>
+      <c r="BE5" s="113"/>
+      <c r="BF5" s="113"/>
+      <c r="BG5" s="113"/>
+      <c r="BH5" s="113"/>
+      <c r="BI5" s="113"/>
+      <c r="BJ5" s="113"/>
+      <c r="BK5" s="113"/>
+      <c r="BL5" s="113"/>
+      <c r="BM5" s="113"/>
+      <c r="BN5" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="129" t="s">
+      <c r="BO5" s="110" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -57491,107 +57491,107 @@
       <c r="BU5" s="94"/>
     </row>
     <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="129"/>
-      <c r="C6" s="132"/>
-      <c r="D6" s="133"/>
-      <c r="E6" s="129"/>
-      <c r="F6" s="130" t="s">
+      <c r="B6" s="110"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="130"/>
-      <c r="H6" s="130"/>
-      <c r="I6" s="130"/>
-      <c r="J6" s="130"/>
-      <c r="K6" s="130" t="s">
+      <c r="G6" s="114"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="114"/>
+      <c r="K6" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="130"/>
-      <c r="M6" s="130"/>
-      <c r="N6" s="130"/>
-      <c r="O6" s="130"/>
-      <c r="P6" s="130" t="s">
+      <c r="L6" s="114"/>
+      <c r="M6" s="114"/>
+      <c r="N6" s="114"/>
+      <c r="O6" s="114"/>
+      <c r="P6" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="130"/>
-      <c r="R6" s="130"/>
-      <c r="S6" s="130"/>
-      <c r="T6" s="130"/>
-      <c r="U6" s="130" t="s">
+      <c r="Q6" s="114"/>
+      <c r="R6" s="114"/>
+      <c r="S6" s="114"/>
+      <c r="T6" s="114"/>
+      <c r="U6" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="130"/>
-      <c r="W6" s="130"/>
-      <c r="X6" s="130"/>
-      <c r="Y6" s="130"/>
-      <c r="Z6" s="130" t="s">
+      <c r="V6" s="114"/>
+      <c r="W6" s="114"/>
+      <c r="X6" s="114"/>
+      <c r="Y6" s="114"/>
+      <c r="Z6" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="130"/>
-      <c r="AB6" s="130"/>
-      <c r="AC6" s="130"/>
-      <c r="AD6" s="130"/>
-      <c r="AE6" s="130" t="s">
+      <c r="AA6" s="114"/>
+      <c r="AB6" s="114"/>
+      <c r="AC6" s="114"/>
+      <c r="AD6" s="114"/>
+      <c r="AE6" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="130"/>
-      <c r="AG6" s="130"/>
-      <c r="AH6" s="130"/>
-      <c r="AI6" s="130"/>
-      <c r="AJ6" s="130" t="s">
+      <c r="AF6" s="114"/>
+      <c r="AG6" s="114"/>
+      <c r="AH6" s="114"/>
+      <c r="AI6" s="114"/>
+      <c r="AJ6" s="114" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="130"/>
-      <c r="AL6" s="130"/>
-      <c r="AM6" s="130"/>
-      <c r="AN6" s="130"/>
-      <c r="AO6" s="130" t="s">
+      <c r="AK6" s="114"/>
+      <c r="AL6" s="114"/>
+      <c r="AM6" s="114"/>
+      <c r="AN6" s="114"/>
+      <c r="AO6" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="130"/>
-      <c r="AQ6" s="130"/>
-      <c r="AR6" s="130"/>
-      <c r="AS6" s="130"/>
-      <c r="AT6" s="130" t="s">
+      <c r="AP6" s="114"/>
+      <c r="AQ6" s="114"/>
+      <c r="AR6" s="114"/>
+      <c r="AS6" s="114"/>
+      <c r="AT6" s="114" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="130"/>
-      <c r="AV6" s="130"/>
-      <c r="AW6" s="130"/>
-      <c r="AX6" s="130"/>
-      <c r="AY6" s="130" t="s">
+      <c r="AU6" s="114"/>
+      <c r="AV6" s="114"/>
+      <c r="AW6" s="114"/>
+      <c r="AX6" s="114"/>
+      <c r="AY6" s="114" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="130"/>
-      <c r="BA6" s="130"/>
-      <c r="BB6" s="130"/>
-      <c r="BC6" s="130"/>
-      <c r="BD6" s="130" t="s">
+      <c r="AZ6" s="114"/>
+      <c r="BA6" s="114"/>
+      <c r="BB6" s="114"/>
+      <c r="BC6" s="114"/>
+      <c r="BD6" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="130"/>
-      <c r="BF6" s="130"/>
-      <c r="BG6" s="130"/>
-      <c r="BH6" s="130"/>
-      <c r="BI6" s="135" t="s">
+      <c r="BE6" s="114"/>
+      <c r="BF6" s="114"/>
+      <c r="BG6" s="114"/>
+      <c r="BH6" s="114"/>
+      <c r="BI6" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="135"/>
-      <c r="BK6" s="135"/>
-      <c r="BL6" s="135"/>
-      <c r="BM6" s="135"/>
-      <c r="BN6" s="128"/>
-      <c r="BO6" s="129"/>
+      <c r="BJ6" s="115"/>
+      <c r="BK6" s="115"/>
+      <c r="BL6" s="115"/>
+      <c r="BM6" s="115"/>
+      <c r="BN6" s="116"/>
+      <c r="BO6" s="110"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="123" t="s">
+      <c r="B7" s="117" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="123"/>
-      <c r="E7" s="124"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="118"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -58616,12 +58616,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="123"/>
+      <c r="B8" s="117"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="123"/>
-      <c r="E8" s="121"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="119"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -59645,17 +59645,17 @@
       <c r="AML8" s="23"/>
     </row>
     <row r="9" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="119" t="s">
+      <c r="B9" s="120" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="120"/>
-      <c r="E9" s="125"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="122"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
-      <c r="H9" s="136"/>
+      <c r="H9" s="106"/>
       <c r="I9" s="82"/>
       <c r="J9" s="82"/>
       <c r="K9" s="19"/>
@@ -60676,12 +60676,12 @@
       <c r="AML9" s="21"/>
     </row>
     <row r="10" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B10" s="119"/>
+      <c r="B10" s="120"/>
       <c r="C10" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="120"/>
-      <c r="E10" s="126"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="123"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -60689,7 +60689,7 @@
       <c r="J10" s="78"/>
       <c r="K10" s="29"/>
       <c r="L10" s="21"/>
-      <c r="M10" s="137"/>
+      <c r="M10" s="107"/>
       <c r="N10" s="21"/>
       <c r="O10" s="30"/>
       <c r="P10" s="29"/>
@@ -61705,12 +61705,12 @@
       <c r="AML10" s="21"/>
     </row>
     <row r="11" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="119"/>
+      <c r="B11" s="120"/>
       <c r="C11" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="120"/>
-      <c r="E11" s="126"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="123"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -62734,12 +62734,12 @@
       <c r="AML11" s="21"/>
     </row>
     <row r="12" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="119"/>
+      <c r="B12" s="120"/>
       <c r="C12" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="120"/>
-      <c r="E12" s="127"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="124"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -62752,7 +62752,7 @@
       <c r="O12" s="30"/>
       <c r="P12" s="29"/>
       <c r="Q12" s="21"/>
-      <c r="R12" s="137"/>
+      <c r="R12" s="107"/>
       <c r="S12" s="21"/>
       <c r="T12" s="30"/>
       <c r="U12" s="29"/>
@@ -62804,14 +62804,14 @@
       <c r="BO12" s="31"/>
     </row>
     <row r="13" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B13" s="119" t="s">
+      <c r="B13" s="120" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="120"/>
-      <c r="E13" s="121"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="119"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -62829,7 +62829,7 @@
       <c r="T13" s="18"/>
       <c r="U13" s="19"/>
       <c r="V13" s="17"/>
-      <c r="W13" s="138"/>
+      <c r="W13" s="108"/>
       <c r="X13" s="17"/>
       <c r="Y13" s="18"/>
       <c r="Z13" s="19"/>
@@ -62876,12 +62876,12 @@
       <c r="BO13" s="20"/>
     </row>
     <row r="14" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B14" s="119"/>
+      <c r="B14" s="120"/>
       <c r="C14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="120"/>
-      <c r="E14" s="121"/>
+      <c r="D14" s="121"/>
+      <c r="E14" s="119"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -62946,12 +62946,12 @@
       <c r="BO14" s="31"/>
     </row>
     <row r="15" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="119"/>
+      <c r="B15" s="120"/>
       <c r="C15" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="120"/>
-      <c r="E15" s="121"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="119"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -63016,12 +63016,12 @@
       <c r="BO15" s="31"/>
     </row>
     <row r="16" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B16" s="119"/>
+      <c r="B16" s="120"/>
       <c r="C16" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="120"/>
-      <c r="E16" s="121"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="119"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -63086,12 +63086,12 @@
       <c r="BO16" s="31"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B17" s="119"/>
+      <c r="B17" s="120"/>
       <c r="C17" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="120"/>
-      <c r="E17" s="121"/>
+      <c r="D17" s="121"/>
+      <c r="E17" s="119"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -63156,12 +63156,12 @@
       <c r="BO17" s="31"/>
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B18" s="119"/>
+      <c r="B18" s="120"/>
       <c r="C18" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="120"/>
-      <c r="E18" s="121"/>
+      <c r="D18" s="121"/>
+      <c r="E18" s="119"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -63226,12 +63226,12 @@
       <c r="BO18" s="31"/>
     </row>
     <row r="19" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B19" s="119"/>
+      <c r="B19" s="120"/>
       <c r="C19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="120"/>
-      <c r="E19" s="121"/>
+      <c r="D19" s="121"/>
+      <c r="E19" s="119"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -63296,14 +63296,14 @@
       <c r="BO19" s="27"/>
     </row>
     <row r="20" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B20" s="122" t="s">
+      <c r="B20" s="125" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="123"/>
-      <c r="E20" s="112"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="126"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -63368,12 +63368,12 @@
       <c r="BO20" s="20"/>
     </row>
     <row r="21" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B21" s="122"/>
+      <c r="B21" s="125"/>
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="123"/>
-      <c r="E21" s="113"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="127"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -63438,12 +63438,12 @@
       <c r="BO21" s="31"/>
     </row>
     <row r="22" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B22" s="122"/>
+      <c r="B22" s="125"/>
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="123"/>
-      <c r="E22" s="113"/>
+      <c r="D22" s="117"/>
+      <c r="E22" s="127"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -63508,12 +63508,12 @@
       <c r="BO22" s="31"/>
     </row>
     <row r="23" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B23" s="122"/>
+      <c r="B23" s="125"/>
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="123"/>
-      <c r="E23" s="113"/>
+      <c r="D23" s="117"/>
+      <c r="E23" s="127"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -63578,12 +63578,12 @@
       <c r="BO23" s="31"/>
     </row>
     <row r="24" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B24" s="122"/>
+      <c r="B24" s="125"/>
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="123"/>
-      <c r="E24" s="113"/>
+      <c r="D24" s="117"/>
+      <c r="E24" s="127"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -63648,14 +63648,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="108" t="s">
+      <c r="B25" s="130" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="111"/>
-      <c r="E25" s="112"/>
+      <c r="D25" s="133"/>
+      <c r="E25" s="126"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -63720,12 +63720,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="109"/>
+      <c r="B26" s="131"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="111"/>
-      <c r="E26" s="113"/>
+      <c r="D26" s="133"/>
+      <c r="E26" s="127"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -63790,12 +63790,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="109"/>
+      <c r="B27" s="131"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="111"/>
-      <c r="E27" s="113"/>
+      <c r="D27" s="133"/>
+      <c r="E27" s="127"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -63860,12 +63860,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="109"/>
+      <c r="B28" s="131"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="111"/>
-      <c r="E28" s="113"/>
+      <c r="D28" s="133"/>
+      <c r="E28" s="127"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -63930,12 +63930,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="110"/>
+      <c r="B29" s="132"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="111"/>
-      <c r="E29" s="114"/>
+      <c r="D29" s="133"/>
+      <c r="E29" s="134"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -64072,10 +64072,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="115"/>
-      <c r="C31" s="112"/>
-      <c r="D31" s="118"/>
-      <c r="E31" s="115"/>
+      <c r="B31" s="135"/>
+      <c r="C31" s="126"/>
+      <c r="D31" s="138"/>
+      <c r="E31" s="135"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -64140,10 +64140,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="116"/>
-      <c r="C32" s="113"/>
-      <c r="D32" s="118"/>
-      <c r="E32" s="116"/>
+      <c r="B32" s="136"/>
+      <c r="C32" s="127"/>
+      <c r="D32" s="138"/>
+      <c r="E32" s="136"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -64208,10 +64208,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="116"/>
-      <c r="C33" s="113"/>
-      <c r="D33" s="118"/>
-      <c r="E33" s="116"/>
+      <c r="B33" s="136"/>
+      <c r="C33" s="127"/>
+      <c r="D33" s="138"/>
+      <c r="E33" s="136"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -64276,10 +64276,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="116"/>
-      <c r="C34" s="113"/>
-      <c r="D34" s="118"/>
-      <c r="E34" s="116"/>
+      <c r="B34" s="136"/>
+      <c r="C34" s="127"/>
+      <c r="D34" s="138"/>
+      <c r="E34" s="136"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -64344,10 +64344,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="116"/>
-      <c r="C35" s="113"/>
-      <c r="D35" s="118"/>
-      <c r="E35" s="116"/>
+      <c r="B35" s="136"/>
+      <c r="C35" s="127"/>
+      <c r="D35" s="138"/>
+      <c r="E35" s="136"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -64412,10 +64412,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="116"/>
-      <c r="C36" s="113"/>
-      <c r="D36" s="118"/>
-      <c r="E36" s="116"/>
+      <c r="B36" s="136"/>
+      <c r="C36" s="127"/>
+      <c r="D36" s="138"/>
+      <c r="E36" s="136"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -64480,10 +64480,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="116"/>
-      <c r="C37" s="113"/>
-      <c r="D37" s="118"/>
-      <c r="E37" s="116"/>
+      <c r="B37" s="136"/>
+      <c r="C37" s="127"/>
+      <c r="D37" s="138"/>
+      <c r="E37" s="136"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -64548,10 +64548,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="116"/>
-      <c r="C38" s="113"/>
-      <c r="D38" s="118"/>
-      <c r="E38" s="116"/>
+      <c r="B38" s="136"/>
+      <c r="C38" s="127"/>
+      <c r="D38" s="138"/>
+      <c r="E38" s="136"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -64616,10 +64616,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="116"/>
-      <c r="C39" s="113"/>
-      <c r="D39" s="118"/>
-      <c r="E39" s="116"/>
+      <c r="B39" s="136"/>
+      <c r="C39" s="127"/>
+      <c r="D39" s="138"/>
+      <c r="E39" s="136"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -64684,10 +64684,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="116"/>
-      <c r="C40" s="113"/>
-      <c r="D40" s="118"/>
-      <c r="E40" s="116"/>
+      <c r="B40" s="136"/>
+      <c r="C40" s="127"/>
+      <c r="D40" s="138"/>
+      <c r="E40" s="136"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -64752,10 +64752,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="116"/>
-      <c r="C41" s="113"/>
-      <c r="D41" s="118"/>
-      <c r="E41" s="116"/>
+      <c r="B41" s="136"/>
+      <c r="C41" s="127"/>
+      <c r="D41" s="138"/>
+      <c r="E41" s="136"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -64820,10 +64820,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="116"/>
-      <c r="C42" s="113"/>
-      <c r="D42" s="118"/>
-      <c r="E42" s="116"/>
+      <c r="B42" s="136"/>
+      <c r="C42" s="127"/>
+      <c r="D42" s="138"/>
+      <c r="E42" s="136"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -64888,10 +64888,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="116"/>
-      <c r="C43" s="113"/>
-      <c r="D43" s="118"/>
-      <c r="E43" s="116"/>
+      <c r="B43" s="136"/>
+      <c r="C43" s="127"/>
+      <c r="D43" s="138"/>
+      <c r="E43" s="136"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -64956,10 +64956,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="116"/>
-      <c r="C44" s="113"/>
-      <c r="D44" s="118"/>
-      <c r="E44" s="116"/>
+      <c r="B44" s="136"/>
+      <c r="C44" s="127"/>
+      <c r="D44" s="138"/>
+      <c r="E44" s="136"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -65024,10 +65024,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="116"/>
-      <c r="C45" s="113"/>
-      <c r="D45" s="118"/>
-      <c r="E45" s="116"/>
+      <c r="B45" s="136"/>
+      <c r="C45" s="127"/>
+      <c r="D45" s="138"/>
+      <c r="E45" s="136"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -65092,10 +65092,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="116"/>
-      <c r="C46" s="113"/>
-      <c r="D46" s="118"/>
-      <c r="E46" s="116"/>
+      <c r="B46" s="136"/>
+      <c r="C46" s="127"/>
+      <c r="D46" s="138"/>
+      <c r="E46" s="136"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -65160,10 +65160,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="116"/>
-      <c r="C47" s="113"/>
-      <c r="D47" s="118"/>
-      <c r="E47" s="116"/>
+      <c r="B47" s="136"/>
+      <c r="C47" s="127"/>
+      <c r="D47" s="138"/>
+      <c r="E47" s="136"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -65228,10 +65228,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="116"/>
-      <c r="C48" s="113"/>
-      <c r="D48" s="118"/>
-      <c r="E48" s="116"/>
+      <c r="B48" s="136"/>
+      <c r="C48" s="127"/>
+      <c r="D48" s="138"/>
+      <c r="E48" s="136"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -65296,10 +65296,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="116"/>
-      <c r="C49" s="113"/>
-      <c r="D49" s="118"/>
-      <c r="E49" s="116"/>
+      <c r="B49" s="136"/>
+      <c r="C49" s="127"/>
+      <c r="D49" s="138"/>
+      <c r="E49" s="136"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -65364,10 +65364,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="116"/>
-      <c r="C50" s="113"/>
-      <c r="D50" s="118"/>
-      <c r="E50" s="116"/>
+      <c r="B50" s="136"/>
+      <c r="C50" s="127"/>
+      <c r="D50" s="138"/>
+      <c r="E50" s="136"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -65432,10 +65432,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="116"/>
-      <c r="C51" s="113"/>
-      <c r="D51" s="118"/>
-      <c r="E51" s="116"/>
+      <c r="B51" s="136"/>
+      <c r="C51" s="127"/>
+      <c r="D51" s="138"/>
+      <c r="E51" s="136"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -65500,10 +65500,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="116"/>
-      <c r="C52" s="113"/>
-      <c r="D52" s="118"/>
-      <c r="E52" s="116"/>
+      <c r="B52" s="136"/>
+      <c r="C52" s="127"/>
+      <c r="D52" s="138"/>
+      <c r="E52" s="136"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -65568,10 +65568,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="116"/>
-      <c r="C53" s="113"/>
-      <c r="D53" s="118"/>
-      <c r="E53" s="116"/>
+      <c r="B53" s="136"/>
+      <c r="C53" s="127"/>
+      <c r="D53" s="138"/>
+      <c r="E53" s="136"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -65636,10 +65636,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="116"/>
-      <c r="C54" s="113"/>
-      <c r="D54" s="118"/>
-      <c r="E54" s="116"/>
+      <c r="B54" s="136"/>
+      <c r="C54" s="127"/>
+      <c r="D54" s="138"/>
+      <c r="E54" s="136"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -65704,10 +65704,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="116"/>
-      <c r="C55" s="113"/>
-      <c r="D55" s="118"/>
-      <c r="E55" s="116"/>
+      <c r="B55" s="136"/>
+      <c r="C55" s="127"/>
+      <c r="D55" s="138"/>
+      <c r="E55" s="136"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -65772,10 +65772,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="116"/>
-      <c r="C56" s="113"/>
-      <c r="D56" s="118"/>
-      <c r="E56" s="116"/>
+      <c r="B56" s="136"/>
+      <c r="C56" s="127"/>
+      <c r="D56" s="138"/>
+      <c r="E56" s="136"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -65840,10 +65840,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="116"/>
-      <c r="C57" s="113"/>
-      <c r="D57" s="118"/>
-      <c r="E57" s="116"/>
+      <c r="B57" s="136"/>
+      <c r="C57" s="127"/>
+      <c r="D57" s="138"/>
+      <c r="E57" s="136"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -65903,10 +65903,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="117"/>
-      <c r="C58" s="114"/>
-      <c r="D58" s="118"/>
-      <c r="E58" s="117"/>
+      <c r="B58" s="137"/>
+      <c r="C58" s="134"/>
+      <c r="D58" s="138"/>
+      <c r="E58" s="137"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -65971,7 +65971,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="106" t="s">
+      <c r="B59" s="128" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -66043,7 +66043,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="106"/>
+      <c r="B60" s="128"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -66113,7 +66113,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="107" t="s">
+      <c r="B61" s="129" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -66185,7 +66185,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="107"/>
+      <c r="B62" s="129"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -66253,7 +66253,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="107"/>
+      <c r="B63" s="129"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -66462,22 +66462,21 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:BM5"/>
-    <mergeCell ref="AT6:AX6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="U6:Y6"/>
-    <mergeCell ref="Z6:AD6"/>
-    <mergeCell ref="AE6:AI6"/>
-    <mergeCell ref="AJ6:AN6"/>
-    <mergeCell ref="AO6:AS6"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="E31:E58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="B13:B19"/>
     <mergeCell ref="B9:B12"/>
     <mergeCell ref="D9:D12"/>
     <mergeCell ref="D7:D8"/>
@@ -66488,21 +66487,22 @@
     <mergeCell ref="BI6:BM6"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="E7:E8"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="E31:E58"/>
-    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="U6:Y6"/>
+    <mergeCell ref="Z6:AD6"/>
+    <mergeCell ref="AE6:AI6"/>
+    <mergeCell ref="AJ6:AN6"/>
+    <mergeCell ref="AO6:AS6"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:BM5"/>
+    <mergeCell ref="AT6:AX6"/>
+    <mergeCell ref="D5:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/QC_QNU_Training_Progress.xlsx
+++ b/QC_QNU_Training_Progress.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Internship\GIT_Training\QC_Training_2019_01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TMA-Training\QC_Training\QC_Training_2019_01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="690" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="690" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Truong Thi Thu Huong" sheetId="4" r:id="rId1"/>
@@ -236,7 +236,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mmmm\ d&quot;, &quot;yyyy;@"/>
   </numFmts>
@@ -244,7 +244,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -252,7 +252,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1028,63 +1028,6 @@
     <xf numFmtId="0" fontId="6" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1103,6 +1046,12 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1117,6 +1066,57 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1408,31 +1408,31 @@
       <selection activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="1" max="1" width="9.125" style="4"/>
     <col min="2" max="2" width="28" style="3" customWidth="1"/>
-    <col min="3" max="3" width="65.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="65.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="2" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" style="2" customWidth="1"/>
-    <col min="6" max="65" width="2.28515625" style="3" customWidth="1"/>
-    <col min="66" max="69" width="9.140625" style="3"/>
+    <col min="5" max="5" width="29.125" style="2" customWidth="1"/>
+    <col min="6" max="65" width="2.25" style="3" customWidth="1"/>
+    <col min="66" max="69" width="9.125" style="3"/>
     <col min="70" max="70" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="14.85546875" style="3" customWidth="1"/>
+    <col min="71" max="71" width="14.875" style="3" customWidth="1"/>
     <col min="72" max="72" width="13" style="3" customWidth="1"/>
-    <col min="73" max="73" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="74" max="1026" width="9.140625" style="3"/>
-    <col min="1027" max="16384" width="9.140625" style="4"/>
+    <col min="73" max="73" width="13.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="74" max="1026" width="9.125" style="3"/>
+    <col min="1027" max="16384" width="9.125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="134" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
     </row>
     <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
@@ -1598,84 +1598,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="111" t="s">
+      <c r="C5" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="112" t="s">
+      <c r="D5" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="110" t="s">
+      <c r="E5" s="132" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="113" t="s">
+      <c r="F5" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="113"/>
-      <c r="K5" s="113"/>
-      <c r="L5" s="113"/>
-      <c r="M5" s="113"/>
-      <c r="N5" s="113"/>
-      <c r="O5" s="113"/>
-      <c r="P5" s="113"/>
-      <c r="Q5" s="113"/>
-      <c r="R5" s="113"/>
-      <c r="S5" s="113"/>
-      <c r="T5" s="113"/>
-      <c r="U5" s="113"/>
-      <c r="V5" s="113"/>
-      <c r="W5" s="113"/>
-      <c r="X5" s="113"/>
-      <c r="Y5" s="113"/>
-      <c r="Z5" s="113"/>
-      <c r="AA5" s="113"/>
-      <c r="AB5" s="113"/>
-      <c r="AC5" s="113"/>
-      <c r="AD5" s="113"/>
-      <c r="AE5" s="113"/>
-      <c r="AF5" s="113"/>
-      <c r="AG5" s="113"/>
-      <c r="AH5" s="113"/>
-      <c r="AI5" s="113"/>
-      <c r="AJ5" s="113"/>
-      <c r="AK5" s="113"/>
-      <c r="AL5" s="113"/>
-      <c r="AM5" s="113"/>
-      <c r="AN5" s="113"/>
-      <c r="AO5" s="113"/>
-      <c r="AP5" s="113"/>
-      <c r="AQ5" s="113"/>
-      <c r="AR5" s="113"/>
-      <c r="AS5" s="113"/>
-      <c r="AT5" s="113"/>
-      <c r="AU5" s="113"/>
-      <c r="AV5" s="113"/>
-      <c r="AW5" s="113"/>
-      <c r="AX5" s="113"/>
-      <c r="AY5" s="113"/>
-      <c r="AZ5" s="113"/>
-      <c r="BA5" s="113"/>
-      <c r="BB5" s="113"/>
-      <c r="BC5" s="113"/>
-      <c r="BD5" s="113"/>
-      <c r="BE5" s="113"/>
-      <c r="BF5" s="113"/>
-      <c r="BG5" s="113"/>
-      <c r="BH5" s="113"/>
-      <c r="BI5" s="113"/>
-      <c r="BJ5" s="113"/>
-      <c r="BK5" s="113"/>
-      <c r="BL5" s="113"/>
-      <c r="BM5" s="113"/>
-      <c r="BN5" s="116" t="s">
+      <c r="G5" s="137"/>
+      <c r="H5" s="137"/>
+      <c r="I5" s="137"/>
+      <c r="J5" s="137"/>
+      <c r="K5" s="137"/>
+      <c r="L5" s="137"/>
+      <c r="M5" s="137"/>
+      <c r="N5" s="137"/>
+      <c r="O5" s="137"/>
+      <c r="P5" s="137"/>
+      <c r="Q5" s="137"/>
+      <c r="R5" s="137"/>
+      <c r="S5" s="137"/>
+      <c r="T5" s="137"/>
+      <c r="U5" s="137"/>
+      <c r="V5" s="137"/>
+      <c r="W5" s="137"/>
+      <c r="X5" s="137"/>
+      <c r="Y5" s="137"/>
+      <c r="Z5" s="137"/>
+      <c r="AA5" s="137"/>
+      <c r="AB5" s="137"/>
+      <c r="AC5" s="137"/>
+      <c r="AD5" s="137"/>
+      <c r="AE5" s="137"/>
+      <c r="AF5" s="137"/>
+      <c r="AG5" s="137"/>
+      <c r="AH5" s="137"/>
+      <c r="AI5" s="137"/>
+      <c r="AJ5" s="137"/>
+      <c r="AK5" s="137"/>
+      <c r="AL5" s="137"/>
+      <c r="AM5" s="137"/>
+      <c r="AN5" s="137"/>
+      <c r="AO5" s="137"/>
+      <c r="AP5" s="137"/>
+      <c r="AQ5" s="137"/>
+      <c r="AR5" s="137"/>
+      <c r="AS5" s="137"/>
+      <c r="AT5" s="137"/>
+      <c r="AU5" s="137"/>
+      <c r="AV5" s="137"/>
+      <c r="AW5" s="137"/>
+      <c r="AX5" s="137"/>
+      <c r="AY5" s="137"/>
+      <c r="AZ5" s="137"/>
+      <c r="BA5" s="137"/>
+      <c r="BB5" s="137"/>
+      <c r="BC5" s="137"/>
+      <c r="BD5" s="137"/>
+      <c r="BE5" s="137"/>
+      <c r="BF5" s="137"/>
+      <c r="BG5" s="137"/>
+      <c r="BH5" s="137"/>
+      <c r="BI5" s="137"/>
+      <c r="BJ5" s="137"/>
+      <c r="BK5" s="137"/>
+      <c r="BL5" s="137"/>
+      <c r="BM5" s="137"/>
+      <c r="BN5" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="110" t="s">
+      <c r="BO5" s="132" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -1684,107 +1684,107 @@
       <c r="BU5" s="94"/>
     </row>
     <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="110"/>
-      <c r="C6" s="111"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="114" t="s">
+      <c r="B6" s="132"/>
+      <c r="C6" s="135"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="133" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="114" t="s">
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="133"/>
+      <c r="K6" s="133" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="114"/>
-      <c r="M6" s="114"/>
-      <c r="N6" s="114"/>
-      <c r="O6" s="114"/>
-      <c r="P6" s="114" t="s">
+      <c r="L6" s="133"/>
+      <c r="M6" s="133"/>
+      <c r="N6" s="133"/>
+      <c r="O6" s="133"/>
+      <c r="P6" s="133" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="114"/>
-      <c r="R6" s="114"/>
-      <c r="S6" s="114"/>
-      <c r="T6" s="114"/>
-      <c r="U6" s="114" t="s">
+      <c r="Q6" s="133"/>
+      <c r="R6" s="133"/>
+      <c r="S6" s="133"/>
+      <c r="T6" s="133"/>
+      <c r="U6" s="133" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="114"/>
-      <c r="W6" s="114"/>
-      <c r="X6" s="114"/>
-      <c r="Y6" s="114"/>
-      <c r="Z6" s="114" t="s">
+      <c r="V6" s="133"/>
+      <c r="W6" s="133"/>
+      <c r="X6" s="133"/>
+      <c r="Y6" s="133"/>
+      <c r="Z6" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="114"/>
-      <c r="AB6" s="114"/>
-      <c r="AC6" s="114"/>
-      <c r="AD6" s="114"/>
-      <c r="AE6" s="114" t="s">
+      <c r="AA6" s="133"/>
+      <c r="AB6" s="133"/>
+      <c r="AC6" s="133"/>
+      <c r="AD6" s="133"/>
+      <c r="AE6" s="133" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="114"/>
-      <c r="AG6" s="114"/>
-      <c r="AH6" s="114"/>
-      <c r="AI6" s="114"/>
-      <c r="AJ6" s="114" t="s">
+      <c r="AF6" s="133"/>
+      <c r="AG6" s="133"/>
+      <c r="AH6" s="133"/>
+      <c r="AI6" s="133"/>
+      <c r="AJ6" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="114"/>
-      <c r="AL6" s="114"/>
-      <c r="AM6" s="114"/>
-      <c r="AN6" s="114"/>
-      <c r="AO6" s="114" t="s">
+      <c r="AK6" s="133"/>
+      <c r="AL6" s="133"/>
+      <c r="AM6" s="133"/>
+      <c r="AN6" s="133"/>
+      <c r="AO6" s="133" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="114"/>
-      <c r="AQ6" s="114"/>
-      <c r="AR6" s="114"/>
-      <c r="AS6" s="114"/>
-      <c r="AT6" s="114" t="s">
+      <c r="AP6" s="133"/>
+      <c r="AQ6" s="133"/>
+      <c r="AR6" s="133"/>
+      <c r="AS6" s="133"/>
+      <c r="AT6" s="133" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="114"/>
-      <c r="AV6" s="114"/>
-      <c r="AW6" s="114"/>
-      <c r="AX6" s="114"/>
-      <c r="AY6" s="114" t="s">
+      <c r="AU6" s="133"/>
+      <c r="AV6" s="133"/>
+      <c r="AW6" s="133"/>
+      <c r="AX6" s="133"/>
+      <c r="AY6" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="114"/>
-      <c r="BA6" s="114"/>
-      <c r="BB6" s="114"/>
-      <c r="BC6" s="114"/>
-      <c r="BD6" s="114" t="s">
+      <c r="AZ6" s="133"/>
+      <c r="BA6" s="133"/>
+      <c r="BB6" s="133"/>
+      <c r="BC6" s="133"/>
+      <c r="BD6" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="114"/>
-      <c r="BF6" s="114"/>
-      <c r="BG6" s="114"/>
-      <c r="BH6" s="114"/>
-      <c r="BI6" s="115" t="s">
+      <c r="BE6" s="133"/>
+      <c r="BF6" s="133"/>
+      <c r="BG6" s="133"/>
+      <c r="BH6" s="133"/>
+      <c r="BI6" s="138" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="115"/>
-      <c r="BK6" s="115"/>
-      <c r="BL6" s="115"/>
-      <c r="BM6" s="115"/>
-      <c r="BN6" s="116"/>
-      <c r="BO6" s="110"/>
+      <c r="BJ6" s="138"/>
+      <c r="BK6" s="138"/>
+      <c r="BL6" s="138"/>
+      <c r="BM6" s="138"/>
+      <c r="BN6" s="131"/>
+      <c r="BO6" s="132"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="117" t="s">
+      <c r="B7" s="126" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="117"/>
-      <c r="E7" s="118"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="127"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -2809,12 +2809,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="117"/>
+      <c r="B8" s="126"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="117"/>
-      <c r="E8" s="119"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="124"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -3838,14 +3838,14 @@
       <c r="AML8" s="23"/>
     </row>
     <row r="9" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="120" t="s">
+      <c r="B9" s="122" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="121"/>
-      <c r="E9" s="122"/>
+      <c r="D9" s="123"/>
+      <c r="E9" s="128"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
       <c r="H9" s="103"/>
@@ -4869,12 +4869,12 @@
       <c r="AML9" s="21"/>
     </row>
     <row r="10" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B10" s="120"/>
+      <c r="B10" s="122"/>
       <c r="C10" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="121"/>
-      <c r="E10" s="123"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="129"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -5898,12 +5898,12 @@
       <c r="AML10" s="21"/>
     </row>
     <row r="11" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="120"/>
+      <c r="B11" s="122"/>
       <c r="C11" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="121"/>
-      <c r="E11" s="123"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="129"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -6927,12 +6927,12 @@
       <c r="AML11" s="21"/>
     </row>
     <row r="12" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="120"/>
+      <c r="B12" s="122"/>
       <c r="C12" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="121"/>
-      <c r="E12" s="124"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="130"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -6997,14 +6997,14 @@
       <c r="BO12" s="31"/>
     </row>
     <row r="13" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B13" s="120" t="s">
+      <c r="B13" s="122" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="121"/>
-      <c r="E13" s="119"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="124"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -7069,12 +7069,12 @@
       <c r="BO13" s="20"/>
     </row>
     <row r="14" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B14" s="120"/>
+      <c r="B14" s="122"/>
       <c r="C14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="121"/>
-      <c r="E14" s="119"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="124"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -7139,12 +7139,12 @@
       <c r="BO14" s="31"/>
     </row>
     <row r="15" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="120"/>
+      <c r="B15" s="122"/>
       <c r="C15" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="121"/>
-      <c r="E15" s="119"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="124"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -7209,12 +7209,12 @@
       <c r="BO15" s="31"/>
     </row>
     <row r="16" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B16" s="120"/>
+      <c r="B16" s="122"/>
       <c r="C16" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="121"/>
-      <c r="E16" s="119"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="124"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -7279,12 +7279,12 @@
       <c r="BO16" s="31"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B17" s="120"/>
+      <c r="B17" s="122"/>
       <c r="C17" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="121"/>
-      <c r="E17" s="119"/>
+      <c r="D17" s="123"/>
+      <c r="E17" s="124"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -7349,12 +7349,12 @@
       <c r="BO17" s="31"/>
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B18" s="120"/>
+      <c r="B18" s="122"/>
       <c r="C18" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="121"/>
-      <c r="E18" s="119"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="124"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -7419,12 +7419,12 @@
       <c r="BO18" s="31"/>
     </row>
     <row r="19" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B19" s="120"/>
+      <c r="B19" s="122"/>
       <c r="C19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="121"/>
-      <c r="E19" s="119"/>
+      <c r="D19" s="123"/>
+      <c r="E19" s="124"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -7495,8 +7495,8 @@
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="117"/>
-      <c r="E20" s="126"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="115"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -7565,8 +7565,8 @@
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="117"/>
-      <c r="E21" s="127"/>
+      <c r="D21" s="126"/>
+      <c r="E21" s="116"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -7635,8 +7635,8 @@
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="117"/>
-      <c r="E22" s="127"/>
+      <c r="D22" s="126"/>
+      <c r="E22" s="116"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -7705,8 +7705,8 @@
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="117"/>
-      <c r="E23" s="127"/>
+      <c r="D23" s="126"/>
+      <c r="E23" s="116"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -7775,8 +7775,8 @@
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="117"/>
-      <c r="E24" s="127"/>
+      <c r="D24" s="126"/>
+      <c r="E24" s="116"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -7841,14 +7841,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="130" t="s">
+      <c r="B25" s="111" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="133"/>
-      <c r="E25" s="126"/>
+      <c r="D25" s="114"/>
+      <c r="E25" s="115"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -7913,12 +7913,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="131"/>
+      <c r="B26" s="112"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="133"/>
-      <c r="E26" s="127"/>
+      <c r="D26" s="114"/>
+      <c r="E26" s="116"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -7983,12 +7983,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="131"/>
+      <c r="B27" s="112"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="133"/>
-      <c r="E27" s="127"/>
+      <c r="D27" s="114"/>
+      <c r="E27" s="116"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -8053,12 +8053,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="131"/>
+      <c r="B28" s="112"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="133"/>
-      <c r="E28" s="127"/>
+      <c r="D28" s="114"/>
+      <c r="E28" s="116"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -8123,12 +8123,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="132"/>
+      <c r="B29" s="113"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="133"/>
-      <c r="E29" s="134"/>
+      <c r="D29" s="114"/>
+      <c r="E29" s="117"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -8265,10 +8265,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="135"/>
-      <c r="C31" s="126"/>
-      <c r="D31" s="138"/>
-      <c r="E31" s="135"/>
+      <c r="B31" s="118"/>
+      <c r="C31" s="115"/>
+      <c r="D31" s="121"/>
+      <c r="E31" s="118"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -8333,10 +8333,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="136"/>
-      <c r="C32" s="127"/>
-      <c r="D32" s="138"/>
-      <c r="E32" s="136"/>
+      <c r="B32" s="119"/>
+      <c r="C32" s="116"/>
+      <c r="D32" s="121"/>
+      <c r="E32" s="119"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -8401,10 +8401,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="136"/>
-      <c r="C33" s="127"/>
-      <c r="D33" s="138"/>
-      <c r="E33" s="136"/>
+      <c r="B33" s="119"/>
+      <c r="C33" s="116"/>
+      <c r="D33" s="121"/>
+      <c r="E33" s="119"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -8469,10 +8469,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="136"/>
-      <c r="C34" s="127"/>
-      <c r="D34" s="138"/>
-      <c r="E34" s="136"/>
+      <c r="B34" s="119"/>
+      <c r="C34" s="116"/>
+      <c r="D34" s="121"/>
+      <c r="E34" s="119"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -8537,10 +8537,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="136"/>
-      <c r="C35" s="127"/>
-      <c r="D35" s="138"/>
-      <c r="E35" s="136"/>
+      <c r="B35" s="119"/>
+      <c r="C35" s="116"/>
+      <c r="D35" s="121"/>
+      <c r="E35" s="119"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -8605,10 +8605,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="136"/>
-      <c r="C36" s="127"/>
-      <c r="D36" s="138"/>
-      <c r="E36" s="136"/>
+      <c r="B36" s="119"/>
+      <c r="C36" s="116"/>
+      <c r="D36" s="121"/>
+      <c r="E36" s="119"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -8673,10 +8673,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="136"/>
-      <c r="C37" s="127"/>
-      <c r="D37" s="138"/>
-      <c r="E37" s="136"/>
+      <c r="B37" s="119"/>
+      <c r="C37" s="116"/>
+      <c r="D37" s="121"/>
+      <c r="E37" s="119"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -8741,10 +8741,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="136"/>
-      <c r="C38" s="127"/>
-      <c r="D38" s="138"/>
-      <c r="E38" s="136"/>
+      <c r="B38" s="119"/>
+      <c r="C38" s="116"/>
+      <c r="D38" s="121"/>
+      <c r="E38" s="119"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -8809,10 +8809,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="136"/>
-      <c r="C39" s="127"/>
-      <c r="D39" s="138"/>
-      <c r="E39" s="136"/>
+      <c r="B39" s="119"/>
+      <c r="C39" s="116"/>
+      <c r="D39" s="121"/>
+      <c r="E39" s="119"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -8877,10 +8877,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="136"/>
-      <c r="C40" s="127"/>
-      <c r="D40" s="138"/>
-      <c r="E40" s="136"/>
+      <c r="B40" s="119"/>
+      <c r="C40" s="116"/>
+      <c r="D40" s="121"/>
+      <c r="E40" s="119"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -8945,10 +8945,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="136"/>
-      <c r="C41" s="127"/>
-      <c r="D41" s="138"/>
-      <c r="E41" s="136"/>
+      <c r="B41" s="119"/>
+      <c r="C41" s="116"/>
+      <c r="D41" s="121"/>
+      <c r="E41" s="119"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -9013,10 +9013,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="136"/>
-      <c r="C42" s="127"/>
-      <c r="D42" s="138"/>
-      <c r="E42" s="136"/>
+      <c r="B42" s="119"/>
+      <c r="C42" s="116"/>
+      <c r="D42" s="121"/>
+      <c r="E42" s="119"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -9081,10 +9081,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="136"/>
-      <c r="C43" s="127"/>
-      <c r="D43" s="138"/>
-      <c r="E43" s="136"/>
+      <c r="B43" s="119"/>
+      <c r="C43" s="116"/>
+      <c r="D43" s="121"/>
+      <c r="E43" s="119"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -9149,10 +9149,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="136"/>
-      <c r="C44" s="127"/>
-      <c r="D44" s="138"/>
-      <c r="E44" s="136"/>
+      <c r="B44" s="119"/>
+      <c r="C44" s="116"/>
+      <c r="D44" s="121"/>
+      <c r="E44" s="119"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -9217,10 +9217,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="136"/>
-      <c r="C45" s="127"/>
-      <c r="D45" s="138"/>
-      <c r="E45" s="136"/>
+      <c r="B45" s="119"/>
+      <c r="C45" s="116"/>
+      <c r="D45" s="121"/>
+      <c r="E45" s="119"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -9285,10 +9285,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="136"/>
-      <c r="C46" s="127"/>
-      <c r="D46" s="138"/>
-      <c r="E46" s="136"/>
+      <c r="B46" s="119"/>
+      <c r="C46" s="116"/>
+      <c r="D46" s="121"/>
+      <c r="E46" s="119"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -9353,10 +9353,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="136"/>
-      <c r="C47" s="127"/>
-      <c r="D47" s="138"/>
-      <c r="E47" s="136"/>
+      <c r="B47" s="119"/>
+      <c r="C47" s="116"/>
+      <c r="D47" s="121"/>
+      <c r="E47" s="119"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -9421,10 +9421,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="136"/>
-      <c r="C48" s="127"/>
-      <c r="D48" s="138"/>
-      <c r="E48" s="136"/>
+      <c r="B48" s="119"/>
+      <c r="C48" s="116"/>
+      <c r="D48" s="121"/>
+      <c r="E48" s="119"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -9489,10 +9489,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="136"/>
-      <c r="C49" s="127"/>
-      <c r="D49" s="138"/>
-      <c r="E49" s="136"/>
+      <c r="B49" s="119"/>
+      <c r="C49" s="116"/>
+      <c r="D49" s="121"/>
+      <c r="E49" s="119"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -9557,10 +9557,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="136"/>
-      <c r="C50" s="127"/>
-      <c r="D50" s="138"/>
-      <c r="E50" s="136"/>
+      <c r="B50" s="119"/>
+      <c r="C50" s="116"/>
+      <c r="D50" s="121"/>
+      <c r="E50" s="119"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -9625,10 +9625,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="136"/>
-      <c r="C51" s="127"/>
-      <c r="D51" s="138"/>
-      <c r="E51" s="136"/>
+      <c r="B51" s="119"/>
+      <c r="C51" s="116"/>
+      <c r="D51" s="121"/>
+      <c r="E51" s="119"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -9693,10 +9693,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="136"/>
-      <c r="C52" s="127"/>
-      <c r="D52" s="138"/>
-      <c r="E52" s="136"/>
+      <c r="B52" s="119"/>
+      <c r="C52" s="116"/>
+      <c r="D52" s="121"/>
+      <c r="E52" s="119"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -9761,10 +9761,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="136"/>
-      <c r="C53" s="127"/>
-      <c r="D53" s="138"/>
-      <c r="E53" s="136"/>
+      <c r="B53" s="119"/>
+      <c r="C53" s="116"/>
+      <c r="D53" s="121"/>
+      <c r="E53" s="119"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -9829,10 +9829,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="136"/>
-      <c r="C54" s="127"/>
-      <c r="D54" s="138"/>
-      <c r="E54" s="136"/>
+      <c r="B54" s="119"/>
+      <c r="C54" s="116"/>
+      <c r="D54" s="121"/>
+      <c r="E54" s="119"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -9897,10 +9897,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="136"/>
-      <c r="C55" s="127"/>
-      <c r="D55" s="138"/>
-      <c r="E55" s="136"/>
+      <c r="B55" s="119"/>
+      <c r="C55" s="116"/>
+      <c r="D55" s="121"/>
+      <c r="E55" s="119"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -9965,10 +9965,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="136"/>
-      <c r="C56" s="127"/>
-      <c r="D56" s="138"/>
-      <c r="E56" s="136"/>
+      <c r="B56" s="119"/>
+      <c r="C56" s="116"/>
+      <c r="D56" s="121"/>
+      <c r="E56" s="119"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -10033,10 +10033,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="136"/>
-      <c r="C57" s="127"/>
-      <c r="D57" s="138"/>
-      <c r="E57" s="136"/>
+      <c r="B57" s="119"/>
+      <c r="C57" s="116"/>
+      <c r="D57" s="121"/>
+      <c r="E57" s="119"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -10096,10 +10096,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="137"/>
-      <c r="C58" s="134"/>
-      <c r="D58" s="138"/>
-      <c r="E58" s="137"/>
+      <c r="B58" s="120"/>
+      <c r="C58" s="117"/>
+      <c r="D58" s="121"/>
+      <c r="E58" s="120"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -10164,7 +10164,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="128" t="s">
+      <c r="B59" s="109" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -10236,7 +10236,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="128"/>
+      <c r="B60" s="109"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -10306,7 +10306,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="129" t="s">
+      <c r="B61" s="110" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -10378,7 +10378,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="129"/>
+      <c r="B62" s="110"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -10446,7 +10446,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="129"/>
+      <c r="B63" s="110"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -10655,27 +10655,16 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="E31:E58"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:BM5"/>
+    <mergeCell ref="AT6:AX6"/>
+    <mergeCell ref="AY6:BC6"/>
+    <mergeCell ref="BD6:BH6"/>
+    <mergeCell ref="BI6:BM6"/>
     <mergeCell ref="BN5:BN6"/>
     <mergeCell ref="BO5:BO6"/>
     <mergeCell ref="F6:J6"/>
@@ -10686,16 +10675,27 @@
     <mergeCell ref="AE6:AI6"/>
     <mergeCell ref="AJ6:AN6"/>
     <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:BM5"/>
-    <mergeCell ref="AT6:AX6"/>
-    <mergeCell ref="AY6:BC6"/>
-    <mergeCell ref="BD6:BH6"/>
-    <mergeCell ref="BI6:BM6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="E31:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10709,31 +10709,31 @@
       <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="1" max="1" width="9.125" style="4"/>
     <col min="2" max="2" width="28" style="3" customWidth="1"/>
-    <col min="3" max="3" width="65.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="65.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="2" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" style="2" customWidth="1"/>
-    <col min="6" max="65" width="2.28515625" style="3" customWidth="1"/>
-    <col min="66" max="69" width="9.140625" style="3"/>
+    <col min="5" max="5" width="29.125" style="2" customWidth="1"/>
+    <col min="6" max="65" width="2.25" style="3" customWidth="1"/>
+    <col min="66" max="69" width="9.125" style="3"/>
     <col min="70" max="70" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="14.85546875" style="3" customWidth="1"/>
+    <col min="71" max="71" width="14.875" style="3" customWidth="1"/>
     <col min="72" max="72" width="13" style="3" customWidth="1"/>
-    <col min="73" max="73" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="74" max="1026" width="9.140625" style="3"/>
-    <col min="1027" max="16384" width="9.140625" style="4"/>
+    <col min="73" max="73" width="13.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="74" max="1026" width="9.125" style="3"/>
+    <col min="1027" max="16384" width="9.125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="134" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
     </row>
     <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
@@ -10899,84 +10899,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="111" t="s">
+      <c r="C5" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="112" t="s">
+      <c r="D5" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="110" t="s">
+      <c r="E5" s="132" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="113" t="s">
+      <c r="F5" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="113"/>
-      <c r="K5" s="113"/>
-      <c r="L5" s="113"/>
-      <c r="M5" s="113"/>
-      <c r="N5" s="113"/>
-      <c r="O5" s="113"/>
-      <c r="P5" s="113"/>
-      <c r="Q5" s="113"/>
-      <c r="R5" s="113"/>
-      <c r="S5" s="113"/>
-      <c r="T5" s="113"/>
-      <c r="U5" s="113"/>
-      <c r="V5" s="113"/>
-      <c r="W5" s="113"/>
-      <c r="X5" s="113"/>
-      <c r="Y5" s="113"/>
-      <c r="Z5" s="113"/>
-      <c r="AA5" s="113"/>
-      <c r="AB5" s="113"/>
-      <c r="AC5" s="113"/>
-      <c r="AD5" s="113"/>
-      <c r="AE5" s="113"/>
-      <c r="AF5" s="113"/>
-      <c r="AG5" s="113"/>
-      <c r="AH5" s="113"/>
-      <c r="AI5" s="113"/>
-      <c r="AJ5" s="113"/>
-      <c r="AK5" s="113"/>
-      <c r="AL5" s="113"/>
-      <c r="AM5" s="113"/>
-      <c r="AN5" s="113"/>
-      <c r="AO5" s="113"/>
-      <c r="AP5" s="113"/>
-      <c r="AQ5" s="113"/>
-      <c r="AR5" s="113"/>
-      <c r="AS5" s="113"/>
-      <c r="AT5" s="113"/>
-      <c r="AU5" s="113"/>
-      <c r="AV5" s="113"/>
-      <c r="AW5" s="113"/>
-      <c r="AX5" s="113"/>
-      <c r="AY5" s="113"/>
-      <c r="AZ5" s="113"/>
-      <c r="BA5" s="113"/>
-      <c r="BB5" s="113"/>
-      <c r="BC5" s="113"/>
-      <c r="BD5" s="113"/>
-      <c r="BE5" s="113"/>
-      <c r="BF5" s="113"/>
-      <c r="BG5" s="113"/>
-      <c r="BH5" s="113"/>
-      <c r="BI5" s="113"/>
-      <c r="BJ5" s="113"/>
-      <c r="BK5" s="113"/>
-      <c r="BL5" s="113"/>
-      <c r="BM5" s="113"/>
-      <c r="BN5" s="116" t="s">
+      <c r="G5" s="137"/>
+      <c r="H5" s="137"/>
+      <c r="I5" s="137"/>
+      <c r="J5" s="137"/>
+      <c r="K5" s="137"/>
+      <c r="L5" s="137"/>
+      <c r="M5" s="137"/>
+      <c r="N5" s="137"/>
+      <c r="O5" s="137"/>
+      <c r="P5" s="137"/>
+      <c r="Q5" s="137"/>
+      <c r="R5" s="137"/>
+      <c r="S5" s="137"/>
+      <c r="T5" s="137"/>
+      <c r="U5" s="137"/>
+      <c r="V5" s="137"/>
+      <c r="W5" s="137"/>
+      <c r="X5" s="137"/>
+      <c r="Y5" s="137"/>
+      <c r="Z5" s="137"/>
+      <c r="AA5" s="137"/>
+      <c r="AB5" s="137"/>
+      <c r="AC5" s="137"/>
+      <c r="AD5" s="137"/>
+      <c r="AE5" s="137"/>
+      <c r="AF5" s="137"/>
+      <c r="AG5" s="137"/>
+      <c r="AH5" s="137"/>
+      <c r="AI5" s="137"/>
+      <c r="AJ5" s="137"/>
+      <c r="AK5" s="137"/>
+      <c r="AL5" s="137"/>
+      <c r="AM5" s="137"/>
+      <c r="AN5" s="137"/>
+      <c r="AO5" s="137"/>
+      <c r="AP5" s="137"/>
+      <c r="AQ5" s="137"/>
+      <c r="AR5" s="137"/>
+      <c r="AS5" s="137"/>
+      <c r="AT5" s="137"/>
+      <c r="AU5" s="137"/>
+      <c r="AV5" s="137"/>
+      <c r="AW5" s="137"/>
+      <c r="AX5" s="137"/>
+      <c r="AY5" s="137"/>
+      <c r="AZ5" s="137"/>
+      <c r="BA5" s="137"/>
+      <c r="BB5" s="137"/>
+      <c r="BC5" s="137"/>
+      <c r="BD5" s="137"/>
+      <c r="BE5" s="137"/>
+      <c r="BF5" s="137"/>
+      <c r="BG5" s="137"/>
+      <c r="BH5" s="137"/>
+      <c r="BI5" s="137"/>
+      <c r="BJ5" s="137"/>
+      <c r="BK5" s="137"/>
+      <c r="BL5" s="137"/>
+      <c r="BM5" s="137"/>
+      <c r="BN5" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="110" t="s">
+      <c r="BO5" s="132" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -10985,107 +10985,107 @@
       <c r="BU5" s="94"/>
     </row>
     <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="110"/>
-      <c r="C6" s="111"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="114" t="s">
+      <c r="B6" s="132"/>
+      <c r="C6" s="135"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="133" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="114" t="s">
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="133"/>
+      <c r="K6" s="133" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="114"/>
-      <c r="M6" s="114"/>
-      <c r="N6" s="114"/>
-      <c r="O6" s="114"/>
-      <c r="P6" s="114" t="s">
+      <c r="L6" s="133"/>
+      <c r="M6" s="133"/>
+      <c r="N6" s="133"/>
+      <c r="O6" s="133"/>
+      <c r="P6" s="133" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="114"/>
-      <c r="R6" s="114"/>
-      <c r="S6" s="114"/>
-      <c r="T6" s="114"/>
-      <c r="U6" s="114" t="s">
+      <c r="Q6" s="133"/>
+      <c r="R6" s="133"/>
+      <c r="S6" s="133"/>
+      <c r="T6" s="133"/>
+      <c r="U6" s="133" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="114"/>
-      <c r="W6" s="114"/>
-      <c r="X6" s="114"/>
-      <c r="Y6" s="114"/>
-      <c r="Z6" s="114" t="s">
+      <c r="V6" s="133"/>
+      <c r="W6" s="133"/>
+      <c r="X6" s="133"/>
+      <c r="Y6" s="133"/>
+      <c r="Z6" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="114"/>
-      <c r="AB6" s="114"/>
-      <c r="AC6" s="114"/>
-      <c r="AD6" s="114"/>
-      <c r="AE6" s="114" t="s">
+      <c r="AA6" s="133"/>
+      <c r="AB6" s="133"/>
+      <c r="AC6" s="133"/>
+      <c r="AD6" s="133"/>
+      <c r="AE6" s="133" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="114"/>
-      <c r="AG6" s="114"/>
-      <c r="AH6" s="114"/>
-      <c r="AI6" s="114"/>
-      <c r="AJ6" s="114" t="s">
+      <c r="AF6" s="133"/>
+      <c r="AG6" s="133"/>
+      <c r="AH6" s="133"/>
+      <c r="AI6" s="133"/>
+      <c r="AJ6" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="114"/>
-      <c r="AL6" s="114"/>
-      <c r="AM6" s="114"/>
-      <c r="AN6" s="114"/>
-      <c r="AO6" s="114" t="s">
+      <c r="AK6" s="133"/>
+      <c r="AL6" s="133"/>
+      <c r="AM6" s="133"/>
+      <c r="AN6" s="133"/>
+      <c r="AO6" s="133" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="114"/>
-      <c r="AQ6" s="114"/>
-      <c r="AR6" s="114"/>
-      <c r="AS6" s="114"/>
-      <c r="AT6" s="114" t="s">
+      <c r="AP6" s="133"/>
+      <c r="AQ6" s="133"/>
+      <c r="AR6" s="133"/>
+      <c r="AS6" s="133"/>
+      <c r="AT6" s="133" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="114"/>
-      <c r="AV6" s="114"/>
-      <c r="AW6" s="114"/>
-      <c r="AX6" s="114"/>
-      <c r="AY6" s="114" t="s">
+      <c r="AU6" s="133"/>
+      <c r="AV6" s="133"/>
+      <c r="AW6" s="133"/>
+      <c r="AX6" s="133"/>
+      <c r="AY6" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="114"/>
-      <c r="BA6" s="114"/>
-      <c r="BB6" s="114"/>
-      <c r="BC6" s="114"/>
-      <c r="BD6" s="114" t="s">
+      <c r="AZ6" s="133"/>
+      <c r="BA6" s="133"/>
+      <c r="BB6" s="133"/>
+      <c r="BC6" s="133"/>
+      <c r="BD6" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="114"/>
-      <c r="BF6" s="114"/>
-      <c r="BG6" s="114"/>
-      <c r="BH6" s="114"/>
-      <c r="BI6" s="115" t="s">
+      <c r="BE6" s="133"/>
+      <c r="BF6" s="133"/>
+      <c r="BG6" s="133"/>
+      <c r="BH6" s="133"/>
+      <c r="BI6" s="138" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="115"/>
-      <c r="BK6" s="115"/>
-      <c r="BL6" s="115"/>
-      <c r="BM6" s="115"/>
-      <c r="BN6" s="116"/>
-      <c r="BO6" s="110"/>
+      <c r="BJ6" s="138"/>
+      <c r="BK6" s="138"/>
+      <c r="BL6" s="138"/>
+      <c r="BM6" s="138"/>
+      <c r="BN6" s="131"/>
+      <c r="BO6" s="132"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="117" t="s">
+      <c r="B7" s="126" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="117"/>
-      <c r="E7" s="118"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="127"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -12110,12 +12110,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="117"/>
+      <c r="B8" s="126"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="117"/>
-      <c r="E8" s="119"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="124"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -13139,14 +13139,14 @@
       <c r="AML8" s="23"/>
     </row>
     <row r="9" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="120" t="s">
+      <c r="B9" s="122" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="121"/>
-      <c r="E9" s="122"/>
+      <c r="D9" s="123"/>
+      <c r="E9" s="128"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
       <c r="H9" s="83"/>
@@ -14170,12 +14170,12 @@
       <c r="AML9" s="21"/>
     </row>
     <row r="10" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B10" s="120"/>
+      <c r="B10" s="122"/>
       <c r="C10" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="121"/>
-      <c r="E10" s="123"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="129"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -15199,12 +15199,12 @@
       <c r="AML10" s="21"/>
     </row>
     <row r="11" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="120"/>
+      <c r="B11" s="122"/>
       <c r="C11" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="121"/>
-      <c r="E11" s="123"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="129"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -16228,12 +16228,12 @@
       <c r="AML11" s="21"/>
     </row>
     <row r="12" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="120"/>
+      <c r="B12" s="122"/>
       <c r="C12" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="121"/>
-      <c r="E12" s="124"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="130"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -16298,14 +16298,14 @@
       <c r="BO12" s="31"/>
     </row>
     <row r="13" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B13" s="120" t="s">
+      <c r="B13" s="122" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="121"/>
-      <c r="E13" s="119"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="124"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -16370,12 +16370,12 @@
       <c r="BO13" s="20"/>
     </row>
     <row r="14" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B14" s="120"/>
+      <c r="B14" s="122"/>
       <c r="C14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="121"/>
-      <c r="E14" s="119"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="124"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -16440,12 +16440,12 @@
       <c r="BO14" s="31"/>
     </row>
     <row r="15" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="120"/>
+      <c r="B15" s="122"/>
       <c r="C15" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="121"/>
-      <c r="E15" s="119"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="124"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -16510,12 +16510,12 @@
       <c r="BO15" s="31"/>
     </row>
     <row r="16" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B16" s="120"/>
+      <c r="B16" s="122"/>
       <c r="C16" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="121"/>
-      <c r="E16" s="119"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="124"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -16580,12 +16580,12 @@
       <c r="BO16" s="31"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B17" s="120"/>
+      <c r="B17" s="122"/>
       <c r="C17" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="121"/>
-      <c r="E17" s="119"/>
+      <c r="D17" s="123"/>
+      <c r="E17" s="124"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -16650,12 +16650,12 @@
       <c r="BO17" s="31"/>
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B18" s="120"/>
+      <c r="B18" s="122"/>
       <c r="C18" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="121"/>
-      <c r="E18" s="119"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="124"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -16720,12 +16720,12 @@
       <c r="BO18" s="31"/>
     </row>
     <row r="19" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B19" s="120"/>
+      <c r="B19" s="122"/>
       <c r="C19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="121"/>
-      <c r="E19" s="119"/>
+      <c r="D19" s="123"/>
+      <c r="E19" s="124"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -16796,8 +16796,8 @@
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="117"/>
-      <c r="E20" s="126"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="115"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -16866,8 +16866,8 @@
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="117"/>
-      <c r="E21" s="127"/>
+      <c r="D21" s="126"/>
+      <c r="E21" s="116"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -16936,8 +16936,8 @@
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="117"/>
-      <c r="E22" s="127"/>
+      <c r="D22" s="126"/>
+      <c r="E22" s="116"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -17006,8 +17006,8 @@
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="117"/>
-      <c r="E23" s="127"/>
+      <c r="D23" s="126"/>
+      <c r="E23" s="116"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -17076,8 +17076,8 @@
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="117"/>
-      <c r="E24" s="127"/>
+      <c r="D24" s="126"/>
+      <c r="E24" s="116"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -17142,14 +17142,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="130" t="s">
+      <c r="B25" s="111" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="133"/>
-      <c r="E25" s="126"/>
+      <c r="D25" s="114"/>
+      <c r="E25" s="115"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -17214,12 +17214,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="131"/>
+      <c r="B26" s="112"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="133"/>
-      <c r="E26" s="127"/>
+      <c r="D26" s="114"/>
+      <c r="E26" s="116"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -17284,12 +17284,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="131"/>
+      <c r="B27" s="112"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="133"/>
-      <c r="E27" s="127"/>
+      <c r="D27" s="114"/>
+      <c r="E27" s="116"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -17354,12 +17354,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="131"/>
+      <c r="B28" s="112"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="133"/>
-      <c r="E28" s="127"/>
+      <c r="D28" s="114"/>
+      <c r="E28" s="116"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -17424,12 +17424,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="132"/>
+      <c r="B29" s="113"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="133"/>
-      <c r="E29" s="134"/>
+      <c r="D29" s="114"/>
+      <c r="E29" s="117"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -17566,10 +17566,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="135"/>
-      <c r="C31" s="126"/>
-      <c r="D31" s="138"/>
-      <c r="E31" s="135"/>
+      <c r="B31" s="118"/>
+      <c r="C31" s="115"/>
+      <c r="D31" s="121"/>
+      <c r="E31" s="118"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -17634,10 +17634,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="136"/>
-      <c r="C32" s="127"/>
-      <c r="D32" s="138"/>
-      <c r="E32" s="136"/>
+      <c r="B32" s="119"/>
+      <c r="C32" s="116"/>
+      <c r="D32" s="121"/>
+      <c r="E32" s="119"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -17702,10 +17702,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="136"/>
-      <c r="C33" s="127"/>
-      <c r="D33" s="138"/>
-      <c r="E33" s="136"/>
+      <c r="B33" s="119"/>
+      <c r="C33" s="116"/>
+      <c r="D33" s="121"/>
+      <c r="E33" s="119"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -17770,10 +17770,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="136"/>
-      <c r="C34" s="127"/>
-      <c r="D34" s="138"/>
-      <c r="E34" s="136"/>
+      <c r="B34" s="119"/>
+      <c r="C34" s="116"/>
+      <c r="D34" s="121"/>
+      <c r="E34" s="119"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -17838,10 +17838,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="136"/>
-      <c r="C35" s="127"/>
-      <c r="D35" s="138"/>
-      <c r="E35" s="136"/>
+      <c r="B35" s="119"/>
+      <c r="C35" s="116"/>
+      <c r="D35" s="121"/>
+      <c r="E35" s="119"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -17906,10 +17906,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="136"/>
-      <c r="C36" s="127"/>
-      <c r="D36" s="138"/>
-      <c r="E36" s="136"/>
+      <c r="B36" s="119"/>
+      <c r="C36" s="116"/>
+      <c r="D36" s="121"/>
+      <c r="E36" s="119"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -17974,10 +17974,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="136"/>
-      <c r="C37" s="127"/>
-      <c r="D37" s="138"/>
-      <c r="E37" s="136"/>
+      <c r="B37" s="119"/>
+      <c r="C37" s="116"/>
+      <c r="D37" s="121"/>
+      <c r="E37" s="119"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -18042,10 +18042,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="136"/>
-      <c r="C38" s="127"/>
-      <c r="D38" s="138"/>
-      <c r="E38" s="136"/>
+      <c r="B38" s="119"/>
+      <c r="C38" s="116"/>
+      <c r="D38" s="121"/>
+      <c r="E38" s="119"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -18110,10 +18110,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="136"/>
-      <c r="C39" s="127"/>
-      <c r="D39" s="138"/>
-      <c r="E39" s="136"/>
+      <c r="B39" s="119"/>
+      <c r="C39" s="116"/>
+      <c r="D39" s="121"/>
+      <c r="E39" s="119"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -18178,10 +18178,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="136"/>
-      <c r="C40" s="127"/>
-      <c r="D40" s="138"/>
-      <c r="E40" s="136"/>
+      <c r="B40" s="119"/>
+      <c r="C40" s="116"/>
+      <c r="D40" s="121"/>
+      <c r="E40" s="119"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -18246,10 +18246,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="136"/>
-      <c r="C41" s="127"/>
-      <c r="D41" s="138"/>
-      <c r="E41" s="136"/>
+      <c r="B41" s="119"/>
+      <c r="C41" s="116"/>
+      <c r="D41" s="121"/>
+      <c r="E41" s="119"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -18314,10 +18314,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="136"/>
-      <c r="C42" s="127"/>
-      <c r="D42" s="138"/>
-      <c r="E42" s="136"/>
+      <c r="B42" s="119"/>
+      <c r="C42" s="116"/>
+      <c r="D42" s="121"/>
+      <c r="E42" s="119"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -18382,10 +18382,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="136"/>
-      <c r="C43" s="127"/>
-      <c r="D43" s="138"/>
-      <c r="E43" s="136"/>
+      <c r="B43" s="119"/>
+      <c r="C43" s="116"/>
+      <c r="D43" s="121"/>
+      <c r="E43" s="119"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -18450,10 +18450,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="136"/>
-      <c r="C44" s="127"/>
-      <c r="D44" s="138"/>
-      <c r="E44" s="136"/>
+      <c r="B44" s="119"/>
+      <c r="C44" s="116"/>
+      <c r="D44" s="121"/>
+      <c r="E44" s="119"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -18518,10 +18518,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="136"/>
-      <c r="C45" s="127"/>
-      <c r="D45" s="138"/>
-      <c r="E45" s="136"/>
+      <c r="B45" s="119"/>
+      <c r="C45" s="116"/>
+      <c r="D45" s="121"/>
+      <c r="E45" s="119"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -18586,10 +18586,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="136"/>
-      <c r="C46" s="127"/>
-      <c r="D46" s="138"/>
-      <c r="E46" s="136"/>
+      <c r="B46" s="119"/>
+      <c r="C46" s="116"/>
+      <c r="D46" s="121"/>
+      <c r="E46" s="119"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -18654,10 +18654,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="136"/>
-      <c r="C47" s="127"/>
-      <c r="D47" s="138"/>
-      <c r="E47" s="136"/>
+      <c r="B47" s="119"/>
+      <c r="C47" s="116"/>
+      <c r="D47" s="121"/>
+      <c r="E47" s="119"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -18722,10 +18722,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="136"/>
-      <c r="C48" s="127"/>
-      <c r="D48" s="138"/>
-      <c r="E48" s="136"/>
+      <c r="B48" s="119"/>
+      <c r="C48" s="116"/>
+      <c r="D48" s="121"/>
+      <c r="E48" s="119"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -18790,10 +18790,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="136"/>
-      <c r="C49" s="127"/>
-      <c r="D49" s="138"/>
-      <c r="E49" s="136"/>
+      <c r="B49" s="119"/>
+      <c r="C49" s="116"/>
+      <c r="D49" s="121"/>
+      <c r="E49" s="119"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -18858,10 +18858,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="136"/>
-      <c r="C50" s="127"/>
-      <c r="D50" s="138"/>
-      <c r="E50" s="136"/>
+      <c r="B50" s="119"/>
+      <c r="C50" s="116"/>
+      <c r="D50" s="121"/>
+      <c r="E50" s="119"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -18926,10 +18926,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="136"/>
-      <c r="C51" s="127"/>
-      <c r="D51" s="138"/>
-      <c r="E51" s="136"/>
+      <c r="B51" s="119"/>
+      <c r="C51" s="116"/>
+      <c r="D51" s="121"/>
+      <c r="E51" s="119"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -18994,10 +18994,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="136"/>
-      <c r="C52" s="127"/>
-      <c r="D52" s="138"/>
-      <c r="E52" s="136"/>
+      <c r="B52" s="119"/>
+      <c r="C52" s="116"/>
+      <c r="D52" s="121"/>
+      <c r="E52" s="119"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -19062,10 +19062,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="136"/>
-      <c r="C53" s="127"/>
-      <c r="D53" s="138"/>
-      <c r="E53" s="136"/>
+      <c r="B53" s="119"/>
+      <c r="C53" s="116"/>
+      <c r="D53" s="121"/>
+      <c r="E53" s="119"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -19130,10 +19130,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="136"/>
-      <c r="C54" s="127"/>
-      <c r="D54" s="138"/>
-      <c r="E54" s="136"/>
+      <c r="B54" s="119"/>
+      <c r="C54" s="116"/>
+      <c r="D54" s="121"/>
+      <c r="E54" s="119"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -19198,10 +19198,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="136"/>
-      <c r="C55" s="127"/>
-      <c r="D55" s="138"/>
-      <c r="E55" s="136"/>
+      <c r="B55" s="119"/>
+      <c r="C55" s="116"/>
+      <c r="D55" s="121"/>
+      <c r="E55" s="119"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -19266,10 +19266,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="136"/>
-      <c r="C56" s="127"/>
-      <c r="D56" s="138"/>
-      <c r="E56" s="136"/>
+      <c r="B56" s="119"/>
+      <c r="C56" s="116"/>
+      <c r="D56" s="121"/>
+      <c r="E56" s="119"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -19334,10 +19334,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="136"/>
-      <c r="C57" s="127"/>
-      <c r="D57" s="138"/>
-      <c r="E57" s="136"/>
+      <c r="B57" s="119"/>
+      <c r="C57" s="116"/>
+      <c r="D57" s="121"/>
+      <c r="E57" s="119"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -19397,10 +19397,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="137"/>
-      <c r="C58" s="134"/>
-      <c r="D58" s="138"/>
-      <c r="E58" s="137"/>
+      <c r="B58" s="120"/>
+      <c r="C58" s="117"/>
+      <c r="D58" s="121"/>
+      <c r="E58" s="120"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -19465,7 +19465,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="128" t="s">
+      <c r="B59" s="109" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -19537,7 +19537,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="128"/>
+      <c r="B60" s="109"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -19607,7 +19607,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="129" t="s">
+      <c r="B61" s="110" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -19679,7 +19679,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="129"/>
+      <c r="B62" s="110"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -19747,7 +19747,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="129"/>
+      <c r="B63" s="110"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -19956,27 +19956,16 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="E31:E58"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:BM5"/>
+    <mergeCell ref="AT6:AX6"/>
+    <mergeCell ref="AY6:BC6"/>
+    <mergeCell ref="BD6:BH6"/>
+    <mergeCell ref="BI6:BM6"/>
     <mergeCell ref="BN5:BN6"/>
     <mergeCell ref="BO5:BO6"/>
     <mergeCell ref="F6:J6"/>
@@ -19987,16 +19976,27 @@
     <mergeCell ref="AE6:AI6"/>
     <mergeCell ref="AJ6:AN6"/>
     <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:BM5"/>
-    <mergeCell ref="AT6:AX6"/>
-    <mergeCell ref="AY6:BC6"/>
-    <mergeCell ref="BD6:BH6"/>
-    <mergeCell ref="BI6:BM6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="E31:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20010,31 +20010,31 @@
       <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="1" max="1" width="9.125" style="4"/>
     <col min="2" max="2" width="28" style="3" customWidth="1"/>
-    <col min="3" max="3" width="65.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="65.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="2" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" style="2" customWidth="1"/>
-    <col min="6" max="65" width="2.28515625" style="3" customWidth="1"/>
-    <col min="66" max="69" width="9.140625" style="3"/>
+    <col min="5" max="5" width="29.125" style="2" customWidth="1"/>
+    <col min="6" max="65" width="2.25" style="3" customWidth="1"/>
+    <col min="66" max="69" width="9.125" style="3"/>
     <col min="70" max="70" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="14.85546875" style="3" customWidth="1"/>
+    <col min="71" max="71" width="14.875" style="3" customWidth="1"/>
     <col min="72" max="72" width="13" style="3" customWidth="1"/>
-    <col min="73" max="73" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="74" max="1026" width="9.140625" style="3"/>
-    <col min="1027" max="16384" width="9.140625" style="4"/>
+    <col min="73" max="73" width="13.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="74" max="1026" width="9.125" style="3"/>
+    <col min="1027" max="16384" width="9.125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="134" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
     </row>
     <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
@@ -20200,84 +20200,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="111" t="s">
+      <c r="C5" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="112" t="s">
+      <c r="D5" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="110" t="s">
+      <c r="E5" s="132" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="113" t="s">
+      <c r="F5" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="113"/>
-      <c r="K5" s="113"/>
-      <c r="L5" s="113"/>
-      <c r="M5" s="113"/>
-      <c r="N5" s="113"/>
-      <c r="O5" s="113"/>
-      <c r="P5" s="113"/>
-      <c r="Q5" s="113"/>
-      <c r="R5" s="113"/>
-      <c r="S5" s="113"/>
-      <c r="T5" s="113"/>
-      <c r="U5" s="113"/>
-      <c r="V5" s="113"/>
-      <c r="W5" s="113"/>
-      <c r="X5" s="113"/>
-      <c r="Y5" s="113"/>
-      <c r="Z5" s="113"/>
-      <c r="AA5" s="113"/>
-      <c r="AB5" s="113"/>
-      <c r="AC5" s="113"/>
-      <c r="AD5" s="113"/>
-      <c r="AE5" s="113"/>
-      <c r="AF5" s="113"/>
-      <c r="AG5" s="113"/>
-      <c r="AH5" s="113"/>
-      <c r="AI5" s="113"/>
-      <c r="AJ5" s="113"/>
-      <c r="AK5" s="113"/>
-      <c r="AL5" s="113"/>
-      <c r="AM5" s="113"/>
-      <c r="AN5" s="113"/>
-      <c r="AO5" s="113"/>
-      <c r="AP5" s="113"/>
-      <c r="AQ5" s="113"/>
-      <c r="AR5" s="113"/>
-      <c r="AS5" s="113"/>
-      <c r="AT5" s="113"/>
-      <c r="AU5" s="113"/>
-      <c r="AV5" s="113"/>
-      <c r="AW5" s="113"/>
-      <c r="AX5" s="113"/>
-      <c r="AY5" s="113"/>
-      <c r="AZ5" s="113"/>
-      <c r="BA5" s="113"/>
-      <c r="BB5" s="113"/>
-      <c r="BC5" s="113"/>
-      <c r="BD5" s="113"/>
-      <c r="BE5" s="113"/>
-      <c r="BF5" s="113"/>
-      <c r="BG5" s="113"/>
-      <c r="BH5" s="113"/>
-      <c r="BI5" s="113"/>
-      <c r="BJ5" s="113"/>
-      <c r="BK5" s="113"/>
-      <c r="BL5" s="113"/>
-      <c r="BM5" s="113"/>
-      <c r="BN5" s="116" t="s">
+      <c r="G5" s="137"/>
+      <c r="H5" s="137"/>
+      <c r="I5" s="137"/>
+      <c r="J5" s="137"/>
+      <c r="K5" s="137"/>
+      <c r="L5" s="137"/>
+      <c r="M5" s="137"/>
+      <c r="N5" s="137"/>
+      <c r="O5" s="137"/>
+      <c r="P5" s="137"/>
+      <c r="Q5" s="137"/>
+      <c r="R5" s="137"/>
+      <c r="S5" s="137"/>
+      <c r="T5" s="137"/>
+      <c r="U5" s="137"/>
+      <c r="V5" s="137"/>
+      <c r="W5" s="137"/>
+      <c r="X5" s="137"/>
+      <c r="Y5" s="137"/>
+      <c r="Z5" s="137"/>
+      <c r="AA5" s="137"/>
+      <c r="AB5" s="137"/>
+      <c r="AC5" s="137"/>
+      <c r="AD5" s="137"/>
+      <c r="AE5" s="137"/>
+      <c r="AF5" s="137"/>
+      <c r="AG5" s="137"/>
+      <c r="AH5" s="137"/>
+      <c r="AI5" s="137"/>
+      <c r="AJ5" s="137"/>
+      <c r="AK5" s="137"/>
+      <c r="AL5" s="137"/>
+      <c r="AM5" s="137"/>
+      <c r="AN5" s="137"/>
+      <c r="AO5" s="137"/>
+      <c r="AP5" s="137"/>
+      <c r="AQ5" s="137"/>
+      <c r="AR5" s="137"/>
+      <c r="AS5" s="137"/>
+      <c r="AT5" s="137"/>
+      <c r="AU5" s="137"/>
+      <c r="AV5" s="137"/>
+      <c r="AW5" s="137"/>
+      <c r="AX5" s="137"/>
+      <c r="AY5" s="137"/>
+      <c r="AZ5" s="137"/>
+      <c r="BA5" s="137"/>
+      <c r="BB5" s="137"/>
+      <c r="BC5" s="137"/>
+      <c r="BD5" s="137"/>
+      <c r="BE5" s="137"/>
+      <c r="BF5" s="137"/>
+      <c r="BG5" s="137"/>
+      <c r="BH5" s="137"/>
+      <c r="BI5" s="137"/>
+      <c r="BJ5" s="137"/>
+      <c r="BK5" s="137"/>
+      <c r="BL5" s="137"/>
+      <c r="BM5" s="137"/>
+      <c r="BN5" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="110" t="s">
+      <c r="BO5" s="132" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -20286,107 +20286,107 @@
       <c r="BU5" s="94"/>
     </row>
     <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="110"/>
-      <c r="C6" s="111"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="114" t="s">
+      <c r="B6" s="132"/>
+      <c r="C6" s="135"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="133" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="114" t="s">
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="133"/>
+      <c r="K6" s="133" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="114"/>
-      <c r="M6" s="114"/>
-      <c r="N6" s="114"/>
-      <c r="O6" s="114"/>
-      <c r="P6" s="114" t="s">
+      <c r="L6" s="133"/>
+      <c r="M6" s="133"/>
+      <c r="N6" s="133"/>
+      <c r="O6" s="133"/>
+      <c r="P6" s="133" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="114"/>
-      <c r="R6" s="114"/>
-      <c r="S6" s="114"/>
-      <c r="T6" s="114"/>
-      <c r="U6" s="114" t="s">
+      <c r="Q6" s="133"/>
+      <c r="R6" s="133"/>
+      <c r="S6" s="133"/>
+      <c r="T6" s="133"/>
+      <c r="U6" s="133" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="114"/>
-      <c r="W6" s="114"/>
-      <c r="X6" s="114"/>
-      <c r="Y6" s="114"/>
-      <c r="Z6" s="114" t="s">
+      <c r="V6" s="133"/>
+      <c r="W6" s="133"/>
+      <c r="X6" s="133"/>
+      <c r="Y6" s="133"/>
+      <c r="Z6" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="114"/>
-      <c r="AB6" s="114"/>
-      <c r="AC6" s="114"/>
-      <c r="AD6" s="114"/>
-      <c r="AE6" s="114" t="s">
+      <c r="AA6" s="133"/>
+      <c r="AB6" s="133"/>
+      <c r="AC6" s="133"/>
+      <c r="AD6" s="133"/>
+      <c r="AE6" s="133" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="114"/>
-      <c r="AG6" s="114"/>
-      <c r="AH6" s="114"/>
-      <c r="AI6" s="114"/>
-      <c r="AJ6" s="114" t="s">
+      <c r="AF6" s="133"/>
+      <c r="AG6" s="133"/>
+      <c r="AH6" s="133"/>
+      <c r="AI6" s="133"/>
+      <c r="AJ6" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="114"/>
-      <c r="AL6" s="114"/>
-      <c r="AM6" s="114"/>
-      <c r="AN6" s="114"/>
-      <c r="AO6" s="114" t="s">
+      <c r="AK6" s="133"/>
+      <c r="AL6" s="133"/>
+      <c r="AM6" s="133"/>
+      <c r="AN6" s="133"/>
+      <c r="AO6" s="133" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="114"/>
-      <c r="AQ6" s="114"/>
-      <c r="AR6" s="114"/>
-      <c r="AS6" s="114"/>
-      <c r="AT6" s="114" t="s">
+      <c r="AP6" s="133"/>
+      <c r="AQ6" s="133"/>
+      <c r="AR6" s="133"/>
+      <c r="AS6" s="133"/>
+      <c r="AT6" s="133" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="114"/>
-      <c r="AV6" s="114"/>
-      <c r="AW6" s="114"/>
-      <c r="AX6" s="114"/>
-      <c r="AY6" s="114" t="s">
+      <c r="AU6" s="133"/>
+      <c r="AV6" s="133"/>
+      <c r="AW6" s="133"/>
+      <c r="AX6" s="133"/>
+      <c r="AY6" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="114"/>
-      <c r="BA6" s="114"/>
-      <c r="BB6" s="114"/>
-      <c r="BC6" s="114"/>
-      <c r="BD6" s="114" t="s">
+      <c r="AZ6" s="133"/>
+      <c r="BA6" s="133"/>
+      <c r="BB6" s="133"/>
+      <c r="BC6" s="133"/>
+      <c r="BD6" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="114"/>
-      <c r="BF6" s="114"/>
-      <c r="BG6" s="114"/>
-      <c r="BH6" s="114"/>
-      <c r="BI6" s="115" t="s">
+      <c r="BE6" s="133"/>
+      <c r="BF6" s="133"/>
+      <c r="BG6" s="133"/>
+      <c r="BH6" s="133"/>
+      <c r="BI6" s="138" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="115"/>
-      <c r="BK6" s="115"/>
-      <c r="BL6" s="115"/>
-      <c r="BM6" s="115"/>
-      <c r="BN6" s="116"/>
-      <c r="BO6" s="110"/>
+      <c r="BJ6" s="138"/>
+      <c r="BK6" s="138"/>
+      <c r="BL6" s="138"/>
+      <c r="BM6" s="138"/>
+      <c r="BN6" s="131"/>
+      <c r="BO6" s="132"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="117" t="s">
+      <c r="B7" s="126" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="117"/>
-      <c r="E7" s="118"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="127"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -21411,12 +21411,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="117"/>
+      <c r="B8" s="126"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="117"/>
-      <c r="E8" s="119"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="124"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -22440,14 +22440,14 @@
       <c r="AML8" s="23"/>
     </row>
     <row r="9" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="120" t="s">
+      <c r="B9" s="122" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="121"/>
-      <c r="E9" s="122"/>
+      <c r="D9" s="123"/>
+      <c r="E9" s="128"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
       <c r="H9" s="83"/>
@@ -23471,12 +23471,12 @@
       <c r="AML9" s="21"/>
     </row>
     <row r="10" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B10" s="120"/>
+      <c r="B10" s="122"/>
       <c r="C10" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="121"/>
-      <c r="E10" s="123"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="129"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -24500,12 +24500,12 @@
       <c r="AML10" s="21"/>
     </row>
     <row r="11" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="120"/>
+      <c r="B11" s="122"/>
       <c r="C11" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="121"/>
-      <c r="E11" s="123"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="129"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -25529,12 +25529,12 @@
       <c r="AML11" s="21"/>
     </row>
     <row r="12" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="120"/>
+      <c r="B12" s="122"/>
       <c r="C12" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="121"/>
-      <c r="E12" s="124"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="130"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -25599,14 +25599,14 @@
       <c r="BO12" s="31"/>
     </row>
     <row r="13" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B13" s="120" t="s">
+      <c r="B13" s="122" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="121"/>
-      <c r="E13" s="119"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="124"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -25671,12 +25671,12 @@
       <c r="BO13" s="20"/>
     </row>
     <row r="14" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B14" s="120"/>
+      <c r="B14" s="122"/>
       <c r="C14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="121"/>
-      <c r="E14" s="119"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="124"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -25741,12 +25741,12 @@
       <c r="BO14" s="31"/>
     </row>
     <row r="15" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="120"/>
+      <c r="B15" s="122"/>
       <c r="C15" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="121"/>
-      <c r="E15" s="119"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="124"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -25811,12 +25811,12 @@
       <c r="BO15" s="31"/>
     </row>
     <row r="16" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B16" s="120"/>
+      <c r="B16" s="122"/>
       <c r="C16" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="121"/>
-      <c r="E16" s="119"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="124"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -25881,12 +25881,12 @@
       <c r="BO16" s="31"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B17" s="120"/>
+      <c r="B17" s="122"/>
       <c r="C17" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="121"/>
-      <c r="E17" s="119"/>
+      <c r="D17" s="123"/>
+      <c r="E17" s="124"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -25951,12 +25951,12 @@
       <c r="BO17" s="31"/>
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B18" s="120"/>
+      <c r="B18" s="122"/>
       <c r="C18" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="121"/>
-      <c r="E18" s="119"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="124"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -26021,12 +26021,12 @@
       <c r="BO18" s="31"/>
     </row>
     <row r="19" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B19" s="120"/>
+      <c r="B19" s="122"/>
       <c r="C19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="121"/>
-      <c r="E19" s="119"/>
+      <c r="D19" s="123"/>
+      <c r="E19" s="124"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -26097,8 +26097,8 @@
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="117"/>
-      <c r="E20" s="126"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="115"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -26167,8 +26167,8 @@
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="117"/>
-      <c r="E21" s="127"/>
+      <c r="D21" s="126"/>
+      <c r="E21" s="116"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -26237,8 +26237,8 @@
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="117"/>
-      <c r="E22" s="127"/>
+      <c r="D22" s="126"/>
+      <c r="E22" s="116"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -26307,8 +26307,8 @@
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="117"/>
-      <c r="E23" s="127"/>
+      <c r="D23" s="126"/>
+      <c r="E23" s="116"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -26377,8 +26377,8 @@
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="117"/>
-      <c r="E24" s="127"/>
+      <c r="D24" s="126"/>
+      <c r="E24" s="116"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -26443,14 +26443,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="130" t="s">
+      <c r="B25" s="111" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="133"/>
-      <c r="E25" s="126"/>
+      <c r="D25" s="114"/>
+      <c r="E25" s="115"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -26515,12 +26515,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="131"/>
+      <c r="B26" s="112"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="133"/>
-      <c r="E26" s="127"/>
+      <c r="D26" s="114"/>
+      <c r="E26" s="116"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -26585,12 +26585,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="131"/>
+      <c r="B27" s="112"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="133"/>
-      <c r="E27" s="127"/>
+      <c r="D27" s="114"/>
+      <c r="E27" s="116"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -26655,12 +26655,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="131"/>
+      <c r="B28" s="112"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="133"/>
-      <c r="E28" s="127"/>
+      <c r="D28" s="114"/>
+      <c r="E28" s="116"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -26725,12 +26725,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="132"/>
+      <c r="B29" s="113"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="133"/>
-      <c r="E29" s="134"/>
+      <c r="D29" s="114"/>
+      <c r="E29" s="117"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -26867,10 +26867,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="135"/>
-      <c r="C31" s="126"/>
-      <c r="D31" s="138"/>
-      <c r="E31" s="135"/>
+      <c r="B31" s="118"/>
+      <c r="C31" s="115"/>
+      <c r="D31" s="121"/>
+      <c r="E31" s="118"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -26935,10 +26935,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="136"/>
-      <c r="C32" s="127"/>
-      <c r="D32" s="138"/>
-      <c r="E32" s="136"/>
+      <c r="B32" s="119"/>
+      <c r="C32" s="116"/>
+      <c r="D32" s="121"/>
+      <c r="E32" s="119"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -27003,10 +27003,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="136"/>
-      <c r="C33" s="127"/>
-      <c r="D33" s="138"/>
-      <c r="E33" s="136"/>
+      <c r="B33" s="119"/>
+      <c r="C33" s="116"/>
+      <c r="D33" s="121"/>
+      <c r="E33" s="119"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -27071,10 +27071,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="136"/>
-      <c r="C34" s="127"/>
-      <c r="D34" s="138"/>
-      <c r="E34" s="136"/>
+      <c r="B34" s="119"/>
+      <c r="C34" s="116"/>
+      <c r="D34" s="121"/>
+      <c r="E34" s="119"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -27139,10 +27139,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="136"/>
-      <c r="C35" s="127"/>
-      <c r="D35" s="138"/>
-      <c r="E35" s="136"/>
+      <c r="B35" s="119"/>
+      <c r="C35" s="116"/>
+      <c r="D35" s="121"/>
+      <c r="E35" s="119"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -27207,10 +27207,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="136"/>
-      <c r="C36" s="127"/>
-      <c r="D36" s="138"/>
-      <c r="E36" s="136"/>
+      <c r="B36" s="119"/>
+      <c r="C36" s="116"/>
+      <c r="D36" s="121"/>
+      <c r="E36" s="119"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -27275,10 +27275,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="136"/>
-      <c r="C37" s="127"/>
-      <c r="D37" s="138"/>
-      <c r="E37" s="136"/>
+      <c r="B37" s="119"/>
+      <c r="C37" s="116"/>
+      <c r="D37" s="121"/>
+      <c r="E37" s="119"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -27343,10 +27343,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="136"/>
-      <c r="C38" s="127"/>
-      <c r="D38" s="138"/>
-      <c r="E38" s="136"/>
+      <c r="B38" s="119"/>
+      <c r="C38" s="116"/>
+      <c r="D38" s="121"/>
+      <c r="E38" s="119"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -27411,10 +27411,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="136"/>
-      <c r="C39" s="127"/>
-      <c r="D39" s="138"/>
-      <c r="E39" s="136"/>
+      <c r="B39" s="119"/>
+      <c r="C39" s="116"/>
+      <c r="D39" s="121"/>
+      <c r="E39" s="119"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -27479,10 +27479,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="136"/>
-      <c r="C40" s="127"/>
-      <c r="D40" s="138"/>
-      <c r="E40" s="136"/>
+      <c r="B40" s="119"/>
+      <c r="C40" s="116"/>
+      <c r="D40" s="121"/>
+      <c r="E40" s="119"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -27547,10 +27547,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="136"/>
-      <c r="C41" s="127"/>
-      <c r="D41" s="138"/>
-      <c r="E41" s="136"/>
+      <c r="B41" s="119"/>
+      <c r="C41" s="116"/>
+      <c r="D41" s="121"/>
+      <c r="E41" s="119"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -27615,10 +27615,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="136"/>
-      <c r="C42" s="127"/>
-      <c r="D42" s="138"/>
-      <c r="E42" s="136"/>
+      <c r="B42" s="119"/>
+      <c r="C42" s="116"/>
+      <c r="D42" s="121"/>
+      <c r="E42" s="119"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -27683,10 +27683,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="136"/>
-      <c r="C43" s="127"/>
-      <c r="D43" s="138"/>
-      <c r="E43" s="136"/>
+      <c r="B43" s="119"/>
+      <c r="C43" s="116"/>
+      <c r="D43" s="121"/>
+      <c r="E43" s="119"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -27751,10 +27751,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="136"/>
-      <c r="C44" s="127"/>
-      <c r="D44" s="138"/>
-      <c r="E44" s="136"/>
+      <c r="B44" s="119"/>
+      <c r="C44" s="116"/>
+      <c r="D44" s="121"/>
+      <c r="E44" s="119"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -27819,10 +27819,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="136"/>
-      <c r="C45" s="127"/>
-      <c r="D45" s="138"/>
-      <c r="E45" s="136"/>
+      <c r="B45" s="119"/>
+      <c r="C45" s="116"/>
+      <c r="D45" s="121"/>
+      <c r="E45" s="119"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -27887,10 +27887,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="136"/>
-      <c r="C46" s="127"/>
-      <c r="D46" s="138"/>
-      <c r="E46" s="136"/>
+      <c r="B46" s="119"/>
+      <c r="C46" s="116"/>
+      <c r="D46" s="121"/>
+      <c r="E46" s="119"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -27955,10 +27955,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="136"/>
-      <c r="C47" s="127"/>
-      <c r="D47" s="138"/>
-      <c r="E47" s="136"/>
+      <c r="B47" s="119"/>
+      <c r="C47" s="116"/>
+      <c r="D47" s="121"/>
+      <c r="E47" s="119"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -28023,10 +28023,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="136"/>
-      <c r="C48" s="127"/>
-      <c r="D48" s="138"/>
-      <c r="E48" s="136"/>
+      <c r="B48" s="119"/>
+      <c r="C48" s="116"/>
+      <c r="D48" s="121"/>
+      <c r="E48" s="119"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -28091,10 +28091,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="136"/>
-      <c r="C49" s="127"/>
-      <c r="D49" s="138"/>
-      <c r="E49" s="136"/>
+      <c r="B49" s="119"/>
+      <c r="C49" s="116"/>
+      <c r="D49" s="121"/>
+      <c r="E49" s="119"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -28159,10 +28159,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="136"/>
-      <c r="C50" s="127"/>
-      <c r="D50" s="138"/>
-      <c r="E50" s="136"/>
+      <c r="B50" s="119"/>
+      <c r="C50" s="116"/>
+      <c r="D50" s="121"/>
+      <c r="E50" s="119"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -28227,10 +28227,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="136"/>
-      <c r="C51" s="127"/>
-      <c r="D51" s="138"/>
-      <c r="E51" s="136"/>
+      <c r="B51" s="119"/>
+      <c r="C51" s="116"/>
+      <c r="D51" s="121"/>
+      <c r="E51" s="119"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -28295,10 +28295,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="136"/>
-      <c r="C52" s="127"/>
-      <c r="D52" s="138"/>
-      <c r="E52" s="136"/>
+      <c r="B52" s="119"/>
+      <c r="C52" s="116"/>
+      <c r="D52" s="121"/>
+      <c r="E52" s="119"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -28363,10 +28363,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="136"/>
-      <c r="C53" s="127"/>
-      <c r="D53" s="138"/>
-      <c r="E53" s="136"/>
+      <c r="B53" s="119"/>
+      <c r="C53" s="116"/>
+      <c r="D53" s="121"/>
+      <c r="E53" s="119"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -28431,10 +28431,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="136"/>
-      <c r="C54" s="127"/>
-      <c r="D54" s="138"/>
-      <c r="E54" s="136"/>
+      <c r="B54" s="119"/>
+      <c r="C54" s="116"/>
+      <c r="D54" s="121"/>
+      <c r="E54" s="119"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -28499,10 +28499,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="136"/>
-      <c r="C55" s="127"/>
-      <c r="D55" s="138"/>
-      <c r="E55" s="136"/>
+      <c r="B55" s="119"/>
+      <c r="C55" s="116"/>
+      <c r="D55" s="121"/>
+      <c r="E55" s="119"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -28567,10 +28567,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="136"/>
-      <c r="C56" s="127"/>
-      <c r="D56" s="138"/>
-      <c r="E56" s="136"/>
+      <c r="B56" s="119"/>
+      <c r="C56" s="116"/>
+      <c r="D56" s="121"/>
+      <c r="E56" s="119"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -28635,10 +28635,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="136"/>
-      <c r="C57" s="127"/>
-      <c r="D57" s="138"/>
-      <c r="E57" s="136"/>
+      <c r="B57" s="119"/>
+      <c r="C57" s="116"/>
+      <c r="D57" s="121"/>
+      <c r="E57" s="119"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -28698,10 +28698,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="137"/>
-      <c r="C58" s="134"/>
-      <c r="D58" s="138"/>
-      <c r="E58" s="137"/>
+      <c r="B58" s="120"/>
+      <c r="C58" s="117"/>
+      <c r="D58" s="121"/>
+      <c r="E58" s="120"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -28766,7 +28766,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="128" t="s">
+      <c r="B59" s="109" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -28838,7 +28838,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="128"/>
+      <c r="B60" s="109"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -28908,7 +28908,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="129" t="s">
+      <c r="B61" s="110" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -28980,7 +28980,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="129"/>
+      <c r="B62" s="110"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -29048,7 +29048,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="129"/>
+      <c r="B63" s="110"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -29257,27 +29257,16 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="E31:E58"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:BM5"/>
+    <mergeCell ref="AT6:AX6"/>
+    <mergeCell ref="AY6:BC6"/>
+    <mergeCell ref="BD6:BH6"/>
+    <mergeCell ref="BI6:BM6"/>
     <mergeCell ref="BN5:BN6"/>
     <mergeCell ref="BO5:BO6"/>
     <mergeCell ref="F6:J6"/>
@@ -29288,16 +29277,27 @@
     <mergeCell ref="AE6:AI6"/>
     <mergeCell ref="AJ6:AN6"/>
     <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:BM5"/>
-    <mergeCell ref="AT6:AX6"/>
-    <mergeCell ref="AY6:BC6"/>
-    <mergeCell ref="BD6:BH6"/>
-    <mergeCell ref="BI6:BM6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="E31:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -29311,31 +29311,31 @@
       <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="1" max="1" width="9.125" style="4"/>
     <col min="2" max="2" width="28" style="3" customWidth="1"/>
-    <col min="3" max="3" width="65.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="65.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="2" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" style="2" customWidth="1"/>
-    <col min="6" max="65" width="2.28515625" style="3" customWidth="1"/>
-    <col min="66" max="69" width="9.140625" style="3"/>
+    <col min="5" max="5" width="29.125" style="2" customWidth="1"/>
+    <col min="6" max="65" width="2.25" style="3" customWidth="1"/>
+    <col min="66" max="69" width="9.125" style="3"/>
     <col min="70" max="70" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="14.85546875" style="3" customWidth="1"/>
+    <col min="71" max="71" width="14.875" style="3" customWidth="1"/>
     <col min="72" max="72" width="13" style="3" customWidth="1"/>
-    <col min="73" max="73" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="74" max="1026" width="9.140625" style="3"/>
-    <col min="1027" max="16384" width="9.140625" style="4"/>
+    <col min="73" max="73" width="13.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="74" max="1026" width="9.125" style="3"/>
+    <col min="1027" max="16384" width="9.125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="134" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
     </row>
     <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
@@ -29501,84 +29501,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="111" t="s">
+      <c r="C5" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="112" t="s">
+      <c r="D5" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="110" t="s">
+      <c r="E5" s="132" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="113" t="s">
+      <c r="F5" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="113"/>
-      <c r="K5" s="113"/>
-      <c r="L5" s="113"/>
-      <c r="M5" s="113"/>
-      <c r="N5" s="113"/>
-      <c r="O5" s="113"/>
-      <c r="P5" s="113"/>
-      <c r="Q5" s="113"/>
-      <c r="R5" s="113"/>
-      <c r="S5" s="113"/>
-      <c r="T5" s="113"/>
-      <c r="U5" s="113"/>
-      <c r="V5" s="113"/>
-      <c r="W5" s="113"/>
-      <c r="X5" s="113"/>
-      <c r="Y5" s="113"/>
-      <c r="Z5" s="113"/>
-      <c r="AA5" s="113"/>
-      <c r="AB5" s="113"/>
-      <c r="AC5" s="113"/>
-      <c r="AD5" s="113"/>
-      <c r="AE5" s="113"/>
-      <c r="AF5" s="113"/>
-      <c r="AG5" s="113"/>
-      <c r="AH5" s="113"/>
-      <c r="AI5" s="113"/>
-      <c r="AJ5" s="113"/>
-      <c r="AK5" s="113"/>
-      <c r="AL5" s="113"/>
-      <c r="AM5" s="113"/>
-      <c r="AN5" s="113"/>
-      <c r="AO5" s="113"/>
-      <c r="AP5" s="113"/>
-      <c r="AQ5" s="113"/>
-      <c r="AR5" s="113"/>
-      <c r="AS5" s="113"/>
-      <c r="AT5" s="113"/>
-      <c r="AU5" s="113"/>
-      <c r="AV5" s="113"/>
-      <c r="AW5" s="113"/>
-      <c r="AX5" s="113"/>
-      <c r="AY5" s="113"/>
-      <c r="AZ5" s="113"/>
-      <c r="BA5" s="113"/>
-      <c r="BB5" s="113"/>
-      <c r="BC5" s="113"/>
-      <c r="BD5" s="113"/>
-      <c r="BE5" s="113"/>
-      <c r="BF5" s="113"/>
-      <c r="BG5" s="113"/>
-      <c r="BH5" s="113"/>
-      <c r="BI5" s="113"/>
-      <c r="BJ5" s="113"/>
-      <c r="BK5" s="113"/>
-      <c r="BL5" s="113"/>
-      <c r="BM5" s="113"/>
-      <c r="BN5" s="116" t="s">
+      <c r="G5" s="137"/>
+      <c r="H5" s="137"/>
+      <c r="I5" s="137"/>
+      <c r="J5" s="137"/>
+      <c r="K5" s="137"/>
+      <c r="L5" s="137"/>
+      <c r="M5" s="137"/>
+      <c r="N5" s="137"/>
+      <c r="O5" s="137"/>
+      <c r="P5" s="137"/>
+      <c r="Q5" s="137"/>
+      <c r="R5" s="137"/>
+      <c r="S5" s="137"/>
+      <c r="T5" s="137"/>
+      <c r="U5" s="137"/>
+      <c r="V5" s="137"/>
+      <c r="W5" s="137"/>
+      <c r="X5" s="137"/>
+      <c r="Y5" s="137"/>
+      <c r="Z5" s="137"/>
+      <c r="AA5" s="137"/>
+      <c r="AB5" s="137"/>
+      <c r="AC5" s="137"/>
+      <c r="AD5" s="137"/>
+      <c r="AE5" s="137"/>
+      <c r="AF5" s="137"/>
+      <c r="AG5" s="137"/>
+      <c r="AH5" s="137"/>
+      <c r="AI5" s="137"/>
+      <c r="AJ5" s="137"/>
+      <c r="AK5" s="137"/>
+      <c r="AL5" s="137"/>
+      <c r="AM5" s="137"/>
+      <c r="AN5" s="137"/>
+      <c r="AO5" s="137"/>
+      <c r="AP5" s="137"/>
+      <c r="AQ5" s="137"/>
+      <c r="AR5" s="137"/>
+      <c r="AS5" s="137"/>
+      <c r="AT5" s="137"/>
+      <c r="AU5" s="137"/>
+      <c r="AV5" s="137"/>
+      <c r="AW5" s="137"/>
+      <c r="AX5" s="137"/>
+      <c r="AY5" s="137"/>
+      <c r="AZ5" s="137"/>
+      <c r="BA5" s="137"/>
+      <c r="BB5" s="137"/>
+      <c r="BC5" s="137"/>
+      <c r="BD5" s="137"/>
+      <c r="BE5" s="137"/>
+      <c r="BF5" s="137"/>
+      <c r="BG5" s="137"/>
+      <c r="BH5" s="137"/>
+      <c r="BI5" s="137"/>
+      <c r="BJ5" s="137"/>
+      <c r="BK5" s="137"/>
+      <c r="BL5" s="137"/>
+      <c r="BM5" s="137"/>
+      <c r="BN5" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="110" t="s">
+      <c r="BO5" s="132" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -29587,107 +29587,107 @@
       <c r="BU5" s="94"/>
     </row>
     <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="110"/>
-      <c r="C6" s="111"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="114" t="s">
+      <c r="B6" s="132"/>
+      <c r="C6" s="135"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="133" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="114" t="s">
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="133"/>
+      <c r="K6" s="133" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="114"/>
-      <c r="M6" s="114"/>
-      <c r="N6" s="114"/>
-      <c r="O6" s="114"/>
-      <c r="P6" s="114" t="s">
+      <c r="L6" s="133"/>
+      <c r="M6" s="133"/>
+      <c r="N6" s="133"/>
+      <c r="O6" s="133"/>
+      <c r="P6" s="133" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="114"/>
-      <c r="R6" s="114"/>
-      <c r="S6" s="114"/>
-      <c r="T6" s="114"/>
-      <c r="U6" s="114" t="s">
+      <c r="Q6" s="133"/>
+      <c r="R6" s="133"/>
+      <c r="S6" s="133"/>
+      <c r="T6" s="133"/>
+      <c r="U6" s="133" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="114"/>
-      <c r="W6" s="114"/>
-      <c r="X6" s="114"/>
-      <c r="Y6" s="114"/>
-      <c r="Z6" s="114" t="s">
+      <c r="V6" s="133"/>
+      <c r="W6" s="133"/>
+      <c r="X6" s="133"/>
+      <c r="Y6" s="133"/>
+      <c r="Z6" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="114"/>
-      <c r="AB6" s="114"/>
-      <c r="AC6" s="114"/>
-      <c r="AD6" s="114"/>
-      <c r="AE6" s="114" t="s">
+      <c r="AA6" s="133"/>
+      <c r="AB6" s="133"/>
+      <c r="AC6" s="133"/>
+      <c r="AD6" s="133"/>
+      <c r="AE6" s="133" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="114"/>
-      <c r="AG6" s="114"/>
-      <c r="AH6" s="114"/>
-      <c r="AI6" s="114"/>
-      <c r="AJ6" s="114" t="s">
+      <c r="AF6" s="133"/>
+      <c r="AG6" s="133"/>
+      <c r="AH6" s="133"/>
+      <c r="AI6" s="133"/>
+      <c r="AJ6" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="114"/>
-      <c r="AL6" s="114"/>
-      <c r="AM6" s="114"/>
-      <c r="AN6" s="114"/>
-      <c r="AO6" s="114" t="s">
+      <c r="AK6" s="133"/>
+      <c r="AL6" s="133"/>
+      <c r="AM6" s="133"/>
+      <c r="AN6" s="133"/>
+      <c r="AO6" s="133" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="114"/>
-      <c r="AQ6" s="114"/>
-      <c r="AR6" s="114"/>
-      <c r="AS6" s="114"/>
-      <c r="AT6" s="114" t="s">
+      <c r="AP6" s="133"/>
+      <c r="AQ6" s="133"/>
+      <c r="AR6" s="133"/>
+      <c r="AS6" s="133"/>
+      <c r="AT6" s="133" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="114"/>
-      <c r="AV6" s="114"/>
-      <c r="AW6" s="114"/>
-      <c r="AX6" s="114"/>
-      <c r="AY6" s="114" t="s">
+      <c r="AU6" s="133"/>
+      <c r="AV6" s="133"/>
+      <c r="AW6" s="133"/>
+      <c r="AX6" s="133"/>
+      <c r="AY6" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="114"/>
-      <c r="BA6" s="114"/>
-      <c r="BB6" s="114"/>
-      <c r="BC6" s="114"/>
-      <c r="BD6" s="114" t="s">
+      <c r="AZ6" s="133"/>
+      <c r="BA6" s="133"/>
+      <c r="BB6" s="133"/>
+      <c r="BC6" s="133"/>
+      <c r="BD6" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="114"/>
-      <c r="BF6" s="114"/>
-      <c r="BG6" s="114"/>
-      <c r="BH6" s="114"/>
-      <c r="BI6" s="115" t="s">
+      <c r="BE6" s="133"/>
+      <c r="BF6" s="133"/>
+      <c r="BG6" s="133"/>
+      <c r="BH6" s="133"/>
+      <c r="BI6" s="138" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="115"/>
-      <c r="BK6" s="115"/>
-      <c r="BL6" s="115"/>
-      <c r="BM6" s="115"/>
-      <c r="BN6" s="116"/>
-      <c r="BO6" s="110"/>
+      <c r="BJ6" s="138"/>
+      <c r="BK6" s="138"/>
+      <c r="BL6" s="138"/>
+      <c r="BM6" s="138"/>
+      <c r="BN6" s="131"/>
+      <c r="BO6" s="132"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="117" t="s">
+      <c r="B7" s="126" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="117"/>
-      <c r="E7" s="118"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="127"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -30712,12 +30712,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="117"/>
+      <c r="B8" s="126"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="117"/>
-      <c r="E8" s="119"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="124"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -31741,14 +31741,14 @@
       <c r="AML8" s="23"/>
     </row>
     <row r="9" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="120" t="s">
+      <c r="B9" s="122" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="121"/>
-      <c r="E9" s="122"/>
+      <c r="D9" s="123"/>
+      <c r="E9" s="128"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
       <c r="H9" s="83"/>
@@ -32772,12 +32772,12 @@
       <c r="AML9" s="21"/>
     </row>
     <row r="10" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B10" s="120"/>
+      <c r="B10" s="122"/>
       <c r="C10" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="121"/>
-      <c r="E10" s="123"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="129"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -33801,12 +33801,12 @@
       <c r="AML10" s="21"/>
     </row>
     <row r="11" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="120"/>
+      <c r="B11" s="122"/>
       <c r="C11" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="121"/>
-      <c r="E11" s="123"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="129"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -34830,12 +34830,12 @@
       <c r="AML11" s="21"/>
     </row>
     <row r="12" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="120"/>
+      <c r="B12" s="122"/>
       <c r="C12" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="121"/>
-      <c r="E12" s="124"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="130"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -34900,14 +34900,14 @@
       <c r="BO12" s="31"/>
     </row>
     <row r="13" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B13" s="120" t="s">
+      <c r="B13" s="122" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="121"/>
-      <c r="E13" s="119"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="124"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -34972,12 +34972,12 @@
       <c r="BO13" s="20"/>
     </row>
     <row r="14" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B14" s="120"/>
+      <c r="B14" s="122"/>
       <c r="C14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="121"/>
-      <c r="E14" s="119"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="124"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -35042,12 +35042,12 @@
       <c r="BO14" s="31"/>
     </row>
     <row r="15" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="120"/>
+      <c r="B15" s="122"/>
       <c r="C15" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="121"/>
-      <c r="E15" s="119"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="124"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -35112,12 +35112,12 @@
       <c r="BO15" s="31"/>
     </row>
     <row r="16" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B16" s="120"/>
+      <c r="B16" s="122"/>
       <c r="C16" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="121"/>
-      <c r="E16" s="119"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="124"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -35182,12 +35182,12 @@
       <c r="BO16" s="31"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B17" s="120"/>
+      <c r="B17" s="122"/>
       <c r="C17" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="121"/>
-      <c r="E17" s="119"/>
+      <c r="D17" s="123"/>
+      <c r="E17" s="124"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -35252,12 +35252,12 @@
       <c r="BO17" s="31"/>
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B18" s="120"/>
+      <c r="B18" s="122"/>
       <c r="C18" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="121"/>
-      <c r="E18" s="119"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="124"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -35322,12 +35322,12 @@
       <c r="BO18" s="31"/>
     </row>
     <row r="19" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B19" s="120"/>
+      <c r="B19" s="122"/>
       <c r="C19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="121"/>
-      <c r="E19" s="119"/>
+      <c r="D19" s="123"/>
+      <c r="E19" s="124"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -35398,8 +35398,8 @@
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="117"/>
-      <c r="E20" s="126"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="115"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -35468,8 +35468,8 @@
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="117"/>
-      <c r="E21" s="127"/>
+      <c r="D21" s="126"/>
+      <c r="E21" s="116"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -35538,8 +35538,8 @@
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="117"/>
-      <c r="E22" s="127"/>
+      <c r="D22" s="126"/>
+      <c r="E22" s="116"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -35608,8 +35608,8 @@
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="117"/>
-      <c r="E23" s="127"/>
+      <c r="D23" s="126"/>
+      <c r="E23" s="116"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -35678,8 +35678,8 @@
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="117"/>
-      <c r="E24" s="127"/>
+      <c r="D24" s="126"/>
+      <c r="E24" s="116"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -35744,14 +35744,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="130" t="s">
+      <c r="B25" s="111" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="133"/>
-      <c r="E25" s="126"/>
+      <c r="D25" s="114"/>
+      <c r="E25" s="115"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -35816,12 +35816,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="131"/>
+      <c r="B26" s="112"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="133"/>
-      <c r="E26" s="127"/>
+      <c r="D26" s="114"/>
+      <c r="E26" s="116"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -35886,12 +35886,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="131"/>
+      <c r="B27" s="112"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="133"/>
-      <c r="E27" s="127"/>
+      <c r="D27" s="114"/>
+      <c r="E27" s="116"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -35956,12 +35956,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="131"/>
+      <c r="B28" s="112"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="133"/>
-      <c r="E28" s="127"/>
+      <c r="D28" s="114"/>
+      <c r="E28" s="116"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -36026,12 +36026,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="132"/>
+      <c r="B29" s="113"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="133"/>
-      <c r="E29" s="134"/>
+      <c r="D29" s="114"/>
+      <c r="E29" s="117"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -36168,10 +36168,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="135"/>
-      <c r="C31" s="126"/>
-      <c r="D31" s="138"/>
-      <c r="E31" s="135"/>
+      <c r="B31" s="118"/>
+      <c r="C31" s="115"/>
+      <c r="D31" s="121"/>
+      <c r="E31" s="118"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -36236,10 +36236,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="136"/>
-      <c r="C32" s="127"/>
-      <c r="D32" s="138"/>
-      <c r="E32" s="136"/>
+      <c r="B32" s="119"/>
+      <c r="C32" s="116"/>
+      <c r="D32" s="121"/>
+      <c r="E32" s="119"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -36304,10 +36304,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="136"/>
-      <c r="C33" s="127"/>
-      <c r="D33" s="138"/>
-      <c r="E33" s="136"/>
+      <c r="B33" s="119"/>
+      <c r="C33" s="116"/>
+      <c r="D33" s="121"/>
+      <c r="E33" s="119"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -36372,10 +36372,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="136"/>
-      <c r="C34" s="127"/>
-      <c r="D34" s="138"/>
-      <c r="E34" s="136"/>
+      <c r="B34" s="119"/>
+      <c r="C34" s="116"/>
+      <c r="D34" s="121"/>
+      <c r="E34" s="119"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -36440,10 +36440,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="136"/>
-      <c r="C35" s="127"/>
-      <c r="D35" s="138"/>
-      <c r="E35" s="136"/>
+      <c r="B35" s="119"/>
+      <c r="C35" s="116"/>
+      <c r="D35" s="121"/>
+      <c r="E35" s="119"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -36508,10 +36508,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="136"/>
-      <c r="C36" s="127"/>
-      <c r="D36" s="138"/>
-      <c r="E36" s="136"/>
+      <c r="B36" s="119"/>
+      <c r="C36" s="116"/>
+      <c r="D36" s="121"/>
+      <c r="E36" s="119"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -36576,10 +36576,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="136"/>
-      <c r="C37" s="127"/>
-      <c r="D37" s="138"/>
-      <c r="E37" s="136"/>
+      <c r="B37" s="119"/>
+      <c r="C37" s="116"/>
+      <c r="D37" s="121"/>
+      <c r="E37" s="119"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -36644,10 +36644,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="136"/>
-      <c r="C38" s="127"/>
-      <c r="D38" s="138"/>
-      <c r="E38" s="136"/>
+      <c r="B38" s="119"/>
+      <c r="C38" s="116"/>
+      <c r="D38" s="121"/>
+      <c r="E38" s="119"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -36712,10 +36712,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="136"/>
-      <c r="C39" s="127"/>
-      <c r="D39" s="138"/>
-      <c r="E39" s="136"/>
+      <c r="B39" s="119"/>
+      <c r="C39" s="116"/>
+      <c r="D39" s="121"/>
+      <c r="E39" s="119"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -36780,10 +36780,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="136"/>
-      <c r="C40" s="127"/>
-      <c r="D40" s="138"/>
-      <c r="E40" s="136"/>
+      <c r="B40" s="119"/>
+      <c r="C40" s="116"/>
+      <c r="D40" s="121"/>
+      <c r="E40" s="119"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -36848,10 +36848,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="136"/>
-      <c r="C41" s="127"/>
-      <c r="D41" s="138"/>
-      <c r="E41" s="136"/>
+      <c r="B41" s="119"/>
+      <c r="C41" s="116"/>
+      <c r="D41" s="121"/>
+      <c r="E41" s="119"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -36916,10 +36916,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="136"/>
-      <c r="C42" s="127"/>
-      <c r="D42" s="138"/>
-      <c r="E42" s="136"/>
+      <c r="B42" s="119"/>
+      <c r="C42" s="116"/>
+      <c r="D42" s="121"/>
+      <c r="E42" s="119"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -36984,10 +36984,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="136"/>
-      <c r="C43" s="127"/>
-      <c r="D43" s="138"/>
-      <c r="E43" s="136"/>
+      <c r="B43" s="119"/>
+      <c r="C43" s="116"/>
+      <c r="D43" s="121"/>
+      <c r="E43" s="119"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -37052,10 +37052,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="136"/>
-      <c r="C44" s="127"/>
-      <c r="D44" s="138"/>
-      <c r="E44" s="136"/>
+      <c r="B44" s="119"/>
+      <c r="C44" s="116"/>
+      <c r="D44" s="121"/>
+      <c r="E44" s="119"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -37120,10 +37120,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="136"/>
-      <c r="C45" s="127"/>
-      <c r="D45" s="138"/>
-      <c r="E45" s="136"/>
+      <c r="B45" s="119"/>
+      <c r="C45" s="116"/>
+      <c r="D45" s="121"/>
+      <c r="E45" s="119"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -37188,10 +37188,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="136"/>
-      <c r="C46" s="127"/>
-      <c r="D46" s="138"/>
-      <c r="E46" s="136"/>
+      <c r="B46" s="119"/>
+      <c r="C46" s="116"/>
+      <c r="D46" s="121"/>
+      <c r="E46" s="119"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -37256,10 +37256,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="136"/>
-      <c r="C47" s="127"/>
-      <c r="D47" s="138"/>
-      <c r="E47" s="136"/>
+      <c r="B47" s="119"/>
+      <c r="C47" s="116"/>
+      <c r="D47" s="121"/>
+      <c r="E47" s="119"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -37324,10 +37324,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="136"/>
-      <c r="C48" s="127"/>
-      <c r="D48" s="138"/>
-      <c r="E48" s="136"/>
+      <c r="B48" s="119"/>
+      <c r="C48" s="116"/>
+      <c r="D48" s="121"/>
+      <c r="E48" s="119"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -37392,10 +37392,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="136"/>
-      <c r="C49" s="127"/>
-      <c r="D49" s="138"/>
-      <c r="E49" s="136"/>
+      <c r="B49" s="119"/>
+      <c r="C49" s="116"/>
+      <c r="D49" s="121"/>
+      <c r="E49" s="119"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -37460,10 +37460,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="136"/>
-      <c r="C50" s="127"/>
-      <c r="D50" s="138"/>
-      <c r="E50" s="136"/>
+      <c r="B50" s="119"/>
+      <c r="C50" s="116"/>
+      <c r="D50" s="121"/>
+      <c r="E50" s="119"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -37528,10 +37528,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="136"/>
-      <c r="C51" s="127"/>
-      <c r="D51" s="138"/>
-      <c r="E51" s="136"/>
+      <c r="B51" s="119"/>
+      <c r="C51" s="116"/>
+      <c r="D51" s="121"/>
+      <c r="E51" s="119"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -37596,10 +37596,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="136"/>
-      <c r="C52" s="127"/>
-      <c r="D52" s="138"/>
-      <c r="E52" s="136"/>
+      <c r="B52" s="119"/>
+      <c r="C52" s="116"/>
+      <c r="D52" s="121"/>
+      <c r="E52" s="119"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -37664,10 +37664,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="136"/>
-      <c r="C53" s="127"/>
-      <c r="D53" s="138"/>
-      <c r="E53" s="136"/>
+      <c r="B53" s="119"/>
+      <c r="C53" s="116"/>
+      <c r="D53" s="121"/>
+      <c r="E53" s="119"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -37732,10 +37732,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="136"/>
-      <c r="C54" s="127"/>
-      <c r="D54" s="138"/>
-      <c r="E54" s="136"/>
+      <c r="B54" s="119"/>
+      <c r="C54" s="116"/>
+      <c r="D54" s="121"/>
+      <c r="E54" s="119"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -37800,10 +37800,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="136"/>
-      <c r="C55" s="127"/>
-      <c r="D55" s="138"/>
-      <c r="E55" s="136"/>
+      <c r="B55" s="119"/>
+      <c r="C55" s="116"/>
+      <c r="D55" s="121"/>
+      <c r="E55" s="119"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -37868,10 +37868,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="136"/>
-      <c r="C56" s="127"/>
-      <c r="D56" s="138"/>
-      <c r="E56" s="136"/>
+      <c r="B56" s="119"/>
+      <c r="C56" s="116"/>
+      <c r="D56" s="121"/>
+      <c r="E56" s="119"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -37936,10 +37936,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="136"/>
-      <c r="C57" s="127"/>
-      <c r="D57" s="138"/>
-      <c r="E57" s="136"/>
+      <c r="B57" s="119"/>
+      <c r="C57" s="116"/>
+      <c r="D57" s="121"/>
+      <c r="E57" s="119"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -37999,10 +37999,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="137"/>
-      <c r="C58" s="134"/>
-      <c r="D58" s="138"/>
-      <c r="E58" s="137"/>
+      <c r="B58" s="120"/>
+      <c r="C58" s="117"/>
+      <c r="D58" s="121"/>
+      <c r="E58" s="120"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -38067,7 +38067,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="128" t="s">
+      <c r="B59" s="109" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -38139,7 +38139,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="128"/>
+      <c r="B60" s="109"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -38209,7 +38209,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="129" t="s">
+      <c r="B61" s="110" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -38281,7 +38281,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="129"/>
+      <c r="B62" s="110"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -38349,7 +38349,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="129"/>
+      <c r="B63" s="110"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -38558,27 +38558,16 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="E31:E58"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:BM5"/>
+    <mergeCell ref="AT6:AX6"/>
+    <mergeCell ref="AY6:BC6"/>
+    <mergeCell ref="BD6:BH6"/>
+    <mergeCell ref="BI6:BM6"/>
     <mergeCell ref="BN5:BN6"/>
     <mergeCell ref="BO5:BO6"/>
     <mergeCell ref="F6:J6"/>
@@ -38589,16 +38578,27 @@
     <mergeCell ref="AE6:AI6"/>
     <mergeCell ref="AJ6:AN6"/>
     <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:BM5"/>
-    <mergeCell ref="AT6:AX6"/>
-    <mergeCell ref="AY6:BC6"/>
-    <mergeCell ref="BD6:BH6"/>
-    <mergeCell ref="BI6:BM6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="E31:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -38608,35 +38608,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AML65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="AB14" sqref="AB14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="1" max="1" width="9.125" style="4"/>
     <col min="2" max="2" width="28" style="3" customWidth="1"/>
-    <col min="3" max="3" width="65.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="65.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="2" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" style="2" customWidth="1"/>
-    <col min="6" max="65" width="2.28515625" style="3" customWidth="1"/>
-    <col min="66" max="69" width="9.140625" style="3"/>
+    <col min="5" max="5" width="29.125" style="2" customWidth="1"/>
+    <col min="6" max="65" width="2.25" style="3" customWidth="1"/>
+    <col min="66" max="69" width="9.125" style="3"/>
     <col min="70" max="70" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="14.85546875" style="3" customWidth="1"/>
+    <col min="71" max="71" width="14.875" style="3" customWidth="1"/>
     <col min="72" max="72" width="13" style="3" customWidth="1"/>
-    <col min="73" max="73" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="74" max="1026" width="9.140625" style="3"/>
-    <col min="1027" max="16384" width="9.140625" style="4"/>
+    <col min="73" max="73" width="13.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="74" max="1026" width="9.125" style="3"/>
+    <col min="1027" max="16384" width="9.125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="134" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
     </row>
     <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
@@ -38802,84 +38802,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="111" t="s">
+      <c r="C5" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="112" t="s">
+      <c r="D5" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="110" t="s">
+      <c r="E5" s="132" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="113" t="s">
+      <c r="F5" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="113"/>
-      <c r="K5" s="113"/>
-      <c r="L5" s="113"/>
-      <c r="M5" s="113"/>
-      <c r="N5" s="113"/>
-      <c r="O5" s="113"/>
-      <c r="P5" s="113"/>
-      <c r="Q5" s="113"/>
-      <c r="R5" s="113"/>
-      <c r="S5" s="113"/>
-      <c r="T5" s="113"/>
-      <c r="U5" s="113"/>
-      <c r="V5" s="113"/>
-      <c r="W5" s="113"/>
-      <c r="X5" s="113"/>
-      <c r="Y5" s="113"/>
-      <c r="Z5" s="113"/>
-      <c r="AA5" s="113"/>
-      <c r="AB5" s="113"/>
-      <c r="AC5" s="113"/>
-      <c r="AD5" s="113"/>
-      <c r="AE5" s="113"/>
-      <c r="AF5" s="113"/>
-      <c r="AG5" s="113"/>
-      <c r="AH5" s="113"/>
-      <c r="AI5" s="113"/>
-      <c r="AJ5" s="113"/>
-      <c r="AK5" s="113"/>
-      <c r="AL5" s="113"/>
-      <c r="AM5" s="113"/>
-      <c r="AN5" s="113"/>
-      <c r="AO5" s="113"/>
-      <c r="AP5" s="113"/>
-      <c r="AQ5" s="113"/>
-      <c r="AR5" s="113"/>
-      <c r="AS5" s="113"/>
-      <c r="AT5" s="113"/>
-      <c r="AU5" s="113"/>
-      <c r="AV5" s="113"/>
-      <c r="AW5" s="113"/>
-      <c r="AX5" s="113"/>
-      <c r="AY5" s="113"/>
-      <c r="AZ5" s="113"/>
-      <c r="BA5" s="113"/>
-      <c r="BB5" s="113"/>
-      <c r="BC5" s="113"/>
-      <c r="BD5" s="113"/>
-      <c r="BE5" s="113"/>
-      <c r="BF5" s="113"/>
-      <c r="BG5" s="113"/>
-      <c r="BH5" s="113"/>
-      <c r="BI5" s="113"/>
-      <c r="BJ5" s="113"/>
-      <c r="BK5" s="113"/>
-      <c r="BL5" s="113"/>
-      <c r="BM5" s="113"/>
-      <c r="BN5" s="116" t="s">
+      <c r="G5" s="137"/>
+      <c r="H5" s="137"/>
+      <c r="I5" s="137"/>
+      <c r="J5" s="137"/>
+      <c r="K5" s="137"/>
+      <c r="L5" s="137"/>
+      <c r="M5" s="137"/>
+      <c r="N5" s="137"/>
+      <c r="O5" s="137"/>
+      <c r="P5" s="137"/>
+      <c r="Q5" s="137"/>
+      <c r="R5" s="137"/>
+      <c r="S5" s="137"/>
+      <c r="T5" s="137"/>
+      <c r="U5" s="137"/>
+      <c r="V5" s="137"/>
+      <c r="W5" s="137"/>
+      <c r="X5" s="137"/>
+      <c r="Y5" s="137"/>
+      <c r="Z5" s="137"/>
+      <c r="AA5" s="137"/>
+      <c r="AB5" s="137"/>
+      <c r="AC5" s="137"/>
+      <c r="AD5" s="137"/>
+      <c r="AE5" s="137"/>
+      <c r="AF5" s="137"/>
+      <c r="AG5" s="137"/>
+      <c r="AH5" s="137"/>
+      <c r="AI5" s="137"/>
+      <c r="AJ5" s="137"/>
+      <c r="AK5" s="137"/>
+      <c r="AL5" s="137"/>
+      <c r="AM5" s="137"/>
+      <c r="AN5" s="137"/>
+      <c r="AO5" s="137"/>
+      <c r="AP5" s="137"/>
+      <c r="AQ5" s="137"/>
+      <c r="AR5" s="137"/>
+      <c r="AS5" s="137"/>
+      <c r="AT5" s="137"/>
+      <c r="AU5" s="137"/>
+      <c r="AV5" s="137"/>
+      <c r="AW5" s="137"/>
+      <c r="AX5" s="137"/>
+      <c r="AY5" s="137"/>
+      <c r="AZ5" s="137"/>
+      <c r="BA5" s="137"/>
+      <c r="BB5" s="137"/>
+      <c r="BC5" s="137"/>
+      <c r="BD5" s="137"/>
+      <c r="BE5" s="137"/>
+      <c r="BF5" s="137"/>
+      <c r="BG5" s="137"/>
+      <c r="BH5" s="137"/>
+      <c r="BI5" s="137"/>
+      <c r="BJ5" s="137"/>
+      <c r="BK5" s="137"/>
+      <c r="BL5" s="137"/>
+      <c r="BM5" s="137"/>
+      <c r="BN5" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="110" t="s">
+      <c r="BO5" s="132" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -38888,107 +38888,107 @@
       <c r="BU5" s="94"/>
     </row>
     <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="110"/>
-      <c r="C6" s="111"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="114" t="s">
+      <c r="B6" s="132"/>
+      <c r="C6" s="135"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="133" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="114" t="s">
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="133"/>
+      <c r="K6" s="133" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="114"/>
-      <c r="M6" s="114"/>
-      <c r="N6" s="114"/>
-      <c r="O6" s="114"/>
-      <c r="P6" s="114" t="s">
+      <c r="L6" s="133"/>
+      <c r="M6" s="133"/>
+      <c r="N6" s="133"/>
+      <c r="O6" s="133"/>
+      <c r="P6" s="133" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="114"/>
-      <c r="R6" s="114"/>
-      <c r="S6" s="114"/>
-      <c r="T6" s="114"/>
-      <c r="U6" s="114" t="s">
+      <c r="Q6" s="133"/>
+      <c r="R6" s="133"/>
+      <c r="S6" s="133"/>
+      <c r="T6" s="133"/>
+      <c r="U6" s="133" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="114"/>
-      <c r="W6" s="114"/>
-      <c r="X6" s="114"/>
-      <c r="Y6" s="114"/>
-      <c r="Z6" s="114" t="s">
+      <c r="V6" s="133"/>
+      <c r="W6" s="133"/>
+      <c r="X6" s="133"/>
+      <c r="Y6" s="133"/>
+      <c r="Z6" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="114"/>
-      <c r="AB6" s="114"/>
-      <c r="AC6" s="114"/>
-      <c r="AD6" s="114"/>
-      <c r="AE6" s="114" t="s">
+      <c r="AA6" s="133"/>
+      <c r="AB6" s="133"/>
+      <c r="AC6" s="133"/>
+      <c r="AD6" s="133"/>
+      <c r="AE6" s="133" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="114"/>
-      <c r="AG6" s="114"/>
-      <c r="AH6" s="114"/>
-      <c r="AI6" s="114"/>
-      <c r="AJ6" s="114" t="s">
+      <c r="AF6" s="133"/>
+      <c r="AG6" s="133"/>
+      <c r="AH6" s="133"/>
+      <c r="AI6" s="133"/>
+      <c r="AJ6" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="114"/>
-      <c r="AL6" s="114"/>
-      <c r="AM6" s="114"/>
-      <c r="AN6" s="114"/>
-      <c r="AO6" s="114" t="s">
+      <c r="AK6" s="133"/>
+      <c r="AL6" s="133"/>
+      <c r="AM6" s="133"/>
+      <c r="AN6" s="133"/>
+      <c r="AO6" s="133" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="114"/>
-      <c r="AQ6" s="114"/>
-      <c r="AR6" s="114"/>
-      <c r="AS6" s="114"/>
-      <c r="AT6" s="114" t="s">
+      <c r="AP6" s="133"/>
+      <c r="AQ6" s="133"/>
+      <c r="AR6" s="133"/>
+      <c r="AS6" s="133"/>
+      <c r="AT6" s="133" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="114"/>
-      <c r="AV6" s="114"/>
-      <c r="AW6" s="114"/>
-      <c r="AX6" s="114"/>
-      <c r="AY6" s="114" t="s">
+      <c r="AU6" s="133"/>
+      <c r="AV6" s="133"/>
+      <c r="AW6" s="133"/>
+      <c r="AX6" s="133"/>
+      <c r="AY6" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="114"/>
-      <c r="BA6" s="114"/>
-      <c r="BB6" s="114"/>
-      <c r="BC6" s="114"/>
-      <c r="BD6" s="114" t="s">
+      <c r="AZ6" s="133"/>
+      <c r="BA6" s="133"/>
+      <c r="BB6" s="133"/>
+      <c r="BC6" s="133"/>
+      <c r="BD6" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="114"/>
-      <c r="BF6" s="114"/>
-      <c r="BG6" s="114"/>
-      <c r="BH6" s="114"/>
-      <c r="BI6" s="115" t="s">
+      <c r="BE6" s="133"/>
+      <c r="BF6" s="133"/>
+      <c r="BG6" s="133"/>
+      <c r="BH6" s="133"/>
+      <c r="BI6" s="138" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="115"/>
-      <c r="BK6" s="115"/>
-      <c r="BL6" s="115"/>
-      <c r="BM6" s="115"/>
-      <c r="BN6" s="116"/>
-      <c r="BO6" s="110"/>
+      <c r="BJ6" s="138"/>
+      <c r="BK6" s="138"/>
+      <c r="BL6" s="138"/>
+      <c r="BM6" s="138"/>
+      <c r="BN6" s="131"/>
+      <c r="BO6" s="132"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="117" t="s">
+      <c r="B7" s="126" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="117"/>
-      <c r="E7" s="118"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="127"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -40013,12 +40013,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="117"/>
+      <c r="B8" s="126"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="117"/>
-      <c r="E8" s="119"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="124"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -41042,14 +41042,14 @@
       <c r="AML8" s="23"/>
     </row>
     <row r="9" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="120" t="s">
+      <c r="B9" s="122" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="121"/>
-      <c r="E9" s="122"/>
+      <c r="D9" s="123"/>
+      <c r="E9" s="128"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
       <c r="H9" s="100"/>
@@ -42073,12 +42073,12 @@
       <c r="AML9" s="21"/>
     </row>
     <row r="10" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B10" s="120"/>
+      <c r="B10" s="122"/>
       <c r="C10" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="121"/>
-      <c r="E10" s="123"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="129"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -43102,12 +43102,12 @@
       <c r="AML10" s="21"/>
     </row>
     <row r="11" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="120"/>
+      <c r="B11" s="122"/>
       <c r="C11" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="121"/>
-      <c r="E11" s="123"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="129"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -44131,12 +44131,12 @@
       <c r="AML11" s="21"/>
     </row>
     <row r="12" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="120"/>
+      <c r="B12" s="122"/>
       <c r="C12" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="121"/>
-      <c r="E12" s="124"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="130"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -44201,14 +44201,14 @@
       <c r="BO12" s="31"/>
     </row>
     <row r="13" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B13" s="120" t="s">
+      <c r="B13" s="122" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="121"/>
-      <c r="E13" s="119"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="124"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -44273,12 +44273,12 @@
       <c r="BO13" s="20"/>
     </row>
     <row r="14" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B14" s="120"/>
+      <c r="B14" s="122"/>
       <c r="C14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="121"/>
-      <c r="E14" s="119"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="124"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -44343,12 +44343,12 @@
       <c r="BO14" s="31"/>
     </row>
     <row r="15" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="120"/>
+      <c r="B15" s="122"/>
       <c r="C15" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="121"/>
-      <c r="E15" s="119"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="124"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -44413,12 +44413,12 @@
       <c r="BO15" s="31"/>
     </row>
     <row r="16" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B16" s="120"/>
+      <c r="B16" s="122"/>
       <c r="C16" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="121"/>
-      <c r="E16" s="119"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="124"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -44483,12 +44483,12 @@
       <c r="BO16" s="31"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B17" s="120"/>
+      <c r="B17" s="122"/>
       <c r="C17" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="121"/>
-      <c r="E17" s="119"/>
+      <c r="D17" s="123"/>
+      <c r="E17" s="124"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -44553,12 +44553,12 @@
       <c r="BO17" s="31"/>
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B18" s="120"/>
+      <c r="B18" s="122"/>
       <c r="C18" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="121"/>
-      <c r="E18" s="119"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="124"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -44623,12 +44623,12 @@
       <c r="BO18" s="31"/>
     </row>
     <row r="19" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B19" s="120"/>
+      <c r="B19" s="122"/>
       <c r="C19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="121"/>
-      <c r="E19" s="119"/>
+      <c r="D19" s="123"/>
+      <c r="E19" s="124"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -44699,8 +44699,8 @@
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="117"/>
-      <c r="E20" s="126"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="115"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -44769,8 +44769,8 @@
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="117"/>
-      <c r="E21" s="127"/>
+      <c r="D21" s="126"/>
+      <c r="E21" s="116"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -44839,8 +44839,8 @@
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="117"/>
-      <c r="E22" s="127"/>
+      <c r="D22" s="126"/>
+      <c r="E22" s="116"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -44909,8 +44909,8 @@
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="117"/>
-      <c r="E23" s="127"/>
+      <c r="D23" s="126"/>
+      <c r="E23" s="116"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -44979,8 +44979,8 @@
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="117"/>
-      <c r="E24" s="127"/>
+      <c r="D24" s="126"/>
+      <c r="E24" s="116"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -45045,14 +45045,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="130" t="s">
+      <c r="B25" s="111" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="133"/>
-      <c r="E25" s="126"/>
+      <c r="D25" s="114"/>
+      <c r="E25" s="115"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -45117,12 +45117,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="131"/>
+      <c r="B26" s="112"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="133"/>
-      <c r="E26" s="127"/>
+      <c r="D26" s="114"/>
+      <c r="E26" s="116"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -45187,12 +45187,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="131"/>
+      <c r="B27" s="112"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="133"/>
-      <c r="E27" s="127"/>
+      <c r="D27" s="114"/>
+      <c r="E27" s="116"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -45257,12 +45257,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="131"/>
+      <c r="B28" s="112"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="133"/>
-      <c r="E28" s="127"/>
+      <c r="D28" s="114"/>
+      <c r="E28" s="116"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -45327,12 +45327,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="132"/>
+      <c r="B29" s="113"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="133"/>
-      <c r="E29" s="134"/>
+      <c r="D29" s="114"/>
+      <c r="E29" s="117"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -45469,10 +45469,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="135"/>
-      <c r="C31" s="126"/>
-      <c r="D31" s="138"/>
-      <c r="E31" s="135"/>
+      <c r="B31" s="118"/>
+      <c r="C31" s="115"/>
+      <c r="D31" s="121"/>
+      <c r="E31" s="118"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -45537,10 +45537,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="136"/>
-      <c r="C32" s="127"/>
-      <c r="D32" s="138"/>
-      <c r="E32" s="136"/>
+      <c r="B32" s="119"/>
+      <c r="C32" s="116"/>
+      <c r="D32" s="121"/>
+      <c r="E32" s="119"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -45605,10 +45605,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="136"/>
-      <c r="C33" s="127"/>
-      <c r="D33" s="138"/>
-      <c r="E33" s="136"/>
+      <c r="B33" s="119"/>
+      <c r="C33" s="116"/>
+      <c r="D33" s="121"/>
+      <c r="E33" s="119"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -45673,10 +45673,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="136"/>
-      <c r="C34" s="127"/>
-      <c r="D34" s="138"/>
-      <c r="E34" s="136"/>
+      <c r="B34" s="119"/>
+      <c r="C34" s="116"/>
+      <c r="D34" s="121"/>
+      <c r="E34" s="119"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -45741,10 +45741,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="136"/>
-      <c r="C35" s="127"/>
-      <c r="D35" s="138"/>
-      <c r="E35" s="136"/>
+      <c r="B35" s="119"/>
+      <c r="C35" s="116"/>
+      <c r="D35" s="121"/>
+      <c r="E35" s="119"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -45809,10 +45809,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="136"/>
-      <c r="C36" s="127"/>
-      <c r="D36" s="138"/>
-      <c r="E36" s="136"/>
+      <c r="B36" s="119"/>
+      <c r="C36" s="116"/>
+      <c r="D36" s="121"/>
+      <c r="E36" s="119"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -45877,10 +45877,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="136"/>
-      <c r="C37" s="127"/>
-      <c r="D37" s="138"/>
-      <c r="E37" s="136"/>
+      <c r="B37" s="119"/>
+      <c r="C37" s="116"/>
+      <c r="D37" s="121"/>
+      <c r="E37" s="119"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -45945,10 +45945,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="136"/>
-      <c r="C38" s="127"/>
-      <c r="D38" s="138"/>
-      <c r="E38" s="136"/>
+      <c r="B38" s="119"/>
+      <c r="C38" s="116"/>
+      <c r="D38" s="121"/>
+      <c r="E38" s="119"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -46013,10 +46013,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="136"/>
-      <c r="C39" s="127"/>
-      <c r="D39" s="138"/>
-      <c r="E39" s="136"/>
+      <c r="B39" s="119"/>
+      <c r="C39" s="116"/>
+      <c r="D39" s="121"/>
+      <c r="E39" s="119"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -46081,10 +46081,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="136"/>
-      <c r="C40" s="127"/>
-      <c r="D40" s="138"/>
-      <c r="E40" s="136"/>
+      <c r="B40" s="119"/>
+      <c r="C40" s="116"/>
+      <c r="D40" s="121"/>
+      <c r="E40" s="119"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -46149,10 +46149,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="136"/>
-      <c r="C41" s="127"/>
-      <c r="D41" s="138"/>
-      <c r="E41" s="136"/>
+      <c r="B41" s="119"/>
+      <c r="C41" s="116"/>
+      <c r="D41" s="121"/>
+      <c r="E41" s="119"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -46217,10 +46217,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="136"/>
-      <c r="C42" s="127"/>
-      <c r="D42" s="138"/>
-      <c r="E42" s="136"/>
+      <c r="B42" s="119"/>
+      <c r="C42" s="116"/>
+      <c r="D42" s="121"/>
+      <c r="E42" s="119"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -46285,10 +46285,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="136"/>
-      <c r="C43" s="127"/>
-      <c r="D43" s="138"/>
-      <c r="E43" s="136"/>
+      <c r="B43" s="119"/>
+      <c r="C43" s="116"/>
+      <c r="D43" s="121"/>
+      <c r="E43" s="119"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -46353,10 +46353,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="136"/>
-      <c r="C44" s="127"/>
-      <c r="D44" s="138"/>
-      <c r="E44" s="136"/>
+      <c r="B44" s="119"/>
+      <c r="C44" s="116"/>
+      <c r="D44" s="121"/>
+      <c r="E44" s="119"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -46421,10 +46421,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="136"/>
-      <c r="C45" s="127"/>
-      <c r="D45" s="138"/>
-      <c r="E45" s="136"/>
+      <c r="B45" s="119"/>
+      <c r="C45" s="116"/>
+      <c r="D45" s="121"/>
+      <c r="E45" s="119"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -46489,10 +46489,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="136"/>
-      <c r="C46" s="127"/>
-      <c r="D46" s="138"/>
-      <c r="E46" s="136"/>
+      <c r="B46" s="119"/>
+      <c r="C46" s="116"/>
+      <c r="D46" s="121"/>
+      <c r="E46" s="119"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -46557,10 +46557,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="136"/>
-      <c r="C47" s="127"/>
-      <c r="D47" s="138"/>
-      <c r="E47" s="136"/>
+      <c r="B47" s="119"/>
+      <c r="C47" s="116"/>
+      <c r="D47" s="121"/>
+      <c r="E47" s="119"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -46625,10 +46625,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="136"/>
-      <c r="C48" s="127"/>
-      <c r="D48" s="138"/>
-      <c r="E48" s="136"/>
+      <c r="B48" s="119"/>
+      <c r="C48" s="116"/>
+      <c r="D48" s="121"/>
+      <c r="E48" s="119"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -46693,10 +46693,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="136"/>
-      <c r="C49" s="127"/>
-      <c r="D49" s="138"/>
-      <c r="E49" s="136"/>
+      <c r="B49" s="119"/>
+      <c r="C49" s="116"/>
+      <c r="D49" s="121"/>
+      <c r="E49" s="119"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -46761,10 +46761,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="136"/>
-      <c r="C50" s="127"/>
-      <c r="D50" s="138"/>
-      <c r="E50" s="136"/>
+      <c r="B50" s="119"/>
+      <c r="C50" s="116"/>
+      <c r="D50" s="121"/>
+      <c r="E50" s="119"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -46829,10 +46829,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="136"/>
-      <c r="C51" s="127"/>
-      <c r="D51" s="138"/>
-      <c r="E51" s="136"/>
+      <c r="B51" s="119"/>
+      <c r="C51" s="116"/>
+      <c r="D51" s="121"/>
+      <c r="E51" s="119"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -46897,10 +46897,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="136"/>
-      <c r="C52" s="127"/>
-      <c r="D52" s="138"/>
-      <c r="E52" s="136"/>
+      <c r="B52" s="119"/>
+      <c r="C52" s="116"/>
+      <c r="D52" s="121"/>
+      <c r="E52" s="119"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -46965,10 +46965,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="136"/>
-      <c r="C53" s="127"/>
-      <c r="D53" s="138"/>
-      <c r="E53" s="136"/>
+      <c r="B53" s="119"/>
+      <c r="C53" s="116"/>
+      <c r="D53" s="121"/>
+      <c r="E53" s="119"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -47033,10 +47033,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="136"/>
-      <c r="C54" s="127"/>
-      <c r="D54" s="138"/>
-      <c r="E54" s="136"/>
+      <c r="B54" s="119"/>
+      <c r="C54" s="116"/>
+      <c r="D54" s="121"/>
+      <c r="E54" s="119"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -47101,10 +47101,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="136"/>
-      <c r="C55" s="127"/>
-      <c r="D55" s="138"/>
-      <c r="E55" s="136"/>
+      <c r="B55" s="119"/>
+      <c r="C55" s="116"/>
+      <c r="D55" s="121"/>
+      <c r="E55" s="119"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -47169,10 +47169,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="136"/>
-      <c r="C56" s="127"/>
-      <c r="D56" s="138"/>
-      <c r="E56" s="136"/>
+      <c r="B56" s="119"/>
+      <c r="C56" s="116"/>
+      <c r="D56" s="121"/>
+      <c r="E56" s="119"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -47237,10 +47237,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="136"/>
-      <c r="C57" s="127"/>
-      <c r="D57" s="138"/>
-      <c r="E57" s="136"/>
+      <c r="B57" s="119"/>
+      <c r="C57" s="116"/>
+      <c r="D57" s="121"/>
+      <c r="E57" s="119"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -47300,10 +47300,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="137"/>
-      <c r="C58" s="134"/>
-      <c r="D58" s="138"/>
-      <c r="E58" s="137"/>
+      <c r="B58" s="120"/>
+      <c r="C58" s="117"/>
+      <c r="D58" s="121"/>
+      <c r="E58" s="120"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -47368,7 +47368,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="128" t="s">
+      <c r="B59" s="109" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -47440,7 +47440,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="128"/>
+      <c r="B60" s="109"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -47510,7 +47510,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="129" t="s">
+      <c r="B61" s="110" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -47582,7 +47582,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="129"/>
+      <c r="B62" s="110"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -47650,7 +47650,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="129"/>
+      <c r="B63" s="110"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -47859,27 +47859,16 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="E31:E58"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:BM5"/>
+    <mergeCell ref="AT6:AX6"/>
+    <mergeCell ref="AY6:BC6"/>
+    <mergeCell ref="BD6:BH6"/>
+    <mergeCell ref="BI6:BM6"/>
     <mergeCell ref="BN5:BN6"/>
     <mergeCell ref="BO5:BO6"/>
     <mergeCell ref="F6:J6"/>
@@ -47890,16 +47879,27 @@
     <mergeCell ref="AE6:AI6"/>
     <mergeCell ref="AJ6:AN6"/>
     <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:BM5"/>
-    <mergeCell ref="AT6:AX6"/>
-    <mergeCell ref="AY6:BC6"/>
-    <mergeCell ref="BD6:BH6"/>
-    <mergeCell ref="BI6:BM6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="E31:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -47914,31 +47914,31 @@
       <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="1" max="1" width="9.125" style="4"/>
     <col min="2" max="2" width="28" style="3" customWidth="1"/>
-    <col min="3" max="3" width="65.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="65.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="2" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" style="2" customWidth="1"/>
-    <col min="6" max="65" width="2.28515625" style="3" customWidth="1"/>
-    <col min="66" max="69" width="9.140625" style="3"/>
+    <col min="5" max="5" width="29.125" style="2" customWidth="1"/>
+    <col min="6" max="65" width="2.25" style="3" customWidth="1"/>
+    <col min="66" max="69" width="9.125" style="3"/>
     <col min="70" max="70" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="14.85546875" style="3" customWidth="1"/>
+    <col min="71" max="71" width="14.875" style="3" customWidth="1"/>
     <col min="72" max="72" width="13" style="3" customWidth="1"/>
-    <col min="73" max="73" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="74" max="1026" width="9.140625" style="3"/>
-    <col min="1027" max="16384" width="9.140625" style="4"/>
+    <col min="73" max="73" width="13.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="74" max="1026" width="9.125" style="3"/>
+    <col min="1027" max="16384" width="9.125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="134" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
     </row>
     <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
@@ -48104,84 +48104,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="111" t="s">
+      <c r="C5" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="112" t="s">
+      <c r="D5" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="110" t="s">
+      <c r="E5" s="132" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="113" t="s">
+      <c r="F5" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="113"/>
-      <c r="K5" s="113"/>
-      <c r="L5" s="113"/>
-      <c r="M5" s="113"/>
-      <c r="N5" s="113"/>
-      <c r="O5" s="113"/>
-      <c r="P5" s="113"/>
-      <c r="Q5" s="113"/>
-      <c r="R5" s="113"/>
-      <c r="S5" s="113"/>
-      <c r="T5" s="113"/>
-      <c r="U5" s="113"/>
-      <c r="V5" s="113"/>
-      <c r="W5" s="113"/>
-      <c r="X5" s="113"/>
-      <c r="Y5" s="113"/>
-      <c r="Z5" s="113"/>
-      <c r="AA5" s="113"/>
-      <c r="AB5" s="113"/>
-      <c r="AC5" s="113"/>
-      <c r="AD5" s="113"/>
-      <c r="AE5" s="113"/>
-      <c r="AF5" s="113"/>
-      <c r="AG5" s="113"/>
-      <c r="AH5" s="113"/>
-      <c r="AI5" s="113"/>
-      <c r="AJ5" s="113"/>
-      <c r="AK5" s="113"/>
-      <c r="AL5" s="113"/>
-      <c r="AM5" s="113"/>
-      <c r="AN5" s="113"/>
-      <c r="AO5" s="113"/>
-      <c r="AP5" s="113"/>
-      <c r="AQ5" s="113"/>
-      <c r="AR5" s="113"/>
-      <c r="AS5" s="113"/>
-      <c r="AT5" s="113"/>
-      <c r="AU5" s="113"/>
-      <c r="AV5" s="113"/>
-      <c r="AW5" s="113"/>
-      <c r="AX5" s="113"/>
-      <c r="AY5" s="113"/>
-      <c r="AZ5" s="113"/>
-      <c r="BA5" s="113"/>
-      <c r="BB5" s="113"/>
-      <c r="BC5" s="113"/>
-      <c r="BD5" s="113"/>
-      <c r="BE5" s="113"/>
-      <c r="BF5" s="113"/>
-      <c r="BG5" s="113"/>
-      <c r="BH5" s="113"/>
-      <c r="BI5" s="113"/>
-      <c r="BJ5" s="113"/>
-      <c r="BK5" s="113"/>
-      <c r="BL5" s="113"/>
-      <c r="BM5" s="113"/>
-      <c r="BN5" s="116" t="s">
+      <c r="G5" s="137"/>
+      <c r="H5" s="137"/>
+      <c r="I5" s="137"/>
+      <c r="J5" s="137"/>
+      <c r="K5" s="137"/>
+      <c r="L5" s="137"/>
+      <c r="M5" s="137"/>
+      <c r="N5" s="137"/>
+      <c r="O5" s="137"/>
+      <c r="P5" s="137"/>
+      <c r="Q5" s="137"/>
+      <c r="R5" s="137"/>
+      <c r="S5" s="137"/>
+      <c r="T5" s="137"/>
+      <c r="U5" s="137"/>
+      <c r="V5" s="137"/>
+      <c r="W5" s="137"/>
+      <c r="X5" s="137"/>
+      <c r="Y5" s="137"/>
+      <c r="Z5" s="137"/>
+      <c r="AA5" s="137"/>
+      <c r="AB5" s="137"/>
+      <c r="AC5" s="137"/>
+      <c r="AD5" s="137"/>
+      <c r="AE5" s="137"/>
+      <c r="AF5" s="137"/>
+      <c r="AG5" s="137"/>
+      <c r="AH5" s="137"/>
+      <c r="AI5" s="137"/>
+      <c r="AJ5" s="137"/>
+      <c r="AK5" s="137"/>
+      <c r="AL5" s="137"/>
+      <c r="AM5" s="137"/>
+      <c r="AN5" s="137"/>
+      <c r="AO5" s="137"/>
+      <c r="AP5" s="137"/>
+      <c r="AQ5" s="137"/>
+      <c r="AR5" s="137"/>
+      <c r="AS5" s="137"/>
+      <c r="AT5" s="137"/>
+      <c r="AU5" s="137"/>
+      <c r="AV5" s="137"/>
+      <c r="AW5" s="137"/>
+      <c r="AX5" s="137"/>
+      <c r="AY5" s="137"/>
+      <c r="AZ5" s="137"/>
+      <c r="BA5" s="137"/>
+      <c r="BB5" s="137"/>
+      <c r="BC5" s="137"/>
+      <c r="BD5" s="137"/>
+      <c r="BE5" s="137"/>
+      <c r="BF5" s="137"/>
+      <c r="BG5" s="137"/>
+      <c r="BH5" s="137"/>
+      <c r="BI5" s="137"/>
+      <c r="BJ5" s="137"/>
+      <c r="BK5" s="137"/>
+      <c r="BL5" s="137"/>
+      <c r="BM5" s="137"/>
+      <c r="BN5" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="110" t="s">
+      <c r="BO5" s="132" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -48190,107 +48190,107 @@
       <c r="BU5" s="94"/>
     </row>
     <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="110"/>
-      <c r="C6" s="111"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="114" t="s">
+      <c r="B6" s="132"/>
+      <c r="C6" s="135"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="133" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="114" t="s">
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="133"/>
+      <c r="K6" s="133" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="114"/>
-      <c r="M6" s="114"/>
-      <c r="N6" s="114"/>
-      <c r="O6" s="114"/>
-      <c r="P6" s="114" t="s">
+      <c r="L6" s="133"/>
+      <c r="M6" s="133"/>
+      <c r="N6" s="133"/>
+      <c r="O6" s="133"/>
+      <c r="P6" s="133" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="114"/>
-      <c r="R6" s="114"/>
-      <c r="S6" s="114"/>
-      <c r="T6" s="114"/>
-      <c r="U6" s="114" t="s">
+      <c r="Q6" s="133"/>
+      <c r="R6" s="133"/>
+      <c r="S6" s="133"/>
+      <c r="T6" s="133"/>
+      <c r="U6" s="133" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="114"/>
-      <c r="W6" s="114"/>
-      <c r="X6" s="114"/>
-      <c r="Y6" s="114"/>
-      <c r="Z6" s="114" t="s">
+      <c r="V6" s="133"/>
+      <c r="W6" s="133"/>
+      <c r="X6" s="133"/>
+      <c r="Y6" s="133"/>
+      <c r="Z6" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="114"/>
-      <c r="AB6" s="114"/>
-      <c r="AC6" s="114"/>
-      <c r="AD6" s="114"/>
-      <c r="AE6" s="114" t="s">
+      <c r="AA6" s="133"/>
+      <c r="AB6" s="133"/>
+      <c r="AC6" s="133"/>
+      <c r="AD6" s="133"/>
+      <c r="AE6" s="133" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="114"/>
-      <c r="AG6" s="114"/>
-      <c r="AH6" s="114"/>
-      <c r="AI6" s="114"/>
-      <c r="AJ6" s="114" t="s">
+      <c r="AF6" s="133"/>
+      <c r="AG6" s="133"/>
+      <c r="AH6" s="133"/>
+      <c r="AI6" s="133"/>
+      <c r="AJ6" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="114"/>
-      <c r="AL6" s="114"/>
-      <c r="AM6" s="114"/>
-      <c r="AN6" s="114"/>
-      <c r="AO6" s="114" t="s">
+      <c r="AK6" s="133"/>
+      <c r="AL6" s="133"/>
+      <c r="AM6" s="133"/>
+      <c r="AN6" s="133"/>
+      <c r="AO6" s="133" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="114"/>
-      <c r="AQ6" s="114"/>
-      <c r="AR6" s="114"/>
-      <c r="AS6" s="114"/>
-      <c r="AT6" s="114" t="s">
+      <c r="AP6" s="133"/>
+      <c r="AQ6" s="133"/>
+      <c r="AR6" s="133"/>
+      <c r="AS6" s="133"/>
+      <c r="AT6" s="133" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="114"/>
-      <c r="AV6" s="114"/>
-      <c r="AW6" s="114"/>
-      <c r="AX6" s="114"/>
-      <c r="AY6" s="114" t="s">
+      <c r="AU6" s="133"/>
+      <c r="AV6" s="133"/>
+      <c r="AW6" s="133"/>
+      <c r="AX6" s="133"/>
+      <c r="AY6" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="114"/>
-      <c r="BA6" s="114"/>
-      <c r="BB6" s="114"/>
-      <c r="BC6" s="114"/>
-      <c r="BD6" s="114" t="s">
+      <c r="AZ6" s="133"/>
+      <c r="BA6" s="133"/>
+      <c r="BB6" s="133"/>
+      <c r="BC6" s="133"/>
+      <c r="BD6" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="114"/>
-      <c r="BF6" s="114"/>
-      <c r="BG6" s="114"/>
-      <c r="BH6" s="114"/>
-      <c r="BI6" s="115" t="s">
+      <c r="BE6" s="133"/>
+      <c r="BF6" s="133"/>
+      <c r="BG6" s="133"/>
+      <c r="BH6" s="133"/>
+      <c r="BI6" s="138" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="115"/>
-      <c r="BK6" s="115"/>
-      <c r="BL6" s="115"/>
-      <c r="BM6" s="115"/>
-      <c r="BN6" s="116"/>
-      <c r="BO6" s="110"/>
+      <c r="BJ6" s="138"/>
+      <c r="BK6" s="138"/>
+      <c r="BL6" s="138"/>
+      <c r="BM6" s="138"/>
+      <c r="BN6" s="131"/>
+      <c r="BO6" s="132"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="117" t="s">
+      <c r="B7" s="126" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="117"/>
-      <c r="E7" s="118"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="127"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -49315,12 +49315,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="117"/>
+      <c r="B8" s="126"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="117"/>
-      <c r="E8" s="119"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="124"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -50344,14 +50344,14 @@
       <c r="AML8" s="23"/>
     </row>
     <row r="9" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="120" t="s">
+      <c r="B9" s="122" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="121"/>
-      <c r="E9" s="122"/>
+      <c r="D9" s="123"/>
+      <c r="E9" s="128"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
       <c r="H9" s="83"/>
@@ -51375,12 +51375,12 @@
       <c r="AML9" s="21"/>
     </row>
     <row r="10" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B10" s="120"/>
+      <c r="B10" s="122"/>
       <c r="C10" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="121"/>
-      <c r="E10" s="123"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="129"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -52404,12 +52404,12 @@
       <c r="AML10" s="21"/>
     </row>
     <row r="11" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="120"/>
+      <c r="B11" s="122"/>
       <c r="C11" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="121"/>
-      <c r="E11" s="123"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="129"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -53433,12 +53433,12 @@
       <c r="AML11" s="21"/>
     </row>
     <row r="12" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="120"/>
+      <c r="B12" s="122"/>
       <c r="C12" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="121"/>
-      <c r="E12" s="124"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="130"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -53503,14 +53503,14 @@
       <c r="BO12" s="31"/>
     </row>
     <row r="13" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B13" s="120" t="s">
+      <c r="B13" s="122" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="121"/>
-      <c r="E13" s="119"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="124"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -53575,12 +53575,12 @@
       <c r="BO13" s="20"/>
     </row>
     <row r="14" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B14" s="120"/>
+      <c r="B14" s="122"/>
       <c r="C14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="121"/>
-      <c r="E14" s="119"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="124"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -53645,12 +53645,12 @@
       <c r="BO14" s="31"/>
     </row>
     <row r="15" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="120"/>
+      <c r="B15" s="122"/>
       <c r="C15" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="121"/>
-      <c r="E15" s="119"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="124"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -53715,12 +53715,12 @@
       <c r="BO15" s="31"/>
     </row>
     <row r="16" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B16" s="120"/>
+      <c r="B16" s="122"/>
       <c r="C16" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="121"/>
-      <c r="E16" s="119"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="124"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -53785,12 +53785,12 @@
       <c r="BO16" s="31"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B17" s="120"/>
+      <c r="B17" s="122"/>
       <c r="C17" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="121"/>
-      <c r="E17" s="119"/>
+      <c r="D17" s="123"/>
+      <c r="E17" s="124"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -53855,12 +53855,12 @@
       <c r="BO17" s="31"/>
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B18" s="120"/>
+      <c r="B18" s="122"/>
       <c r="C18" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="121"/>
-      <c r="E18" s="119"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="124"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -53925,12 +53925,12 @@
       <c r="BO18" s="31"/>
     </row>
     <row r="19" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B19" s="120"/>
+      <c r="B19" s="122"/>
       <c r="C19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="121"/>
-      <c r="E19" s="119"/>
+      <c r="D19" s="123"/>
+      <c r="E19" s="124"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -54001,8 +54001,8 @@
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="117"/>
-      <c r="E20" s="126"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="115"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -54071,8 +54071,8 @@
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="117"/>
-      <c r="E21" s="127"/>
+      <c r="D21" s="126"/>
+      <c r="E21" s="116"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -54141,8 +54141,8 @@
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="117"/>
-      <c r="E22" s="127"/>
+      <c r="D22" s="126"/>
+      <c r="E22" s="116"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -54211,8 +54211,8 @@
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="117"/>
-      <c r="E23" s="127"/>
+      <c r="D23" s="126"/>
+      <c r="E23" s="116"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -54281,8 +54281,8 @@
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="117"/>
-      <c r="E24" s="127"/>
+      <c r="D24" s="126"/>
+      <c r="E24" s="116"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -54347,14 +54347,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="130" t="s">
+      <c r="B25" s="111" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="133"/>
-      <c r="E25" s="126"/>
+      <c r="D25" s="114"/>
+      <c r="E25" s="115"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -54419,12 +54419,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="131"/>
+      <c r="B26" s="112"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="133"/>
-      <c r="E26" s="127"/>
+      <c r="D26" s="114"/>
+      <c r="E26" s="116"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -54489,12 +54489,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="131"/>
+      <c r="B27" s="112"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="133"/>
-      <c r="E27" s="127"/>
+      <c r="D27" s="114"/>
+      <c r="E27" s="116"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -54559,12 +54559,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="131"/>
+      <c r="B28" s="112"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="133"/>
-      <c r="E28" s="127"/>
+      <c r="D28" s="114"/>
+      <c r="E28" s="116"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -54629,12 +54629,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="132"/>
+      <c r="B29" s="113"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="133"/>
-      <c r="E29" s="134"/>
+      <c r="D29" s="114"/>
+      <c r="E29" s="117"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -54771,10 +54771,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="135"/>
-      <c r="C31" s="126"/>
-      <c r="D31" s="138"/>
-      <c r="E31" s="135"/>
+      <c r="B31" s="118"/>
+      <c r="C31" s="115"/>
+      <c r="D31" s="121"/>
+      <c r="E31" s="118"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -54839,10 +54839,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="136"/>
-      <c r="C32" s="127"/>
-      <c r="D32" s="138"/>
-      <c r="E32" s="136"/>
+      <c r="B32" s="119"/>
+      <c r="C32" s="116"/>
+      <c r="D32" s="121"/>
+      <c r="E32" s="119"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -54907,10 +54907,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="136"/>
-      <c r="C33" s="127"/>
-      <c r="D33" s="138"/>
-      <c r="E33" s="136"/>
+      <c r="B33" s="119"/>
+      <c r="C33" s="116"/>
+      <c r="D33" s="121"/>
+      <c r="E33" s="119"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -54975,10 +54975,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="136"/>
-      <c r="C34" s="127"/>
-      <c r="D34" s="138"/>
-      <c r="E34" s="136"/>
+      <c r="B34" s="119"/>
+      <c r="C34" s="116"/>
+      <c r="D34" s="121"/>
+      <c r="E34" s="119"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -55043,10 +55043,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="136"/>
-      <c r="C35" s="127"/>
-      <c r="D35" s="138"/>
-      <c r="E35" s="136"/>
+      <c r="B35" s="119"/>
+      <c r="C35" s="116"/>
+      <c r="D35" s="121"/>
+      <c r="E35" s="119"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -55111,10 +55111,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="136"/>
-      <c r="C36" s="127"/>
-      <c r="D36" s="138"/>
-      <c r="E36" s="136"/>
+      <c r="B36" s="119"/>
+      <c r="C36" s="116"/>
+      <c r="D36" s="121"/>
+      <c r="E36" s="119"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -55179,10 +55179,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="136"/>
-      <c r="C37" s="127"/>
-      <c r="D37" s="138"/>
-      <c r="E37" s="136"/>
+      <c r="B37" s="119"/>
+      <c r="C37" s="116"/>
+      <c r="D37" s="121"/>
+      <c r="E37" s="119"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -55247,10 +55247,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="136"/>
-      <c r="C38" s="127"/>
-      <c r="D38" s="138"/>
-      <c r="E38" s="136"/>
+      <c r="B38" s="119"/>
+      <c r="C38" s="116"/>
+      <c r="D38" s="121"/>
+      <c r="E38" s="119"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -55315,10 +55315,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="136"/>
-      <c r="C39" s="127"/>
-      <c r="D39" s="138"/>
-      <c r="E39" s="136"/>
+      <c r="B39" s="119"/>
+      <c r="C39" s="116"/>
+      <c r="D39" s="121"/>
+      <c r="E39" s="119"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -55383,10 +55383,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="136"/>
-      <c r="C40" s="127"/>
-      <c r="D40" s="138"/>
-      <c r="E40" s="136"/>
+      <c r="B40" s="119"/>
+      <c r="C40" s="116"/>
+      <c r="D40" s="121"/>
+      <c r="E40" s="119"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -55451,10 +55451,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="136"/>
-      <c r="C41" s="127"/>
-      <c r="D41" s="138"/>
-      <c r="E41" s="136"/>
+      <c r="B41" s="119"/>
+      <c r="C41" s="116"/>
+      <c r="D41" s="121"/>
+      <c r="E41" s="119"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -55519,10 +55519,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="136"/>
-      <c r="C42" s="127"/>
-      <c r="D42" s="138"/>
-      <c r="E42" s="136"/>
+      <c r="B42" s="119"/>
+      <c r="C42" s="116"/>
+      <c r="D42" s="121"/>
+      <c r="E42" s="119"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -55587,10 +55587,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="136"/>
-      <c r="C43" s="127"/>
-      <c r="D43" s="138"/>
-      <c r="E43" s="136"/>
+      <c r="B43" s="119"/>
+      <c r="C43" s="116"/>
+      <c r="D43" s="121"/>
+      <c r="E43" s="119"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -55655,10 +55655,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="136"/>
-      <c r="C44" s="127"/>
-      <c r="D44" s="138"/>
-      <c r="E44" s="136"/>
+      <c r="B44" s="119"/>
+      <c r="C44" s="116"/>
+      <c r="D44" s="121"/>
+      <c r="E44" s="119"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -55723,10 +55723,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="136"/>
-      <c r="C45" s="127"/>
-      <c r="D45" s="138"/>
-      <c r="E45" s="136"/>
+      <c r="B45" s="119"/>
+      <c r="C45" s="116"/>
+      <c r="D45" s="121"/>
+      <c r="E45" s="119"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -55791,10 +55791,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="136"/>
-      <c r="C46" s="127"/>
-      <c r="D46" s="138"/>
-      <c r="E46" s="136"/>
+      <c r="B46" s="119"/>
+      <c r="C46" s="116"/>
+      <c r="D46" s="121"/>
+      <c r="E46" s="119"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -55859,10 +55859,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="136"/>
-      <c r="C47" s="127"/>
-      <c r="D47" s="138"/>
-      <c r="E47" s="136"/>
+      <c r="B47" s="119"/>
+      <c r="C47" s="116"/>
+      <c r="D47" s="121"/>
+      <c r="E47" s="119"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -55927,10 +55927,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="136"/>
-      <c r="C48" s="127"/>
-      <c r="D48" s="138"/>
-      <c r="E48" s="136"/>
+      <c r="B48" s="119"/>
+      <c r="C48" s="116"/>
+      <c r="D48" s="121"/>
+      <c r="E48" s="119"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -55995,10 +55995,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="136"/>
-      <c r="C49" s="127"/>
-      <c r="D49" s="138"/>
-      <c r="E49" s="136"/>
+      <c r="B49" s="119"/>
+      <c r="C49" s="116"/>
+      <c r="D49" s="121"/>
+      <c r="E49" s="119"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -56063,10 +56063,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="136"/>
-      <c r="C50" s="127"/>
-      <c r="D50" s="138"/>
-      <c r="E50" s="136"/>
+      <c r="B50" s="119"/>
+      <c r="C50" s="116"/>
+      <c r="D50" s="121"/>
+      <c r="E50" s="119"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -56131,10 +56131,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="136"/>
-      <c r="C51" s="127"/>
-      <c r="D51" s="138"/>
-      <c r="E51" s="136"/>
+      <c r="B51" s="119"/>
+      <c r="C51" s="116"/>
+      <c r="D51" s="121"/>
+      <c r="E51" s="119"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -56199,10 +56199,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="136"/>
-      <c r="C52" s="127"/>
-      <c r="D52" s="138"/>
-      <c r="E52" s="136"/>
+      <c r="B52" s="119"/>
+      <c r="C52" s="116"/>
+      <c r="D52" s="121"/>
+      <c r="E52" s="119"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -56267,10 +56267,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="136"/>
-      <c r="C53" s="127"/>
-      <c r="D53" s="138"/>
-      <c r="E53" s="136"/>
+      <c r="B53" s="119"/>
+      <c r="C53" s="116"/>
+      <c r="D53" s="121"/>
+      <c r="E53" s="119"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -56335,10 +56335,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="136"/>
-      <c r="C54" s="127"/>
-      <c r="D54" s="138"/>
-      <c r="E54" s="136"/>
+      <c r="B54" s="119"/>
+      <c r="C54" s="116"/>
+      <c r="D54" s="121"/>
+      <c r="E54" s="119"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -56403,10 +56403,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="136"/>
-      <c r="C55" s="127"/>
-      <c r="D55" s="138"/>
-      <c r="E55" s="136"/>
+      <c r="B55" s="119"/>
+      <c r="C55" s="116"/>
+      <c r="D55" s="121"/>
+      <c r="E55" s="119"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -56471,10 +56471,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="136"/>
-      <c r="C56" s="127"/>
-      <c r="D56" s="138"/>
-      <c r="E56" s="136"/>
+      <c r="B56" s="119"/>
+      <c r="C56" s="116"/>
+      <c r="D56" s="121"/>
+      <c r="E56" s="119"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -56539,10 +56539,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="136"/>
-      <c r="C57" s="127"/>
-      <c r="D57" s="138"/>
-      <c r="E57" s="136"/>
+      <c r="B57" s="119"/>
+      <c r="C57" s="116"/>
+      <c r="D57" s="121"/>
+      <c r="E57" s="119"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -56602,10 +56602,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="137"/>
-      <c r="C58" s="134"/>
-      <c r="D58" s="138"/>
-      <c r="E58" s="137"/>
+      <c r="B58" s="120"/>
+      <c r="C58" s="117"/>
+      <c r="D58" s="121"/>
+      <c r="E58" s="120"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -56670,7 +56670,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="128" t="s">
+      <c r="B59" s="109" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -56742,7 +56742,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="128"/>
+      <c r="B60" s="109"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -56812,7 +56812,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="129" t="s">
+      <c r="B61" s="110" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -56884,7 +56884,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="129"/>
+      <c r="B62" s="110"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -56952,7 +56952,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="129"/>
+      <c r="B63" s="110"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -57161,27 +57161,16 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="E31:E58"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:BM5"/>
+    <mergeCell ref="AT6:AX6"/>
+    <mergeCell ref="AY6:BC6"/>
+    <mergeCell ref="BD6:BH6"/>
+    <mergeCell ref="BI6:BM6"/>
     <mergeCell ref="BN5:BN6"/>
     <mergeCell ref="BO5:BO6"/>
     <mergeCell ref="F6:J6"/>
@@ -57192,16 +57181,27 @@
     <mergeCell ref="AE6:AI6"/>
     <mergeCell ref="AJ6:AN6"/>
     <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:BM5"/>
-    <mergeCell ref="AT6:AX6"/>
-    <mergeCell ref="AY6:BC6"/>
-    <mergeCell ref="BD6:BH6"/>
-    <mergeCell ref="BI6:BM6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="E31:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -57211,35 +57211,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AML65"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="W13" sqref="W13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="1" max="1" width="9.125" style="4"/>
     <col min="2" max="2" width="28" style="3" customWidth="1"/>
-    <col min="3" max="3" width="65.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="65.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="2" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" style="2" customWidth="1"/>
-    <col min="6" max="65" width="2.28515625" style="3" customWidth="1"/>
-    <col min="66" max="69" width="9.140625" style="3"/>
+    <col min="5" max="5" width="29.125" style="2" customWidth="1"/>
+    <col min="6" max="65" width="2.25" style="3" customWidth="1"/>
+    <col min="66" max="69" width="9.125" style="3"/>
     <col min="70" max="70" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="14.85546875" style="3" customWidth="1"/>
+    <col min="71" max="71" width="14.875" style="3" customWidth="1"/>
     <col min="72" max="72" width="13" style="3" customWidth="1"/>
-    <col min="73" max="73" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="74" max="1026" width="9.140625" style="3"/>
-    <col min="1027" max="16384" width="9.140625" style="4"/>
+    <col min="73" max="73" width="13.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="74" max="1026" width="9.125" style="3"/>
+    <col min="1027" max="16384" width="9.125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="134" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
     </row>
     <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
@@ -57405,84 +57405,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="111" t="s">
+      <c r="C5" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="112" t="s">
+      <c r="D5" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="110" t="s">
+      <c r="E5" s="132" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="113" t="s">
+      <c r="F5" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="113"/>
-      <c r="K5" s="113"/>
-      <c r="L5" s="113"/>
-      <c r="M5" s="113"/>
-      <c r="N5" s="113"/>
-      <c r="O5" s="113"/>
-      <c r="P5" s="113"/>
-      <c r="Q5" s="113"/>
-      <c r="R5" s="113"/>
-      <c r="S5" s="113"/>
-      <c r="T5" s="113"/>
-      <c r="U5" s="113"/>
-      <c r="V5" s="113"/>
-      <c r="W5" s="113"/>
-      <c r="X5" s="113"/>
-      <c r="Y5" s="113"/>
-      <c r="Z5" s="113"/>
-      <c r="AA5" s="113"/>
-      <c r="AB5" s="113"/>
-      <c r="AC5" s="113"/>
-      <c r="AD5" s="113"/>
-      <c r="AE5" s="113"/>
-      <c r="AF5" s="113"/>
-      <c r="AG5" s="113"/>
-      <c r="AH5" s="113"/>
-      <c r="AI5" s="113"/>
-      <c r="AJ5" s="113"/>
-      <c r="AK5" s="113"/>
-      <c r="AL5" s="113"/>
-      <c r="AM5" s="113"/>
-      <c r="AN5" s="113"/>
-      <c r="AO5" s="113"/>
-      <c r="AP5" s="113"/>
-      <c r="AQ5" s="113"/>
-      <c r="AR5" s="113"/>
-      <c r="AS5" s="113"/>
-      <c r="AT5" s="113"/>
-      <c r="AU5" s="113"/>
-      <c r="AV5" s="113"/>
-      <c r="AW5" s="113"/>
-      <c r="AX5" s="113"/>
-      <c r="AY5" s="113"/>
-      <c r="AZ5" s="113"/>
-      <c r="BA5" s="113"/>
-      <c r="BB5" s="113"/>
-      <c r="BC5" s="113"/>
-      <c r="BD5" s="113"/>
-      <c r="BE5" s="113"/>
-      <c r="BF5" s="113"/>
-      <c r="BG5" s="113"/>
-      <c r="BH5" s="113"/>
-      <c r="BI5" s="113"/>
-      <c r="BJ5" s="113"/>
-      <c r="BK5" s="113"/>
-      <c r="BL5" s="113"/>
-      <c r="BM5" s="113"/>
-      <c r="BN5" s="116" t="s">
+      <c r="G5" s="137"/>
+      <c r="H5" s="137"/>
+      <c r="I5" s="137"/>
+      <c r="J5" s="137"/>
+      <c r="K5" s="137"/>
+      <c r="L5" s="137"/>
+      <c r="M5" s="137"/>
+      <c r="N5" s="137"/>
+      <c r="O5" s="137"/>
+      <c r="P5" s="137"/>
+      <c r="Q5" s="137"/>
+      <c r="R5" s="137"/>
+      <c r="S5" s="137"/>
+      <c r="T5" s="137"/>
+      <c r="U5" s="137"/>
+      <c r="V5" s="137"/>
+      <c r="W5" s="137"/>
+      <c r="X5" s="137"/>
+      <c r="Y5" s="137"/>
+      <c r="Z5" s="137"/>
+      <c r="AA5" s="137"/>
+      <c r="AB5" s="137"/>
+      <c r="AC5" s="137"/>
+      <c r="AD5" s="137"/>
+      <c r="AE5" s="137"/>
+      <c r="AF5" s="137"/>
+      <c r="AG5" s="137"/>
+      <c r="AH5" s="137"/>
+      <c r="AI5" s="137"/>
+      <c r="AJ5" s="137"/>
+      <c r="AK5" s="137"/>
+      <c r="AL5" s="137"/>
+      <c r="AM5" s="137"/>
+      <c r="AN5" s="137"/>
+      <c r="AO5" s="137"/>
+      <c r="AP5" s="137"/>
+      <c r="AQ5" s="137"/>
+      <c r="AR5" s="137"/>
+      <c r="AS5" s="137"/>
+      <c r="AT5" s="137"/>
+      <c r="AU5" s="137"/>
+      <c r="AV5" s="137"/>
+      <c r="AW5" s="137"/>
+      <c r="AX5" s="137"/>
+      <c r="AY5" s="137"/>
+      <c r="AZ5" s="137"/>
+      <c r="BA5" s="137"/>
+      <c r="BB5" s="137"/>
+      <c r="BC5" s="137"/>
+      <c r="BD5" s="137"/>
+      <c r="BE5" s="137"/>
+      <c r="BF5" s="137"/>
+      <c r="BG5" s="137"/>
+      <c r="BH5" s="137"/>
+      <c r="BI5" s="137"/>
+      <c r="BJ5" s="137"/>
+      <c r="BK5" s="137"/>
+      <c r="BL5" s="137"/>
+      <c r="BM5" s="137"/>
+      <c r="BN5" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="110" t="s">
+      <c r="BO5" s="132" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -57491,107 +57491,107 @@
       <c r="BU5" s="94"/>
     </row>
     <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="110"/>
-      <c r="C6" s="111"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="114" t="s">
+      <c r="B6" s="132"/>
+      <c r="C6" s="135"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="133" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="114" t="s">
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="133"/>
+      <c r="K6" s="133" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="114"/>
-      <c r="M6" s="114"/>
-      <c r="N6" s="114"/>
-      <c r="O6" s="114"/>
-      <c r="P6" s="114" t="s">
+      <c r="L6" s="133"/>
+      <c r="M6" s="133"/>
+      <c r="N6" s="133"/>
+      <c r="O6" s="133"/>
+      <c r="P6" s="133" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="114"/>
-      <c r="R6" s="114"/>
-      <c r="S6" s="114"/>
-      <c r="T6" s="114"/>
-      <c r="U6" s="114" t="s">
+      <c r="Q6" s="133"/>
+      <c r="R6" s="133"/>
+      <c r="S6" s="133"/>
+      <c r="T6" s="133"/>
+      <c r="U6" s="133" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="114"/>
-      <c r="W6" s="114"/>
-      <c r="X6" s="114"/>
-      <c r="Y6" s="114"/>
-      <c r="Z6" s="114" t="s">
+      <c r="V6" s="133"/>
+      <c r="W6" s="133"/>
+      <c r="X6" s="133"/>
+      <c r="Y6" s="133"/>
+      <c r="Z6" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="114"/>
-      <c r="AB6" s="114"/>
-      <c r="AC6" s="114"/>
-      <c r="AD6" s="114"/>
-      <c r="AE6" s="114" t="s">
+      <c r="AA6" s="133"/>
+      <c r="AB6" s="133"/>
+      <c r="AC6" s="133"/>
+      <c r="AD6" s="133"/>
+      <c r="AE6" s="133" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="114"/>
-      <c r="AG6" s="114"/>
-      <c r="AH6" s="114"/>
-      <c r="AI6" s="114"/>
-      <c r="AJ6" s="114" t="s">
+      <c r="AF6" s="133"/>
+      <c r="AG6" s="133"/>
+      <c r="AH6" s="133"/>
+      <c r="AI6" s="133"/>
+      <c r="AJ6" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="114"/>
-      <c r="AL6" s="114"/>
-      <c r="AM6" s="114"/>
-      <c r="AN6" s="114"/>
-      <c r="AO6" s="114" t="s">
+      <c r="AK6" s="133"/>
+      <c r="AL6" s="133"/>
+      <c r="AM6" s="133"/>
+      <c r="AN6" s="133"/>
+      <c r="AO6" s="133" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="114"/>
-      <c r="AQ6" s="114"/>
-      <c r="AR6" s="114"/>
-      <c r="AS6" s="114"/>
-      <c r="AT6" s="114" t="s">
+      <c r="AP6" s="133"/>
+      <c r="AQ6" s="133"/>
+      <c r="AR6" s="133"/>
+      <c r="AS6" s="133"/>
+      <c r="AT6" s="133" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="114"/>
-      <c r="AV6" s="114"/>
-      <c r="AW6" s="114"/>
-      <c r="AX6" s="114"/>
-      <c r="AY6" s="114" t="s">
+      <c r="AU6" s="133"/>
+      <c r="AV6" s="133"/>
+      <c r="AW6" s="133"/>
+      <c r="AX6" s="133"/>
+      <c r="AY6" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="114"/>
-      <c r="BA6" s="114"/>
-      <c r="BB6" s="114"/>
-      <c r="BC6" s="114"/>
-      <c r="BD6" s="114" t="s">
+      <c r="AZ6" s="133"/>
+      <c r="BA6" s="133"/>
+      <c r="BB6" s="133"/>
+      <c r="BC6" s="133"/>
+      <c r="BD6" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="114"/>
-      <c r="BF6" s="114"/>
-      <c r="BG6" s="114"/>
-      <c r="BH6" s="114"/>
-      <c r="BI6" s="115" t="s">
+      <c r="BE6" s="133"/>
+      <c r="BF6" s="133"/>
+      <c r="BG6" s="133"/>
+      <c r="BH6" s="133"/>
+      <c r="BI6" s="138" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="115"/>
-      <c r="BK6" s="115"/>
-      <c r="BL6" s="115"/>
-      <c r="BM6" s="115"/>
-      <c r="BN6" s="116"/>
-      <c r="BO6" s="110"/>
+      <c r="BJ6" s="138"/>
+      <c r="BK6" s="138"/>
+      <c r="BL6" s="138"/>
+      <c r="BM6" s="138"/>
+      <c r="BN6" s="131"/>
+      <c r="BO6" s="132"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="117" t="s">
+      <c r="B7" s="126" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="117"/>
-      <c r="E7" s="118"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="127"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -58616,12 +58616,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="117"/>
+      <c r="B8" s="126"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="117"/>
-      <c r="E8" s="119"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="124"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -59645,14 +59645,14 @@
       <c r="AML8" s="23"/>
     </row>
     <row r="9" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="120" t="s">
+      <c r="B9" s="122" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="121"/>
-      <c r="E9" s="122"/>
+      <c r="D9" s="123"/>
+      <c r="E9" s="128"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
       <c r="H9" s="106"/>
@@ -60676,12 +60676,12 @@
       <c r="AML9" s="21"/>
     </row>
     <row r="10" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B10" s="120"/>
+      <c r="B10" s="122"/>
       <c r="C10" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="121"/>
-      <c r="E10" s="123"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="129"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -61705,12 +61705,12 @@
       <c r="AML10" s="21"/>
     </row>
     <row r="11" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="120"/>
+      <c r="B11" s="122"/>
       <c r="C11" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="121"/>
-      <c r="E11" s="123"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="129"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -62734,12 +62734,12 @@
       <c r="AML11" s="21"/>
     </row>
     <row r="12" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="120"/>
+      <c r="B12" s="122"/>
       <c r="C12" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="121"/>
-      <c r="E12" s="124"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="130"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -62804,14 +62804,14 @@
       <c r="BO12" s="31"/>
     </row>
     <row r="13" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B13" s="120" t="s">
+      <c r="B13" s="122" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="121"/>
-      <c r="E13" s="119"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="124"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -62876,12 +62876,12 @@
       <c r="BO13" s="20"/>
     </row>
     <row r="14" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B14" s="120"/>
+      <c r="B14" s="122"/>
       <c r="C14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="121"/>
-      <c r="E14" s="119"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="124"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -62904,7 +62904,7 @@
       <c r="Y14" s="30"/>
       <c r="Z14" s="29"/>
       <c r="AA14" s="21"/>
-      <c r="AB14" s="21"/>
+      <c r="AB14" s="99"/>
       <c r="AC14" s="21"/>
       <c r="AD14" s="30"/>
       <c r="AE14" s="29"/>
@@ -62946,12 +62946,12 @@
       <c r="BO14" s="31"/>
     </row>
     <row r="15" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="120"/>
+      <c r="B15" s="122"/>
       <c r="C15" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="121"/>
-      <c r="E15" s="119"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="124"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -62974,7 +62974,7 @@
       <c r="Y15" s="30"/>
       <c r="Z15" s="29"/>
       <c r="AA15" s="21"/>
-      <c r="AB15" s="21"/>
+      <c r="AB15" s="99"/>
       <c r="AC15" s="21"/>
       <c r="AD15" s="30"/>
       <c r="AE15" s="29"/>
@@ -63016,12 +63016,12 @@
       <c r="BO15" s="31"/>
     </row>
     <row r="16" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B16" s="120"/>
+      <c r="B16" s="122"/>
       <c r="C16" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="121"/>
-      <c r="E16" s="119"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="124"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -63044,7 +63044,7 @@
       <c r="Y16" s="30"/>
       <c r="Z16" s="29"/>
       <c r="AA16" s="21"/>
-      <c r="AB16" s="21"/>
+      <c r="AB16" s="99"/>
       <c r="AC16" s="21"/>
       <c r="AD16" s="30"/>
       <c r="AE16" s="29"/>
@@ -63086,12 +63086,12 @@
       <c r="BO16" s="31"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B17" s="120"/>
+      <c r="B17" s="122"/>
       <c r="C17" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="121"/>
-      <c r="E17" s="119"/>
+      <c r="D17" s="123"/>
+      <c r="E17" s="124"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -63156,12 +63156,12 @@
       <c r="BO17" s="31"/>
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B18" s="120"/>
+      <c r="B18" s="122"/>
       <c r="C18" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="121"/>
-      <c r="E18" s="119"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="124"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -63226,12 +63226,12 @@
       <c r="BO18" s="31"/>
     </row>
     <row r="19" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B19" s="120"/>
+      <c r="B19" s="122"/>
       <c r="C19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="121"/>
-      <c r="E19" s="119"/>
+      <c r="D19" s="123"/>
+      <c r="E19" s="124"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -63302,8 +63302,8 @@
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="117"/>
-      <c r="E20" s="126"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="115"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -63372,8 +63372,8 @@
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="117"/>
-      <c r="E21" s="127"/>
+      <c r="D21" s="126"/>
+      <c r="E21" s="116"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -63442,8 +63442,8 @@
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="117"/>
-      <c r="E22" s="127"/>
+      <c r="D22" s="126"/>
+      <c r="E22" s="116"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -63512,8 +63512,8 @@
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="117"/>
-      <c r="E23" s="127"/>
+      <c r="D23" s="126"/>
+      <c r="E23" s="116"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -63582,8 +63582,8 @@
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="117"/>
-      <c r="E24" s="127"/>
+      <c r="D24" s="126"/>
+      <c r="E24" s="116"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -63648,14 +63648,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="130" t="s">
+      <c r="B25" s="111" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="133"/>
-      <c r="E25" s="126"/>
+      <c r="D25" s="114"/>
+      <c r="E25" s="115"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -63720,12 +63720,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="131"/>
+      <c r="B26" s="112"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="133"/>
-      <c r="E26" s="127"/>
+      <c r="D26" s="114"/>
+      <c r="E26" s="116"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -63790,12 +63790,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="131"/>
+      <c r="B27" s="112"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="133"/>
-      <c r="E27" s="127"/>
+      <c r="D27" s="114"/>
+      <c r="E27" s="116"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -63860,12 +63860,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="131"/>
+      <c r="B28" s="112"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="133"/>
-      <c r="E28" s="127"/>
+      <c r="D28" s="114"/>
+      <c r="E28" s="116"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -63930,12 +63930,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="132"/>
+      <c r="B29" s="113"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="133"/>
-      <c r="E29" s="134"/>
+      <c r="D29" s="114"/>
+      <c r="E29" s="117"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -64072,10 +64072,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="135"/>
-      <c r="C31" s="126"/>
-      <c r="D31" s="138"/>
-      <c r="E31" s="135"/>
+      <c r="B31" s="118"/>
+      <c r="C31" s="115"/>
+      <c r="D31" s="121"/>
+      <c r="E31" s="118"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -64140,10 +64140,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="136"/>
-      <c r="C32" s="127"/>
-      <c r="D32" s="138"/>
-      <c r="E32" s="136"/>
+      <c r="B32" s="119"/>
+      <c r="C32" s="116"/>
+      <c r="D32" s="121"/>
+      <c r="E32" s="119"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -64208,10 +64208,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="136"/>
-      <c r="C33" s="127"/>
-      <c r="D33" s="138"/>
-      <c r="E33" s="136"/>
+      <c r="B33" s="119"/>
+      <c r="C33" s="116"/>
+      <c r="D33" s="121"/>
+      <c r="E33" s="119"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -64276,10 +64276,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="136"/>
-      <c r="C34" s="127"/>
-      <c r="D34" s="138"/>
-      <c r="E34" s="136"/>
+      <c r="B34" s="119"/>
+      <c r="C34" s="116"/>
+      <c r="D34" s="121"/>
+      <c r="E34" s="119"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -64344,10 +64344,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="136"/>
-      <c r="C35" s="127"/>
-      <c r="D35" s="138"/>
-      <c r="E35" s="136"/>
+      <c r="B35" s="119"/>
+      <c r="C35" s="116"/>
+      <c r="D35" s="121"/>
+      <c r="E35" s="119"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -64412,10 +64412,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="136"/>
-      <c r="C36" s="127"/>
-      <c r="D36" s="138"/>
-      <c r="E36" s="136"/>
+      <c r="B36" s="119"/>
+      <c r="C36" s="116"/>
+      <c r="D36" s="121"/>
+      <c r="E36" s="119"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -64480,10 +64480,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="136"/>
-      <c r="C37" s="127"/>
-      <c r="D37" s="138"/>
-      <c r="E37" s="136"/>
+      <c r="B37" s="119"/>
+      <c r="C37" s="116"/>
+      <c r="D37" s="121"/>
+      <c r="E37" s="119"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -64548,10 +64548,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="136"/>
-      <c r="C38" s="127"/>
-      <c r="D38" s="138"/>
-      <c r="E38" s="136"/>
+      <c r="B38" s="119"/>
+      <c r="C38" s="116"/>
+      <c r="D38" s="121"/>
+      <c r="E38" s="119"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -64616,10 +64616,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="136"/>
-      <c r="C39" s="127"/>
-      <c r="D39" s="138"/>
-      <c r="E39" s="136"/>
+      <c r="B39" s="119"/>
+      <c r="C39" s="116"/>
+      <c r="D39" s="121"/>
+      <c r="E39" s="119"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -64684,10 +64684,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="136"/>
-      <c r="C40" s="127"/>
-      <c r="D40" s="138"/>
-      <c r="E40" s="136"/>
+      <c r="B40" s="119"/>
+      <c r="C40" s="116"/>
+      <c r="D40" s="121"/>
+      <c r="E40" s="119"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -64752,10 +64752,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="136"/>
-      <c r="C41" s="127"/>
-      <c r="D41" s="138"/>
-      <c r="E41" s="136"/>
+      <c r="B41" s="119"/>
+      <c r="C41" s="116"/>
+      <c r="D41" s="121"/>
+      <c r="E41" s="119"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -64820,10 +64820,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="136"/>
-      <c r="C42" s="127"/>
-      <c r="D42" s="138"/>
-      <c r="E42" s="136"/>
+      <c r="B42" s="119"/>
+      <c r="C42" s="116"/>
+      <c r="D42" s="121"/>
+      <c r="E42" s="119"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -64888,10 +64888,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="136"/>
-      <c r="C43" s="127"/>
-      <c r="D43" s="138"/>
-      <c r="E43" s="136"/>
+      <c r="B43" s="119"/>
+      <c r="C43" s="116"/>
+      <c r="D43" s="121"/>
+      <c r="E43" s="119"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -64956,10 +64956,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="136"/>
-      <c r="C44" s="127"/>
-      <c r="D44" s="138"/>
-      <c r="E44" s="136"/>
+      <c r="B44" s="119"/>
+      <c r="C44" s="116"/>
+      <c r="D44" s="121"/>
+      <c r="E44" s="119"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -65024,10 +65024,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="136"/>
-      <c r="C45" s="127"/>
-      <c r="D45" s="138"/>
-      <c r="E45" s="136"/>
+      <c r="B45" s="119"/>
+      <c r="C45" s="116"/>
+      <c r="D45" s="121"/>
+      <c r="E45" s="119"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -65092,10 +65092,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="136"/>
-      <c r="C46" s="127"/>
-      <c r="D46" s="138"/>
-      <c r="E46" s="136"/>
+      <c r="B46" s="119"/>
+      <c r="C46" s="116"/>
+      <c r="D46" s="121"/>
+      <c r="E46" s="119"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -65160,10 +65160,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="136"/>
-      <c r="C47" s="127"/>
-      <c r="D47" s="138"/>
-      <c r="E47" s="136"/>
+      <c r="B47" s="119"/>
+      <c r="C47" s="116"/>
+      <c r="D47" s="121"/>
+      <c r="E47" s="119"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -65228,10 +65228,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="136"/>
-      <c r="C48" s="127"/>
-      <c r="D48" s="138"/>
-      <c r="E48" s="136"/>
+      <c r="B48" s="119"/>
+      <c r="C48" s="116"/>
+      <c r="D48" s="121"/>
+      <c r="E48" s="119"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -65296,10 +65296,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="136"/>
-      <c r="C49" s="127"/>
-      <c r="D49" s="138"/>
-      <c r="E49" s="136"/>
+      <c r="B49" s="119"/>
+      <c r="C49" s="116"/>
+      <c r="D49" s="121"/>
+      <c r="E49" s="119"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -65364,10 +65364,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="136"/>
-      <c r="C50" s="127"/>
-      <c r="D50" s="138"/>
-      <c r="E50" s="136"/>
+      <c r="B50" s="119"/>
+      <c r="C50" s="116"/>
+      <c r="D50" s="121"/>
+      <c r="E50" s="119"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -65432,10 +65432,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="136"/>
-      <c r="C51" s="127"/>
-      <c r="D51" s="138"/>
-      <c r="E51" s="136"/>
+      <c r="B51" s="119"/>
+      <c r="C51" s="116"/>
+      <c r="D51" s="121"/>
+      <c r="E51" s="119"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -65500,10 +65500,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="136"/>
-      <c r="C52" s="127"/>
-      <c r="D52" s="138"/>
-      <c r="E52" s="136"/>
+      <c r="B52" s="119"/>
+      <c r="C52" s="116"/>
+      <c r="D52" s="121"/>
+      <c r="E52" s="119"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -65568,10 +65568,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="136"/>
-      <c r="C53" s="127"/>
-      <c r="D53" s="138"/>
-      <c r="E53" s="136"/>
+      <c r="B53" s="119"/>
+      <c r="C53" s="116"/>
+      <c r="D53" s="121"/>
+      <c r="E53" s="119"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -65636,10 +65636,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="136"/>
-      <c r="C54" s="127"/>
-      <c r="D54" s="138"/>
-      <c r="E54" s="136"/>
+      <c r="B54" s="119"/>
+      <c r="C54" s="116"/>
+      <c r="D54" s="121"/>
+      <c r="E54" s="119"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -65704,10 +65704,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="136"/>
-      <c r="C55" s="127"/>
-      <c r="D55" s="138"/>
-      <c r="E55" s="136"/>
+      <c r="B55" s="119"/>
+      <c r="C55" s="116"/>
+      <c r="D55" s="121"/>
+      <c r="E55" s="119"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -65772,10 +65772,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="136"/>
-      <c r="C56" s="127"/>
-      <c r="D56" s="138"/>
-      <c r="E56" s="136"/>
+      <c r="B56" s="119"/>
+      <c r="C56" s="116"/>
+      <c r="D56" s="121"/>
+      <c r="E56" s="119"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -65840,10 +65840,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="136"/>
-      <c r="C57" s="127"/>
-      <c r="D57" s="138"/>
-      <c r="E57" s="136"/>
+      <c r="B57" s="119"/>
+      <c r="C57" s="116"/>
+      <c r="D57" s="121"/>
+      <c r="E57" s="119"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -65903,10 +65903,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="137"/>
-      <c r="C58" s="134"/>
-      <c r="D58" s="138"/>
-      <c r="E58" s="137"/>
+      <c r="B58" s="120"/>
+      <c r="C58" s="117"/>
+      <c r="D58" s="121"/>
+      <c r="E58" s="120"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -65971,7 +65971,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="128" t="s">
+      <c r="B59" s="109" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -66043,7 +66043,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="128"/>
+      <c r="B60" s="109"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -66113,7 +66113,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="129" t="s">
+      <c r="B61" s="110" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -66185,7 +66185,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="129"/>
+      <c r="B62" s="110"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -66253,7 +66253,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="129"/>
+      <c r="B63" s="110"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -66462,21 +66462,22 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="E31:E58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:BM5"/>
+    <mergeCell ref="AT6:AX6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="U6:Y6"/>
+    <mergeCell ref="Z6:AD6"/>
+    <mergeCell ref="AE6:AI6"/>
+    <mergeCell ref="AJ6:AN6"/>
+    <mergeCell ref="AO6:AS6"/>
     <mergeCell ref="B9:B12"/>
     <mergeCell ref="D9:D12"/>
     <mergeCell ref="D7:D8"/>
@@ -66487,22 +66488,21 @@
     <mergeCell ref="BI6:BM6"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="E7:E8"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="U6:Y6"/>
-    <mergeCell ref="Z6:AD6"/>
-    <mergeCell ref="AE6:AI6"/>
-    <mergeCell ref="AJ6:AN6"/>
-    <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:BM5"/>
-    <mergeCell ref="AT6:AX6"/>
-    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="E31:E58"/>
+    <mergeCell ref="D31:D58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/QC_QNU_Training_Progress.xlsx
+++ b/QC_QNU_Training_Progress.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TMA-Training\QC_Training\QC_Training_2019_01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\QC_Training_2019_01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="690" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="690"/>
   </bookViews>
   <sheets>
     <sheet name="Truong Thi Thu Huong" sheetId="4" r:id="rId1"/>
@@ -244,7 +244,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -252,7 +252,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1028,6 +1028,63 @@
     <xf numFmtId="0" fontId="6" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1046,12 +1103,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1066,57 +1117,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1404,35 +1404,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AML65"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="W13" sqref="W13"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AB14" sqref="AB14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="4"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
     <col min="2" max="2" width="28" style="3" customWidth="1"/>
-    <col min="3" max="3" width="65.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="65.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="2" customWidth="1"/>
-    <col min="5" max="5" width="29.125" style="2" customWidth="1"/>
-    <col min="6" max="65" width="2.25" style="3" customWidth="1"/>
-    <col min="66" max="69" width="9.125" style="3"/>
+    <col min="5" max="5" width="29.140625" style="2" customWidth="1"/>
+    <col min="6" max="65" width="2.28515625" style="3" customWidth="1"/>
+    <col min="66" max="69" width="9.140625" style="3"/>
     <col min="70" max="70" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="14.875" style="3" customWidth="1"/>
+    <col min="71" max="71" width="14.85546875" style="3" customWidth="1"/>
     <col min="72" max="72" width="13" style="3" customWidth="1"/>
-    <col min="73" max="73" width="13.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="74" max="1026" width="9.125" style="3"/>
-    <col min="1027" max="16384" width="9.125" style="4"/>
+    <col min="73" max="73" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="74" max="1026" width="9.140625" style="3"/>
+    <col min="1027" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="134" t="s">
+      <c r="B1" s="109" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
     </row>
     <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
@@ -1598,84 +1598,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="132" t="s">
+      <c r="B5" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="135" t="s">
+      <c r="C5" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="136" t="s">
+      <c r="D5" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="132" t="s">
+      <c r="E5" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="137" t="s">
+      <c r="F5" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="137"/>
-      <c r="H5" s="137"/>
-      <c r="I5" s="137"/>
-      <c r="J5" s="137"/>
-      <c r="K5" s="137"/>
-      <c r="L5" s="137"/>
-      <c r="M5" s="137"/>
-      <c r="N5" s="137"/>
-      <c r="O5" s="137"/>
-      <c r="P5" s="137"/>
-      <c r="Q5" s="137"/>
-      <c r="R5" s="137"/>
-      <c r="S5" s="137"/>
-      <c r="T5" s="137"/>
-      <c r="U5" s="137"/>
-      <c r="V5" s="137"/>
-      <c r="W5" s="137"/>
-      <c r="X5" s="137"/>
-      <c r="Y5" s="137"/>
-      <c r="Z5" s="137"/>
-      <c r="AA5" s="137"/>
-      <c r="AB5" s="137"/>
-      <c r="AC5" s="137"/>
-      <c r="AD5" s="137"/>
-      <c r="AE5" s="137"/>
-      <c r="AF5" s="137"/>
-      <c r="AG5" s="137"/>
-      <c r="AH5" s="137"/>
-      <c r="AI5" s="137"/>
-      <c r="AJ5" s="137"/>
-      <c r="AK5" s="137"/>
-      <c r="AL5" s="137"/>
-      <c r="AM5" s="137"/>
-      <c r="AN5" s="137"/>
-      <c r="AO5" s="137"/>
-      <c r="AP5" s="137"/>
-      <c r="AQ5" s="137"/>
-      <c r="AR5" s="137"/>
-      <c r="AS5" s="137"/>
-      <c r="AT5" s="137"/>
-      <c r="AU5" s="137"/>
-      <c r="AV5" s="137"/>
-      <c r="AW5" s="137"/>
-      <c r="AX5" s="137"/>
-      <c r="AY5" s="137"/>
-      <c r="AZ5" s="137"/>
-      <c r="BA5" s="137"/>
-      <c r="BB5" s="137"/>
-      <c r="BC5" s="137"/>
-      <c r="BD5" s="137"/>
-      <c r="BE5" s="137"/>
-      <c r="BF5" s="137"/>
-      <c r="BG5" s="137"/>
-      <c r="BH5" s="137"/>
-      <c r="BI5" s="137"/>
-      <c r="BJ5" s="137"/>
-      <c r="BK5" s="137"/>
-      <c r="BL5" s="137"/>
-      <c r="BM5" s="137"/>
-      <c r="BN5" s="131" t="s">
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="113"/>
+      <c r="K5" s="113"/>
+      <c r="L5" s="113"/>
+      <c r="M5" s="113"/>
+      <c r="N5" s="113"/>
+      <c r="O5" s="113"/>
+      <c r="P5" s="113"/>
+      <c r="Q5" s="113"/>
+      <c r="R5" s="113"/>
+      <c r="S5" s="113"/>
+      <c r="T5" s="113"/>
+      <c r="U5" s="113"/>
+      <c r="V5" s="113"/>
+      <c r="W5" s="113"/>
+      <c r="X5" s="113"/>
+      <c r="Y5" s="113"/>
+      <c r="Z5" s="113"/>
+      <c r="AA5" s="113"/>
+      <c r="AB5" s="113"/>
+      <c r="AC5" s="113"/>
+      <c r="AD5" s="113"/>
+      <c r="AE5" s="113"/>
+      <c r="AF5" s="113"/>
+      <c r="AG5" s="113"/>
+      <c r="AH5" s="113"/>
+      <c r="AI5" s="113"/>
+      <c r="AJ5" s="113"/>
+      <c r="AK5" s="113"/>
+      <c r="AL5" s="113"/>
+      <c r="AM5" s="113"/>
+      <c r="AN5" s="113"/>
+      <c r="AO5" s="113"/>
+      <c r="AP5" s="113"/>
+      <c r="AQ5" s="113"/>
+      <c r="AR5" s="113"/>
+      <c r="AS5" s="113"/>
+      <c r="AT5" s="113"/>
+      <c r="AU5" s="113"/>
+      <c r="AV5" s="113"/>
+      <c r="AW5" s="113"/>
+      <c r="AX5" s="113"/>
+      <c r="AY5" s="113"/>
+      <c r="AZ5" s="113"/>
+      <c r="BA5" s="113"/>
+      <c r="BB5" s="113"/>
+      <c r="BC5" s="113"/>
+      <c r="BD5" s="113"/>
+      <c r="BE5" s="113"/>
+      <c r="BF5" s="113"/>
+      <c r="BG5" s="113"/>
+      <c r="BH5" s="113"/>
+      <c r="BI5" s="113"/>
+      <c r="BJ5" s="113"/>
+      <c r="BK5" s="113"/>
+      <c r="BL5" s="113"/>
+      <c r="BM5" s="113"/>
+      <c r="BN5" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="132" t="s">
+      <c r="BO5" s="110" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -1684,107 +1684,107 @@
       <c r="BU5" s="94"/>
     </row>
     <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="132"/>
-      <c r="C6" s="135"/>
-      <c r="D6" s="136"/>
-      <c r="E6" s="132"/>
-      <c r="F6" s="133" t="s">
+      <c r="B6" s="110"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="133"/>
-      <c r="H6" s="133"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="133"/>
-      <c r="K6" s="133" t="s">
+      <c r="G6" s="114"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="114"/>
+      <c r="K6" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="133"/>
-      <c r="M6" s="133"/>
-      <c r="N6" s="133"/>
-      <c r="O6" s="133"/>
-      <c r="P6" s="133" t="s">
+      <c r="L6" s="114"/>
+      <c r="M6" s="114"/>
+      <c r="N6" s="114"/>
+      <c r="O6" s="114"/>
+      <c r="P6" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="133"/>
-      <c r="R6" s="133"/>
-      <c r="S6" s="133"/>
-      <c r="T6" s="133"/>
-      <c r="U6" s="133" t="s">
+      <c r="Q6" s="114"/>
+      <c r="R6" s="114"/>
+      <c r="S6" s="114"/>
+      <c r="T6" s="114"/>
+      <c r="U6" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="133"/>
-      <c r="W6" s="133"/>
-      <c r="X6" s="133"/>
-      <c r="Y6" s="133"/>
-      <c r="Z6" s="133" t="s">
+      <c r="V6" s="114"/>
+      <c r="W6" s="114"/>
+      <c r="X6" s="114"/>
+      <c r="Y6" s="114"/>
+      <c r="Z6" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="133"/>
-      <c r="AB6" s="133"/>
-      <c r="AC6" s="133"/>
-      <c r="AD6" s="133"/>
-      <c r="AE6" s="133" t="s">
+      <c r="AA6" s="114"/>
+      <c r="AB6" s="114"/>
+      <c r="AC6" s="114"/>
+      <c r="AD6" s="114"/>
+      <c r="AE6" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="133"/>
-      <c r="AG6" s="133"/>
-      <c r="AH6" s="133"/>
-      <c r="AI6" s="133"/>
-      <c r="AJ6" s="133" t="s">
+      <c r="AF6" s="114"/>
+      <c r="AG6" s="114"/>
+      <c r="AH6" s="114"/>
+      <c r="AI6" s="114"/>
+      <c r="AJ6" s="114" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="133"/>
-      <c r="AL6" s="133"/>
-      <c r="AM6" s="133"/>
-      <c r="AN6" s="133"/>
-      <c r="AO6" s="133" t="s">
+      <c r="AK6" s="114"/>
+      <c r="AL6" s="114"/>
+      <c r="AM6" s="114"/>
+      <c r="AN6" s="114"/>
+      <c r="AO6" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="133"/>
-      <c r="AQ6" s="133"/>
-      <c r="AR6" s="133"/>
-      <c r="AS6" s="133"/>
-      <c r="AT6" s="133" t="s">
+      <c r="AP6" s="114"/>
+      <c r="AQ6" s="114"/>
+      <c r="AR6" s="114"/>
+      <c r="AS6" s="114"/>
+      <c r="AT6" s="114" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="133"/>
-      <c r="AV6" s="133"/>
-      <c r="AW6" s="133"/>
-      <c r="AX6" s="133"/>
-      <c r="AY6" s="133" t="s">
+      <c r="AU6" s="114"/>
+      <c r="AV6" s="114"/>
+      <c r="AW6" s="114"/>
+      <c r="AX6" s="114"/>
+      <c r="AY6" s="114" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="133"/>
-      <c r="BA6" s="133"/>
-      <c r="BB6" s="133"/>
-      <c r="BC6" s="133"/>
-      <c r="BD6" s="133" t="s">
+      <c r="AZ6" s="114"/>
+      <c r="BA6" s="114"/>
+      <c r="BB6" s="114"/>
+      <c r="BC6" s="114"/>
+      <c r="BD6" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="133"/>
-      <c r="BF6" s="133"/>
-      <c r="BG6" s="133"/>
-      <c r="BH6" s="133"/>
-      <c r="BI6" s="138" t="s">
+      <c r="BE6" s="114"/>
+      <c r="BF6" s="114"/>
+      <c r="BG6" s="114"/>
+      <c r="BH6" s="114"/>
+      <c r="BI6" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="138"/>
-      <c r="BK6" s="138"/>
-      <c r="BL6" s="138"/>
-      <c r="BM6" s="138"/>
-      <c r="BN6" s="131"/>
-      <c r="BO6" s="132"/>
+      <c r="BJ6" s="115"/>
+      <c r="BK6" s="115"/>
+      <c r="BL6" s="115"/>
+      <c r="BM6" s="115"/>
+      <c r="BN6" s="116"/>
+      <c r="BO6" s="110"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="126" t="s">
+      <c r="B7" s="117" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="126"/>
-      <c r="E7" s="127"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="118"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -2809,12 +2809,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="126"/>
+      <c r="B8" s="117"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="126"/>
-      <c r="E8" s="124"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="119"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -3838,14 +3838,14 @@
       <c r="AML8" s="23"/>
     </row>
     <row r="9" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="122" t="s">
+      <c r="B9" s="120" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="123"/>
-      <c r="E9" s="128"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="122"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
       <c r="H9" s="103"/>
@@ -4869,12 +4869,12 @@
       <c r="AML9" s="21"/>
     </row>
     <row r="10" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B10" s="122"/>
+      <c r="B10" s="120"/>
       <c r="C10" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="123"/>
-      <c r="E10" s="129"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="123"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -5898,12 +5898,12 @@
       <c r="AML10" s="21"/>
     </row>
     <row r="11" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="122"/>
+      <c r="B11" s="120"/>
       <c r="C11" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="123"/>
-      <c r="E11" s="129"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="123"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -6927,12 +6927,12 @@
       <c r="AML11" s="21"/>
     </row>
     <row r="12" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="122"/>
+      <c r="B12" s="120"/>
       <c r="C12" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="123"/>
-      <c r="E12" s="130"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="124"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -6997,14 +6997,14 @@
       <c r="BO12" s="31"/>
     </row>
     <row r="13" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B13" s="122" t="s">
+      <c r="B13" s="120" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="123"/>
-      <c r="E13" s="124"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="119"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -7069,12 +7069,12 @@
       <c r="BO13" s="20"/>
     </row>
     <row r="14" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B14" s="122"/>
+      <c r="B14" s="120"/>
       <c r="C14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="123"/>
-      <c r="E14" s="124"/>
+      <c r="D14" s="121"/>
+      <c r="E14" s="119"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -7097,7 +7097,7 @@
       <c r="Y14" s="30"/>
       <c r="Z14" s="29"/>
       <c r="AA14" s="21"/>
-      <c r="AB14" s="21"/>
+      <c r="AB14" s="107"/>
       <c r="AC14" s="21"/>
       <c r="AD14" s="30"/>
       <c r="AE14" s="29"/>
@@ -7139,12 +7139,12 @@
       <c r="BO14" s="31"/>
     </row>
     <row r="15" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="122"/>
+      <c r="B15" s="120"/>
       <c r="C15" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="123"/>
-      <c r="E15" s="124"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="119"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -7167,7 +7167,7 @@
       <c r="Y15" s="30"/>
       <c r="Z15" s="29"/>
       <c r="AA15" s="21"/>
-      <c r="AB15" s="21"/>
+      <c r="AB15" s="107"/>
       <c r="AC15" s="21"/>
       <c r="AD15" s="30"/>
       <c r="AE15" s="29"/>
@@ -7209,12 +7209,12 @@
       <c r="BO15" s="31"/>
     </row>
     <row r="16" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B16" s="122"/>
+      <c r="B16" s="120"/>
       <c r="C16" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="123"/>
-      <c r="E16" s="124"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="119"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -7237,7 +7237,7 @@
       <c r="Y16" s="30"/>
       <c r="Z16" s="29"/>
       <c r="AA16" s="21"/>
-      <c r="AB16" s="21"/>
+      <c r="AB16" s="107"/>
       <c r="AC16" s="21"/>
       <c r="AD16" s="30"/>
       <c r="AE16" s="29"/>
@@ -7279,12 +7279,12 @@
       <c r="BO16" s="31"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B17" s="122"/>
+      <c r="B17" s="120"/>
       <c r="C17" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="123"/>
-      <c r="E17" s="124"/>
+      <c r="D17" s="121"/>
+      <c r="E17" s="119"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -7349,12 +7349,12 @@
       <c r="BO17" s="31"/>
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B18" s="122"/>
+      <c r="B18" s="120"/>
       <c r="C18" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="123"/>
-      <c r="E18" s="124"/>
+      <c r="D18" s="121"/>
+      <c r="E18" s="119"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -7419,12 +7419,12 @@
       <c r="BO18" s="31"/>
     </row>
     <row r="19" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B19" s="122"/>
+      <c r="B19" s="120"/>
       <c r="C19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="123"/>
-      <c r="E19" s="124"/>
+      <c r="D19" s="121"/>
+      <c r="E19" s="119"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -7495,8 +7495,8 @@
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="126"/>
-      <c r="E20" s="115"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="126"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -7565,8 +7565,8 @@
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="126"/>
-      <c r="E21" s="116"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="127"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -7635,8 +7635,8 @@
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="126"/>
-      <c r="E22" s="116"/>
+      <c r="D22" s="117"/>
+      <c r="E22" s="127"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -7705,8 +7705,8 @@
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="126"/>
-      <c r="E23" s="116"/>
+      <c r="D23" s="117"/>
+      <c r="E23" s="127"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -7775,8 +7775,8 @@
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="126"/>
-      <c r="E24" s="116"/>
+      <c r="D24" s="117"/>
+      <c r="E24" s="127"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -7841,14 +7841,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="111" t="s">
+      <c r="B25" s="130" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="114"/>
-      <c r="E25" s="115"/>
+      <c r="D25" s="133"/>
+      <c r="E25" s="126"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -7913,12 +7913,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="112"/>
+      <c r="B26" s="131"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="114"/>
-      <c r="E26" s="116"/>
+      <c r="D26" s="133"/>
+      <c r="E26" s="127"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -7983,12 +7983,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="112"/>
+      <c r="B27" s="131"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="114"/>
-      <c r="E27" s="116"/>
+      <c r="D27" s="133"/>
+      <c r="E27" s="127"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -8053,12 +8053,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="112"/>
+      <c r="B28" s="131"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="114"/>
-      <c r="E28" s="116"/>
+      <c r="D28" s="133"/>
+      <c r="E28" s="127"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -8123,12 +8123,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="113"/>
+      <c r="B29" s="132"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="114"/>
-      <c r="E29" s="117"/>
+      <c r="D29" s="133"/>
+      <c r="E29" s="134"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -8265,10 +8265,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="118"/>
-      <c r="C31" s="115"/>
-      <c r="D31" s="121"/>
-      <c r="E31" s="118"/>
+      <c r="B31" s="135"/>
+      <c r="C31" s="126"/>
+      <c r="D31" s="138"/>
+      <c r="E31" s="135"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -8333,10 +8333,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="119"/>
-      <c r="C32" s="116"/>
-      <c r="D32" s="121"/>
-      <c r="E32" s="119"/>
+      <c r="B32" s="136"/>
+      <c r="C32" s="127"/>
+      <c r="D32" s="138"/>
+      <c r="E32" s="136"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -8401,10 +8401,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="119"/>
-      <c r="C33" s="116"/>
-      <c r="D33" s="121"/>
-      <c r="E33" s="119"/>
+      <c r="B33" s="136"/>
+      <c r="C33" s="127"/>
+      <c r="D33" s="138"/>
+      <c r="E33" s="136"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -8469,10 +8469,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="119"/>
-      <c r="C34" s="116"/>
-      <c r="D34" s="121"/>
-      <c r="E34" s="119"/>
+      <c r="B34" s="136"/>
+      <c r="C34" s="127"/>
+      <c r="D34" s="138"/>
+      <c r="E34" s="136"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -8537,10 +8537,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="119"/>
-      <c r="C35" s="116"/>
-      <c r="D35" s="121"/>
-      <c r="E35" s="119"/>
+      <c r="B35" s="136"/>
+      <c r="C35" s="127"/>
+      <c r="D35" s="138"/>
+      <c r="E35" s="136"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -8605,10 +8605,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="119"/>
-      <c r="C36" s="116"/>
-      <c r="D36" s="121"/>
-      <c r="E36" s="119"/>
+      <c r="B36" s="136"/>
+      <c r="C36" s="127"/>
+      <c r="D36" s="138"/>
+      <c r="E36" s="136"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -8673,10 +8673,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="119"/>
-      <c r="C37" s="116"/>
-      <c r="D37" s="121"/>
-      <c r="E37" s="119"/>
+      <c r="B37" s="136"/>
+      <c r="C37" s="127"/>
+      <c r="D37" s="138"/>
+      <c r="E37" s="136"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -8741,10 +8741,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="119"/>
-      <c r="C38" s="116"/>
-      <c r="D38" s="121"/>
-      <c r="E38" s="119"/>
+      <c r="B38" s="136"/>
+      <c r="C38" s="127"/>
+      <c r="D38" s="138"/>
+      <c r="E38" s="136"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -8809,10 +8809,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="119"/>
-      <c r="C39" s="116"/>
-      <c r="D39" s="121"/>
-      <c r="E39" s="119"/>
+      <c r="B39" s="136"/>
+      <c r="C39" s="127"/>
+      <c r="D39" s="138"/>
+      <c r="E39" s="136"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -8877,10 +8877,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="119"/>
-      <c r="C40" s="116"/>
-      <c r="D40" s="121"/>
-      <c r="E40" s="119"/>
+      <c r="B40" s="136"/>
+      <c r="C40" s="127"/>
+      <c r="D40" s="138"/>
+      <c r="E40" s="136"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -8945,10 +8945,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="119"/>
-      <c r="C41" s="116"/>
-      <c r="D41" s="121"/>
-      <c r="E41" s="119"/>
+      <c r="B41" s="136"/>
+      <c r="C41" s="127"/>
+      <c r="D41" s="138"/>
+      <c r="E41" s="136"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -9013,10 +9013,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="119"/>
-      <c r="C42" s="116"/>
-      <c r="D42" s="121"/>
-      <c r="E42" s="119"/>
+      <c r="B42" s="136"/>
+      <c r="C42" s="127"/>
+      <c r="D42" s="138"/>
+      <c r="E42" s="136"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -9081,10 +9081,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="119"/>
-      <c r="C43" s="116"/>
-      <c r="D43" s="121"/>
-      <c r="E43" s="119"/>
+      <c r="B43" s="136"/>
+      <c r="C43" s="127"/>
+      <c r="D43" s="138"/>
+      <c r="E43" s="136"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -9149,10 +9149,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="119"/>
-      <c r="C44" s="116"/>
-      <c r="D44" s="121"/>
-      <c r="E44" s="119"/>
+      <c r="B44" s="136"/>
+      <c r="C44" s="127"/>
+      <c r="D44" s="138"/>
+      <c r="E44" s="136"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -9217,10 +9217,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="119"/>
-      <c r="C45" s="116"/>
-      <c r="D45" s="121"/>
-      <c r="E45" s="119"/>
+      <c r="B45" s="136"/>
+      <c r="C45" s="127"/>
+      <c r="D45" s="138"/>
+      <c r="E45" s="136"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -9285,10 +9285,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="119"/>
-      <c r="C46" s="116"/>
-      <c r="D46" s="121"/>
-      <c r="E46" s="119"/>
+      <c r="B46" s="136"/>
+      <c r="C46" s="127"/>
+      <c r="D46" s="138"/>
+      <c r="E46" s="136"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -9353,10 +9353,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="119"/>
-      <c r="C47" s="116"/>
-      <c r="D47" s="121"/>
-      <c r="E47" s="119"/>
+      <c r="B47" s="136"/>
+      <c r="C47" s="127"/>
+      <c r="D47" s="138"/>
+      <c r="E47" s="136"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -9421,10 +9421,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="119"/>
-      <c r="C48" s="116"/>
-      <c r="D48" s="121"/>
-      <c r="E48" s="119"/>
+      <c r="B48" s="136"/>
+      <c r="C48" s="127"/>
+      <c r="D48" s="138"/>
+      <c r="E48" s="136"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -9489,10 +9489,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="119"/>
-      <c r="C49" s="116"/>
-      <c r="D49" s="121"/>
-      <c r="E49" s="119"/>
+      <c r="B49" s="136"/>
+      <c r="C49" s="127"/>
+      <c r="D49" s="138"/>
+      <c r="E49" s="136"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -9557,10 +9557,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="119"/>
-      <c r="C50" s="116"/>
-      <c r="D50" s="121"/>
-      <c r="E50" s="119"/>
+      <c r="B50" s="136"/>
+      <c r="C50" s="127"/>
+      <c r="D50" s="138"/>
+      <c r="E50" s="136"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -9625,10 +9625,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="119"/>
-      <c r="C51" s="116"/>
-      <c r="D51" s="121"/>
-      <c r="E51" s="119"/>
+      <c r="B51" s="136"/>
+      <c r="C51" s="127"/>
+      <c r="D51" s="138"/>
+      <c r="E51" s="136"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -9693,10 +9693,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="119"/>
-      <c r="C52" s="116"/>
-      <c r="D52" s="121"/>
-      <c r="E52" s="119"/>
+      <c r="B52" s="136"/>
+      <c r="C52" s="127"/>
+      <c r="D52" s="138"/>
+      <c r="E52" s="136"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -9761,10 +9761,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="119"/>
-      <c r="C53" s="116"/>
-      <c r="D53" s="121"/>
-      <c r="E53" s="119"/>
+      <c r="B53" s="136"/>
+      <c r="C53" s="127"/>
+      <c r="D53" s="138"/>
+      <c r="E53" s="136"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -9829,10 +9829,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="119"/>
-      <c r="C54" s="116"/>
-      <c r="D54" s="121"/>
-      <c r="E54" s="119"/>
+      <c r="B54" s="136"/>
+      <c r="C54" s="127"/>
+      <c r="D54" s="138"/>
+      <c r="E54" s="136"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -9897,10 +9897,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="119"/>
-      <c r="C55" s="116"/>
-      <c r="D55" s="121"/>
-      <c r="E55" s="119"/>
+      <c r="B55" s="136"/>
+      <c r="C55" s="127"/>
+      <c r="D55" s="138"/>
+      <c r="E55" s="136"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -9965,10 +9965,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="119"/>
-      <c r="C56" s="116"/>
-      <c r="D56" s="121"/>
-      <c r="E56" s="119"/>
+      <c r="B56" s="136"/>
+      <c r="C56" s="127"/>
+      <c r="D56" s="138"/>
+      <c r="E56" s="136"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -10033,10 +10033,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="119"/>
-      <c r="C57" s="116"/>
-      <c r="D57" s="121"/>
-      <c r="E57" s="119"/>
+      <c r="B57" s="136"/>
+      <c r="C57" s="127"/>
+      <c r="D57" s="138"/>
+      <c r="E57" s="136"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -10096,10 +10096,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="120"/>
-      <c r="C58" s="117"/>
-      <c r="D58" s="121"/>
-      <c r="E58" s="120"/>
+      <c r="B58" s="137"/>
+      <c r="C58" s="134"/>
+      <c r="D58" s="138"/>
+      <c r="E58" s="137"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -10164,7 +10164,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="109" t="s">
+      <c r="B59" s="128" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -10236,7 +10236,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="109"/>
+      <c r="B60" s="128"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -10306,7 +10306,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="110" t="s">
+      <c r="B61" s="129" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -10378,7 +10378,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="110"/>
+      <c r="B62" s="129"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -10446,7 +10446,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="110"/>
+      <c r="B63" s="129"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -10655,6 +10655,37 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="E31:E58"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="BN5:BN6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="U6:Y6"/>
+    <mergeCell ref="Z6:AD6"/>
+    <mergeCell ref="AE6:AI6"/>
+    <mergeCell ref="AJ6:AN6"/>
+    <mergeCell ref="AO6:AS6"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
@@ -10665,37 +10696,6 @@
     <mergeCell ref="AY6:BC6"/>
     <mergeCell ref="BD6:BH6"/>
     <mergeCell ref="BI6:BM6"/>
-    <mergeCell ref="BN5:BN6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="U6:Y6"/>
-    <mergeCell ref="Z6:AD6"/>
-    <mergeCell ref="AE6:AI6"/>
-    <mergeCell ref="AJ6:AN6"/>
-    <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="E31:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10709,31 +10709,31 @@
       <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="4"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
     <col min="2" max="2" width="28" style="3" customWidth="1"/>
-    <col min="3" max="3" width="65.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="65.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="2" customWidth="1"/>
-    <col min="5" max="5" width="29.125" style="2" customWidth="1"/>
-    <col min="6" max="65" width="2.25" style="3" customWidth="1"/>
-    <col min="66" max="69" width="9.125" style="3"/>
+    <col min="5" max="5" width="29.140625" style="2" customWidth="1"/>
+    <col min="6" max="65" width="2.28515625" style="3" customWidth="1"/>
+    <col min="66" max="69" width="9.140625" style="3"/>
     <col min="70" max="70" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="14.875" style="3" customWidth="1"/>
+    <col min="71" max="71" width="14.85546875" style="3" customWidth="1"/>
     <col min="72" max="72" width="13" style="3" customWidth="1"/>
-    <col min="73" max="73" width="13.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="74" max="1026" width="9.125" style="3"/>
-    <col min="1027" max="16384" width="9.125" style="4"/>
+    <col min="73" max="73" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="74" max="1026" width="9.140625" style="3"/>
+    <col min="1027" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="134" t="s">
+      <c r="B1" s="109" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
     </row>
     <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
@@ -10899,84 +10899,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="132" t="s">
+      <c r="B5" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="135" t="s">
+      <c r="C5" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="136" t="s">
+      <c r="D5" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="132" t="s">
+      <c r="E5" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="137" t="s">
+      <c r="F5" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="137"/>
-      <c r="H5" s="137"/>
-      <c r="I5" s="137"/>
-      <c r="J5" s="137"/>
-      <c r="K5" s="137"/>
-      <c r="L5" s="137"/>
-      <c r="M5" s="137"/>
-      <c r="N5" s="137"/>
-      <c r="O5" s="137"/>
-      <c r="P5" s="137"/>
-      <c r="Q5" s="137"/>
-      <c r="R5" s="137"/>
-      <c r="S5" s="137"/>
-      <c r="T5" s="137"/>
-      <c r="U5" s="137"/>
-      <c r="V5" s="137"/>
-      <c r="W5" s="137"/>
-      <c r="X5" s="137"/>
-      <c r="Y5" s="137"/>
-      <c r="Z5" s="137"/>
-      <c r="AA5" s="137"/>
-      <c r="AB5" s="137"/>
-      <c r="AC5" s="137"/>
-      <c r="AD5" s="137"/>
-      <c r="AE5" s="137"/>
-      <c r="AF5" s="137"/>
-      <c r="AG5" s="137"/>
-      <c r="AH5" s="137"/>
-      <c r="AI5" s="137"/>
-      <c r="AJ5" s="137"/>
-      <c r="AK5" s="137"/>
-      <c r="AL5" s="137"/>
-      <c r="AM5" s="137"/>
-      <c r="AN5" s="137"/>
-      <c r="AO5" s="137"/>
-      <c r="AP5" s="137"/>
-      <c r="AQ5" s="137"/>
-      <c r="AR5" s="137"/>
-      <c r="AS5" s="137"/>
-      <c r="AT5" s="137"/>
-      <c r="AU5" s="137"/>
-      <c r="AV5" s="137"/>
-      <c r="AW5" s="137"/>
-      <c r="AX5" s="137"/>
-      <c r="AY5" s="137"/>
-      <c r="AZ5" s="137"/>
-      <c r="BA5" s="137"/>
-      <c r="BB5" s="137"/>
-      <c r="BC5" s="137"/>
-      <c r="BD5" s="137"/>
-      <c r="BE5" s="137"/>
-      <c r="BF5" s="137"/>
-      <c r="BG5" s="137"/>
-      <c r="BH5" s="137"/>
-      <c r="BI5" s="137"/>
-      <c r="BJ5" s="137"/>
-      <c r="BK5" s="137"/>
-      <c r="BL5" s="137"/>
-      <c r="BM5" s="137"/>
-      <c r="BN5" s="131" t="s">
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="113"/>
+      <c r="K5" s="113"/>
+      <c r="L5" s="113"/>
+      <c r="M5" s="113"/>
+      <c r="N5" s="113"/>
+      <c r="O5" s="113"/>
+      <c r="P5" s="113"/>
+      <c r="Q5" s="113"/>
+      <c r="R5" s="113"/>
+      <c r="S5" s="113"/>
+      <c r="T5" s="113"/>
+      <c r="U5" s="113"/>
+      <c r="V5" s="113"/>
+      <c r="W5" s="113"/>
+      <c r="X5" s="113"/>
+      <c r="Y5" s="113"/>
+      <c r="Z5" s="113"/>
+      <c r="AA5" s="113"/>
+      <c r="AB5" s="113"/>
+      <c r="AC5" s="113"/>
+      <c r="AD5" s="113"/>
+      <c r="AE5" s="113"/>
+      <c r="AF5" s="113"/>
+      <c r="AG5" s="113"/>
+      <c r="AH5" s="113"/>
+      <c r="AI5" s="113"/>
+      <c r="AJ5" s="113"/>
+      <c r="AK5" s="113"/>
+      <c r="AL5" s="113"/>
+      <c r="AM5" s="113"/>
+      <c r="AN5" s="113"/>
+      <c r="AO5" s="113"/>
+      <c r="AP5" s="113"/>
+      <c r="AQ5" s="113"/>
+      <c r="AR5" s="113"/>
+      <c r="AS5" s="113"/>
+      <c r="AT5" s="113"/>
+      <c r="AU5" s="113"/>
+      <c r="AV5" s="113"/>
+      <c r="AW5" s="113"/>
+      <c r="AX5" s="113"/>
+      <c r="AY5" s="113"/>
+      <c r="AZ5" s="113"/>
+      <c r="BA5" s="113"/>
+      <c r="BB5" s="113"/>
+      <c r="BC5" s="113"/>
+      <c r="BD5" s="113"/>
+      <c r="BE5" s="113"/>
+      <c r="BF5" s="113"/>
+      <c r="BG5" s="113"/>
+      <c r="BH5" s="113"/>
+      <c r="BI5" s="113"/>
+      <c r="BJ5" s="113"/>
+      <c r="BK5" s="113"/>
+      <c r="BL5" s="113"/>
+      <c r="BM5" s="113"/>
+      <c r="BN5" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="132" t="s">
+      <c r="BO5" s="110" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -10985,107 +10985,107 @@
       <c r="BU5" s="94"/>
     </row>
     <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="132"/>
-      <c r="C6" s="135"/>
-      <c r="D6" s="136"/>
-      <c r="E6" s="132"/>
-      <c r="F6" s="133" t="s">
+      <c r="B6" s="110"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="133"/>
-      <c r="H6" s="133"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="133"/>
-      <c r="K6" s="133" t="s">
+      <c r="G6" s="114"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="114"/>
+      <c r="K6" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="133"/>
-      <c r="M6" s="133"/>
-      <c r="N6" s="133"/>
-      <c r="O6" s="133"/>
-      <c r="P6" s="133" t="s">
+      <c r="L6" s="114"/>
+      <c r="M6" s="114"/>
+      <c r="N6" s="114"/>
+      <c r="O6" s="114"/>
+      <c r="P6" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="133"/>
-      <c r="R6" s="133"/>
-      <c r="S6" s="133"/>
-      <c r="T6" s="133"/>
-      <c r="U6" s="133" t="s">
+      <c r="Q6" s="114"/>
+      <c r="R6" s="114"/>
+      <c r="S6" s="114"/>
+      <c r="T6" s="114"/>
+      <c r="U6" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="133"/>
-      <c r="W6" s="133"/>
-      <c r="X6" s="133"/>
-      <c r="Y6" s="133"/>
-      <c r="Z6" s="133" t="s">
+      <c r="V6" s="114"/>
+      <c r="W6" s="114"/>
+      <c r="X6" s="114"/>
+      <c r="Y6" s="114"/>
+      <c r="Z6" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="133"/>
-      <c r="AB6" s="133"/>
-      <c r="AC6" s="133"/>
-      <c r="AD6" s="133"/>
-      <c r="AE6" s="133" t="s">
+      <c r="AA6" s="114"/>
+      <c r="AB6" s="114"/>
+      <c r="AC6" s="114"/>
+      <c r="AD6" s="114"/>
+      <c r="AE6" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="133"/>
-      <c r="AG6" s="133"/>
-      <c r="AH6" s="133"/>
-      <c r="AI6" s="133"/>
-      <c r="AJ6" s="133" t="s">
+      <c r="AF6" s="114"/>
+      <c r="AG6" s="114"/>
+      <c r="AH6" s="114"/>
+      <c r="AI6" s="114"/>
+      <c r="AJ6" s="114" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="133"/>
-      <c r="AL6" s="133"/>
-      <c r="AM6" s="133"/>
-      <c r="AN6" s="133"/>
-      <c r="AO6" s="133" t="s">
+      <c r="AK6" s="114"/>
+      <c r="AL6" s="114"/>
+      <c r="AM6" s="114"/>
+      <c r="AN6" s="114"/>
+      <c r="AO6" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="133"/>
-      <c r="AQ6" s="133"/>
-      <c r="AR6" s="133"/>
-      <c r="AS6" s="133"/>
-      <c r="AT6" s="133" t="s">
+      <c r="AP6" s="114"/>
+      <c r="AQ6" s="114"/>
+      <c r="AR6" s="114"/>
+      <c r="AS6" s="114"/>
+      <c r="AT6" s="114" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="133"/>
-      <c r="AV6" s="133"/>
-      <c r="AW6" s="133"/>
-      <c r="AX6" s="133"/>
-      <c r="AY6" s="133" t="s">
+      <c r="AU6" s="114"/>
+      <c r="AV6" s="114"/>
+      <c r="AW6" s="114"/>
+      <c r="AX6" s="114"/>
+      <c r="AY6" s="114" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="133"/>
-      <c r="BA6" s="133"/>
-      <c r="BB6" s="133"/>
-      <c r="BC6" s="133"/>
-      <c r="BD6" s="133" t="s">
+      <c r="AZ6" s="114"/>
+      <c r="BA6" s="114"/>
+      <c r="BB6" s="114"/>
+      <c r="BC6" s="114"/>
+      <c r="BD6" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="133"/>
-      <c r="BF6" s="133"/>
-      <c r="BG6" s="133"/>
-      <c r="BH6" s="133"/>
-      <c r="BI6" s="138" t="s">
+      <c r="BE6" s="114"/>
+      <c r="BF6" s="114"/>
+      <c r="BG6" s="114"/>
+      <c r="BH6" s="114"/>
+      <c r="BI6" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="138"/>
-      <c r="BK6" s="138"/>
-      <c r="BL6" s="138"/>
-      <c r="BM6" s="138"/>
-      <c r="BN6" s="131"/>
-      <c r="BO6" s="132"/>
+      <c r="BJ6" s="115"/>
+      <c r="BK6" s="115"/>
+      <c r="BL6" s="115"/>
+      <c r="BM6" s="115"/>
+      <c r="BN6" s="116"/>
+      <c r="BO6" s="110"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="126" t="s">
+      <c r="B7" s="117" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="126"/>
-      <c r="E7" s="127"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="118"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -12110,12 +12110,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="126"/>
+      <c r="B8" s="117"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="126"/>
-      <c r="E8" s="124"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="119"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -13139,14 +13139,14 @@
       <c r="AML8" s="23"/>
     </row>
     <row r="9" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="122" t="s">
+      <c r="B9" s="120" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="123"/>
-      <c r="E9" s="128"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="122"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
       <c r="H9" s="83"/>
@@ -14170,12 +14170,12 @@
       <c r="AML9" s="21"/>
     </row>
     <row r="10" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B10" s="122"/>
+      <c r="B10" s="120"/>
       <c r="C10" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="123"/>
-      <c r="E10" s="129"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="123"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -15199,12 +15199,12 @@
       <c r="AML10" s="21"/>
     </row>
     <row r="11" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="122"/>
+      <c r="B11" s="120"/>
       <c r="C11" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="123"/>
-      <c r="E11" s="129"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="123"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -16228,12 +16228,12 @@
       <c r="AML11" s="21"/>
     </row>
     <row r="12" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="122"/>
+      <c r="B12" s="120"/>
       <c r="C12" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="123"/>
-      <c r="E12" s="130"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="124"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -16298,14 +16298,14 @@
       <c r="BO12" s="31"/>
     </row>
     <row r="13" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B13" s="122" t="s">
+      <c r="B13" s="120" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="123"/>
-      <c r="E13" s="124"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="119"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -16370,12 +16370,12 @@
       <c r="BO13" s="20"/>
     </row>
     <row r="14" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B14" s="122"/>
+      <c r="B14" s="120"/>
       <c r="C14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="123"/>
-      <c r="E14" s="124"/>
+      <c r="D14" s="121"/>
+      <c r="E14" s="119"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -16440,12 +16440,12 @@
       <c r="BO14" s="31"/>
     </row>
     <row r="15" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="122"/>
+      <c r="B15" s="120"/>
       <c r="C15" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="123"/>
-      <c r="E15" s="124"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="119"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -16510,12 +16510,12 @@
       <c r="BO15" s="31"/>
     </row>
     <row r="16" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B16" s="122"/>
+      <c r="B16" s="120"/>
       <c r="C16" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="123"/>
-      <c r="E16" s="124"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="119"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -16580,12 +16580,12 @@
       <c r="BO16" s="31"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B17" s="122"/>
+      <c r="B17" s="120"/>
       <c r="C17" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="123"/>
-      <c r="E17" s="124"/>
+      <c r="D17" s="121"/>
+      <c r="E17" s="119"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -16650,12 +16650,12 @@
       <c r="BO17" s="31"/>
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B18" s="122"/>
+      <c r="B18" s="120"/>
       <c r="C18" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="123"/>
-      <c r="E18" s="124"/>
+      <c r="D18" s="121"/>
+      <c r="E18" s="119"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -16720,12 +16720,12 @@
       <c r="BO18" s="31"/>
     </row>
     <row r="19" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B19" s="122"/>
+      <c r="B19" s="120"/>
       <c r="C19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="123"/>
-      <c r="E19" s="124"/>
+      <c r="D19" s="121"/>
+      <c r="E19" s="119"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -16796,8 +16796,8 @@
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="126"/>
-      <c r="E20" s="115"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="126"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -16866,8 +16866,8 @@
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="126"/>
-      <c r="E21" s="116"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="127"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -16936,8 +16936,8 @@
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="126"/>
-      <c r="E22" s="116"/>
+      <c r="D22" s="117"/>
+      <c r="E22" s="127"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -17006,8 +17006,8 @@
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="126"/>
-      <c r="E23" s="116"/>
+      <c r="D23" s="117"/>
+      <c r="E23" s="127"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -17076,8 +17076,8 @@
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="126"/>
-      <c r="E24" s="116"/>
+      <c r="D24" s="117"/>
+      <c r="E24" s="127"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -17142,14 +17142,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="111" t="s">
+      <c r="B25" s="130" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="114"/>
-      <c r="E25" s="115"/>
+      <c r="D25" s="133"/>
+      <c r="E25" s="126"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -17214,12 +17214,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="112"/>
+      <c r="B26" s="131"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="114"/>
-      <c r="E26" s="116"/>
+      <c r="D26" s="133"/>
+      <c r="E26" s="127"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -17284,12 +17284,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="112"/>
+      <c r="B27" s="131"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="114"/>
-      <c r="E27" s="116"/>
+      <c r="D27" s="133"/>
+      <c r="E27" s="127"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -17354,12 +17354,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="112"/>
+      <c r="B28" s="131"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="114"/>
-      <c r="E28" s="116"/>
+      <c r="D28" s="133"/>
+      <c r="E28" s="127"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -17424,12 +17424,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="113"/>
+      <c r="B29" s="132"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="114"/>
-      <c r="E29" s="117"/>
+      <c r="D29" s="133"/>
+      <c r="E29" s="134"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -17566,10 +17566,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="118"/>
-      <c r="C31" s="115"/>
-      <c r="D31" s="121"/>
-      <c r="E31" s="118"/>
+      <c r="B31" s="135"/>
+      <c r="C31" s="126"/>
+      <c r="D31" s="138"/>
+      <c r="E31" s="135"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -17634,10 +17634,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="119"/>
-      <c r="C32" s="116"/>
-      <c r="D32" s="121"/>
-      <c r="E32" s="119"/>
+      <c r="B32" s="136"/>
+      <c r="C32" s="127"/>
+      <c r="D32" s="138"/>
+      <c r="E32" s="136"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -17702,10 +17702,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="119"/>
-      <c r="C33" s="116"/>
-      <c r="D33" s="121"/>
-      <c r="E33" s="119"/>
+      <c r="B33" s="136"/>
+      <c r="C33" s="127"/>
+      <c r="D33" s="138"/>
+      <c r="E33" s="136"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -17770,10 +17770,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="119"/>
-      <c r="C34" s="116"/>
-      <c r="D34" s="121"/>
-      <c r="E34" s="119"/>
+      <c r="B34" s="136"/>
+      <c r="C34" s="127"/>
+      <c r="D34" s="138"/>
+      <c r="E34" s="136"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -17838,10 +17838,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="119"/>
-      <c r="C35" s="116"/>
-      <c r="D35" s="121"/>
-      <c r="E35" s="119"/>
+      <c r="B35" s="136"/>
+      <c r="C35" s="127"/>
+      <c r="D35" s="138"/>
+      <c r="E35" s="136"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -17906,10 +17906,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="119"/>
-      <c r="C36" s="116"/>
-      <c r="D36" s="121"/>
-      <c r="E36" s="119"/>
+      <c r="B36" s="136"/>
+      <c r="C36" s="127"/>
+      <c r="D36" s="138"/>
+      <c r="E36" s="136"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -17974,10 +17974,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="119"/>
-      <c r="C37" s="116"/>
-      <c r="D37" s="121"/>
-      <c r="E37" s="119"/>
+      <c r="B37" s="136"/>
+      <c r="C37" s="127"/>
+      <c r="D37" s="138"/>
+      <c r="E37" s="136"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -18042,10 +18042,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="119"/>
-      <c r="C38" s="116"/>
-      <c r="D38" s="121"/>
-      <c r="E38" s="119"/>
+      <c r="B38" s="136"/>
+      <c r="C38" s="127"/>
+      <c r="D38" s="138"/>
+      <c r="E38" s="136"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -18110,10 +18110,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="119"/>
-      <c r="C39" s="116"/>
-      <c r="D39" s="121"/>
-      <c r="E39" s="119"/>
+      <c r="B39" s="136"/>
+      <c r="C39" s="127"/>
+      <c r="D39" s="138"/>
+      <c r="E39" s="136"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -18178,10 +18178,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="119"/>
-      <c r="C40" s="116"/>
-      <c r="D40" s="121"/>
-      <c r="E40" s="119"/>
+      <c r="B40" s="136"/>
+      <c r="C40" s="127"/>
+      <c r="D40" s="138"/>
+      <c r="E40" s="136"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -18246,10 +18246,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="119"/>
-      <c r="C41" s="116"/>
-      <c r="D41" s="121"/>
-      <c r="E41" s="119"/>
+      <c r="B41" s="136"/>
+      <c r="C41" s="127"/>
+      <c r="D41" s="138"/>
+      <c r="E41" s="136"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -18314,10 +18314,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="119"/>
-      <c r="C42" s="116"/>
-      <c r="D42" s="121"/>
-      <c r="E42" s="119"/>
+      <c r="B42" s="136"/>
+      <c r="C42" s="127"/>
+      <c r="D42" s="138"/>
+      <c r="E42" s="136"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -18382,10 +18382,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="119"/>
-      <c r="C43" s="116"/>
-      <c r="D43" s="121"/>
-      <c r="E43" s="119"/>
+      <c r="B43" s="136"/>
+      <c r="C43" s="127"/>
+      <c r="D43" s="138"/>
+      <c r="E43" s="136"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -18450,10 +18450,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="119"/>
-      <c r="C44" s="116"/>
-      <c r="D44" s="121"/>
-      <c r="E44" s="119"/>
+      <c r="B44" s="136"/>
+      <c r="C44" s="127"/>
+      <c r="D44" s="138"/>
+      <c r="E44" s="136"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -18518,10 +18518,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="119"/>
-      <c r="C45" s="116"/>
-      <c r="D45" s="121"/>
-      <c r="E45" s="119"/>
+      <c r="B45" s="136"/>
+      <c r="C45" s="127"/>
+      <c r="D45" s="138"/>
+      <c r="E45" s="136"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -18586,10 +18586,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="119"/>
-      <c r="C46" s="116"/>
-      <c r="D46" s="121"/>
-      <c r="E46" s="119"/>
+      <c r="B46" s="136"/>
+      <c r="C46" s="127"/>
+      <c r="D46" s="138"/>
+      <c r="E46" s="136"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -18654,10 +18654,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="119"/>
-      <c r="C47" s="116"/>
-      <c r="D47" s="121"/>
-      <c r="E47" s="119"/>
+      <c r="B47" s="136"/>
+      <c r="C47" s="127"/>
+      <c r="D47" s="138"/>
+      <c r="E47" s="136"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -18722,10 +18722,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="119"/>
-      <c r="C48" s="116"/>
-      <c r="D48" s="121"/>
-      <c r="E48" s="119"/>
+      <c r="B48" s="136"/>
+      <c r="C48" s="127"/>
+      <c r="D48" s="138"/>
+      <c r="E48" s="136"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -18790,10 +18790,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="119"/>
-      <c r="C49" s="116"/>
-      <c r="D49" s="121"/>
-      <c r="E49" s="119"/>
+      <c r="B49" s="136"/>
+      <c r="C49" s="127"/>
+      <c r="D49" s="138"/>
+      <c r="E49" s="136"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -18858,10 +18858,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="119"/>
-      <c r="C50" s="116"/>
-      <c r="D50" s="121"/>
-      <c r="E50" s="119"/>
+      <c r="B50" s="136"/>
+      <c r="C50" s="127"/>
+      <c r="D50" s="138"/>
+      <c r="E50" s="136"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -18926,10 +18926,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="119"/>
-      <c r="C51" s="116"/>
-      <c r="D51" s="121"/>
-      <c r="E51" s="119"/>
+      <c r="B51" s="136"/>
+      <c r="C51" s="127"/>
+      <c r="D51" s="138"/>
+      <c r="E51" s="136"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -18994,10 +18994,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="119"/>
-      <c r="C52" s="116"/>
-      <c r="D52" s="121"/>
-      <c r="E52" s="119"/>
+      <c r="B52" s="136"/>
+      <c r="C52" s="127"/>
+      <c r="D52" s="138"/>
+      <c r="E52" s="136"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -19062,10 +19062,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="119"/>
-      <c r="C53" s="116"/>
-      <c r="D53" s="121"/>
-      <c r="E53" s="119"/>
+      <c r="B53" s="136"/>
+      <c r="C53" s="127"/>
+      <c r="D53" s="138"/>
+      <c r="E53" s="136"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -19130,10 +19130,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="119"/>
-      <c r="C54" s="116"/>
-      <c r="D54" s="121"/>
-      <c r="E54" s="119"/>
+      <c r="B54" s="136"/>
+      <c r="C54" s="127"/>
+      <c r="D54" s="138"/>
+      <c r="E54" s="136"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -19198,10 +19198,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="119"/>
-      <c r="C55" s="116"/>
-      <c r="D55" s="121"/>
-      <c r="E55" s="119"/>
+      <c r="B55" s="136"/>
+      <c r="C55" s="127"/>
+      <c r="D55" s="138"/>
+      <c r="E55" s="136"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -19266,10 +19266,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="119"/>
-      <c r="C56" s="116"/>
-      <c r="D56" s="121"/>
-      <c r="E56" s="119"/>
+      <c r="B56" s="136"/>
+      <c r="C56" s="127"/>
+      <c r="D56" s="138"/>
+      <c r="E56" s="136"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -19334,10 +19334,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="119"/>
-      <c r="C57" s="116"/>
-      <c r="D57" s="121"/>
-      <c r="E57" s="119"/>
+      <c r="B57" s="136"/>
+      <c r="C57" s="127"/>
+      <c r="D57" s="138"/>
+      <c r="E57" s="136"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -19397,10 +19397,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="120"/>
-      <c r="C58" s="117"/>
-      <c r="D58" s="121"/>
-      <c r="E58" s="120"/>
+      <c r="B58" s="137"/>
+      <c r="C58" s="134"/>
+      <c r="D58" s="138"/>
+      <c r="E58" s="137"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -19465,7 +19465,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="109" t="s">
+      <c r="B59" s="128" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -19537,7 +19537,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="109"/>
+      <c r="B60" s="128"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -19607,7 +19607,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="110" t="s">
+      <c r="B61" s="129" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -19679,7 +19679,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="110"/>
+      <c r="B62" s="129"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -19747,7 +19747,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="110"/>
+      <c r="B63" s="129"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -19956,6 +19956,37 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="E31:E58"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="BN5:BN6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="U6:Y6"/>
+    <mergeCell ref="Z6:AD6"/>
+    <mergeCell ref="AE6:AI6"/>
+    <mergeCell ref="AJ6:AN6"/>
+    <mergeCell ref="AO6:AS6"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
@@ -19966,37 +19997,6 @@
     <mergeCell ref="AY6:BC6"/>
     <mergeCell ref="BD6:BH6"/>
     <mergeCell ref="BI6:BM6"/>
-    <mergeCell ref="BN5:BN6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="U6:Y6"/>
-    <mergeCell ref="Z6:AD6"/>
-    <mergeCell ref="AE6:AI6"/>
-    <mergeCell ref="AJ6:AN6"/>
-    <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="E31:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20010,31 +20010,31 @@
       <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="4"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
     <col min="2" max="2" width="28" style="3" customWidth="1"/>
-    <col min="3" max="3" width="65.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="65.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="2" customWidth="1"/>
-    <col min="5" max="5" width="29.125" style="2" customWidth="1"/>
-    <col min="6" max="65" width="2.25" style="3" customWidth="1"/>
-    <col min="66" max="69" width="9.125" style="3"/>
+    <col min="5" max="5" width="29.140625" style="2" customWidth="1"/>
+    <col min="6" max="65" width="2.28515625" style="3" customWidth="1"/>
+    <col min="66" max="69" width="9.140625" style="3"/>
     <col min="70" max="70" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="14.875" style="3" customWidth="1"/>
+    <col min="71" max="71" width="14.85546875" style="3" customWidth="1"/>
     <col min="72" max="72" width="13" style="3" customWidth="1"/>
-    <col min="73" max="73" width="13.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="74" max="1026" width="9.125" style="3"/>
-    <col min="1027" max="16384" width="9.125" style="4"/>
+    <col min="73" max="73" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="74" max="1026" width="9.140625" style="3"/>
+    <col min="1027" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="134" t="s">
+      <c r="B1" s="109" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
     </row>
     <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
@@ -20200,84 +20200,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="132" t="s">
+      <c r="B5" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="135" t="s">
+      <c r="C5" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="136" t="s">
+      <c r="D5" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="132" t="s">
+      <c r="E5" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="137" t="s">
+      <c r="F5" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="137"/>
-      <c r="H5" s="137"/>
-      <c r="I5" s="137"/>
-      <c r="J5" s="137"/>
-      <c r="K5" s="137"/>
-      <c r="L5" s="137"/>
-      <c r="M5" s="137"/>
-      <c r="N5" s="137"/>
-      <c r="O5" s="137"/>
-      <c r="P5" s="137"/>
-      <c r="Q5" s="137"/>
-      <c r="R5" s="137"/>
-      <c r="S5" s="137"/>
-      <c r="T5" s="137"/>
-      <c r="U5" s="137"/>
-      <c r="V5" s="137"/>
-      <c r="W5" s="137"/>
-      <c r="X5" s="137"/>
-      <c r="Y5" s="137"/>
-      <c r="Z5" s="137"/>
-      <c r="AA5" s="137"/>
-      <c r="AB5" s="137"/>
-      <c r="AC5" s="137"/>
-      <c r="AD5" s="137"/>
-      <c r="AE5" s="137"/>
-      <c r="AF5" s="137"/>
-      <c r="AG5" s="137"/>
-      <c r="AH5" s="137"/>
-      <c r="AI5" s="137"/>
-      <c r="AJ5" s="137"/>
-      <c r="AK5" s="137"/>
-      <c r="AL5" s="137"/>
-      <c r="AM5" s="137"/>
-      <c r="AN5" s="137"/>
-      <c r="AO5" s="137"/>
-      <c r="AP5" s="137"/>
-      <c r="AQ5" s="137"/>
-      <c r="AR5" s="137"/>
-      <c r="AS5" s="137"/>
-      <c r="AT5" s="137"/>
-      <c r="AU5" s="137"/>
-      <c r="AV5" s="137"/>
-      <c r="AW5" s="137"/>
-      <c r="AX5" s="137"/>
-      <c r="AY5" s="137"/>
-      <c r="AZ5" s="137"/>
-      <c r="BA5" s="137"/>
-      <c r="BB5" s="137"/>
-      <c r="BC5" s="137"/>
-      <c r="BD5" s="137"/>
-      <c r="BE5" s="137"/>
-      <c r="BF5" s="137"/>
-      <c r="BG5" s="137"/>
-      <c r="BH5" s="137"/>
-      <c r="BI5" s="137"/>
-      <c r="BJ5" s="137"/>
-      <c r="BK5" s="137"/>
-      <c r="BL5" s="137"/>
-      <c r="BM5" s="137"/>
-      <c r="BN5" s="131" t="s">
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="113"/>
+      <c r="K5" s="113"/>
+      <c r="L5" s="113"/>
+      <c r="M5" s="113"/>
+      <c r="N5" s="113"/>
+      <c r="O5" s="113"/>
+      <c r="P5" s="113"/>
+      <c r="Q5" s="113"/>
+      <c r="R5" s="113"/>
+      <c r="S5" s="113"/>
+      <c r="T5" s="113"/>
+      <c r="U5" s="113"/>
+      <c r="V5" s="113"/>
+      <c r="W5" s="113"/>
+      <c r="X5" s="113"/>
+      <c r="Y5" s="113"/>
+      <c r="Z5" s="113"/>
+      <c r="AA5" s="113"/>
+      <c r="AB5" s="113"/>
+      <c r="AC5" s="113"/>
+      <c r="AD5" s="113"/>
+      <c r="AE5" s="113"/>
+      <c r="AF5" s="113"/>
+      <c r="AG5" s="113"/>
+      <c r="AH5" s="113"/>
+      <c r="AI5" s="113"/>
+      <c r="AJ5" s="113"/>
+      <c r="AK5" s="113"/>
+      <c r="AL5" s="113"/>
+      <c r="AM5" s="113"/>
+      <c r="AN5" s="113"/>
+      <c r="AO5" s="113"/>
+      <c r="AP5" s="113"/>
+      <c r="AQ5" s="113"/>
+      <c r="AR5" s="113"/>
+      <c r="AS5" s="113"/>
+      <c r="AT5" s="113"/>
+      <c r="AU5" s="113"/>
+      <c r="AV5" s="113"/>
+      <c r="AW5" s="113"/>
+      <c r="AX5" s="113"/>
+      <c r="AY5" s="113"/>
+      <c r="AZ5" s="113"/>
+      <c r="BA5" s="113"/>
+      <c r="BB5" s="113"/>
+      <c r="BC5" s="113"/>
+      <c r="BD5" s="113"/>
+      <c r="BE5" s="113"/>
+      <c r="BF5" s="113"/>
+      <c r="BG5" s="113"/>
+      <c r="BH5" s="113"/>
+      <c r="BI5" s="113"/>
+      <c r="BJ5" s="113"/>
+      <c r="BK5" s="113"/>
+      <c r="BL5" s="113"/>
+      <c r="BM5" s="113"/>
+      <c r="BN5" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="132" t="s">
+      <c r="BO5" s="110" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -20286,107 +20286,107 @@
       <c r="BU5" s="94"/>
     </row>
     <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="132"/>
-      <c r="C6" s="135"/>
-      <c r="D6" s="136"/>
-      <c r="E6" s="132"/>
-      <c r="F6" s="133" t="s">
+      <c r="B6" s="110"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="133"/>
-      <c r="H6" s="133"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="133"/>
-      <c r="K6" s="133" t="s">
+      <c r="G6" s="114"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="114"/>
+      <c r="K6" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="133"/>
-      <c r="M6" s="133"/>
-      <c r="N6" s="133"/>
-      <c r="O6" s="133"/>
-      <c r="P6" s="133" t="s">
+      <c r="L6" s="114"/>
+      <c r="M6" s="114"/>
+      <c r="N6" s="114"/>
+      <c r="O6" s="114"/>
+      <c r="P6" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="133"/>
-      <c r="R6" s="133"/>
-      <c r="S6" s="133"/>
-      <c r="T6" s="133"/>
-      <c r="U6" s="133" t="s">
+      <c r="Q6" s="114"/>
+      <c r="R6" s="114"/>
+      <c r="S6" s="114"/>
+      <c r="T6" s="114"/>
+      <c r="U6" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="133"/>
-      <c r="W6" s="133"/>
-      <c r="X6" s="133"/>
-      <c r="Y6" s="133"/>
-      <c r="Z6" s="133" t="s">
+      <c r="V6" s="114"/>
+      <c r="W6" s="114"/>
+      <c r="X6" s="114"/>
+      <c r="Y6" s="114"/>
+      <c r="Z6" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="133"/>
-      <c r="AB6" s="133"/>
-      <c r="AC6" s="133"/>
-      <c r="AD6" s="133"/>
-      <c r="AE6" s="133" t="s">
+      <c r="AA6" s="114"/>
+      <c r="AB6" s="114"/>
+      <c r="AC6" s="114"/>
+      <c r="AD6" s="114"/>
+      <c r="AE6" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="133"/>
-      <c r="AG6" s="133"/>
-      <c r="AH6" s="133"/>
-      <c r="AI6" s="133"/>
-      <c r="AJ6" s="133" t="s">
+      <c r="AF6" s="114"/>
+      <c r="AG6" s="114"/>
+      <c r="AH6" s="114"/>
+      <c r="AI6" s="114"/>
+      <c r="AJ6" s="114" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="133"/>
-      <c r="AL6" s="133"/>
-      <c r="AM6" s="133"/>
-      <c r="AN6" s="133"/>
-      <c r="AO6" s="133" t="s">
+      <c r="AK6" s="114"/>
+      <c r="AL6" s="114"/>
+      <c r="AM6" s="114"/>
+      <c r="AN6" s="114"/>
+      <c r="AO6" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="133"/>
-      <c r="AQ6" s="133"/>
-      <c r="AR6" s="133"/>
-      <c r="AS6" s="133"/>
-      <c r="AT6" s="133" t="s">
+      <c r="AP6" s="114"/>
+      <c r="AQ6" s="114"/>
+      <c r="AR6" s="114"/>
+      <c r="AS6" s="114"/>
+      <c r="AT6" s="114" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="133"/>
-      <c r="AV6" s="133"/>
-      <c r="AW6" s="133"/>
-      <c r="AX6" s="133"/>
-      <c r="AY6" s="133" t="s">
+      <c r="AU6" s="114"/>
+      <c r="AV6" s="114"/>
+      <c r="AW6" s="114"/>
+      <c r="AX6" s="114"/>
+      <c r="AY6" s="114" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="133"/>
-      <c r="BA6" s="133"/>
-      <c r="BB6" s="133"/>
-      <c r="BC6" s="133"/>
-      <c r="BD6" s="133" t="s">
+      <c r="AZ6" s="114"/>
+      <c r="BA6" s="114"/>
+      <c r="BB6" s="114"/>
+      <c r="BC6" s="114"/>
+      <c r="BD6" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="133"/>
-      <c r="BF6" s="133"/>
-      <c r="BG6" s="133"/>
-      <c r="BH6" s="133"/>
-      <c r="BI6" s="138" t="s">
+      <c r="BE6" s="114"/>
+      <c r="BF6" s="114"/>
+      <c r="BG6" s="114"/>
+      <c r="BH6" s="114"/>
+      <c r="BI6" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="138"/>
-      <c r="BK6" s="138"/>
-      <c r="BL6" s="138"/>
-      <c r="BM6" s="138"/>
-      <c r="BN6" s="131"/>
-      <c r="BO6" s="132"/>
+      <c r="BJ6" s="115"/>
+      <c r="BK6" s="115"/>
+      <c r="BL6" s="115"/>
+      <c r="BM6" s="115"/>
+      <c r="BN6" s="116"/>
+      <c r="BO6" s="110"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="126" t="s">
+      <c r="B7" s="117" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="126"/>
-      <c r="E7" s="127"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="118"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -21411,12 +21411,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="126"/>
+      <c r="B8" s="117"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="126"/>
-      <c r="E8" s="124"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="119"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -22440,14 +22440,14 @@
       <c r="AML8" s="23"/>
     </row>
     <row r="9" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="122" t="s">
+      <c r="B9" s="120" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="123"/>
-      <c r="E9" s="128"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="122"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
       <c r="H9" s="83"/>
@@ -23471,12 +23471,12 @@
       <c r="AML9" s="21"/>
     </row>
     <row r="10" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B10" s="122"/>
+      <c r="B10" s="120"/>
       <c r="C10" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="123"/>
-      <c r="E10" s="129"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="123"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -24500,12 +24500,12 @@
       <c r="AML10" s="21"/>
     </row>
     <row r="11" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="122"/>
+      <c r="B11" s="120"/>
       <c r="C11" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="123"/>
-      <c r="E11" s="129"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="123"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -25529,12 +25529,12 @@
       <c r="AML11" s="21"/>
     </row>
     <row r="12" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="122"/>
+      <c r="B12" s="120"/>
       <c r="C12" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="123"/>
-      <c r="E12" s="130"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="124"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -25599,14 +25599,14 @@
       <c r="BO12" s="31"/>
     </row>
     <row r="13" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B13" s="122" t="s">
+      <c r="B13" s="120" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="123"/>
-      <c r="E13" s="124"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="119"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -25671,12 +25671,12 @@
       <c r="BO13" s="20"/>
     </row>
     <row r="14" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B14" s="122"/>
+      <c r="B14" s="120"/>
       <c r="C14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="123"/>
-      <c r="E14" s="124"/>
+      <c r="D14" s="121"/>
+      <c r="E14" s="119"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -25741,12 +25741,12 @@
       <c r="BO14" s="31"/>
     </row>
     <row r="15" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="122"/>
+      <c r="B15" s="120"/>
       <c r="C15" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="123"/>
-      <c r="E15" s="124"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="119"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -25811,12 +25811,12 @@
       <c r="BO15" s="31"/>
     </row>
     <row r="16" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B16" s="122"/>
+      <c r="B16" s="120"/>
       <c r="C16" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="123"/>
-      <c r="E16" s="124"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="119"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -25881,12 +25881,12 @@
       <c r="BO16" s="31"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B17" s="122"/>
+      <c r="B17" s="120"/>
       <c r="C17" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="123"/>
-      <c r="E17" s="124"/>
+      <c r="D17" s="121"/>
+      <c r="E17" s="119"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -25951,12 +25951,12 @@
       <c r="BO17" s="31"/>
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B18" s="122"/>
+      <c r="B18" s="120"/>
       <c r="C18" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="123"/>
-      <c r="E18" s="124"/>
+      <c r="D18" s="121"/>
+      <c r="E18" s="119"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -26021,12 +26021,12 @@
       <c r="BO18" s="31"/>
     </row>
     <row r="19" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B19" s="122"/>
+      <c r="B19" s="120"/>
       <c r="C19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="123"/>
-      <c r="E19" s="124"/>
+      <c r="D19" s="121"/>
+      <c r="E19" s="119"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -26097,8 +26097,8 @@
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="126"/>
-      <c r="E20" s="115"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="126"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -26167,8 +26167,8 @@
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="126"/>
-      <c r="E21" s="116"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="127"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -26237,8 +26237,8 @@
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="126"/>
-      <c r="E22" s="116"/>
+      <c r="D22" s="117"/>
+      <c r="E22" s="127"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -26307,8 +26307,8 @@
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="126"/>
-      <c r="E23" s="116"/>
+      <c r="D23" s="117"/>
+      <c r="E23" s="127"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -26377,8 +26377,8 @@
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="126"/>
-      <c r="E24" s="116"/>
+      <c r="D24" s="117"/>
+      <c r="E24" s="127"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -26443,14 +26443,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="111" t="s">
+      <c r="B25" s="130" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="114"/>
-      <c r="E25" s="115"/>
+      <c r="D25" s="133"/>
+      <c r="E25" s="126"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -26515,12 +26515,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="112"/>
+      <c r="B26" s="131"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="114"/>
-      <c r="E26" s="116"/>
+      <c r="D26" s="133"/>
+      <c r="E26" s="127"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -26585,12 +26585,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="112"/>
+      <c r="B27" s="131"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="114"/>
-      <c r="E27" s="116"/>
+      <c r="D27" s="133"/>
+      <c r="E27" s="127"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -26655,12 +26655,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="112"/>
+      <c r="B28" s="131"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="114"/>
-      <c r="E28" s="116"/>
+      <c r="D28" s="133"/>
+      <c r="E28" s="127"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -26725,12 +26725,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="113"/>
+      <c r="B29" s="132"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="114"/>
-      <c r="E29" s="117"/>
+      <c r="D29" s="133"/>
+      <c r="E29" s="134"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -26867,10 +26867,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="118"/>
-      <c r="C31" s="115"/>
-      <c r="D31" s="121"/>
-      <c r="E31" s="118"/>
+      <c r="B31" s="135"/>
+      <c r="C31" s="126"/>
+      <c r="D31" s="138"/>
+      <c r="E31" s="135"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -26935,10 +26935,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="119"/>
-      <c r="C32" s="116"/>
-      <c r="D32" s="121"/>
-      <c r="E32" s="119"/>
+      <c r="B32" s="136"/>
+      <c r="C32" s="127"/>
+      <c r="D32" s="138"/>
+      <c r="E32" s="136"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -27003,10 +27003,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="119"/>
-      <c r="C33" s="116"/>
-      <c r="D33" s="121"/>
-      <c r="E33" s="119"/>
+      <c r="B33" s="136"/>
+      <c r="C33" s="127"/>
+      <c r="D33" s="138"/>
+      <c r="E33" s="136"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -27071,10 +27071,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="119"/>
-      <c r="C34" s="116"/>
-      <c r="D34" s="121"/>
-      <c r="E34" s="119"/>
+      <c r="B34" s="136"/>
+      <c r="C34" s="127"/>
+      <c r="D34" s="138"/>
+      <c r="E34" s="136"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -27139,10 +27139,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="119"/>
-      <c r="C35" s="116"/>
-      <c r="D35" s="121"/>
-      <c r="E35" s="119"/>
+      <c r="B35" s="136"/>
+      <c r="C35" s="127"/>
+      <c r="D35" s="138"/>
+      <c r="E35" s="136"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -27207,10 +27207,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="119"/>
-      <c r="C36" s="116"/>
-      <c r="D36" s="121"/>
-      <c r="E36" s="119"/>
+      <c r="B36" s="136"/>
+      <c r="C36" s="127"/>
+      <c r="D36" s="138"/>
+      <c r="E36" s="136"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -27275,10 +27275,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="119"/>
-      <c r="C37" s="116"/>
-      <c r="D37" s="121"/>
-      <c r="E37" s="119"/>
+      <c r="B37" s="136"/>
+      <c r="C37" s="127"/>
+      <c r="D37" s="138"/>
+      <c r="E37" s="136"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -27343,10 +27343,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="119"/>
-      <c r="C38" s="116"/>
-      <c r="D38" s="121"/>
-      <c r="E38" s="119"/>
+      <c r="B38" s="136"/>
+      <c r="C38" s="127"/>
+      <c r="D38" s="138"/>
+      <c r="E38" s="136"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -27411,10 +27411,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="119"/>
-      <c r="C39" s="116"/>
-      <c r="D39" s="121"/>
-      <c r="E39" s="119"/>
+      <c r="B39" s="136"/>
+      <c r="C39" s="127"/>
+      <c r="D39" s="138"/>
+      <c r="E39" s="136"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -27479,10 +27479,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="119"/>
-      <c r="C40" s="116"/>
-      <c r="D40" s="121"/>
-      <c r="E40" s="119"/>
+      <c r="B40" s="136"/>
+      <c r="C40" s="127"/>
+      <c r="D40" s="138"/>
+      <c r="E40" s="136"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -27547,10 +27547,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="119"/>
-      <c r="C41" s="116"/>
-      <c r="D41" s="121"/>
-      <c r="E41" s="119"/>
+      <c r="B41" s="136"/>
+      <c r="C41" s="127"/>
+      <c r="D41" s="138"/>
+      <c r="E41" s="136"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -27615,10 +27615,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="119"/>
-      <c r="C42" s="116"/>
-      <c r="D42" s="121"/>
-      <c r="E42" s="119"/>
+      <c r="B42" s="136"/>
+      <c r="C42" s="127"/>
+      <c r="D42" s="138"/>
+      <c r="E42" s="136"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -27683,10 +27683,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="119"/>
-      <c r="C43" s="116"/>
-      <c r="D43" s="121"/>
-      <c r="E43" s="119"/>
+      <c r="B43" s="136"/>
+      <c r="C43" s="127"/>
+      <c r="D43" s="138"/>
+      <c r="E43" s="136"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -27751,10 +27751,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="119"/>
-      <c r="C44" s="116"/>
-      <c r="D44" s="121"/>
-      <c r="E44" s="119"/>
+      <c r="B44" s="136"/>
+      <c r="C44" s="127"/>
+      <c r="D44" s="138"/>
+      <c r="E44" s="136"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -27819,10 +27819,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="119"/>
-      <c r="C45" s="116"/>
-      <c r="D45" s="121"/>
-      <c r="E45" s="119"/>
+      <c r="B45" s="136"/>
+      <c r="C45" s="127"/>
+      <c r="D45" s="138"/>
+      <c r="E45" s="136"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -27887,10 +27887,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="119"/>
-      <c r="C46" s="116"/>
-      <c r="D46" s="121"/>
-      <c r="E46" s="119"/>
+      <c r="B46" s="136"/>
+      <c r="C46" s="127"/>
+      <c r="D46" s="138"/>
+      <c r="E46" s="136"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -27955,10 +27955,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="119"/>
-      <c r="C47" s="116"/>
-      <c r="D47" s="121"/>
-      <c r="E47" s="119"/>
+      <c r="B47" s="136"/>
+      <c r="C47" s="127"/>
+      <c r="D47" s="138"/>
+      <c r="E47" s="136"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -28023,10 +28023,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="119"/>
-      <c r="C48" s="116"/>
-      <c r="D48" s="121"/>
-      <c r="E48" s="119"/>
+      <c r="B48" s="136"/>
+      <c r="C48" s="127"/>
+      <c r="D48" s="138"/>
+      <c r="E48" s="136"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -28091,10 +28091,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="119"/>
-      <c r="C49" s="116"/>
-      <c r="D49" s="121"/>
-      <c r="E49" s="119"/>
+      <c r="B49" s="136"/>
+      <c r="C49" s="127"/>
+      <c r="D49" s="138"/>
+      <c r="E49" s="136"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -28159,10 +28159,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="119"/>
-      <c r="C50" s="116"/>
-      <c r="D50" s="121"/>
-      <c r="E50" s="119"/>
+      <c r="B50" s="136"/>
+      <c r="C50" s="127"/>
+      <c r="D50" s="138"/>
+      <c r="E50" s="136"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -28227,10 +28227,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="119"/>
-      <c r="C51" s="116"/>
-      <c r="D51" s="121"/>
-      <c r="E51" s="119"/>
+      <c r="B51" s="136"/>
+      <c r="C51" s="127"/>
+      <c r="D51" s="138"/>
+      <c r="E51" s="136"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -28295,10 +28295,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="119"/>
-      <c r="C52" s="116"/>
-      <c r="D52" s="121"/>
-      <c r="E52" s="119"/>
+      <c r="B52" s="136"/>
+      <c r="C52" s="127"/>
+      <c r="D52" s="138"/>
+      <c r="E52" s="136"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -28363,10 +28363,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="119"/>
-      <c r="C53" s="116"/>
-      <c r="D53" s="121"/>
-      <c r="E53" s="119"/>
+      <c r="B53" s="136"/>
+      <c r="C53" s="127"/>
+      <c r="D53" s="138"/>
+      <c r="E53" s="136"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -28431,10 +28431,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="119"/>
-      <c r="C54" s="116"/>
-      <c r="D54" s="121"/>
-      <c r="E54" s="119"/>
+      <c r="B54" s="136"/>
+      <c r="C54" s="127"/>
+      <c r="D54" s="138"/>
+      <c r="E54" s="136"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -28499,10 +28499,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="119"/>
-      <c r="C55" s="116"/>
-      <c r="D55" s="121"/>
-      <c r="E55" s="119"/>
+      <c r="B55" s="136"/>
+      <c r="C55" s="127"/>
+      <c r="D55" s="138"/>
+      <c r="E55" s="136"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -28567,10 +28567,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="119"/>
-      <c r="C56" s="116"/>
-      <c r="D56" s="121"/>
-      <c r="E56" s="119"/>
+      <c r="B56" s="136"/>
+      <c r="C56" s="127"/>
+      <c r="D56" s="138"/>
+      <c r="E56" s="136"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -28635,10 +28635,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="119"/>
-      <c r="C57" s="116"/>
-      <c r="D57" s="121"/>
-      <c r="E57" s="119"/>
+      <c r="B57" s="136"/>
+      <c r="C57" s="127"/>
+      <c r="D57" s="138"/>
+      <c r="E57" s="136"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -28698,10 +28698,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="120"/>
-      <c r="C58" s="117"/>
-      <c r="D58" s="121"/>
-      <c r="E58" s="120"/>
+      <c r="B58" s="137"/>
+      <c r="C58" s="134"/>
+      <c r="D58" s="138"/>
+      <c r="E58" s="137"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -28766,7 +28766,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="109" t="s">
+      <c r="B59" s="128" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -28838,7 +28838,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="109"/>
+      <c r="B60" s="128"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -28908,7 +28908,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="110" t="s">
+      <c r="B61" s="129" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -28980,7 +28980,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="110"/>
+      <c r="B62" s="129"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -29048,7 +29048,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="110"/>
+      <c r="B63" s="129"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -29257,6 +29257,37 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="E31:E58"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="BN5:BN6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="U6:Y6"/>
+    <mergeCell ref="Z6:AD6"/>
+    <mergeCell ref="AE6:AI6"/>
+    <mergeCell ref="AJ6:AN6"/>
+    <mergeCell ref="AO6:AS6"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
@@ -29267,37 +29298,6 @@
     <mergeCell ref="AY6:BC6"/>
     <mergeCell ref="BD6:BH6"/>
     <mergeCell ref="BI6:BM6"/>
-    <mergeCell ref="BN5:BN6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="U6:Y6"/>
-    <mergeCell ref="Z6:AD6"/>
-    <mergeCell ref="AE6:AI6"/>
-    <mergeCell ref="AJ6:AN6"/>
-    <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="E31:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -29311,31 +29311,31 @@
       <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="4"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
     <col min="2" max="2" width="28" style="3" customWidth="1"/>
-    <col min="3" max="3" width="65.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="65.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="2" customWidth="1"/>
-    <col min="5" max="5" width="29.125" style="2" customWidth="1"/>
-    <col min="6" max="65" width="2.25" style="3" customWidth="1"/>
-    <col min="66" max="69" width="9.125" style="3"/>
+    <col min="5" max="5" width="29.140625" style="2" customWidth="1"/>
+    <col min="6" max="65" width="2.28515625" style="3" customWidth="1"/>
+    <col min="66" max="69" width="9.140625" style="3"/>
     <col min="70" max="70" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="14.875" style="3" customWidth="1"/>
+    <col min="71" max="71" width="14.85546875" style="3" customWidth="1"/>
     <col min="72" max="72" width="13" style="3" customWidth="1"/>
-    <col min="73" max="73" width="13.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="74" max="1026" width="9.125" style="3"/>
-    <col min="1027" max="16384" width="9.125" style="4"/>
+    <col min="73" max="73" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="74" max="1026" width="9.140625" style="3"/>
+    <col min="1027" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="134" t="s">
+      <c r="B1" s="109" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
     </row>
     <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
@@ -29501,84 +29501,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="132" t="s">
+      <c r="B5" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="135" t="s">
+      <c r="C5" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="136" t="s">
+      <c r="D5" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="132" t="s">
+      <c r="E5" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="137" t="s">
+      <c r="F5" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="137"/>
-      <c r="H5" s="137"/>
-      <c r="I5" s="137"/>
-      <c r="J5" s="137"/>
-      <c r="K5" s="137"/>
-      <c r="L5" s="137"/>
-      <c r="M5" s="137"/>
-      <c r="N5" s="137"/>
-      <c r="O5" s="137"/>
-      <c r="P5" s="137"/>
-      <c r="Q5" s="137"/>
-      <c r="R5" s="137"/>
-      <c r="S5" s="137"/>
-      <c r="T5" s="137"/>
-      <c r="U5" s="137"/>
-      <c r="V5" s="137"/>
-      <c r="W5" s="137"/>
-      <c r="X5" s="137"/>
-      <c r="Y5" s="137"/>
-      <c r="Z5" s="137"/>
-      <c r="AA5" s="137"/>
-      <c r="AB5" s="137"/>
-      <c r="AC5" s="137"/>
-      <c r="AD5" s="137"/>
-      <c r="AE5" s="137"/>
-      <c r="AF5" s="137"/>
-      <c r="AG5" s="137"/>
-      <c r="AH5" s="137"/>
-      <c r="AI5" s="137"/>
-      <c r="AJ5" s="137"/>
-      <c r="AK5" s="137"/>
-      <c r="AL5" s="137"/>
-      <c r="AM5" s="137"/>
-      <c r="AN5" s="137"/>
-      <c r="AO5" s="137"/>
-      <c r="AP5" s="137"/>
-      <c r="AQ5" s="137"/>
-      <c r="AR5" s="137"/>
-      <c r="AS5" s="137"/>
-      <c r="AT5" s="137"/>
-      <c r="AU5" s="137"/>
-      <c r="AV5" s="137"/>
-      <c r="AW5" s="137"/>
-      <c r="AX5" s="137"/>
-      <c r="AY5" s="137"/>
-      <c r="AZ5" s="137"/>
-      <c r="BA5" s="137"/>
-      <c r="BB5" s="137"/>
-      <c r="BC5" s="137"/>
-      <c r="BD5" s="137"/>
-      <c r="BE5" s="137"/>
-      <c r="BF5" s="137"/>
-      <c r="BG5" s="137"/>
-      <c r="BH5" s="137"/>
-      <c r="BI5" s="137"/>
-      <c r="BJ5" s="137"/>
-      <c r="BK5" s="137"/>
-      <c r="BL5" s="137"/>
-      <c r="BM5" s="137"/>
-      <c r="BN5" s="131" t="s">
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="113"/>
+      <c r="K5" s="113"/>
+      <c r="L5" s="113"/>
+      <c r="M5" s="113"/>
+      <c r="N5" s="113"/>
+      <c r="O5" s="113"/>
+      <c r="P5" s="113"/>
+      <c r="Q5" s="113"/>
+      <c r="R5" s="113"/>
+      <c r="S5" s="113"/>
+      <c r="T5" s="113"/>
+      <c r="U5" s="113"/>
+      <c r="V5" s="113"/>
+      <c r="W5" s="113"/>
+      <c r="X5" s="113"/>
+      <c r="Y5" s="113"/>
+      <c r="Z5" s="113"/>
+      <c r="AA5" s="113"/>
+      <c r="AB5" s="113"/>
+      <c r="AC5" s="113"/>
+      <c r="AD5" s="113"/>
+      <c r="AE5" s="113"/>
+      <c r="AF5" s="113"/>
+      <c r="AG5" s="113"/>
+      <c r="AH5" s="113"/>
+      <c r="AI5" s="113"/>
+      <c r="AJ5" s="113"/>
+      <c r="AK5" s="113"/>
+      <c r="AL5" s="113"/>
+      <c r="AM5" s="113"/>
+      <c r="AN5" s="113"/>
+      <c r="AO5" s="113"/>
+      <c r="AP5" s="113"/>
+      <c r="AQ5" s="113"/>
+      <c r="AR5" s="113"/>
+      <c r="AS5" s="113"/>
+      <c r="AT5" s="113"/>
+      <c r="AU5" s="113"/>
+      <c r="AV5" s="113"/>
+      <c r="AW5" s="113"/>
+      <c r="AX5" s="113"/>
+      <c r="AY5" s="113"/>
+      <c r="AZ5" s="113"/>
+      <c r="BA5" s="113"/>
+      <c r="BB5" s="113"/>
+      <c r="BC5" s="113"/>
+      <c r="BD5" s="113"/>
+      <c r="BE5" s="113"/>
+      <c r="BF5" s="113"/>
+      <c r="BG5" s="113"/>
+      <c r="BH5" s="113"/>
+      <c r="BI5" s="113"/>
+      <c r="BJ5" s="113"/>
+      <c r="BK5" s="113"/>
+      <c r="BL5" s="113"/>
+      <c r="BM5" s="113"/>
+      <c r="BN5" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="132" t="s">
+      <c r="BO5" s="110" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -29587,107 +29587,107 @@
       <c r="BU5" s="94"/>
     </row>
     <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="132"/>
-      <c r="C6" s="135"/>
-      <c r="D6" s="136"/>
-      <c r="E6" s="132"/>
-      <c r="F6" s="133" t="s">
+      <c r="B6" s="110"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="133"/>
-      <c r="H6" s="133"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="133"/>
-      <c r="K6" s="133" t="s">
+      <c r="G6" s="114"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="114"/>
+      <c r="K6" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="133"/>
-      <c r="M6" s="133"/>
-      <c r="N6" s="133"/>
-      <c r="O6" s="133"/>
-      <c r="P6" s="133" t="s">
+      <c r="L6" s="114"/>
+      <c r="M6" s="114"/>
+      <c r="N6" s="114"/>
+      <c r="O6" s="114"/>
+      <c r="P6" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="133"/>
-      <c r="R6" s="133"/>
-      <c r="S6" s="133"/>
-      <c r="T6" s="133"/>
-      <c r="U6" s="133" t="s">
+      <c r="Q6" s="114"/>
+      <c r="R6" s="114"/>
+      <c r="S6" s="114"/>
+      <c r="T6" s="114"/>
+      <c r="U6" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="133"/>
-      <c r="W6" s="133"/>
-      <c r="X6" s="133"/>
-      <c r="Y6" s="133"/>
-      <c r="Z6" s="133" t="s">
+      <c r="V6" s="114"/>
+      <c r="W6" s="114"/>
+      <c r="X6" s="114"/>
+      <c r="Y6" s="114"/>
+      <c r="Z6" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="133"/>
-      <c r="AB6" s="133"/>
-      <c r="AC6" s="133"/>
-      <c r="AD6" s="133"/>
-      <c r="AE6" s="133" t="s">
+      <c r="AA6" s="114"/>
+      <c r="AB6" s="114"/>
+      <c r="AC6" s="114"/>
+      <c r="AD6" s="114"/>
+      <c r="AE6" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="133"/>
-      <c r="AG6" s="133"/>
-      <c r="AH6" s="133"/>
-      <c r="AI6" s="133"/>
-      <c r="AJ6" s="133" t="s">
+      <c r="AF6" s="114"/>
+      <c r="AG6" s="114"/>
+      <c r="AH6" s="114"/>
+      <c r="AI6" s="114"/>
+      <c r="AJ6" s="114" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="133"/>
-      <c r="AL6" s="133"/>
-      <c r="AM6" s="133"/>
-      <c r="AN6" s="133"/>
-      <c r="AO6" s="133" t="s">
+      <c r="AK6" s="114"/>
+      <c r="AL6" s="114"/>
+      <c r="AM6" s="114"/>
+      <c r="AN6" s="114"/>
+      <c r="AO6" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="133"/>
-      <c r="AQ6" s="133"/>
-      <c r="AR6" s="133"/>
-      <c r="AS6" s="133"/>
-      <c r="AT6" s="133" t="s">
+      <c r="AP6" s="114"/>
+      <c r="AQ6" s="114"/>
+      <c r="AR6" s="114"/>
+      <c r="AS6" s="114"/>
+      <c r="AT6" s="114" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="133"/>
-      <c r="AV6" s="133"/>
-      <c r="AW6" s="133"/>
-      <c r="AX6" s="133"/>
-      <c r="AY6" s="133" t="s">
+      <c r="AU6" s="114"/>
+      <c r="AV6" s="114"/>
+      <c r="AW6" s="114"/>
+      <c r="AX6" s="114"/>
+      <c r="AY6" s="114" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="133"/>
-      <c r="BA6" s="133"/>
-      <c r="BB6" s="133"/>
-      <c r="BC6" s="133"/>
-      <c r="BD6" s="133" t="s">
+      <c r="AZ6" s="114"/>
+      <c r="BA6" s="114"/>
+      <c r="BB6" s="114"/>
+      <c r="BC6" s="114"/>
+      <c r="BD6" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="133"/>
-      <c r="BF6" s="133"/>
-      <c r="BG6" s="133"/>
-      <c r="BH6" s="133"/>
-      <c r="BI6" s="138" t="s">
+      <c r="BE6" s="114"/>
+      <c r="BF6" s="114"/>
+      <c r="BG6" s="114"/>
+      <c r="BH6" s="114"/>
+      <c r="BI6" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="138"/>
-      <c r="BK6" s="138"/>
-      <c r="BL6" s="138"/>
-      <c r="BM6" s="138"/>
-      <c r="BN6" s="131"/>
-      <c r="BO6" s="132"/>
+      <c r="BJ6" s="115"/>
+      <c r="BK6" s="115"/>
+      <c r="BL6" s="115"/>
+      <c r="BM6" s="115"/>
+      <c r="BN6" s="116"/>
+      <c r="BO6" s="110"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="126" t="s">
+      <c r="B7" s="117" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="126"/>
-      <c r="E7" s="127"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="118"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -30712,12 +30712,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="126"/>
+      <c r="B8" s="117"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="126"/>
-      <c r="E8" s="124"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="119"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -31741,14 +31741,14 @@
       <c r="AML8" s="23"/>
     </row>
     <row r="9" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="122" t="s">
+      <c r="B9" s="120" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="123"/>
-      <c r="E9" s="128"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="122"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
       <c r="H9" s="83"/>
@@ -32772,12 +32772,12 @@
       <c r="AML9" s="21"/>
     </row>
     <row r="10" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B10" s="122"/>
+      <c r="B10" s="120"/>
       <c r="C10" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="123"/>
-      <c r="E10" s="129"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="123"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -33801,12 +33801,12 @@
       <c r="AML10" s="21"/>
     </row>
     <row r="11" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="122"/>
+      <c r="B11" s="120"/>
       <c r="C11" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="123"/>
-      <c r="E11" s="129"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="123"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -34830,12 +34830,12 @@
       <c r="AML11" s="21"/>
     </row>
     <row r="12" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="122"/>
+      <c r="B12" s="120"/>
       <c r="C12" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="123"/>
-      <c r="E12" s="130"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="124"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -34900,14 +34900,14 @@
       <c r="BO12" s="31"/>
     </row>
     <row r="13" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B13" s="122" t="s">
+      <c r="B13" s="120" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="123"/>
-      <c r="E13" s="124"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="119"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -34972,12 +34972,12 @@
       <c r="BO13" s="20"/>
     </row>
     <row r="14" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B14" s="122"/>
+      <c r="B14" s="120"/>
       <c r="C14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="123"/>
-      <c r="E14" s="124"/>
+      <c r="D14" s="121"/>
+      <c r="E14" s="119"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -35042,12 +35042,12 @@
       <c r="BO14" s="31"/>
     </row>
     <row r="15" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="122"/>
+      <c r="B15" s="120"/>
       <c r="C15" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="123"/>
-      <c r="E15" s="124"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="119"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -35112,12 +35112,12 @@
       <c r="BO15" s="31"/>
     </row>
     <row r="16" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B16" s="122"/>
+      <c r="B16" s="120"/>
       <c r="C16" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="123"/>
-      <c r="E16" s="124"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="119"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -35182,12 +35182,12 @@
       <c r="BO16" s="31"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B17" s="122"/>
+      <c r="B17" s="120"/>
       <c r="C17" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="123"/>
-      <c r="E17" s="124"/>
+      <c r="D17" s="121"/>
+      <c r="E17" s="119"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -35252,12 +35252,12 @@
       <c r="BO17" s="31"/>
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B18" s="122"/>
+      <c r="B18" s="120"/>
       <c r="C18" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="123"/>
-      <c r="E18" s="124"/>
+      <c r="D18" s="121"/>
+      <c r="E18" s="119"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -35322,12 +35322,12 @@
       <c r="BO18" s="31"/>
     </row>
     <row r="19" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B19" s="122"/>
+      <c r="B19" s="120"/>
       <c r="C19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="123"/>
-      <c r="E19" s="124"/>
+      <c r="D19" s="121"/>
+      <c r="E19" s="119"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -35398,8 +35398,8 @@
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="126"/>
-      <c r="E20" s="115"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="126"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -35468,8 +35468,8 @@
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="126"/>
-      <c r="E21" s="116"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="127"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -35538,8 +35538,8 @@
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="126"/>
-      <c r="E22" s="116"/>
+      <c r="D22" s="117"/>
+      <c r="E22" s="127"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -35608,8 +35608,8 @@
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="126"/>
-      <c r="E23" s="116"/>
+      <c r="D23" s="117"/>
+      <c r="E23" s="127"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -35678,8 +35678,8 @@
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="126"/>
-      <c r="E24" s="116"/>
+      <c r="D24" s="117"/>
+      <c r="E24" s="127"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -35744,14 +35744,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="111" t="s">
+      <c r="B25" s="130" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="114"/>
-      <c r="E25" s="115"/>
+      <c r="D25" s="133"/>
+      <c r="E25" s="126"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -35816,12 +35816,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="112"/>
+      <c r="B26" s="131"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="114"/>
-      <c r="E26" s="116"/>
+      <c r="D26" s="133"/>
+      <c r="E26" s="127"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -35886,12 +35886,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="112"/>
+      <c r="B27" s="131"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="114"/>
-      <c r="E27" s="116"/>
+      <c r="D27" s="133"/>
+      <c r="E27" s="127"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -35956,12 +35956,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="112"/>
+      <c r="B28" s="131"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="114"/>
-      <c r="E28" s="116"/>
+      <c r="D28" s="133"/>
+      <c r="E28" s="127"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -36026,12 +36026,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="113"/>
+      <c r="B29" s="132"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="114"/>
-      <c r="E29" s="117"/>
+      <c r="D29" s="133"/>
+      <c r="E29" s="134"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -36168,10 +36168,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="118"/>
-      <c r="C31" s="115"/>
-      <c r="D31" s="121"/>
-      <c r="E31" s="118"/>
+      <c r="B31" s="135"/>
+      <c r="C31" s="126"/>
+      <c r="D31" s="138"/>
+      <c r="E31" s="135"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -36236,10 +36236,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="119"/>
-      <c r="C32" s="116"/>
-      <c r="D32" s="121"/>
-      <c r="E32" s="119"/>
+      <c r="B32" s="136"/>
+      <c r="C32" s="127"/>
+      <c r="D32" s="138"/>
+      <c r="E32" s="136"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -36304,10 +36304,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="119"/>
-      <c r="C33" s="116"/>
-      <c r="D33" s="121"/>
-      <c r="E33" s="119"/>
+      <c r="B33" s="136"/>
+      <c r="C33" s="127"/>
+      <c r="D33" s="138"/>
+      <c r="E33" s="136"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -36372,10 +36372,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="119"/>
-      <c r="C34" s="116"/>
-      <c r="D34" s="121"/>
-      <c r="E34" s="119"/>
+      <c r="B34" s="136"/>
+      <c r="C34" s="127"/>
+      <c r="D34" s="138"/>
+      <c r="E34" s="136"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -36440,10 +36440,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="119"/>
-      <c r="C35" s="116"/>
-      <c r="D35" s="121"/>
-      <c r="E35" s="119"/>
+      <c r="B35" s="136"/>
+      <c r="C35" s="127"/>
+      <c r="D35" s="138"/>
+      <c r="E35" s="136"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -36508,10 +36508,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="119"/>
-      <c r="C36" s="116"/>
-      <c r="D36" s="121"/>
-      <c r="E36" s="119"/>
+      <c r="B36" s="136"/>
+      <c r="C36" s="127"/>
+      <c r="D36" s="138"/>
+      <c r="E36" s="136"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -36576,10 +36576,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="119"/>
-      <c r="C37" s="116"/>
-      <c r="D37" s="121"/>
-      <c r="E37" s="119"/>
+      <c r="B37" s="136"/>
+      <c r="C37" s="127"/>
+      <c r="D37" s="138"/>
+      <c r="E37" s="136"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -36644,10 +36644,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="119"/>
-      <c r="C38" s="116"/>
-      <c r="D38" s="121"/>
-      <c r="E38" s="119"/>
+      <c r="B38" s="136"/>
+      <c r="C38" s="127"/>
+      <c r="D38" s="138"/>
+      <c r="E38" s="136"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -36712,10 +36712,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="119"/>
-      <c r="C39" s="116"/>
-      <c r="D39" s="121"/>
-      <c r="E39" s="119"/>
+      <c r="B39" s="136"/>
+      <c r="C39" s="127"/>
+      <c r="D39" s="138"/>
+      <c r="E39" s="136"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -36780,10 +36780,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="119"/>
-      <c r="C40" s="116"/>
-      <c r="D40" s="121"/>
-      <c r="E40" s="119"/>
+      <c r="B40" s="136"/>
+      <c r="C40" s="127"/>
+      <c r="D40" s="138"/>
+      <c r="E40" s="136"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -36848,10 +36848,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="119"/>
-      <c r="C41" s="116"/>
-      <c r="D41" s="121"/>
-      <c r="E41" s="119"/>
+      <c r="B41" s="136"/>
+      <c r="C41" s="127"/>
+      <c r="D41" s="138"/>
+      <c r="E41" s="136"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -36916,10 +36916,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="119"/>
-      <c r="C42" s="116"/>
-      <c r="D42" s="121"/>
-      <c r="E42" s="119"/>
+      <c r="B42" s="136"/>
+      <c r="C42" s="127"/>
+      <c r="D42" s="138"/>
+      <c r="E42" s="136"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -36984,10 +36984,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="119"/>
-      <c r="C43" s="116"/>
-      <c r="D43" s="121"/>
-      <c r="E43" s="119"/>
+      <c r="B43" s="136"/>
+      <c r="C43" s="127"/>
+      <c r="D43" s="138"/>
+      <c r="E43" s="136"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -37052,10 +37052,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="119"/>
-      <c r="C44" s="116"/>
-      <c r="D44" s="121"/>
-      <c r="E44" s="119"/>
+      <c r="B44" s="136"/>
+      <c r="C44" s="127"/>
+      <c r="D44" s="138"/>
+      <c r="E44" s="136"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -37120,10 +37120,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="119"/>
-      <c r="C45" s="116"/>
-      <c r="D45" s="121"/>
-      <c r="E45" s="119"/>
+      <c r="B45" s="136"/>
+      <c r="C45" s="127"/>
+      <c r="D45" s="138"/>
+      <c r="E45" s="136"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -37188,10 +37188,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="119"/>
-      <c r="C46" s="116"/>
-      <c r="D46" s="121"/>
-      <c r="E46" s="119"/>
+      <c r="B46" s="136"/>
+      <c r="C46" s="127"/>
+      <c r="D46" s="138"/>
+      <c r="E46" s="136"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -37256,10 +37256,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="119"/>
-      <c r="C47" s="116"/>
-      <c r="D47" s="121"/>
-      <c r="E47" s="119"/>
+      <c r="B47" s="136"/>
+      <c r="C47" s="127"/>
+      <c r="D47" s="138"/>
+      <c r="E47" s="136"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -37324,10 +37324,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="119"/>
-      <c r="C48" s="116"/>
-      <c r="D48" s="121"/>
-      <c r="E48" s="119"/>
+      <c r="B48" s="136"/>
+      <c r="C48" s="127"/>
+      <c r="D48" s="138"/>
+      <c r="E48" s="136"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -37392,10 +37392,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="119"/>
-      <c r="C49" s="116"/>
-      <c r="D49" s="121"/>
-      <c r="E49" s="119"/>
+      <c r="B49" s="136"/>
+      <c r="C49" s="127"/>
+      <c r="D49" s="138"/>
+      <c r="E49" s="136"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -37460,10 +37460,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="119"/>
-      <c r="C50" s="116"/>
-      <c r="D50" s="121"/>
-      <c r="E50" s="119"/>
+      <c r="B50" s="136"/>
+      <c r="C50" s="127"/>
+      <c r="D50" s="138"/>
+      <c r="E50" s="136"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -37528,10 +37528,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="119"/>
-      <c r="C51" s="116"/>
-      <c r="D51" s="121"/>
-      <c r="E51" s="119"/>
+      <c r="B51" s="136"/>
+      <c r="C51" s="127"/>
+      <c r="D51" s="138"/>
+      <c r="E51" s="136"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -37596,10 +37596,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="119"/>
-      <c r="C52" s="116"/>
-      <c r="D52" s="121"/>
-      <c r="E52" s="119"/>
+      <c r="B52" s="136"/>
+      <c r="C52" s="127"/>
+      <c r="D52" s="138"/>
+      <c r="E52" s="136"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -37664,10 +37664,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="119"/>
-      <c r="C53" s="116"/>
-      <c r="D53" s="121"/>
-      <c r="E53" s="119"/>
+      <c r="B53" s="136"/>
+      <c r="C53" s="127"/>
+      <c r="D53" s="138"/>
+      <c r="E53" s="136"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -37732,10 +37732,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="119"/>
-      <c r="C54" s="116"/>
-      <c r="D54" s="121"/>
-      <c r="E54" s="119"/>
+      <c r="B54" s="136"/>
+      <c r="C54" s="127"/>
+      <c r="D54" s="138"/>
+      <c r="E54" s="136"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -37800,10 +37800,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="119"/>
-      <c r="C55" s="116"/>
-      <c r="D55" s="121"/>
-      <c r="E55" s="119"/>
+      <c r="B55" s="136"/>
+      <c r="C55" s="127"/>
+      <c r="D55" s="138"/>
+      <c r="E55" s="136"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -37868,10 +37868,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="119"/>
-      <c r="C56" s="116"/>
-      <c r="D56" s="121"/>
-      <c r="E56" s="119"/>
+      <c r="B56" s="136"/>
+      <c r="C56" s="127"/>
+      <c r="D56" s="138"/>
+      <c r="E56" s="136"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -37936,10 +37936,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="119"/>
-      <c r="C57" s="116"/>
-      <c r="D57" s="121"/>
-      <c r="E57" s="119"/>
+      <c r="B57" s="136"/>
+      <c r="C57" s="127"/>
+      <c r="D57" s="138"/>
+      <c r="E57" s="136"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -37999,10 +37999,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="120"/>
-      <c r="C58" s="117"/>
-      <c r="D58" s="121"/>
-      <c r="E58" s="120"/>
+      <c r="B58" s="137"/>
+      <c r="C58" s="134"/>
+      <c r="D58" s="138"/>
+      <c r="E58" s="137"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -38067,7 +38067,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="109" t="s">
+      <c r="B59" s="128" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -38139,7 +38139,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="109"/>
+      <c r="B60" s="128"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -38209,7 +38209,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="110" t="s">
+      <c r="B61" s="129" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -38281,7 +38281,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="110"/>
+      <c r="B62" s="129"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -38349,7 +38349,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="110"/>
+      <c r="B63" s="129"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -38558,6 +38558,37 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="E31:E58"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="BN5:BN6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="U6:Y6"/>
+    <mergeCell ref="Z6:AD6"/>
+    <mergeCell ref="AE6:AI6"/>
+    <mergeCell ref="AJ6:AN6"/>
+    <mergeCell ref="AO6:AS6"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
@@ -38568,37 +38599,6 @@
     <mergeCell ref="AY6:BC6"/>
     <mergeCell ref="BD6:BH6"/>
     <mergeCell ref="BI6:BM6"/>
-    <mergeCell ref="BN5:BN6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="U6:Y6"/>
-    <mergeCell ref="Z6:AD6"/>
-    <mergeCell ref="AE6:AI6"/>
-    <mergeCell ref="AJ6:AN6"/>
-    <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="E31:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -38612,31 +38612,31 @@
       <selection activeCell="AB14" sqref="AB14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="4"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
     <col min="2" max="2" width="28" style="3" customWidth="1"/>
-    <col min="3" max="3" width="65.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="65.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="2" customWidth="1"/>
-    <col min="5" max="5" width="29.125" style="2" customWidth="1"/>
-    <col min="6" max="65" width="2.25" style="3" customWidth="1"/>
-    <col min="66" max="69" width="9.125" style="3"/>
+    <col min="5" max="5" width="29.140625" style="2" customWidth="1"/>
+    <col min="6" max="65" width="2.28515625" style="3" customWidth="1"/>
+    <col min="66" max="69" width="9.140625" style="3"/>
     <col min="70" max="70" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="14.875" style="3" customWidth="1"/>
+    <col min="71" max="71" width="14.85546875" style="3" customWidth="1"/>
     <col min="72" max="72" width="13" style="3" customWidth="1"/>
-    <col min="73" max="73" width="13.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="74" max="1026" width="9.125" style="3"/>
-    <col min="1027" max="16384" width="9.125" style="4"/>
+    <col min="73" max="73" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="74" max="1026" width="9.140625" style="3"/>
+    <col min="1027" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="134" t="s">
+      <c r="B1" s="109" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
     </row>
     <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
@@ -38802,84 +38802,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="132" t="s">
+      <c r="B5" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="135" t="s">
+      <c r="C5" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="136" t="s">
+      <c r="D5" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="132" t="s">
+      <c r="E5" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="137" t="s">
+      <c r="F5" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="137"/>
-      <c r="H5" s="137"/>
-      <c r="I5" s="137"/>
-      <c r="J5" s="137"/>
-      <c r="K5" s="137"/>
-      <c r="L5" s="137"/>
-      <c r="M5" s="137"/>
-      <c r="N5" s="137"/>
-      <c r="O5" s="137"/>
-      <c r="P5" s="137"/>
-      <c r="Q5" s="137"/>
-      <c r="R5" s="137"/>
-      <c r="S5" s="137"/>
-      <c r="T5" s="137"/>
-      <c r="U5" s="137"/>
-      <c r="V5" s="137"/>
-      <c r="W5" s="137"/>
-      <c r="X5" s="137"/>
-      <c r="Y5" s="137"/>
-      <c r="Z5" s="137"/>
-      <c r="AA5" s="137"/>
-      <c r="AB5" s="137"/>
-      <c r="AC5" s="137"/>
-      <c r="AD5" s="137"/>
-      <c r="AE5" s="137"/>
-      <c r="AF5" s="137"/>
-      <c r="AG5" s="137"/>
-      <c r="AH5" s="137"/>
-      <c r="AI5" s="137"/>
-      <c r="AJ5" s="137"/>
-      <c r="AK5" s="137"/>
-      <c r="AL5" s="137"/>
-      <c r="AM5" s="137"/>
-      <c r="AN5" s="137"/>
-      <c r="AO5" s="137"/>
-      <c r="AP5" s="137"/>
-      <c r="AQ5" s="137"/>
-      <c r="AR5" s="137"/>
-      <c r="AS5" s="137"/>
-      <c r="AT5" s="137"/>
-      <c r="AU5" s="137"/>
-      <c r="AV5" s="137"/>
-      <c r="AW5" s="137"/>
-      <c r="AX5" s="137"/>
-      <c r="AY5" s="137"/>
-      <c r="AZ5" s="137"/>
-      <c r="BA5" s="137"/>
-      <c r="BB5" s="137"/>
-      <c r="BC5" s="137"/>
-      <c r="BD5" s="137"/>
-      <c r="BE5" s="137"/>
-      <c r="BF5" s="137"/>
-      <c r="BG5" s="137"/>
-      <c r="BH5" s="137"/>
-      <c r="BI5" s="137"/>
-      <c r="BJ5" s="137"/>
-      <c r="BK5" s="137"/>
-      <c r="BL5" s="137"/>
-      <c r="BM5" s="137"/>
-      <c r="BN5" s="131" t="s">
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="113"/>
+      <c r="K5" s="113"/>
+      <c r="L5" s="113"/>
+      <c r="M5" s="113"/>
+      <c r="N5" s="113"/>
+      <c r="O5" s="113"/>
+      <c r="P5" s="113"/>
+      <c r="Q5" s="113"/>
+      <c r="R5" s="113"/>
+      <c r="S5" s="113"/>
+      <c r="T5" s="113"/>
+      <c r="U5" s="113"/>
+      <c r="V5" s="113"/>
+      <c r="W5" s="113"/>
+      <c r="X5" s="113"/>
+      <c r="Y5" s="113"/>
+      <c r="Z5" s="113"/>
+      <c r="AA5" s="113"/>
+      <c r="AB5" s="113"/>
+      <c r="AC5" s="113"/>
+      <c r="AD5" s="113"/>
+      <c r="AE5" s="113"/>
+      <c r="AF5" s="113"/>
+      <c r="AG5" s="113"/>
+      <c r="AH5" s="113"/>
+      <c r="AI5" s="113"/>
+      <c r="AJ5" s="113"/>
+      <c r="AK5" s="113"/>
+      <c r="AL5" s="113"/>
+      <c r="AM5" s="113"/>
+      <c r="AN5" s="113"/>
+      <c r="AO5" s="113"/>
+      <c r="AP5" s="113"/>
+      <c r="AQ5" s="113"/>
+      <c r="AR5" s="113"/>
+      <c r="AS5" s="113"/>
+      <c r="AT5" s="113"/>
+      <c r="AU5" s="113"/>
+      <c r="AV5" s="113"/>
+      <c r="AW5" s="113"/>
+      <c r="AX5" s="113"/>
+      <c r="AY5" s="113"/>
+      <c r="AZ5" s="113"/>
+      <c r="BA5" s="113"/>
+      <c r="BB5" s="113"/>
+      <c r="BC5" s="113"/>
+      <c r="BD5" s="113"/>
+      <c r="BE5" s="113"/>
+      <c r="BF5" s="113"/>
+      <c r="BG5" s="113"/>
+      <c r="BH5" s="113"/>
+      <c r="BI5" s="113"/>
+      <c r="BJ5" s="113"/>
+      <c r="BK5" s="113"/>
+      <c r="BL5" s="113"/>
+      <c r="BM5" s="113"/>
+      <c r="BN5" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="132" t="s">
+      <c r="BO5" s="110" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -38888,107 +38888,107 @@
       <c r="BU5" s="94"/>
     </row>
     <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="132"/>
-      <c r="C6" s="135"/>
-      <c r="D6" s="136"/>
-      <c r="E6" s="132"/>
-      <c r="F6" s="133" t="s">
+      <c r="B6" s="110"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="133"/>
-      <c r="H6" s="133"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="133"/>
-      <c r="K6" s="133" t="s">
+      <c r="G6" s="114"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="114"/>
+      <c r="K6" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="133"/>
-      <c r="M6" s="133"/>
-      <c r="N6" s="133"/>
-      <c r="O6" s="133"/>
-      <c r="P6" s="133" t="s">
+      <c r="L6" s="114"/>
+      <c r="M6" s="114"/>
+      <c r="N6" s="114"/>
+      <c r="O6" s="114"/>
+      <c r="P6" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="133"/>
-      <c r="R6" s="133"/>
-      <c r="S6" s="133"/>
-      <c r="T6" s="133"/>
-      <c r="U6" s="133" t="s">
+      <c r="Q6" s="114"/>
+      <c r="R6" s="114"/>
+      <c r="S6" s="114"/>
+      <c r="T6" s="114"/>
+      <c r="U6" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="133"/>
-      <c r="W6" s="133"/>
-      <c r="X6" s="133"/>
-      <c r="Y6" s="133"/>
-      <c r="Z6" s="133" t="s">
+      <c r="V6" s="114"/>
+      <c r="W6" s="114"/>
+      <c r="X6" s="114"/>
+      <c r="Y6" s="114"/>
+      <c r="Z6" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="133"/>
-      <c r="AB6" s="133"/>
-      <c r="AC6" s="133"/>
-      <c r="AD6" s="133"/>
-      <c r="AE6" s="133" t="s">
+      <c r="AA6" s="114"/>
+      <c r="AB6" s="114"/>
+      <c r="AC6" s="114"/>
+      <c r="AD6" s="114"/>
+      <c r="AE6" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="133"/>
-      <c r="AG6" s="133"/>
-      <c r="AH6" s="133"/>
-      <c r="AI6" s="133"/>
-      <c r="AJ6" s="133" t="s">
+      <c r="AF6" s="114"/>
+      <c r="AG6" s="114"/>
+      <c r="AH6" s="114"/>
+      <c r="AI6" s="114"/>
+      <c r="AJ6" s="114" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="133"/>
-      <c r="AL6" s="133"/>
-      <c r="AM6" s="133"/>
-      <c r="AN6" s="133"/>
-      <c r="AO6" s="133" t="s">
+      <c r="AK6" s="114"/>
+      <c r="AL6" s="114"/>
+      <c r="AM6" s="114"/>
+      <c r="AN6" s="114"/>
+      <c r="AO6" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="133"/>
-      <c r="AQ6" s="133"/>
-      <c r="AR6" s="133"/>
-      <c r="AS6" s="133"/>
-      <c r="AT6" s="133" t="s">
+      <c r="AP6" s="114"/>
+      <c r="AQ6" s="114"/>
+      <c r="AR6" s="114"/>
+      <c r="AS6" s="114"/>
+      <c r="AT6" s="114" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="133"/>
-      <c r="AV6" s="133"/>
-      <c r="AW6" s="133"/>
-      <c r="AX6" s="133"/>
-      <c r="AY6" s="133" t="s">
+      <c r="AU6" s="114"/>
+      <c r="AV6" s="114"/>
+      <c r="AW6" s="114"/>
+      <c r="AX6" s="114"/>
+      <c r="AY6" s="114" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="133"/>
-      <c r="BA6" s="133"/>
-      <c r="BB6" s="133"/>
-      <c r="BC6" s="133"/>
-      <c r="BD6" s="133" t="s">
+      <c r="AZ6" s="114"/>
+      <c r="BA6" s="114"/>
+      <c r="BB6" s="114"/>
+      <c r="BC6" s="114"/>
+      <c r="BD6" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="133"/>
-      <c r="BF6" s="133"/>
-      <c r="BG6" s="133"/>
-      <c r="BH6" s="133"/>
-      <c r="BI6" s="138" t="s">
+      <c r="BE6" s="114"/>
+      <c r="BF6" s="114"/>
+      <c r="BG6" s="114"/>
+      <c r="BH6" s="114"/>
+      <c r="BI6" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="138"/>
-      <c r="BK6" s="138"/>
-      <c r="BL6" s="138"/>
-      <c r="BM6" s="138"/>
-      <c r="BN6" s="131"/>
-      <c r="BO6" s="132"/>
+      <c r="BJ6" s="115"/>
+      <c r="BK6" s="115"/>
+      <c r="BL6" s="115"/>
+      <c r="BM6" s="115"/>
+      <c r="BN6" s="116"/>
+      <c r="BO6" s="110"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="126" t="s">
+      <c r="B7" s="117" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="126"/>
-      <c r="E7" s="127"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="118"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -40013,12 +40013,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="126"/>
+      <c r="B8" s="117"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="126"/>
-      <c r="E8" s="124"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="119"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -41042,14 +41042,14 @@
       <c r="AML8" s="23"/>
     </row>
     <row r="9" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="122" t="s">
+      <c r="B9" s="120" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="123"/>
-      <c r="E9" s="128"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="122"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
       <c r="H9" s="100"/>
@@ -42073,12 +42073,12 @@
       <c r="AML9" s="21"/>
     </row>
     <row r="10" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B10" s="122"/>
+      <c r="B10" s="120"/>
       <c r="C10" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="123"/>
-      <c r="E10" s="129"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="123"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -43102,12 +43102,12 @@
       <c r="AML10" s="21"/>
     </row>
     <row r="11" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="122"/>
+      <c r="B11" s="120"/>
       <c r="C11" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="123"/>
-      <c r="E11" s="129"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="123"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -44131,12 +44131,12 @@
       <c r="AML11" s="21"/>
     </row>
     <row r="12" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="122"/>
+      <c r="B12" s="120"/>
       <c r="C12" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="123"/>
-      <c r="E12" s="130"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="124"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -44201,14 +44201,14 @@
       <c r="BO12" s="31"/>
     </row>
     <row r="13" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B13" s="122" t="s">
+      <c r="B13" s="120" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="123"/>
-      <c r="E13" s="124"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="119"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -44273,12 +44273,12 @@
       <c r="BO13" s="20"/>
     </row>
     <row r="14" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B14" s="122"/>
+      <c r="B14" s="120"/>
       <c r="C14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="123"/>
-      <c r="E14" s="124"/>
+      <c r="D14" s="121"/>
+      <c r="E14" s="119"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -44343,12 +44343,12 @@
       <c r="BO14" s="31"/>
     </row>
     <row r="15" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="122"/>
+      <c r="B15" s="120"/>
       <c r="C15" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="123"/>
-      <c r="E15" s="124"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="119"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -44413,12 +44413,12 @@
       <c r="BO15" s="31"/>
     </row>
     <row r="16" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B16" s="122"/>
+      <c r="B16" s="120"/>
       <c r="C16" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="123"/>
-      <c r="E16" s="124"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="119"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -44483,12 +44483,12 @@
       <c r="BO16" s="31"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B17" s="122"/>
+      <c r="B17" s="120"/>
       <c r="C17" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="123"/>
-      <c r="E17" s="124"/>
+      <c r="D17" s="121"/>
+      <c r="E17" s="119"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -44553,12 +44553,12 @@
       <c r="BO17" s="31"/>
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B18" s="122"/>
+      <c r="B18" s="120"/>
       <c r="C18" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="123"/>
-      <c r="E18" s="124"/>
+      <c r="D18" s="121"/>
+      <c r="E18" s="119"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -44623,12 +44623,12 @@
       <c r="BO18" s="31"/>
     </row>
     <row r="19" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B19" s="122"/>
+      <c r="B19" s="120"/>
       <c r="C19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="123"/>
-      <c r="E19" s="124"/>
+      <c r="D19" s="121"/>
+      <c r="E19" s="119"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -44699,8 +44699,8 @@
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="126"/>
-      <c r="E20" s="115"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="126"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -44769,8 +44769,8 @@
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="126"/>
-      <c r="E21" s="116"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="127"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -44839,8 +44839,8 @@
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="126"/>
-      <c r="E22" s="116"/>
+      <c r="D22" s="117"/>
+      <c r="E22" s="127"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -44909,8 +44909,8 @@
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="126"/>
-      <c r="E23" s="116"/>
+      <c r="D23" s="117"/>
+      <c r="E23" s="127"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -44979,8 +44979,8 @@
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="126"/>
-      <c r="E24" s="116"/>
+      <c r="D24" s="117"/>
+      <c r="E24" s="127"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -45045,14 +45045,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="111" t="s">
+      <c r="B25" s="130" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="114"/>
-      <c r="E25" s="115"/>
+      <c r="D25" s="133"/>
+      <c r="E25" s="126"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -45117,12 +45117,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="112"/>
+      <c r="B26" s="131"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="114"/>
-      <c r="E26" s="116"/>
+      <c r="D26" s="133"/>
+      <c r="E26" s="127"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -45187,12 +45187,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="112"/>
+      <c r="B27" s="131"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="114"/>
-      <c r="E27" s="116"/>
+      <c r="D27" s="133"/>
+      <c r="E27" s="127"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -45257,12 +45257,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="112"/>
+      <c r="B28" s="131"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="114"/>
-      <c r="E28" s="116"/>
+      <c r="D28" s="133"/>
+      <c r="E28" s="127"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -45327,12 +45327,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="113"/>
+      <c r="B29" s="132"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="114"/>
-      <c r="E29" s="117"/>
+      <c r="D29" s="133"/>
+      <c r="E29" s="134"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -45469,10 +45469,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="118"/>
-      <c r="C31" s="115"/>
-      <c r="D31" s="121"/>
-      <c r="E31" s="118"/>
+      <c r="B31" s="135"/>
+      <c r="C31" s="126"/>
+      <c r="D31" s="138"/>
+      <c r="E31" s="135"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -45537,10 +45537,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="119"/>
-      <c r="C32" s="116"/>
-      <c r="D32" s="121"/>
-      <c r="E32" s="119"/>
+      <c r="B32" s="136"/>
+      <c r="C32" s="127"/>
+      <c r="D32" s="138"/>
+      <c r="E32" s="136"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -45605,10 +45605,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="119"/>
-      <c r="C33" s="116"/>
-      <c r="D33" s="121"/>
-      <c r="E33" s="119"/>
+      <c r="B33" s="136"/>
+      <c r="C33" s="127"/>
+      <c r="D33" s="138"/>
+      <c r="E33" s="136"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -45673,10 +45673,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="119"/>
-      <c r="C34" s="116"/>
-      <c r="D34" s="121"/>
-      <c r="E34" s="119"/>
+      <c r="B34" s="136"/>
+      <c r="C34" s="127"/>
+      <c r="D34" s="138"/>
+      <c r="E34" s="136"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -45741,10 +45741,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="119"/>
-      <c r="C35" s="116"/>
-      <c r="D35" s="121"/>
-      <c r="E35" s="119"/>
+      <c r="B35" s="136"/>
+      <c r="C35" s="127"/>
+      <c r="D35" s="138"/>
+      <c r="E35" s="136"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -45809,10 +45809,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="119"/>
-      <c r="C36" s="116"/>
-      <c r="D36" s="121"/>
-      <c r="E36" s="119"/>
+      <c r="B36" s="136"/>
+      <c r="C36" s="127"/>
+      <c r="D36" s="138"/>
+      <c r="E36" s="136"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -45877,10 +45877,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="119"/>
-      <c r="C37" s="116"/>
-      <c r="D37" s="121"/>
-      <c r="E37" s="119"/>
+      <c r="B37" s="136"/>
+      <c r="C37" s="127"/>
+      <c r="D37" s="138"/>
+      <c r="E37" s="136"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -45945,10 +45945,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="119"/>
-      <c r="C38" s="116"/>
-      <c r="D38" s="121"/>
-      <c r="E38" s="119"/>
+      <c r="B38" s="136"/>
+      <c r="C38" s="127"/>
+      <c r="D38" s="138"/>
+      <c r="E38" s="136"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -46013,10 +46013,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="119"/>
-      <c r="C39" s="116"/>
-      <c r="D39" s="121"/>
-      <c r="E39" s="119"/>
+      <c r="B39" s="136"/>
+      <c r="C39" s="127"/>
+      <c r="D39" s="138"/>
+      <c r="E39" s="136"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -46081,10 +46081,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="119"/>
-      <c r="C40" s="116"/>
-      <c r="D40" s="121"/>
-      <c r="E40" s="119"/>
+      <c r="B40" s="136"/>
+      <c r="C40" s="127"/>
+      <c r="D40" s="138"/>
+      <c r="E40" s="136"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -46149,10 +46149,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="119"/>
-      <c r="C41" s="116"/>
-      <c r="D41" s="121"/>
-      <c r="E41" s="119"/>
+      <c r="B41" s="136"/>
+      <c r="C41" s="127"/>
+      <c r="D41" s="138"/>
+      <c r="E41" s="136"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -46217,10 +46217,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="119"/>
-      <c r="C42" s="116"/>
-      <c r="D42" s="121"/>
-      <c r="E42" s="119"/>
+      <c r="B42" s="136"/>
+      <c r="C42" s="127"/>
+      <c r="D42" s="138"/>
+      <c r="E42" s="136"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -46285,10 +46285,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="119"/>
-      <c r="C43" s="116"/>
-      <c r="D43" s="121"/>
-      <c r="E43" s="119"/>
+      <c r="B43" s="136"/>
+      <c r="C43" s="127"/>
+      <c r="D43" s="138"/>
+      <c r="E43" s="136"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -46353,10 +46353,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="119"/>
-      <c r="C44" s="116"/>
-      <c r="D44" s="121"/>
-      <c r="E44" s="119"/>
+      <c r="B44" s="136"/>
+      <c r="C44" s="127"/>
+      <c r="D44" s="138"/>
+      <c r="E44" s="136"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -46421,10 +46421,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="119"/>
-      <c r="C45" s="116"/>
-      <c r="D45" s="121"/>
-      <c r="E45" s="119"/>
+      <c r="B45" s="136"/>
+      <c r="C45" s="127"/>
+      <c r="D45" s="138"/>
+      <c r="E45" s="136"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -46489,10 +46489,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="119"/>
-      <c r="C46" s="116"/>
-      <c r="D46" s="121"/>
-      <c r="E46" s="119"/>
+      <c r="B46" s="136"/>
+      <c r="C46" s="127"/>
+      <c r="D46" s="138"/>
+      <c r="E46" s="136"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -46557,10 +46557,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="119"/>
-      <c r="C47" s="116"/>
-      <c r="D47" s="121"/>
-      <c r="E47" s="119"/>
+      <c r="B47" s="136"/>
+      <c r="C47" s="127"/>
+      <c r="D47" s="138"/>
+      <c r="E47" s="136"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -46625,10 +46625,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="119"/>
-      <c r="C48" s="116"/>
-      <c r="D48" s="121"/>
-      <c r="E48" s="119"/>
+      <c r="B48" s="136"/>
+      <c r="C48" s="127"/>
+      <c r="D48" s="138"/>
+      <c r="E48" s="136"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -46693,10 +46693,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="119"/>
-      <c r="C49" s="116"/>
-      <c r="D49" s="121"/>
-      <c r="E49" s="119"/>
+      <c r="B49" s="136"/>
+      <c r="C49" s="127"/>
+      <c r="D49" s="138"/>
+      <c r="E49" s="136"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -46761,10 +46761,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="119"/>
-      <c r="C50" s="116"/>
-      <c r="D50" s="121"/>
-      <c r="E50" s="119"/>
+      <c r="B50" s="136"/>
+      <c r="C50" s="127"/>
+      <c r="D50" s="138"/>
+      <c r="E50" s="136"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -46829,10 +46829,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="119"/>
-      <c r="C51" s="116"/>
-      <c r="D51" s="121"/>
-      <c r="E51" s="119"/>
+      <c r="B51" s="136"/>
+      <c r="C51" s="127"/>
+      <c r="D51" s="138"/>
+      <c r="E51" s="136"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -46897,10 +46897,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="119"/>
-      <c r="C52" s="116"/>
-      <c r="D52" s="121"/>
-      <c r="E52" s="119"/>
+      <c r="B52" s="136"/>
+      <c r="C52" s="127"/>
+      <c r="D52" s="138"/>
+      <c r="E52" s="136"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -46965,10 +46965,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="119"/>
-      <c r="C53" s="116"/>
-      <c r="D53" s="121"/>
-      <c r="E53" s="119"/>
+      <c r="B53" s="136"/>
+      <c r="C53" s="127"/>
+      <c r="D53" s="138"/>
+      <c r="E53" s="136"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -47033,10 +47033,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="119"/>
-      <c r="C54" s="116"/>
-      <c r="D54" s="121"/>
-      <c r="E54" s="119"/>
+      <c r="B54" s="136"/>
+      <c r="C54" s="127"/>
+      <c r="D54" s="138"/>
+      <c r="E54" s="136"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -47101,10 +47101,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="119"/>
-      <c r="C55" s="116"/>
-      <c r="D55" s="121"/>
-      <c r="E55" s="119"/>
+      <c r="B55" s="136"/>
+      <c r="C55" s="127"/>
+      <c r="D55" s="138"/>
+      <c r="E55" s="136"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -47169,10 +47169,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="119"/>
-      <c r="C56" s="116"/>
-      <c r="D56" s="121"/>
-      <c r="E56" s="119"/>
+      <c r="B56" s="136"/>
+      <c r="C56" s="127"/>
+      <c r="D56" s="138"/>
+      <c r="E56" s="136"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -47237,10 +47237,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="119"/>
-      <c r="C57" s="116"/>
-      <c r="D57" s="121"/>
-      <c r="E57" s="119"/>
+      <c r="B57" s="136"/>
+      <c r="C57" s="127"/>
+      <c r="D57" s="138"/>
+      <c r="E57" s="136"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -47300,10 +47300,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="120"/>
-      <c r="C58" s="117"/>
-      <c r="D58" s="121"/>
-      <c r="E58" s="120"/>
+      <c r="B58" s="137"/>
+      <c r="C58" s="134"/>
+      <c r="D58" s="138"/>
+      <c r="E58" s="137"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -47368,7 +47368,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="109" t="s">
+      <c r="B59" s="128" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -47440,7 +47440,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="109"/>
+      <c r="B60" s="128"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -47510,7 +47510,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="110" t="s">
+      <c r="B61" s="129" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -47582,7 +47582,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="110"/>
+      <c r="B62" s="129"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -47650,7 +47650,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="110"/>
+      <c r="B63" s="129"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -47859,6 +47859,37 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="E31:E58"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="BN5:BN6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="U6:Y6"/>
+    <mergeCell ref="Z6:AD6"/>
+    <mergeCell ref="AE6:AI6"/>
+    <mergeCell ref="AJ6:AN6"/>
+    <mergeCell ref="AO6:AS6"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
@@ -47869,37 +47900,6 @@
     <mergeCell ref="AY6:BC6"/>
     <mergeCell ref="BD6:BH6"/>
     <mergeCell ref="BI6:BM6"/>
-    <mergeCell ref="BN5:BN6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="U6:Y6"/>
-    <mergeCell ref="Z6:AD6"/>
-    <mergeCell ref="AE6:AI6"/>
-    <mergeCell ref="AJ6:AN6"/>
-    <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="E31:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -47914,31 +47914,31 @@
       <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="4"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
     <col min="2" max="2" width="28" style="3" customWidth="1"/>
-    <col min="3" max="3" width="65.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="65.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="2" customWidth="1"/>
-    <col min="5" max="5" width="29.125" style="2" customWidth="1"/>
-    <col min="6" max="65" width="2.25" style="3" customWidth="1"/>
-    <col min="66" max="69" width="9.125" style="3"/>
+    <col min="5" max="5" width="29.140625" style="2" customWidth="1"/>
+    <col min="6" max="65" width="2.28515625" style="3" customWidth="1"/>
+    <col min="66" max="69" width="9.140625" style="3"/>
     <col min="70" max="70" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="14.875" style="3" customWidth="1"/>
+    <col min="71" max="71" width="14.85546875" style="3" customWidth="1"/>
     <col min="72" max="72" width="13" style="3" customWidth="1"/>
-    <col min="73" max="73" width="13.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="74" max="1026" width="9.125" style="3"/>
-    <col min="1027" max="16384" width="9.125" style="4"/>
+    <col min="73" max="73" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="74" max="1026" width="9.140625" style="3"/>
+    <col min="1027" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="134" t="s">
+      <c r="B1" s="109" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
     </row>
     <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
@@ -48104,84 +48104,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="132" t="s">
+      <c r="B5" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="135" t="s">
+      <c r="C5" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="136" t="s">
+      <c r="D5" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="132" t="s">
+      <c r="E5" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="137" t="s">
+      <c r="F5" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="137"/>
-      <c r="H5" s="137"/>
-      <c r="I5" s="137"/>
-      <c r="J5" s="137"/>
-      <c r="K5" s="137"/>
-      <c r="L5" s="137"/>
-      <c r="M5" s="137"/>
-      <c r="N5" s="137"/>
-      <c r="O5" s="137"/>
-      <c r="P5" s="137"/>
-      <c r="Q5" s="137"/>
-      <c r="R5" s="137"/>
-      <c r="S5" s="137"/>
-      <c r="T5" s="137"/>
-      <c r="U5" s="137"/>
-      <c r="V5" s="137"/>
-      <c r="W5" s="137"/>
-      <c r="X5" s="137"/>
-      <c r="Y5" s="137"/>
-      <c r="Z5" s="137"/>
-      <c r="AA5" s="137"/>
-      <c r="AB5" s="137"/>
-      <c r="AC5" s="137"/>
-      <c r="AD5" s="137"/>
-      <c r="AE5" s="137"/>
-      <c r="AF5" s="137"/>
-      <c r="AG5" s="137"/>
-      <c r="AH5" s="137"/>
-      <c r="AI5" s="137"/>
-      <c r="AJ5" s="137"/>
-      <c r="AK5" s="137"/>
-      <c r="AL5" s="137"/>
-      <c r="AM5" s="137"/>
-      <c r="AN5" s="137"/>
-      <c r="AO5" s="137"/>
-      <c r="AP5" s="137"/>
-      <c r="AQ5" s="137"/>
-      <c r="AR5" s="137"/>
-      <c r="AS5" s="137"/>
-      <c r="AT5" s="137"/>
-      <c r="AU5" s="137"/>
-      <c r="AV5" s="137"/>
-      <c r="AW5" s="137"/>
-      <c r="AX5" s="137"/>
-      <c r="AY5" s="137"/>
-      <c r="AZ5" s="137"/>
-      <c r="BA5" s="137"/>
-      <c r="BB5" s="137"/>
-      <c r="BC5" s="137"/>
-      <c r="BD5" s="137"/>
-      <c r="BE5" s="137"/>
-      <c r="BF5" s="137"/>
-      <c r="BG5" s="137"/>
-      <c r="BH5" s="137"/>
-      <c r="BI5" s="137"/>
-      <c r="BJ5" s="137"/>
-      <c r="BK5" s="137"/>
-      <c r="BL5" s="137"/>
-      <c r="BM5" s="137"/>
-      <c r="BN5" s="131" t="s">
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="113"/>
+      <c r="K5" s="113"/>
+      <c r="L5" s="113"/>
+      <c r="M5" s="113"/>
+      <c r="N5" s="113"/>
+      <c r="O5" s="113"/>
+      <c r="P5" s="113"/>
+      <c r="Q5" s="113"/>
+      <c r="R5" s="113"/>
+      <c r="S5" s="113"/>
+      <c r="T5" s="113"/>
+      <c r="U5" s="113"/>
+      <c r="V5" s="113"/>
+      <c r="W5" s="113"/>
+      <c r="X5" s="113"/>
+      <c r="Y5" s="113"/>
+      <c r="Z5" s="113"/>
+      <c r="AA5" s="113"/>
+      <c r="AB5" s="113"/>
+      <c r="AC5" s="113"/>
+      <c r="AD5" s="113"/>
+      <c r="AE5" s="113"/>
+      <c r="AF5" s="113"/>
+      <c r="AG5" s="113"/>
+      <c r="AH5" s="113"/>
+      <c r="AI5" s="113"/>
+      <c r="AJ5" s="113"/>
+      <c r="AK5" s="113"/>
+      <c r="AL5" s="113"/>
+      <c r="AM5" s="113"/>
+      <c r="AN5" s="113"/>
+      <c r="AO5" s="113"/>
+      <c r="AP5" s="113"/>
+      <c r="AQ5" s="113"/>
+      <c r="AR5" s="113"/>
+      <c r="AS5" s="113"/>
+      <c r="AT5" s="113"/>
+      <c r="AU5" s="113"/>
+      <c r="AV5" s="113"/>
+      <c r="AW5" s="113"/>
+      <c r="AX5" s="113"/>
+      <c r="AY5" s="113"/>
+      <c r="AZ5" s="113"/>
+      <c r="BA5" s="113"/>
+      <c r="BB5" s="113"/>
+      <c r="BC5" s="113"/>
+      <c r="BD5" s="113"/>
+      <c r="BE5" s="113"/>
+      <c r="BF5" s="113"/>
+      <c r="BG5" s="113"/>
+      <c r="BH5" s="113"/>
+      <c r="BI5" s="113"/>
+      <c r="BJ5" s="113"/>
+      <c r="BK5" s="113"/>
+      <c r="BL5" s="113"/>
+      <c r="BM5" s="113"/>
+      <c r="BN5" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="132" t="s">
+      <c r="BO5" s="110" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -48190,107 +48190,107 @@
       <c r="BU5" s="94"/>
     </row>
     <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="132"/>
-      <c r="C6" s="135"/>
-      <c r="D6" s="136"/>
-      <c r="E6" s="132"/>
-      <c r="F6" s="133" t="s">
+      <c r="B6" s="110"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="133"/>
-      <c r="H6" s="133"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="133"/>
-      <c r="K6" s="133" t="s">
+      <c r="G6" s="114"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="114"/>
+      <c r="K6" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="133"/>
-      <c r="M6" s="133"/>
-      <c r="N6" s="133"/>
-      <c r="O6" s="133"/>
-      <c r="P6" s="133" t="s">
+      <c r="L6" s="114"/>
+      <c r="M6" s="114"/>
+      <c r="N6" s="114"/>
+      <c r="O6" s="114"/>
+      <c r="P6" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="133"/>
-      <c r="R6" s="133"/>
-      <c r="S6" s="133"/>
-      <c r="T6" s="133"/>
-      <c r="U6" s="133" t="s">
+      <c r="Q6" s="114"/>
+      <c r="R6" s="114"/>
+      <c r="S6" s="114"/>
+      <c r="T6" s="114"/>
+      <c r="U6" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="133"/>
-      <c r="W6" s="133"/>
-      <c r="X6" s="133"/>
-      <c r="Y6" s="133"/>
-      <c r="Z6" s="133" t="s">
+      <c r="V6" s="114"/>
+      <c r="W6" s="114"/>
+      <c r="X6" s="114"/>
+      <c r="Y6" s="114"/>
+      <c r="Z6" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="133"/>
-      <c r="AB6" s="133"/>
-      <c r="AC6" s="133"/>
-      <c r="AD6" s="133"/>
-      <c r="AE6" s="133" t="s">
+      <c r="AA6" s="114"/>
+      <c r="AB6" s="114"/>
+      <c r="AC6" s="114"/>
+      <c r="AD6" s="114"/>
+      <c r="AE6" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="133"/>
-      <c r="AG6" s="133"/>
-      <c r="AH6" s="133"/>
-      <c r="AI6" s="133"/>
-      <c r="AJ6" s="133" t="s">
+      <c r="AF6" s="114"/>
+      <c r="AG6" s="114"/>
+      <c r="AH6" s="114"/>
+      <c r="AI6" s="114"/>
+      <c r="AJ6" s="114" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="133"/>
-      <c r="AL6" s="133"/>
-      <c r="AM6" s="133"/>
-      <c r="AN6" s="133"/>
-      <c r="AO6" s="133" t="s">
+      <c r="AK6" s="114"/>
+      <c r="AL6" s="114"/>
+      <c r="AM6" s="114"/>
+      <c r="AN6" s="114"/>
+      <c r="AO6" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="133"/>
-      <c r="AQ6" s="133"/>
-      <c r="AR6" s="133"/>
-      <c r="AS6" s="133"/>
-      <c r="AT6" s="133" t="s">
+      <c r="AP6" s="114"/>
+      <c r="AQ6" s="114"/>
+      <c r="AR6" s="114"/>
+      <c r="AS6" s="114"/>
+      <c r="AT6" s="114" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="133"/>
-      <c r="AV6" s="133"/>
-      <c r="AW6" s="133"/>
-      <c r="AX6" s="133"/>
-      <c r="AY6" s="133" t="s">
+      <c r="AU6" s="114"/>
+      <c r="AV6" s="114"/>
+      <c r="AW6" s="114"/>
+      <c r="AX6" s="114"/>
+      <c r="AY6" s="114" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="133"/>
-      <c r="BA6" s="133"/>
-      <c r="BB6" s="133"/>
-      <c r="BC6" s="133"/>
-      <c r="BD6" s="133" t="s">
+      <c r="AZ6" s="114"/>
+      <c r="BA6" s="114"/>
+      <c r="BB6" s="114"/>
+      <c r="BC6" s="114"/>
+      <c r="BD6" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="133"/>
-      <c r="BF6" s="133"/>
-      <c r="BG6" s="133"/>
-      <c r="BH6" s="133"/>
-      <c r="BI6" s="138" t="s">
+      <c r="BE6" s="114"/>
+      <c r="BF6" s="114"/>
+      <c r="BG6" s="114"/>
+      <c r="BH6" s="114"/>
+      <c r="BI6" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="138"/>
-      <c r="BK6" s="138"/>
-      <c r="BL6" s="138"/>
-      <c r="BM6" s="138"/>
-      <c r="BN6" s="131"/>
-      <c r="BO6" s="132"/>
+      <c r="BJ6" s="115"/>
+      <c r="BK6" s="115"/>
+      <c r="BL6" s="115"/>
+      <c r="BM6" s="115"/>
+      <c r="BN6" s="116"/>
+      <c r="BO6" s="110"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="126" t="s">
+      <c r="B7" s="117" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="126"/>
-      <c r="E7" s="127"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="118"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -49315,12 +49315,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="126"/>
+      <c r="B8" s="117"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="126"/>
-      <c r="E8" s="124"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="119"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -50344,14 +50344,14 @@
       <c r="AML8" s="23"/>
     </row>
     <row r="9" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="122" t="s">
+      <c r="B9" s="120" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="123"/>
-      <c r="E9" s="128"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="122"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
       <c r="H9" s="83"/>
@@ -51375,12 +51375,12 @@
       <c r="AML9" s="21"/>
     </row>
     <row r="10" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B10" s="122"/>
+      <c r="B10" s="120"/>
       <c r="C10" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="123"/>
-      <c r="E10" s="129"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="123"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -52404,12 +52404,12 @@
       <c r="AML10" s="21"/>
     </row>
     <row r="11" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="122"/>
+      <c r="B11" s="120"/>
       <c r="C11" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="123"/>
-      <c r="E11" s="129"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="123"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -53433,12 +53433,12 @@
       <c r="AML11" s="21"/>
     </row>
     <row r="12" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="122"/>
+      <c r="B12" s="120"/>
       <c r="C12" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="123"/>
-      <c r="E12" s="130"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="124"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -53503,14 +53503,14 @@
       <c r="BO12" s="31"/>
     </row>
     <row r="13" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B13" s="122" t="s">
+      <c r="B13" s="120" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="123"/>
-      <c r="E13" s="124"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="119"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -53575,12 +53575,12 @@
       <c r="BO13" s="20"/>
     </row>
     <row r="14" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B14" s="122"/>
+      <c r="B14" s="120"/>
       <c r="C14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="123"/>
-      <c r="E14" s="124"/>
+      <c r="D14" s="121"/>
+      <c r="E14" s="119"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -53645,12 +53645,12 @@
       <c r="BO14" s="31"/>
     </row>
     <row r="15" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="122"/>
+      <c r="B15" s="120"/>
       <c r="C15" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="123"/>
-      <c r="E15" s="124"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="119"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -53715,12 +53715,12 @@
       <c r="BO15" s="31"/>
     </row>
     <row r="16" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B16" s="122"/>
+      <c r="B16" s="120"/>
       <c r="C16" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="123"/>
-      <c r="E16" s="124"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="119"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -53785,12 +53785,12 @@
       <c r="BO16" s="31"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B17" s="122"/>
+      <c r="B17" s="120"/>
       <c r="C17" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="123"/>
-      <c r="E17" s="124"/>
+      <c r="D17" s="121"/>
+      <c r="E17" s="119"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -53855,12 +53855,12 @@
       <c r="BO17" s="31"/>
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B18" s="122"/>
+      <c r="B18" s="120"/>
       <c r="C18" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="123"/>
-      <c r="E18" s="124"/>
+      <c r="D18" s="121"/>
+      <c r="E18" s="119"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -53925,12 +53925,12 @@
       <c r="BO18" s="31"/>
     </row>
     <row r="19" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B19" s="122"/>
+      <c r="B19" s="120"/>
       <c r="C19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="123"/>
-      <c r="E19" s="124"/>
+      <c r="D19" s="121"/>
+      <c r="E19" s="119"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -54001,8 +54001,8 @@
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="126"/>
-      <c r="E20" s="115"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="126"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -54071,8 +54071,8 @@
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="126"/>
-      <c r="E21" s="116"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="127"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -54141,8 +54141,8 @@
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="126"/>
-      <c r="E22" s="116"/>
+      <c r="D22" s="117"/>
+      <c r="E22" s="127"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -54211,8 +54211,8 @@
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="126"/>
-      <c r="E23" s="116"/>
+      <c r="D23" s="117"/>
+      <c r="E23" s="127"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -54281,8 +54281,8 @@
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="126"/>
-      <c r="E24" s="116"/>
+      <c r="D24" s="117"/>
+      <c r="E24" s="127"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -54347,14 +54347,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="111" t="s">
+      <c r="B25" s="130" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="114"/>
-      <c r="E25" s="115"/>
+      <c r="D25" s="133"/>
+      <c r="E25" s="126"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -54419,12 +54419,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="112"/>
+      <c r="B26" s="131"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="114"/>
-      <c r="E26" s="116"/>
+      <c r="D26" s="133"/>
+      <c r="E26" s="127"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -54489,12 +54489,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="112"/>
+      <c r="B27" s="131"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="114"/>
-      <c r="E27" s="116"/>
+      <c r="D27" s="133"/>
+      <c r="E27" s="127"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -54559,12 +54559,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="112"/>
+      <c r="B28" s="131"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="114"/>
-      <c r="E28" s="116"/>
+      <c r="D28" s="133"/>
+      <c r="E28" s="127"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -54629,12 +54629,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="113"/>
+      <c r="B29" s="132"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="114"/>
-      <c r="E29" s="117"/>
+      <c r="D29" s="133"/>
+      <c r="E29" s="134"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -54771,10 +54771,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="118"/>
-      <c r="C31" s="115"/>
-      <c r="D31" s="121"/>
-      <c r="E31" s="118"/>
+      <c r="B31" s="135"/>
+      <c r="C31" s="126"/>
+      <c r="D31" s="138"/>
+      <c r="E31" s="135"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -54839,10 +54839,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="119"/>
-      <c r="C32" s="116"/>
-      <c r="D32" s="121"/>
-      <c r="E32" s="119"/>
+      <c r="B32" s="136"/>
+      <c r="C32" s="127"/>
+      <c r="D32" s="138"/>
+      <c r="E32" s="136"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -54907,10 +54907,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="119"/>
-      <c r="C33" s="116"/>
-      <c r="D33" s="121"/>
-      <c r="E33" s="119"/>
+      <c r="B33" s="136"/>
+      <c r="C33" s="127"/>
+      <c r="D33" s="138"/>
+      <c r="E33" s="136"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -54975,10 +54975,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="119"/>
-      <c r="C34" s="116"/>
-      <c r="D34" s="121"/>
-      <c r="E34" s="119"/>
+      <c r="B34" s="136"/>
+      <c r="C34" s="127"/>
+      <c r="D34" s="138"/>
+      <c r="E34" s="136"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -55043,10 +55043,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="119"/>
-      <c r="C35" s="116"/>
-      <c r="D35" s="121"/>
-      <c r="E35" s="119"/>
+      <c r="B35" s="136"/>
+      <c r="C35" s="127"/>
+      <c r="D35" s="138"/>
+      <c r="E35" s="136"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -55111,10 +55111,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="119"/>
-      <c r="C36" s="116"/>
-      <c r="D36" s="121"/>
-      <c r="E36" s="119"/>
+      <c r="B36" s="136"/>
+      <c r="C36" s="127"/>
+      <c r="D36" s="138"/>
+      <c r="E36" s="136"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -55179,10 +55179,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="119"/>
-      <c r="C37" s="116"/>
-      <c r="D37" s="121"/>
-      <c r="E37" s="119"/>
+      <c r="B37" s="136"/>
+      <c r="C37" s="127"/>
+      <c r="D37" s="138"/>
+      <c r="E37" s="136"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -55247,10 +55247,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="119"/>
-      <c r="C38" s="116"/>
-      <c r="D38" s="121"/>
-      <c r="E38" s="119"/>
+      <c r="B38" s="136"/>
+      <c r="C38" s="127"/>
+      <c r="D38" s="138"/>
+      <c r="E38" s="136"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -55315,10 +55315,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="119"/>
-      <c r="C39" s="116"/>
-      <c r="D39" s="121"/>
-      <c r="E39" s="119"/>
+      <c r="B39" s="136"/>
+      <c r="C39" s="127"/>
+      <c r="D39" s="138"/>
+      <c r="E39" s="136"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -55383,10 +55383,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="119"/>
-      <c r="C40" s="116"/>
-      <c r="D40" s="121"/>
-      <c r="E40" s="119"/>
+      <c r="B40" s="136"/>
+      <c r="C40" s="127"/>
+      <c r="D40" s="138"/>
+      <c r="E40" s="136"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -55451,10 +55451,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="119"/>
-      <c r="C41" s="116"/>
-      <c r="D41" s="121"/>
-      <c r="E41" s="119"/>
+      <c r="B41" s="136"/>
+      <c r="C41" s="127"/>
+      <c r="D41" s="138"/>
+      <c r="E41" s="136"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -55519,10 +55519,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="119"/>
-      <c r="C42" s="116"/>
-      <c r="D42" s="121"/>
-      <c r="E42" s="119"/>
+      <c r="B42" s="136"/>
+      <c r="C42" s="127"/>
+      <c r="D42" s="138"/>
+      <c r="E42" s="136"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -55587,10 +55587,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="119"/>
-      <c r="C43" s="116"/>
-      <c r="D43" s="121"/>
-      <c r="E43" s="119"/>
+      <c r="B43" s="136"/>
+      <c r="C43" s="127"/>
+      <c r="D43" s="138"/>
+      <c r="E43" s="136"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -55655,10 +55655,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="119"/>
-      <c r="C44" s="116"/>
-      <c r="D44" s="121"/>
-      <c r="E44" s="119"/>
+      <c r="B44" s="136"/>
+      <c r="C44" s="127"/>
+      <c r="D44" s="138"/>
+      <c r="E44" s="136"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -55723,10 +55723,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="119"/>
-      <c r="C45" s="116"/>
-      <c r="D45" s="121"/>
-      <c r="E45" s="119"/>
+      <c r="B45" s="136"/>
+      <c r="C45" s="127"/>
+      <c r="D45" s="138"/>
+      <c r="E45" s="136"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -55791,10 +55791,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="119"/>
-      <c r="C46" s="116"/>
-      <c r="D46" s="121"/>
-      <c r="E46" s="119"/>
+      <c r="B46" s="136"/>
+      <c r="C46" s="127"/>
+      <c r="D46" s="138"/>
+      <c r="E46" s="136"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -55859,10 +55859,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="119"/>
-      <c r="C47" s="116"/>
-      <c r="D47" s="121"/>
-      <c r="E47" s="119"/>
+      <c r="B47" s="136"/>
+      <c r="C47" s="127"/>
+      <c r="D47" s="138"/>
+      <c r="E47" s="136"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -55927,10 +55927,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="119"/>
-      <c r="C48" s="116"/>
-      <c r="D48" s="121"/>
-      <c r="E48" s="119"/>
+      <c r="B48" s="136"/>
+      <c r="C48" s="127"/>
+      <c r="D48" s="138"/>
+      <c r="E48" s="136"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -55995,10 +55995,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="119"/>
-      <c r="C49" s="116"/>
-      <c r="D49" s="121"/>
-      <c r="E49" s="119"/>
+      <c r="B49" s="136"/>
+      <c r="C49" s="127"/>
+      <c r="D49" s="138"/>
+      <c r="E49" s="136"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -56063,10 +56063,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="119"/>
-      <c r="C50" s="116"/>
-      <c r="D50" s="121"/>
-      <c r="E50" s="119"/>
+      <c r="B50" s="136"/>
+      <c r="C50" s="127"/>
+      <c r="D50" s="138"/>
+      <c r="E50" s="136"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -56131,10 +56131,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="119"/>
-      <c r="C51" s="116"/>
-      <c r="D51" s="121"/>
-      <c r="E51" s="119"/>
+      <c r="B51" s="136"/>
+      <c r="C51" s="127"/>
+      <c r="D51" s="138"/>
+      <c r="E51" s="136"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -56199,10 +56199,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="119"/>
-      <c r="C52" s="116"/>
-      <c r="D52" s="121"/>
-      <c r="E52" s="119"/>
+      <c r="B52" s="136"/>
+      <c r="C52" s="127"/>
+      <c r="D52" s="138"/>
+      <c r="E52" s="136"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -56267,10 +56267,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="119"/>
-      <c r="C53" s="116"/>
-      <c r="D53" s="121"/>
-      <c r="E53" s="119"/>
+      <c r="B53" s="136"/>
+      <c r="C53" s="127"/>
+      <c r="D53" s="138"/>
+      <c r="E53" s="136"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -56335,10 +56335,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="119"/>
-      <c r="C54" s="116"/>
-      <c r="D54" s="121"/>
-      <c r="E54" s="119"/>
+      <c r="B54" s="136"/>
+      <c r="C54" s="127"/>
+      <c r="D54" s="138"/>
+      <c r="E54" s="136"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -56403,10 +56403,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="119"/>
-      <c r="C55" s="116"/>
-      <c r="D55" s="121"/>
-      <c r="E55" s="119"/>
+      <c r="B55" s="136"/>
+      <c r="C55" s="127"/>
+      <c r="D55" s="138"/>
+      <c r="E55" s="136"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -56471,10 +56471,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="119"/>
-      <c r="C56" s="116"/>
-      <c r="D56" s="121"/>
-      <c r="E56" s="119"/>
+      <c r="B56" s="136"/>
+      <c r="C56" s="127"/>
+      <c r="D56" s="138"/>
+      <c r="E56" s="136"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -56539,10 +56539,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="119"/>
-      <c r="C57" s="116"/>
-      <c r="D57" s="121"/>
-      <c r="E57" s="119"/>
+      <c r="B57" s="136"/>
+      <c r="C57" s="127"/>
+      <c r="D57" s="138"/>
+      <c r="E57" s="136"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -56602,10 +56602,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="120"/>
-      <c r="C58" s="117"/>
-      <c r="D58" s="121"/>
-      <c r="E58" s="120"/>
+      <c r="B58" s="137"/>
+      <c r="C58" s="134"/>
+      <c r="D58" s="138"/>
+      <c r="E58" s="137"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -56670,7 +56670,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="109" t="s">
+      <c r="B59" s="128" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -56742,7 +56742,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="109"/>
+      <c r="B60" s="128"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -56812,7 +56812,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="110" t="s">
+      <c r="B61" s="129" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -56884,7 +56884,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="110"/>
+      <c r="B62" s="129"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -56952,7 +56952,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="110"/>
+      <c r="B63" s="129"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -57161,6 +57161,37 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="E31:E58"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="BN5:BN6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="U6:Y6"/>
+    <mergeCell ref="Z6:AD6"/>
+    <mergeCell ref="AE6:AI6"/>
+    <mergeCell ref="AJ6:AN6"/>
+    <mergeCell ref="AO6:AS6"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
@@ -57171,37 +57202,6 @@
     <mergeCell ref="AY6:BC6"/>
     <mergeCell ref="BD6:BH6"/>
     <mergeCell ref="BI6:BM6"/>
-    <mergeCell ref="BN5:BN6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="U6:Y6"/>
-    <mergeCell ref="Z6:AD6"/>
-    <mergeCell ref="AE6:AI6"/>
-    <mergeCell ref="AJ6:AN6"/>
-    <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="E31:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -57211,35 +57211,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AML65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="4"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
     <col min="2" max="2" width="28" style="3" customWidth="1"/>
-    <col min="3" max="3" width="65.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="65.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="2" customWidth="1"/>
-    <col min="5" max="5" width="29.125" style="2" customWidth="1"/>
-    <col min="6" max="65" width="2.25" style="3" customWidth="1"/>
-    <col min="66" max="69" width="9.125" style="3"/>
+    <col min="5" max="5" width="29.140625" style="2" customWidth="1"/>
+    <col min="6" max="65" width="2.28515625" style="3" customWidth="1"/>
+    <col min="66" max="69" width="9.140625" style="3"/>
     <col min="70" max="70" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="14.875" style="3" customWidth="1"/>
+    <col min="71" max="71" width="14.85546875" style="3" customWidth="1"/>
     <col min="72" max="72" width="13" style="3" customWidth="1"/>
-    <col min="73" max="73" width="13.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="74" max="1026" width="9.125" style="3"/>
-    <col min="1027" max="16384" width="9.125" style="4"/>
+    <col min="73" max="73" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="74" max="1026" width="9.140625" style="3"/>
+    <col min="1027" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="134" t="s">
+      <c r="B1" s="109" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
     </row>
     <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
@@ -57405,84 +57405,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="132" t="s">
+      <c r="B5" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="135" t="s">
+      <c r="C5" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="136" t="s">
+      <c r="D5" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="132" t="s">
+      <c r="E5" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="137" t="s">
+      <c r="F5" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="137"/>
-      <c r="H5" s="137"/>
-      <c r="I5" s="137"/>
-      <c r="J5" s="137"/>
-      <c r="K5" s="137"/>
-      <c r="L5" s="137"/>
-      <c r="M5" s="137"/>
-      <c r="N5" s="137"/>
-      <c r="O5" s="137"/>
-      <c r="P5" s="137"/>
-      <c r="Q5" s="137"/>
-      <c r="R5" s="137"/>
-      <c r="S5" s="137"/>
-      <c r="T5" s="137"/>
-      <c r="U5" s="137"/>
-      <c r="V5" s="137"/>
-      <c r="W5" s="137"/>
-      <c r="X5" s="137"/>
-      <c r="Y5" s="137"/>
-      <c r="Z5" s="137"/>
-      <c r="AA5" s="137"/>
-      <c r="AB5" s="137"/>
-      <c r="AC5" s="137"/>
-      <c r="AD5" s="137"/>
-      <c r="AE5" s="137"/>
-      <c r="AF5" s="137"/>
-      <c r="AG5" s="137"/>
-      <c r="AH5" s="137"/>
-      <c r="AI5" s="137"/>
-      <c r="AJ5" s="137"/>
-      <c r="AK5" s="137"/>
-      <c r="AL5" s="137"/>
-      <c r="AM5" s="137"/>
-      <c r="AN5" s="137"/>
-      <c r="AO5" s="137"/>
-      <c r="AP5" s="137"/>
-      <c r="AQ5" s="137"/>
-      <c r="AR5" s="137"/>
-      <c r="AS5" s="137"/>
-      <c r="AT5" s="137"/>
-      <c r="AU5" s="137"/>
-      <c r="AV5" s="137"/>
-      <c r="AW5" s="137"/>
-      <c r="AX5" s="137"/>
-      <c r="AY5" s="137"/>
-      <c r="AZ5" s="137"/>
-      <c r="BA5" s="137"/>
-      <c r="BB5" s="137"/>
-      <c r="BC5" s="137"/>
-      <c r="BD5" s="137"/>
-      <c r="BE5" s="137"/>
-      <c r="BF5" s="137"/>
-      <c r="BG5" s="137"/>
-      <c r="BH5" s="137"/>
-      <c r="BI5" s="137"/>
-      <c r="BJ5" s="137"/>
-      <c r="BK5" s="137"/>
-      <c r="BL5" s="137"/>
-      <c r="BM5" s="137"/>
-      <c r="BN5" s="131" t="s">
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="113"/>
+      <c r="K5" s="113"/>
+      <c r="L5" s="113"/>
+      <c r="M5" s="113"/>
+      <c r="N5" s="113"/>
+      <c r="O5" s="113"/>
+      <c r="P5" s="113"/>
+      <c r="Q5" s="113"/>
+      <c r="R5" s="113"/>
+      <c r="S5" s="113"/>
+      <c r="T5" s="113"/>
+      <c r="U5" s="113"/>
+      <c r="V5" s="113"/>
+      <c r="W5" s="113"/>
+      <c r="X5" s="113"/>
+      <c r="Y5" s="113"/>
+      <c r="Z5" s="113"/>
+      <c r="AA5" s="113"/>
+      <c r="AB5" s="113"/>
+      <c r="AC5" s="113"/>
+      <c r="AD5" s="113"/>
+      <c r="AE5" s="113"/>
+      <c r="AF5" s="113"/>
+      <c r="AG5" s="113"/>
+      <c r="AH5" s="113"/>
+      <c r="AI5" s="113"/>
+      <c r="AJ5" s="113"/>
+      <c r="AK5" s="113"/>
+      <c r="AL5" s="113"/>
+      <c r="AM5" s="113"/>
+      <c r="AN5" s="113"/>
+      <c r="AO5" s="113"/>
+      <c r="AP5" s="113"/>
+      <c r="AQ5" s="113"/>
+      <c r="AR5" s="113"/>
+      <c r="AS5" s="113"/>
+      <c r="AT5" s="113"/>
+      <c r="AU5" s="113"/>
+      <c r="AV5" s="113"/>
+      <c r="AW5" s="113"/>
+      <c r="AX5" s="113"/>
+      <c r="AY5" s="113"/>
+      <c r="AZ5" s="113"/>
+      <c r="BA5" s="113"/>
+      <c r="BB5" s="113"/>
+      <c r="BC5" s="113"/>
+      <c r="BD5" s="113"/>
+      <c r="BE5" s="113"/>
+      <c r="BF5" s="113"/>
+      <c r="BG5" s="113"/>
+      <c r="BH5" s="113"/>
+      <c r="BI5" s="113"/>
+      <c r="BJ5" s="113"/>
+      <c r="BK5" s="113"/>
+      <c r="BL5" s="113"/>
+      <c r="BM5" s="113"/>
+      <c r="BN5" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="132" t="s">
+      <c r="BO5" s="110" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -57491,107 +57491,107 @@
       <c r="BU5" s="94"/>
     </row>
     <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="132"/>
-      <c r="C6" s="135"/>
-      <c r="D6" s="136"/>
-      <c r="E6" s="132"/>
-      <c r="F6" s="133" t="s">
+      <c r="B6" s="110"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="133"/>
-      <c r="H6" s="133"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="133"/>
-      <c r="K6" s="133" t="s">
+      <c r="G6" s="114"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="114"/>
+      <c r="K6" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="133"/>
-      <c r="M6" s="133"/>
-      <c r="N6" s="133"/>
-      <c r="O6" s="133"/>
-      <c r="P6" s="133" t="s">
+      <c r="L6" s="114"/>
+      <c r="M6" s="114"/>
+      <c r="N6" s="114"/>
+      <c r="O6" s="114"/>
+      <c r="P6" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="133"/>
-      <c r="R6" s="133"/>
-      <c r="S6" s="133"/>
-      <c r="T6" s="133"/>
-      <c r="U6" s="133" t="s">
+      <c r="Q6" s="114"/>
+      <c r="R6" s="114"/>
+      <c r="S6" s="114"/>
+      <c r="T6" s="114"/>
+      <c r="U6" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="133"/>
-      <c r="W6" s="133"/>
-      <c r="X6" s="133"/>
-      <c r="Y6" s="133"/>
-      <c r="Z6" s="133" t="s">
+      <c r="V6" s="114"/>
+      <c r="W6" s="114"/>
+      <c r="X6" s="114"/>
+      <c r="Y6" s="114"/>
+      <c r="Z6" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="133"/>
-      <c r="AB6" s="133"/>
-      <c r="AC6" s="133"/>
-      <c r="AD6" s="133"/>
-      <c r="AE6" s="133" t="s">
+      <c r="AA6" s="114"/>
+      <c r="AB6" s="114"/>
+      <c r="AC6" s="114"/>
+      <c r="AD6" s="114"/>
+      <c r="AE6" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="133"/>
-      <c r="AG6" s="133"/>
-      <c r="AH6" s="133"/>
-      <c r="AI6" s="133"/>
-      <c r="AJ6" s="133" t="s">
+      <c r="AF6" s="114"/>
+      <c r="AG6" s="114"/>
+      <c r="AH6" s="114"/>
+      <c r="AI6" s="114"/>
+      <c r="AJ6" s="114" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="133"/>
-      <c r="AL6" s="133"/>
-      <c r="AM6" s="133"/>
-      <c r="AN6" s="133"/>
-      <c r="AO6" s="133" t="s">
+      <c r="AK6" s="114"/>
+      <c r="AL6" s="114"/>
+      <c r="AM6" s="114"/>
+      <c r="AN6" s="114"/>
+      <c r="AO6" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="133"/>
-      <c r="AQ6" s="133"/>
-      <c r="AR6" s="133"/>
-      <c r="AS6" s="133"/>
-      <c r="AT6" s="133" t="s">
+      <c r="AP6" s="114"/>
+      <c r="AQ6" s="114"/>
+      <c r="AR6" s="114"/>
+      <c r="AS6" s="114"/>
+      <c r="AT6" s="114" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="133"/>
-      <c r="AV6" s="133"/>
-      <c r="AW6" s="133"/>
-      <c r="AX6" s="133"/>
-      <c r="AY6" s="133" t="s">
+      <c r="AU6" s="114"/>
+      <c r="AV6" s="114"/>
+      <c r="AW6" s="114"/>
+      <c r="AX6" s="114"/>
+      <c r="AY6" s="114" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="133"/>
-      <c r="BA6" s="133"/>
-      <c r="BB6" s="133"/>
-      <c r="BC6" s="133"/>
-      <c r="BD6" s="133" t="s">
+      <c r="AZ6" s="114"/>
+      <c r="BA6" s="114"/>
+      <c r="BB6" s="114"/>
+      <c r="BC6" s="114"/>
+      <c r="BD6" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="133"/>
-      <c r="BF6" s="133"/>
-      <c r="BG6" s="133"/>
-      <c r="BH6" s="133"/>
-      <c r="BI6" s="138" t="s">
+      <c r="BE6" s="114"/>
+      <c r="BF6" s="114"/>
+      <c r="BG6" s="114"/>
+      <c r="BH6" s="114"/>
+      <c r="BI6" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="138"/>
-      <c r="BK6" s="138"/>
-      <c r="BL6" s="138"/>
-      <c r="BM6" s="138"/>
-      <c r="BN6" s="131"/>
-      <c r="BO6" s="132"/>
+      <c r="BJ6" s="115"/>
+      <c r="BK6" s="115"/>
+      <c r="BL6" s="115"/>
+      <c r="BM6" s="115"/>
+      <c r="BN6" s="116"/>
+      <c r="BO6" s="110"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="126" t="s">
+      <c r="B7" s="117" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="126"/>
-      <c r="E7" s="127"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="118"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -58616,12 +58616,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="126"/>
+      <c r="B8" s="117"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="126"/>
-      <c r="E8" s="124"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="119"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -59645,14 +59645,14 @@
       <c r="AML8" s="23"/>
     </row>
     <row r="9" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="122" t="s">
+      <c r="B9" s="120" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="123"/>
-      <c r="E9" s="128"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="122"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
       <c r="H9" s="106"/>
@@ -60676,12 +60676,12 @@
       <c r="AML9" s="21"/>
     </row>
     <row r="10" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B10" s="122"/>
+      <c r="B10" s="120"/>
       <c r="C10" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="123"/>
-      <c r="E10" s="129"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="123"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -61705,12 +61705,12 @@
       <c r="AML10" s="21"/>
     </row>
     <row r="11" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="122"/>
+      <c r="B11" s="120"/>
       <c r="C11" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="123"/>
-      <c r="E11" s="129"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="123"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -62734,12 +62734,12 @@
       <c r="AML11" s="21"/>
     </row>
     <row r="12" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="122"/>
+      <c r="B12" s="120"/>
       <c r="C12" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="123"/>
-      <c r="E12" s="130"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="124"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -62804,14 +62804,14 @@
       <c r="BO12" s="31"/>
     </row>
     <row r="13" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B13" s="122" t="s">
+      <c r="B13" s="120" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="123"/>
-      <c r="E13" s="124"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="119"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -62876,12 +62876,12 @@
       <c r="BO13" s="20"/>
     </row>
     <row r="14" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B14" s="122"/>
+      <c r="B14" s="120"/>
       <c r="C14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="123"/>
-      <c r="E14" s="124"/>
+      <c r="D14" s="121"/>
+      <c r="E14" s="119"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -62946,12 +62946,12 @@
       <c r="BO14" s="31"/>
     </row>
     <row r="15" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="122"/>
+      <c r="B15" s="120"/>
       <c r="C15" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="123"/>
-      <c r="E15" s="124"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="119"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -63016,12 +63016,12 @@
       <c r="BO15" s="31"/>
     </row>
     <row r="16" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B16" s="122"/>
+      <c r="B16" s="120"/>
       <c r="C16" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="123"/>
-      <c r="E16" s="124"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="119"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -63086,12 +63086,12 @@
       <c r="BO16" s="31"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B17" s="122"/>
+      <c r="B17" s="120"/>
       <c r="C17" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="123"/>
-      <c r="E17" s="124"/>
+      <c r="D17" s="121"/>
+      <c r="E17" s="119"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -63156,12 +63156,12 @@
       <c r="BO17" s="31"/>
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B18" s="122"/>
+      <c r="B18" s="120"/>
       <c r="C18" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="123"/>
-      <c r="E18" s="124"/>
+      <c r="D18" s="121"/>
+      <c r="E18" s="119"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -63226,12 +63226,12 @@
       <c r="BO18" s="31"/>
     </row>
     <row r="19" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B19" s="122"/>
+      <c r="B19" s="120"/>
       <c r="C19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="123"/>
-      <c r="E19" s="124"/>
+      <c r="D19" s="121"/>
+      <c r="E19" s="119"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -63302,8 +63302,8 @@
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="126"/>
-      <c r="E20" s="115"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="126"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -63372,8 +63372,8 @@
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="126"/>
-      <c r="E21" s="116"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="127"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -63442,8 +63442,8 @@
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="126"/>
-      <c r="E22" s="116"/>
+      <c r="D22" s="117"/>
+      <c r="E22" s="127"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -63512,8 +63512,8 @@
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="126"/>
-      <c r="E23" s="116"/>
+      <c r="D23" s="117"/>
+      <c r="E23" s="127"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -63582,8 +63582,8 @@
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="126"/>
-      <c r="E24" s="116"/>
+      <c r="D24" s="117"/>
+      <c r="E24" s="127"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -63648,14 +63648,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="111" t="s">
+      <c r="B25" s="130" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="114"/>
-      <c r="E25" s="115"/>
+      <c r="D25" s="133"/>
+      <c r="E25" s="126"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -63720,12 +63720,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="112"/>
+      <c r="B26" s="131"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="114"/>
-      <c r="E26" s="116"/>
+      <c r="D26" s="133"/>
+      <c r="E26" s="127"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -63790,12 +63790,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="112"/>
+      <c r="B27" s="131"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="114"/>
-      <c r="E27" s="116"/>
+      <c r="D27" s="133"/>
+      <c r="E27" s="127"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -63860,12 +63860,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="112"/>
+      <c r="B28" s="131"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="114"/>
-      <c r="E28" s="116"/>
+      <c r="D28" s="133"/>
+      <c r="E28" s="127"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -63930,12 +63930,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="113"/>
+      <c r="B29" s="132"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="114"/>
-      <c r="E29" s="117"/>
+      <c r="D29" s="133"/>
+      <c r="E29" s="134"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -64072,10 +64072,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="118"/>
-      <c r="C31" s="115"/>
-      <c r="D31" s="121"/>
-      <c r="E31" s="118"/>
+      <c r="B31" s="135"/>
+      <c r="C31" s="126"/>
+      <c r="D31" s="138"/>
+      <c r="E31" s="135"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -64140,10 +64140,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="119"/>
-      <c r="C32" s="116"/>
-      <c r="D32" s="121"/>
-      <c r="E32" s="119"/>
+      <c r="B32" s="136"/>
+      <c r="C32" s="127"/>
+      <c r="D32" s="138"/>
+      <c r="E32" s="136"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -64208,10 +64208,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="119"/>
-      <c r="C33" s="116"/>
-      <c r="D33" s="121"/>
-      <c r="E33" s="119"/>
+      <c r="B33" s="136"/>
+      <c r="C33" s="127"/>
+      <c r="D33" s="138"/>
+      <c r="E33" s="136"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -64276,10 +64276,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="119"/>
-      <c r="C34" s="116"/>
-      <c r="D34" s="121"/>
-      <c r="E34" s="119"/>
+      <c r="B34" s="136"/>
+      <c r="C34" s="127"/>
+      <c r="D34" s="138"/>
+      <c r="E34" s="136"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -64344,10 +64344,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="119"/>
-      <c r="C35" s="116"/>
-      <c r="D35" s="121"/>
-      <c r="E35" s="119"/>
+      <c r="B35" s="136"/>
+      <c r="C35" s="127"/>
+      <c r="D35" s="138"/>
+      <c r="E35" s="136"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -64412,10 +64412,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="119"/>
-      <c r="C36" s="116"/>
-      <c r="D36" s="121"/>
-      <c r="E36" s="119"/>
+      <c r="B36" s="136"/>
+      <c r="C36" s="127"/>
+      <c r="D36" s="138"/>
+      <c r="E36" s="136"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -64480,10 +64480,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="119"/>
-      <c r="C37" s="116"/>
-      <c r="D37" s="121"/>
-      <c r="E37" s="119"/>
+      <c r="B37" s="136"/>
+      <c r="C37" s="127"/>
+      <c r="D37" s="138"/>
+      <c r="E37" s="136"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -64548,10 +64548,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="119"/>
-      <c r="C38" s="116"/>
-      <c r="D38" s="121"/>
-      <c r="E38" s="119"/>
+      <c r="B38" s="136"/>
+      <c r="C38" s="127"/>
+      <c r="D38" s="138"/>
+      <c r="E38" s="136"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -64616,10 +64616,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="119"/>
-      <c r="C39" s="116"/>
-      <c r="D39" s="121"/>
-      <c r="E39" s="119"/>
+      <c r="B39" s="136"/>
+      <c r="C39" s="127"/>
+      <c r="D39" s="138"/>
+      <c r="E39" s="136"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -64684,10 +64684,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="119"/>
-      <c r="C40" s="116"/>
-      <c r="D40" s="121"/>
-      <c r="E40" s="119"/>
+      <c r="B40" s="136"/>
+      <c r="C40" s="127"/>
+      <c r="D40" s="138"/>
+      <c r="E40" s="136"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -64752,10 +64752,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="119"/>
-      <c r="C41" s="116"/>
-      <c r="D41" s="121"/>
-      <c r="E41" s="119"/>
+      <c r="B41" s="136"/>
+      <c r="C41" s="127"/>
+      <c r="D41" s="138"/>
+      <c r="E41" s="136"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -64820,10 +64820,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="119"/>
-      <c r="C42" s="116"/>
-      <c r="D42" s="121"/>
-      <c r="E42" s="119"/>
+      <c r="B42" s="136"/>
+      <c r="C42" s="127"/>
+      <c r="D42" s="138"/>
+      <c r="E42" s="136"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -64888,10 +64888,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="119"/>
-      <c r="C43" s="116"/>
-      <c r="D43" s="121"/>
-      <c r="E43" s="119"/>
+      <c r="B43" s="136"/>
+      <c r="C43" s="127"/>
+      <c r="D43" s="138"/>
+      <c r="E43" s="136"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -64956,10 +64956,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="119"/>
-      <c r="C44" s="116"/>
-      <c r="D44" s="121"/>
-      <c r="E44" s="119"/>
+      <c r="B44" s="136"/>
+      <c r="C44" s="127"/>
+      <c r="D44" s="138"/>
+      <c r="E44" s="136"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -65024,10 +65024,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="119"/>
-      <c r="C45" s="116"/>
-      <c r="D45" s="121"/>
-      <c r="E45" s="119"/>
+      <c r="B45" s="136"/>
+      <c r="C45" s="127"/>
+      <c r="D45" s="138"/>
+      <c r="E45" s="136"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -65092,10 +65092,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="119"/>
-      <c r="C46" s="116"/>
-      <c r="D46" s="121"/>
-      <c r="E46" s="119"/>
+      <c r="B46" s="136"/>
+      <c r="C46" s="127"/>
+      <c r="D46" s="138"/>
+      <c r="E46" s="136"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -65160,10 +65160,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="119"/>
-      <c r="C47" s="116"/>
-      <c r="D47" s="121"/>
-      <c r="E47" s="119"/>
+      <c r="B47" s="136"/>
+      <c r="C47" s="127"/>
+      <c r="D47" s="138"/>
+      <c r="E47" s="136"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -65228,10 +65228,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="119"/>
-      <c r="C48" s="116"/>
-      <c r="D48" s="121"/>
-      <c r="E48" s="119"/>
+      <c r="B48" s="136"/>
+      <c r="C48" s="127"/>
+      <c r="D48" s="138"/>
+      <c r="E48" s="136"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -65296,10 +65296,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="119"/>
-      <c r="C49" s="116"/>
-      <c r="D49" s="121"/>
-      <c r="E49" s="119"/>
+      <c r="B49" s="136"/>
+      <c r="C49" s="127"/>
+      <c r="D49" s="138"/>
+      <c r="E49" s="136"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -65364,10 +65364,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="119"/>
-      <c r="C50" s="116"/>
-      <c r="D50" s="121"/>
-      <c r="E50" s="119"/>
+      <c r="B50" s="136"/>
+      <c r="C50" s="127"/>
+      <c r="D50" s="138"/>
+      <c r="E50" s="136"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -65432,10 +65432,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="119"/>
-      <c r="C51" s="116"/>
-      <c r="D51" s="121"/>
-      <c r="E51" s="119"/>
+      <c r="B51" s="136"/>
+      <c r="C51" s="127"/>
+      <c r="D51" s="138"/>
+      <c r="E51" s="136"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -65500,10 +65500,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="119"/>
-      <c r="C52" s="116"/>
-      <c r="D52" s="121"/>
-      <c r="E52" s="119"/>
+      <c r="B52" s="136"/>
+      <c r="C52" s="127"/>
+      <c r="D52" s="138"/>
+      <c r="E52" s="136"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -65568,10 +65568,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="119"/>
-      <c r="C53" s="116"/>
-      <c r="D53" s="121"/>
-      <c r="E53" s="119"/>
+      <c r="B53" s="136"/>
+      <c r="C53" s="127"/>
+      <c r="D53" s="138"/>
+      <c r="E53" s="136"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -65636,10 +65636,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="119"/>
-      <c r="C54" s="116"/>
-      <c r="D54" s="121"/>
-      <c r="E54" s="119"/>
+      <c r="B54" s="136"/>
+      <c r="C54" s="127"/>
+      <c r="D54" s="138"/>
+      <c r="E54" s="136"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -65704,10 +65704,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="119"/>
-      <c r="C55" s="116"/>
-      <c r="D55" s="121"/>
-      <c r="E55" s="119"/>
+      <c r="B55" s="136"/>
+      <c r="C55" s="127"/>
+      <c r="D55" s="138"/>
+      <c r="E55" s="136"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -65772,10 +65772,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="119"/>
-      <c r="C56" s="116"/>
-      <c r="D56" s="121"/>
-      <c r="E56" s="119"/>
+      <c r="B56" s="136"/>
+      <c r="C56" s="127"/>
+      <c r="D56" s="138"/>
+      <c r="E56" s="136"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -65840,10 +65840,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="119"/>
-      <c r="C57" s="116"/>
-      <c r="D57" s="121"/>
-      <c r="E57" s="119"/>
+      <c r="B57" s="136"/>
+      <c r="C57" s="127"/>
+      <c r="D57" s="138"/>
+      <c r="E57" s="136"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -65903,10 +65903,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="120"/>
-      <c r="C58" s="117"/>
-      <c r="D58" s="121"/>
-      <c r="E58" s="120"/>
+      <c r="B58" s="137"/>
+      <c r="C58" s="134"/>
+      <c r="D58" s="138"/>
+      <c r="E58" s="137"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -65971,7 +65971,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="109" t="s">
+      <c r="B59" s="128" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -66043,7 +66043,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="109"/>
+      <c r="B60" s="128"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -66113,7 +66113,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="110" t="s">
+      <c r="B61" s="129" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -66185,7 +66185,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="110"/>
+      <c r="B62" s="129"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -66253,7 +66253,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="110"/>
+      <c r="B63" s="129"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -66462,22 +66462,21 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:BM5"/>
-    <mergeCell ref="AT6:AX6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="U6:Y6"/>
-    <mergeCell ref="Z6:AD6"/>
-    <mergeCell ref="AE6:AI6"/>
-    <mergeCell ref="AJ6:AN6"/>
-    <mergeCell ref="AO6:AS6"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="E31:E58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="B13:B19"/>
     <mergeCell ref="B9:B12"/>
     <mergeCell ref="D9:D12"/>
     <mergeCell ref="D7:D8"/>
@@ -66488,21 +66487,22 @@
     <mergeCell ref="BI6:BM6"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="E7:E8"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="E31:E58"/>
-    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="U6:Y6"/>
+    <mergeCell ref="Z6:AD6"/>
+    <mergeCell ref="AE6:AI6"/>
+    <mergeCell ref="AJ6:AN6"/>
+    <mergeCell ref="AO6:AS6"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:BM5"/>
+    <mergeCell ref="AT6:AX6"/>
+    <mergeCell ref="D5:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/QC_QNU_Training_Progress.xlsx
+++ b/QC_QNU_Training_Progress.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\QC_Training_2019_01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Internship\GIT_Training\QC_Training_2019_01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="690"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="690" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Truong Thi Thu Huong" sheetId="4" r:id="rId1"/>
@@ -236,7 +236,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mmmm\ d&quot;, &quot;yyyy;@"/>
   </numFmts>
@@ -1028,63 +1028,6 @@
     <xf numFmtId="0" fontId="6" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1103,6 +1046,12 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1117,6 +1066,57 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1404,7 +1404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AML65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="AB14" sqref="AB14"/>
     </sheetView>
   </sheetViews>
@@ -1426,13 +1426,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="134" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
     </row>
     <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
@@ -1598,84 +1598,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="111" t="s">
+      <c r="C5" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="112" t="s">
+      <c r="D5" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="110" t="s">
+      <c r="E5" s="132" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="113" t="s">
+      <c r="F5" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="113"/>
-      <c r="K5" s="113"/>
-      <c r="L5" s="113"/>
-      <c r="M5" s="113"/>
-      <c r="N5" s="113"/>
-      <c r="O5" s="113"/>
-      <c r="P5" s="113"/>
-      <c r="Q5" s="113"/>
-      <c r="R5" s="113"/>
-      <c r="S5" s="113"/>
-      <c r="T5" s="113"/>
-      <c r="U5" s="113"/>
-      <c r="V5" s="113"/>
-      <c r="W5" s="113"/>
-      <c r="X5" s="113"/>
-      <c r="Y5" s="113"/>
-      <c r="Z5" s="113"/>
-      <c r="AA5" s="113"/>
-      <c r="AB5" s="113"/>
-      <c r="AC5" s="113"/>
-      <c r="AD5" s="113"/>
-      <c r="AE5" s="113"/>
-      <c r="AF5" s="113"/>
-      <c r="AG5" s="113"/>
-      <c r="AH5" s="113"/>
-      <c r="AI5" s="113"/>
-      <c r="AJ5" s="113"/>
-      <c r="AK5" s="113"/>
-      <c r="AL5" s="113"/>
-      <c r="AM5" s="113"/>
-      <c r="AN5" s="113"/>
-      <c r="AO5" s="113"/>
-      <c r="AP5" s="113"/>
-      <c r="AQ5" s="113"/>
-      <c r="AR5" s="113"/>
-      <c r="AS5" s="113"/>
-      <c r="AT5" s="113"/>
-      <c r="AU5" s="113"/>
-      <c r="AV5" s="113"/>
-      <c r="AW5" s="113"/>
-      <c r="AX5" s="113"/>
-      <c r="AY5" s="113"/>
-      <c r="AZ5" s="113"/>
-      <c r="BA5" s="113"/>
-      <c r="BB5" s="113"/>
-      <c r="BC5" s="113"/>
-      <c r="BD5" s="113"/>
-      <c r="BE5" s="113"/>
-      <c r="BF5" s="113"/>
-      <c r="BG5" s="113"/>
-      <c r="BH5" s="113"/>
-      <c r="BI5" s="113"/>
-      <c r="BJ5" s="113"/>
-      <c r="BK5" s="113"/>
-      <c r="BL5" s="113"/>
-      <c r="BM5" s="113"/>
-      <c r="BN5" s="116" t="s">
+      <c r="G5" s="137"/>
+      <c r="H5" s="137"/>
+      <c r="I5" s="137"/>
+      <c r="J5" s="137"/>
+      <c r="K5" s="137"/>
+      <c r="L5" s="137"/>
+      <c r="M5" s="137"/>
+      <c r="N5" s="137"/>
+      <c r="O5" s="137"/>
+      <c r="P5" s="137"/>
+      <c r="Q5" s="137"/>
+      <c r="R5" s="137"/>
+      <c r="S5" s="137"/>
+      <c r="T5" s="137"/>
+      <c r="U5" s="137"/>
+      <c r="V5" s="137"/>
+      <c r="W5" s="137"/>
+      <c r="X5" s="137"/>
+      <c r="Y5" s="137"/>
+      <c r="Z5" s="137"/>
+      <c r="AA5" s="137"/>
+      <c r="AB5" s="137"/>
+      <c r="AC5" s="137"/>
+      <c r="AD5" s="137"/>
+      <c r="AE5" s="137"/>
+      <c r="AF5" s="137"/>
+      <c r="AG5" s="137"/>
+      <c r="AH5" s="137"/>
+      <c r="AI5" s="137"/>
+      <c r="AJ5" s="137"/>
+      <c r="AK5" s="137"/>
+      <c r="AL5" s="137"/>
+      <c r="AM5" s="137"/>
+      <c r="AN5" s="137"/>
+      <c r="AO5" s="137"/>
+      <c r="AP5" s="137"/>
+      <c r="AQ5" s="137"/>
+      <c r="AR5" s="137"/>
+      <c r="AS5" s="137"/>
+      <c r="AT5" s="137"/>
+      <c r="AU5" s="137"/>
+      <c r="AV5" s="137"/>
+      <c r="AW5" s="137"/>
+      <c r="AX5" s="137"/>
+      <c r="AY5" s="137"/>
+      <c r="AZ5" s="137"/>
+      <c r="BA5" s="137"/>
+      <c r="BB5" s="137"/>
+      <c r="BC5" s="137"/>
+      <c r="BD5" s="137"/>
+      <c r="BE5" s="137"/>
+      <c r="BF5" s="137"/>
+      <c r="BG5" s="137"/>
+      <c r="BH5" s="137"/>
+      <c r="BI5" s="137"/>
+      <c r="BJ5" s="137"/>
+      <c r="BK5" s="137"/>
+      <c r="BL5" s="137"/>
+      <c r="BM5" s="137"/>
+      <c r="BN5" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="110" t="s">
+      <c r="BO5" s="132" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -1684,107 +1684,107 @@
       <c r="BU5" s="94"/>
     </row>
     <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="110"/>
-      <c r="C6" s="111"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="114" t="s">
+      <c r="B6" s="132"/>
+      <c r="C6" s="135"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="133" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="114" t="s">
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="133"/>
+      <c r="K6" s="133" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="114"/>
-      <c r="M6" s="114"/>
-      <c r="N6" s="114"/>
-      <c r="O6" s="114"/>
-      <c r="P6" s="114" t="s">
+      <c r="L6" s="133"/>
+      <c r="M6" s="133"/>
+      <c r="N6" s="133"/>
+      <c r="O6" s="133"/>
+      <c r="P6" s="133" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="114"/>
-      <c r="R6" s="114"/>
-      <c r="S6" s="114"/>
-      <c r="T6" s="114"/>
-      <c r="U6" s="114" t="s">
+      <c r="Q6" s="133"/>
+      <c r="R6" s="133"/>
+      <c r="S6" s="133"/>
+      <c r="T6" s="133"/>
+      <c r="U6" s="133" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="114"/>
-      <c r="W6" s="114"/>
-      <c r="X6" s="114"/>
-      <c r="Y6" s="114"/>
-      <c r="Z6" s="114" t="s">
+      <c r="V6" s="133"/>
+      <c r="W6" s="133"/>
+      <c r="X6" s="133"/>
+      <c r="Y6" s="133"/>
+      <c r="Z6" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="114"/>
-      <c r="AB6" s="114"/>
-      <c r="AC6" s="114"/>
-      <c r="AD6" s="114"/>
-      <c r="AE6" s="114" t="s">
+      <c r="AA6" s="133"/>
+      <c r="AB6" s="133"/>
+      <c r="AC6" s="133"/>
+      <c r="AD6" s="133"/>
+      <c r="AE6" s="133" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="114"/>
-      <c r="AG6" s="114"/>
-      <c r="AH6" s="114"/>
-      <c r="AI6" s="114"/>
-      <c r="AJ6" s="114" t="s">
+      <c r="AF6" s="133"/>
+      <c r="AG6" s="133"/>
+      <c r="AH6" s="133"/>
+      <c r="AI6" s="133"/>
+      <c r="AJ6" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="114"/>
-      <c r="AL6" s="114"/>
-      <c r="AM6" s="114"/>
-      <c r="AN6" s="114"/>
-      <c r="AO6" s="114" t="s">
+      <c r="AK6" s="133"/>
+      <c r="AL6" s="133"/>
+      <c r="AM6" s="133"/>
+      <c r="AN6" s="133"/>
+      <c r="AO6" s="133" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="114"/>
-      <c r="AQ6" s="114"/>
-      <c r="AR6" s="114"/>
-      <c r="AS6" s="114"/>
-      <c r="AT6" s="114" t="s">
+      <c r="AP6" s="133"/>
+      <c r="AQ6" s="133"/>
+      <c r="AR6" s="133"/>
+      <c r="AS6" s="133"/>
+      <c r="AT6" s="133" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="114"/>
-      <c r="AV6" s="114"/>
-      <c r="AW6" s="114"/>
-      <c r="AX6" s="114"/>
-      <c r="AY6" s="114" t="s">
+      <c r="AU6" s="133"/>
+      <c r="AV6" s="133"/>
+      <c r="AW6" s="133"/>
+      <c r="AX6" s="133"/>
+      <c r="AY6" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="114"/>
-      <c r="BA6" s="114"/>
-      <c r="BB6" s="114"/>
-      <c r="BC6" s="114"/>
-      <c r="BD6" s="114" t="s">
+      <c r="AZ6" s="133"/>
+      <c r="BA6" s="133"/>
+      <c r="BB6" s="133"/>
+      <c r="BC6" s="133"/>
+      <c r="BD6" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="114"/>
-      <c r="BF6" s="114"/>
-      <c r="BG6" s="114"/>
-      <c r="BH6" s="114"/>
-      <c r="BI6" s="115" t="s">
+      <c r="BE6" s="133"/>
+      <c r="BF6" s="133"/>
+      <c r="BG6" s="133"/>
+      <c r="BH6" s="133"/>
+      <c r="BI6" s="138" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="115"/>
-      <c r="BK6" s="115"/>
-      <c r="BL6" s="115"/>
-      <c r="BM6" s="115"/>
-      <c r="BN6" s="116"/>
-      <c r="BO6" s="110"/>
+      <c r="BJ6" s="138"/>
+      <c r="BK6" s="138"/>
+      <c r="BL6" s="138"/>
+      <c r="BM6" s="138"/>
+      <c r="BN6" s="131"/>
+      <c r="BO6" s="132"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="117" t="s">
+      <c r="B7" s="126" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="117"/>
-      <c r="E7" s="118"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="127"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -2809,12 +2809,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="117"/>
+      <c r="B8" s="126"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="117"/>
-      <c r="E8" s="119"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="124"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -3838,14 +3838,14 @@
       <c r="AML8" s="23"/>
     </row>
     <row r="9" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="120" t="s">
+      <c r="B9" s="122" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="121"/>
-      <c r="E9" s="122"/>
+      <c r="D9" s="123"/>
+      <c r="E9" s="128"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
       <c r="H9" s="103"/>
@@ -4869,12 +4869,12 @@
       <c r="AML9" s="21"/>
     </row>
     <row r="10" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B10" s="120"/>
+      <c r="B10" s="122"/>
       <c r="C10" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="121"/>
-      <c r="E10" s="123"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="129"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -5898,12 +5898,12 @@
       <c r="AML10" s="21"/>
     </row>
     <row r="11" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="120"/>
+      <c r="B11" s="122"/>
       <c r="C11" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="121"/>
-      <c r="E11" s="123"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="129"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -6927,12 +6927,12 @@
       <c r="AML11" s="21"/>
     </row>
     <row r="12" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="120"/>
+      <c r="B12" s="122"/>
       <c r="C12" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="121"/>
-      <c r="E12" s="124"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="130"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -6997,14 +6997,14 @@
       <c r="BO12" s="31"/>
     </row>
     <row r="13" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B13" s="120" t="s">
+      <c r="B13" s="122" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="121"/>
-      <c r="E13" s="119"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="124"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -7069,12 +7069,12 @@
       <c r="BO13" s="20"/>
     </row>
     <row r="14" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B14" s="120"/>
+      <c r="B14" s="122"/>
       <c r="C14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="121"/>
-      <c r="E14" s="119"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="124"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -7139,12 +7139,12 @@
       <c r="BO14" s="31"/>
     </row>
     <row r="15" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="120"/>
+      <c r="B15" s="122"/>
       <c r="C15" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="121"/>
-      <c r="E15" s="119"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="124"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -7209,12 +7209,12 @@
       <c r="BO15" s="31"/>
     </row>
     <row r="16" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B16" s="120"/>
+      <c r="B16" s="122"/>
       <c r="C16" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="121"/>
-      <c r="E16" s="119"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="124"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -7279,12 +7279,12 @@
       <c r="BO16" s="31"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B17" s="120"/>
+      <c r="B17" s="122"/>
       <c r="C17" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="121"/>
-      <c r="E17" s="119"/>
+      <c r="D17" s="123"/>
+      <c r="E17" s="124"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -7349,12 +7349,12 @@
       <c r="BO17" s="31"/>
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B18" s="120"/>
+      <c r="B18" s="122"/>
       <c r="C18" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="121"/>
-      <c r="E18" s="119"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="124"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -7419,12 +7419,12 @@
       <c r="BO18" s="31"/>
     </row>
     <row r="19" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B19" s="120"/>
+      <c r="B19" s="122"/>
       <c r="C19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="121"/>
-      <c r="E19" s="119"/>
+      <c r="D19" s="123"/>
+      <c r="E19" s="124"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -7495,8 +7495,8 @@
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="117"/>
-      <c r="E20" s="126"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="115"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -7565,8 +7565,8 @@
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="117"/>
-      <c r="E21" s="127"/>
+      <c r="D21" s="126"/>
+      <c r="E21" s="116"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -7635,8 +7635,8 @@
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="117"/>
-      <c r="E22" s="127"/>
+      <c r="D22" s="126"/>
+      <c r="E22" s="116"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -7705,8 +7705,8 @@
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="117"/>
-      <c r="E23" s="127"/>
+      <c r="D23" s="126"/>
+      <c r="E23" s="116"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -7775,8 +7775,8 @@
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="117"/>
-      <c r="E24" s="127"/>
+      <c r="D24" s="126"/>
+      <c r="E24" s="116"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -7841,14 +7841,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="130" t="s">
+      <c r="B25" s="111" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="133"/>
-      <c r="E25" s="126"/>
+      <c r="D25" s="114"/>
+      <c r="E25" s="115"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -7913,12 +7913,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="131"/>
+      <c r="B26" s="112"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="133"/>
-      <c r="E26" s="127"/>
+      <c r="D26" s="114"/>
+      <c r="E26" s="116"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -7983,12 +7983,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="131"/>
+      <c r="B27" s="112"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="133"/>
-      <c r="E27" s="127"/>
+      <c r="D27" s="114"/>
+      <c r="E27" s="116"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -8053,12 +8053,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="131"/>
+      <c r="B28" s="112"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="133"/>
-      <c r="E28" s="127"/>
+      <c r="D28" s="114"/>
+      <c r="E28" s="116"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -8123,12 +8123,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="132"/>
+      <c r="B29" s="113"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="133"/>
-      <c r="E29" s="134"/>
+      <c r="D29" s="114"/>
+      <c r="E29" s="117"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -8265,10 +8265,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="135"/>
-      <c r="C31" s="126"/>
-      <c r="D31" s="138"/>
-      <c r="E31" s="135"/>
+      <c r="B31" s="118"/>
+      <c r="C31" s="115"/>
+      <c r="D31" s="121"/>
+      <c r="E31" s="118"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -8333,10 +8333,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="136"/>
-      <c r="C32" s="127"/>
-      <c r="D32" s="138"/>
-      <c r="E32" s="136"/>
+      <c r="B32" s="119"/>
+      <c r="C32" s="116"/>
+      <c r="D32" s="121"/>
+      <c r="E32" s="119"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -8401,10 +8401,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="136"/>
-      <c r="C33" s="127"/>
-      <c r="D33" s="138"/>
-      <c r="E33" s="136"/>
+      <c r="B33" s="119"/>
+      <c r="C33" s="116"/>
+      <c r="D33" s="121"/>
+      <c r="E33" s="119"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -8469,10 +8469,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="136"/>
-      <c r="C34" s="127"/>
-      <c r="D34" s="138"/>
-      <c r="E34" s="136"/>
+      <c r="B34" s="119"/>
+      <c r="C34" s="116"/>
+      <c r="D34" s="121"/>
+      <c r="E34" s="119"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -8537,10 +8537,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="136"/>
-      <c r="C35" s="127"/>
-      <c r="D35" s="138"/>
-      <c r="E35" s="136"/>
+      <c r="B35" s="119"/>
+      <c r="C35" s="116"/>
+      <c r="D35" s="121"/>
+      <c r="E35" s="119"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -8605,10 +8605,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="136"/>
-      <c r="C36" s="127"/>
-      <c r="D36" s="138"/>
-      <c r="E36" s="136"/>
+      <c r="B36" s="119"/>
+      <c r="C36" s="116"/>
+      <c r="D36" s="121"/>
+      <c r="E36" s="119"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -8673,10 +8673,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="136"/>
-      <c r="C37" s="127"/>
-      <c r="D37" s="138"/>
-      <c r="E37" s="136"/>
+      <c r="B37" s="119"/>
+      <c r="C37" s="116"/>
+      <c r="D37" s="121"/>
+      <c r="E37" s="119"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -8741,10 +8741,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="136"/>
-      <c r="C38" s="127"/>
-      <c r="D38" s="138"/>
-      <c r="E38" s="136"/>
+      <c r="B38" s="119"/>
+      <c r="C38" s="116"/>
+      <c r="D38" s="121"/>
+      <c r="E38" s="119"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -8809,10 +8809,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="136"/>
-      <c r="C39" s="127"/>
-      <c r="D39" s="138"/>
-      <c r="E39" s="136"/>
+      <c r="B39" s="119"/>
+      <c r="C39" s="116"/>
+      <c r="D39" s="121"/>
+      <c r="E39" s="119"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -8877,10 +8877,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="136"/>
-      <c r="C40" s="127"/>
-      <c r="D40" s="138"/>
-      <c r="E40" s="136"/>
+      <c r="B40" s="119"/>
+      <c r="C40" s="116"/>
+      <c r="D40" s="121"/>
+      <c r="E40" s="119"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -8945,10 +8945,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="136"/>
-      <c r="C41" s="127"/>
-      <c r="D41" s="138"/>
-      <c r="E41" s="136"/>
+      <c r="B41" s="119"/>
+      <c r="C41" s="116"/>
+      <c r="D41" s="121"/>
+      <c r="E41" s="119"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -9013,10 +9013,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="136"/>
-      <c r="C42" s="127"/>
-      <c r="D42" s="138"/>
-      <c r="E42" s="136"/>
+      <c r="B42" s="119"/>
+      <c r="C42" s="116"/>
+      <c r="D42" s="121"/>
+      <c r="E42" s="119"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -9081,10 +9081,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="136"/>
-      <c r="C43" s="127"/>
-      <c r="D43" s="138"/>
-      <c r="E43" s="136"/>
+      <c r="B43" s="119"/>
+      <c r="C43" s="116"/>
+      <c r="D43" s="121"/>
+      <c r="E43" s="119"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -9149,10 +9149,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="136"/>
-      <c r="C44" s="127"/>
-      <c r="D44" s="138"/>
-      <c r="E44" s="136"/>
+      <c r="B44" s="119"/>
+      <c r="C44" s="116"/>
+      <c r="D44" s="121"/>
+      <c r="E44" s="119"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -9217,10 +9217,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="136"/>
-      <c r="C45" s="127"/>
-      <c r="D45" s="138"/>
-      <c r="E45" s="136"/>
+      <c r="B45" s="119"/>
+      <c r="C45" s="116"/>
+      <c r="D45" s="121"/>
+      <c r="E45" s="119"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -9285,10 +9285,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="136"/>
-      <c r="C46" s="127"/>
-      <c r="D46" s="138"/>
-      <c r="E46" s="136"/>
+      <c r="B46" s="119"/>
+      <c r="C46" s="116"/>
+      <c r="D46" s="121"/>
+      <c r="E46" s="119"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -9353,10 +9353,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="136"/>
-      <c r="C47" s="127"/>
-      <c r="D47" s="138"/>
-      <c r="E47" s="136"/>
+      <c r="B47" s="119"/>
+      <c r="C47" s="116"/>
+      <c r="D47" s="121"/>
+      <c r="E47" s="119"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -9421,10 +9421,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="136"/>
-      <c r="C48" s="127"/>
-      <c r="D48" s="138"/>
-      <c r="E48" s="136"/>
+      <c r="B48" s="119"/>
+      <c r="C48" s="116"/>
+      <c r="D48" s="121"/>
+      <c r="E48" s="119"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -9489,10 +9489,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="136"/>
-      <c r="C49" s="127"/>
-      <c r="D49" s="138"/>
-      <c r="E49" s="136"/>
+      <c r="B49" s="119"/>
+      <c r="C49" s="116"/>
+      <c r="D49" s="121"/>
+      <c r="E49" s="119"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -9557,10 +9557,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="136"/>
-      <c r="C50" s="127"/>
-      <c r="D50" s="138"/>
-      <c r="E50" s="136"/>
+      <c r="B50" s="119"/>
+      <c r="C50" s="116"/>
+      <c r="D50" s="121"/>
+      <c r="E50" s="119"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -9625,10 +9625,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="136"/>
-      <c r="C51" s="127"/>
-      <c r="D51" s="138"/>
-      <c r="E51" s="136"/>
+      <c r="B51" s="119"/>
+      <c r="C51" s="116"/>
+      <c r="D51" s="121"/>
+      <c r="E51" s="119"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -9693,10 +9693,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="136"/>
-      <c r="C52" s="127"/>
-      <c r="D52" s="138"/>
-      <c r="E52" s="136"/>
+      <c r="B52" s="119"/>
+      <c r="C52" s="116"/>
+      <c r="D52" s="121"/>
+      <c r="E52" s="119"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -9761,10 +9761,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="136"/>
-      <c r="C53" s="127"/>
-      <c r="D53" s="138"/>
-      <c r="E53" s="136"/>
+      <c r="B53" s="119"/>
+      <c r="C53" s="116"/>
+      <c r="D53" s="121"/>
+      <c r="E53" s="119"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -9829,10 +9829,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="136"/>
-      <c r="C54" s="127"/>
-      <c r="D54" s="138"/>
-      <c r="E54" s="136"/>
+      <c r="B54" s="119"/>
+      <c r="C54" s="116"/>
+      <c r="D54" s="121"/>
+      <c r="E54" s="119"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -9897,10 +9897,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="136"/>
-      <c r="C55" s="127"/>
-      <c r="D55" s="138"/>
-      <c r="E55" s="136"/>
+      <c r="B55" s="119"/>
+      <c r="C55" s="116"/>
+      <c r="D55" s="121"/>
+      <c r="E55" s="119"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -9965,10 +9965,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="136"/>
-      <c r="C56" s="127"/>
-      <c r="D56" s="138"/>
-      <c r="E56" s="136"/>
+      <c r="B56" s="119"/>
+      <c r="C56" s="116"/>
+      <c r="D56" s="121"/>
+      <c r="E56" s="119"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -10033,10 +10033,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="136"/>
-      <c r="C57" s="127"/>
-      <c r="D57" s="138"/>
-      <c r="E57" s="136"/>
+      <c r="B57" s="119"/>
+      <c r="C57" s="116"/>
+      <c r="D57" s="121"/>
+      <c r="E57" s="119"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -10096,10 +10096,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="137"/>
-      <c r="C58" s="134"/>
-      <c r="D58" s="138"/>
-      <c r="E58" s="137"/>
+      <c r="B58" s="120"/>
+      <c r="C58" s="117"/>
+      <c r="D58" s="121"/>
+      <c r="E58" s="120"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -10164,7 +10164,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="128" t="s">
+      <c r="B59" s="109" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -10236,7 +10236,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="128"/>
+      <c r="B60" s="109"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -10306,7 +10306,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="129" t="s">
+      <c r="B61" s="110" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -10378,7 +10378,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="129"/>
+      <c r="B62" s="110"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -10446,7 +10446,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="129"/>
+      <c r="B63" s="110"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -10655,27 +10655,16 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="E31:E58"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:BM5"/>
+    <mergeCell ref="AT6:AX6"/>
+    <mergeCell ref="AY6:BC6"/>
+    <mergeCell ref="BD6:BH6"/>
+    <mergeCell ref="BI6:BM6"/>
     <mergeCell ref="BN5:BN6"/>
     <mergeCell ref="BO5:BO6"/>
     <mergeCell ref="F6:J6"/>
@@ -10686,16 +10675,27 @@
     <mergeCell ref="AE6:AI6"/>
     <mergeCell ref="AJ6:AN6"/>
     <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:BM5"/>
-    <mergeCell ref="AT6:AX6"/>
-    <mergeCell ref="AY6:BC6"/>
-    <mergeCell ref="BD6:BH6"/>
-    <mergeCell ref="BI6:BM6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="E31:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10727,13 +10727,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="134" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
     </row>
     <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
@@ -10899,84 +10899,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="111" t="s">
+      <c r="C5" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="112" t="s">
+      <c r="D5" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="110" t="s">
+      <c r="E5" s="132" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="113" t="s">
+      <c r="F5" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="113"/>
-      <c r="K5" s="113"/>
-      <c r="L5" s="113"/>
-      <c r="M5" s="113"/>
-      <c r="N5" s="113"/>
-      <c r="O5" s="113"/>
-      <c r="P5" s="113"/>
-      <c r="Q5" s="113"/>
-      <c r="R5" s="113"/>
-      <c r="S5" s="113"/>
-      <c r="T5" s="113"/>
-      <c r="U5" s="113"/>
-      <c r="V5" s="113"/>
-      <c r="W5" s="113"/>
-      <c r="X5" s="113"/>
-      <c r="Y5" s="113"/>
-      <c r="Z5" s="113"/>
-      <c r="AA5" s="113"/>
-      <c r="AB5" s="113"/>
-      <c r="AC5" s="113"/>
-      <c r="AD5" s="113"/>
-      <c r="AE5" s="113"/>
-      <c r="AF5" s="113"/>
-      <c r="AG5" s="113"/>
-      <c r="AH5" s="113"/>
-      <c r="AI5" s="113"/>
-      <c r="AJ5" s="113"/>
-      <c r="AK5" s="113"/>
-      <c r="AL5" s="113"/>
-      <c r="AM5" s="113"/>
-      <c r="AN5" s="113"/>
-      <c r="AO5" s="113"/>
-      <c r="AP5" s="113"/>
-      <c r="AQ5" s="113"/>
-      <c r="AR5" s="113"/>
-      <c r="AS5" s="113"/>
-      <c r="AT5" s="113"/>
-      <c r="AU5" s="113"/>
-      <c r="AV5" s="113"/>
-      <c r="AW5" s="113"/>
-      <c r="AX5" s="113"/>
-      <c r="AY5" s="113"/>
-      <c r="AZ5" s="113"/>
-      <c r="BA5" s="113"/>
-      <c r="BB5" s="113"/>
-      <c r="BC5" s="113"/>
-      <c r="BD5" s="113"/>
-      <c r="BE5" s="113"/>
-      <c r="BF5" s="113"/>
-      <c r="BG5" s="113"/>
-      <c r="BH5" s="113"/>
-      <c r="BI5" s="113"/>
-      <c r="BJ5" s="113"/>
-      <c r="BK5" s="113"/>
-      <c r="BL5" s="113"/>
-      <c r="BM5" s="113"/>
-      <c r="BN5" s="116" t="s">
+      <c r="G5" s="137"/>
+      <c r="H5" s="137"/>
+      <c r="I5" s="137"/>
+      <c r="J5" s="137"/>
+      <c r="K5" s="137"/>
+      <c r="L5" s="137"/>
+      <c r="M5" s="137"/>
+      <c r="N5" s="137"/>
+      <c r="O5" s="137"/>
+      <c r="P5" s="137"/>
+      <c r="Q5" s="137"/>
+      <c r="R5" s="137"/>
+      <c r="S5" s="137"/>
+      <c r="T5" s="137"/>
+      <c r="U5" s="137"/>
+      <c r="V5" s="137"/>
+      <c r="W5" s="137"/>
+      <c r="X5" s="137"/>
+      <c r="Y5" s="137"/>
+      <c r="Z5" s="137"/>
+      <c r="AA5" s="137"/>
+      <c r="AB5" s="137"/>
+      <c r="AC5" s="137"/>
+      <c r="AD5" s="137"/>
+      <c r="AE5" s="137"/>
+      <c r="AF5" s="137"/>
+      <c r="AG5" s="137"/>
+      <c r="AH5" s="137"/>
+      <c r="AI5" s="137"/>
+      <c r="AJ5" s="137"/>
+      <c r="AK5" s="137"/>
+      <c r="AL5" s="137"/>
+      <c r="AM5" s="137"/>
+      <c r="AN5" s="137"/>
+      <c r="AO5" s="137"/>
+      <c r="AP5" s="137"/>
+      <c r="AQ5" s="137"/>
+      <c r="AR5" s="137"/>
+      <c r="AS5" s="137"/>
+      <c r="AT5" s="137"/>
+      <c r="AU5" s="137"/>
+      <c r="AV5" s="137"/>
+      <c r="AW5" s="137"/>
+      <c r="AX5" s="137"/>
+      <c r="AY5" s="137"/>
+      <c r="AZ5" s="137"/>
+      <c r="BA5" s="137"/>
+      <c r="BB5" s="137"/>
+      <c r="BC5" s="137"/>
+      <c r="BD5" s="137"/>
+      <c r="BE5" s="137"/>
+      <c r="BF5" s="137"/>
+      <c r="BG5" s="137"/>
+      <c r="BH5" s="137"/>
+      <c r="BI5" s="137"/>
+      <c r="BJ5" s="137"/>
+      <c r="BK5" s="137"/>
+      <c r="BL5" s="137"/>
+      <c r="BM5" s="137"/>
+      <c r="BN5" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="110" t="s">
+      <c r="BO5" s="132" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -10985,107 +10985,107 @@
       <c r="BU5" s="94"/>
     </row>
     <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="110"/>
-      <c r="C6" s="111"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="114" t="s">
+      <c r="B6" s="132"/>
+      <c r="C6" s="135"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="133" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="114" t="s">
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="133"/>
+      <c r="K6" s="133" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="114"/>
-      <c r="M6" s="114"/>
-      <c r="N6" s="114"/>
-      <c r="O6" s="114"/>
-      <c r="P6" s="114" t="s">
+      <c r="L6" s="133"/>
+      <c r="M6" s="133"/>
+      <c r="N6" s="133"/>
+      <c r="O6" s="133"/>
+      <c r="P6" s="133" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="114"/>
-      <c r="R6" s="114"/>
-      <c r="S6" s="114"/>
-      <c r="T6" s="114"/>
-      <c r="U6" s="114" t="s">
+      <c r="Q6" s="133"/>
+      <c r="R6" s="133"/>
+      <c r="S6" s="133"/>
+      <c r="T6" s="133"/>
+      <c r="U6" s="133" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="114"/>
-      <c r="W6" s="114"/>
-      <c r="X6" s="114"/>
-      <c r="Y6" s="114"/>
-      <c r="Z6" s="114" t="s">
+      <c r="V6" s="133"/>
+      <c r="W6" s="133"/>
+      <c r="X6" s="133"/>
+      <c r="Y6" s="133"/>
+      <c r="Z6" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="114"/>
-      <c r="AB6" s="114"/>
-      <c r="AC6" s="114"/>
-      <c r="AD6" s="114"/>
-      <c r="AE6" s="114" t="s">
+      <c r="AA6" s="133"/>
+      <c r="AB6" s="133"/>
+      <c r="AC6" s="133"/>
+      <c r="AD6" s="133"/>
+      <c r="AE6" s="133" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="114"/>
-      <c r="AG6" s="114"/>
-      <c r="AH6" s="114"/>
-      <c r="AI6" s="114"/>
-      <c r="AJ6" s="114" t="s">
+      <c r="AF6" s="133"/>
+      <c r="AG6" s="133"/>
+      <c r="AH6" s="133"/>
+      <c r="AI6" s="133"/>
+      <c r="AJ6" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="114"/>
-      <c r="AL6" s="114"/>
-      <c r="AM6" s="114"/>
-      <c r="AN6" s="114"/>
-      <c r="AO6" s="114" t="s">
+      <c r="AK6" s="133"/>
+      <c r="AL6" s="133"/>
+      <c r="AM6" s="133"/>
+      <c r="AN6" s="133"/>
+      <c r="AO6" s="133" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="114"/>
-      <c r="AQ6" s="114"/>
-      <c r="AR6" s="114"/>
-      <c r="AS6" s="114"/>
-      <c r="AT6" s="114" t="s">
+      <c r="AP6" s="133"/>
+      <c r="AQ6" s="133"/>
+      <c r="AR6" s="133"/>
+      <c r="AS6" s="133"/>
+      <c r="AT6" s="133" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="114"/>
-      <c r="AV6" s="114"/>
-      <c r="AW6" s="114"/>
-      <c r="AX6" s="114"/>
-      <c r="AY6" s="114" t="s">
+      <c r="AU6" s="133"/>
+      <c r="AV6" s="133"/>
+      <c r="AW6" s="133"/>
+      <c r="AX6" s="133"/>
+      <c r="AY6" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="114"/>
-      <c r="BA6" s="114"/>
-      <c r="BB6" s="114"/>
-      <c r="BC6" s="114"/>
-      <c r="BD6" s="114" t="s">
+      <c r="AZ6" s="133"/>
+      <c r="BA6" s="133"/>
+      <c r="BB6" s="133"/>
+      <c r="BC6" s="133"/>
+      <c r="BD6" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="114"/>
-      <c r="BF6" s="114"/>
-      <c r="BG6" s="114"/>
-      <c r="BH6" s="114"/>
-      <c r="BI6" s="115" t="s">
+      <c r="BE6" s="133"/>
+      <c r="BF6" s="133"/>
+      <c r="BG6" s="133"/>
+      <c r="BH6" s="133"/>
+      <c r="BI6" s="138" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="115"/>
-      <c r="BK6" s="115"/>
-      <c r="BL6" s="115"/>
-      <c r="BM6" s="115"/>
-      <c r="BN6" s="116"/>
-      <c r="BO6" s="110"/>
+      <c r="BJ6" s="138"/>
+      <c r="BK6" s="138"/>
+      <c r="BL6" s="138"/>
+      <c r="BM6" s="138"/>
+      <c r="BN6" s="131"/>
+      <c r="BO6" s="132"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="117" t="s">
+      <c r="B7" s="126" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="117"/>
-      <c r="E7" s="118"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="127"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -12110,12 +12110,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="117"/>
+      <c r="B8" s="126"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="117"/>
-      <c r="E8" s="119"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="124"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -13139,14 +13139,14 @@
       <c r="AML8" s="23"/>
     </row>
     <row r="9" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="120" t="s">
+      <c r="B9" s="122" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="121"/>
-      <c r="E9" s="122"/>
+      <c r="D9" s="123"/>
+      <c r="E9" s="128"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
       <c r="H9" s="83"/>
@@ -14170,12 +14170,12 @@
       <c r="AML9" s="21"/>
     </row>
     <row r="10" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B10" s="120"/>
+      <c r="B10" s="122"/>
       <c r="C10" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="121"/>
-      <c r="E10" s="123"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="129"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -15199,12 +15199,12 @@
       <c r="AML10" s="21"/>
     </row>
     <row r="11" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="120"/>
+      <c r="B11" s="122"/>
       <c r="C11" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="121"/>
-      <c r="E11" s="123"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="129"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -16228,12 +16228,12 @@
       <c r="AML11" s="21"/>
     </row>
     <row r="12" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="120"/>
+      <c r="B12" s="122"/>
       <c r="C12" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="121"/>
-      <c r="E12" s="124"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="130"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -16298,14 +16298,14 @@
       <c r="BO12" s="31"/>
     </row>
     <row r="13" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B13" s="120" t="s">
+      <c r="B13" s="122" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="121"/>
-      <c r="E13" s="119"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="124"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -16370,12 +16370,12 @@
       <c r="BO13" s="20"/>
     </row>
     <row r="14" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B14" s="120"/>
+      <c r="B14" s="122"/>
       <c r="C14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="121"/>
-      <c r="E14" s="119"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="124"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -16440,12 +16440,12 @@
       <c r="BO14" s="31"/>
     </row>
     <row r="15" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="120"/>
+      <c r="B15" s="122"/>
       <c r="C15" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="121"/>
-      <c r="E15" s="119"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="124"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -16510,12 +16510,12 @@
       <c r="BO15" s="31"/>
     </row>
     <row r="16" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B16" s="120"/>
+      <c r="B16" s="122"/>
       <c r="C16" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="121"/>
-      <c r="E16" s="119"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="124"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -16580,12 +16580,12 @@
       <c r="BO16" s="31"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B17" s="120"/>
+      <c r="B17" s="122"/>
       <c r="C17" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="121"/>
-      <c r="E17" s="119"/>
+      <c r="D17" s="123"/>
+      <c r="E17" s="124"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -16650,12 +16650,12 @@
       <c r="BO17" s="31"/>
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B18" s="120"/>
+      <c r="B18" s="122"/>
       <c r="C18" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="121"/>
-      <c r="E18" s="119"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="124"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -16720,12 +16720,12 @@
       <c r="BO18" s="31"/>
     </row>
     <row r="19" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B19" s="120"/>
+      <c r="B19" s="122"/>
       <c r="C19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="121"/>
-      <c r="E19" s="119"/>
+      <c r="D19" s="123"/>
+      <c r="E19" s="124"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -16796,8 +16796,8 @@
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="117"/>
-      <c r="E20" s="126"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="115"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -16866,8 +16866,8 @@
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="117"/>
-      <c r="E21" s="127"/>
+      <c r="D21" s="126"/>
+      <c r="E21" s="116"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -16936,8 +16936,8 @@
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="117"/>
-      <c r="E22" s="127"/>
+      <c r="D22" s="126"/>
+      <c r="E22" s="116"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -17006,8 +17006,8 @@
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="117"/>
-      <c r="E23" s="127"/>
+      <c r="D23" s="126"/>
+      <c r="E23" s="116"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -17076,8 +17076,8 @@
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="117"/>
-      <c r="E24" s="127"/>
+      <c r="D24" s="126"/>
+      <c r="E24" s="116"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -17142,14 +17142,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="130" t="s">
+      <c r="B25" s="111" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="133"/>
-      <c r="E25" s="126"/>
+      <c r="D25" s="114"/>
+      <c r="E25" s="115"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -17214,12 +17214,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="131"/>
+      <c r="B26" s="112"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="133"/>
-      <c r="E26" s="127"/>
+      <c r="D26" s="114"/>
+      <c r="E26" s="116"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -17284,12 +17284,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="131"/>
+      <c r="B27" s="112"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="133"/>
-      <c r="E27" s="127"/>
+      <c r="D27" s="114"/>
+      <c r="E27" s="116"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -17354,12 +17354,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="131"/>
+      <c r="B28" s="112"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="133"/>
-      <c r="E28" s="127"/>
+      <c r="D28" s="114"/>
+      <c r="E28" s="116"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -17424,12 +17424,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="132"/>
+      <c r="B29" s="113"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="133"/>
-      <c r="E29" s="134"/>
+      <c r="D29" s="114"/>
+      <c r="E29" s="117"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -17566,10 +17566,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="135"/>
-      <c r="C31" s="126"/>
-      <c r="D31" s="138"/>
-      <c r="E31" s="135"/>
+      <c r="B31" s="118"/>
+      <c r="C31" s="115"/>
+      <c r="D31" s="121"/>
+      <c r="E31" s="118"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -17634,10 +17634,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="136"/>
-      <c r="C32" s="127"/>
-      <c r="D32" s="138"/>
-      <c r="E32" s="136"/>
+      <c r="B32" s="119"/>
+      <c r="C32" s="116"/>
+      <c r="D32" s="121"/>
+      <c r="E32" s="119"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -17702,10 +17702,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="136"/>
-      <c r="C33" s="127"/>
-      <c r="D33" s="138"/>
-      <c r="E33" s="136"/>
+      <c r="B33" s="119"/>
+      <c r="C33" s="116"/>
+      <c r="D33" s="121"/>
+      <c r="E33" s="119"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -17770,10 +17770,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="136"/>
-      <c r="C34" s="127"/>
-      <c r="D34" s="138"/>
-      <c r="E34" s="136"/>
+      <c r="B34" s="119"/>
+      <c r="C34" s="116"/>
+      <c r="D34" s="121"/>
+      <c r="E34" s="119"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -17838,10 +17838,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="136"/>
-      <c r="C35" s="127"/>
-      <c r="D35" s="138"/>
-      <c r="E35" s="136"/>
+      <c r="B35" s="119"/>
+      <c r="C35" s="116"/>
+      <c r="D35" s="121"/>
+      <c r="E35" s="119"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -17906,10 +17906,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="136"/>
-      <c r="C36" s="127"/>
-      <c r="D36" s="138"/>
-      <c r="E36" s="136"/>
+      <c r="B36" s="119"/>
+      <c r="C36" s="116"/>
+      <c r="D36" s="121"/>
+      <c r="E36" s="119"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -17974,10 +17974,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="136"/>
-      <c r="C37" s="127"/>
-      <c r="D37" s="138"/>
-      <c r="E37" s="136"/>
+      <c r="B37" s="119"/>
+      <c r="C37" s="116"/>
+      <c r="D37" s="121"/>
+      <c r="E37" s="119"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -18042,10 +18042,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="136"/>
-      <c r="C38" s="127"/>
-      <c r="D38" s="138"/>
-      <c r="E38" s="136"/>
+      <c r="B38" s="119"/>
+      <c r="C38" s="116"/>
+      <c r="D38" s="121"/>
+      <c r="E38" s="119"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -18110,10 +18110,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="136"/>
-      <c r="C39" s="127"/>
-      <c r="D39" s="138"/>
-      <c r="E39" s="136"/>
+      <c r="B39" s="119"/>
+      <c r="C39" s="116"/>
+      <c r="D39" s="121"/>
+      <c r="E39" s="119"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -18178,10 +18178,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="136"/>
-      <c r="C40" s="127"/>
-      <c r="D40" s="138"/>
-      <c r="E40" s="136"/>
+      <c r="B40" s="119"/>
+      <c r="C40" s="116"/>
+      <c r="D40" s="121"/>
+      <c r="E40" s="119"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -18246,10 +18246,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="136"/>
-      <c r="C41" s="127"/>
-      <c r="D41" s="138"/>
-      <c r="E41" s="136"/>
+      <c r="B41" s="119"/>
+      <c r="C41" s="116"/>
+      <c r="D41" s="121"/>
+      <c r="E41" s="119"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -18314,10 +18314,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="136"/>
-      <c r="C42" s="127"/>
-      <c r="D42" s="138"/>
-      <c r="E42" s="136"/>
+      <c r="B42" s="119"/>
+      <c r="C42" s="116"/>
+      <c r="D42" s="121"/>
+      <c r="E42" s="119"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -18382,10 +18382,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="136"/>
-      <c r="C43" s="127"/>
-      <c r="D43" s="138"/>
-      <c r="E43" s="136"/>
+      <c r="B43" s="119"/>
+      <c r="C43" s="116"/>
+      <c r="D43" s="121"/>
+      <c r="E43" s="119"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -18450,10 +18450,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="136"/>
-      <c r="C44" s="127"/>
-      <c r="D44" s="138"/>
-      <c r="E44" s="136"/>
+      <c r="B44" s="119"/>
+      <c r="C44" s="116"/>
+      <c r="D44" s="121"/>
+      <c r="E44" s="119"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -18518,10 +18518,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="136"/>
-      <c r="C45" s="127"/>
-      <c r="D45" s="138"/>
-      <c r="E45" s="136"/>
+      <c r="B45" s="119"/>
+      <c r="C45" s="116"/>
+      <c r="D45" s="121"/>
+      <c r="E45" s="119"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -18586,10 +18586,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="136"/>
-      <c r="C46" s="127"/>
-      <c r="D46" s="138"/>
-      <c r="E46" s="136"/>
+      <c r="B46" s="119"/>
+      <c r="C46" s="116"/>
+      <c r="D46" s="121"/>
+      <c r="E46" s="119"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -18654,10 +18654,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="136"/>
-      <c r="C47" s="127"/>
-      <c r="D47" s="138"/>
-      <c r="E47" s="136"/>
+      <c r="B47" s="119"/>
+      <c r="C47" s="116"/>
+      <c r="D47" s="121"/>
+      <c r="E47" s="119"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -18722,10 +18722,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="136"/>
-      <c r="C48" s="127"/>
-      <c r="D48" s="138"/>
-      <c r="E48" s="136"/>
+      <c r="B48" s="119"/>
+      <c r="C48" s="116"/>
+      <c r="D48" s="121"/>
+      <c r="E48" s="119"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -18790,10 +18790,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="136"/>
-      <c r="C49" s="127"/>
-      <c r="D49" s="138"/>
-      <c r="E49" s="136"/>
+      <c r="B49" s="119"/>
+      <c r="C49" s="116"/>
+      <c r="D49" s="121"/>
+      <c r="E49" s="119"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -18858,10 +18858,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="136"/>
-      <c r="C50" s="127"/>
-      <c r="D50" s="138"/>
-      <c r="E50" s="136"/>
+      <c r="B50" s="119"/>
+      <c r="C50" s="116"/>
+      <c r="D50" s="121"/>
+      <c r="E50" s="119"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -18926,10 +18926,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="136"/>
-      <c r="C51" s="127"/>
-      <c r="D51" s="138"/>
-      <c r="E51" s="136"/>
+      <c r="B51" s="119"/>
+      <c r="C51" s="116"/>
+      <c r="D51" s="121"/>
+      <c r="E51" s="119"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -18994,10 +18994,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="136"/>
-      <c r="C52" s="127"/>
-      <c r="D52" s="138"/>
-      <c r="E52" s="136"/>
+      <c r="B52" s="119"/>
+      <c r="C52" s="116"/>
+      <c r="D52" s="121"/>
+      <c r="E52" s="119"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -19062,10 +19062,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="136"/>
-      <c r="C53" s="127"/>
-      <c r="D53" s="138"/>
-      <c r="E53" s="136"/>
+      <c r="B53" s="119"/>
+      <c r="C53" s="116"/>
+      <c r="D53" s="121"/>
+      <c r="E53" s="119"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -19130,10 +19130,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="136"/>
-      <c r="C54" s="127"/>
-      <c r="D54" s="138"/>
-      <c r="E54" s="136"/>
+      <c r="B54" s="119"/>
+      <c r="C54" s="116"/>
+      <c r="D54" s="121"/>
+      <c r="E54" s="119"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -19198,10 +19198,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="136"/>
-      <c r="C55" s="127"/>
-      <c r="D55" s="138"/>
-      <c r="E55" s="136"/>
+      <c r="B55" s="119"/>
+      <c r="C55" s="116"/>
+      <c r="D55" s="121"/>
+      <c r="E55" s="119"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -19266,10 +19266,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="136"/>
-      <c r="C56" s="127"/>
-      <c r="D56" s="138"/>
-      <c r="E56" s="136"/>
+      <c r="B56" s="119"/>
+      <c r="C56" s="116"/>
+      <c r="D56" s="121"/>
+      <c r="E56" s="119"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -19334,10 +19334,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="136"/>
-      <c r="C57" s="127"/>
-      <c r="D57" s="138"/>
-      <c r="E57" s="136"/>
+      <c r="B57" s="119"/>
+      <c r="C57" s="116"/>
+      <c r="D57" s="121"/>
+      <c r="E57" s="119"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -19397,10 +19397,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="137"/>
-      <c r="C58" s="134"/>
-      <c r="D58" s="138"/>
-      <c r="E58" s="137"/>
+      <c r="B58" s="120"/>
+      <c r="C58" s="117"/>
+      <c r="D58" s="121"/>
+      <c r="E58" s="120"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -19465,7 +19465,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="128" t="s">
+      <c r="B59" s="109" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -19537,7 +19537,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="128"/>
+      <c r="B60" s="109"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -19607,7 +19607,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="129" t="s">
+      <c r="B61" s="110" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -19679,7 +19679,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="129"/>
+      <c r="B62" s="110"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -19747,7 +19747,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="129"/>
+      <c r="B63" s="110"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -19956,27 +19956,16 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="E31:E58"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:BM5"/>
+    <mergeCell ref="AT6:AX6"/>
+    <mergeCell ref="AY6:BC6"/>
+    <mergeCell ref="BD6:BH6"/>
+    <mergeCell ref="BI6:BM6"/>
     <mergeCell ref="BN5:BN6"/>
     <mergeCell ref="BO5:BO6"/>
     <mergeCell ref="F6:J6"/>
@@ -19987,16 +19976,27 @@
     <mergeCell ref="AE6:AI6"/>
     <mergeCell ref="AJ6:AN6"/>
     <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:BM5"/>
-    <mergeCell ref="AT6:AX6"/>
-    <mergeCell ref="AY6:BC6"/>
-    <mergeCell ref="BD6:BH6"/>
-    <mergeCell ref="BI6:BM6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="E31:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20028,13 +20028,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="134" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
     </row>
     <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
@@ -20200,84 +20200,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="111" t="s">
+      <c r="C5" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="112" t="s">
+      <c r="D5" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="110" t="s">
+      <c r="E5" s="132" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="113" t="s">
+      <c r="F5" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="113"/>
-      <c r="K5" s="113"/>
-      <c r="L5" s="113"/>
-      <c r="M5" s="113"/>
-      <c r="N5" s="113"/>
-      <c r="O5" s="113"/>
-      <c r="P5" s="113"/>
-      <c r="Q5" s="113"/>
-      <c r="R5" s="113"/>
-      <c r="S5" s="113"/>
-      <c r="T5" s="113"/>
-      <c r="U5" s="113"/>
-      <c r="V5" s="113"/>
-      <c r="W5" s="113"/>
-      <c r="X5" s="113"/>
-      <c r="Y5" s="113"/>
-      <c r="Z5" s="113"/>
-      <c r="AA5" s="113"/>
-      <c r="AB5" s="113"/>
-      <c r="AC5" s="113"/>
-      <c r="AD5" s="113"/>
-      <c r="AE5" s="113"/>
-      <c r="AF5" s="113"/>
-      <c r="AG5" s="113"/>
-      <c r="AH5" s="113"/>
-      <c r="AI5" s="113"/>
-      <c r="AJ5" s="113"/>
-      <c r="AK5" s="113"/>
-      <c r="AL5" s="113"/>
-      <c r="AM5" s="113"/>
-      <c r="AN5" s="113"/>
-      <c r="AO5" s="113"/>
-      <c r="AP5" s="113"/>
-      <c r="AQ5" s="113"/>
-      <c r="AR5" s="113"/>
-      <c r="AS5" s="113"/>
-      <c r="AT5" s="113"/>
-      <c r="AU5" s="113"/>
-      <c r="AV5" s="113"/>
-      <c r="AW5" s="113"/>
-      <c r="AX5" s="113"/>
-      <c r="AY5" s="113"/>
-      <c r="AZ5" s="113"/>
-      <c r="BA5" s="113"/>
-      <c r="BB5" s="113"/>
-      <c r="BC5" s="113"/>
-      <c r="BD5" s="113"/>
-      <c r="BE5" s="113"/>
-      <c r="BF5" s="113"/>
-      <c r="BG5" s="113"/>
-      <c r="BH5" s="113"/>
-      <c r="BI5" s="113"/>
-      <c r="BJ5" s="113"/>
-      <c r="BK5" s="113"/>
-      <c r="BL5" s="113"/>
-      <c r="BM5" s="113"/>
-      <c r="BN5" s="116" t="s">
+      <c r="G5" s="137"/>
+      <c r="H5" s="137"/>
+      <c r="I5" s="137"/>
+      <c r="J5" s="137"/>
+      <c r="K5" s="137"/>
+      <c r="L5" s="137"/>
+      <c r="M5" s="137"/>
+      <c r="N5" s="137"/>
+      <c r="O5" s="137"/>
+      <c r="P5" s="137"/>
+      <c r="Q5" s="137"/>
+      <c r="R5" s="137"/>
+      <c r="S5" s="137"/>
+      <c r="T5" s="137"/>
+      <c r="U5" s="137"/>
+      <c r="V5" s="137"/>
+      <c r="W5" s="137"/>
+      <c r="X5" s="137"/>
+      <c r="Y5" s="137"/>
+      <c r="Z5" s="137"/>
+      <c r="AA5" s="137"/>
+      <c r="AB5" s="137"/>
+      <c r="AC5" s="137"/>
+      <c r="AD5" s="137"/>
+      <c r="AE5" s="137"/>
+      <c r="AF5" s="137"/>
+      <c r="AG5" s="137"/>
+      <c r="AH5" s="137"/>
+      <c r="AI5" s="137"/>
+      <c r="AJ5" s="137"/>
+      <c r="AK5" s="137"/>
+      <c r="AL5" s="137"/>
+      <c r="AM5" s="137"/>
+      <c r="AN5" s="137"/>
+      <c r="AO5" s="137"/>
+      <c r="AP5" s="137"/>
+      <c r="AQ5" s="137"/>
+      <c r="AR5" s="137"/>
+      <c r="AS5" s="137"/>
+      <c r="AT5" s="137"/>
+      <c r="AU5" s="137"/>
+      <c r="AV5" s="137"/>
+      <c r="AW5" s="137"/>
+      <c r="AX5" s="137"/>
+      <c r="AY5" s="137"/>
+      <c r="AZ5" s="137"/>
+      <c r="BA5" s="137"/>
+      <c r="BB5" s="137"/>
+      <c r="BC5" s="137"/>
+      <c r="BD5" s="137"/>
+      <c r="BE5" s="137"/>
+      <c r="BF5" s="137"/>
+      <c r="BG5" s="137"/>
+      <c r="BH5" s="137"/>
+      <c r="BI5" s="137"/>
+      <c r="BJ5" s="137"/>
+      <c r="BK5" s="137"/>
+      <c r="BL5" s="137"/>
+      <c r="BM5" s="137"/>
+      <c r="BN5" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="110" t="s">
+      <c r="BO5" s="132" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -20286,107 +20286,107 @@
       <c r="BU5" s="94"/>
     </row>
     <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="110"/>
-      <c r="C6" s="111"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="114" t="s">
+      <c r="B6" s="132"/>
+      <c r="C6" s="135"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="133" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="114" t="s">
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="133"/>
+      <c r="K6" s="133" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="114"/>
-      <c r="M6" s="114"/>
-      <c r="N6" s="114"/>
-      <c r="O6" s="114"/>
-      <c r="P6" s="114" t="s">
+      <c r="L6" s="133"/>
+      <c r="M6" s="133"/>
+      <c r="N6" s="133"/>
+      <c r="O6" s="133"/>
+      <c r="P6" s="133" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="114"/>
-      <c r="R6" s="114"/>
-      <c r="S6" s="114"/>
-      <c r="T6" s="114"/>
-      <c r="U6" s="114" t="s">
+      <c r="Q6" s="133"/>
+      <c r="R6" s="133"/>
+      <c r="S6" s="133"/>
+      <c r="T6" s="133"/>
+      <c r="U6" s="133" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="114"/>
-      <c r="W6" s="114"/>
-      <c r="X6" s="114"/>
-      <c r="Y6" s="114"/>
-      <c r="Z6" s="114" t="s">
+      <c r="V6" s="133"/>
+      <c r="W6" s="133"/>
+      <c r="X6" s="133"/>
+      <c r="Y6" s="133"/>
+      <c r="Z6" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="114"/>
-      <c r="AB6" s="114"/>
-      <c r="AC6" s="114"/>
-      <c r="AD6" s="114"/>
-      <c r="AE6" s="114" t="s">
+      <c r="AA6" s="133"/>
+      <c r="AB6" s="133"/>
+      <c r="AC6" s="133"/>
+      <c r="AD6" s="133"/>
+      <c r="AE6" s="133" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="114"/>
-      <c r="AG6" s="114"/>
-      <c r="AH6" s="114"/>
-      <c r="AI6" s="114"/>
-      <c r="AJ6" s="114" t="s">
+      <c r="AF6" s="133"/>
+      <c r="AG6" s="133"/>
+      <c r="AH6" s="133"/>
+      <c r="AI6" s="133"/>
+      <c r="AJ6" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="114"/>
-      <c r="AL6" s="114"/>
-      <c r="AM6" s="114"/>
-      <c r="AN6" s="114"/>
-      <c r="AO6" s="114" t="s">
+      <c r="AK6" s="133"/>
+      <c r="AL6" s="133"/>
+      <c r="AM6" s="133"/>
+      <c r="AN6" s="133"/>
+      <c r="AO6" s="133" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="114"/>
-      <c r="AQ6" s="114"/>
-      <c r="AR6" s="114"/>
-      <c r="AS6" s="114"/>
-      <c r="AT6" s="114" t="s">
+      <c r="AP6" s="133"/>
+      <c r="AQ6" s="133"/>
+      <c r="AR6" s="133"/>
+      <c r="AS6" s="133"/>
+      <c r="AT6" s="133" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="114"/>
-      <c r="AV6" s="114"/>
-      <c r="AW6" s="114"/>
-      <c r="AX6" s="114"/>
-      <c r="AY6" s="114" t="s">
+      <c r="AU6" s="133"/>
+      <c r="AV6" s="133"/>
+      <c r="AW6" s="133"/>
+      <c r="AX6" s="133"/>
+      <c r="AY6" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="114"/>
-      <c r="BA6" s="114"/>
-      <c r="BB6" s="114"/>
-      <c r="BC6" s="114"/>
-      <c r="BD6" s="114" t="s">
+      <c r="AZ6" s="133"/>
+      <c r="BA6" s="133"/>
+      <c r="BB6" s="133"/>
+      <c r="BC6" s="133"/>
+      <c r="BD6" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="114"/>
-      <c r="BF6" s="114"/>
-      <c r="BG6" s="114"/>
-      <c r="BH6" s="114"/>
-      <c r="BI6" s="115" t="s">
+      <c r="BE6" s="133"/>
+      <c r="BF6" s="133"/>
+      <c r="BG6" s="133"/>
+      <c r="BH6" s="133"/>
+      <c r="BI6" s="138" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="115"/>
-      <c r="BK6" s="115"/>
-      <c r="BL6" s="115"/>
-      <c r="BM6" s="115"/>
-      <c r="BN6" s="116"/>
-      <c r="BO6" s="110"/>
+      <c r="BJ6" s="138"/>
+      <c r="BK6" s="138"/>
+      <c r="BL6" s="138"/>
+      <c r="BM6" s="138"/>
+      <c r="BN6" s="131"/>
+      <c r="BO6" s="132"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="117" t="s">
+      <c r="B7" s="126" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="117"/>
-      <c r="E7" s="118"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="127"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -21411,12 +21411,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="117"/>
+      <c r="B8" s="126"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="117"/>
-      <c r="E8" s="119"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="124"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -22440,14 +22440,14 @@
       <c r="AML8" s="23"/>
     </row>
     <row r="9" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="120" t="s">
+      <c r="B9" s="122" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="121"/>
-      <c r="E9" s="122"/>
+      <c r="D9" s="123"/>
+      <c r="E9" s="128"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
       <c r="H9" s="83"/>
@@ -23471,12 +23471,12 @@
       <c r="AML9" s="21"/>
     </row>
     <row r="10" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B10" s="120"/>
+      <c r="B10" s="122"/>
       <c r="C10" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="121"/>
-      <c r="E10" s="123"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="129"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -24500,12 +24500,12 @@
       <c r="AML10" s="21"/>
     </row>
     <row r="11" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="120"/>
+      <c r="B11" s="122"/>
       <c r="C11" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="121"/>
-      <c r="E11" s="123"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="129"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -25529,12 +25529,12 @@
       <c r="AML11" s="21"/>
     </row>
     <row r="12" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="120"/>
+      <c r="B12" s="122"/>
       <c r="C12" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="121"/>
-      <c r="E12" s="124"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="130"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -25599,14 +25599,14 @@
       <c r="BO12" s="31"/>
     </row>
     <row r="13" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B13" s="120" t="s">
+      <c r="B13" s="122" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="121"/>
-      <c r="E13" s="119"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="124"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -25671,12 +25671,12 @@
       <c r="BO13" s="20"/>
     </row>
     <row r="14" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B14" s="120"/>
+      <c r="B14" s="122"/>
       <c r="C14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="121"/>
-      <c r="E14" s="119"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="124"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -25741,12 +25741,12 @@
       <c r="BO14" s="31"/>
     </row>
     <row r="15" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="120"/>
+      <c r="B15" s="122"/>
       <c r="C15" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="121"/>
-      <c r="E15" s="119"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="124"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -25811,12 +25811,12 @@
       <c r="BO15" s="31"/>
     </row>
     <row r="16" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B16" s="120"/>
+      <c r="B16" s="122"/>
       <c r="C16" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="121"/>
-      <c r="E16" s="119"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="124"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -25881,12 +25881,12 @@
       <c r="BO16" s="31"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B17" s="120"/>
+      <c r="B17" s="122"/>
       <c r="C17" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="121"/>
-      <c r="E17" s="119"/>
+      <c r="D17" s="123"/>
+      <c r="E17" s="124"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -25951,12 +25951,12 @@
       <c r="BO17" s="31"/>
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B18" s="120"/>
+      <c r="B18" s="122"/>
       <c r="C18" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="121"/>
-      <c r="E18" s="119"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="124"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -26021,12 +26021,12 @@
       <c r="BO18" s="31"/>
     </row>
     <row r="19" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B19" s="120"/>
+      <c r="B19" s="122"/>
       <c r="C19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="121"/>
-      <c r="E19" s="119"/>
+      <c r="D19" s="123"/>
+      <c r="E19" s="124"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -26097,8 +26097,8 @@
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="117"/>
-      <c r="E20" s="126"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="115"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -26167,8 +26167,8 @@
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="117"/>
-      <c r="E21" s="127"/>
+      <c r="D21" s="126"/>
+      <c r="E21" s="116"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -26237,8 +26237,8 @@
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="117"/>
-      <c r="E22" s="127"/>
+      <c r="D22" s="126"/>
+      <c r="E22" s="116"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -26307,8 +26307,8 @@
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="117"/>
-      <c r="E23" s="127"/>
+      <c r="D23" s="126"/>
+      <c r="E23" s="116"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -26377,8 +26377,8 @@
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="117"/>
-      <c r="E24" s="127"/>
+      <c r="D24" s="126"/>
+      <c r="E24" s="116"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -26443,14 +26443,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="130" t="s">
+      <c r="B25" s="111" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="133"/>
-      <c r="E25" s="126"/>
+      <c r="D25" s="114"/>
+      <c r="E25" s="115"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -26515,12 +26515,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="131"/>
+      <c r="B26" s="112"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="133"/>
-      <c r="E26" s="127"/>
+      <c r="D26" s="114"/>
+      <c r="E26" s="116"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -26585,12 +26585,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="131"/>
+      <c r="B27" s="112"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="133"/>
-      <c r="E27" s="127"/>
+      <c r="D27" s="114"/>
+      <c r="E27" s="116"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -26655,12 +26655,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="131"/>
+      <c r="B28" s="112"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="133"/>
-      <c r="E28" s="127"/>
+      <c r="D28" s="114"/>
+      <c r="E28" s="116"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -26725,12 +26725,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="132"/>
+      <c r="B29" s="113"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="133"/>
-      <c r="E29" s="134"/>
+      <c r="D29" s="114"/>
+      <c r="E29" s="117"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -26867,10 +26867,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="135"/>
-      <c r="C31" s="126"/>
-      <c r="D31" s="138"/>
-      <c r="E31" s="135"/>
+      <c r="B31" s="118"/>
+      <c r="C31" s="115"/>
+      <c r="D31" s="121"/>
+      <c r="E31" s="118"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -26935,10 +26935,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="136"/>
-      <c r="C32" s="127"/>
-      <c r="D32" s="138"/>
-      <c r="E32" s="136"/>
+      <c r="B32" s="119"/>
+      <c r="C32" s="116"/>
+      <c r="D32" s="121"/>
+      <c r="E32" s="119"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -27003,10 +27003,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="136"/>
-      <c r="C33" s="127"/>
-      <c r="D33" s="138"/>
-      <c r="E33" s="136"/>
+      <c r="B33" s="119"/>
+      <c r="C33" s="116"/>
+      <c r="D33" s="121"/>
+      <c r="E33" s="119"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -27071,10 +27071,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="136"/>
-      <c r="C34" s="127"/>
-      <c r="D34" s="138"/>
-      <c r="E34" s="136"/>
+      <c r="B34" s="119"/>
+      <c r="C34" s="116"/>
+      <c r="D34" s="121"/>
+      <c r="E34" s="119"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -27139,10 +27139,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="136"/>
-      <c r="C35" s="127"/>
-      <c r="D35" s="138"/>
-      <c r="E35" s="136"/>
+      <c r="B35" s="119"/>
+      <c r="C35" s="116"/>
+      <c r="D35" s="121"/>
+      <c r="E35" s="119"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -27207,10 +27207,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="136"/>
-      <c r="C36" s="127"/>
-      <c r="D36" s="138"/>
-      <c r="E36" s="136"/>
+      <c r="B36" s="119"/>
+      <c r="C36" s="116"/>
+      <c r="D36" s="121"/>
+      <c r="E36" s="119"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -27275,10 +27275,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="136"/>
-      <c r="C37" s="127"/>
-      <c r="D37" s="138"/>
-      <c r="E37" s="136"/>
+      <c r="B37" s="119"/>
+      <c r="C37" s="116"/>
+      <c r="D37" s="121"/>
+      <c r="E37" s="119"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -27343,10 +27343,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="136"/>
-      <c r="C38" s="127"/>
-      <c r="D38" s="138"/>
-      <c r="E38" s="136"/>
+      <c r="B38" s="119"/>
+      <c r="C38" s="116"/>
+      <c r="D38" s="121"/>
+      <c r="E38" s="119"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -27411,10 +27411,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="136"/>
-      <c r="C39" s="127"/>
-      <c r="D39" s="138"/>
-      <c r="E39" s="136"/>
+      <c r="B39" s="119"/>
+      <c r="C39" s="116"/>
+      <c r="D39" s="121"/>
+      <c r="E39" s="119"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -27479,10 +27479,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="136"/>
-      <c r="C40" s="127"/>
-      <c r="D40" s="138"/>
-      <c r="E40" s="136"/>
+      <c r="B40" s="119"/>
+      <c r="C40" s="116"/>
+      <c r="D40" s="121"/>
+      <c r="E40" s="119"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -27547,10 +27547,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="136"/>
-      <c r="C41" s="127"/>
-      <c r="D41" s="138"/>
-      <c r="E41" s="136"/>
+      <c r="B41" s="119"/>
+      <c r="C41" s="116"/>
+      <c r="D41" s="121"/>
+      <c r="E41" s="119"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -27615,10 +27615,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="136"/>
-      <c r="C42" s="127"/>
-      <c r="D42" s="138"/>
-      <c r="E42" s="136"/>
+      <c r="B42" s="119"/>
+      <c r="C42" s="116"/>
+      <c r="D42" s="121"/>
+      <c r="E42" s="119"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -27683,10 +27683,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="136"/>
-      <c r="C43" s="127"/>
-      <c r="D43" s="138"/>
-      <c r="E43" s="136"/>
+      <c r="B43" s="119"/>
+      <c r="C43" s="116"/>
+      <c r="D43" s="121"/>
+      <c r="E43" s="119"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -27751,10 +27751,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="136"/>
-      <c r="C44" s="127"/>
-      <c r="D44" s="138"/>
-      <c r="E44" s="136"/>
+      <c r="B44" s="119"/>
+      <c r="C44" s="116"/>
+      <c r="D44" s="121"/>
+      <c r="E44" s="119"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -27819,10 +27819,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="136"/>
-      <c r="C45" s="127"/>
-      <c r="D45" s="138"/>
-      <c r="E45" s="136"/>
+      <c r="B45" s="119"/>
+      <c r="C45" s="116"/>
+      <c r="D45" s="121"/>
+      <c r="E45" s="119"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -27887,10 +27887,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="136"/>
-      <c r="C46" s="127"/>
-      <c r="D46" s="138"/>
-      <c r="E46" s="136"/>
+      <c r="B46" s="119"/>
+      <c r="C46" s="116"/>
+      <c r="D46" s="121"/>
+      <c r="E46" s="119"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -27955,10 +27955,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="136"/>
-      <c r="C47" s="127"/>
-      <c r="D47" s="138"/>
-      <c r="E47" s="136"/>
+      <c r="B47" s="119"/>
+      <c r="C47" s="116"/>
+      <c r="D47" s="121"/>
+      <c r="E47" s="119"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -28023,10 +28023,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="136"/>
-      <c r="C48" s="127"/>
-      <c r="D48" s="138"/>
-      <c r="E48" s="136"/>
+      <c r="B48" s="119"/>
+      <c r="C48" s="116"/>
+      <c r="D48" s="121"/>
+      <c r="E48" s="119"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -28091,10 +28091,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="136"/>
-      <c r="C49" s="127"/>
-      <c r="D49" s="138"/>
-      <c r="E49" s="136"/>
+      <c r="B49" s="119"/>
+      <c r="C49" s="116"/>
+      <c r="D49" s="121"/>
+      <c r="E49" s="119"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -28159,10 +28159,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="136"/>
-      <c r="C50" s="127"/>
-      <c r="D50" s="138"/>
-      <c r="E50" s="136"/>
+      <c r="B50" s="119"/>
+      <c r="C50" s="116"/>
+      <c r="D50" s="121"/>
+      <c r="E50" s="119"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -28227,10 +28227,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="136"/>
-      <c r="C51" s="127"/>
-      <c r="D51" s="138"/>
-      <c r="E51" s="136"/>
+      <c r="B51" s="119"/>
+      <c r="C51" s="116"/>
+      <c r="D51" s="121"/>
+      <c r="E51" s="119"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -28295,10 +28295,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="136"/>
-      <c r="C52" s="127"/>
-      <c r="D52" s="138"/>
-      <c r="E52" s="136"/>
+      <c r="B52" s="119"/>
+      <c r="C52" s="116"/>
+      <c r="D52" s="121"/>
+      <c r="E52" s="119"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -28363,10 +28363,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="136"/>
-      <c r="C53" s="127"/>
-      <c r="D53" s="138"/>
-      <c r="E53" s="136"/>
+      <c r="B53" s="119"/>
+      <c r="C53" s="116"/>
+      <c r="D53" s="121"/>
+      <c r="E53" s="119"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -28431,10 +28431,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="136"/>
-      <c r="C54" s="127"/>
-      <c r="D54" s="138"/>
-      <c r="E54" s="136"/>
+      <c r="B54" s="119"/>
+      <c r="C54" s="116"/>
+      <c r="D54" s="121"/>
+      <c r="E54" s="119"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -28499,10 +28499,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="136"/>
-      <c r="C55" s="127"/>
-      <c r="D55" s="138"/>
-      <c r="E55" s="136"/>
+      <c r="B55" s="119"/>
+      <c r="C55" s="116"/>
+      <c r="D55" s="121"/>
+      <c r="E55" s="119"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -28567,10 +28567,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="136"/>
-      <c r="C56" s="127"/>
-      <c r="D56" s="138"/>
-      <c r="E56" s="136"/>
+      <c r="B56" s="119"/>
+      <c r="C56" s="116"/>
+      <c r="D56" s="121"/>
+      <c r="E56" s="119"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -28635,10 +28635,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="136"/>
-      <c r="C57" s="127"/>
-      <c r="D57" s="138"/>
-      <c r="E57" s="136"/>
+      <c r="B57" s="119"/>
+      <c r="C57" s="116"/>
+      <c r="D57" s="121"/>
+      <c r="E57" s="119"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -28698,10 +28698,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="137"/>
-      <c r="C58" s="134"/>
-      <c r="D58" s="138"/>
-      <c r="E58" s="137"/>
+      <c r="B58" s="120"/>
+      <c r="C58" s="117"/>
+      <c r="D58" s="121"/>
+      <c r="E58" s="120"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -28766,7 +28766,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="128" t="s">
+      <c r="B59" s="109" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -28838,7 +28838,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="128"/>
+      <c r="B60" s="109"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -28908,7 +28908,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="129" t="s">
+      <c r="B61" s="110" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -28980,7 +28980,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="129"/>
+      <c r="B62" s="110"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -29048,7 +29048,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="129"/>
+      <c r="B63" s="110"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -29257,27 +29257,16 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="E31:E58"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:BM5"/>
+    <mergeCell ref="AT6:AX6"/>
+    <mergeCell ref="AY6:BC6"/>
+    <mergeCell ref="BD6:BH6"/>
+    <mergeCell ref="BI6:BM6"/>
     <mergeCell ref="BN5:BN6"/>
     <mergeCell ref="BO5:BO6"/>
     <mergeCell ref="F6:J6"/>
@@ -29288,16 +29277,27 @@
     <mergeCell ref="AE6:AI6"/>
     <mergeCell ref="AJ6:AN6"/>
     <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:BM5"/>
-    <mergeCell ref="AT6:AX6"/>
-    <mergeCell ref="AY6:BC6"/>
-    <mergeCell ref="BD6:BH6"/>
-    <mergeCell ref="BI6:BM6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="E31:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -29329,13 +29329,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="134" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
     </row>
     <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
@@ -29501,84 +29501,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="111" t="s">
+      <c r="C5" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="112" t="s">
+      <c r="D5" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="110" t="s">
+      <c r="E5" s="132" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="113" t="s">
+      <c r="F5" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="113"/>
-      <c r="K5" s="113"/>
-      <c r="L5" s="113"/>
-      <c r="M5" s="113"/>
-      <c r="N5" s="113"/>
-      <c r="O5" s="113"/>
-      <c r="P5" s="113"/>
-      <c r="Q5" s="113"/>
-      <c r="R5" s="113"/>
-      <c r="S5" s="113"/>
-      <c r="T5" s="113"/>
-      <c r="U5" s="113"/>
-      <c r="V5" s="113"/>
-      <c r="W5" s="113"/>
-      <c r="X5" s="113"/>
-      <c r="Y5" s="113"/>
-      <c r="Z5" s="113"/>
-      <c r="AA5" s="113"/>
-      <c r="AB5" s="113"/>
-      <c r="AC5" s="113"/>
-      <c r="AD5" s="113"/>
-      <c r="AE5" s="113"/>
-      <c r="AF5" s="113"/>
-      <c r="AG5" s="113"/>
-      <c r="AH5" s="113"/>
-      <c r="AI5" s="113"/>
-      <c r="AJ5" s="113"/>
-      <c r="AK5" s="113"/>
-      <c r="AL5" s="113"/>
-      <c r="AM5" s="113"/>
-      <c r="AN5" s="113"/>
-      <c r="AO5" s="113"/>
-      <c r="AP5" s="113"/>
-      <c r="AQ5" s="113"/>
-      <c r="AR5" s="113"/>
-      <c r="AS5" s="113"/>
-      <c r="AT5" s="113"/>
-      <c r="AU5" s="113"/>
-      <c r="AV5" s="113"/>
-      <c r="AW5" s="113"/>
-      <c r="AX5" s="113"/>
-      <c r="AY5" s="113"/>
-      <c r="AZ5" s="113"/>
-      <c r="BA5" s="113"/>
-      <c r="BB5" s="113"/>
-      <c r="BC5" s="113"/>
-      <c r="BD5" s="113"/>
-      <c r="BE5" s="113"/>
-      <c r="BF5" s="113"/>
-      <c r="BG5" s="113"/>
-      <c r="BH5" s="113"/>
-      <c r="BI5" s="113"/>
-      <c r="BJ5" s="113"/>
-      <c r="BK5" s="113"/>
-      <c r="BL5" s="113"/>
-      <c r="BM5" s="113"/>
-      <c r="BN5" s="116" t="s">
+      <c r="G5" s="137"/>
+      <c r="H5" s="137"/>
+      <c r="I5" s="137"/>
+      <c r="J5" s="137"/>
+      <c r="K5" s="137"/>
+      <c r="L5" s="137"/>
+      <c r="M5" s="137"/>
+      <c r="N5" s="137"/>
+      <c r="O5" s="137"/>
+      <c r="P5" s="137"/>
+      <c r="Q5" s="137"/>
+      <c r="R5" s="137"/>
+      <c r="S5" s="137"/>
+      <c r="T5" s="137"/>
+      <c r="U5" s="137"/>
+      <c r="V5" s="137"/>
+      <c r="W5" s="137"/>
+      <c r="X5" s="137"/>
+      <c r="Y5" s="137"/>
+      <c r="Z5" s="137"/>
+      <c r="AA5" s="137"/>
+      <c r="AB5" s="137"/>
+      <c r="AC5" s="137"/>
+      <c r="AD5" s="137"/>
+      <c r="AE5" s="137"/>
+      <c r="AF5" s="137"/>
+      <c r="AG5" s="137"/>
+      <c r="AH5" s="137"/>
+      <c r="AI5" s="137"/>
+      <c r="AJ5" s="137"/>
+      <c r="AK5" s="137"/>
+      <c r="AL5" s="137"/>
+      <c r="AM5" s="137"/>
+      <c r="AN5" s="137"/>
+      <c r="AO5" s="137"/>
+      <c r="AP5" s="137"/>
+      <c r="AQ5" s="137"/>
+      <c r="AR5" s="137"/>
+      <c r="AS5" s="137"/>
+      <c r="AT5" s="137"/>
+      <c r="AU5" s="137"/>
+      <c r="AV5" s="137"/>
+      <c r="AW5" s="137"/>
+      <c r="AX5" s="137"/>
+      <c r="AY5" s="137"/>
+      <c r="AZ5" s="137"/>
+      <c r="BA5" s="137"/>
+      <c r="BB5" s="137"/>
+      <c r="BC5" s="137"/>
+      <c r="BD5" s="137"/>
+      <c r="BE5" s="137"/>
+      <c r="BF5" s="137"/>
+      <c r="BG5" s="137"/>
+      <c r="BH5" s="137"/>
+      <c r="BI5" s="137"/>
+      <c r="BJ5" s="137"/>
+      <c r="BK5" s="137"/>
+      <c r="BL5" s="137"/>
+      <c r="BM5" s="137"/>
+      <c r="BN5" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="110" t="s">
+      <c r="BO5" s="132" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -29587,107 +29587,107 @@
       <c r="BU5" s="94"/>
     </row>
     <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="110"/>
-      <c r="C6" s="111"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="114" t="s">
+      <c r="B6" s="132"/>
+      <c r="C6" s="135"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="133" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="114" t="s">
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="133"/>
+      <c r="K6" s="133" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="114"/>
-      <c r="M6" s="114"/>
-      <c r="N6" s="114"/>
-      <c r="O6" s="114"/>
-      <c r="P6" s="114" t="s">
+      <c r="L6" s="133"/>
+      <c r="M6" s="133"/>
+      <c r="N6" s="133"/>
+      <c r="O6" s="133"/>
+      <c r="P6" s="133" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="114"/>
-      <c r="R6" s="114"/>
-      <c r="S6" s="114"/>
-      <c r="T6" s="114"/>
-      <c r="U6" s="114" t="s">
+      <c r="Q6" s="133"/>
+      <c r="R6" s="133"/>
+      <c r="S6" s="133"/>
+      <c r="T6" s="133"/>
+      <c r="U6" s="133" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="114"/>
-      <c r="W6" s="114"/>
-      <c r="X6" s="114"/>
-      <c r="Y6" s="114"/>
-      <c r="Z6" s="114" t="s">
+      <c r="V6" s="133"/>
+      <c r="W6" s="133"/>
+      <c r="X6" s="133"/>
+      <c r="Y6" s="133"/>
+      <c r="Z6" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="114"/>
-      <c r="AB6" s="114"/>
-      <c r="AC6" s="114"/>
-      <c r="AD6" s="114"/>
-      <c r="AE6" s="114" t="s">
+      <c r="AA6" s="133"/>
+      <c r="AB6" s="133"/>
+      <c r="AC6" s="133"/>
+      <c r="AD6" s="133"/>
+      <c r="AE6" s="133" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="114"/>
-      <c r="AG6" s="114"/>
-      <c r="AH6" s="114"/>
-      <c r="AI6" s="114"/>
-      <c r="AJ6" s="114" t="s">
+      <c r="AF6" s="133"/>
+      <c r="AG6" s="133"/>
+      <c r="AH6" s="133"/>
+      <c r="AI6" s="133"/>
+      <c r="AJ6" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="114"/>
-      <c r="AL6" s="114"/>
-      <c r="AM6" s="114"/>
-      <c r="AN6" s="114"/>
-      <c r="AO6" s="114" t="s">
+      <c r="AK6" s="133"/>
+      <c r="AL6" s="133"/>
+      <c r="AM6" s="133"/>
+      <c r="AN6" s="133"/>
+      <c r="AO6" s="133" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="114"/>
-      <c r="AQ6" s="114"/>
-      <c r="AR6" s="114"/>
-      <c r="AS6" s="114"/>
-      <c r="AT6" s="114" t="s">
+      <c r="AP6" s="133"/>
+      <c r="AQ6" s="133"/>
+      <c r="AR6" s="133"/>
+      <c r="AS6" s="133"/>
+      <c r="AT6" s="133" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="114"/>
-      <c r="AV6" s="114"/>
-      <c r="AW6" s="114"/>
-      <c r="AX6" s="114"/>
-      <c r="AY6" s="114" t="s">
+      <c r="AU6" s="133"/>
+      <c r="AV6" s="133"/>
+      <c r="AW6" s="133"/>
+      <c r="AX6" s="133"/>
+      <c r="AY6" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="114"/>
-      <c r="BA6" s="114"/>
-      <c r="BB6" s="114"/>
-      <c r="BC6" s="114"/>
-      <c r="BD6" s="114" t="s">
+      <c r="AZ6" s="133"/>
+      <c r="BA6" s="133"/>
+      <c r="BB6" s="133"/>
+      <c r="BC6" s="133"/>
+      <c r="BD6" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="114"/>
-      <c r="BF6" s="114"/>
-      <c r="BG6" s="114"/>
-      <c r="BH6" s="114"/>
-      <c r="BI6" s="115" t="s">
+      <c r="BE6" s="133"/>
+      <c r="BF6" s="133"/>
+      <c r="BG6" s="133"/>
+      <c r="BH6" s="133"/>
+      <c r="BI6" s="138" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="115"/>
-      <c r="BK6" s="115"/>
-      <c r="BL6" s="115"/>
-      <c r="BM6" s="115"/>
-      <c r="BN6" s="116"/>
-      <c r="BO6" s="110"/>
+      <c r="BJ6" s="138"/>
+      <c r="BK6" s="138"/>
+      <c r="BL6" s="138"/>
+      <c r="BM6" s="138"/>
+      <c r="BN6" s="131"/>
+      <c r="BO6" s="132"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="117" t="s">
+      <c r="B7" s="126" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="117"/>
-      <c r="E7" s="118"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="127"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -30712,12 +30712,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="117"/>
+      <c r="B8" s="126"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="117"/>
-      <c r="E8" s="119"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="124"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -31741,14 +31741,14 @@
       <c r="AML8" s="23"/>
     </row>
     <row r="9" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="120" t="s">
+      <c r="B9" s="122" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="121"/>
-      <c r="E9" s="122"/>
+      <c r="D9" s="123"/>
+      <c r="E9" s="128"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
       <c r="H9" s="83"/>
@@ -32772,12 +32772,12 @@
       <c r="AML9" s="21"/>
     </row>
     <row r="10" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B10" s="120"/>
+      <c r="B10" s="122"/>
       <c r="C10" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="121"/>
-      <c r="E10" s="123"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="129"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -33801,12 +33801,12 @@
       <c r="AML10" s="21"/>
     </row>
     <row r="11" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="120"/>
+      <c r="B11" s="122"/>
       <c r="C11" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="121"/>
-      <c r="E11" s="123"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="129"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -34830,12 +34830,12 @@
       <c r="AML11" s="21"/>
     </row>
     <row r="12" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="120"/>
+      <c r="B12" s="122"/>
       <c r="C12" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="121"/>
-      <c r="E12" s="124"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="130"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -34900,14 +34900,14 @@
       <c r="BO12" s="31"/>
     </row>
     <row r="13" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B13" s="120" t="s">
+      <c r="B13" s="122" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="121"/>
-      <c r="E13" s="119"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="124"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -34972,12 +34972,12 @@
       <c r="BO13" s="20"/>
     </row>
     <row r="14" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B14" s="120"/>
+      <c r="B14" s="122"/>
       <c r="C14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="121"/>
-      <c r="E14" s="119"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="124"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -35042,12 +35042,12 @@
       <c r="BO14" s="31"/>
     </row>
     <row r="15" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="120"/>
+      <c r="B15" s="122"/>
       <c r="C15" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="121"/>
-      <c r="E15" s="119"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="124"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -35112,12 +35112,12 @@
       <c r="BO15" s="31"/>
     </row>
     <row r="16" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B16" s="120"/>
+      <c r="B16" s="122"/>
       <c r="C16" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="121"/>
-      <c r="E16" s="119"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="124"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -35182,12 +35182,12 @@
       <c r="BO16" s="31"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B17" s="120"/>
+      <c r="B17" s="122"/>
       <c r="C17" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="121"/>
-      <c r="E17" s="119"/>
+      <c r="D17" s="123"/>
+      <c r="E17" s="124"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -35252,12 +35252,12 @@
       <c r="BO17" s="31"/>
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B18" s="120"/>
+      <c r="B18" s="122"/>
       <c r="C18" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="121"/>
-      <c r="E18" s="119"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="124"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -35322,12 +35322,12 @@
       <c r="BO18" s="31"/>
     </row>
     <row r="19" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B19" s="120"/>
+      <c r="B19" s="122"/>
       <c r="C19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="121"/>
-      <c r="E19" s="119"/>
+      <c r="D19" s="123"/>
+      <c r="E19" s="124"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -35398,8 +35398,8 @@
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="117"/>
-      <c r="E20" s="126"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="115"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -35468,8 +35468,8 @@
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="117"/>
-      <c r="E21" s="127"/>
+      <c r="D21" s="126"/>
+      <c r="E21" s="116"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -35538,8 +35538,8 @@
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="117"/>
-      <c r="E22" s="127"/>
+      <c r="D22" s="126"/>
+      <c r="E22" s="116"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -35608,8 +35608,8 @@
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="117"/>
-      <c r="E23" s="127"/>
+      <c r="D23" s="126"/>
+      <c r="E23" s="116"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -35678,8 +35678,8 @@
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="117"/>
-      <c r="E24" s="127"/>
+      <c r="D24" s="126"/>
+      <c r="E24" s="116"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -35744,14 +35744,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="130" t="s">
+      <c r="B25" s="111" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="133"/>
-      <c r="E25" s="126"/>
+      <c r="D25" s="114"/>
+      <c r="E25" s="115"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -35816,12 +35816,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="131"/>
+      <c r="B26" s="112"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="133"/>
-      <c r="E26" s="127"/>
+      <c r="D26" s="114"/>
+      <c r="E26" s="116"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -35886,12 +35886,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="131"/>
+      <c r="B27" s="112"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="133"/>
-      <c r="E27" s="127"/>
+      <c r="D27" s="114"/>
+      <c r="E27" s="116"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -35956,12 +35956,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="131"/>
+      <c r="B28" s="112"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="133"/>
-      <c r="E28" s="127"/>
+      <c r="D28" s="114"/>
+      <c r="E28" s="116"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -36026,12 +36026,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="132"/>
+      <c r="B29" s="113"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="133"/>
-      <c r="E29" s="134"/>
+      <c r="D29" s="114"/>
+      <c r="E29" s="117"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -36168,10 +36168,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="135"/>
-      <c r="C31" s="126"/>
-      <c r="D31" s="138"/>
-      <c r="E31" s="135"/>
+      <c r="B31" s="118"/>
+      <c r="C31" s="115"/>
+      <c r="D31" s="121"/>
+      <c r="E31" s="118"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -36236,10 +36236,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="136"/>
-      <c r="C32" s="127"/>
-      <c r="D32" s="138"/>
-      <c r="E32" s="136"/>
+      <c r="B32" s="119"/>
+      <c r="C32" s="116"/>
+      <c r="D32" s="121"/>
+      <c r="E32" s="119"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -36304,10 +36304,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="136"/>
-      <c r="C33" s="127"/>
-      <c r="D33" s="138"/>
-      <c r="E33" s="136"/>
+      <c r="B33" s="119"/>
+      <c r="C33" s="116"/>
+      <c r="D33" s="121"/>
+      <c r="E33" s="119"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -36372,10 +36372,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="136"/>
-      <c r="C34" s="127"/>
-      <c r="D34" s="138"/>
-      <c r="E34" s="136"/>
+      <c r="B34" s="119"/>
+      <c r="C34" s="116"/>
+      <c r="D34" s="121"/>
+      <c r="E34" s="119"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -36440,10 +36440,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="136"/>
-      <c r="C35" s="127"/>
-      <c r="D35" s="138"/>
-      <c r="E35" s="136"/>
+      <c r="B35" s="119"/>
+      <c r="C35" s="116"/>
+      <c r="D35" s="121"/>
+      <c r="E35" s="119"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -36508,10 +36508,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="136"/>
-      <c r="C36" s="127"/>
-      <c r="D36" s="138"/>
-      <c r="E36" s="136"/>
+      <c r="B36" s="119"/>
+      <c r="C36" s="116"/>
+      <c r="D36" s="121"/>
+      <c r="E36" s="119"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -36576,10 +36576,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="136"/>
-      <c r="C37" s="127"/>
-      <c r="D37" s="138"/>
-      <c r="E37" s="136"/>
+      <c r="B37" s="119"/>
+      <c r="C37" s="116"/>
+      <c r="D37" s="121"/>
+      <c r="E37" s="119"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -36644,10 +36644,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="136"/>
-      <c r="C38" s="127"/>
-      <c r="D38" s="138"/>
-      <c r="E38" s="136"/>
+      <c r="B38" s="119"/>
+      <c r="C38" s="116"/>
+      <c r="D38" s="121"/>
+      <c r="E38" s="119"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -36712,10 +36712,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="136"/>
-      <c r="C39" s="127"/>
-      <c r="D39" s="138"/>
-      <c r="E39" s="136"/>
+      <c r="B39" s="119"/>
+      <c r="C39" s="116"/>
+      <c r="D39" s="121"/>
+      <c r="E39" s="119"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -36780,10 +36780,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="136"/>
-      <c r="C40" s="127"/>
-      <c r="D40" s="138"/>
-      <c r="E40" s="136"/>
+      <c r="B40" s="119"/>
+      <c r="C40" s="116"/>
+      <c r="D40" s="121"/>
+      <c r="E40" s="119"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -36848,10 +36848,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="136"/>
-      <c r="C41" s="127"/>
-      <c r="D41" s="138"/>
-      <c r="E41" s="136"/>
+      <c r="B41" s="119"/>
+      <c r="C41" s="116"/>
+      <c r="D41" s="121"/>
+      <c r="E41" s="119"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -36916,10 +36916,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="136"/>
-      <c r="C42" s="127"/>
-      <c r="D42" s="138"/>
-      <c r="E42" s="136"/>
+      <c r="B42" s="119"/>
+      <c r="C42" s="116"/>
+      <c r="D42" s="121"/>
+      <c r="E42" s="119"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -36984,10 +36984,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="136"/>
-      <c r="C43" s="127"/>
-      <c r="D43" s="138"/>
-      <c r="E43" s="136"/>
+      <c r="B43" s="119"/>
+      <c r="C43" s="116"/>
+      <c r="D43" s="121"/>
+      <c r="E43" s="119"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -37052,10 +37052,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="136"/>
-      <c r="C44" s="127"/>
-      <c r="D44" s="138"/>
-      <c r="E44" s="136"/>
+      <c r="B44" s="119"/>
+      <c r="C44" s="116"/>
+      <c r="D44" s="121"/>
+      <c r="E44" s="119"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -37120,10 +37120,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="136"/>
-      <c r="C45" s="127"/>
-      <c r="D45" s="138"/>
-      <c r="E45" s="136"/>
+      <c r="B45" s="119"/>
+      <c r="C45" s="116"/>
+      <c r="D45" s="121"/>
+      <c r="E45" s="119"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -37188,10 +37188,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="136"/>
-      <c r="C46" s="127"/>
-      <c r="D46" s="138"/>
-      <c r="E46" s="136"/>
+      <c r="B46" s="119"/>
+      <c r="C46" s="116"/>
+      <c r="D46" s="121"/>
+      <c r="E46" s="119"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -37256,10 +37256,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="136"/>
-      <c r="C47" s="127"/>
-      <c r="D47" s="138"/>
-      <c r="E47" s="136"/>
+      <c r="B47" s="119"/>
+      <c r="C47" s="116"/>
+      <c r="D47" s="121"/>
+      <c r="E47" s="119"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -37324,10 +37324,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="136"/>
-      <c r="C48" s="127"/>
-      <c r="D48" s="138"/>
-      <c r="E48" s="136"/>
+      <c r="B48" s="119"/>
+      <c r="C48" s="116"/>
+      <c r="D48" s="121"/>
+      <c r="E48" s="119"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -37392,10 +37392,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="136"/>
-      <c r="C49" s="127"/>
-      <c r="D49" s="138"/>
-      <c r="E49" s="136"/>
+      <c r="B49" s="119"/>
+      <c r="C49" s="116"/>
+      <c r="D49" s="121"/>
+      <c r="E49" s="119"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -37460,10 +37460,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="136"/>
-      <c r="C50" s="127"/>
-      <c r="D50" s="138"/>
-      <c r="E50" s="136"/>
+      <c r="B50" s="119"/>
+      <c r="C50" s="116"/>
+      <c r="D50" s="121"/>
+      <c r="E50" s="119"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -37528,10 +37528,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="136"/>
-      <c r="C51" s="127"/>
-      <c r="D51" s="138"/>
-      <c r="E51" s="136"/>
+      <c r="B51" s="119"/>
+      <c r="C51" s="116"/>
+      <c r="D51" s="121"/>
+      <c r="E51" s="119"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -37596,10 +37596,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="136"/>
-      <c r="C52" s="127"/>
-      <c r="D52" s="138"/>
-      <c r="E52" s="136"/>
+      <c r="B52" s="119"/>
+      <c r="C52" s="116"/>
+      <c r="D52" s="121"/>
+      <c r="E52" s="119"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -37664,10 +37664,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="136"/>
-      <c r="C53" s="127"/>
-      <c r="D53" s="138"/>
-      <c r="E53" s="136"/>
+      <c r="B53" s="119"/>
+      <c r="C53" s="116"/>
+      <c r="D53" s="121"/>
+      <c r="E53" s="119"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -37732,10 +37732,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="136"/>
-      <c r="C54" s="127"/>
-      <c r="D54" s="138"/>
-      <c r="E54" s="136"/>
+      <c r="B54" s="119"/>
+      <c r="C54" s="116"/>
+      <c r="D54" s="121"/>
+      <c r="E54" s="119"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -37800,10 +37800,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="136"/>
-      <c r="C55" s="127"/>
-      <c r="D55" s="138"/>
-      <c r="E55" s="136"/>
+      <c r="B55" s="119"/>
+      <c r="C55" s="116"/>
+      <c r="D55" s="121"/>
+      <c r="E55" s="119"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -37868,10 +37868,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="136"/>
-      <c r="C56" s="127"/>
-      <c r="D56" s="138"/>
-      <c r="E56" s="136"/>
+      <c r="B56" s="119"/>
+      <c r="C56" s="116"/>
+      <c r="D56" s="121"/>
+      <c r="E56" s="119"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -37936,10 +37936,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="136"/>
-      <c r="C57" s="127"/>
-      <c r="D57" s="138"/>
-      <c r="E57" s="136"/>
+      <c r="B57" s="119"/>
+      <c r="C57" s="116"/>
+      <c r="D57" s="121"/>
+      <c r="E57" s="119"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -37999,10 +37999,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="137"/>
-      <c r="C58" s="134"/>
-      <c r="D58" s="138"/>
-      <c r="E58" s="137"/>
+      <c r="B58" s="120"/>
+      <c r="C58" s="117"/>
+      <c r="D58" s="121"/>
+      <c r="E58" s="120"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -38067,7 +38067,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="128" t="s">
+      <c r="B59" s="109" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -38139,7 +38139,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="128"/>
+      <c r="B60" s="109"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -38209,7 +38209,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="129" t="s">
+      <c r="B61" s="110" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -38281,7 +38281,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="129"/>
+      <c r="B62" s="110"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -38349,7 +38349,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="129"/>
+      <c r="B63" s="110"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -38558,27 +38558,16 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="E31:E58"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:BM5"/>
+    <mergeCell ref="AT6:AX6"/>
+    <mergeCell ref="AY6:BC6"/>
+    <mergeCell ref="BD6:BH6"/>
+    <mergeCell ref="BI6:BM6"/>
     <mergeCell ref="BN5:BN6"/>
     <mergeCell ref="BO5:BO6"/>
     <mergeCell ref="F6:J6"/>
@@ -38589,16 +38578,27 @@
     <mergeCell ref="AE6:AI6"/>
     <mergeCell ref="AJ6:AN6"/>
     <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:BM5"/>
-    <mergeCell ref="AT6:AX6"/>
-    <mergeCell ref="AY6:BC6"/>
-    <mergeCell ref="BD6:BH6"/>
-    <mergeCell ref="BI6:BM6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="E31:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -38608,8 +38608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AML65"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AB14" sqref="AB14"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AB16" sqref="AB16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5"/>
@@ -38630,13 +38630,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="134" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
     </row>
     <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
@@ -38802,84 +38802,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="111" t="s">
+      <c r="C5" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="112" t="s">
+      <c r="D5" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="110" t="s">
+      <c r="E5" s="132" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="113" t="s">
+      <c r="F5" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="113"/>
-      <c r="K5" s="113"/>
-      <c r="L5" s="113"/>
-      <c r="M5" s="113"/>
-      <c r="N5" s="113"/>
-      <c r="O5" s="113"/>
-      <c r="P5" s="113"/>
-      <c r="Q5" s="113"/>
-      <c r="R5" s="113"/>
-      <c r="S5" s="113"/>
-      <c r="T5" s="113"/>
-      <c r="U5" s="113"/>
-      <c r="V5" s="113"/>
-      <c r="W5" s="113"/>
-      <c r="X5" s="113"/>
-      <c r="Y5" s="113"/>
-      <c r="Z5" s="113"/>
-      <c r="AA5" s="113"/>
-      <c r="AB5" s="113"/>
-      <c r="AC5" s="113"/>
-      <c r="AD5" s="113"/>
-      <c r="AE5" s="113"/>
-      <c r="AF5" s="113"/>
-      <c r="AG5" s="113"/>
-      <c r="AH5" s="113"/>
-      <c r="AI5" s="113"/>
-      <c r="AJ5" s="113"/>
-      <c r="AK5" s="113"/>
-      <c r="AL5" s="113"/>
-      <c r="AM5" s="113"/>
-      <c r="AN5" s="113"/>
-      <c r="AO5" s="113"/>
-      <c r="AP5" s="113"/>
-      <c r="AQ5" s="113"/>
-      <c r="AR5" s="113"/>
-      <c r="AS5" s="113"/>
-      <c r="AT5" s="113"/>
-      <c r="AU5" s="113"/>
-      <c r="AV5" s="113"/>
-      <c r="AW5" s="113"/>
-      <c r="AX5" s="113"/>
-      <c r="AY5" s="113"/>
-      <c r="AZ5" s="113"/>
-      <c r="BA5" s="113"/>
-      <c r="BB5" s="113"/>
-      <c r="BC5" s="113"/>
-      <c r="BD5" s="113"/>
-      <c r="BE5" s="113"/>
-      <c r="BF5" s="113"/>
-      <c r="BG5" s="113"/>
-      <c r="BH5" s="113"/>
-      <c r="BI5" s="113"/>
-      <c r="BJ5" s="113"/>
-      <c r="BK5" s="113"/>
-      <c r="BL5" s="113"/>
-      <c r="BM5" s="113"/>
-      <c r="BN5" s="116" t="s">
+      <c r="G5" s="137"/>
+      <c r="H5" s="137"/>
+      <c r="I5" s="137"/>
+      <c r="J5" s="137"/>
+      <c r="K5" s="137"/>
+      <c r="L5" s="137"/>
+      <c r="M5" s="137"/>
+      <c r="N5" s="137"/>
+      <c r="O5" s="137"/>
+      <c r="P5" s="137"/>
+      <c r="Q5" s="137"/>
+      <c r="R5" s="137"/>
+      <c r="S5" s="137"/>
+      <c r="T5" s="137"/>
+      <c r="U5" s="137"/>
+      <c r="V5" s="137"/>
+      <c r="W5" s="137"/>
+      <c r="X5" s="137"/>
+      <c r="Y5" s="137"/>
+      <c r="Z5" s="137"/>
+      <c r="AA5" s="137"/>
+      <c r="AB5" s="137"/>
+      <c r="AC5" s="137"/>
+      <c r="AD5" s="137"/>
+      <c r="AE5" s="137"/>
+      <c r="AF5" s="137"/>
+      <c r="AG5" s="137"/>
+      <c r="AH5" s="137"/>
+      <c r="AI5" s="137"/>
+      <c r="AJ5" s="137"/>
+      <c r="AK5" s="137"/>
+      <c r="AL5" s="137"/>
+      <c r="AM5" s="137"/>
+      <c r="AN5" s="137"/>
+      <c r="AO5" s="137"/>
+      <c r="AP5" s="137"/>
+      <c r="AQ5" s="137"/>
+      <c r="AR5" s="137"/>
+      <c r="AS5" s="137"/>
+      <c r="AT5" s="137"/>
+      <c r="AU5" s="137"/>
+      <c r="AV5" s="137"/>
+      <c r="AW5" s="137"/>
+      <c r="AX5" s="137"/>
+      <c r="AY5" s="137"/>
+      <c r="AZ5" s="137"/>
+      <c r="BA5" s="137"/>
+      <c r="BB5" s="137"/>
+      <c r="BC5" s="137"/>
+      <c r="BD5" s="137"/>
+      <c r="BE5" s="137"/>
+      <c r="BF5" s="137"/>
+      <c r="BG5" s="137"/>
+      <c r="BH5" s="137"/>
+      <c r="BI5" s="137"/>
+      <c r="BJ5" s="137"/>
+      <c r="BK5" s="137"/>
+      <c r="BL5" s="137"/>
+      <c r="BM5" s="137"/>
+      <c r="BN5" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="110" t="s">
+      <c r="BO5" s="132" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -38888,107 +38888,107 @@
       <c r="BU5" s="94"/>
     </row>
     <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="110"/>
-      <c r="C6" s="111"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="114" t="s">
+      <c r="B6" s="132"/>
+      <c r="C6" s="135"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="133" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="114" t="s">
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="133"/>
+      <c r="K6" s="133" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="114"/>
-      <c r="M6" s="114"/>
-      <c r="N6" s="114"/>
-      <c r="O6" s="114"/>
-      <c r="P6" s="114" t="s">
+      <c r="L6" s="133"/>
+      <c r="M6" s="133"/>
+      <c r="N6" s="133"/>
+      <c r="O6" s="133"/>
+      <c r="P6" s="133" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="114"/>
-      <c r="R6" s="114"/>
-      <c r="S6" s="114"/>
-      <c r="T6" s="114"/>
-      <c r="U6" s="114" t="s">
+      <c r="Q6" s="133"/>
+      <c r="R6" s="133"/>
+      <c r="S6" s="133"/>
+      <c r="T6" s="133"/>
+      <c r="U6" s="133" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="114"/>
-      <c r="W6" s="114"/>
-      <c r="X6" s="114"/>
-      <c r="Y6" s="114"/>
-      <c r="Z6" s="114" t="s">
+      <c r="V6" s="133"/>
+      <c r="W6" s="133"/>
+      <c r="X6" s="133"/>
+      <c r="Y6" s="133"/>
+      <c r="Z6" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="114"/>
-      <c r="AB6" s="114"/>
-      <c r="AC6" s="114"/>
-      <c r="AD6" s="114"/>
-      <c r="AE6" s="114" t="s">
+      <c r="AA6" s="133"/>
+      <c r="AB6" s="133"/>
+      <c r="AC6" s="133"/>
+      <c r="AD6" s="133"/>
+      <c r="AE6" s="133" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="114"/>
-      <c r="AG6" s="114"/>
-      <c r="AH6" s="114"/>
-      <c r="AI6" s="114"/>
-      <c r="AJ6" s="114" t="s">
+      <c r="AF6" s="133"/>
+      <c r="AG6" s="133"/>
+      <c r="AH6" s="133"/>
+      <c r="AI6" s="133"/>
+      <c r="AJ6" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="114"/>
-      <c r="AL6" s="114"/>
-      <c r="AM6" s="114"/>
-      <c r="AN6" s="114"/>
-      <c r="AO6" s="114" t="s">
+      <c r="AK6" s="133"/>
+      <c r="AL6" s="133"/>
+      <c r="AM6" s="133"/>
+      <c r="AN6" s="133"/>
+      <c r="AO6" s="133" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="114"/>
-      <c r="AQ6" s="114"/>
-      <c r="AR6" s="114"/>
-      <c r="AS6" s="114"/>
-      <c r="AT6" s="114" t="s">
+      <c r="AP6" s="133"/>
+      <c r="AQ6" s="133"/>
+      <c r="AR6" s="133"/>
+      <c r="AS6" s="133"/>
+      <c r="AT6" s="133" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="114"/>
-      <c r="AV6" s="114"/>
-      <c r="AW6" s="114"/>
-      <c r="AX6" s="114"/>
-      <c r="AY6" s="114" t="s">
+      <c r="AU6" s="133"/>
+      <c r="AV6" s="133"/>
+      <c r="AW6" s="133"/>
+      <c r="AX6" s="133"/>
+      <c r="AY6" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="114"/>
-      <c r="BA6" s="114"/>
-      <c r="BB6" s="114"/>
-      <c r="BC6" s="114"/>
-      <c r="BD6" s="114" t="s">
+      <c r="AZ6" s="133"/>
+      <c r="BA6" s="133"/>
+      <c r="BB6" s="133"/>
+      <c r="BC6" s="133"/>
+      <c r="BD6" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="114"/>
-      <c r="BF6" s="114"/>
-      <c r="BG6" s="114"/>
-      <c r="BH6" s="114"/>
-      <c r="BI6" s="115" t="s">
+      <c r="BE6" s="133"/>
+      <c r="BF6" s="133"/>
+      <c r="BG6" s="133"/>
+      <c r="BH6" s="133"/>
+      <c r="BI6" s="138" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="115"/>
-      <c r="BK6" s="115"/>
-      <c r="BL6" s="115"/>
-      <c r="BM6" s="115"/>
-      <c r="BN6" s="116"/>
-      <c r="BO6" s="110"/>
+      <c r="BJ6" s="138"/>
+      <c r="BK6" s="138"/>
+      <c r="BL6" s="138"/>
+      <c r="BM6" s="138"/>
+      <c r="BN6" s="131"/>
+      <c r="BO6" s="132"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="117" t="s">
+      <c r="B7" s="126" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="117"/>
-      <c r="E7" s="118"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="127"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -40013,12 +40013,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="117"/>
+      <c r="B8" s="126"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="117"/>
-      <c r="E8" s="119"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="124"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -41042,14 +41042,14 @@
       <c r="AML8" s="23"/>
     </row>
     <row r="9" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="120" t="s">
+      <c r="B9" s="122" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="121"/>
-      <c r="E9" s="122"/>
+      <c r="D9" s="123"/>
+      <c r="E9" s="128"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
       <c r="H9" s="100"/>
@@ -42073,12 +42073,12 @@
       <c r="AML9" s="21"/>
     </row>
     <row r="10" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B10" s="120"/>
+      <c r="B10" s="122"/>
       <c r="C10" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="121"/>
-      <c r="E10" s="123"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="129"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -43102,12 +43102,12 @@
       <c r="AML10" s="21"/>
     </row>
     <row r="11" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="120"/>
+      <c r="B11" s="122"/>
       <c r="C11" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="121"/>
-      <c r="E11" s="123"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="129"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -44131,12 +44131,12 @@
       <c r="AML11" s="21"/>
     </row>
     <row r="12" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="120"/>
+      <c r="B12" s="122"/>
       <c r="C12" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="121"/>
-      <c r="E12" s="124"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="130"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -44201,14 +44201,14 @@
       <c r="BO12" s="31"/>
     </row>
     <row r="13" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B13" s="120" t="s">
+      <c r="B13" s="122" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="121"/>
-      <c r="E13" s="119"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="124"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -44273,12 +44273,12 @@
       <c r="BO13" s="20"/>
     </row>
     <row r="14" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B14" s="120"/>
+      <c r="B14" s="122"/>
       <c r="C14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="121"/>
-      <c r="E14" s="119"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="124"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -44343,12 +44343,12 @@
       <c r="BO14" s="31"/>
     </row>
     <row r="15" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="120"/>
+      <c r="B15" s="122"/>
       <c r="C15" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="121"/>
-      <c r="E15" s="119"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="124"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -44371,7 +44371,7 @@
       <c r="Y15" s="30"/>
       <c r="Z15" s="29"/>
       <c r="AA15" s="21"/>
-      <c r="AB15" s="21"/>
+      <c r="AB15" s="99"/>
       <c r="AC15" s="21"/>
       <c r="AD15" s="30"/>
       <c r="AE15" s="29"/>
@@ -44413,12 +44413,12 @@
       <c r="BO15" s="31"/>
     </row>
     <row r="16" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B16" s="120"/>
+      <c r="B16" s="122"/>
       <c r="C16" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="121"/>
-      <c r="E16" s="119"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="124"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -44441,7 +44441,7 @@
       <c r="Y16" s="30"/>
       <c r="Z16" s="29"/>
       <c r="AA16" s="21"/>
-      <c r="AB16" s="21"/>
+      <c r="AB16" s="99"/>
       <c r="AC16" s="21"/>
       <c r="AD16" s="30"/>
       <c r="AE16" s="29"/>
@@ -44483,12 +44483,12 @@
       <c r="BO16" s="31"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B17" s="120"/>
+      <c r="B17" s="122"/>
       <c r="C17" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="121"/>
-      <c r="E17" s="119"/>
+      <c r="D17" s="123"/>
+      <c r="E17" s="124"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -44553,12 +44553,12 @@
       <c r="BO17" s="31"/>
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B18" s="120"/>
+      <c r="B18" s="122"/>
       <c r="C18" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="121"/>
-      <c r="E18" s="119"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="124"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -44623,12 +44623,12 @@
       <c r="BO18" s="31"/>
     </row>
     <row r="19" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B19" s="120"/>
+      <c r="B19" s="122"/>
       <c r="C19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="121"/>
-      <c r="E19" s="119"/>
+      <c r="D19" s="123"/>
+      <c r="E19" s="124"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -44699,8 +44699,8 @@
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="117"/>
-      <c r="E20" s="126"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="115"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -44769,8 +44769,8 @@
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="117"/>
-      <c r="E21" s="127"/>
+      <c r="D21" s="126"/>
+      <c r="E21" s="116"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -44839,8 +44839,8 @@
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="117"/>
-      <c r="E22" s="127"/>
+      <c r="D22" s="126"/>
+      <c r="E22" s="116"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -44909,8 +44909,8 @@
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="117"/>
-      <c r="E23" s="127"/>
+      <c r="D23" s="126"/>
+      <c r="E23" s="116"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -44979,8 +44979,8 @@
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="117"/>
-      <c r="E24" s="127"/>
+      <c r="D24" s="126"/>
+      <c r="E24" s="116"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -45045,14 +45045,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="130" t="s">
+      <c r="B25" s="111" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="133"/>
-      <c r="E25" s="126"/>
+      <c r="D25" s="114"/>
+      <c r="E25" s="115"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -45117,12 +45117,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="131"/>
+      <c r="B26" s="112"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="133"/>
-      <c r="E26" s="127"/>
+      <c r="D26" s="114"/>
+      <c r="E26" s="116"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -45187,12 +45187,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="131"/>
+      <c r="B27" s="112"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="133"/>
-      <c r="E27" s="127"/>
+      <c r="D27" s="114"/>
+      <c r="E27" s="116"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -45257,12 +45257,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="131"/>
+      <c r="B28" s="112"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="133"/>
-      <c r="E28" s="127"/>
+      <c r="D28" s="114"/>
+      <c r="E28" s="116"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -45327,12 +45327,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="132"/>
+      <c r="B29" s="113"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="133"/>
-      <c r="E29" s="134"/>
+      <c r="D29" s="114"/>
+      <c r="E29" s="117"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -45469,10 +45469,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="135"/>
-      <c r="C31" s="126"/>
-      <c r="D31" s="138"/>
-      <c r="E31" s="135"/>
+      <c r="B31" s="118"/>
+      <c r="C31" s="115"/>
+      <c r="D31" s="121"/>
+      <c r="E31" s="118"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -45537,10 +45537,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="136"/>
-      <c r="C32" s="127"/>
-      <c r="D32" s="138"/>
-      <c r="E32" s="136"/>
+      <c r="B32" s="119"/>
+      <c r="C32" s="116"/>
+      <c r="D32" s="121"/>
+      <c r="E32" s="119"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -45605,10 +45605,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="136"/>
-      <c r="C33" s="127"/>
-      <c r="D33" s="138"/>
-      <c r="E33" s="136"/>
+      <c r="B33" s="119"/>
+      <c r="C33" s="116"/>
+      <c r="D33" s="121"/>
+      <c r="E33" s="119"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -45673,10 +45673,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="136"/>
-      <c r="C34" s="127"/>
-      <c r="D34" s="138"/>
-      <c r="E34" s="136"/>
+      <c r="B34" s="119"/>
+      <c r="C34" s="116"/>
+      <c r="D34" s="121"/>
+      <c r="E34" s="119"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -45741,10 +45741,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="136"/>
-      <c r="C35" s="127"/>
-      <c r="D35" s="138"/>
-      <c r="E35" s="136"/>
+      <c r="B35" s="119"/>
+      <c r="C35" s="116"/>
+      <c r="D35" s="121"/>
+      <c r="E35" s="119"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -45809,10 +45809,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="136"/>
-      <c r="C36" s="127"/>
-      <c r="D36" s="138"/>
-      <c r="E36" s="136"/>
+      <c r="B36" s="119"/>
+      <c r="C36" s="116"/>
+      <c r="D36" s="121"/>
+      <c r="E36" s="119"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -45877,10 +45877,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="136"/>
-      <c r="C37" s="127"/>
-      <c r="D37" s="138"/>
-      <c r="E37" s="136"/>
+      <c r="B37" s="119"/>
+      <c r="C37" s="116"/>
+      <c r="D37" s="121"/>
+      <c r="E37" s="119"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -45945,10 +45945,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="136"/>
-      <c r="C38" s="127"/>
-      <c r="D38" s="138"/>
-      <c r="E38" s="136"/>
+      <c r="B38" s="119"/>
+      <c r="C38" s="116"/>
+      <c r="D38" s="121"/>
+      <c r="E38" s="119"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -46013,10 +46013,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="136"/>
-      <c r="C39" s="127"/>
-      <c r="D39" s="138"/>
-      <c r="E39" s="136"/>
+      <c r="B39" s="119"/>
+      <c r="C39" s="116"/>
+      <c r="D39" s="121"/>
+      <c r="E39" s="119"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -46081,10 +46081,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="136"/>
-      <c r="C40" s="127"/>
-      <c r="D40" s="138"/>
-      <c r="E40" s="136"/>
+      <c r="B40" s="119"/>
+      <c r="C40" s="116"/>
+      <c r="D40" s="121"/>
+      <c r="E40" s="119"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -46149,10 +46149,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="136"/>
-      <c r="C41" s="127"/>
-      <c r="D41" s="138"/>
-      <c r="E41" s="136"/>
+      <c r="B41" s="119"/>
+      <c r="C41" s="116"/>
+      <c r="D41" s="121"/>
+      <c r="E41" s="119"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -46217,10 +46217,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="136"/>
-      <c r="C42" s="127"/>
-      <c r="D42" s="138"/>
-      <c r="E42" s="136"/>
+      <c r="B42" s="119"/>
+      <c r="C42" s="116"/>
+      <c r="D42" s="121"/>
+      <c r="E42" s="119"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -46285,10 +46285,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="136"/>
-      <c r="C43" s="127"/>
-      <c r="D43" s="138"/>
-      <c r="E43" s="136"/>
+      <c r="B43" s="119"/>
+      <c r="C43" s="116"/>
+      <c r="D43" s="121"/>
+      <c r="E43" s="119"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -46353,10 +46353,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="136"/>
-      <c r="C44" s="127"/>
-      <c r="D44" s="138"/>
-      <c r="E44" s="136"/>
+      <c r="B44" s="119"/>
+      <c r="C44" s="116"/>
+      <c r="D44" s="121"/>
+      <c r="E44" s="119"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -46421,10 +46421,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="136"/>
-      <c r="C45" s="127"/>
-      <c r="D45" s="138"/>
-      <c r="E45" s="136"/>
+      <c r="B45" s="119"/>
+      <c r="C45" s="116"/>
+      <c r="D45" s="121"/>
+      <c r="E45" s="119"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -46489,10 +46489,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="136"/>
-      <c r="C46" s="127"/>
-      <c r="D46" s="138"/>
-      <c r="E46" s="136"/>
+      <c r="B46" s="119"/>
+      <c r="C46" s="116"/>
+      <c r="D46" s="121"/>
+      <c r="E46" s="119"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -46557,10 +46557,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="136"/>
-      <c r="C47" s="127"/>
-      <c r="D47" s="138"/>
-      <c r="E47" s="136"/>
+      <c r="B47" s="119"/>
+      <c r="C47" s="116"/>
+      <c r="D47" s="121"/>
+      <c r="E47" s="119"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -46625,10 +46625,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="136"/>
-      <c r="C48" s="127"/>
-      <c r="D48" s="138"/>
-      <c r="E48" s="136"/>
+      <c r="B48" s="119"/>
+      <c r="C48" s="116"/>
+      <c r="D48" s="121"/>
+      <c r="E48" s="119"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -46693,10 +46693,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="136"/>
-      <c r="C49" s="127"/>
-      <c r="D49" s="138"/>
-      <c r="E49" s="136"/>
+      <c r="B49" s="119"/>
+      <c r="C49" s="116"/>
+      <c r="D49" s="121"/>
+      <c r="E49" s="119"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -46761,10 +46761,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="136"/>
-      <c r="C50" s="127"/>
-      <c r="D50" s="138"/>
-      <c r="E50" s="136"/>
+      <c r="B50" s="119"/>
+      <c r="C50" s="116"/>
+      <c r="D50" s="121"/>
+      <c r="E50" s="119"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -46829,10 +46829,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="136"/>
-      <c r="C51" s="127"/>
-      <c r="D51" s="138"/>
-      <c r="E51" s="136"/>
+      <c r="B51" s="119"/>
+      <c r="C51" s="116"/>
+      <c r="D51" s="121"/>
+      <c r="E51" s="119"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -46897,10 +46897,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="136"/>
-      <c r="C52" s="127"/>
-      <c r="D52" s="138"/>
-      <c r="E52" s="136"/>
+      <c r="B52" s="119"/>
+      <c r="C52" s="116"/>
+      <c r="D52" s="121"/>
+      <c r="E52" s="119"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -46965,10 +46965,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="136"/>
-      <c r="C53" s="127"/>
-      <c r="D53" s="138"/>
-      <c r="E53" s="136"/>
+      <c r="B53" s="119"/>
+      <c r="C53" s="116"/>
+      <c r="D53" s="121"/>
+      <c r="E53" s="119"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -47033,10 +47033,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="136"/>
-      <c r="C54" s="127"/>
-      <c r="D54" s="138"/>
-      <c r="E54" s="136"/>
+      <c r="B54" s="119"/>
+      <c r="C54" s="116"/>
+      <c r="D54" s="121"/>
+      <c r="E54" s="119"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -47101,10 +47101,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="136"/>
-      <c r="C55" s="127"/>
-      <c r="D55" s="138"/>
-      <c r="E55" s="136"/>
+      <c r="B55" s="119"/>
+      <c r="C55" s="116"/>
+      <c r="D55" s="121"/>
+      <c r="E55" s="119"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -47169,10 +47169,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="136"/>
-      <c r="C56" s="127"/>
-      <c r="D56" s="138"/>
-      <c r="E56" s="136"/>
+      <c r="B56" s="119"/>
+      <c r="C56" s="116"/>
+      <c r="D56" s="121"/>
+      <c r="E56" s="119"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -47237,10 +47237,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="136"/>
-      <c r="C57" s="127"/>
-      <c r="D57" s="138"/>
-      <c r="E57" s="136"/>
+      <c r="B57" s="119"/>
+      <c r="C57" s="116"/>
+      <c r="D57" s="121"/>
+      <c r="E57" s="119"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -47300,10 +47300,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="137"/>
-      <c r="C58" s="134"/>
-      <c r="D58" s="138"/>
-      <c r="E58" s="137"/>
+      <c r="B58" s="120"/>
+      <c r="C58" s="117"/>
+      <c r="D58" s="121"/>
+      <c r="E58" s="120"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -47368,7 +47368,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="128" t="s">
+      <c r="B59" s="109" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -47440,7 +47440,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="128"/>
+      <c r="B60" s="109"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -47510,7 +47510,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="129" t="s">
+      <c r="B61" s="110" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -47582,7 +47582,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="129"/>
+      <c r="B62" s="110"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -47650,7 +47650,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="129"/>
+      <c r="B63" s="110"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -47859,27 +47859,16 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="E31:E58"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:BM5"/>
+    <mergeCell ref="AT6:AX6"/>
+    <mergeCell ref="AY6:BC6"/>
+    <mergeCell ref="BD6:BH6"/>
+    <mergeCell ref="BI6:BM6"/>
     <mergeCell ref="BN5:BN6"/>
     <mergeCell ref="BO5:BO6"/>
     <mergeCell ref="F6:J6"/>
@@ -47890,16 +47879,27 @@
     <mergeCell ref="AE6:AI6"/>
     <mergeCell ref="AJ6:AN6"/>
     <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:BM5"/>
-    <mergeCell ref="AT6:AX6"/>
-    <mergeCell ref="AY6:BC6"/>
-    <mergeCell ref="BD6:BH6"/>
-    <mergeCell ref="BI6:BM6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="E31:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -47932,13 +47932,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="134" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
     </row>
     <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
@@ -48104,84 +48104,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="111" t="s">
+      <c r="C5" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="112" t="s">
+      <c r="D5" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="110" t="s">
+      <c r="E5" s="132" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="113" t="s">
+      <c r="F5" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="113"/>
-      <c r="K5" s="113"/>
-      <c r="L5" s="113"/>
-      <c r="M5" s="113"/>
-      <c r="N5" s="113"/>
-      <c r="O5" s="113"/>
-      <c r="P5" s="113"/>
-      <c r="Q5" s="113"/>
-      <c r="R5" s="113"/>
-      <c r="S5" s="113"/>
-      <c r="T5" s="113"/>
-      <c r="U5" s="113"/>
-      <c r="V5" s="113"/>
-      <c r="W5" s="113"/>
-      <c r="X5" s="113"/>
-      <c r="Y5" s="113"/>
-      <c r="Z5" s="113"/>
-      <c r="AA5" s="113"/>
-      <c r="AB5" s="113"/>
-      <c r="AC5" s="113"/>
-      <c r="AD5" s="113"/>
-      <c r="AE5" s="113"/>
-      <c r="AF5" s="113"/>
-      <c r="AG5" s="113"/>
-      <c r="AH5" s="113"/>
-      <c r="AI5" s="113"/>
-      <c r="AJ5" s="113"/>
-      <c r="AK5" s="113"/>
-      <c r="AL5" s="113"/>
-      <c r="AM5" s="113"/>
-      <c r="AN5" s="113"/>
-      <c r="AO5" s="113"/>
-      <c r="AP5" s="113"/>
-      <c r="AQ5" s="113"/>
-      <c r="AR5" s="113"/>
-      <c r="AS5" s="113"/>
-      <c r="AT5" s="113"/>
-      <c r="AU5" s="113"/>
-      <c r="AV5" s="113"/>
-      <c r="AW5" s="113"/>
-      <c r="AX5" s="113"/>
-      <c r="AY5" s="113"/>
-      <c r="AZ5" s="113"/>
-      <c r="BA5" s="113"/>
-      <c r="BB5" s="113"/>
-      <c r="BC5" s="113"/>
-      <c r="BD5" s="113"/>
-      <c r="BE5" s="113"/>
-      <c r="BF5" s="113"/>
-      <c r="BG5" s="113"/>
-      <c r="BH5" s="113"/>
-      <c r="BI5" s="113"/>
-      <c r="BJ5" s="113"/>
-      <c r="BK5" s="113"/>
-      <c r="BL5" s="113"/>
-      <c r="BM5" s="113"/>
-      <c r="BN5" s="116" t="s">
+      <c r="G5" s="137"/>
+      <c r="H5" s="137"/>
+      <c r="I5" s="137"/>
+      <c r="J5" s="137"/>
+      <c r="K5" s="137"/>
+      <c r="L5" s="137"/>
+      <c r="M5" s="137"/>
+      <c r="N5" s="137"/>
+      <c r="O5" s="137"/>
+      <c r="P5" s="137"/>
+      <c r="Q5" s="137"/>
+      <c r="R5" s="137"/>
+      <c r="S5" s="137"/>
+      <c r="T5" s="137"/>
+      <c r="U5" s="137"/>
+      <c r="V5" s="137"/>
+      <c r="W5" s="137"/>
+      <c r="X5" s="137"/>
+      <c r="Y5" s="137"/>
+      <c r="Z5" s="137"/>
+      <c r="AA5" s="137"/>
+      <c r="AB5" s="137"/>
+      <c r="AC5" s="137"/>
+      <c r="AD5" s="137"/>
+      <c r="AE5" s="137"/>
+      <c r="AF5" s="137"/>
+      <c r="AG5" s="137"/>
+      <c r="AH5" s="137"/>
+      <c r="AI5" s="137"/>
+      <c r="AJ5" s="137"/>
+      <c r="AK5" s="137"/>
+      <c r="AL5" s="137"/>
+      <c r="AM5" s="137"/>
+      <c r="AN5" s="137"/>
+      <c r="AO5" s="137"/>
+      <c r="AP5" s="137"/>
+      <c r="AQ5" s="137"/>
+      <c r="AR5" s="137"/>
+      <c r="AS5" s="137"/>
+      <c r="AT5" s="137"/>
+      <c r="AU5" s="137"/>
+      <c r="AV5" s="137"/>
+      <c r="AW5" s="137"/>
+      <c r="AX5" s="137"/>
+      <c r="AY5" s="137"/>
+      <c r="AZ5" s="137"/>
+      <c r="BA5" s="137"/>
+      <c r="BB5" s="137"/>
+      <c r="BC5" s="137"/>
+      <c r="BD5" s="137"/>
+      <c r="BE5" s="137"/>
+      <c r="BF5" s="137"/>
+      <c r="BG5" s="137"/>
+      <c r="BH5" s="137"/>
+      <c r="BI5" s="137"/>
+      <c r="BJ5" s="137"/>
+      <c r="BK5" s="137"/>
+      <c r="BL5" s="137"/>
+      <c r="BM5" s="137"/>
+      <c r="BN5" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="110" t="s">
+      <c r="BO5" s="132" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -48190,107 +48190,107 @@
       <c r="BU5" s="94"/>
     </row>
     <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="110"/>
-      <c r="C6" s="111"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="114" t="s">
+      <c r="B6" s="132"/>
+      <c r="C6" s="135"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="133" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="114" t="s">
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="133"/>
+      <c r="K6" s="133" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="114"/>
-      <c r="M6" s="114"/>
-      <c r="N6" s="114"/>
-      <c r="O6" s="114"/>
-      <c r="P6" s="114" t="s">
+      <c r="L6" s="133"/>
+      <c r="M6" s="133"/>
+      <c r="N6" s="133"/>
+      <c r="O6" s="133"/>
+      <c r="P6" s="133" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="114"/>
-      <c r="R6" s="114"/>
-      <c r="S6" s="114"/>
-      <c r="T6" s="114"/>
-      <c r="U6" s="114" t="s">
+      <c r="Q6" s="133"/>
+      <c r="R6" s="133"/>
+      <c r="S6" s="133"/>
+      <c r="T6" s="133"/>
+      <c r="U6" s="133" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="114"/>
-      <c r="W6" s="114"/>
-      <c r="X6" s="114"/>
-      <c r="Y6" s="114"/>
-      <c r="Z6" s="114" t="s">
+      <c r="V6" s="133"/>
+      <c r="W6" s="133"/>
+      <c r="X6" s="133"/>
+      <c r="Y6" s="133"/>
+      <c r="Z6" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="114"/>
-      <c r="AB6" s="114"/>
-      <c r="AC6" s="114"/>
-      <c r="AD6" s="114"/>
-      <c r="AE6" s="114" t="s">
+      <c r="AA6" s="133"/>
+      <c r="AB6" s="133"/>
+      <c r="AC6" s="133"/>
+      <c r="AD6" s="133"/>
+      <c r="AE6" s="133" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="114"/>
-      <c r="AG6" s="114"/>
-      <c r="AH6" s="114"/>
-      <c r="AI6" s="114"/>
-      <c r="AJ6" s="114" t="s">
+      <c r="AF6" s="133"/>
+      <c r="AG6" s="133"/>
+      <c r="AH6" s="133"/>
+      <c r="AI6" s="133"/>
+      <c r="AJ6" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="114"/>
-      <c r="AL6" s="114"/>
-      <c r="AM6" s="114"/>
-      <c r="AN6" s="114"/>
-      <c r="AO6" s="114" t="s">
+      <c r="AK6" s="133"/>
+      <c r="AL6" s="133"/>
+      <c r="AM6" s="133"/>
+      <c r="AN6" s="133"/>
+      <c r="AO6" s="133" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="114"/>
-      <c r="AQ6" s="114"/>
-      <c r="AR6" s="114"/>
-      <c r="AS6" s="114"/>
-      <c r="AT6" s="114" t="s">
+      <c r="AP6" s="133"/>
+      <c r="AQ6" s="133"/>
+      <c r="AR6" s="133"/>
+      <c r="AS6" s="133"/>
+      <c r="AT6" s="133" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="114"/>
-      <c r="AV6" s="114"/>
-      <c r="AW6" s="114"/>
-      <c r="AX6" s="114"/>
-      <c r="AY6" s="114" t="s">
+      <c r="AU6" s="133"/>
+      <c r="AV6" s="133"/>
+      <c r="AW6" s="133"/>
+      <c r="AX6" s="133"/>
+      <c r="AY6" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="114"/>
-      <c r="BA6" s="114"/>
-      <c r="BB6" s="114"/>
-      <c r="BC6" s="114"/>
-      <c r="BD6" s="114" t="s">
+      <c r="AZ6" s="133"/>
+      <c r="BA6" s="133"/>
+      <c r="BB6" s="133"/>
+      <c r="BC6" s="133"/>
+      <c r="BD6" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="114"/>
-      <c r="BF6" s="114"/>
-      <c r="BG6" s="114"/>
-      <c r="BH6" s="114"/>
-      <c r="BI6" s="115" t="s">
+      <c r="BE6" s="133"/>
+      <c r="BF6" s="133"/>
+      <c r="BG6" s="133"/>
+      <c r="BH6" s="133"/>
+      <c r="BI6" s="138" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="115"/>
-      <c r="BK6" s="115"/>
-      <c r="BL6" s="115"/>
-      <c r="BM6" s="115"/>
-      <c r="BN6" s="116"/>
-      <c r="BO6" s="110"/>
+      <c r="BJ6" s="138"/>
+      <c r="BK6" s="138"/>
+      <c r="BL6" s="138"/>
+      <c r="BM6" s="138"/>
+      <c r="BN6" s="131"/>
+      <c r="BO6" s="132"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="117" t="s">
+      <c r="B7" s="126" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="117"/>
-      <c r="E7" s="118"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="127"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -49315,12 +49315,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="117"/>
+      <c r="B8" s="126"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="117"/>
-      <c r="E8" s="119"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="124"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -50344,14 +50344,14 @@
       <c r="AML8" s="23"/>
     </row>
     <row r="9" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="120" t="s">
+      <c r="B9" s="122" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="121"/>
-      <c r="E9" s="122"/>
+      <c r="D9" s="123"/>
+      <c r="E9" s="128"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
       <c r="H9" s="83"/>
@@ -51375,12 +51375,12 @@
       <c r="AML9" s="21"/>
     </row>
     <row r="10" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B10" s="120"/>
+      <c r="B10" s="122"/>
       <c r="C10" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="121"/>
-      <c r="E10" s="123"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="129"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -52404,12 +52404,12 @@
       <c r="AML10" s="21"/>
     </row>
     <row r="11" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="120"/>
+      <c r="B11" s="122"/>
       <c r="C11" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="121"/>
-      <c r="E11" s="123"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="129"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -53433,12 +53433,12 @@
       <c r="AML11" s="21"/>
     </row>
     <row r="12" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="120"/>
+      <c r="B12" s="122"/>
       <c r="C12" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="121"/>
-      <c r="E12" s="124"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="130"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -53503,14 +53503,14 @@
       <c r="BO12" s="31"/>
     </row>
     <row r="13" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B13" s="120" t="s">
+      <c r="B13" s="122" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="121"/>
-      <c r="E13" s="119"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="124"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -53575,12 +53575,12 @@
       <c r="BO13" s="20"/>
     </row>
     <row r="14" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B14" s="120"/>
+      <c r="B14" s="122"/>
       <c r="C14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="121"/>
-      <c r="E14" s="119"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="124"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -53645,12 +53645,12 @@
       <c r="BO14" s="31"/>
     </row>
     <row r="15" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="120"/>
+      <c r="B15" s="122"/>
       <c r="C15" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="121"/>
-      <c r="E15" s="119"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="124"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -53715,12 +53715,12 @@
       <c r="BO15" s="31"/>
     </row>
     <row r="16" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B16" s="120"/>
+      <c r="B16" s="122"/>
       <c r="C16" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="121"/>
-      <c r="E16" s="119"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="124"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -53785,12 +53785,12 @@
       <c r="BO16" s="31"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B17" s="120"/>
+      <c r="B17" s="122"/>
       <c r="C17" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="121"/>
-      <c r="E17" s="119"/>
+      <c r="D17" s="123"/>
+      <c r="E17" s="124"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -53855,12 +53855,12 @@
       <c r="BO17" s="31"/>
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B18" s="120"/>
+      <c r="B18" s="122"/>
       <c r="C18" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="121"/>
-      <c r="E18" s="119"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="124"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -53925,12 +53925,12 @@
       <c r="BO18" s="31"/>
     </row>
     <row r="19" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B19" s="120"/>
+      <c r="B19" s="122"/>
       <c r="C19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="121"/>
-      <c r="E19" s="119"/>
+      <c r="D19" s="123"/>
+      <c r="E19" s="124"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -54001,8 +54001,8 @@
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="117"/>
-      <c r="E20" s="126"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="115"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -54071,8 +54071,8 @@
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="117"/>
-      <c r="E21" s="127"/>
+      <c r="D21" s="126"/>
+      <c r="E21" s="116"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -54141,8 +54141,8 @@
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="117"/>
-      <c r="E22" s="127"/>
+      <c r="D22" s="126"/>
+      <c r="E22" s="116"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -54211,8 +54211,8 @@
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="117"/>
-      <c r="E23" s="127"/>
+      <c r="D23" s="126"/>
+      <c r="E23" s="116"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -54281,8 +54281,8 @@
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="117"/>
-      <c r="E24" s="127"/>
+      <c r="D24" s="126"/>
+      <c r="E24" s="116"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -54347,14 +54347,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="130" t="s">
+      <c r="B25" s="111" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="133"/>
-      <c r="E25" s="126"/>
+      <c r="D25" s="114"/>
+      <c r="E25" s="115"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -54419,12 +54419,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="131"/>
+      <c r="B26" s="112"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="133"/>
-      <c r="E26" s="127"/>
+      <c r="D26" s="114"/>
+      <c r="E26" s="116"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -54489,12 +54489,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="131"/>
+      <c r="B27" s="112"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="133"/>
-      <c r="E27" s="127"/>
+      <c r="D27" s="114"/>
+      <c r="E27" s="116"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -54559,12 +54559,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="131"/>
+      <c r="B28" s="112"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="133"/>
-      <c r="E28" s="127"/>
+      <c r="D28" s="114"/>
+      <c r="E28" s="116"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -54629,12 +54629,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="132"/>
+      <c r="B29" s="113"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="133"/>
-      <c r="E29" s="134"/>
+      <c r="D29" s="114"/>
+      <c r="E29" s="117"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -54771,10 +54771,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="135"/>
-      <c r="C31" s="126"/>
-      <c r="D31" s="138"/>
-      <c r="E31" s="135"/>
+      <c r="B31" s="118"/>
+      <c r="C31" s="115"/>
+      <c r="D31" s="121"/>
+      <c r="E31" s="118"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -54839,10 +54839,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="136"/>
-      <c r="C32" s="127"/>
-      <c r="D32" s="138"/>
-      <c r="E32" s="136"/>
+      <c r="B32" s="119"/>
+      <c r="C32" s="116"/>
+      <c r="D32" s="121"/>
+      <c r="E32" s="119"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -54907,10 +54907,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="136"/>
-      <c r="C33" s="127"/>
-      <c r="D33" s="138"/>
-      <c r="E33" s="136"/>
+      <c r="B33" s="119"/>
+      <c r="C33" s="116"/>
+      <c r="D33" s="121"/>
+      <c r="E33" s="119"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -54975,10 +54975,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="136"/>
-      <c r="C34" s="127"/>
-      <c r="D34" s="138"/>
-      <c r="E34" s="136"/>
+      <c r="B34" s="119"/>
+      <c r="C34" s="116"/>
+      <c r="D34" s="121"/>
+      <c r="E34" s="119"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -55043,10 +55043,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="136"/>
-      <c r="C35" s="127"/>
-      <c r="D35" s="138"/>
-      <c r="E35" s="136"/>
+      <c r="B35" s="119"/>
+      <c r="C35" s="116"/>
+      <c r="D35" s="121"/>
+      <c r="E35" s="119"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -55111,10 +55111,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="136"/>
-      <c r="C36" s="127"/>
-      <c r="D36" s="138"/>
-      <c r="E36" s="136"/>
+      <c r="B36" s="119"/>
+      <c r="C36" s="116"/>
+      <c r="D36" s="121"/>
+      <c r="E36" s="119"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -55179,10 +55179,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="136"/>
-      <c r="C37" s="127"/>
-      <c r="D37" s="138"/>
-      <c r="E37" s="136"/>
+      <c r="B37" s="119"/>
+      <c r="C37" s="116"/>
+      <c r="D37" s="121"/>
+      <c r="E37" s="119"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -55247,10 +55247,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="136"/>
-      <c r="C38" s="127"/>
-      <c r="D38" s="138"/>
-      <c r="E38" s="136"/>
+      <c r="B38" s="119"/>
+      <c r="C38" s="116"/>
+      <c r="D38" s="121"/>
+      <c r="E38" s="119"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -55315,10 +55315,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="136"/>
-      <c r="C39" s="127"/>
-      <c r="D39" s="138"/>
-      <c r="E39" s="136"/>
+      <c r="B39" s="119"/>
+      <c r="C39" s="116"/>
+      <c r="D39" s="121"/>
+      <c r="E39" s="119"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -55383,10 +55383,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="136"/>
-      <c r="C40" s="127"/>
-      <c r="D40" s="138"/>
-      <c r="E40" s="136"/>
+      <c r="B40" s="119"/>
+      <c r="C40" s="116"/>
+      <c r="D40" s="121"/>
+      <c r="E40" s="119"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -55451,10 +55451,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="136"/>
-      <c r="C41" s="127"/>
-      <c r="D41" s="138"/>
-      <c r="E41" s="136"/>
+      <c r="B41" s="119"/>
+      <c r="C41" s="116"/>
+      <c r="D41" s="121"/>
+      <c r="E41" s="119"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -55519,10 +55519,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="136"/>
-      <c r="C42" s="127"/>
-      <c r="D42" s="138"/>
-      <c r="E42" s="136"/>
+      <c r="B42" s="119"/>
+      <c r="C42" s="116"/>
+      <c r="D42" s="121"/>
+      <c r="E42" s="119"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -55587,10 +55587,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="136"/>
-      <c r="C43" s="127"/>
-      <c r="D43" s="138"/>
-      <c r="E43" s="136"/>
+      <c r="B43" s="119"/>
+      <c r="C43" s="116"/>
+      <c r="D43" s="121"/>
+      <c r="E43" s="119"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -55655,10 +55655,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="136"/>
-      <c r="C44" s="127"/>
-      <c r="D44" s="138"/>
-      <c r="E44" s="136"/>
+      <c r="B44" s="119"/>
+      <c r="C44" s="116"/>
+      <c r="D44" s="121"/>
+      <c r="E44" s="119"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -55723,10 +55723,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="136"/>
-      <c r="C45" s="127"/>
-      <c r="D45" s="138"/>
-      <c r="E45" s="136"/>
+      <c r="B45" s="119"/>
+      <c r="C45" s="116"/>
+      <c r="D45" s="121"/>
+      <c r="E45" s="119"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -55791,10 +55791,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="136"/>
-      <c r="C46" s="127"/>
-      <c r="D46" s="138"/>
-      <c r="E46" s="136"/>
+      <c r="B46" s="119"/>
+      <c r="C46" s="116"/>
+      <c r="D46" s="121"/>
+      <c r="E46" s="119"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -55859,10 +55859,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="136"/>
-      <c r="C47" s="127"/>
-      <c r="D47" s="138"/>
-      <c r="E47" s="136"/>
+      <c r="B47" s="119"/>
+      <c r="C47" s="116"/>
+      <c r="D47" s="121"/>
+      <c r="E47" s="119"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -55927,10 +55927,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="136"/>
-      <c r="C48" s="127"/>
-      <c r="D48" s="138"/>
-      <c r="E48" s="136"/>
+      <c r="B48" s="119"/>
+      <c r="C48" s="116"/>
+      <c r="D48" s="121"/>
+      <c r="E48" s="119"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -55995,10 +55995,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="136"/>
-      <c r="C49" s="127"/>
-      <c r="D49" s="138"/>
-      <c r="E49" s="136"/>
+      <c r="B49" s="119"/>
+      <c r="C49" s="116"/>
+      <c r="D49" s="121"/>
+      <c r="E49" s="119"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -56063,10 +56063,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="136"/>
-      <c r="C50" s="127"/>
-      <c r="D50" s="138"/>
-      <c r="E50" s="136"/>
+      <c r="B50" s="119"/>
+      <c r="C50" s="116"/>
+      <c r="D50" s="121"/>
+      <c r="E50" s="119"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -56131,10 +56131,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="136"/>
-      <c r="C51" s="127"/>
-      <c r="D51" s="138"/>
-      <c r="E51" s="136"/>
+      <c r="B51" s="119"/>
+      <c r="C51" s="116"/>
+      <c r="D51" s="121"/>
+      <c r="E51" s="119"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -56199,10 +56199,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="136"/>
-      <c r="C52" s="127"/>
-      <c r="D52" s="138"/>
-      <c r="E52" s="136"/>
+      <c r="B52" s="119"/>
+      <c r="C52" s="116"/>
+      <c r="D52" s="121"/>
+      <c r="E52" s="119"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -56267,10 +56267,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="136"/>
-      <c r="C53" s="127"/>
-      <c r="D53" s="138"/>
-      <c r="E53" s="136"/>
+      <c r="B53" s="119"/>
+      <c r="C53" s="116"/>
+      <c r="D53" s="121"/>
+      <c r="E53" s="119"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -56335,10 +56335,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="136"/>
-      <c r="C54" s="127"/>
-      <c r="D54" s="138"/>
-      <c r="E54" s="136"/>
+      <c r="B54" s="119"/>
+      <c r="C54" s="116"/>
+      <c r="D54" s="121"/>
+      <c r="E54" s="119"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -56403,10 +56403,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="136"/>
-      <c r="C55" s="127"/>
-      <c r="D55" s="138"/>
-      <c r="E55" s="136"/>
+      <c r="B55" s="119"/>
+      <c r="C55" s="116"/>
+      <c r="D55" s="121"/>
+      <c r="E55" s="119"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -56471,10 +56471,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="136"/>
-      <c r="C56" s="127"/>
-      <c r="D56" s="138"/>
-      <c r="E56" s="136"/>
+      <c r="B56" s="119"/>
+      <c r="C56" s="116"/>
+      <c r="D56" s="121"/>
+      <c r="E56" s="119"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -56539,10 +56539,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="136"/>
-      <c r="C57" s="127"/>
-      <c r="D57" s="138"/>
-      <c r="E57" s="136"/>
+      <c r="B57" s="119"/>
+      <c r="C57" s="116"/>
+      <c r="D57" s="121"/>
+      <c r="E57" s="119"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -56602,10 +56602,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="137"/>
-      <c r="C58" s="134"/>
-      <c r="D58" s="138"/>
-      <c r="E58" s="137"/>
+      <c r="B58" s="120"/>
+      <c r="C58" s="117"/>
+      <c r="D58" s="121"/>
+      <c r="E58" s="120"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -56670,7 +56670,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="128" t="s">
+      <c r="B59" s="109" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -56742,7 +56742,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="128"/>
+      <c r="B60" s="109"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -56812,7 +56812,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="129" t="s">
+      <c r="B61" s="110" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -56884,7 +56884,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="129"/>
+      <c r="B62" s="110"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -56952,7 +56952,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="129"/>
+      <c r="B63" s="110"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -57161,27 +57161,16 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="E31:E58"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:BM5"/>
+    <mergeCell ref="AT6:AX6"/>
+    <mergeCell ref="AY6:BC6"/>
+    <mergeCell ref="BD6:BH6"/>
+    <mergeCell ref="BI6:BM6"/>
     <mergeCell ref="BN5:BN6"/>
     <mergeCell ref="BO5:BO6"/>
     <mergeCell ref="F6:J6"/>
@@ -57192,16 +57181,27 @@
     <mergeCell ref="AE6:AI6"/>
     <mergeCell ref="AJ6:AN6"/>
     <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:BM5"/>
-    <mergeCell ref="AT6:AX6"/>
-    <mergeCell ref="AY6:BC6"/>
-    <mergeCell ref="BD6:BH6"/>
-    <mergeCell ref="BI6:BM6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="E31:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -57233,13 +57233,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="134" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
     </row>
     <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
@@ -57405,84 +57405,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="111" t="s">
+      <c r="C5" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="112" t="s">
+      <c r="D5" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="110" t="s">
+      <c r="E5" s="132" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="113" t="s">
+      <c r="F5" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="113"/>
-      <c r="K5" s="113"/>
-      <c r="L5" s="113"/>
-      <c r="M5" s="113"/>
-      <c r="N5" s="113"/>
-      <c r="O5" s="113"/>
-      <c r="P5" s="113"/>
-      <c r="Q5" s="113"/>
-      <c r="R5" s="113"/>
-      <c r="S5" s="113"/>
-      <c r="T5" s="113"/>
-      <c r="U5" s="113"/>
-      <c r="V5" s="113"/>
-      <c r="W5" s="113"/>
-      <c r="X5" s="113"/>
-      <c r="Y5" s="113"/>
-      <c r="Z5" s="113"/>
-      <c r="AA5" s="113"/>
-      <c r="AB5" s="113"/>
-      <c r="AC5" s="113"/>
-      <c r="AD5" s="113"/>
-      <c r="AE5" s="113"/>
-      <c r="AF5" s="113"/>
-      <c r="AG5" s="113"/>
-      <c r="AH5" s="113"/>
-      <c r="AI5" s="113"/>
-      <c r="AJ5" s="113"/>
-      <c r="AK5" s="113"/>
-      <c r="AL5" s="113"/>
-      <c r="AM5" s="113"/>
-      <c r="AN5" s="113"/>
-      <c r="AO5" s="113"/>
-      <c r="AP5" s="113"/>
-      <c r="AQ5" s="113"/>
-      <c r="AR5" s="113"/>
-      <c r="AS5" s="113"/>
-      <c r="AT5" s="113"/>
-      <c r="AU5" s="113"/>
-      <c r="AV5" s="113"/>
-      <c r="AW5" s="113"/>
-      <c r="AX5" s="113"/>
-      <c r="AY5" s="113"/>
-      <c r="AZ5" s="113"/>
-      <c r="BA5" s="113"/>
-      <c r="BB5" s="113"/>
-      <c r="BC5" s="113"/>
-      <c r="BD5" s="113"/>
-      <c r="BE5" s="113"/>
-      <c r="BF5" s="113"/>
-      <c r="BG5" s="113"/>
-      <c r="BH5" s="113"/>
-      <c r="BI5" s="113"/>
-      <c r="BJ5" s="113"/>
-      <c r="BK5" s="113"/>
-      <c r="BL5" s="113"/>
-      <c r="BM5" s="113"/>
-      <c r="BN5" s="116" t="s">
+      <c r="G5" s="137"/>
+      <c r="H5" s="137"/>
+      <c r="I5" s="137"/>
+      <c r="J5" s="137"/>
+      <c r="K5" s="137"/>
+      <c r="L5" s="137"/>
+      <c r="M5" s="137"/>
+      <c r="N5" s="137"/>
+      <c r="O5" s="137"/>
+      <c r="P5" s="137"/>
+      <c r="Q5" s="137"/>
+      <c r="R5" s="137"/>
+      <c r="S5" s="137"/>
+      <c r="T5" s="137"/>
+      <c r="U5" s="137"/>
+      <c r="V5" s="137"/>
+      <c r="W5" s="137"/>
+      <c r="X5" s="137"/>
+      <c r="Y5" s="137"/>
+      <c r="Z5" s="137"/>
+      <c r="AA5" s="137"/>
+      <c r="AB5" s="137"/>
+      <c r="AC5" s="137"/>
+      <c r="AD5" s="137"/>
+      <c r="AE5" s="137"/>
+      <c r="AF5" s="137"/>
+      <c r="AG5" s="137"/>
+      <c r="AH5" s="137"/>
+      <c r="AI5" s="137"/>
+      <c r="AJ5" s="137"/>
+      <c r="AK5" s="137"/>
+      <c r="AL5" s="137"/>
+      <c r="AM5" s="137"/>
+      <c r="AN5" s="137"/>
+      <c r="AO5" s="137"/>
+      <c r="AP5" s="137"/>
+      <c r="AQ5" s="137"/>
+      <c r="AR5" s="137"/>
+      <c r="AS5" s="137"/>
+      <c r="AT5" s="137"/>
+      <c r="AU5" s="137"/>
+      <c r="AV5" s="137"/>
+      <c r="AW5" s="137"/>
+      <c r="AX5" s="137"/>
+      <c r="AY5" s="137"/>
+      <c r="AZ5" s="137"/>
+      <c r="BA5" s="137"/>
+      <c r="BB5" s="137"/>
+      <c r="BC5" s="137"/>
+      <c r="BD5" s="137"/>
+      <c r="BE5" s="137"/>
+      <c r="BF5" s="137"/>
+      <c r="BG5" s="137"/>
+      <c r="BH5" s="137"/>
+      <c r="BI5" s="137"/>
+      <c r="BJ5" s="137"/>
+      <c r="BK5" s="137"/>
+      <c r="BL5" s="137"/>
+      <c r="BM5" s="137"/>
+      <c r="BN5" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="110" t="s">
+      <c r="BO5" s="132" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -57491,107 +57491,107 @@
       <c r="BU5" s="94"/>
     </row>
     <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="110"/>
-      <c r="C6" s="111"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="114" t="s">
+      <c r="B6" s="132"/>
+      <c r="C6" s="135"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="133" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="114" t="s">
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="133"/>
+      <c r="K6" s="133" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="114"/>
-      <c r="M6" s="114"/>
-      <c r="N6" s="114"/>
-      <c r="O6" s="114"/>
-      <c r="P6" s="114" t="s">
+      <c r="L6" s="133"/>
+      <c r="M6" s="133"/>
+      <c r="N6" s="133"/>
+      <c r="O6" s="133"/>
+      <c r="P6" s="133" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="114"/>
-      <c r="R6" s="114"/>
-      <c r="S6" s="114"/>
-      <c r="T6" s="114"/>
-      <c r="U6" s="114" t="s">
+      <c r="Q6" s="133"/>
+      <c r="R6" s="133"/>
+      <c r="S6" s="133"/>
+      <c r="T6" s="133"/>
+      <c r="U6" s="133" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="114"/>
-      <c r="W6" s="114"/>
-      <c r="X6" s="114"/>
-      <c r="Y6" s="114"/>
-      <c r="Z6" s="114" t="s">
+      <c r="V6" s="133"/>
+      <c r="W6" s="133"/>
+      <c r="X6" s="133"/>
+      <c r="Y6" s="133"/>
+      <c r="Z6" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="114"/>
-      <c r="AB6" s="114"/>
-      <c r="AC6" s="114"/>
-      <c r="AD6" s="114"/>
-      <c r="AE6" s="114" t="s">
+      <c r="AA6" s="133"/>
+      <c r="AB6" s="133"/>
+      <c r="AC6" s="133"/>
+      <c r="AD6" s="133"/>
+      <c r="AE6" s="133" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="114"/>
-      <c r="AG6" s="114"/>
-      <c r="AH6" s="114"/>
-      <c r="AI6" s="114"/>
-      <c r="AJ6" s="114" t="s">
+      <c r="AF6" s="133"/>
+      <c r="AG6" s="133"/>
+      <c r="AH6" s="133"/>
+      <c r="AI6" s="133"/>
+      <c r="AJ6" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="114"/>
-      <c r="AL6" s="114"/>
-      <c r="AM6" s="114"/>
-      <c r="AN6" s="114"/>
-      <c r="AO6" s="114" t="s">
+      <c r="AK6" s="133"/>
+      <c r="AL6" s="133"/>
+      <c r="AM6" s="133"/>
+      <c r="AN6" s="133"/>
+      <c r="AO6" s="133" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="114"/>
-      <c r="AQ6" s="114"/>
-      <c r="AR6" s="114"/>
-      <c r="AS6" s="114"/>
-      <c r="AT6" s="114" t="s">
+      <c r="AP6" s="133"/>
+      <c r="AQ6" s="133"/>
+      <c r="AR6" s="133"/>
+      <c r="AS6" s="133"/>
+      <c r="AT6" s="133" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="114"/>
-      <c r="AV6" s="114"/>
-      <c r="AW6" s="114"/>
-      <c r="AX6" s="114"/>
-      <c r="AY6" s="114" t="s">
+      <c r="AU6" s="133"/>
+      <c r="AV6" s="133"/>
+      <c r="AW6" s="133"/>
+      <c r="AX6" s="133"/>
+      <c r="AY6" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="114"/>
-      <c r="BA6" s="114"/>
-      <c r="BB6" s="114"/>
-      <c r="BC6" s="114"/>
-      <c r="BD6" s="114" t="s">
+      <c r="AZ6" s="133"/>
+      <c r="BA6" s="133"/>
+      <c r="BB6" s="133"/>
+      <c r="BC6" s="133"/>
+      <c r="BD6" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="114"/>
-      <c r="BF6" s="114"/>
-      <c r="BG6" s="114"/>
-      <c r="BH6" s="114"/>
-      <c r="BI6" s="115" t="s">
+      <c r="BE6" s="133"/>
+      <c r="BF6" s="133"/>
+      <c r="BG6" s="133"/>
+      <c r="BH6" s="133"/>
+      <c r="BI6" s="138" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="115"/>
-      <c r="BK6" s="115"/>
-      <c r="BL6" s="115"/>
-      <c r="BM6" s="115"/>
-      <c r="BN6" s="116"/>
-      <c r="BO6" s="110"/>
+      <c r="BJ6" s="138"/>
+      <c r="BK6" s="138"/>
+      <c r="BL6" s="138"/>
+      <c r="BM6" s="138"/>
+      <c r="BN6" s="131"/>
+      <c r="BO6" s="132"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="117" t="s">
+      <c r="B7" s="126" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="117"/>
-      <c r="E7" s="118"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="127"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -58616,12 +58616,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="117"/>
+      <c r="B8" s="126"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="117"/>
-      <c r="E8" s="119"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="124"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -59645,14 +59645,14 @@
       <c r="AML8" s="23"/>
     </row>
     <row r="9" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="120" t="s">
+      <c r="B9" s="122" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="121"/>
-      <c r="E9" s="122"/>
+      <c r="D9" s="123"/>
+      <c r="E9" s="128"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
       <c r="H9" s="106"/>
@@ -60676,12 +60676,12 @@
       <c r="AML9" s="21"/>
     </row>
     <row r="10" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B10" s="120"/>
+      <c r="B10" s="122"/>
       <c r="C10" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="121"/>
-      <c r="E10" s="123"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="129"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -61705,12 +61705,12 @@
       <c r="AML10" s="21"/>
     </row>
     <row r="11" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="120"/>
+      <c r="B11" s="122"/>
       <c r="C11" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="121"/>
-      <c r="E11" s="123"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="129"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -62734,12 +62734,12 @@
       <c r="AML11" s="21"/>
     </row>
     <row r="12" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="120"/>
+      <c r="B12" s="122"/>
       <c r="C12" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="121"/>
-      <c r="E12" s="124"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="130"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -62804,14 +62804,14 @@
       <c r="BO12" s="31"/>
     </row>
     <row r="13" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B13" s="120" t="s">
+      <c r="B13" s="122" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="121"/>
-      <c r="E13" s="119"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="124"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -62876,12 +62876,12 @@
       <c r="BO13" s="20"/>
     </row>
     <row r="14" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B14" s="120"/>
+      <c r="B14" s="122"/>
       <c r="C14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="121"/>
-      <c r="E14" s="119"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="124"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -62946,12 +62946,12 @@
       <c r="BO14" s="31"/>
     </row>
     <row r="15" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="120"/>
+      <c r="B15" s="122"/>
       <c r="C15" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="121"/>
-      <c r="E15" s="119"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="124"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -63016,12 +63016,12 @@
       <c r="BO15" s="31"/>
     </row>
     <row r="16" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B16" s="120"/>
+      <c r="B16" s="122"/>
       <c r="C16" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="121"/>
-      <c r="E16" s="119"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="124"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -63086,12 +63086,12 @@
       <c r="BO16" s="31"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B17" s="120"/>
+      <c r="B17" s="122"/>
       <c r="C17" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="121"/>
-      <c r="E17" s="119"/>
+      <c r="D17" s="123"/>
+      <c r="E17" s="124"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -63156,12 +63156,12 @@
       <c r="BO17" s="31"/>
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B18" s="120"/>
+      <c r="B18" s="122"/>
       <c r="C18" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="121"/>
-      <c r="E18" s="119"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="124"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -63226,12 +63226,12 @@
       <c r="BO18" s="31"/>
     </row>
     <row r="19" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B19" s="120"/>
+      <c r="B19" s="122"/>
       <c r="C19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="121"/>
-      <c r="E19" s="119"/>
+      <c r="D19" s="123"/>
+      <c r="E19" s="124"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -63302,8 +63302,8 @@
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="117"/>
-      <c r="E20" s="126"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="115"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -63372,8 +63372,8 @@
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="117"/>
-      <c r="E21" s="127"/>
+      <c r="D21" s="126"/>
+      <c r="E21" s="116"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -63442,8 +63442,8 @@
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="117"/>
-      <c r="E22" s="127"/>
+      <c r="D22" s="126"/>
+      <c r="E22" s="116"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -63512,8 +63512,8 @@
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="117"/>
-      <c r="E23" s="127"/>
+      <c r="D23" s="126"/>
+      <c r="E23" s="116"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -63582,8 +63582,8 @@
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="117"/>
-      <c r="E24" s="127"/>
+      <c r="D24" s="126"/>
+      <c r="E24" s="116"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -63648,14 +63648,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="130" t="s">
+      <c r="B25" s="111" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="133"/>
-      <c r="E25" s="126"/>
+      <c r="D25" s="114"/>
+      <c r="E25" s="115"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -63720,12 +63720,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="131"/>
+      <c r="B26" s="112"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="133"/>
-      <c r="E26" s="127"/>
+      <c r="D26" s="114"/>
+      <c r="E26" s="116"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -63790,12 +63790,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="131"/>
+      <c r="B27" s="112"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="133"/>
-      <c r="E27" s="127"/>
+      <c r="D27" s="114"/>
+      <c r="E27" s="116"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -63860,12 +63860,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="131"/>
+      <c r="B28" s="112"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="133"/>
-      <c r="E28" s="127"/>
+      <c r="D28" s="114"/>
+      <c r="E28" s="116"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -63930,12 +63930,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="132"/>
+      <c r="B29" s="113"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="133"/>
-      <c r="E29" s="134"/>
+      <c r="D29" s="114"/>
+      <c r="E29" s="117"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -64072,10 +64072,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="135"/>
-      <c r="C31" s="126"/>
-      <c r="D31" s="138"/>
-      <c r="E31" s="135"/>
+      <c r="B31" s="118"/>
+      <c r="C31" s="115"/>
+      <c r="D31" s="121"/>
+      <c r="E31" s="118"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -64140,10 +64140,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="136"/>
-      <c r="C32" s="127"/>
-      <c r="D32" s="138"/>
-      <c r="E32" s="136"/>
+      <c r="B32" s="119"/>
+      <c r="C32" s="116"/>
+      <c r="D32" s="121"/>
+      <c r="E32" s="119"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -64208,10 +64208,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="136"/>
-      <c r="C33" s="127"/>
-      <c r="D33" s="138"/>
-      <c r="E33" s="136"/>
+      <c r="B33" s="119"/>
+      <c r="C33" s="116"/>
+      <c r="D33" s="121"/>
+      <c r="E33" s="119"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -64276,10 +64276,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="136"/>
-      <c r="C34" s="127"/>
-      <c r="D34" s="138"/>
-      <c r="E34" s="136"/>
+      <c r="B34" s="119"/>
+      <c r="C34" s="116"/>
+      <c r="D34" s="121"/>
+      <c r="E34" s="119"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -64344,10 +64344,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="136"/>
-      <c r="C35" s="127"/>
-      <c r="D35" s="138"/>
-      <c r="E35" s="136"/>
+      <c r="B35" s="119"/>
+      <c r="C35" s="116"/>
+      <c r="D35" s="121"/>
+      <c r="E35" s="119"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -64412,10 +64412,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="136"/>
-      <c r="C36" s="127"/>
-      <c r="D36" s="138"/>
-      <c r="E36" s="136"/>
+      <c r="B36" s="119"/>
+      <c r="C36" s="116"/>
+      <c r="D36" s="121"/>
+      <c r="E36" s="119"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -64480,10 +64480,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="136"/>
-      <c r="C37" s="127"/>
-      <c r="D37" s="138"/>
-      <c r="E37" s="136"/>
+      <c r="B37" s="119"/>
+      <c r="C37" s="116"/>
+      <c r="D37" s="121"/>
+      <c r="E37" s="119"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -64548,10 +64548,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="136"/>
-      <c r="C38" s="127"/>
-      <c r="D38" s="138"/>
-      <c r="E38" s="136"/>
+      <c r="B38" s="119"/>
+      <c r="C38" s="116"/>
+      <c r="D38" s="121"/>
+      <c r="E38" s="119"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -64616,10 +64616,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="136"/>
-      <c r="C39" s="127"/>
-      <c r="D39" s="138"/>
-      <c r="E39" s="136"/>
+      <c r="B39" s="119"/>
+      <c r="C39" s="116"/>
+      <c r="D39" s="121"/>
+      <c r="E39" s="119"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -64684,10 +64684,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="136"/>
-      <c r="C40" s="127"/>
-      <c r="D40" s="138"/>
-      <c r="E40" s="136"/>
+      <c r="B40" s="119"/>
+      <c r="C40" s="116"/>
+      <c r="D40" s="121"/>
+      <c r="E40" s="119"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -64752,10 +64752,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="136"/>
-      <c r="C41" s="127"/>
-      <c r="D41" s="138"/>
-      <c r="E41" s="136"/>
+      <c r="B41" s="119"/>
+      <c r="C41" s="116"/>
+      <c r="D41" s="121"/>
+      <c r="E41" s="119"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -64820,10 +64820,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="136"/>
-      <c r="C42" s="127"/>
-      <c r="D42" s="138"/>
-      <c r="E42" s="136"/>
+      <c r="B42" s="119"/>
+      <c r="C42" s="116"/>
+      <c r="D42" s="121"/>
+      <c r="E42" s="119"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -64888,10 +64888,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="136"/>
-      <c r="C43" s="127"/>
-      <c r="D43" s="138"/>
-      <c r="E43" s="136"/>
+      <c r="B43" s="119"/>
+      <c r="C43" s="116"/>
+      <c r="D43" s="121"/>
+      <c r="E43" s="119"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -64956,10 +64956,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="136"/>
-      <c r="C44" s="127"/>
-      <c r="D44" s="138"/>
-      <c r="E44" s="136"/>
+      <c r="B44" s="119"/>
+      <c r="C44" s="116"/>
+      <c r="D44" s="121"/>
+      <c r="E44" s="119"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -65024,10 +65024,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="136"/>
-      <c r="C45" s="127"/>
-      <c r="D45" s="138"/>
-      <c r="E45" s="136"/>
+      <c r="B45" s="119"/>
+      <c r="C45" s="116"/>
+      <c r="D45" s="121"/>
+      <c r="E45" s="119"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -65092,10 +65092,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="136"/>
-      <c r="C46" s="127"/>
-      <c r="D46" s="138"/>
-      <c r="E46" s="136"/>
+      <c r="B46" s="119"/>
+      <c r="C46" s="116"/>
+      <c r="D46" s="121"/>
+      <c r="E46" s="119"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -65160,10 +65160,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="136"/>
-      <c r="C47" s="127"/>
-      <c r="D47" s="138"/>
-      <c r="E47" s="136"/>
+      <c r="B47" s="119"/>
+      <c r="C47" s="116"/>
+      <c r="D47" s="121"/>
+      <c r="E47" s="119"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -65228,10 +65228,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="136"/>
-      <c r="C48" s="127"/>
-      <c r="D48" s="138"/>
-      <c r="E48" s="136"/>
+      <c r="B48" s="119"/>
+      <c r="C48" s="116"/>
+      <c r="D48" s="121"/>
+      <c r="E48" s="119"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -65296,10 +65296,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="136"/>
-      <c r="C49" s="127"/>
-      <c r="D49" s="138"/>
-      <c r="E49" s="136"/>
+      <c r="B49" s="119"/>
+      <c r="C49" s="116"/>
+      <c r="D49" s="121"/>
+      <c r="E49" s="119"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -65364,10 +65364,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="136"/>
-      <c r="C50" s="127"/>
-      <c r="D50" s="138"/>
-      <c r="E50" s="136"/>
+      <c r="B50" s="119"/>
+      <c r="C50" s="116"/>
+      <c r="D50" s="121"/>
+      <c r="E50" s="119"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -65432,10 +65432,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="136"/>
-      <c r="C51" s="127"/>
-      <c r="D51" s="138"/>
-      <c r="E51" s="136"/>
+      <c r="B51" s="119"/>
+      <c r="C51" s="116"/>
+      <c r="D51" s="121"/>
+      <c r="E51" s="119"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -65500,10 +65500,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="136"/>
-      <c r="C52" s="127"/>
-      <c r="D52" s="138"/>
-      <c r="E52" s="136"/>
+      <c r="B52" s="119"/>
+      <c r="C52" s="116"/>
+      <c r="D52" s="121"/>
+      <c r="E52" s="119"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -65568,10 +65568,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="136"/>
-      <c r="C53" s="127"/>
-      <c r="D53" s="138"/>
-      <c r="E53" s="136"/>
+      <c r="B53" s="119"/>
+      <c r="C53" s="116"/>
+      <c r="D53" s="121"/>
+      <c r="E53" s="119"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -65636,10 +65636,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="136"/>
-      <c r="C54" s="127"/>
-      <c r="D54" s="138"/>
-      <c r="E54" s="136"/>
+      <c r="B54" s="119"/>
+      <c r="C54" s="116"/>
+      <c r="D54" s="121"/>
+      <c r="E54" s="119"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -65704,10 +65704,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="136"/>
-      <c r="C55" s="127"/>
-      <c r="D55" s="138"/>
-      <c r="E55" s="136"/>
+      <c r="B55" s="119"/>
+      <c r="C55" s="116"/>
+      <c r="D55" s="121"/>
+      <c r="E55" s="119"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -65772,10 +65772,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="136"/>
-      <c r="C56" s="127"/>
-      <c r="D56" s="138"/>
-      <c r="E56" s="136"/>
+      <c r="B56" s="119"/>
+      <c r="C56" s="116"/>
+      <c r="D56" s="121"/>
+      <c r="E56" s="119"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -65840,10 +65840,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="136"/>
-      <c r="C57" s="127"/>
-      <c r="D57" s="138"/>
-      <c r="E57" s="136"/>
+      <c r="B57" s="119"/>
+      <c r="C57" s="116"/>
+      <c r="D57" s="121"/>
+      <c r="E57" s="119"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -65903,10 +65903,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="137"/>
-      <c r="C58" s="134"/>
-      <c r="D58" s="138"/>
-      <c r="E58" s="137"/>
+      <c r="B58" s="120"/>
+      <c r="C58" s="117"/>
+      <c r="D58" s="121"/>
+      <c r="E58" s="120"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -65971,7 +65971,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="128" t="s">
+      <c r="B59" s="109" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -66043,7 +66043,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="128"/>
+      <c r="B60" s="109"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -66113,7 +66113,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="129" t="s">
+      <c r="B61" s="110" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -66185,7 +66185,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="129"/>
+      <c r="B62" s="110"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -66253,7 +66253,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="129"/>
+      <c r="B63" s="110"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -66462,21 +66462,22 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="E31:E58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:BM5"/>
+    <mergeCell ref="AT6:AX6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="U6:Y6"/>
+    <mergeCell ref="Z6:AD6"/>
+    <mergeCell ref="AE6:AI6"/>
+    <mergeCell ref="AJ6:AN6"/>
+    <mergeCell ref="AO6:AS6"/>
     <mergeCell ref="B9:B12"/>
     <mergeCell ref="D9:D12"/>
     <mergeCell ref="D7:D8"/>
@@ -66487,22 +66488,21 @@
     <mergeCell ref="BI6:BM6"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="E7:E8"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="U6:Y6"/>
-    <mergeCell ref="Z6:AD6"/>
-    <mergeCell ref="AE6:AI6"/>
-    <mergeCell ref="AJ6:AN6"/>
-    <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:BM5"/>
-    <mergeCell ref="AT6:AX6"/>
-    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="E31:E58"/>
+    <mergeCell ref="D31:D58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/QC_QNU_Training_Progress.xlsx
+++ b/QC_QNU_Training_Progress.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Internship\GIT_Training\QC_Training_2019_01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TMA-Training\QC_Training\QC_Training_2019_01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="690" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="690" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Truong Thi Thu Huong" sheetId="4" r:id="rId1"/>
@@ -236,7 +236,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mmmm\ d&quot;, &quot;yyyy;@"/>
   </numFmts>
@@ -244,7 +244,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -252,7 +252,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1028,6 +1028,63 @@
     <xf numFmtId="0" fontId="6" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1046,12 +1103,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1066,57 +1117,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1408,31 +1408,31 @@
       <selection activeCell="AB14" sqref="AB14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="1" max="1" width="9.125" style="4"/>
     <col min="2" max="2" width="28" style="3" customWidth="1"/>
-    <col min="3" max="3" width="65.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="65.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="2" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" style="2" customWidth="1"/>
-    <col min="6" max="65" width="2.28515625" style="3" customWidth="1"/>
-    <col min="66" max="69" width="9.140625" style="3"/>
+    <col min="5" max="5" width="29.125" style="2" customWidth="1"/>
+    <col min="6" max="65" width="2.25" style="3" customWidth="1"/>
+    <col min="66" max="69" width="9.125" style="3"/>
     <col min="70" max="70" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="14.85546875" style="3" customWidth="1"/>
+    <col min="71" max="71" width="14.875" style="3" customWidth="1"/>
     <col min="72" max="72" width="13" style="3" customWidth="1"/>
-    <col min="73" max="73" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="74" max="1026" width="9.140625" style="3"/>
-    <col min="1027" max="16384" width="9.140625" style="4"/>
+    <col min="73" max="73" width="13.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="74" max="1026" width="9.125" style="3"/>
+    <col min="1027" max="16384" width="9.125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="134" t="s">
+      <c r="B1" s="109" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
     </row>
     <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
@@ -1598,84 +1598,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="132" t="s">
+      <c r="B5" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="135" t="s">
+      <c r="C5" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="136" t="s">
+      <c r="D5" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="132" t="s">
+      <c r="E5" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="137" t="s">
+      <c r="F5" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="137"/>
-      <c r="H5" s="137"/>
-      <c r="I5" s="137"/>
-      <c r="J5" s="137"/>
-      <c r="K5" s="137"/>
-      <c r="L5" s="137"/>
-      <c r="M5" s="137"/>
-      <c r="N5" s="137"/>
-      <c r="O5" s="137"/>
-      <c r="P5" s="137"/>
-      <c r="Q5" s="137"/>
-      <c r="R5" s="137"/>
-      <c r="S5" s="137"/>
-      <c r="T5" s="137"/>
-      <c r="U5" s="137"/>
-      <c r="V5" s="137"/>
-      <c r="W5" s="137"/>
-      <c r="X5" s="137"/>
-      <c r="Y5" s="137"/>
-      <c r="Z5" s="137"/>
-      <c r="AA5" s="137"/>
-      <c r="AB5" s="137"/>
-      <c r="AC5" s="137"/>
-      <c r="AD5" s="137"/>
-      <c r="AE5" s="137"/>
-      <c r="AF5" s="137"/>
-      <c r="AG5" s="137"/>
-      <c r="AH5" s="137"/>
-      <c r="AI5" s="137"/>
-      <c r="AJ5" s="137"/>
-      <c r="AK5" s="137"/>
-      <c r="AL5" s="137"/>
-      <c r="AM5" s="137"/>
-      <c r="AN5" s="137"/>
-      <c r="AO5" s="137"/>
-      <c r="AP5" s="137"/>
-      <c r="AQ5" s="137"/>
-      <c r="AR5" s="137"/>
-      <c r="AS5" s="137"/>
-      <c r="AT5" s="137"/>
-      <c r="AU5" s="137"/>
-      <c r="AV5" s="137"/>
-      <c r="AW5" s="137"/>
-      <c r="AX5" s="137"/>
-      <c r="AY5" s="137"/>
-      <c r="AZ5" s="137"/>
-      <c r="BA5" s="137"/>
-      <c r="BB5" s="137"/>
-      <c r="BC5" s="137"/>
-      <c r="BD5" s="137"/>
-      <c r="BE5" s="137"/>
-      <c r="BF5" s="137"/>
-      <c r="BG5" s="137"/>
-      <c r="BH5" s="137"/>
-      <c r="BI5" s="137"/>
-      <c r="BJ5" s="137"/>
-      <c r="BK5" s="137"/>
-      <c r="BL5" s="137"/>
-      <c r="BM5" s="137"/>
-      <c r="BN5" s="131" t="s">
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="113"/>
+      <c r="K5" s="113"/>
+      <c r="L5" s="113"/>
+      <c r="M5" s="113"/>
+      <c r="N5" s="113"/>
+      <c r="O5" s="113"/>
+      <c r="P5" s="113"/>
+      <c r="Q5" s="113"/>
+      <c r="R5" s="113"/>
+      <c r="S5" s="113"/>
+      <c r="T5" s="113"/>
+      <c r="U5" s="113"/>
+      <c r="V5" s="113"/>
+      <c r="W5" s="113"/>
+      <c r="X5" s="113"/>
+      <c r="Y5" s="113"/>
+      <c r="Z5" s="113"/>
+      <c r="AA5" s="113"/>
+      <c r="AB5" s="113"/>
+      <c r="AC5" s="113"/>
+      <c r="AD5" s="113"/>
+      <c r="AE5" s="113"/>
+      <c r="AF5" s="113"/>
+      <c r="AG5" s="113"/>
+      <c r="AH5" s="113"/>
+      <c r="AI5" s="113"/>
+      <c r="AJ5" s="113"/>
+      <c r="AK5" s="113"/>
+      <c r="AL5" s="113"/>
+      <c r="AM5" s="113"/>
+      <c r="AN5" s="113"/>
+      <c r="AO5" s="113"/>
+      <c r="AP5" s="113"/>
+      <c r="AQ5" s="113"/>
+      <c r="AR5" s="113"/>
+      <c r="AS5" s="113"/>
+      <c r="AT5" s="113"/>
+      <c r="AU5" s="113"/>
+      <c r="AV5" s="113"/>
+      <c r="AW5" s="113"/>
+      <c r="AX5" s="113"/>
+      <c r="AY5" s="113"/>
+      <c r="AZ5" s="113"/>
+      <c r="BA5" s="113"/>
+      <c r="BB5" s="113"/>
+      <c r="BC5" s="113"/>
+      <c r="BD5" s="113"/>
+      <c r="BE5" s="113"/>
+      <c r="BF5" s="113"/>
+      <c r="BG5" s="113"/>
+      <c r="BH5" s="113"/>
+      <c r="BI5" s="113"/>
+      <c r="BJ5" s="113"/>
+      <c r="BK5" s="113"/>
+      <c r="BL5" s="113"/>
+      <c r="BM5" s="113"/>
+      <c r="BN5" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="132" t="s">
+      <c r="BO5" s="110" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -1684,107 +1684,107 @@
       <c r="BU5" s="94"/>
     </row>
     <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="132"/>
-      <c r="C6" s="135"/>
-      <c r="D6" s="136"/>
-      <c r="E6" s="132"/>
-      <c r="F6" s="133" t="s">
+      <c r="B6" s="110"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="133"/>
-      <c r="H6" s="133"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="133"/>
-      <c r="K6" s="133" t="s">
+      <c r="G6" s="114"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="114"/>
+      <c r="K6" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="133"/>
-      <c r="M6" s="133"/>
-      <c r="N6" s="133"/>
-      <c r="O6" s="133"/>
-      <c r="P6" s="133" t="s">
+      <c r="L6" s="114"/>
+      <c r="M6" s="114"/>
+      <c r="N6" s="114"/>
+      <c r="O6" s="114"/>
+      <c r="P6" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="133"/>
-      <c r="R6" s="133"/>
-      <c r="S6" s="133"/>
-      <c r="T6" s="133"/>
-      <c r="U6" s="133" t="s">
+      <c r="Q6" s="114"/>
+      <c r="R6" s="114"/>
+      <c r="S6" s="114"/>
+      <c r="T6" s="114"/>
+      <c r="U6" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="133"/>
-      <c r="W6" s="133"/>
-      <c r="X6" s="133"/>
-      <c r="Y6" s="133"/>
-      <c r="Z6" s="133" t="s">
+      <c r="V6" s="114"/>
+      <c r="W6" s="114"/>
+      <c r="X6" s="114"/>
+      <c r="Y6" s="114"/>
+      <c r="Z6" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="133"/>
-      <c r="AB6" s="133"/>
-      <c r="AC6" s="133"/>
-      <c r="AD6" s="133"/>
-      <c r="AE6" s="133" t="s">
+      <c r="AA6" s="114"/>
+      <c r="AB6" s="114"/>
+      <c r="AC6" s="114"/>
+      <c r="AD6" s="114"/>
+      <c r="AE6" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="133"/>
-      <c r="AG6" s="133"/>
-      <c r="AH6" s="133"/>
-      <c r="AI6" s="133"/>
-      <c r="AJ6" s="133" t="s">
+      <c r="AF6" s="114"/>
+      <c r="AG6" s="114"/>
+      <c r="AH6" s="114"/>
+      <c r="AI6" s="114"/>
+      <c r="AJ6" s="114" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="133"/>
-      <c r="AL6" s="133"/>
-      <c r="AM6" s="133"/>
-      <c r="AN6" s="133"/>
-      <c r="AO6" s="133" t="s">
+      <c r="AK6" s="114"/>
+      <c r="AL6" s="114"/>
+      <c r="AM6" s="114"/>
+      <c r="AN6" s="114"/>
+      <c r="AO6" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="133"/>
-      <c r="AQ6" s="133"/>
-      <c r="AR6" s="133"/>
-      <c r="AS6" s="133"/>
-      <c r="AT6" s="133" t="s">
+      <c r="AP6" s="114"/>
+      <c r="AQ6" s="114"/>
+      <c r="AR6" s="114"/>
+      <c r="AS6" s="114"/>
+      <c r="AT6" s="114" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="133"/>
-      <c r="AV6" s="133"/>
-      <c r="AW6" s="133"/>
-      <c r="AX6" s="133"/>
-      <c r="AY6" s="133" t="s">
+      <c r="AU6" s="114"/>
+      <c r="AV6" s="114"/>
+      <c r="AW6" s="114"/>
+      <c r="AX6" s="114"/>
+      <c r="AY6" s="114" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="133"/>
-      <c r="BA6" s="133"/>
-      <c r="BB6" s="133"/>
-      <c r="BC6" s="133"/>
-      <c r="BD6" s="133" t="s">
+      <c r="AZ6" s="114"/>
+      <c r="BA6" s="114"/>
+      <c r="BB6" s="114"/>
+      <c r="BC6" s="114"/>
+      <c r="BD6" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="133"/>
-      <c r="BF6" s="133"/>
-      <c r="BG6" s="133"/>
-      <c r="BH6" s="133"/>
-      <c r="BI6" s="138" t="s">
+      <c r="BE6" s="114"/>
+      <c r="BF6" s="114"/>
+      <c r="BG6" s="114"/>
+      <c r="BH6" s="114"/>
+      <c r="BI6" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="138"/>
-      <c r="BK6" s="138"/>
-      <c r="BL6" s="138"/>
-      <c r="BM6" s="138"/>
-      <c r="BN6" s="131"/>
-      <c r="BO6" s="132"/>
+      <c r="BJ6" s="115"/>
+      <c r="BK6" s="115"/>
+      <c r="BL6" s="115"/>
+      <c r="BM6" s="115"/>
+      <c r="BN6" s="116"/>
+      <c r="BO6" s="110"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="126" t="s">
+      <c r="B7" s="117" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="126"/>
-      <c r="E7" s="127"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="118"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -2809,12 +2809,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="126"/>
+      <c r="B8" s="117"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="126"/>
-      <c r="E8" s="124"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="119"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -3838,14 +3838,14 @@
       <c r="AML8" s="23"/>
     </row>
     <row r="9" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="122" t="s">
+      <c r="B9" s="120" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="123"/>
-      <c r="E9" s="128"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="122"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
       <c r="H9" s="103"/>
@@ -4869,12 +4869,12 @@
       <c r="AML9" s="21"/>
     </row>
     <row r="10" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B10" s="122"/>
+      <c r="B10" s="120"/>
       <c r="C10" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="123"/>
-      <c r="E10" s="129"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="123"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -5898,12 +5898,12 @@
       <c r="AML10" s="21"/>
     </row>
     <row r="11" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="122"/>
+      <c r="B11" s="120"/>
       <c r="C11" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="123"/>
-      <c r="E11" s="129"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="123"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -6927,12 +6927,12 @@
       <c r="AML11" s="21"/>
     </row>
     <row r="12" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="122"/>
+      <c r="B12" s="120"/>
       <c r="C12" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="123"/>
-      <c r="E12" s="130"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="124"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -6997,14 +6997,14 @@
       <c r="BO12" s="31"/>
     </row>
     <row r="13" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B13" s="122" t="s">
+      <c r="B13" s="120" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="123"/>
-      <c r="E13" s="124"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="119"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -7069,12 +7069,12 @@
       <c r="BO13" s="20"/>
     </row>
     <row r="14" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B14" s="122"/>
+      <c r="B14" s="120"/>
       <c r="C14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="123"/>
-      <c r="E14" s="124"/>
+      <c r="D14" s="121"/>
+      <c r="E14" s="119"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -7139,12 +7139,12 @@
       <c r="BO14" s="31"/>
     </row>
     <row r="15" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="122"/>
+      <c r="B15" s="120"/>
       <c r="C15" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="123"/>
-      <c r="E15" s="124"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="119"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -7209,12 +7209,12 @@
       <c r="BO15" s="31"/>
     </row>
     <row r="16" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B16" s="122"/>
+      <c r="B16" s="120"/>
       <c r="C16" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="123"/>
-      <c r="E16" s="124"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="119"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -7279,12 +7279,12 @@
       <c r="BO16" s="31"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B17" s="122"/>
+      <c r="B17" s="120"/>
       <c r="C17" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="123"/>
-      <c r="E17" s="124"/>
+      <c r="D17" s="121"/>
+      <c r="E17" s="119"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -7349,12 +7349,12 @@
       <c r="BO17" s="31"/>
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B18" s="122"/>
+      <c r="B18" s="120"/>
       <c r="C18" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="123"/>
-      <c r="E18" s="124"/>
+      <c r="D18" s="121"/>
+      <c r="E18" s="119"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -7419,12 +7419,12 @@
       <c r="BO18" s="31"/>
     </row>
     <row r="19" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B19" s="122"/>
+      <c r="B19" s="120"/>
       <c r="C19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="123"/>
-      <c r="E19" s="124"/>
+      <c r="D19" s="121"/>
+      <c r="E19" s="119"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -7495,8 +7495,8 @@
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="126"/>
-      <c r="E20" s="115"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="126"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -7565,8 +7565,8 @@
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="126"/>
-      <c r="E21" s="116"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="127"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -7635,8 +7635,8 @@
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="126"/>
-      <c r="E22" s="116"/>
+      <c r="D22" s="117"/>
+      <c r="E22" s="127"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -7705,8 +7705,8 @@
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="126"/>
-      <c r="E23" s="116"/>
+      <c r="D23" s="117"/>
+      <c r="E23" s="127"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -7775,8 +7775,8 @@
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="126"/>
-      <c r="E24" s="116"/>
+      <c r="D24" s="117"/>
+      <c r="E24" s="127"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -7841,14 +7841,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="111" t="s">
+      <c r="B25" s="130" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="114"/>
-      <c r="E25" s="115"/>
+      <c r="D25" s="133"/>
+      <c r="E25" s="126"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -7913,12 +7913,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="112"/>
+      <c r="B26" s="131"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="114"/>
-      <c r="E26" s="116"/>
+      <c r="D26" s="133"/>
+      <c r="E26" s="127"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -7983,12 +7983,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="112"/>
+      <c r="B27" s="131"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="114"/>
-      <c r="E27" s="116"/>
+      <c r="D27" s="133"/>
+      <c r="E27" s="127"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -8053,12 +8053,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="112"/>
+      <c r="B28" s="131"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="114"/>
-      <c r="E28" s="116"/>
+      <c r="D28" s="133"/>
+      <c r="E28" s="127"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -8123,12 +8123,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="113"/>
+      <c r="B29" s="132"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="114"/>
-      <c r="E29" s="117"/>
+      <c r="D29" s="133"/>
+      <c r="E29" s="134"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -8265,10 +8265,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="118"/>
-      <c r="C31" s="115"/>
-      <c r="D31" s="121"/>
-      <c r="E31" s="118"/>
+      <c r="B31" s="135"/>
+      <c r="C31" s="126"/>
+      <c r="D31" s="138"/>
+      <c r="E31" s="135"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -8333,10 +8333,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="119"/>
-      <c r="C32" s="116"/>
-      <c r="D32" s="121"/>
-      <c r="E32" s="119"/>
+      <c r="B32" s="136"/>
+      <c r="C32" s="127"/>
+      <c r="D32" s="138"/>
+      <c r="E32" s="136"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -8401,10 +8401,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="119"/>
-      <c r="C33" s="116"/>
-      <c r="D33" s="121"/>
-      <c r="E33" s="119"/>
+      <c r="B33" s="136"/>
+      <c r="C33" s="127"/>
+      <c r="D33" s="138"/>
+      <c r="E33" s="136"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -8469,10 +8469,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="119"/>
-      <c r="C34" s="116"/>
-      <c r="D34" s="121"/>
-      <c r="E34" s="119"/>
+      <c r="B34" s="136"/>
+      <c r="C34" s="127"/>
+      <c r="D34" s="138"/>
+      <c r="E34" s="136"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -8537,10 +8537,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="119"/>
-      <c r="C35" s="116"/>
-      <c r="D35" s="121"/>
-      <c r="E35" s="119"/>
+      <c r="B35" s="136"/>
+      <c r="C35" s="127"/>
+      <c r="D35" s="138"/>
+      <c r="E35" s="136"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -8605,10 +8605,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="119"/>
-      <c r="C36" s="116"/>
-      <c r="D36" s="121"/>
-      <c r="E36" s="119"/>
+      <c r="B36" s="136"/>
+      <c r="C36" s="127"/>
+      <c r="D36" s="138"/>
+      <c r="E36" s="136"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -8673,10 +8673,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="119"/>
-      <c r="C37" s="116"/>
-      <c r="D37" s="121"/>
-      <c r="E37" s="119"/>
+      <c r="B37" s="136"/>
+      <c r="C37" s="127"/>
+      <c r="D37" s="138"/>
+      <c r="E37" s="136"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -8741,10 +8741,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="119"/>
-      <c r="C38" s="116"/>
-      <c r="D38" s="121"/>
-      <c r="E38" s="119"/>
+      <c r="B38" s="136"/>
+      <c r="C38" s="127"/>
+      <c r="D38" s="138"/>
+      <c r="E38" s="136"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -8809,10 +8809,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="119"/>
-      <c r="C39" s="116"/>
-      <c r="D39" s="121"/>
-      <c r="E39" s="119"/>
+      <c r="B39" s="136"/>
+      <c r="C39" s="127"/>
+      <c r="D39" s="138"/>
+      <c r="E39" s="136"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -8877,10 +8877,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="119"/>
-      <c r="C40" s="116"/>
-      <c r="D40" s="121"/>
-      <c r="E40" s="119"/>
+      <c r="B40" s="136"/>
+      <c r="C40" s="127"/>
+      <c r="D40" s="138"/>
+      <c r="E40" s="136"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -8945,10 +8945,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="119"/>
-      <c r="C41" s="116"/>
-      <c r="D41" s="121"/>
-      <c r="E41" s="119"/>
+      <c r="B41" s="136"/>
+      <c r="C41" s="127"/>
+      <c r="D41" s="138"/>
+      <c r="E41" s="136"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -9013,10 +9013,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="119"/>
-      <c r="C42" s="116"/>
-      <c r="D42" s="121"/>
-      <c r="E42" s="119"/>
+      <c r="B42" s="136"/>
+      <c r="C42" s="127"/>
+      <c r="D42" s="138"/>
+      <c r="E42" s="136"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -9081,10 +9081,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="119"/>
-      <c r="C43" s="116"/>
-      <c r="D43" s="121"/>
-      <c r="E43" s="119"/>
+      <c r="B43" s="136"/>
+      <c r="C43" s="127"/>
+      <c r="D43" s="138"/>
+      <c r="E43" s="136"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -9149,10 +9149,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="119"/>
-      <c r="C44" s="116"/>
-      <c r="D44" s="121"/>
-      <c r="E44" s="119"/>
+      <c r="B44" s="136"/>
+      <c r="C44" s="127"/>
+      <c r="D44" s="138"/>
+      <c r="E44" s="136"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -9217,10 +9217,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="119"/>
-      <c r="C45" s="116"/>
-      <c r="D45" s="121"/>
-      <c r="E45" s="119"/>
+      <c r="B45" s="136"/>
+      <c r="C45" s="127"/>
+      <c r="D45" s="138"/>
+      <c r="E45" s="136"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -9285,10 +9285,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="119"/>
-      <c r="C46" s="116"/>
-      <c r="D46" s="121"/>
-      <c r="E46" s="119"/>
+      <c r="B46" s="136"/>
+      <c r="C46" s="127"/>
+      <c r="D46" s="138"/>
+      <c r="E46" s="136"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -9353,10 +9353,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="119"/>
-      <c r="C47" s="116"/>
-      <c r="D47" s="121"/>
-      <c r="E47" s="119"/>
+      <c r="B47" s="136"/>
+      <c r="C47" s="127"/>
+      <c r="D47" s="138"/>
+      <c r="E47" s="136"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -9421,10 +9421,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="119"/>
-      <c r="C48" s="116"/>
-      <c r="D48" s="121"/>
-      <c r="E48" s="119"/>
+      <c r="B48" s="136"/>
+      <c r="C48" s="127"/>
+      <c r="D48" s="138"/>
+      <c r="E48" s="136"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -9489,10 +9489,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="119"/>
-      <c r="C49" s="116"/>
-      <c r="D49" s="121"/>
-      <c r="E49" s="119"/>
+      <c r="B49" s="136"/>
+      <c r="C49" s="127"/>
+      <c r="D49" s="138"/>
+      <c r="E49" s="136"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -9557,10 +9557,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="119"/>
-      <c r="C50" s="116"/>
-      <c r="D50" s="121"/>
-      <c r="E50" s="119"/>
+      <c r="B50" s="136"/>
+      <c r="C50" s="127"/>
+      <c r="D50" s="138"/>
+      <c r="E50" s="136"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -9625,10 +9625,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="119"/>
-      <c r="C51" s="116"/>
-      <c r="D51" s="121"/>
-      <c r="E51" s="119"/>
+      <c r="B51" s="136"/>
+      <c r="C51" s="127"/>
+      <c r="D51" s="138"/>
+      <c r="E51" s="136"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -9693,10 +9693,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="119"/>
-      <c r="C52" s="116"/>
-      <c r="D52" s="121"/>
-      <c r="E52" s="119"/>
+      <c r="B52" s="136"/>
+      <c r="C52" s="127"/>
+      <c r="D52" s="138"/>
+      <c r="E52" s="136"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -9761,10 +9761,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="119"/>
-      <c r="C53" s="116"/>
-      <c r="D53" s="121"/>
-      <c r="E53" s="119"/>
+      <c r="B53" s="136"/>
+      <c r="C53" s="127"/>
+      <c r="D53" s="138"/>
+      <c r="E53" s="136"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -9829,10 +9829,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="119"/>
-      <c r="C54" s="116"/>
-      <c r="D54" s="121"/>
-      <c r="E54" s="119"/>
+      <c r="B54" s="136"/>
+      <c r="C54" s="127"/>
+      <c r="D54" s="138"/>
+      <c r="E54" s="136"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -9897,10 +9897,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="119"/>
-      <c r="C55" s="116"/>
-      <c r="D55" s="121"/>
-      <c r="E55" s="119"/>
+      <c r="B55" s="136"/>
+      <c r="C55" s="127"/>
+      <c r="D55" s="138"/>
+      <c r="E55" s="136"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -9965,10 +9965,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="119"/>
-      <c r="C56" s="116"/>
-      <c r="D56" s="121"/>
-      <c r="E56" s="119"/>
+      <c r="B56" s="136"/>
+      <c r="C56" s="127"/>
+      <c r="D56" s="138"/>
+      <c r="E56" s="136"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -10033,10 +10033,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="119"/>
-      <c r="C57" s="116"/>
-      <c r="D57" s="121"/>
-      <c r="E57" s="119"/>
+      <c r="B57" s="136"/>
+      <c r="C57" s="127"/>
+      <c r="D57" s="138"/>
+      <c r="E57" s="136"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -10096,10 +10096,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="120"/>
-      <c r="C58" s="117"/>
-      <c r="D58" s="121"/>
-      <c r="E58" s="120"/>
+      <c r="B58" s="137"/>
+      <c r="C58" s="134"/>
+      <c r="D58" s="138"/>
+      <c r="E58" s="137"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -10164,7 +10164,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="109" t="s">
+      <c r="B59" s="128" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -10236,7 +10236,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="109"/>
+      <c r="B60" s="128"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -10306,7 +10306,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="110" t="s">
+      <c r="B61" s="129" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -10378,7 +10378,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="110"/>
+      <c r="B62" s="129"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -10446,7 +10446,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="110"/>
+      <c r="B63" s="129"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -10655,6 +10655,37 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="E31:E58"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="BN5:BN6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="U6:Y6"/>
+    <mergeCell ref="Z6:AD6"/>
+    <mergeCell ref="AE6:AI6"/>
+    <mergeCell ref="AJ6:AN6"/>
+    <mergeCell ref="AO6:AS6"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
@@ -10665,37 +10696,6 @@
     <mergeCell ref="AY6:BC6"/>
     <mergeCell ref="BD6:BH6"/>
     <mergeCell ref="BI6:BM6"/>
-    <mergeCell ref="BN5:BN6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="U6:Y6"/>
-    <mergeCell ref="Z6:AD6"/>
-    <mergeCell ref="AE6:AI6"/>
-    <mergeCell ref="AJ6:AN6"/>
-    <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="E31:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10709,31 +10709,31 @@
       <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="1" max="1" width="9.125" style="4"/>
     <col min="2" max="2" width="28" style="3" customWidth="1"/>
-    <col min="3" max="3" width="65.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="65.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="2" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" style="2" customWidth="1"/>
-    <col min="6" max="65" width="2.28515625" style="3" customWidth="1"/>
-    <col min="66" max="69" width="9.140625" style="3"/>
+    <col min="5" max="5" width="29.125" style="2" customWidth="1"/>
+    <col min="6" max="65" width="2.25" style="3" customWidth="1"/>
+    <col min="66" max="69" width="9.125" style="3"/>
     <col min="70" max="70" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="14.85546875" style="3" customWidth="1"/>
+    <col min="71" max="71" width="14.875" style="3" customWidth="1"/>
     <col min="72" max="72" width="13" style="3" customWidth="1"/>
-    <col min="73" max="73" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="74" max="1026" width="9.140625" style="3"/>
-    <col min="1027" max="16384" width="9.140625" style="4"/>
+    <col min="73" max="73" width="13.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="74" max="1026" width="9.125" style="3"/>
+    <col min="1027" max="16384" width="9.125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="134" t="s">
+      <c r="B1" s="109" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
     </row>
     <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
@@ -10899,84 +10899,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="132" t="s">
+      <c r="B5" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="135" t="s">
+      <c r="C5" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="136" t="s">
+      <c r="D5" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="132" t="s">
+      <c r="E5" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="137" t="s">
+      <c r="F5" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="137"/>
-      <c r="H5" s="137"/>
-      <c r="I5" s="137"/>
-      <c r="J5" s="137"/>
-      <c r="K5" s="137"/>
-      <c r="L5" s="137"/>
-      <c r="M5" s="137"/>
-      <c r="N5" s="137"/>
-      <c r="O5" s="137"/>
-      <c r="P5" s="137"/>
-      <c r="Q5" s="137"/>
-      <c r="R5" s="137"/>
-      <c r="S5" s="137"/>
-      <c r="T5" s="137"/>
-      <c r="U5" s="137"/>
-      <c r="V5" s="137"/>
-      <c r="W5" s="137"/>
-      <c r="X5" s="137"/>
-      <c r="Y5" s="137"/>
-      <c r="Z5" s="137"/>
-      <c r="AA5" s="137"/>
-      <c r="AB5" s="137"/>
-      <c r="AC5" s="137"/>
-      <c r="AD5" s="137"/>
-      <c r="AE5" s="137"/>
-      <c r="AF5" s="137"/>
-      <c r="AG5" s="137"/>
-      <c r="AH5" s="137"/>
-      <c r="AI5" s="137"/>
-      <c r="AJ5" s="137"/>
-      <c r="AK5" s="137"/>
-      <c r="AL5" s="137"/>
-      <c r="AM5" s="137"/>
-      <c r="AN5" s="137"/>
-      <c r="AO5" s="137"/>
-      <c r="AP5" s="137"/>
-      <c r="AQ5" s="137"/>
-      <c r="AR5" s="137"/>
-      <c r="AS5" s="137"/>
-      <c r="AT5" s="137"/>
-      <c r="AU5" s="137"/>
-      <c r="AV5" s="137"/>
-      <c r="AW5" s="137"/>
-      <c r="AX5" s="137"/>
-      <c r="AY5" s="137"/>
-      <c r="AZ5" s="137"/>
-      <c r="BA5" s="137"/>
-      <c r="BB5" s="137"/>
-      <c r="BC5" s="137"/>
-      <c r="BD5" s="137"/>
-      <c r="BE5" s="137"/>
-      <c r="BF5" s="137"/>
-      <c r="BG5" s="137"/>
-      <c r="BH5" s="137"/>
-      <c r="BI5" s="137"/>
-      <c r="BJ5" s="137"/>
-      <c r="BK5" s="137"/>
-      <c r="BL5" s="137"/>
-      <c r="BM5" s="137"/>
-      <c r="BN5" s="131" t="s">
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="113"/>
+      <c r="K5" s="113"/>
+      <c r="L5" s="113"/>
+      <c r="M5" s="113"/>
+      <c r="N5" s="113"/>
+      <c r="O5" s="113"/>
+      <c r="P5" s="113"/>
+      <c r="Q5" s="113"/>
+      <c r="R5" s="113"/>
+      <c r="S5" s="113"/>
+      <c r="T5" s="113"/>
+      <c r="U5" s="113"/>
+      <c r="V5" s="113"/>
+      <c r="W5" s="113"/>
+      <c r="X5" s="113"/>
+      <c r="Y5" s="113"/>
+      <c r="Z5" s="113"/>
+      <c r="AA5" s="113"/>
+      <c r="AB5" s="113"/>
+      <c r="AC5" s="113"/>
+      <c r="AD5" s="113"/>
+      <c r="AE5" s="113"/>
+      <c r="AF5" s="113"/>
+      <c r="AG5" s="113"/>
+      <c r="AH5" s="113"/>
+      <c r="AI5" s="113"/>
+      <c r="AJ5" s="113"/>
+      <c r="AK5" s="113"/>
+      <c r="AL5" s="113"/>
+      <c r="AM5" s="113"/>
+      <c r="AN5" s="113"/>
+      <c r="AO5" s="113"/>
+      <c r="AP5" s="113"/>
+      <c r="AQ5" s="113"/>
+      <c r="AR5" s="113"/>
+      <c r="AS5" s="113"/>
+      <c r="AT5" s="113"/>
+      <c r="AU5" s="113"/>
+      <c r="AV5" s="113"/>
+      <c r="AW5" s="113"/>
+      <c r="AX5" s="113"/>
+      <c r="AY5" s="113"/>
+      <c r="AZ5" s="113"/>
+      <c r="BA5" s="113"/>
+      <c r="BB5" s="113"/>
+      <c r="BC5" s="113"/>
+      <c r="BD5" s="113"/>
+      <c r="BE5" s="113"/>
+      <c r="BF5" s="113"/>
+      <c r="BG5" s="113"/>
+      <c r="BH5" s="113"/>
+      <c r="BI5" s="113"/>
+      <c r="BJ5" s="113"/>
+      <c r="BK5" s="113"/>
+      <c r="BL5" s="113"/>
+      <c r="BM5" s="113"/>
+      <c r="BN5" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="132" t="s">
+      <c r="BO5" s="110" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -10985,107 +10985,107 @@
       <c r="BU5" s="94"/>
     </row>
     <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="132"/>
-      <c r="C6" s="135"/>
-      <c r="D6" s="136"/>
-      <c r="E6" s="132"/>
-      <c r="F6" s="133" t="s">
+      <c r="B6" s="110"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="133"/>
-      <c r="H6" s="133"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="133"/>
-      <c r="K6" s="133" t="s">
+      <c r="G6" s="114"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="114"/>
+      <c r="K6" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="133"/>
-      <c r="M6" s="133"/>
-      <c r="N6" s="133"/>
-      <c r="O6" s="133"/>
-      <c r="P6" s="133" t="s">
+      <c r="L6" s="114"/>
+      <c r="M6" s="114"/>
+      <c r="N6" s="114"/>
+      <c r="O6" s="114"/>
+      <c r="P6" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="133"/>
-      <c r="R6" s="133"/>
-      <c r="S6" s="133"/>
-      <c r="T6" s="133"/>
-      <c r="U6" s="133" t="s">
+      <c r="Q6" s="114"/>
+      <c r="R6" s="114"/>
+      <c r="S6" s="114"/>
+      <c r="T6" s="114"/>
+      <c r="U6" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="133"/>
-      <c r="W6" s="133"/>
-      <c r="X6" s="133"/>
-      <c r="Y6" s="133"/>
-      <c r="Z6" s="133" t="s">
+      <c r="V6" s="114"/>
+      <c r="W6" s="114"/>
+      <c r="X6" s="114"/>
+      <c r="Y6" s="114"/>
+      <c r="Z6" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="133"/>
-      <c r="AB6" s="133"/>
-      <c r="AC6" s="133"/>
-      <c r="AD6" s="133"/>
-      <c r="AE6" s="133" t="s">
+      <c r="AA6" s="114"/>
+      <c r="AB6" s="114"/>
+      <c r="AC6" s="114"/>
+      <c r="AD6" s="114"/>
+      <c r="AE6" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="133"/>
-      <c r="AG6" s="133"/>
-      <c r="AH6" s="133"/>
-      <c r="AI6" s="133"/>
-      <c r="AJ6" s="133" t="s">
+      <c r="AF6" s="114"/>
+      <c r="AG6" s="114"/>
+      <c r="AH6" s="114"/>
+      <c r="AI6" s="114"/>
+      <c r="AJ6" s="114" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="133"/>
-      <c r="AL6" s="133"/>
-      <c r="AM6" s="133"/>
-      <c r="AN6" s="133"/>
-      <c r="AO6" s="133" t="s">
+      <c r="AK6" s="114"/>
+      <c r="AL6" s="114"/>
+      <c r="AM6" s="114"/>
+      <c r="AN6" s="114"/>
+      <c r="AO6" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="133"/>
-      <c r="AQ6" s="133"/>
-      <c r="AR6" s="133"/>
-      <c r="AS6" s="133"/>
-      <c r="AT6" s="133" t="s">
+      <c r="AP6" s="114"/>
+      <c r="AQ6" s="114"/>
+      <c r="AR6" s="114"/>
+      <c r="AS6" s="114"/>
+      <c r="AT6" s="114" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="133"/>
-      <c r="AV6" s="133"/>
-      <c r="AW6" s="133"/>
-      <c r="AX6" s="133"/>
-      <c r="AY6" s="133" t="s">
+      <c r="AU6" s="114"/>
+      <c r="AV6" s="114"/>
+      <c r="AW6" s="114"/>
+      <c r="AX6" s="114"/>
+      <c r="AY6" s="114" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="133"/>
-      <c r="BA6" s="133"/>
-      <c r="BB6" s="133"/>
-      <c r="BC6" s="133"/>
-      <c r="BD6" s="133" t="s">
+      <c r="AZ6" s="114"/>
+      <c r="BA6" s="114"/>
+      <c r="BB6" s="114"/>
+      <c r="BC6" s="114"/>
+      <c r="BD6" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="133"/>
-      <c r="BF6" s="133"/>
-      <c r="BG6" s="133"/>
-      <c r="BH6" s="133"/>
-      <c r="BI6" s="138" t="s">
+      <c r="BE6" s="114"/>
+      <c r="BF6" s="114"/>
+      <c r="BG6" s="114"/>
+      <c r="BH6" s="114"/>
+      <c r="BI6" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="138"/>
-      <c r="BK6" s="138"/>
-      <c r="BL6" s="138"/>
-      <c r="BM6" s="138"/>
-      <c r="BN6" s="131"/>
-      <c r="BO6" s="132"/>
+      <c r="BJ6" s="115"/>
+      <c r="BK6" s="115"/>
+      <c r="BL6" s="115"/>
+      <c r="BM6" s="115"/>
+      <c r="BN6" s="116"/>
+      <c r="BO6" s="110"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="126" t="s">
+      <c r="B7" s="117" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="126"/>
-      <c r="E7" s="127"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="118"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -12110,12 +12110,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="126"/>
+      <c r="B8" s="117"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="126"/>
-      <c r="E8" s="124"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="119"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -13139,14 +13139,14 @@
       <c r="AML8" s="23"/>
     </row>
     <row r="9" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="122" t="s">
+      <c r="B9" s="120" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="123"/>
-      <c r="E9" s="128"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="122"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
       <c r="H9" s="83"/>
@@ -14170,12 +14170,12 @@
       <c r="AML9" s="21"/>
     </row>
     <row r="10" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B10" s="122"/>
+      <c r="B10" s="120"/>
       <c r="C10" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="123"/>
-      <c r="E10" s="129"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="123"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -15199,12 +15199,12 @@
       <c r="AML10" s="21"/>
     </row>
     <row r="11" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="122"/>
+      <c r="B11" s="120"/>
       <c r="C11" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="123"/>
-      <c r="E11" s="129"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="123"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -16228,12 +16228,12 @@
       <c r="AML11" s="21"/>
     </row>
     <row r="12" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="122"/>
+      <c r="B12" s="120"/>
       <c r="C12" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="123"/>
-      <c r="E12" s="130"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="124"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -16298,14 +16298,14 @@
       <c r="BO12" s="31"/>
     </row>
     <row r="13" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B13" s="122" t="s">
+      <c r="B13" s="120" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="123"/>
-      <c r="E13" s="124"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="119"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -16370,12 +16370,12 @@
       <c r="BO13" s="20"/>
     </row>
     <row r="14" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B14" s="122"/>
+      <c r="B14" s="120"/>
       <c r="C14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="123"/>
-      <c r="E14" s="124"/>
+      <c r="D14" s="121"/>
+      <c r="E14" s="119"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -16440,12 +16440,12 @@
       <c r="BO14" s="31"/>
     </row>
     <row r="15" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="122"/>
+      <c r="B15" s="120"/>
       <c r="C15" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="123"/>
-      <c r="E15" s="124"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="119"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -16510,12 +16510,12 @@
       <c r="BO15" s="31"/>
     </row>
     <row r="16" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B16" s="122"/>
+      <c r="B16" s="120"/>
       <c r="C16" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="123"/>
-      <c r="E16" s="124"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="119"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -16580,12 +16580,12 @@
       <c r="BO16" s="31"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B17" s="122"/>
+      <c r="B17" s="120"/>
       <c r="C17" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="123"/>
-      <c r="E17" s="124"/>
+      <c r="D17" s="121"/>
+      <c r="E17" s="119"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -16650,12 +16650,12 @@
       <c r="BO17" s="31"/>
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B18" s="122"/>
+      <c r="B18" s="120"/>
       <c r="C18" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="123"/>
-      <c r="E18" s="124"/>
+      <c r="D18" s="121"/>
+      <c r="E18" s="119"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -16720,12 +16720,12 @@
       <c r="BO18" s="31"/>
     </row>
     <row r="19" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B19" s="122"/>
+      <c r="B19" s="120"/>
       <c r="C19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="123"/>
-      <c r="E19" s="124"/>
+      <c r="D19" s="121"/>
+      <c r="E19" s="119"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -16796,8 +16796,8 @@
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="126"/>
-      <c r="E20" s="115"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="126"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -16866,8 +16866,8 @@
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="126"/>
-      <c r="E21" s="116"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="127"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -16936,8 +16936,8 @@
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="126"/>
-      <c r="E22" s="116"/>
+      <c r="D22" s="117"/>
+      <c r="E22" s="127"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -17006,8 +17006,8 @@
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="126"/>
-      <c r="E23" s="116"/>
+      <c r="D23" s="117"/>
+      <c r="E23" s="127"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -17076,8 +17076,8 @@
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="126"/>
-      <c r="E24" s="116"/>
+      <c r="D24" s="117"/>
+      <c r="E24" s="127"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -17142,14 +17142,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="111" t="s">
+      <c r="B25" s="130" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="114"/>
-      <c r="E25" s="115"/>
+      <c r="D25" s="133"/>
+      <c r="E25" s="126"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -17214,12 +17214,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="112"/>
+      <c r="B26" s="131"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="114"/>
-      <c r="E26" s="116"/>
+      <c r="D26" s="133"/>
+      <c r="E26" s="127"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -17284,12 +17284,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="112"/>
+      <c r="B27" s="131"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="114"/>
-      <c r="E27" s="116"/>
+      <c r="D27" s="133"/>
+      <c r="E27" s="127"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -17354,12 +17354,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="112"/>
+      <c r="B28" s="131"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="114"/>
-      <c r="E28" s="116"/>
+      <c r="D28" s="133"/>
+      <c r="E28" s="127"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -17424,12 +17424,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="113"/>
+      <c r="B29" s="132"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="114"/>
-      <c r="E29" s="117"/>
+      <c r="D29" s="133"/>
+      <c r="E29" s="134"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -17566,10 +17566,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="118"/>
-      <c r="C31" s="115"/>
-      <c r="D31" s="121"/>
-      <c r="E31" s="118"/>
+      <c r="B31" s="135"/>
+      <c r="C31" s="126"/>
+      <c r="D31" s="138"/>
+      <c r="E31" s="135"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -17634,10 +17634,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="119"/>
-      <c r="C32" s="116"/>
-      <c r="D32" s="121"/>
-      <c r="E32" s="119"/>
+      <c r="B32" s="136"/>
+      <c r="C32" s="127"/>
+      <c r="D32" s="138"/>
+      <c r="E32" s="136"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -17702,10 +17702,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="119"/>
-      <c r="C33" s="116"/>
-      <c r="D33" s="121"/>
-      <c r="E33" s="119"/>
+      <c r="B33" s="136"/>
+      <c r="C33" s="127"/>
+      <c r="D33" s="138"/>
+      <c r="E33" s="136"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -17770,10 +17770,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="119"/>
-      <c r="C34" s="116"/>
-      <c r="D34" s="121"/>
-      <c r="E34" s="119"/>
+      <c r="B34" s="136"/>
+      <c r="C34" s="127"/>
+      <c r="D34" s="138"/>
+      <c r="E34" s="136"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -17838,10 +17838,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="119"/>
-      <c r="C35" s="116"/>
-      <c r="D35" s="121"/>
-      <c r="E35" s="119"/>
+      <c r="B35" s="136"/>
+      <c r="C35" s="127"/>
+      <c r="D35" s="138"/>
+      <c r="E35" s="136"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -17906,10 +17906,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="119"/>
-      <c r="C36" s="116"/>
-      <c r="D36" s="121"/>
-      <c r="E36" s="119"/>
+      <c r="B36" s="136"/>
+      <c r="C36" s="127"/>
+      <c r="D36" s="138"/>
+      <c r="E36" s="136"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -17974,10 +17974,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="119"/>
-      <c r="C37" s="116"/>
-      <c r="D37" s="121"/>
-      <c r="E37" s="119"/>
+      <c r="B37" s="136"/>
+      <c r="C37" s="127"/>
+      <c r="D37" s="138"/>
+      <c r="E37" s="136"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -18042,10 +18042,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="119"/>
-      <c r="C38" s="116"/>
-      <c r="D38" s="121"/>
-      <c r="E38" s="119"/>
+      <c r="B38" s="136"/>
+      <c r="C38" s="127"/>
+      <c r="D38" s="138"/>
+      <c r="E38" s="136"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -18110,10 +18110,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="119"/>
-      <c r="C39" s="116"/>
-      <c r="D39" s="121"/>
-      <c r="E39" s="119"/>
+      <c r="B39" s="136"/>
+      <c r="C39" s="127"/>
+      <c r="D39" s="138"/>
+      <c r="E39" s="136"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -18178,10 +18178,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="119"/>
-      <c r="C40" s="116"/>
-      <c r="D40" s="121"/>
-      <c r="E40" s="119"/>
+      <c r="B40" s="136"/>
+      <c r="C40" s="127"/>
+      <c r="D40" s="138"/>
+      <c r="E40" s="136"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -18246,10 +18246,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="119"/>
-      <c r="C41" s="116"/>
-      <c r="D41" s="121"/>
-      <c r="E41" s="119"/>
+      <c r="B41" s="136"/>
+      <c r="C41" s="127"/>
+      <c r="D41" s="138"/>
+      <c r="E41" s="136"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -18314,10 +18314,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="119"/>
-      <c r="C42" s="116"/>
-      <c r="D42" s="121"/>
-      <c r="E42" s="119"/>
+      <c r="B42" s="136"/>
+      <c r="C42" s="127"/>
+      <c r="D42" s="138"/>
+      <c r="E42" s="136"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -18382,10 +18382,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="119"/>
-      <c r="C43" s="116"/>
-      <c r="D43" s="121"/>
-      <c r="E43" s="119"/>
+      <c r="B43" s="136"/>
+      <c r="C43" s="127"/>
+      <c r="D43" s="138"/>
+      <c r="E43" s="136"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -18450,10 +18450,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="119"/>
-      <c r="C44" s="116"/>
-      <c r="D44" s="121"/>
-      <c r="E44" s="119"/>
+      <c r="B44" s="136"/>
+      <c r="C44" s="127"/>
+      <c r="D44" s="138"/>
+      <c r="E44" s="136"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -18518,10 +18518,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="119"/>
-      <c r="C45" s="116"/>
-      <c r="D45" s="121"/>
-      <c r="E45" s="119"/>
+      <c r="B45" s="136"/>
+      <c r="C45" s="127"/>
+      <c r="D45" s="138"/>
+      <c r="E45" s="136"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -18586,10 +18586,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="119"/>
-      <c r="C46" s="116"/>
-      <c r="D46" s="121"/>
-      <c r="E46" s="119"/>
+      <c r="B46" s="136"/>
+      <c r="C46" s="127"/>
+      <c r="D46" s="138"/>
+      <c r="E46" s="136"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -18654,10 +18654,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="119"/>
-      <c r="C47" s="116"/>
-      <c r="D47" s="121"/>
-      <c r="E47" s="119"/>
+      <c r="B47" s="136"/>
+      <c r="C47" s="127"/>
+      <c r="D47" s="138"/>
+      <c r="E47" s="136"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -18722,10 +18722,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="119"/>
-      <c r="C48" s="116"/>
-      <c r="D48" s="121"/>
-      <c r="E48" s="119"/>
+      <c r="B48" s="136"/>
+      <c r="C48" s="127"/>
+      <c r="D48" s="138"/>
+      <c r="E48" s="136"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -18790,10 +18790,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="119"/>
-      <c r="C49" s="116"/>
-      <c r="D49" s="121"/>
-      <c r="E49" s="119"/>
+      <c r="B49" s="136"/>
+      <c r="C49" s="127"/>
+      <c r="D49" s="138"/>
+      <c r="E49" s="136"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -18858,10 +18858,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="119"/>
-      <c r="C50" s="116"/>
-      <c r="D50" s="121"/>
-      <c r="E50" s="119"/>
+      <c r="B50" s="136"/>
+      <c r="C50" s="127"/>
+      <c r="D50" s="138"/>
+      <c r="E50" s="136"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -18926,10 +18926,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="119"/>
-      <c r="C51" s="116"/>
-      <c r="D51" s="121"/>
-      <c r="E51" s="119"/>
+      <c r="B51" s="136"/>
+      <c r="C51" s="127"/>
+      <c r="D51" s="138"/>
+      <c r="E51" s="136"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -18994,10 +18994,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="119"/>
-      <c r="C52" s="116"/>
-      <c r="D52" s="121"/>
-      <c r="E52" s="119"/>
+      <c r="B52" s="136"/>
+      <c r="C52" s="127"/>
+      <c r="D52" s="138"/>
+      <c r="E52" s="136"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -19062,10 +19062,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="119"/>
-      <c r="C53" s="116"/>
-      <c r="D53" s="121"/>
-      <c r="E53" s="119"/>
+      <c r="B53" s="136"/>
+      <c r="C53" s="127"/>
+      <c r="D53" s="138"/>
+      <c r="E53" s="136"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -19130,10 +19130,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="119"/>
-      <c r="C54" s="116"/>
-      <c r="D54" s="121"/>
-      <c r="E54" s="119"/>
+      <c r="B54" s="136"/>
+      <c r="C54" s="127"/>
+      <c r="D54" s="138"/>
+      <c r="E54" s="136"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -19198,10 +19198,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="119"/>
-      <c r="C55" s="116"/>
-      <c r="D55" s="121"/>
-      <c r="E55" s="119"/>
+      <c r="B55" s="136"/>
+      <c r="C55" s="127"/>
+      <c r="D55" s="138"/>
+      <c r="E55" s="136"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -19266,10 +19266,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="119"/>
-      <c r="C56" s="116"/>
-      <c r="D56" s="121"/>
-      <c r="E56" s="119"/>
+      <c r="B56" s="136"/>
+      <c r="C56" s="127"/>
+      <c r="D56" s="138"/>
+      <c r="E56" s="136"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -19334,10 +19334,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="119"/>
-      <c r="C57" s="116"/>
-      <c r="D57" s="121"/>
-      <c r="E57" s="119"/>
+      <c r="B57" s="136"/>
+      <c r="C57" s="127"/>
+      <c r="D57" s="138"/>
+      <c r="E57" s="136"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -19397,10 +19397,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="120"/>
-      <c r="C58" s="117"/>
-      <c r="D58" s="121"/>
-      <c r="E58" s="120"/>
+      <c r="B58" s="137"/>
+      <c r="C58" s="134"/>
+      <c r="D58" s="138"/>
+      <c r="E58" s="137"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -19465,7 +19465,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="109" t="s">
+      <c r="B59" s="128" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -19537,7 +19537,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="109"/>
+      <c r="B60" s="128"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -19607,7 +19607,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="110" t="s">
+      <c r="B61" s="129" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -19679,7 +19679,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="110"/>
+      <c r="B62" s="129"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -19747,7 +19747,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="110"/>
+      <c r="B63" s="129"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -19956,6 +19956,37 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="E31:E58"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="BN5:BN6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="U6:Y6"/>
+    <mergeCell ref="Z6:AD6"/>
+    <mergeCell ref="AE6:AI6"/>
+    <mergeCell ref="AJ6:AN6"/>
+    <mergeCell ref="AO6:AS6"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
@@ -19966,37 +19997,6 @@
     <mergeCell ref="AY6:BC6"/>
     <mergeCell ref="BD6:BH6"/>
     <mergeCell ref="BI6:BM6"/>
-    <mergeCell ref="BN5:BN6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="U6:Y6"/>
-    <mergeCell ref="Z6:AD6"/>
-    <mergeCell ref="AE6:AI6"/>
-    <mergeCell ref="AJ6:AN6"/>
-    <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="E31:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20010,31 +20010,31 @@
       <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="1" max="1" width="9.125" style="4"/>
     <col min="2" max="2" width="28" style="3" customWidth="1"/>
-    <col min="3" max="3" width="65.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="65.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="2" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" style="2" customWidth="1"/>
-    <col min="6" max="65" width="2.28515625" style="3" customWidth="1"/>
-    <col min="66" max="69" width="9.140625" style="3"/>
+    <col min="5" max="5" width="29.125" style="2" customWidth="1"/>
+    <col min="6" max="65" width="2.25" style="3" customWidth="1"/>
+    <col min="66" max="69" width="9.125" style="3"/>
     <col min="70" max="70" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="14.85546875" style="3" customWidth="1"/>
+    <col min="71" max="71" width="14.875" style="3" customWidth="1"/>
     <col min="72" max="72" width="13" style="3" customWidth="1"/>
-    <col min="73" max="73" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="74" max="1026" width="9.140625" style="3"/>
-    <col min="1027" max="16384" width="9.140625" style="4"/>
+    <col min="73" max="73" width="13.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="74" max="1026" width="9.125" style="3"/>
+    <col min="1027" max="16384" width="9.125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="134" t="s">
+      <c r="B1" s="109" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
     </row>
     <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
@@ -20200,84 +20200,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="132" t="s">
+      <c r="B5" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="135" t="s">
+      <c r="C5" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="136" t="s">
+      <c r="D5" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="132" t="s">
+      <c r="E5" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="137" t="s">
+      <c r="F5" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="137"/>
-      <c r="H5" s="137"/>
-      <c r="I5" s="137"/>
-      <c r="J5" s="137"/>
-      <c r="K5" s="137"/>
-      <c r="L5" s="137"/>
-      <c r="M5" s="137"/>
-      <c r="N5" s="137"/>
-      <c r="O5" s="137"/>
-      <c r="P5" s="137"/>
-      <c r="Q5" s="137"/>
-      <c r="R5" s="137"/>
-      <c r="S5" s="137"/>
-      <c r="T5" s="137"/>
-      <c r="U5" s="137"/>
-      <c r="V5" s="137"/>
-      <c r="W5" s="137"/>
-      <c r="X5" s="137"/>
-      <c r="Y5" s="137"/>
-      <c r="Z5" s="137"/>
-      <c r="AA5" s="137"/>
-      <c r="AB5" s="137"/>
-      <c r="AC5" s="137"/>
-      <c r="AD5" s="137"/>
-      <c r="AE5" s="137"/>
-      <c r="AF5" s="137"/>
-      <c r="AG5" s="137"/>
-      <c r="AH5" s="137"/>
-      <c r="AI5" s="137"/>
-      <c r="AJ5" s="137"/>
-      <c r="AK5" s="137"/>
-      <c r="AL5" s="137"/>
-      <c r="AM5" s="137"/>
-      <c r="AN5" s="137"/>
-      <c r="AO5" s="137"/>
-      <c r="AP5" s="137"/>
-      <c r="AQ5" s="137"/>
-      <c r="AR5" s="137"/>
-      <c r="AS5" s="137"/>
-      <c r="AT5" s="137"/>
-      <c r="AU5" s="137"/>
-      <c r="AV5" s="137"/>
-      <c r="AW5" s="137"/>
-      <c r="AX5" s="137"/>
-      <c r="AY5" s="137"/>
-      <c r="AZ5" s="137"/>
-      <c r="BA5" s="137"/>
-      <c r="BB5" s="137"/>
-      <c r="BC5" s="137"/>
-      <c r="BD5" s="137"/>
-      <c r="BE5" s="137"/>
-      <c r="BF5" s="137"/>
-      <c r="BG5" s="137"/>
-      <c r="BH5" s="137"/>
-      <c r="BI5" s="137"/>
-      <c r="BJ5" s="137"/>
-      <c r="BK5" s="137"/>
-      <c r="BL5" s="137"/>
-      <c r="BM5" s="137"/>
-      <c r="BN5" s="131" t="s">
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="113"/>
+      <c r="K5" s="113"/>
+      <c r="L5" s="113"/>
+      <c r="M5" s="113"/>
+      <c r="N5" s="113"/>
+      <c r="O5" s="113"/>
+      <c r="P5" s="113"/>
+      <c r="Q5" s="113"/>
+      <c r="R5" s="113"/>
+      <c r="S5" s="113"/>
+      <c r="T5" s="113"/>
+      <c r="U5" s="113"/>
+      <c r="V5" s="113"/>
+      <c r="W5" s="113"/>
+      <c r="X5" s="113"/>
+      <c r="Y5" s="113"/>
+      <c r="Z5" s="113"/>
+      <c r="AA5" s="113"/>
+      <c r="AB5" s="113"/>
+      <c r="AC5" s="113"/>
+      <c r="AD5" s="113"/>
+      <c r="AE5" s="113"/>
+      <c r="AF5" s="113"/>
+      <c r="AG5" s="113"/>
+      <c r="AH5" s="113"/>
+      <c r="AI5" s="113"/>
+      <c r="AJ5" s="113"/>
+      <c r="AK5" s="113"/>
+      <c r="AL5" s="113"/>
+      <c r="AM5" s="113"/>
+      <c r="AN5" s="113"/>
+      <c r="AO5" s="113"/>
+      <c r="AP5" s="113"/>
+      <c r="AQ5" s="113"/>
+      <c r="AR5" s="113"/>
+      <c r="AS5" s="113"/>
+      <c r="AT5" s="113"/>
+      <c r="AU5" s="113"/>
+      <c r="AV5" s="113"/>
+      <c r="AW5" s="113"/>
+      <c r="AX5" s="113"/>
+      <c r="AY5" s="113"/>
+      <c r="AZ5" s="113"/>
+      <c r="BA5" s="113"/>
+      <c r="BB5" s="113"/>
+      <c r="BC5" s="113"/>
+      <c r="BD5" s="113"/>
+      <c r="BE5" s="113"/>
+      <c r="BF5" s="113"/>
+      <c r="BG5" s="113"/>
+      <c r="BH5" s="113"/>
+      <c r="BI5" s="113"/>
+      <c r="BJ5" s="113"/>
+      <c r="BK5" s="113"/>
+      <c r="BL5" s="113"/>
+      <c r="BM5" s="113"/>
+      <c r="BN5" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="132" t="s">
+      <c r="BO5" s="110" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -20286,107 +20286,107 @@
       <c r="BU5" s="94"/>
     </row>
     <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="132"/>
-      <c r="C6" s="135"/>
-      <c r="D6" s="136"/>
-      <c r="E6" s="132"/>
-      <c r="F6" s="133" t="s">
+      <c r="B6" s="110"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="133"/>
-      <c r="H6" s="133"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="133"/>
-      <c r="K6" s="133" t="s">
+      <c r="G6" s="114"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="114"/>
+      <c r="K6" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="133"/>
-      <c r="M6" s="133"/>
-      <c r="N6" s="133"/>
-      <c r="O6" s="133"/>
-      <c r="P6" s="133" t="s">
+      <c r="L6" s="114"/>
+      <c r="M6" s="114"/>
+      <c r="N6" s="114"/>
+      <c r="O6" s="114"/>
+      <c r="P6" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="133"/>
-      <c r="R6" s="133"/>
-      <c r="S6" s="133"/>
-      <c r="T6" s="133"/>
-      <c r="U6" s="133" t="s">
+      <c r="Q6" s="114"/>
+      <c r="R6" s="114"/>
+      <c r="S6" s="114"/>
+      <c r="T6" s="114"/>
+      <c r="U6" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="133"/>
-      <c r="W6" s="133"/>
-      <c r="X6" s="133"/>
-      <c r="Y6" s="133"/>
-      <c r="Z6" s="133" t="s">
+      <c r="V6" s="114"/>
+      <c r="W6" s="114"/>
+      <c r="X6" s="114"/>
+      <c r="Y6" s="114"/>
+      <c r="Z6" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="133"/>
-      <c r="AB6" s="133"/>
-      <c r="AC6" s="133"/>
-      <c r="AD6" s="133"/>
-      <c r="AE6" s="133" t="s">
+      <c r="AA6" s="114"/>
+      <c r="AB6" s="114"/>
+      <c r="AC6" s="114"/>
+      <c r="AD6" s="114"/>
+      <c r="AE6" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="133"/>
-      <c r="AG6" s="133"/>
-      <c r="AH6" s="133"/>
-      <c r="AI6" s="133"/>
-      <c r="AJ6" s="133" t="s">
+      <c r="AF6" s="114"/>
+      <c r="AG6" s="114"/>
+      <c r="AH6" s="114"/>
+      <c r="AI6" s="114"/>
+      <c r="AJ6" s="114" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="133"/>
-      <c r="AL6" s="133"/>
-      <c r="AM6" s="133"/>
-      <c r="AN6" s="133"/>
-      <c r="AO6" s="133" t="s">
+      <c r="AK6" s="114"/>
+      <c r="AL6" s="114"/>
+      <c r="AM6" s="114"/>
+      <c r="AN6" s="114"/>
+      <c r="AO6" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="133"/>
-      <c r="AQ6" s="133"/>
-      <c r="AR6" s="133"/>
-      <c r="AS6" s="133"/>
-      <c r="AT6" s="133" t="s">
+      <c r="AP6" s="114"/>
+      <c r="AQ6" s="114"/>
+      <c r="AR6" s="114"/>
+      <c r="AS6" s="114"/>
+      <c r="AT6" s="114" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="133"/>
-      <c r="AV6" s="133"/>
-      <c r="AW6" s="133"/>
-      <c r="AX6" s="133"/>
-      <c r="AY6" s="133" t="s">
+      <c r="AU6" s="114"/>
+      <c r="AV6" s="114"/>
+      <c r="AW6" s="114"/>
+      <c r="AX6" s="114"/>
+      <c r="AY6" s="114" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="133"/>
-      <c r="BA6" s="133"/>
-      <c r="BB6" s="133"/>
-      <c r="BC6" s="133"/>
-      <c r="BD6" s="133" t="s">
+      <c r="AZ6" s="114"/>
+      <c r="BA6" s="114"/>
+      <c r="BB6" s="114"/>
+      <c r="BC6" s="114"/>
+      <c r="BD6" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="133"/>
-      <c r="BF6" s="133"/>
-      <c r="BG6" s="133"/>
-      <c r="BH6" s="133"/>
-      <c r="BI6" s="138" t="s">
+      <c r="BE6" s="114"/>
+      <c r="BF6" s="114"/>
+      <c r="BG6" s="114"/>
+      <c r="BH6" s="114"/>
+      <c r="BI6" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="138"/>
-      <c r="BK6" s="138"/>
-      <c r="BL6" s="138"/>
-      <c r="BM6" s="138"/>
-      <c r="BN6" s="131"/>
-      <c r="BO6" s="132"/>
+      <c r="BJ6" s="115"/>
+      <c r="BK6" s="115"/>
+      <c r="BL6" s="115"/>
+      <c r="BM6" s="115"/>
+      <c r="BN6" s="116"/>
+      <c r="BO6" s="110"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="126" t="s">
+      <c r="B7" s="117" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="126"/>
-      <c r="E7" s="127"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="118"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -21411,12 +21411,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="126"/>
+      <c r="B8" s="117"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="126"/>
-      <c r="E8" s="124"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="119"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -22440,14 +22440,14 @@
       <c r="AML8" s="23"/>
     </row>
     <row r="9" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="122" t="s">
+      <c r="B9" s="120" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="123"/>
-      <c r="E9" s="128"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="122"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
       <c r="H9" s="83"/>
@@ -23471,12 +23471,12 @@
       <c r="AML9" s="21"/>
     </row>
     <row r="10" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B10" s="122"/>
+      <c r="B10" s="120"/>
       <c r="C10" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="123"/>
-      <c r="E10" s="129"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="123"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -24500,12 +24500,12 @@
       <c r="AML10" s="21"/>
     </row>
     <row r="11" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="122"/>
+      <c r="B11" s="120"/>
       <c r="C11" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="123"/>
-      <c r="E11" s="129"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="123"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -25529,12 +25529,12 @@
       <c r="AML11" s="21"/>
     </row>
     <row r="12" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="122"/>
+      <c r="B12" s="120"/>
       <c r="C12" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="123"/>
-      <c r="E12" s="130"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="124"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -25599,14 +25599,14 @@
       <c r="BO12" s="31"/>
     </row>
     <row r="13" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B13" s="122" t="s">
+      <c r="B13" s="120" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="123"/>
-      <c r="E13" s="124"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="119"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -25671,12 +25671,12 @@
       <c r="BO13" s="20"/>
     </row>
     <row r="14" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B14" s="122"/>
+      <c r="B14" s="120"/>
       <c r="C14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="123"/>
-      <c r="E14" s="124"/>
+      <c r="D14" s="121"/>
+      <c r="E14" s="119"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -25741,12 +25741,12 @@
       <c r="BO14" s="31"/>
     </row>
     <row r="15" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="122"/>
+      <c r="B15" s="120"/>
       <c r="C15" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="123"/>
-      <c r="E15" s="124"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="119"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -25811,12 +25811,12 @@
       <c r="BO15" s="31"/>
     </row>
     <row r="16" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B16" s="122"/>
+      <c r="B16" s="120"/>
       <c r="C16" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="123"/>
-      <c r="E16" s="124"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="119"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -25881,12 +25881,12 @@
       <c r="BO16" s="31"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B17" s="122"/>
+      <c r="B17" s="120"/>
       <c r="C17" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="123"/>
-      <c r="E17" s="124"/>
+      <c r="D17" s="121"/>
+      <c r="E17" s="119"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -25951,12 +25951,12 @@
       <c r="BO17" s="31"/>
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B18" s="122"/>
+      <c r="B18" s="120"/>
       <c r="C18" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="123"/>
-      <c r="E18" s="124"/>
+      <c r="D18" s="121"/>
+      <c r="E18" s="119"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -26021,12 +26021,12 @@
       <c r="BO18" s="31"/>
     </row>
     <row r="19" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B19" s="122"/>
+      <c r="B19" s="120"/>
       <c r="C19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="123"/>
-      <c r="E19" s="124"/>
+      <c r="D19" s="121"/>
+      <c r="E19" s="119"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -26097,8 +26097,8 @@
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="126"/>
-      <c r="E20" s="115"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="126"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -26167,8 +26167,8 @@
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="126"/>
-      <c r="E21" s="116"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="127"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -26237,8 +26237,8 @@
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="126"/>
-      <c r="E22" s="116"/>
+      <c r="D22" s="117"/>
+      <c r="E22" s="127"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -26307,8 +26307,8 @@
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="126"/>
-      <c r="E23" s="116"/>
+      <c r="D23" s="117"/>
+      <c r="E23" s="127"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -26377,8 +26377,8 @@
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="126"/>
-      <c r="E24" s="116"/>
+      <c r="D24" s="117"/>
+      <c r="E24" s="127"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -26443,14 +26443,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="111" t="s">
+      <c r="B25" s="130" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="114"/>
-      <c r="E25" s="115"/>
+      <c r="D25" s="133"/>
+      <c r="E25" s="126"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -26515,12 +26515,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="112"/>
+      <c r="B26" s="131"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="114"/>
-      <c r="E26" s="116"/>
+      <c r="D26" s="133"/>
+      <c r="E26" s="127"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -26585,12 +26585,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="112"/>
+      <c r="B27" s="131"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="114"/>
-      <c r="E27" s="116"/>
+      <c r="D27" s="133"/>
+      <c r="E27" s="127"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -26655,12 +26655,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="112"/>
+      <c r="B28" s="131"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="114"/>
-      <c r="E28" s="116"/>
+      <c r="D28" s="133"/>
+      <c r="E28" s="127"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -26725,12 +26725,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="113"/>
+      <c r="B29" s="132"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="114"/>
-      <c r="E29" s="117"/>
+      <c r="D29" s="133"/>
+      <c r="E29" s="134"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -26867,10 +26867,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="118"/>
-      <c r="C31" s="115"/>
-      <c r="D31" s="121"/>
-      <c r="E31" s="118"/>
+      <c r="B31" s="135"/>
+      <c r="C31" s="126"/>
+      <c r="D31" s="138"/>
+      <c r="E31" s="135"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -26935,10 +26935,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="119"/>
-      <c r="C32" s="116"/>
-      <c r="D32" s="121"/>
-      <c r="E32" s="119"/>
+      <c r="B32" s="136"/>
+      <c r="C32" s="127"/>
+      <c r="D32" s="138"/>
+      <c r="E32" s="136"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -27003,10 +27003,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="119"/>
-      <c r="C33" s="116"/>
-      <c r="D33" s="121"/>
-      <c r="E33" s="119"/>
+      <c r="B33" s="136"/>
+      <c r="C33" s="127"/>
+      <c r="D33" s="138"/>
+      <c r="E33" s="136"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -27071,10 +27071,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="119"/>
-      <c r="C34" s="116"/>
-      <c r="D34" s="121"/>
-      <c r="E34" s="119"/>
+      <c r="B34" s="136"/>
+      <c r="C34" s="127"/>
+      <c r="D34" s="138"/>
+      <c r="E34" s="136"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -27139,10 +27139,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="119"/>
-      <c r="C35" s="116"/>
-      <c r="D35" s="121"/>
-      <c r="E35" s="119"/>
+      <c r="B35" s="136"/>
+      <c r="C35" s="127"/>
+      <c r="D35" s="138"/>
+      <c r="E35" s="136"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -27207,10 +27207,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="119"/>
-      <c r="C36" s="116"/>
-      <c r="D36" s="121"/>
-      <c r="E36" s="119"/>
+      <c r="B36" s="136"/>
+      <c r="C36" s="127"/>
+      <c r="D36" s="138"/>
+      <c r="E36" s="136"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -27275,10 +27275,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="119"/>
-      <c r="C37" s="116"/>
-      <c r="D37" s="121"/>
-      <c r="E37" s="119"/>
+      <c r="B37" s="136"/>
+      <c r="C37" s="127"/>
+      <c r="D37" s="138"/>
+      <c r="E37" s="136"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -27343,10 +27343,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="119"/>
-      <c r="C38" s="116"/>
-      <c r="D38" s="121"/>
-      <c r="E38" s="119"/>
+      <c r="B38" s="136"/>
+      <c r="C38" s="127"/>
+      <c r="D38" s="138"/>
+      <c r="E38" s="136"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -27411,10 +27411,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="119"/>
-      <c r="C39" s="116"/>
-      <c r="D39" s="121"/>
-      <c r="E39" s="119"/>
+      <c r="B39" s="136"/>
+      <c r="C39" s="127"/>
+      <c r="D39" s="138"/>
+      <c r="E39" s="136"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -27479,10 +27479,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="119"/>
-      <c r="C40" s="116"/>
-      <c r="D40" s="121"/>
-      <c r="E40" s="119"/>
+      <c r="B40" s="136"/>
+      <c r="C40" s="127"/>
+      <c r="D40" s="138"/>
+      <c r="E40" s="136"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -27547,10 +27547,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="119"/>
-      <c r="C41" s="116"/>
-      <c r="D41" s="121"/>
-      <c r="E41" s="119"/>
+      <c r="B41" s="136"/>
+      <c r="C41" s="127"/>
+      <c r="D41" s="138"/>
+      <c r="E41" s="136"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -27615,10 +27615,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="119"/>
-      <c r="C42" s="116"/>
-      <c r="D42" s="121"/>
-      <c r="E42" s="119"/>
+      <c r="B42" s="136"/>
+      <c r="C42" s="127"/>
+      <c r="D42" s="138"/>
+      <c r="E42" s="136"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -27683,10 +27683,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="119"/>
-      <c r="C43" s="116"/>
-      <c r="D43" s="121"/>
-      <c r="E43" s="119"/>
+      <c r="B43" s="136"/>
+      <c r="C43" s="127"/>
+      <c r="D43" s="138"/>
+      <c r="E43" s="136"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -27751,10 +27751,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="119"/>
-      <c r="C44" s="116"/>
-      <c r="D44" s="121"/>
-      <c r="E44" s="119"/>
+      <c r="B44" s="136"/>
+      <c r="C44" s="127"/>
+      <c r="D44" s="138"/>
+      <c r="E44" s="136"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -27819,10 +27819,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="119"/>
-      <c r="C45" s="116"/>
-      <c r="D45" s="121"/>
-      <c r="E45" s="119"/>
+      <c r="B45" s="136"/>
+      <c r="C45" s="127"/>
+      <c r="D45" s="138"/>
+      <c r="E45" s="136"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -27887,10 +27887,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="119"/>
-      <c r="C46" s="116"/>
-      <c r="D46" s="121"/>
-      <c r="E46" s="119"/>
+      <c r="B46" s="136"/>
+      <c r="C46" s="127"/>
+      <c r="D46" s="138"/>
+      <c r="E46" s="136"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -27955,10 +27955,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="119"/>
-      <c r="C47" s="116"/>
-      <c r="D47" s="121"/>
-      <c r="E47" s="119"/>
+      <c r="B47" s="136"/>
+      <c r="C47" s="127"/>
+      <c r="D47" s="138"/>
+      <c r="E47" s="136"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -28023,10 +28023,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="119"/>
-      <c r="C48" s="116"/>
-      <c r="D48" s="121"/>
-      <c r="E48" s="119"/>
+      <c r="B48" s="136"/>
+      <c r="C48" s="127"/>
+      <c r="D48" s="138"/>
+      <c r="E48" s="136"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -28091,10 +28091,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="119"/>
-      <c r="C49" s="116"/>
-      <c r="D49" s="121"/>
-      <c r="E49" s="119"/>
+      <c r="B49" s="136"/>
+      <c r="C49" s="127"/>
+      <c r="D49" s="138"/>
+      <c r="E49" s="136"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -28159,10 +28159,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="119"/>
-      <c r="C50" s="116"/>
-      <c r="D50" s="121"/>
-      <c r="E50" s="119"/>
+      <c r="B50" s="136"/>
+      <c r="C50" s="127"/>
+      <c r="D50" s="138"/>
+      <c r="E50" s="136"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -28227,10 +28227,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="119"/>
-      <c r="C51" s="116"/>
-      <c r="D51" s="121"/>
-      <c r="E51" s="119"/>
+      <c r="B51" s="136"/>
+      <c r="C51" s="127"/>
+      <c r="D51" s="138"/>
+      <c r="E51" s="136"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -28295,10 +28295,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="119"/>
-      <c r="C52" s="116"/>
-      <c r="D52" s="121"/>
-      <c r="E52" s="119"/>
+      <c r="B52" s="136"/>
+      <c r="C52" s="127"/>
+      <c r="D52" s="138"/>
+      <c r="E52" s="136"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -28363,10 +28363,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="119"/>
-      <c r="C53" s="116"/>
-      <c r="D53" s="121"/>
-      <c r="E53" s="119"/>
+      <c r="B53" s="136"/>
+      <c r="C53" s="127"/>
+      <c r="D53" s="138"/>
+      <c r="E53" s="136"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -28431,10 +28431,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="119"/>
-      <c r="C54" s="116"/>
-      <c r="D54" s="121"/>
-      <c r="E54" s="119"/>
+      <c r="B54" s="136"/>
+      <c r="C54" s="127"/>
+      <c r="D54" s="138"/>
+      <c r="E54" s="136"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -28499,10 +28499,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="119"/>
-      <c r="C55" s="116"/>
-      <c r="D55" s="121"/>
-      <c r="E55" s="119"/>
+      <c r="B55" s="136"/>
+      <c r="C55" s="127"/>
+      <c r="D55" s="138"/>
+      <c r="E55" s="136"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -28567,10 +28567,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="119"/>
-      <c r="C56" s="116"/>
-      <c r="D56" s="121"/>
-      <c r="E56" s="119"/>
+      <c r="B56" s="136"/>
+      <c r="C56" s="127"/>
+      <c r="D56" s="138"/>
+      <c r="E56" s="136"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -28635,10 +28635,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="119"/>
-      <c r="C57" s="116"/>
-      <c r="D57" s="121"/>
-      <c r="E57" s="119"/>
+      <c r="B57" s="136"/>
+      <c r="C57" s="127"/>
+      <c r="D57" s="138"/>
+      <c r="E57" s="136"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -28698,10 +28698,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="120"/>
-      <c r="C58" s="117"/>
-      <c r="D58" s="121"/>
-      <c r="E58" s="120"/>
+      <c r="B58" s="137"/>
+      <c r="C58" s="134"/>
+      <c r="D58" s="138"/>
+      <c r="E58" s="137"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -28766,7 +28766,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="109" t="s">
+      <c r="B59" s="128" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -28838,7 +28838,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="109"/>
+      <c r="B60" s="128"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -28908,7 +28908,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="110" t="s">
+      <c r="B61" s="129" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -28980,7 +28980,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="110"/>
+      <c r="B62" s="129"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -29048,7 +29048,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="110"/>
+      <c r="B63" s="129"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -29257,6 +29257,37 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="E31:E58"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="BN5:BN6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="U6:Y6"/>
+    <mergeCell ref="Z6:AD6"/>
+    <mergeCell ref="AE6:AI6"/>
+    <mergeCell ref="AJ6:AN6"/>
+    <mergeCell ref="AO6:AS6"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
@@ -29267,37 +29298,6 @@
     <mergeCell ref="AY6:BC6"/>
     <mergeCell ref="BD6:BH6"/>
     <mergeCell ref="BI6:BM6"/>
-    <mergeCell ref="BN5:BN6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="U6:Y6"/>
-    <mergeCell ref="Z6:AD6"/>
-    <mergeCell ref="AE6:AI6"/>
-    <mergeCell ref="AJ6:AN6"/>
-    <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="E31:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -29311,31 +29311,31 @@
       <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="1" max="1" width="9.125" style="4"/>
     <col min="2" max="2" width="28" style="3" customWidth="1"/>
-    <col min="3" max="3" width="65.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="65.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="2" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" style="2" customWidth="1"/>
-    <col min="6" max="65" width="2.28515625" style="3" customWidth="1"/>
-    <col min="66" max="69" width="9.140625" style="3"/>
+    <col min="5" max="5" width="29.125" style="2" customWidth="1"/>
+    <col min="6" max="65" width="2.25" style="3" customWidth="1"/>
+    <col min="66" max="69" width="9.125" style="3"/>
     <col min="70" max="70" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="14.85546875" style="3" customWidth="1"/>
+    <col min="71" max="71" width="14.875" style="3" customWidth="1"/>
     <col min="72" max="72" width="13" style="3" customWidth="1"/>
-    <col min="73" max="73" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="74" max="1026" width="9.140625" style="3"/>
-    <col min="1027" max="16384" width="9.140625" style="4"/>
+    <col min="73" max="73" width="13.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="74" max="1026" width="9.125" style="3"/>
+    <col min="1027" max="16384" width="9.125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="134" t="s">
+      <c r="B1" s="109" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
     </row>
     <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
@@ -29501,84 +29501,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="132" t="s">
+      <c r="B5" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="135" t="s">
+      <c r="C5" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="136" t="s">
+      <c r="D5" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="132" t="s">
+      <c r="E5" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="137" t="s">
+      <c r="F5" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="137"/>
-      <c r="H5" s="137"/>
-      <c r="I5" s="137"/>
-      <c r="J5" s="137"/>
-      <c r="K5" s="137"/>
-      <c r="L5" s="137"/>
-      <c r="M5" s="137"/>
-      <c r="N5" s="137"/>
-      <c r="O5" s="137"/>
-      <c r="P5" s="137"/>
-      <c r="Q5" s="137"/>
-      <c r="R5" s="137"/>
-      <c r="S5" s="137"/>
-      <c r="T5" s="137"/>
-      <c r="U5" s="137"/>
-      <c r="V5" s="137"/>
-      <c r="W5" s="137"/>
-      <c r="X5" s="137"/>
-      <c r="Y5" s="137"/>
-      <c r="Z5" s="137"/>
-      <c r="AA5" s="137"/>
-      <c r="AB5" s="137"/>
-      <c r="AC5" s="137"/>
-      <c r="AD5" s="137"/>
-      <c r="AE5" s="137"/>
-      <c r="AF5" s="137"/>
-      <c r="AG5" s="137"/>
-      <c r="AH5" s="137"/>
-      <c r="AI5" s="137"/>
-      <c r="AJ5" s="137"/>
-      <c r="AK5" s="137"/>
-      <c r="AL5" s="137"/>
-      <c r="AM5" s="137"/>
-      <c r="AN5" s="137"/>
-      <c r="AO5" s="137"/>
-      <c r="AP5" s="137"/>
-      <c r="AQ5" s="137"/>
-      <c r="AR5" s="137"/>
-      <c r="AS5" s="137"/>
-      <c r="AT5" s="137"/>
-      <c r="AU5" s="137"/>
-      <c r="AV5" s="137"/>
-      <c r="AW5" s="137"/>
-      <c r="AX5" s="137"/>
-      <c r="AY5" s="137"/>
-      <c r="AZ5" s="137"/>
-      <c r="BA5" s="137"/>
-      <c r="BB5" s="137"/>
-      <c r="BC5" s="137"/>
-      <c r="BD5" s="137"/>
-      <c r="BE5" s="137"/>
-      <c r="BF5" s="137"/>
-      <c r="BG5" s="137"/>
-      <c r="BH5" s="137"/>
-      <c r="BI5" s="137"/>
-      <c r="BJ5" s="137"/>
-      <c r="BK5" s="137"/>
-      <c r="BL5" s="137"/>
-      <c r="BM5" s="137"/>
-      <c r="BN5" s="131" t="s">
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="113"/>
+      <c r="K5" s="113"/>
+      <c r="L5" s="113"/>
+      <c r="M5" s="113"/>
+      <c r="N5" s="113"/>
+      <c r="O5" s="113"/>
+      <c r="P5" s="113"/>
+      <c r="Q5" s="113"/>
+      <c r="R5" s="113"/>
+      <c r="S5" s="113"/>
+      <c r="T5" s="113"/>
+      <c r="U5" s="113"/>
+      <c r="V5" s="113"/>
+      <c r="W5" s="113"/>
+      <c r="X5" s="113"/>
+      <c r="Y5" s="113"/>
+      <c r="Z5" s="113"/>
+      <c r="AA5" s="113"/>
+      <c r="AB5" s="113"/>
+      <c r="AC5" s="113"/>
+      <c r="AD5" s="113"/>
+      <c r="AE5" s="113"/>
+      <c r="AF5" s="113"/>
+      <c r="AG5" s="113"/>
+      <c r="AH5" s="113"/>
+      <c r="AI5" s="113"/>
+      <c r="AJ5" s="113"/>
+      <c r="AK5" s="113"/>
+      <c r="AL5" s="113"/>
+      <c r="AM5" s="113"/>
+      <c r="AN5" s="113"/>
+      <c r="AO5" s="113"/>
+      <c r="AP5" s="113"/>
+      <c r="AQ5" s="113"/>
+      <c r="AR5" s="113"/>
+      <c r="AS5" s="113"/>
+      <c r="AT5" s="113"/>
+      <c r="AU5" s="113"/>
+      <c r="AV5" s="113"/>
+      <c r="AW5" s="113"/>
+      <c r="AX5" s="113"/>
+      <c r="AY5" s="113"/>
+      <c r="AZ5" s="113"/>
+      <c r="BA5" s="113"/>
+      <c r="BB5" s="113"/>
+      <c r="BC5" s="113"/>
+      <c r="BD5" s="113"/>
+      <c r="BE5" s="113"/>
+      <c r="BF5" s="113"/>
+      <c r="BG5" s="113"/>
+      <c r="BH5" s="113"/>
+      <c r="BI5" s="113"/>
+      <c r="BJ5" s="113"/>
+      <c r="BK5" s="113"/>
+      <c r="BL5" s="113"/>
+      <c r="BM5" s="113"/>
+      <c r="BN5" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="132" t="s">
+      <c r="BO5" s="110" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -29587,107 +29587,107 @@
       <c r="BU5" s="94"/>
     </row>
     <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="132"/>
-      <c r="C6" s="135"/>
-      <c r="D6" s="136"/>
-      <c r="E6" s="132"/>
-      <c r="F6" s="133" t="s">
+      <c r="B6" s="110"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="133"/>
-      <c r="H6" s="133"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="133"/>
-      <c r="K6" s="133" t="s">
+      <c r="G6" s="114"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="114"/>
+      <c r="K6" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="133"/>
-      <c r="M6" s="133"/>
-      <c r="N6" s="133"/>
-      <c r="O6" s="133"/>
-      <c r="P6" s="133" t="s">
+      <c r="L6" s="114"/>
+      <c r="M6" s="114"/>
+      <c r="N6" s="114"/>
+      <c r="O6" s="114"/>
+      <c r="P6" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="133"/>
-      <c r="R6" s="133"/>
-      <c r="S6" s="133"/>
-      <c r="T6" s="133"/>
-      <c r="U6" s="133" t="s">
+      <c r="Q6" s="114"/>
+      <c r="R6" s="114"/>
+      <c r="S6" s="114"/>
+      <c r="T6" s="114"/>
+      <c r="U6" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="133"/>
-      <c r="W6" s="133"/>
-      <c r="X6" s="133"/>
-      <c r="Y6" s="133"/>
-      <c r="Z6" s="133" t="s">
+      <c r="V6" s="114"/>
+      <c r="W6" s="114"/>
+      <c r="X6" s="114"/>
+      <c r="Y6" s="114"/>
+      <c r="Z6" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="133"/>
-      <c r="AB6" s="133"/>
-      <c r="AC6" s="133"/>
-      <c r="AD6" s="133"/>
-      <c r="AE6" s="133" t="s">
+      <c r="AA6" s="114"/>
+      <c r="AB6" s="114"/>
+      <c r="AC6" s="114"/>
+      <c r="AD6" s="114"/>
+      <c r="AE6" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="133"/>
-      <c r="AG6" s="133"/>
-      <c r="AH6" s="133"/>
-      <c r="AI6" s="133"/>
-      <c r="AJ6" s="133" t="s">
+      <c r="AF6" s="114"/>
+      <c r="AG6" s="114"/>
+      <c r="AH6" s="114"/>
+      <c r="AI6" s="114"/>
+      <c r="AJ6" s="114" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="133"/>
-      <c r="AL6" s="133"/>
-      <c r="AM6" s="133"/>
-      <c r="AN6" s="133"/>
-      <c r="AO6" s="133" t="s">
+      <c r="AK6" s="114"/>
+      <c r="AL6" s="114"/>
+      <c r="AM6" s="114"/>
+      <c r="AN6" s="114"/>
+      <c r="AO6" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="133"/>
-      <c r="AQ6" s="133"/>
-      <c r="AR6" s="133"/>
-      <c r="AS6" s="133"/>
-      <c r="AT6" s="133" t="s">
+      <c r="AP6" s="114"/>
+      <c r="AQ6" s="114"/>
+      <c r="AR6" s="114"/>
+      <c r="AS6" s="114"/>
+      <c r="AT6" s="114" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="133"/>
-      <c r="AV6" s="133"/>
-      <c r="AW6" s="133"/>
-      <c r="AX6" s="133"/>
-      <c r="AY6" s="133" t="s">
+      <c r="AU6" s="114"/>
+      <c r="AV6" s="114"/>
+      <c r="AW6" s="114"/>
+      <c r="AX6" s="114"/>
+      <c r="AY6" s="114" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="133"/>
-      <c r="BA6" s="133"/>
-      <c r="BB6" s="133"/>
-      <c r="BC6" s="133"/>
-      <c r="BD6" s="133" t="s">
+      <c r="AZ6" s="114"/>
+      <c r="BA6" s="114"/>
+      <c r="BB6" s="114"/>
+      <c r="BC6" s="114"/>
+      <c r="BD6" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="133"/>
-      <c r="BF6" s="133"/>
-      <c r="BG6" s="133"/>
-      <c r="BH6" s="133"/>
-      <c r="BI6" s="138" t="s">
+      <c r="BE6" s="114"/>
+      <c r="BF6" s="114"/>
+      <c r="BG6" s="114"/>
+      <c r="BH6" s="114"/>
+      <c r="BI6" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="138"/>
-      <c r="BK6" s="138"/>
-      <c r="BL6" s="138"/>
-      <c r="BM6" s="138"/>
-      <c r="BN6" s="131"/>
-      <c r="BO6" s="132"/>
+      <c r="BJ6" s="115"/>
+      <c r="BK6" s="115"/>
+      <c r="BL6" s="115"/>
+      <c r="BM6" s="115"/>
+      <c r="BN6" s="116"/>
+      <c r="BO6" s="110"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="126" t="s">
+      <c r="B7" s="117" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="126"/>
-      <c r="E7" s="127"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="118"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -30712,12 +30712,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="126"/>
+      <c r="B8" s="117"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="126"/>
-      <c r="E8" s="124"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="119"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -31741,14 +31741,14 @@
       <c r="AML8" s="23"/>
     </row>
     <row r="9" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="122" t="s">
+      <c r="B9" s="120" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="123"/>
-      <c r="E9" s="128"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="122"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
       <c r="H9" s="83"/>
@@ -32772,12 +32772,12 @@
       <c r="AML9" s="21"/>
     </row>
     <row r="10" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B10" s="122"/>
+      <c r="B10" s="120"/>
       <c r="C10" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="123"/>
-      <c r="E10" s="129"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="123"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -33801,12 +33801,12 @@
       <c r="AML10" s="21"/>
     </row>
     <row r="11" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="122"/>
+      <c r="B11" s="120"/>
       <c r="C11" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="123"/>
-      <c r="E11" s="129"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="123"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -34830,12 +34830,12 @@
       <c r="AML11" s="21"/>
     </row>
     <row r="12" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="122"/>
+      <c r="B12" s="120"/>
       <c r="C12" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="123"/>
-      <c r="E12" s="130"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="124"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -34900,14 +34900,14 @@
       <c r="BO12" s="31"/>
     </row>
     <row r="13" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B13" s="122" t="s">
+      <c r="B13" s="120" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="123"/>
-      <c r="E13" s="124"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="119"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -34972,12 +34972,12 @@
       <c r="BO13" s="20"/>
     </row>
     <row r="14" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B14" s="122"/>
+      <c r="B14" s="120"/>
       <c r="C14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="123"/>
-      <c r="E14" s="124"/>
+      <c r="D14" s="121"/>
+      <c r="E14" s="119"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -35042,12 +35042,12 @@
       <c r="BO14" s="31"/>
     </row>
     <row r="15" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="122"/>
+      <c r="B15" s="120"/>
       <c r="C15" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="123"/>
-      <c r="E15" s="124"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="119"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -35112,12 +35112,12 @@
       <c r="BO15" s="31"/>
     </row>
     <row r="16" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B16" s="122"/>
+      <c r="B16" s="120"/>
       <c r="C16" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="123"/>
-      <c r="E16" s="124"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="119"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -35182,12 +35182,12 @@
       <c r="BO16" s="31"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B17" s="122"/>
+      <c r="B17" s="120"/>
       <c r="C17" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="123"/>
-      <c r="E17" s="124"/>
+      <c r="D17" s="121"/>
+      <c r="E17" s="119"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -35252,12 +35252,12 @@
       <c r="BO17" s="31"/>
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B18" s="122"/>
+      <c r="B18" s="120"/>
       <c r="C18" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="123"/>
-      <c r="E18" s="124"/>
+      <c r="D18" s="121"/>
+      <c r="E18" s="119"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -35322,12 +35322,12 @@
       <c r="BO18" s="31"/>
     </row>
     <row r="19" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B19" s="122"/>
+      <c r="B19" s="120"/>
       <c r="C19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="123"/>
-      <c r="E19" s="124"/>
+      <c r="D19" s="121"/>
+      <c r="E19" s="119"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -35398,8 +35398,8 @@
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="126"/>
-      <c r="E20" s="115"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="126"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -35468,8 +35468,8 @@
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="126"/>
-      <c r="E21" s="116"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="127"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -35538,8 +35538,8 @@
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="126"/>
-      <c r="E22" s="116"/>
+      <c r="D22" s="117"/>
+      <c r="E22" s="127"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -35608,8 +35608,8 @@
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="126"/>
-      <c r="E23" s="116"/>
+      <c r="D23" s="117"/>
+      <c r="E23" s="127"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -35678,8 +35678,8 @@
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="126"/>
-      <c r="E24" s="116"/>
+      <c r="D24" s="117"/>
+      <c r="E24" s="127"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -35744,14 +35744,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="111" t="s">
+      <c r="B25" s="130" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="114"/>
-      <c r="E25" s="115"/>
+      <c r="D25" s="133"/>
+      <c r="E25" s="126"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -35816,12 +35816,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="112"/>
+      <c r="B26" s="131"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="114"/>
-      <c r="E26" s="116"/>
+      <c r="D26" s="133"/>
+      <c r="E26" s="127"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -35886,12 +35886,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="112"/>
+      <c r="B27" s="131"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="114"/>
-      <c r="E27" s="116"/>
+      <c r="D27" s="133"/>
+      <c r="E27" s="127"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -35956,12 +35956,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="112"/>
+      <c r="B28" s="131"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="114"/>
-      <c r="E28" s="116"/>
+      <c r="D28" s="133"/>
+      <c r="E28" s="127"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -36026,12 +36026,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="113"/>
+      <c r="B29" s="132"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="114"/>
-      <c r="E29" s="117"/>
+      <c r="D29" s="133"/>
+      <c r="E29" s="134"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -36168,10 +36168,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="118"/>
-      <c r="C31" s="115"/>
-      <c r="D31" s="121"/>
-      <c r="E31" s="118"/>
+      <c r="B31" s="135"/>
+      <c r="C31" s="126"/>
+      <c r="D31" s="138"/>
+      <c r="E31" s="135"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -36236,10 +36236,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="119"/>
-      <c r="C32" s="116"/>
-      <c r="D32" s="121"/>
-      <c r="E32" s="119"/>
+      <c r="B32" s="136"/>
+      <c r="C32" s="127"/>
+      <c r="D32" s="138"/>
+      <c r="E32" s="136"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -36304,10 +36304,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="119"/>
-      <c r="C33" s="116"/>
-      <c r="D33" s="121"/>
-      <c r="E33" s="119"/>
+      <c r="B33" s="136"/>
+      <c r="C33" s="127"/>
+      <c r="D33" s="138"/>
+      <c r="E33" s="136"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -36372,10 +36372,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="119"/>
-      <c r="C34" s="116"/>
-      <c r="D34" s="121"/>
-      <c r="E34" s="119"/>
+      <c r="B34" s="136"/>
+      <c r="C34" s="127"/>
+      <c r="D34" s="138"/>
+      <c r="E34" s="136"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -36440,10 +36440,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="119"/>
-      <c r="C35" s="116"/>
-      <c r="D35" s="121"/>
-      <c r="E35" s="119"/>
+      <c r="B35" s="136"/>
+      <c r="C35" s="127"/>
+      <c r="D35" s="138"/>
+      <c r="E35" s="136"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -36508,10 +36508,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="119"/>
-      <c r="C36" s="116"/>
-      <c r="D36" s="121"/>
-      <c r="E36" s="119"/>
+      <c r="B36" s="136"/>
+      <c r="C36" s="127"/>
+      <c r="D36" s="138"/>
+      <c r="E36" s="136"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -36576,10 +36576,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="119"/>
-      <c r="C37" s="116"/>
-      <c r="D37" s="121"/>
-      <c r="E37" s="119"/>
+      <c r="B37" s="136"/>
+      <c r="C37" s="127"/>
+      <c r="D37" s="138"/>
+      <c r="E37" s="136"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -36644,10 +36644,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="119"/>
-      <c r="C38" s="116"/>
-      <c r="D38" s="121"/>
-      <c r="E38" s="119"/>
+      <c r="B38" s="136"/>
+      <c r="C38" s="127"/>
+      <c r="D38" s="138"/>
+      <c r="E38" s="136"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -36712,10 +36712,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="119"/>
-      <c r="C39" s="116"/>
-      <c r="D39" s="121"/>
-      <c r="E39" s="119"/>
+      <c r="B39" s="136"/>
+      <c r="C39" s="127"/>
+      <c r="D39" s="138"/>
+      <c r="E39" s="136"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -36780,10 +36780,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="119"/>
-      <c r="C40" s="116"/>
-      <c r="D40" s="121"/>
-      <c r="E40" s="119"/>
+      <c r="B40" s="136"/>
+      <c r="C40" s="127"/>
+      <c r="D40" s="138"/>
+      <c r="E40" s="136"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -36848,10 +36848,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="119"/>
-      <c r="C41" s="116"/>
-      <c r="D41" s="121"/>
-      <c r="E41" s="119"/>
+      <c r="B41" s="136"/>
+      <c r="C41" s="127"/>
+      <c r="D41" s="138"/>
+      <c r="E41" s="136"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -36916,10 +36916,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="119"/>
-      <c r="C42" s="116"/>
-      <c r="D42" s="121"/>
-      <c r="E42" s="119"/>
+      <c r="B42" s="136"/>
+      <c r="C42" s="127"/>
+      <c r="D42" s="138"/>
+      <c r="E42" s="136"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -36984,10 +36984,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="119"/>
-      <c r="C43" s="116"/>
-      <c r="D43" s="121"/>
-      <c r="E43" s="119"/>
+      <c r="B43" s="136"/>
+      <c r="C43" s="127"/>
+      <c r="D43" s="138"/>
+      <c r="E43" s="136"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -37052,10 +37052,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="119"/>
-      <c r="C44" s="116"/>
-      <c r="D44" s="121"/>
-      <c r="E44" s="119"/>
+      <c r="B44" s="136"/>
+      <c r="C44" s="127"/>
+      <c r="D44" s="138"/>
+      <c r="E44" s="136"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -37120,10 +37120,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="119"/>
-      <c r="C45" s="116"/>
-      <c r="D45" s="121"/>
-      <c r="E45" s="119"/>
+      <c r="B45" s="136"/>
+      <c r="C45" s="127"/>
+      <c r="D45" s="138"/>
+      <c r="E45" s="136"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -37188,10 +37188,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="119"/>
-      <c r="C46" s="116"/>
-      <c r="D46" s="121"/>
-      <c r="E46" s="119"/>
+      <c r="B46" s="136"/>
+      <c r="C46" s="127"/>
+      <c r="D46" s="138"/>
+      <c r="E46" s="136"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -37256,10 +37256,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="119"/>
-      <c r="C47" s="116"/>
-      <c r="D47" s="121"/>
-      <c r="E47" s="119"/>
+      <c r="B47" s="136"/>
+      <c r="C47" s="127"/>
+      <c r="D47" s="138"/>
+      <c r="E47" s="136"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -37324,10 +37324,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="119"/>
-      <c r="C48" s="116"/>
-      <c r="D48" s="121"/>
-      <c r="E48" s="119"/>
+      <c r="B48" s="136"/>
+      <c r="C48" s="127"/>
+      <c r="D48" s="138"/>
+      <c r="E48" s="136"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -37392,10 +37392,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="119"/>
-      <c r="C49" s="116"/>
-      <c r="D49" s="121"/>
-      <c r="E49" s="119"/>
+      <c r="B49" s="136"/>
+      <c r="C49" s="127"/>
+      <c r="D49" s="138"/>
+      <c r="E49" s="136"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -37460,10 +37460,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="119"/>
-      <c r="C50" s="116"/>
-      <c r="D50" s="121"/>
-      <c r="E50" s="119"/>
+      <c r="B50" s="136"/>
+      <c r="C50" s="127"/>
+      <c r="D50" s="138"/>
+      <c r="E50" s="136"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -37528,10 +37528,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="119"/>
-      <c r="C51" s="116"/>
-      <c r="D51" s="121"/>
-      <c r="E51" s="119"/>
+      <c r="B51" s="136"/>
+      <c r="C51" s="127"/>
+      <c r="D51" s="138"/>
+      <c r="E51" s="136"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -37596,10 +37596,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="119"/>
-      <c r="C52" s="116"/>
-      <c r="D52" s="121"/>
-      <c r="E52" s="119"/>
+      <c r="B52" s="136"/>
+      <c r="C52" s="127"/>
+      <c r="D52" s="138"/>
+      <c r="E52" s="136"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -37664,10 +37664,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="119"/>
-      <c r="C53" s="116"/>
-      <c r="D53" s="121"/>
-      <c r="E53" s="119"/>
+      <c r="B53" s="136"/>
+      <c r="C53" s="127"/>
+      <c r="D53" s="138"/>
+      <c r="E53" s="136"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -37732,10 +37732,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="119"/>
-      <c r="C54" s="116"/>
-      <c r="D54" s="121"/>
-      <c r="E54" s="119"/>
+      <c r="B54" s="136"/>
+      <c r="C54" s="127"/>
+      <c r="D54" s="138"/>
+      <c r="E54" s="136"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -37800,10 +37800,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="119"/>
-      <c r="C55" s="116"/>
-      <c r="D55" s="121"/>
-      <c r="E55" s="119"/>
+      <c r="B55" s="136"/>
+      <c r="C55" s="127"/>
+      <c r="D55" s="138"/>
+      <c r="E55" s="136"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -37868,10 +37868,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="119"/>
-      <c r="C56" s="116"/>
-      <c r="D56" s="121"/>
-      <c r="E56" s="119"/>
+      <c r="B56" s="136"/>
+      <c r="C56" s="127"/>
+      <c r="D56" s="138"/>
+      <c r="E56" s="136"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -37936,10 +37936,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="119"/>
-      <c r="C57" s="116"/>
-      <c r="D57" s="121"/>
-      <c r="E57" s="119"/>
+      <c r="B57" s="136"/>
+      <c r="C57" s="127"/>
+      <c r="D57" s="138"/>
+      <c r="E57" s="136"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -37999,10 +37999,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="120"/>
-      <c r="C58" s="117"/>
-      <c r="D58" s="121"/>
-      <c r="E58" s="120"/>
+      <c r="B58" s="137"/>
+      <c r="C58" s="134"/>
+      <c r="D58" s="138"/>
+      <c r="E58" s="137"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -38067,7 +38067,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="109" t="s">
+      <c r="B59" s="128" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -38139,7 +38139,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="109"/>
+      <c r="B60" s="128"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -38209,7 +38209,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="110" t="s">
+      <c r="B61" s="129" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -38281,7 +38281,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="110"/>
+      <c r="B62" s="129"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -38349,7 +38349,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="110"/>
+      <c r="B63" s="129"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -38558,6 +38558,37 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="E31:E58"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="BN5:BN6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="U6:Y6"/>
+    <mergeCell ref="Z6:AD6"/>
+    <mergeCell ref="AE6:AI6"/>
+    <mergeCell ref="AJ6:AN6"/>
+    <mergeCell ref="AO6:AS6"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
@@ -38568,37 +38599,6 @@
     <mergeCell ref="AY6:BC6"/>
     <mergeCell ref="BD6:BH6"/>
     <mergeCell ref="BI6:BM6"/>
-    <mergeCell ref="BN5:BN6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="U6:Y6"/>
-    <mergeCell ref="Z6:AD6"/>
-    <mergeCell ref="AE6:AI6"/>
-    <mergeCell ref="AJ6:AN6"/>
-    <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="E31:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -38608,35 +38608,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AML65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AB16" sqref="AB16"/>
+    <sheetView topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AB18" sqref="AB18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHe